--- a/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -196,6 +196,39 @@
   </si>
   <si>
     <t xml:space="preserve">Combination/Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.AwardTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.sum7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Award</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pur. Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOA or BPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSS or GWAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlbd. IDV</t>
   </si>
 </sst>
 </file>
@@ -4569,10 +4602,10 @@
   <sheetData>
     <row r="1">
       <c r="N1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="O1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="P1" t="s">
         <v>1</v>
@@ -4679,10 +4712,10 @@
     </row>
     <row r="2">
       <c r="N2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="P2"/>
       <c r="Q2"/>
@@ -4695,84 +4728,84 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>7745409866.4287</v>
+        <v>8021951004</v>
       </c>
       <c r="AA2" t="n">
-        <v>9365489431.6874</v>
+        <v>8320647985</v>
       </c>
       <c r="AB2" t="n">
-        <v>10261062296.0877</v>
+        <v>8800065378.6094</v>
       </c>
       <c r="AC2" t="n">
-        <v>13927889331.964</v>
+        <v>9404475634.0487</v>
       </c>
       <c r="AD2" t="n">
-        <v>17718446729.6663</v>
+        <v>10909289692.7472</v>
       </c>
       <c r="AE2" t="n">
-        <v>20006698311.5627</v>
+        <v>12674014351.0174</v>
       </c>
       <c r="AF2" t="n">
-        <v>23590550916.16</v>
+        <v>11694723004.5789</v>
       </c>
       <c r="AG2" t="n">
-        <v>27713303440.4714</v>
+        <v>13703810682.6111</v>
       </c>
       <c r="AH2" t="n">
-        <v>29279795135.5725</v>
+        <v>13721927317.2913</v>
       </c>
       <c r="AI2" t="n">
-        <v>28917543429.9633</v>
+        <v>13379463793.1479</v>
       </c>
       <c r="AJ2" t="n">
-        <v>30663895756.9403</v>
+        <v>13835225170.1946</v>
       </c>
       <c r="AK2" t="n">
-        <v>28185090296.6477</v>
+        <v>14562778368.9755</v>
       </c>
       <c r="AL2" t="n">
-        <v>29396220082.02</v>
+        <v>14921680726.0337</v>
       </c>
       <c r="AM2" t="n">
-        <v>24834689731.2118</v>
+        <v>12695078651.8236</v>
       </c>
       <c r="AN2" t="n">
-        <v>25032277394.0532</v>
+        <v>12240530174.9698</v>
       </c>
       <c r="AO2" t="n">
-        <v>24505678968.4119</v>
+        <v>12034468796.1706</v>
       </c>
       <c r="AP2" t="n">
-        <v>25791705919.4623</v>
+        <v>11861189132.9223</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26845599544.7238</v>
+        <v>12250042498.617</v>
       </c>
       <c r="AR2" t="n">
-        <v>31994252515.3208</v>
+        <v>13227171028.5887</v>
       </c>
       <c r="AS2" t="n">
-        <v>34192852294.0024</v>
+        <v>13044785404.6434</v>
       </c>
       <c r="AT2" t="n">
-        <v>34502358757.4437</v>
+        <v>13102504225.1953</v>
       </c>
       <c r="AU2" t="n">
-        <v>31125639346.0963</v>
+        <v>11969037894.5947</v>
       </c>
       <c r="AV2" t="n">
-        <v>33048419165.1799</v>
+        <v>13045110411.5948</v>
       </c>
       <c r="AW2" t="n">
-        <v>14626524313.5635</v>
+        <v>6375796644.3276</v>
       </c>
     </row>
     <row r="3">
       <c r="N3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P3"/>
       <c r="Q3"/>
@@ -4785,84 +4818,84 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3" t="n">
-        <v>351263617</v>
+        <v>569933792.0107</v>
       </c>
       <c r="AA3" t="n">
-        <v>910786484.5408</v>
+        <v>661192807.9501</v>
       </c>
       <c r="AB3" t="n">
-        <v>646264465</v>
+        <v>899529703.0931</v>
       </c>
       <c r="AC3" t="n">
-        <v>793441443.5</v>
+        <v>1531265623.7691</v>
       </c>
       <c r="AD3" t="n">
-        <v>986688633.6206</v>
+        <v>1656253985.0566</v>
       </c>
       <c r="AE3" t="n">
-        <v>1077885901.5297</v>
+        <v>1813231636.5276</v>
       </c>
       <c r="AF3" t="n">
-        <v>553242238.9113</v>
+        <v>2003895788.5089</v>
       </c>
       <c r="AG3" t="n">
-        <v>386969561.8881</v>
+        <v>2163684328.8482</v>
       </c>
       <c r="AH3" t="n">
-        <v>594426627.5902</v>
+        <v>2336536175.264</v>
       </c>
       <c r="AI3" t="n">
-        <v>537478893.2873</v>
+        <v>2268100101.3824</v>
       </c>
       <c r="AJ3" t="n">
-        <v>684468646.1753</v>
+        <v>2800899168.6457</v>
       </c>
       <c r="AK3" t="n">
-        <v>1134877810.7948</v>
+        <v>2405583139.7334</v>
       </c>
       <c r="AL3" t="n">
-        <v>362692336.111</v>
+        <v>1867667940.7792</v>
       </c>
       <c r="AM3" t="n">
-        <v>167024104.8643</v>
+        <v>1770856043.4629</v>
       </c>
       <c r="AN3" t="n">
-        <v>103291895.5268</v>
+        <v>1789042810.7525</v>
       </c>
       <c r="AO3" t="n">
-        <v>131801684.8803</v>
+        <v>1655747576.1878</v>
       </c>
       <c r="AP3" t="n">
-        <v>188200819.8463</v>
+        <v>1859852739.6639</v>
       </c>
       <c r="AQ3" t="n">
-        <v>72065956.0363</v>
+        <v>1707853741.751</v>
       </c>
       <c r="AR3" t="n">
-        <v>113243602.0722</v>
+        <v>2117423568.424</v>
       </c>
       <c r="AS3" t="n">
-        <v>86293626.4005</v>
+        <v>2382009496.5678</v>
       </c>
       <c r="AT3" t="n">
-        <v>91330766.8958</v>
+        <v>2080233501.5545</v>
       </c>
       <c r="AU3" t="n">
-        <v>179981442.6027</v>
+        <v>1980240436.3709</v>
       </c>
       <c r="AV3" t="n">
-        <v>280510565.1576</v>
+        <v>2191809031.7026</v>
       </c>
       <c r="AW3" t="n">
-        <v>115561021.6707</v>
+        <v>797655186.1526</v>
       </c>
     </row>
     <row r="4">
       <c r="N4" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P4"/>
       <c r="Q4"/>
@@ -4875,84 +4908,84 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4" t="n">
-        <v>1872242063.2094</v>
+        <v>6020297</v>
       </c>
       <c r="AA4" t="n">
-        <v>1711195301.9999</v>
+        <v>8764615</v>
       </c>
       <c r="AB4" t="n">
-        <v>2193214227.6811</v>
+        <v>22280053</v>
       </c>
       <c r="AC4" t="n">
-        <v>3246531633.0533</v>
+        <v>20611069</v>
       </c>
       <c r="AD4" t="n">
-        <v>4084153850.8455</v>
+        <v>49463752.6406</v>
       </c>
       <c r="AE4" t="n">
-        <v>5522774020.5523</v>
+        <v>10740762.4004</v>
       </c>
       <c r="AF4" t="n">
-        <v>6394675350.2036</v>
+        <v>1916858.1523</v>
       </c>
       <c r="AG4" t="n">
-        <v>8079268735.7749</v>
+        <v>2949517.3293</v>
       </c>
       <c r="AH4" t="n">
-        <v>8310577598.401</v>
+        <v>886182.2947</v>
       </c>
       <c r="AI4" t="n">
-        <v>7389243494.1793</v>
+        <v>249107.5315</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7082022035.5353</v>
+        <v>142438111.8816</v>
       </c>
       <c r="AK4" t="n">
-        <v>4318518817.8775</v>
+        <v>558733141.0291</v>
       </c>
       <c r="AL4" t="n">
-        <v>1991126208.0814</v>
+        <v>1698920294.4379</v>
       </c>
       <c r="AM4" t="n">
-        <v>870175553.7347</v>
+        <v>1565261894.8145</v>
       </c>
       <c r="AN4" t="n">
-        <v>627734141.7625</v>
+        <v>2014570385.4959</v>
       </c>
       <c r="AO4" t="n">
-        <v>477583914.5411</v>
+        <v>2244920320.5975</v>
       </c>
       <c r="AP4" t="n">
-        <v>560963783.9982</v>
+        <v>2672270699.6757</v>
       </c>
       <c r="AQ4" t="n">
-        <v>541606517.3411</v>
+        <v>3002665004.1604</v>
       </c>
       <c r="AR4" t="n">
-        <v>510576105.6518</v>
+        <v>2727364629.2919</v>
       </c>
       <c r="AS4" t="n">
-        <v>461925072.8385</v>
+        <v>2830066094.7689</v>
       </c>
       <c r="AT4" t="n">
-        <v>469803369.5043</v>
+        <v>3797977289.3471</v>
       </c>
       <c r="AU4" t="n">
-        <v>-14599833.4175</v>
+        <v>3305576451.3215</v>
       </c>
       <c r="AV4" t="n">
-        <v>534502114.3888</v>
+        <v>3769401768.7207</v>
       </c>
       <c r="AW4" t="n">
-        <v>350135007.872</v>
+        <v>2330103062.1281</v>
       </c>
     </row>
     <row r="5">
       <c r="N5" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
@@ -4965,84 +4998,84 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5" t="n">
-        <v>418939429</v>
+        <v>3049492820.6242</v>
       </c>
       <c r="AA5" t="n">
-        <v>410489407</v>
+        <v>3676007171.7866</v>
       </c>
       <c r="AB5" t="n">
-        <v>1080790156</v>
+        <v>4906711088.6817</v>
       </c>
       <c r="AC5" t="n">
-        <v>1037676424</v>
+        <v>5760222461.4176</v>
       </c>
       <c r="AD5" t="n">
-        <v>847635772</v>
+        <v>6156186637.1155</v>
       </c>
       <c r="AE5" t="n">
-        <v>1117765653.1602</v>
+        <v>5568600373.6984</v>
       </c>
       <c r="AF5" t="n">
-        <v>1112505652.6105</v>
+        <v>5855173525.891</v>
       </c>
       <c r="AG5" t="n">
-        <v>831477106.426</v>
+        <v>5083413419.9099</v>
       </c>
       <c r="AH5" t="n">
-        <v>825862732.9017</v>
+        <v>4755775894.8999</v>
       </c>
       <c r="AI5" t="n">
-        <v>877324654.5554</v>
+        <v>4294989815.897</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2035459607.72</v>
+        <v>3680607177.0905</v>
       </c>
       <c r="AK5" t="n">
-        <v>2181515114.5837</v>
+        <v>3742241892.9962</v>
       </c>
       <c r="AL5" t="n">
-        <v>1823707152.5427</v>
+        <v>3882247217.4846</v>
       </c>
       <c r="AM5" t="n">
-        <v>2105131324.5821</v>
+        <v>3415196013.1486</v>
       </c>
       <c r="AN5" t="n">
-        <v>3061035752.9761</v>
+        <v>3750486385.5302</v>
       </c>
       <c r="AO5" t="n">
-        <v>2444038534.535</v>
+        <v>3567942996.0224</v>
       </c>
       <c r="AP5" t="n">
-        <v>3584284892.3796</v>
+        <v>4389831743.714</v>
       </c>
       <c r="AQ5" t="n">
-        <v>3712244208.7281</v>
+        <v>4559299074.1103</v>
       </c>
       <c r="AR5" t="n">
-        <v>3075956189.6551</v>
+        <v>5482781269.3213</v>
       </c>
       <c r="AS5" t="n">
-        <v>3740473923.6574</v>
+        <v>6370341549.8303</v>
       </c>
       <c r="AT5" t="n">
-        <v>4043092692.9331</v>
+        <v>7161491866.5726</v>
       </c>
       <c r="AU5" t="n">
-        <v>3383221172.6934</v>
+        <v>7210249885.9536</v>
       </c>
       <c r="AV5" t="n">
-        <v>4999872807.408</v>
+        <v>7617431058.9485</v>
       </c>
       <c r="AW5" t="n">
-        <v>2766622413.9943</v>
+        <v>2791132144.9824</v>
       </c>
     </row>
     <row r="6">
       <c r="N6" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
@@ -5055,84 +5088,84 @@
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6" t="n">
-        <v>5131200658.1172</v>
+        <v>1690688628.5122</v>
       </c>
       <c r="AA6" t="n">
-        <v>5100026501.7071</v>
+        <v>2161405920.635</v>
       </c>
       <c r="AB6" t="n">
-        <v>5955519489.22</v>
+        <v>2399483211.1437</v>
       </c>
       <c r="AC6" t="n">
-        <v>7025395312.6037</v>
+        <v>3518251142.647</v>
       </c>
       <c r="AD6" t="n">
-        <v>8006755847.5671</v>
+        <v>4579292388.2287</v>
       </c>
       <c r="AE6" t="n">
-        <v>8894373021.9812</v>
+        <v>5927497306.4152</v>
       </c>
       <c r="AF6" t="n">
-        <v>9253374271.4146</v>
+        <v>7214091634.3839</v>
       </c>
       <c r="AG6" t="n">
-        <v>10561921547.1397</v>
+        <v>10845510088.3655</v>
       </c>
       <c r="AH6" t="n">
-        <v>11198190212.8784</v>
+        <v>12805516702.4137</v>
       </c>
       <c r="AI6" t="n">
-        <v>10905405012.357</v>
+        <v>13504584508.019</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12625358750.8069</v>
+        <v>13441887015.1903</v>
       </c>
       <c r="AK6" t="n">
-        <v>14400767146.0502</v>
+        <v>11415329842.375</v>
       </c>
       <c r="AL6" t="n">
-        <v>13984870220.1961</v>
+        <v>10595283772.0612</v>
       </c>
       <c r="AM6" t="n">
-        <v>11811848954.9703</v>
+        <v>8100145466.8103</v>
       </c>
       <c r="AN6" t="n">
-        <v>10937778421.2594</v>
+        <v>8047329816.3908</v>
       </c>
       <c r="AO6" t="n">
-        <v>11166325215.6848</v>
+        <v>7994739454.7514</v>
       </c>
       <c r="AP6" t="n">
-        <v>11949242310.9642</v>
+        <v>9534663039.1326</v>
       </c>
       <c r="AQ6" t="n">
-        <v>12577414811.1868</v>
+        <v>10472211309.202</v>
       </c>
       <c r="AR6" t="n">
-        <v>14110510627.4617</v>
+        <v>11221462309.7786</v>
       </c>
       <c r="AS6" t="n">
-        <v>15192987435.5439</v>
+        <v>11519216329.875</v>
       </c>
       <c r="AT6" t="n">
-        <v>15225977738.9764</v>
+        <v>11209099613.624</v>
       </c>
       <c r="AU6" t="n">
-        <v>14012405429.6442</v>
+        <v>9139108047.9776</v>
       </c>
       <c r="AV6" t="n">
-        <v>13638663594.8197</v>
+        <v>9591251136.8508</v>
       </c>
       <c r="AW6" t="n">
-        <v>6434368340.8512</v>
+        <v>3714565356.0927</v>
       </c>
     </row>
     <row r="7">
       <c r="N7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="P7"/>
       <c r="Q7"/>
@@ -5145,84 +5178,84 @@
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7" t="n">
-        <v>572636615</v>
+        <v>6685242888.1716</v>
       </c>
       <c r="AA7" t="n">
-        <v>700276049.875</v>
+        <v>7196565333.5191</v>
       </c>
       <c r="AB7" t="n">
-        <v>762655276</v>
+        <v>8465772490.1727</v>
       </c>
       <c r="AC7" t="n">
-        <v>819932062</v>
+        <v>11099974783.9154</v>
       </c>
       <c r="AD7" t="n">
-        <v>1386045997</v>
+        <v>14093263209.8866</v>
       </c>
       <c r="AE7" t="n">
-        <v>2098175267.1875</v>
+        <v>16204300246.5388</v>
       </c>
       <c r="AF7" t="n">
-        <v>1586235192.373</v>
+        <v>18394347507.6953</v>
       </c>
       <c r="AG7" t="n">
-        <v>1731491457.1049</v>
+        <v>20638429310.0387</v>
       </c>
       <c r="AH7" t="n">
-        <v>1165626022.0423</v>
+        <v>23320366127.9944</v>
       </c>
       <c r="AI7" t="n">
-        <v>1608472749.4224</v>
+        <v>21891280927.6122</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2681972519.1245</v>
+        <v>21735339234.222</v>
       </c>
       <c r="AK7" t="n">
-        <v>2059411573.4266</v>
+        <v>19210711836.2831</v>
       </c>
       <c r="AL7" t="n">
-        <v>1764305123.303</v>
+        <v>16055360139.0089</v>
       </c>
       <c r="AM7" t="n">
-        <v>931772516.5176</v>
+        <v>13215958405.1536</v>
       </c>
       <c r="AN7" t="n">
-        <v>615529782.1261</v>
+        <v>12626701594.8814</v>
       </c>
       <c r="AO7" t="n">
-        <v>664256316.377</v>
+        <v>11745129487.4611</v>
       </c>
       <c r="AP7" t="n">
-        <v>1009232434.8681</v>
+        <v>12954144404.1901</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1520885804.4895</v>
+        <v>13606741860.1639</v>
       </c>
       <c r="AR7" t="n">
-        <v>1179133714.7599</v>
+        <v>16206943127.23</v>
       </c>
       <c r="AS7" t="n">
-        <v>1250667059.2506</v>
+        <v>18778831439.5665</v>
       </c>
       <c r="AT7" t="n">
-        <v>1024117345.9261</v>
+        <v>18005374175.3859</v>
       </c>
       <c r="AU7" t="n">
-        <v>917836539.796</v>
+        <v>15999439159.9116</v>
       </c>
       <c r="AV7" t="n">
-        <v>1085388156.924</v>
+        <v>17372820458.0606</v>
       </c>
       <c r="AW7" t="n">
-        <v>601338122.6111</v>
+        <v>8885296826.8794</v>
       </c>
     </row>
     <row r="8">
       <c r="N8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
@@ -5235,68 +5268,72 @@
       <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8" t="n">
-        <v>630815.8438</v>
+        <v>726998529.4882</v>
       </c>
       <c r="AA8" t="n">
-        <v>165305</v>
+        <v>362137212</v>
       </c>
       <c r="AB8" t="n">
-        <v>21370907</v>
+        <v>309450827.5508</v>
       </c>
       <c r="AC8" t="n">
-        <v>95453350.9297</v>
+        <v>148887007</v>
       </c>
       <c r="AD8" t="n">
-        <v>193097212.1778</v>
+        <v>87227836</v>
       </c>
       <c r="AE8" t="n">
-        <v>355929347.3939</v>
+        <v>33778913</v>
       </c>
       <c r="AF8" t="n">
-        <v>689542514.8119</v>
+        <v>38156531.3298</v>
       </c>
       <c r="AG8" t="n">
-        <v>2737039346.3235</v>
+        <v>15807920.515</v>
       </c>
       <c r="AH8" t="n">
-        <v>4183647377.3102</v>
+        <v>11448284.1413</v>
       </c>
       <c r="AI8" t="n">
-        <v>4737546063.5601</v>
+        <v>7016275.9828</v>
       </c>
       <c r="AJ8" t="n">
-        <v>268866937.412</v>
+        <v>484540600.4697</v>
       </c>
       <c r="AK8" t="n">
-        <v>117347085.451</v>
+        <v>522697657.5646</v>
       </c>
       <c r="AL8" t="n">
-        <v>2583647.7504</v>
+        <v>599055450.8974</v>
       </c>
       <c r="AM8" t="n">
-        <v>7700463.98</v>
+        <v>350138960.9436</v>
       </c>
       <c r="AN8" t="n">
-        <v>-7419796.22</v>
+        <v>385411959.2752</v>
       </c>
       <c r="AO8" t="n">
-        <v>147331.4063</v>
-      </c>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
+        <v>372004164.4054</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>32232953.4636</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>109449604.243</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>526822.287</v>
+      </c>
       <c r="AS8"/>
       <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8" t="n">
-        <v>467462</v>
-      </c>
+      <c r="AU8" t="n">
+        <v>832221.2852</v>
+      </c>
+      <c r="AV8"/>
       <c r="AW8"/>
     </row>
     <row r="9">
-      <c r="N9" t="s">
-        <v>58</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" t="n">
         <v>19702439894</v>
@@ -5329,84 +5366,78 @@
         <v>19571291342</v>
       </c>
       <c r="Z9" t="n">
-        <v>4658353200.2078</v>
+        <v>348305</v>
       </c>
       <c r="AA9" t="n">
-        <v>4188292564.0806</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>4882415935.2626</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4537368163.7471</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>4309222044.7979</v>
+        <v>1068586</v>
       </c>
       <c r="AE9" t="n">
-        <v>3159644066.2303</v>
+        <v>1082000</v>
       </c>
       <c r="AF9" t="n">
-        <v>2022379043.0552</v>
+        <v>200329</v>
       </c>
       <c r="AG9" t="n">
-        <v>412801072.4892</v>
+        <v>667000</v>
       </c>
       <c r="AH9" t="n">
-        <v>1394330977.603</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>372670232.248</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>78892223.9801</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>20548034.1254</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>294710770.6983</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>384292786.2963</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>483845535.8117</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>225120829.7598</v>
+        <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>220554551.2435</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>438446249.742</v>
-      </c>
-      <c r="AR9" t="n">
         <v>0</v>
       </c>
+      <c r="AR9"/>
       <c r="AS9" t="n">
-        <v>50903.5586</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU9"/>
+      <c r="AV9"/>
       <c r="AW9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="N13" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="O13" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s">
         <v>1</v>
@@ -5513,10 +5544,10 @@
     </row>
     <row r="14">
       <c r="N14" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
@@ -5529,84 +5560,84 @@
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14" t="n">
-        <v>12514491468.9675</v>
+        <v>12961307294.9388</v>
       </c>
       <c r="AA14" t="n">
-        <v>14773845481.5322</v>
+        <v>13125631984.6665</v>
       </c>
       <c r="AB14" t="n">
-        <v>15935079232.2282</v>
+        <v>13666200926.428</v>
       </c>
       <c r="AC14" t="n">
-        <v>21223851699.0718</v>
+        <v>14330900498.0756</v>
       </c>
       <c r="AD14" t="n">
-        <v>26355823246.7974</v>
+        <v>16227342908.6055</v>
       </c>
       <c r="AE14" t="n">
-        <v>28882764171.6176</v>
+        <v>18296900463.4098</v>
       </c>
       <c r="AF14" t="n">
-        <v>32982769794.0111</v>
+        <v>16350799014.2156</v>
       </c>
       <c r="AG14" t="n">
-        <v>37712732893.711</v>
+        <v>18648377773.1301</v>
       </c>
       <c r="AH14" t="n">
-        <v>39030428706.4601</v>
+        <v>18291545531.4129</v>
       </c>
       <c r="AI14" t="n">
-        <v>38159763663.1629</v>
+        <v>17655620627.7657</v>
       </c>
       <c r="AJ14" t="n">
-        <v>40115358312.4323</v>
+        <v>18099625025.9532</v>
       </c>
       <c r="AK14" t="n">
-        <v>36144077590.9663</v>
+        <v>18675057832.6478</v>
       </c>
       <c r="AL14" t="n">
-        <v>37018659942.2246</v>
+        <v>18790872534.7089</v>
       </c>
       <c r="AM14" t="n">
-        <v>30712289860.1704</v>
+        <v>15699609681.9545</v>
       </c>
       <c r="AN14" t="n">
-        <v>30369120355.357</v>
+        <v>14850192343.48</v>
       </c>
       <c r="AO14" t="n">
-        <v>29393277018.1968</v>
+        <v>14434714318.6138</v>
       </c>
       <c r="AP14" t="n">
-        <v>30681556095.03</v>
+        <v>14109952279.694</v>
       </c>
       <c r="AQ14" t="n">
-        <v>31375093757.338</v>
+        <v>14316917425.7098</v>
       </c>
       <c r="AR14" t="n">
-        <v>36534604813.5559</v>
+        <v>15104258682.0678</v>
       </c>
       <c r="AS14" t="n">
-        <v>38295143099.753</v>
+        <v>14609834812.2895</v>
       </c>
       <c r="AT14" t="n">
-        <v>38133070394.0319</v>
+        <v>14481291539.225</v>
       </c>
       <c r="AU14" t="n">
-        <v>33282260036.8683</v>
+        <v>12798343743.8689</v>
       </c>
       <c r="AV14" t="n">
-        <v>33048419165.1799</v>
+        <v>13045110411.5948</v>
       </c>
       <c r="AW14" t="n">
-        <v>13950755187.0482</v>
+        <v>6081224506.96881</v>
       </c>
     </row>
     <row r="15">
       <c r="N15" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O15" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
@@ -5619,84 +5650,84 @@
       <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15" t="n">
-        <v>567547181.377509</v>
+        <v>920859154.130581</v>
       </c>
       <c r="AA15" t="n">
-        <v>1436744858.60258</v>
+        <v>1043016539.54194</v>
       </c>
       <c r="AB15" t="n">
-        <v>1003626638.0212</v>
+        <v>1396938901.34518</v>
       </c>
       <c r="AC15" t="n">
-        <v>1209076488.71782</v>
+        <v>2333401259.59913</v>
       </c>
       <c r="AD15" t="n">
-        <v>1467678946.35978</v>
+        <v>2463643565.82501</v>
       </c>
       <c r="AE15" t="n">
-        <v>1556095054.4149</v>
+        <v>2617680385.3775</v>
       </c>
       <c r="AF15" t="n">
-        <v>773507217.834188</v>
+        <v>2801716404.10066</v>
       </c>
       <c r="AG15" t="n">
-        <v>526594736.597523</v>
+        <v>2944378295.98464</v>
       </c>
       <c r="AH15" t="n">
-        <v>792380069.667696</v>
+        <v>3114639572.66255</v>
       </c>
       <c r="AI15" t="n">
-        <v>709260369.624965</v>
+        <v>2992998490.44121</v>
       </c>
       <c r="AJ15" t="n">
-        <v>895440853.719083</v>
+        <v>3664213922.38738</v>
       </c>
       <c r="AK15" t="n">
-        <v>1455347888.47251</v>
+        <v>3084878662.4035</v>
       </c>
       <c r="AL15" t="n">
-        <v>456738458.777437</v>
+        <v>2351954237.37449</v>
       </c>
       <c r="AM15" t="n">
-        <v>206553525.642842</v>
+        <v>2189962697.18299</v>
       </c>
       <c r="AN15" t="n">
-        <v>125313568.462275</v>
+        <v>2170463980.77772</v>
       </c>
       <c r="AO15" t="n">
-        <v>158089210.266138</v>
+        <v>1985982401.94974</v>
       </c>
       <c r="AP15" t="n">
-        <v>223881818.026144</v>
+        <v>2212462267.47001</v>
       </c>
       <c r="AQ15" t="n">
-        <v>84225205.0874944</v>
+        <v>1996009483.11804</v>
       </c>
       <c r="AR15" t="n">
-        <v>129314171.268424</v>
+        <v>2417910318.68102</v>
       </c>
       <c r="AS15" t="n">
-        <v>96646712.6868914</v>
+        <v>2667791319.41662</v>
       </c>
       <c r="AT15" t="n">
-        <v>100941578.7385</v>
+        <v>2299138186.70984</v>
       </c>
       <c r="AU15" t="n">
-        <v>192451923.891646</v>
+        <v>2117446533.57888</v>
       </c>
       <c r="AV15" t="n">
-        <v>280510565.1576</v>
+        <v>2191809031.7026</v>
       </c>
       <c r="AW15" t="n">
-        <v>110221915.195403</v>
+        <v>760802223.900528</v>
       </c>
     </row>
     <row r="16">
       <c r="N16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P16"/>
       <c r="Q16"/>
@@ -5709,84 +5740,84 @@
       <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16" t="n">
-        <v>3025037761.96926</v>
+        <v>9727174.77143519</v>
       </c>
       <c r="AA16" t="n">
-        <v>2699371470.63925</v>
+        <v>13825979.8016546</v>
       </c>
       <c r="AB16" t="n">
-        <v>3405986776.30812</v>
+        <v>34600161.2317089</v>
       </c>
       <c r="AC16" t="n">
-        <v>4947189360.42497</v>
+        <v>31407937.0814222</v>
       </c>
       <c r="AD16" t="n">
-        <v>6075094428.3048</v>
+        <v>73576309.5721154</v>
       </c>
       <c r="AE16" t="n">
-        <v>7972978705.66475</v>
+        <v>15505952.1867654</v>
       </c>
       <c r="AF16" t="n">
-        <v>8940618035.27962</v>
+        <v>2680026.0574574</v>
       </c>
       <c r="AG16" t="n">
-        <v>10994405790.1026</v>
+        <v>4013753.15808871</v>
       </c>
       <c r="AH16" t="n">
-        <v>11078131010.207</v>
+        <v>1181294.97539394</v>
       </c>
       <c r="AI16" t="n">
-        <v>9750890011.46887</v>
+        <v>328723.791900811</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9264897512.82625</v>
+        <v>186341485.790612</v>
       </c>
       <c r="AK16" t="n">
-        <v>5537994648.53861</v>
+        <v>716509820.953175</v>
       </c>
       <c r="AL16" t="n">
-        <v>2507425233.35849</v>
+        <v>2139450326.37744</v>
       </c>
       <c r="AM16" t="n">
-        <v>1076119094.89438</v>
+        <v>1935710795.70225</v>
       </c>
       <c r="AN16" t="n">
-        <v>761566093.338394</v>
+        <v>2444073686.87906</v>
       </c>
       <c r="AO16" t="n">
-        <v>572836864.370754</v>
+        <v>2692664216.8192</v>
       </c>
       <c r="AP16" t="n">
-        <v>667316921.950228</v>
+        <v>3178906569.00427</v>
       </c>
       <c r="AQ16" t="n">
-        <v>632988480.397044</v>
+        <v>3509286349.53604</v>
       </c>
       <c r="AR16" t="n">
-        <v>583032725.590335</v>
+        <v>3114409029.11968</v>
       </c>
       <c r="AS16" t="n">
-        <v>517344578.732819</v>
+        <v>3169603551.90795</v>
       </c>
       <c r="AT16" t="n">
-        <v>519241165.121669</v>
+        <v>4197641568.44383</v>
       </c>
       <c r="AU16" t="n">
-        <v>-15611420.7612939</v>
+        <v>3534611893.47195</v>
       </c>
       <c r="AV16" t="n">
-        <v>534502114.3888</v>
+        <v>3769401768.7207</v>
       </c>
       <c r="AW16" t="n">
-        <v>333958203.091886</v>
+        <v>2222448524.57506</v>
       </c>
     </row>
     <row r="17">
       <c r="N17" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
@@ -5799,84 +5830,84 @@
       <c r="X17"/>
       <c r="Y17"/>
       <c r="Z17" t="n">
-        <v>676893024.468438</v>
+        <v>4927157186.83787</v>
       </c>
       <c r="AA17" t="n">
-        <v>647537655.672858</v>
+        <v>5798817279.2369</v>
       </c>
       <c r="AB17" t="n">
-        <v>1678430192.92835</v>
+        <v>7619954709.52429</v>
       </c>
       <c r="AC17" t="n">
-        <v>1581251114.91632</v>
+        <v>8777647808.71865</v>
       </c>
       <c r="AD17" t="n">
-        <v>1260840689.10455</v>
+        <v>9157200366.24047</v>
       </c>
       <c r="AE17" t="n">
-        <v>1613667645.53559</v>
+        <v>8039136136.04891</v>
       </c>
       <c r="AF17" t="n">
-        <v>1555432849.5759</v>
+        <v>8186321769.03338</v>
       </c>
       <c r="AG17" t="n">
-        <v>1131488134.90371</v>
+        <v>6917595114.74923</v>
       </c>
       <c r="AH17" t="n">
-        <v>1100888048.17766</v>
+        <v>6339524274.34437</v>
       </c>
       <c r="AI17" t="n">
-        <v>1157722873.47932</v>
+        <v>5667694308.37954</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2662844673.7949</v>
+        <v>4815072321.09857</v>
       </c>
       <c r="AK17" t="n">
-        <v>2797537660.42599</v>
+        <v>4798986979.32172</v>
       </c>
       <c r="AL17" t="n">
-        <v>2296594416.75883</v>
+        <v>4888913920.04555</v>
       </c>
       <c r="AM17" t="n">
-        <v>2603350560.60856</v>
+        <v>4223466893.2987</v>
       </c>
       <c r="AN17" t="n">
-        <v>3713643857.92027</v>
+        <v>4550084302.77115</v>
       </c>
       <c r="AO17" t="n">
-        <v>2931496074.08697</v>
+        <v>4279560546.04342</v>
       </c>
       <c r="AP17" t="n">
-        <v>4263829555.49789</v>
+        <v>5222100054.68736</v>
       </c>
       <c r="AQ17" t="n">
-        <v>4338588523.78919</v>
+        <v>5328561788.29761</v>
       </c>
       <c r="AR17" t="n">
-        <v>3512469739.96491</v>
+        <v>6260850971.83937</v>
       </c>
       <c r="AS17" t="n">
-        <v>4189237649.3107</v>
+        <v>7134623901.72826</v>
       </c>
       <c r="AT17" t="n">
-        <v>4468550667.8859</v>
+        <v>7915101555.64024</v>
       </c>
       <c r="AU17" t="n">
-        <v>3617636430.84628</v>
+        <v>7709830759.3545</v>
       </c>
       <c r="AV17" t="n">
-        <v>4999872807.408</v>
+        <v>7617431058.9485</v>
       </c>
       <c r="AW17" t="n">
-        <v>2638799974.97719</v>
+        <v>2662177316.67404</v>
       </c>
     </row>
     <row r="18">
       <c r="N18" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="O18" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
@@ -5889,84 +5920,84 @@
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18" t="n">
-        <v>8290635094.71531</v>
+        <v>2731696421.89019</v>
       </c>
       <c r="AA18" t="n">
-        <v>8045175218.82085</v>
+        <v>3409568429.63167</v>
       </c>
       <c r="AB18" t="n">
-        <v>9248718328.704</v>
+        <v>3726315461.56334</v>
       </c>
       <c r="AC18" t="n">
-        <v>10705566700.61</v>
+        <v>5361245965.69439</v>
       </c>
       <c r="AD18" t="n">
-        <v>11909883813.0894</v>
+        <v>6811602767.49798</v>
       </c>
       <c r="AE18" t="n">
-        <v>12840403471.262</v>
+        <v>8557259381.98127</v>
       </c>
       <c r="AF18" t="n">
-        <v>12937464432.1182</v>
+        <v>10086272444.2264</v>
       </c>
       <c r="AG18" t="n">
-        <v>14372841801.6714</v>
+        <v>14758753893.6722</v>
       </c>
       <c r="AH18" t="n">
-        <v>14927364167.7269</v>
+        <v>17069955728.4717</v>
       </c>
       <c r="AI18" t="n">
-        <v>14390837829.3095</v>
+        <v>17820730673.175</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16516844243.3473</v>
+        <v>17585049149.7821</v>
       </c>
       <c r="AK18" t="n">
-        <v>18467297412.1422</v>
+        <v>14638823690.3519</v>
       </c>
       <c r="AL18" t="n">
-        <v>17611147064.9327</v>
+        <v>13342640851.6109</v>
       </c>
       <c r="AM18" t="n">
-        <v>14607346933.4983</v>
+        <v>10017198450.1811</v>
       </c>
       <c r="AN18" t="n">
-        <v>13269695923.6464</v>
+        <v>9763008130.90557</v>
       </c>
       <c r="AO18" t="n">
-        <v>13393421613.1278</v>
+        <v>9589270788.40471</v>
       </c>
       <c r="AP18" t="n">
-        <v>14214699461.981</v>
+        <v>11342340045.1231</v>
       </c>
       <c r="AQ18" t="n">
-        <v>14699525271.1156</v>
+        <v>12239123627.1512</v>
       </c>
       <c r="AR18" t="n">
-        <v>16112954326.5601</v>
+        <v>12813916834.6457</v>
       </c>
       <c r="AS18" t="n">
-        <v>17015767592.4262</v>
+        <v>12901235438.2308</v>
       </c>
       <c r="AT18" t="n">
-        <v>16828219920.271</v>
+        <v>12388642400.509</v>
       </c>
       <c r="AU18" t="n">
-        <v>14983291300.9684</v>
+        <v>9772334864.37524</v>
       </c>
       <c r="AV18" t="n">
-        <v>13638663594.8197</v>
+        <v>9591251136.8508</v>
       </c>
       <c r="AW18" t="n">
-        <v>6137090096.1938</v>
+        <v>3542946416.9478</v>
       </c>
     </row>
     <row r="19">
       <c r="N19" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="O19" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
@@ -5979,84 +6010,84 @@
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19" t="n">
-        <v>925226186.4536</v>
+        <v>10801547824.4245</v>
       </c>
       <c r="AA19" t="n">
-        <v>1104669460.22777</v>
+        <v>11352417298.7088</v>
       </c>
       <c r="AB19" t="n">
-        <v>1184377591.64278</v>
+        <v>13147055489.991</v>
       </c>
       <c r="AC19" t="n">
-        <v>1249443908.72384</v>
+        <v>16914567100.7451</v>
       </c>
       <c r="AD19" t="n">
-        <v>2061714769.14507</v>
+        <v>20963437698.4331</v>
       </c>
       <c r="AE19" t="n">
-        <v>3029040598.76154</v>
+        <v>23393414310.4649</v>
       </c>
       <c r="AF19" t="n">
-        <v>2217770597.01299</v>
+        <v>25717777067.3323</v>
       </c>
       <c r="AG19" t="n">
-        <v>2356242913.07615</v>
+        <v>28085124300.937</v>
       </c>
       <c r="AH19" t="n">
-        <v>1553797871.23047</v>
+        <v>31086415849.3176</v>
       </c>
       <c r="AI19" t="n">
-        <v>2122550282.50422</v>
+        <v>28887865544.4851</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3508630783.30238</v>
+        <v>28434773204.7627</v>
       </c>
       <c r="AK19" t="n">
-        <v>2640954168.25818</v>
+        <v>24635488191.8153</v>
       </c>
       <c r="AL19" t="n">
-        <v>2221789441.35155</v>
+        <v>20218515019.1962</v>
       </c>
       <c r="AM19" t="n">
-        <v>1152294146.64536</v>
+        <v>16343765503.4971</v>
       </c>
       <c r="AN19" t="n">
-        <v>746759783.036562</v>
+        <v>15318694914.9592</v>
       </c>
       <c r="AO19" t="n">
-        <v>796740622.592979</v>
+        <v>14087666988.7229</v>
       </c>
       <c r="AP19" t="n">
-        <v>1200572837.64093</v>
+        <v>15410120968.3986</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1777495586.58826</v>
+        <v>15902524392.6222</v>
       </c>
       <c r="AR19" t="n">
-        <v>1346466346.43095</v>
+        <v>18506894702.5902</v>
       </c>
       <c r="AS19" t="n">
-        <v>1400715962.28168</v>
+        <v>21031823582.3362</v>
       </c>
       <c r="AT19" t="n">
-        <v>1131886057.95028</v>
+        <v>19900094533.4714</v>
       </c>
       <c r="AU19" t="n">
-        <v>981431226.172102</v>
+        <v>17108001819.4395</v>
       </c>
       <c r="AV19" t="n">
-        <v>1085388156.924</v>
+        <v>17372820458.0606</v>
       </c>
       <c r="AW19" t="n">
-        <v>573555326.839145</v>
+        <v>8474781714.27936</v>
       </c>
     </row>
     <row r="20">
       <c r="N20" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
@@ -6069,68 +6100,72 @@
       <c r="X20"/>
       <c r="Y20"/>
       <c r="Z20" t="n">
-        <v>1019228.11469816</v>
+        <v>1174633370.23208</v>
       </c>
       <c r="AA20" t="n">
-        <v>260764.85859476</v>
+        <v>571263173.401171</v>
       </c>
       <c r="AB20" t="n">
-        <v>33188288.549756</v>
+        <v>480566564.475561</v>
       </c>
       <c r="AC20" t="n">
-        <v>145455475.415221</v>
+        <v>226879728.950365</v>
       </c>
       <c r="AD20" t="n">
-        <v>287228111.541315</v>
+        <v>129749602.935987</v>
       </c>
       <c r="AE20" t="n">
-        <v>513839077.415107</v>
+        <v>48765086.7204176</v>
       </c>
       <c r="AF20" t="n">
-        <v>964073374.549508</v>
+        <v>53347973.6637545</v>
       </c>
       <c r="AG20" t="n">
-        <v>3724609518.64494</v>
+        <v>21511686.0849076</v>
       </c>
       <c r="AH20" t="n">
-        <v>5576867936.98537</v>
+        <v>15260743.3187073</v>
       </c>
       <c r="AI20" t="n">
-        <v>6251694185.80279</v>
+        <v>9258719.84761169</v>
       </c>
       <c r="AJ20" t="n">
-        <v>351739179.461811</v>
+        <v>633889443.103906</v>
       </c>
       <c r="AK20" t="n">
-        <v>150483894.746265</v>
+        <v>670298533.47244</v>
       </c>
       <c r="AL20" t="n">
-        <v>3253587.61145794</v>
+        <v>754390529.171158</v>
       </c>
       <c r="AM20" t="n">
-        <v>9522924.76254834</v>
+        <v>433005983.816413</v>
       </c>
       <c r="AN20" t="n">
-        <v>-9001685.33890305</v>
+        <v>467581195.005577</v>
       </c>
       <c r="AO20" t="n">
-        <v>176716.296840359</v>
-      </c>
-      <c r="AP20"/>
-      <c r="AQ20"/>
-      <c r="AR20"/>
+        <v>446199489.938041</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>38343999.9234665</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>127916368.159584</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>601584.426868607</v>
+      </c>
       <c r="AS20"/>
       <c r="AT20"/>
-      <c r="AU20"/>
-      <c r="AV20" t="n">
-        <v>467462</v>
-      </c>
+      <c r="AU20" t="n">
+        <v>889883.896496314</v>
+      </c>
+      <c r="AV20"/>
       <c r="AW20"/>
     </row>
     <row r="21">
-      <c r="N21" t="s">
-        <v>58</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="n">
         <v>39159221227.3348</v>
@@ -6163,74 +6198,68 @@
         <v>32280454746.2768</v>
       </c>
       <c r="Z21" t="n">
-        <v>7526641248.01413</v>
+        <v>562766.854984851</v>
       </c>
       <c r="AA21" t="n">
-        <v>6606935774.63454</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>7582225166.1767</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>6914215550.98462</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>6409878714.35362</v>
+        <v>1589499.58592294</v>
       </c>
       <c r="AE21" t="n">
-        <v>4561435025.9102</v>
+        <v>1562034.39203304</v>
       </c>
       <c r="AF21" t="n">
-        <v>2827558485.19115</v>
+        <v>280086.943011502</v>
       </c>
       <c r="AG21" t="n">
-        <v>561746693.910476</v>
+        <v>907664.90159274</v>
       </c>
       <c r="AH21" t="n">
-        <v>1858665184.04787</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>491777872.533406</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>103208993.994511</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>26350447.4157607</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>371129273.469558</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>475242959.410575</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>587000658.356338</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>270020631.553428</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>262369494.174687</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>512422610.278865</v>
-      </c>
-      <c r="AR21" t="n">
         <v>0</v>
       </c>
+      <c r="AR21"/>
       <c r="AS21" t="n">
-        <v>57010.718032891</v>
+        <v>0</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU21"/>
+      <c r="AV21"/>
       <c r="AW21" t="n">
         <v>0</v>
       </c>

--- a/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Cust" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -235,14 +236,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,8 +275,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2984,88 +2997,89 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" t="n">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="n">
         <v>7745409866.4287</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="1" t="n">
         <v>9365489431.6874</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="1" t="n">
         <v>10261062296.0877</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="1" t="n">
         <v>13927889331.964</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="1" t="n">
         <v>17718446729.6663</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="1" t="n">
         <v>20006698311.5627</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="1" t="n">
         <v>23590550916.16</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="1" t="n">
         <v>27713303440.4714</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="1" t="n">
         <v>29279795135.5725</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="1" t="n">
         <v>28917543429.9633</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>30663895756.9403</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="1" t="n">
         <v>28185090296.6477</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="1" t="n">
         <v>29396220082.02</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="1" t="n">
         <v>24834689731.2118</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="1" t="n">
         <v>25032277394.0532</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="1" t="n">
         <v>24505678968.4119</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="1" t="n">
         <v>25791705919.4623</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>26845599544.7238</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="1" t="n">
         <v>31994252515.3208</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="1" t="n">
         <v>34192852294.0024</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="1" t="n">
         <v>34502358757.4437</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="1" t="n">
         <v>31125639346.0963</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="1" t="n">
         <v>33048419165.1799</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="1" t="n">
         <v>14626524313.5635</v>
       </c>
+      <c r="AX2" s="1"/>
     </row>
     <row r="3">
       <c r="M3" t="s">
@@ -3077,88 +3091,89 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3" t="n">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="n">
         <v>351263617</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="1" t="n">
         <v>910786484.5408</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="1" t="n">
         <v>646264465</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="1" t="n">
         <v>793441443.5</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="1" t="n">
         <v>986688633.6206</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="1" t="n">
         <v>1077885901.5297</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="1" t="n">
         <v>553242238.9113</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="1" t="n">
         <v>386969561.8881</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="1" t="n">
         <v>594426627.5902</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="1" t="n">
         <v>537478893.2873</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>684468646.1753</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="1" t="n">
         <v>1134877810.7948</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="1" t="n">
         <v>362692336.111</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="1" t="n">
         <v>167024104.8643</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="1" t="n">
         <v>103291895.5268</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="1" t="n">
         <v>131801684.8803</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="1" t="n">
         <v>188200819.8463</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="1" t="n">
         <v>72065956.0363</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="1" t="n">
         <v>113243602.0722</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="1" t="n">
         <v>86293626.4005</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="1" t="n">
         <v>91330766.8958</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="1" t="n">
         <v>179981442.6027</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="1" t="n">
         <v>280510565.1576</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" s="1" t="n">
         <v>115561021.6707</v>
       </c>
+      <c r="AX3" s="1"/>
     </row>
     <row r="4">
       <c r="M4" t="s">
@@ -3170,88 +3185,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4" t="n">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="n">
         <v>1872242063.2094</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="1" t="n">
         <v>1711195301.9999</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="1" t="n">
         <v>2193214227.6811</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="1" t="n">
         <v>3246531633.0533</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="1" t="n">
         <v>4084153850.8455</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="1" t="n">
         <v>5522774020.5523</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="1" t="n">
         <v>6394675350.2036</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="1" t="n">
         <v>8079268735.7749</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="1" t="n">
         <v>8310577598.401</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="1" t="n">
         <v>7389243494.1793</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>7082022035.5353</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="1" t="n">
         <v>4318518817.8775</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="1" t="n">
         <v>1991126208.0814</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="1" t="n">
         <v>870175553.7347</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="1" t="n">
         <v>627734141.7625</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="1" t="n">
         <v>477583914.5411</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="1" t="n">
         <v>560963783.9982</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="1" t="n">
         <v>541606517.3411</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="1" t="n">
         <v>510576105.6518</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="1" t="n">
         <v>461925072.8385</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="1" t="n">
         <v>469803369.5043</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="1" t="n">
         <v>-14599833.4175</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="1" t="n">
         <v>534502114.3888</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" s="1" t="n">
         <v>350135007.872</v>
       </c>
+      <c r="AX4" s="1"/>
     </row>
     <row r="5">
       <c r="M5" t="s">
@@ -3263,88 +3279,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5" t="n">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1" t="n">
         <v>418939429</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="1" t="n">
         <v>410489407</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="1" t="n">
         <v>1080790156</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="1" t="n">
         <v>1037676424</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="1" t="n">
         <v>847635772</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="1" t="n">
         <v>1117765653.1602</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="1" t="n">
         <v>1112505652.6105</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="1" t="n">
         <v>831477106.426</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="1" t="n">
         <v>825862732.9017</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="1" t="n">
         <v>877324654.5554</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="1" t="n">
         <v>2035459607.72</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="1" t="n">
         <v>2181515114.5837</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="1" t="n">
         <v>1823707152.5427</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="1" t="n">
         <v>2105131324.5821</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="1" t="n">
         <v>3061035752.9761</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="1" t="n">
         <v>2444038534.535</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="1" t="n">
         <v>3584284892.3796</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="1" t="n">
         <v>3712244208.7281</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="1" t="n">
         <v>3075956189.6551</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="1" t="n">
         <v>3740473923.6574</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="1" t="n">
         <v>4043092692.9331</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="1" t="n">
         <v>3383221172.6934</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="1" t="n">
         <v>4999872807.408</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" s="1" t="n">
         <v>2766622413.9943</v>
       </c>
+      <c r="AX5" s="1"/>
     </row>
     <row r="6">
       <c r="M6" t="s">
@@ -3356,88 +3373,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6" t="n">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="n">
         <v>5131200658.1172</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="1" t="n">
         <v>5100026501.7071</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="1" t="n">
         <v>5955519489.22</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="1" t="n">
         <v>7025395312.6037</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="1" t="n">
         <v>8006755847.5671</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="1" t="n">
         <v>8894373021.9812</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="1" t="n">
         <v>9253374271.4146</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="1" t="n">
         <v>10561921547.1397</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="1" t="n">
         <v>11198190212.8784</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="1" t="n">
         <v>10905405012.357</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="1" t="n">
         <v>12625358750.8069</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="1" t="n">
         <v>14400767146.0502</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="1" t="n">
         <v>13984870220.1961</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="1" t="n">
         <v>11811848954.9703</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="1" t="n">
         <v>10937778421.2594</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="1" t="n">
         <v>11166325215.6848</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="1" t="n">
         <v>11949242310.9642</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="1" t="n">
         <v>12577414811.1868</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="1" t="n">
         <v>14110510627.4617</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="1" t="n">
         <v>15192987435.5439</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="1" t="n">
         <v>15225977738.9764</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="1" t="n">
         <v>14012405429.6442</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="1" t="n">
         <v>13638663594.8197</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="1" t="n">
         <v>6434368340.8512</v>
       </c>
+      <c r="AX6" s="1"/>
     </row>
     <row r="7">
       <c r="M7" t="s">
@@ -3449,88 +3467,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7" t="n">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1" t="n">
         <v>572636615</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="1" t="n">
         <v>700276049.875</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="1" t="n">
         <v>762655276</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="1" t="n">
         <v>819932062</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="1" t="n">
         <v>1386045997</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="1" t="n">
         <v>2098175267.1875</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="1" t="n">
         <v>1586235192.373</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="1" t="n">
         <v>1731491457.1049</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="1" t="n">
         <v>1165626022.0423</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="1" t="n">
         <v>1608472749.4224</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="1" t="n">
         <v>2681972519.1245</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="1" t="n">
         <v>2059411573.4266</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="1" t="n">
         <v>1764305123.303</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="1" t="n">
         <v>931772516.5176</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="1" t="n">
         <v>615529782.1261</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="1" t="n">
         <v>664256316.377</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="1" t="n">
         <v>1009232434.8681</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="1" t="n">
         <v>1520885804.4895</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="1" t="n">
         <v>1179133714.7599</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="1" t="n">
         <v>1250667059.2506</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="1" t="n">
         <v>1024117345.9261</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="1" t="n">
         <v>917836539.796</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="1" t="n">
         <v>1085388156.924</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="1" t="n">
         <v>601338122.6111</v>
       </c>
+      <c r="AX7" s="1"/>
     </row>
     <row r="8">
       <c r="M8" t="s">
@@ -3542,74 +3561,75 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8" t="n">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1" t="n">
         <v>630815.8438</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" s="1" t="n">
         <v>165305</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8" s="1" t="n">
         <v>21370907</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8" s="1" t="n">
         <v>95453350.9297</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8" s="1" t="n">
         <v>193097212.1778</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8" s="1" t="n">
         <v>355929347.3939</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" s="1" t="n">
         <v>689542514.8119</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="1" t="n">
         <v>2737039346.3235</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="1" t="n">
         <v>4183647377.3102</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" s="1" t="n">
         <v>4737546063.5601</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="1" t="n">
         <v>268866937.412</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="1" t="n">
         <v>117347085.451</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="1" t="n">
         <v>2583647.7504</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="1" t="n">
         <v>7700463.98</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="1" t="n">
         <v>-7419796.22</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8" s="1" t="n">
         <v>147331.4063</v>
       </c>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8" t="n">
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1" t="n">
         <v>467462</v>
       </c>
-      <c r="AW8"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
     </row>
     <row r="9">
       <c r="M9" t="s">
@@ -3619,108 +3639,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9" s="1" t="n">
         <v>19702439894</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="1" t="n">
         <v>19319595733</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="1" t="n">
         <v>19385047958</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="1" t="n">
         <v>18241613499</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="1" t="n">
         <v>17643919462</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="1" t="n">
         <v>18690643667</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="1" t="n">
         <v>18181185718</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="1" t="n">
         <v>18425728076</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="1" t="n">
         <v>17479311563</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="1" t="n">
         <v>19571291342</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9" s="1" t="n">
         <v>4658353200.2078</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9" s="1" t="n">
         <v>4188292564.0806</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9" s="1" t="n">
         <v>4882415935.2626</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9" s="1" t="n">
         <v>4537368163.7471</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9" s="1" t="n">
         <v>4309222044.7979</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9" s="1" t="n">
         <v>3159644066.2303</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" s="1" t="n">
         <v>2022379043.0552</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9" s="1" t="n">
         <v>412801072.4892</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9" s="1" t="n">
         <v>1394330977.603</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9" s="1" t="n">
         <v>372670232.248</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9" s="1" t="n">
         <v>78892223.9801</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9" s="1" t="n">
         <v>20548034.1254</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9" s="1" t="n">
         <v>294710770.6983</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9" s="1" t="n">
         <v>384292786.2963</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9" s="1" t="n">
         <v>483845535.8117</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9" s="1" t="n">
         <v>225120829.7598</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9" s="1" t="n">
         <v>220554551.2435</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9" s="1" t="n">
         <v>438446249.742</v>
       </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
+      <c r="AR9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1" t="n">
         <v>50903.5586</v>
       </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AT9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1"/>
     </row>
     <row r="13">
       <c r="M13" t="s">
@@ -3845,88 +3866,89 @@
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14" t="n">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1" t="n">
         <v>12514491468.9675</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="1" t="n">
         <v>14773845481.5322</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="1" t="n">
         <v>15935079232.2282</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="1" t="n">
         <v>21223851699.0718</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="1" t="n">
         <v>26355823246.7974</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="1" t="n">
         <v>28882764171.6176</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="1" t="n">
         <v>32982769794.0111</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="1" t="n">
         <v>37712732893.711</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="1" t="n">
         <v>39030428706.4601</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="1" t="n">
         <v>38159763663.1629</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="1" t="n">
         <v>40115358312.4323</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="1" t="n">
         <v>36144077590.9663</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="1" t="n">
         <v>37018659942.2246</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="1" t="n">
         <v>30712289860.1704</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="1" t="n">
         <v>30369120355.357</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="1" t="n">
         <v>29393277018.1968</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="1" t="n">
         <v>30681556095.03</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="1" t="n">
         <v>31375093757.338</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="1" t="n">
         <v>36534604813.5559</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="1" t="n">
         <v>38295143099.753</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="1" t="n">
         <v>38133070394.0319</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="1" t="n">
         <v>33282260036.8683</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="1" t="n">
         <v>33048419165.1799</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="1" t="n">
         <v>13950755187.0482</v>
       </c>
+      <c r="AX14" s="1"/>
     </row>
     <row r="15">
       <c r="M15" t="s">
@@ -3938,88 +3960,89 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15" t="n">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1" t="n">
         <v>567547181.377509</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="1" t="n">
         <v>1436744858.60258</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="1" t="n">
         <v>1003626638.0212</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="1" t="n">
         <v>1209076488.71782</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="1" t="n">
         <v>1467678946.35978</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="1" t="n">
         <v>1556095054.4149</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="1" t="n">
         <v>773507217.834188</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="1" t="n">
         <v>526594736.597523</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="1" t="n">
         <v>792380069.667696</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="1" t="n">
         <v>709260369.624965</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="1" t="n">
         <v>895440853.719083</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="1" t="n">
         <v>1455347888.47251</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="1" t="n">
         <v>456738458.777437</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="1" t="n">
         <v>206553525.642842</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="1" t="n">
         <v>125313568.462275</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="1" t="n">
         <v>158089210.266138</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="1" t="n">
         <v>223881818.026144</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="1" t="n">
         <v>84225205.0874944</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="1" t="n">
         <v>129314171.268424</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="1" t="n">
         <v>96646712.6868914</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="1" t="n">
         <v>100941578.7385</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="1" t="n">
         <v>192451923.891646</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="1" t="n">
         <v>280510565.1576</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" s="1" t="n">
         <v>110221915.195403</v>
       </c>
+      <c r="AX15" s="1"/>
     </row>
     <row r="16">
       <c r="M16" t="s">
@@ -4031,88 +4054,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16" t="n">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1" t="n">
         <v>3025037761.96926</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="1" t="n">
         <v>2699371470.63925</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="1" t="n">
         <v>3405986776.30812</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="1" t="n">
         <v>4947189360.42497</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="1" t="n">
         <v>6075094428.3048</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" s="1" t="n">
         <v>7972978705.66475</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" s="1" t="n">
         <v>8940618035.27962</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" s="1" t="n">
         <v>10994405790.1026</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16" s="1" t="n">
         <v>11078131010.207</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16" s="1" t="n">
         <v>9750890011.46887</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" s="1" t="n">
         <v>9264897512.82625</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="1" t="n">
         <v>5537994648.53861</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="1" t="n">
         <v>2507425233.35849</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="1" t="n">
         <v>1076119094.89438</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="1" t="n">
         <v>761566093.338394</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="1" t="n">
         <v>572836864.370754</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="1" t="n">
         <v>667316921.950228</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="1" t="n">
         <v>632988480.397044</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="1" t="n">
         <v>583032725.590335</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="1" t="n">
         <v>517344578.732819</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="1" t="n">
         <v>519241165.121669</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="1" t="n">
         <v>-15611420.7612939</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="1" t="n">
         <v>534502114.3888</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" s="1" t="n">
         <v>333958203.091886</v>
       </c>
+      <c r="AX16" s="1"/>
     </row>
     <row r="17">
       <c r="M17" t="s">
@@ -4124,88 +4148,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17" t="n">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1" t="n">
         <v>676893024.468438</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="1" t="n">
         <v>647537655.672858</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="1" t="n">
         <v>1678430192.92835</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="1" t="n">
         <v>1581251114.91632</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="1" t="n">
         <v>1260840689.10455</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="1" t="n">
         <v>1613667645.53559</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="1" t="n">
         <v>1555432849.5759</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="1" t="n">
         <v>1131488134.90371</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="1" t="n">
         <v>1100888048.17766</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="1" t="n">
         <v>1157722873.47932</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="1" t="n">
         <v>2662844673.7949</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="1" t="n">
         <v>2797537660.42599</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="1" t="n">
         <v>2296594416.75883</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="1" t="n">
         <v>2603350560.60856</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="1" t="n">
         <v>3713643857.92027</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="1" t="n">
         <v>2931496074.08697</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="1" t="n">
         <v>4263829555.49789</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="1" t="n">
         <v>4338588523.78919</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="1" t="n">
         <v>3512469739.96491</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="1" t="n">
         <v>4189237649.3107</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="1" t="n">
         <v>4468550667.8859</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="1" t="n">
         <v>3617636430.84628</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="1" t="n">
         <v>4999872807.408</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" s="1" t="n">
         <v>2638799974.97719</v>
       </c>
+      <c r="AX17" s="1"/>
     </row>
     <row r="18">
       <c r="M18" t="s">
@@ -4217,88 +4242,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" t="n">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1" t="n">
         <v>8290635094.71531</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="1" t="n">
         <v>8045175218.82085</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="1" t="n">
         <v>9248718328.704</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="1" t="n">
         <v>10705566700.61</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="1" t="n">
         <v>11909883813.0894</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="1" t="n">
         <v>12840403471.262</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="1" t="n">
         <v>12937464432.1182</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="1" t="n">
         <v>14372841801.6714</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="1" t="n">
         <v>14927364167.7269</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="1" t="n">
         <v>14390837829.3095</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="1" t="n">
         <v>16516844243.3473</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="1" t="n">
         <v>18467297412.1422</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="1" t="n">
         <v>17611147064.9327</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="1" t="n">
         <v>14607346933.4983</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="1" t="n">
         <v>13269695923.6464</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="1" t="n">
         <v>13393421613.1278</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="1" t="n">
         <v>14214699461.981</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="1" t="n">
         <v>14699525271.1156</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="1" t="n">
         <v>16112954326.5601</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="1" t="n">
         <v>17015767592.4262</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="1" t="n">
         <v>16828219920.271</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" s="1" t="n">
         <v>14983291300.9684</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" s="1" t="n">
         <v>13638663594.8197</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="1" t="n">
         <v>6137090096.1938</v>
       </c>
+      <c r="AX18" s="1"/>
     </row>
     <row r="19">
       <c r="M19" t="s">
@@ -4310,88 +4336,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19" t="n">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1" t="n">
         <v>925226186.4536</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="1" t="n">
         <v>1104669460.22777</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="1" t="n">
         <v>1184377591.64278</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="1" t="n">
         <v>1249443908.72384</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="1" t="n">
         <v>2061714769.14507</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="1" t="n">
         <v>3029040598.76154</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="1" t="n">
         <v>2217770597.01299</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="1" t="n">
         <v>2356242913.07615</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="1" t="n">
         <v>1553797871.23047</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="1" t="n">
         <v>2122550282.50422</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="1" t="n">
         <v>3508630783.30238</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="1" t="n">
         <v>2640954168.25818</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="1" t="n">
         <v>2221789441.35155</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="1" t="n">
         <v>1152294146.64536</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="1" t="n">
         <v>746759783.036562</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="1" t="n">
         <v>796740622.592979</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="1" t="n">
         <v>1200572837.64093</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="1" t="n">
         <v>1777495586.58826</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="1" t="n">
         <v>1346466346.43095</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="1" t="n">
         <v>1400715962.28168</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="1" t="n">
         <v>1131886057.95028</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" s="1" t="n">
         <v>981431226.172102</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" s="1" t="n">
         <v>1085388156.924</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="1" t="n">
         <v>573555326.839145</v>
       </c>
+      <c r="AX19" s="1"/>
     </row>
     <row r="20">
       <c r="M20" t="s">
@@ -4403,74 +4430,75 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20" t="n">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1" t="n">
         <v>1019228.11469816</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20" s="1" t="n">
         <v>260764.85859476</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20" s="1" t="n">
         <v>33188288.549756</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20" s="1" t="n">
         <v>145455475.415221</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20" s="1" t="n">
         <v>287228111.541315</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20" s="1" t="n">
         <v>513839077.415107</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" s="1" t="n">
         <v>964073374.549508</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" s="1" t="n">
         <v>3724609518.64494</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20" s="1" t="n">
         <v>5576867936.98537</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20" s="1" t="n">
         <v>6251694185.80279</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20" s="1" t="n">
         <v>351739179.461811</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="1" t="n">
         <v>150483894.746265</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="1" t="n">
         <v>3253587.61145794</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="1" t="n">
         <v>9522924.76254834</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="1" t="n">
         <v>-9001685.33890305</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20" s="1" t="n">
         <v>176716.296840359</v>
       </c>
-      <c r="AP20"/>
-      <c r="AQ20"/>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20"/>
-      <c r="AV20" t="n">
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1" t="n">
         <v>467462</v>
       </c>
-      <c r="AW20"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
     </row>
     <row r="21">
       <c r="M21" t="s">
@@ -4480,108 +4508,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" t="n">
+      <c r="P21" s="1" t="n">
         <v>39159221227.3348</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="1" t="n">
         <v>37075841095.001</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="1" t="n">
         <v>36294366444.8787</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="1" t="n">
         <v>33369645404.352</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="1" t="n">
         <v>31587983747.9476</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="1" t="n">
         <v>32767823423.5663</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="1" t="n">
         <v>31286645512.572</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="1" t="n">
         <v>31154027060.9063</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="1" t="n">
         <v>29189360890.8719</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="1" t="n">
         <v>32280454746.2768</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21" s="1" t="n">
         <v>7526641248.01413</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21" s="1" t="n">
         <v>6606935774.63454</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21" s="1" t="n">
         <v>7582225166.1767</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21" s="1" t="n">
         <v>6914215550.98462</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21" s="1" t="n">
         <v>6409878714.35362</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21" s="1" t="n">
         <v>4561435025.9102</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21" s="1" t="n">
         <v>2827558485.19115</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21" s="1" t="n">
         <v>561746693.910476</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH21" s="1" t="n">
         <v>1858665184.04787</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI21" s="1" t="n">
         <v>491777872.533406</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ21" s="1" t="n">
         <v>103208993.994511</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK21" s="1" t="n">
         <v>26350447.4157607</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AL21" s="1" t="n">
         <v>371129273.469558</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AM21" s="1" t="n">
         <v>475242959.410575</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AN21" s="1" t="n">
         <v>587000658.356338</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AO21" s="1" t="n">
         <v>270020631.553428</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AP21" s="1" t="n">
         <v>262369494.174687</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AQ21" s="1" t="n">
         <v>512422610.278865</v>
       </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
+      <c r="AR21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1" t="n">
         <v>57010.718032891</v>
       </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AT21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4717,88 +4746,89 @@
       <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" t="n">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
         <v>8021951004</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="2" t="n">
         <v>8320647985</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="2" t="n">
         <v>8800065378.6094</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="2" t="n">
         <v>9404475634.0487</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="2" t="n">
         <v>10909289692.7472</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="2" t="n">
         <v>12674014351.0174</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="2" t="n">
         <v>11694723004.5789</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="2" t="n">
         <v>13703810682.6111</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="2" t="n">
         <v>13721927317.2913</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="2" t="n">
         <v>13379463793.1479</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>13835225170.1946</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="2" t="n">
         <v>14562778368.9755</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="2" t="n">
         <v>14921680726.0337</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="2" t="n">
         <v>12695078651.8236</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="2" t="n">
         <v>12240530174.9698</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="2" t="n">
         <v>12034468796.1706</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="2" t="n">
         <v>11861189132.9223</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>12250042498.617</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="2" t="n">
         <v>13227171028.5887</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="2" t="n">
         <v>13044785404.6434</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="2" t="n">
         <v>13102504225.1953</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="2" t="n">
         <v>11969037894.5947</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="2" t="n">
         <v>13045110411.5948</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="2" t="n">
         <v>6375796644.3276</v>
       </c>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3">
       <c r="N3" t="s">
@@ -4807,88 +4837,89 @@
       <c r="O3" t="s">
         <v>64</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3" t="n">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
         <v>569933792.0107</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="2" t="n">
         <v>661192807.9501</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="2" t="n">
         <v>899529703.0931</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="2" t="n">
         <v>1531265623.7691</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="2" t="n">
         <v>1656253985.0566</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="2" t="n">
         <v>1813231636.5276</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="2" t="n">
         <v>2003895788.5089</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="2" t="n">
         <v>2163684328.8482</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="2" t="n">
         <v>2336536175.264</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="2" t="n">
         <v>2268100101.3824</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>2800899168.6457</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="2" t="n">
         <v>2405583139.7334</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="2" t="n">
         <v>1867667940.7792</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="2" t="n">
         <v>1770856043.4629</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="2" t="n">
         <v>1789042810.7525</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="2" t="n">
         <v>1655747576.1878</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="2" t="n">
         <v>1859852739.6639</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="2" t="n">
         <v>1707853741.751</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="2" t="n">
         <v>2117423568.424</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="2" t="n">
         <v>2382009496.5678</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="2" t="n">
         <v>2080233501.5545</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="2" t="n">
         <v>1980240436.3709</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="2" t="n">
         <v>2191809031.7026</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" s="2" t="n">
         <v>797655186.1526</v>
       </c>
+      <c r="AX3" s="2"/>
     </row>
     <row r="4">
       <c r="N4" t="s">
@@ -4897,88 +4928,89 @@
       <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="n">
         <v>6020297</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="2" t="n">
         <v>8764615</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="2" t="n">
         <v>22280053</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="2" t="n">
         <v>20611069</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="2" t="n">
         <v>49463752.6406</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="2" t="n">
         <v>10740762.4004</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="2" t="n">
         <v>1916858.1523</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="2" t="n">
         <v>2949517.3293</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="2" t="n">
         <v>886182.2947</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="2" t="n">
         <v>249107.5315</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>142438111.8816</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="2" t="n">
         <v>558733141.0291</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="2" t="n">
         <v>1698920294.4379</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="2" t="n">
         <v>1565261894.8145</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="2" t="n">
         <v>2014570385.4959</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="2" t="n">
         <v>2244920320.5975</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="2" t="n">
         <v>2672270699.6757</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="2" t="n">
         <v>3002665004.1604</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="2" t="n">
         <v>2727364629.2919</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="2" t="n">
         <v>2830066094.7689</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="2" t="n">
         <v>3797977289.3471</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="2" t="n">
         <v>3305576451.3215</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="2" t="n">
         <v>3769401768.7207</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" s="2" t="n">
         <v>2330103062.1281</v>
       </c>
+      <c r="AX4" s="2"/>
     </row>
     <row r="5">
       <c r="N5" t="s">
@@ -4987,88 +5019,89 @@
       <c r="O5" t="s">
         <v>67</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
         <v>3049492820.6242</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="2" t="n">
         <v>3676007171.7866</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="2" t="n">
         <v>4906711088.6817</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="2" t="n">
         <v>5760222461.4176</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="2" t="n">
         <v>6156186637.1155</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="2" t="n">
         <v>5568600373.6984</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="2" t="n">
         <v>5855173525.891</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="2" t="n">
         <v>5083413419.9099</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="2" t="n">
         <v>4755775894.8999</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="2" t="n">
         <v>4294989815.897</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>3680607177.0905</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="2" t="n">
         <v>3742241892.9962</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="2" t="n">
         <v>3882247217.4846</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="2" t="n">
         <v>3415196013.1486</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="2" t="n">
         <v>3750486385.5302</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="2" t="n">
         <v>3567942996.0224</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="2" t="n">
         <v>4389831743.714</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>4559299074.1103</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="2" t="n">
         <v>5482781269.3213</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="2" t="n">
         <v>6370341549.8303</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="2" t="n">
         <v>7161491866.5726</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="2" t="n">
         <v>7210249885.9536</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="2" t="n">
         <v>7617431058.9485</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" s="2" t="n">
         <v>2791132144.9824</v>
       </c>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6">
       <c r="N6" t="s">
@@ -5077,88 +5110,89 @@
       <c r="O6" t="s">
         <v>68</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6" t="n">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
         <v>1690688628.5122</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="2" t="n">
         <v>2161405920.635</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="2" t="n">
         <v>2399483211.1437</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="2" t="n">
         <v>3518251142.647</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="2" t="n">
         <v>4579292388.2287</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="2" t="n">
         <v>5927497306.4152</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="2" t="n">
         <v>7214091634.3839</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="2" t="n">
         <v>10845510088.3655</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="2" t="n">
         <v>12805516702.4137</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="2" t="n">
         <v>13504584508.019</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>13441887015.1903</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="2" t="n">
         <v>11415329842.375</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="2" t="n">
         <v>10595283772.0612</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="2" t="n">
         <v>8100145466.8103</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="2" t="n">
         <v>8047329816.3908</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="2" t="n">
         <v>7994739454.7514</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="2" t="n">
         <v>9534663039.1326</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="2" t="n">
         <v>10472211309.202</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="2" t="n">
         <v>11221462309.7786</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="2" t="n">
         <v>11519216329.875</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="2" t="n">
         <v>11209099613.624</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="2" t="n">
         <v>9139108047.9776</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="2" t="n">
         <v>9591251136.8508</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="2" t="n">
         <v>3714565356.0927</v>
       </c>
+      <c r="AX6" s="2"/>
     </row>
     <row r="7">
       <c r="N7" t="s">
@@ -5167,88 +5201,89 @@
       <c r="O7" t="s">
         <v>69</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7" t="n">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
         <v>6685242888.1716</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="2" t="n">
         <v>7196565333.5191</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="2" t="n">
         <v>8465772490.1727</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="2" t="n">
         <v>11099974783.9154</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="2" t="n">
         <v>14093263209.8866</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="2" t="n">
         <v>16204300246.5388</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="2" t="n">
         <v>18394347507.6953</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="2" t="n">
         <v>20638429310.0387</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="2" t="n">
         <v>23320366127.9944</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="2" t="n">
         <v>21891280927.6122</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>21735339234.222</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="2" t="n">
         <v>19210711836.2831</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="2" t="n">
         <v>16055360139.0089</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="2" t="n">
         <v>13215958405.1536</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="2" t="n">
         <v>12626701594.8814</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="2" t="n">
         <v>11745129487.4611</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="2" t="n">
         <v>12954144404.1901</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="2" t="n">
         <v>13606741860.1639</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="2" t="n">
         <v>16206943127.23</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="2" t="n">
         <v>18778831439.5665</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="2" t="n">
         <v>18005374175.3859</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="2" t="n">
         <v>15999439159.9116</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="2" t="n">
         <v>17372820458.0606</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="2" t="n">
         <v>8885296826.8794</v>
       </c>
+      <c r="AX7" s="2"/>
     </row>
     <row r="8">
       <c r="N8" t="s">
@@ -5257,180 +5292,182 @@
       <c r="O8" t="s">
         <v>70</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8" t="n">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="n">
         <v>726998529.4882</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" s="2" t="n">
         <v>362137212</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8" s="2" t="n">
         <v>309450827.5508</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8" s="2" t="n">
         <v>148887007</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8" s="2" t="n">
         <v>87227836</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8" s="2" t="n">
         <v>33778913</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" s="2" t="n">
         <v>38156531.3298</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="2" t="n">
         <v>15807920.515</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="2" t="n">
         <v>11448284.1413</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" s="2" t="n">
         <v>7016275.9828</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>484540600.4697</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="2" t="n">
         <v>522697657.5646</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="2" t="n">
         <v>599055450.8974</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="2" t="n">
         <v>350138960.9436</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="2" t="n">
         <v>385411959.2752</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8" s="2" t="n">
         <v>372004164.4054</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8" s="2" t="n">
         <v>32232953.4636</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8" s="2" t="n">
         <v>109449604.243</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8" s="2" t="n">
         <v>526822.287</v>
       </c>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8" t="n">
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2" t="n">
         <v>832221.2852</v>
       </c>
-      <c r="AV8"/>
-      <c r="AW8"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
     </row>
     <row r="9">
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9" s="2" t="n">
         <v>19702439894</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="2" t="n">
         <v>19319595733</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="2" t="n">
         <v>19385047958</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="2" t="n">
         <v>18241613499</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="2" t="n">
         <v>17643919462</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="2" t="n">
         <v>18690643667</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="2" t="n">
         <v>18181185718</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="2" t="n">
         <v>18425728076</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="2" t="n">
         <v>17479311563</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="2" t="n">
         <v>19571291342</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9" s="2" t="n">
         <v>348305</v>
       </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="n">
         <v>1068586</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9" s="2" t="n">
         <v>1082000</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" s="2" t="n">
         <v>200329</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9" s="2" t="n">
         <v>667000</v>
       </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9"/>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2"/>
     </row>
     <row r="13">
       <c r="N13" t="s">
@@ -5549,88 +5586,89 @@
       <c r="O14" t="s">
         <v>63</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14" t="n">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
         <v>12961307294.9388</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="2" t="n">
         <v>13125631984.6665</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="2" t="n">
         <v>13666200926.428</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="2" t="n">
         <v>14330900498.0756</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="2" t="n">
         <v>16227342908.6055</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="2" t="n">
         <v>18296900463.4098</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="2" t="n">
         <v>16350799014.2156</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="2" t="n">
         <v>18648377773.1301</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="2" t="n">
         <v>18291545531.4129</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="2" t="n">
         <v>17655620627.7657</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>18099625025.9532</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="2" t="n">
         <v>18675057832.6478</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="2" t="n">
         <v>18790872534.7089</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="2" t="n">
         <v>15699609681.9545</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="2" t="n">
         <v>14850192343.48</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="2" t="n">
         <v>14434714318.6138</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="2" t="n">
         <v>14109952279.694</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>14316917425.7098</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="2" t="n">
         <v>15104258682.0678</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="2" t="n">
         <v>14609834812.2895</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="2" t="n">
         <v>14481291539.225</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="2" t="n">
         <v>12798343743.8689</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="2" t="n">
         <v>13045110411.5948</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="2" t="n">
         <v>6081224506.96881</v>
       </c>
+      <c r="AX14" s="2"/>
     </row>
     <row r="15">
       <c r="N15" t="s">
@@ -5639,88 +5677,89 @@
       <c r="O15" t="s">
         <v>64</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15" t="n">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
         <v>920859154.130581</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="2" t="n">
         <v>1043016539.54194</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="2" t="n">
         <v>1396938901.34518</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="2" t="n">
         <v>2333401259.59913</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="2" t="n">
         <v>2463643565.82501</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="2" t="n">
         <v>2617680385.3775</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="2" t="n">
         <v>2801716404.10066</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="2" t="n">
         <v>2944378295.98464</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="2" t="n">
         <v>3114639572.66255</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="2" t="n">
         <v>2992998490.44121</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>3664213922.38738</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="2" t="n">
         <v>3084878662.4035</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="2" t="n">
         <v>2351954237.37449</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="2" t="n">
         <v>2189962697.18299</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="2" t="n">
         <v>2170463980.77772</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="2" t="n">
         <v>1985982401.94974</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="2" t="n">
         <v>2212462267.47001</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>1996009483.11804</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="2" t="n">
         <v>2417910318.68102</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="2" t="n">
         <v>2667791319.41662</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="2" t="n">
         <v>2299138186.70984</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="2" t="n">
         <v>2117446533.57888</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="2" t="n">
         <v>2191809031.7026</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" s="2" t="n">
         <v>760802223.900528</v>
       </c>
+      <c r="AX15" s="2"/>
     </row>
     <row r="16">
       <c r="N16" t="s">
@@ -5729,88 +5768,89 @@
       <c r="O16" t="s">
         <v>66</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
         <v>9727174.77143519</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="2" t="n">
         <v>13825979.8016546</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="2" t="n">
         <v>34600161.2317089</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="2" t="n">
         <v>31407937.0814222</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="2" t="n">
         <v>73576309.5721154</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" s="2" t="n">
         <v>15505952.1867654</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" s="2" t="n">
         <v>2680026.0574574</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" s="2" t="n">
         <v>4013753.15808871</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16" s="2" t="n">
         <v>1181294.97539394</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16" s="2" t="n">
         <v>328723.791900811</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>186341485.790612</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="2" t="n">
         <v>716509820.953175</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="2" t="n">
         <v>2139450326.37744</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="2" t="n">
         <v>1935710795.70225</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="2" t="n">
         <v>2444073686.87906</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="2" t="n">
         <v>2692664216.8192</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="2" t="n">
         <v>3178906569.00427</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>3509286349.53604</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="2" t="n">
         <v>3114409029.11968</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="2" t="n">
         <v>3169603551.90795</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="2" t="n">
         <v>4197641568.44383</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="2" t="n">
         <v>3534611893.47195</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="2" t="n">
         <v>3769401768.7207</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" s="2" t="n">
         <v>2222448524.57506</v>
       </c>
+      <c r="AX16" s="2"/>
     </row>
     <row r="17">
       <c r="N17" t="s">
@@ -5819,88 +5859,89 @@
       <c r="O17" t="s">
         <v>67</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17" t="n">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>4927157186.83787</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="2" t="n">
         <v>5798817279.2369</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="2" t="n">
         <v>7619954709.52429</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="2" t="n">
         <v>8777647808.71865</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="2" t="n">
         <v>9157200366.24047</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="2" t="n">
         <v>8039136136.04891</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="2" t="n">
         <v>8186321769.03338</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="2" t="n">
         <v>6917595114.74923</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="2" t="n">
         <v>6339524274.34437</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="2" t="n">
         <v>5667694308.37954</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>4815072321.09857</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="2" t="n">
         <v>4798986979.32172</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="2" t="n">
         <v>4888913920.04555</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="2" t="n">
         <v>4223466893.2987</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="2" t="n">
         <v>4550084302.77115</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="2" t="n">
         <v>4279560546.04342</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="2" t="n">
         <v>5222100054.68736</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>5328561788.29761</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="2" t="n">
         <v>6260850971.83937</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="2" t="n">
         <v>7134623901.72826</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="2" t="n">
         <v>7915101555.64024</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="2" t="n">
         <v>7709830759.3545</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="2" t="n">
         <v>7617431058.9485</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" s="2" t="n">
         <v>2662177316.67404</v>
       </c>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18">
       <c r="N18" t="s">
@@ -5909,88 +5950,89 @@
       <c r="O18" t="s">
         <v>68</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" t="n">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
         <v>2731696421.89019</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="2" t="n">
         <v>3409568429.63167</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="2" t="n">
         <v>3726315461.56334</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="2" t="n">
         <v>5361245965.69439</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="2" t="n">
         <v>6811602767.49798</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="2" t="n">
         <v>8557259381.98127</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="2" t="n">
         <v>10086272444.2264</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="2" t="n">
         <v>14758753893.6722</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="2" t="n">
         <v>17069955728.4717</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="2" t="n">
         <v>17820730673.175</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>17585049149.7821</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="2" t="n">
         <v>14638823690.3519</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="2" t="n">
         <v>13342640851.6109</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="2" t="n">
         <v>10017198450.1811</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="2" t="n">
         <v>9763008130.90557</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="2" t="n">
         <v>9589270788.40471</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="2" t="n">
         <v>11342340045.1231</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>12239123627.1512</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="2" t="n">
         <v>12813916834.6457</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="2" t="n">
         <v>12901235438.2308</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="2" t="n">
         <v>12388642400.509</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" s="2" t="n">
         <v>9772334864.37524</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" s="2" t="n">
         <v>9591251136.8508</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="2" t="n">
         <v>3542946416.9478</v>
       </c>
+      <c r="AX18" s="2"/>
     </row>
     <row r="19">
       <c r="N19" t="s">
@@ -5999,88 +6041,89 @@
       <c r="O19" t="s">
         <v>69</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19" t="n">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
         <v>10801547824.4245</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="2" t="n">
         <v>11352417298.7088</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="2" t="n">
         <v>13147055489.991</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="2" t="n">
         <v>16914567100.7451</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="2" t="n">
         <v>20963437698.4331</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="2" t="n">
         <v>23393414310.4649</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="2" t="n">
         <v>25717777067.3323</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="2" t="n">
         <v>28085124300.937</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="2" t="n">
         <v>31086415849.3176</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="2" t="n">
         <v>28887865544.4851</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>28434773204.7627</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="2" t="n">
         <v>24635488191.8153</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="2" t="n">
         <v>20218515019.1962</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="2" t="n">
         <v>16343765503.4971</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="2" t="n">
         <v>15318694914.9592</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="2" t="n">
         <v>14087666988.7229</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="2" t="n">
         <v>15410120968.3986</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>15902524392.6222</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="2" t="n">
         <v>18506894702.5902</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="2" t="n">
         <v>21031823582.3362</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="2" t="n">
         <v>19900094533.4714</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" s="2" t="n">
         <v>17108001819.4395</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" s="2" t="n">
         <v>17372820458.0606</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="2" t="n">
         <v>8474781714.27936</v>
       </c>
+      <c r="AX19" s="2"/>
     </row>
     <row r="20">
       <c r="N20" t="s">
@@ -6089,180 +6132,1879 @@
       <c r="O20" t="s">
         <v>70</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20" t="n">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="n">
         <v>1174633370.23208</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20" s="2" t="n">
         <v>571263173.401171</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20" s="2" t="n">
         <v>480566564.475561</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20" s="2" t="n">
         <v>226879728.950365</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20" s="2" t="n">
         <v>129749602.935987</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20" s="2" t="n">
         <v>48765086.7204176</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" s="2" t="n">
         <v>53347973.6637545</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" s="2" t="n">
         <v>21511686.0849076</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20" s="2" t="n">
         <v>15260743.3187073</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20" s="2" t="n">
         <v>9258719.84761169</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>633889443.103906</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="2" t="n">
         <v>670298533.47244</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="2" t="n">
         <v>754390529.171158</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="2" t="n">
         <v>433005983.816413</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="2" t="n">
         <v>467581195.005577</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20" s="2" t="n">
         <v>446199489.938041</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AP20" s="2" t="n">
         <v>38343999.9234665</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AQ20" s="2" t="n">
         <v>127916368.159584</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="AR20" s="2" t="n">
         <v>601584.426868607</v>
       </c>
-      <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20" t="n">
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2" t="n">
         <v>889883.896496314</v>
       </c>
-      <c r="AV20"/>
-      <c r="AW20"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
     </row>
     <row r="21">
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" t="n">
+      <c r="P21" s="2" t="n">
         <v>39159221227.3348</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="2" t="n">
         <v>37075841095.001</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="2" t="n">
         <v>36294366444.8787</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="2" t="n">
         <v>33369645404.352</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="2" t="n">
         <v>31587983747.9476</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="2" t="n">
         <v>32767823423.5663</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="2" t="n">
         <v>31286645512.572</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="2" t="n">
         <v>31154027060.9063</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="2" t="n">
         <v>29189360890.8719</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="2" t="n">
         <v>32280454746.2768</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21" s="2" t="n">
         <v>562766.854984851</v>
       </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
+      <c r="AA21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2" t="n">
         <v>1589499.58592294</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21" s="2" t="n">
         <v>1562034.39203304</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21" s="2" t="n">
         <v>280086.943011502</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21" s="2" t="n">
         <v>907664.90159274</v>
       </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21"/>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21"/>
-      <c r="AV21"/>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AH21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="n">
+        <v>8021951004</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>8320647985</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>8800065378.6094</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>9404475634.0487</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>10909289692.7472</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>12674014351.0174</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>11694723004.5789</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>13703810682.6111</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>13721927317.2913</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>13379463793.1479</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>13835225170.1946</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>14562778368.9755</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>14921680726.0337</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>12695078651.8236</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>12240530174.9698</v>
+      </c>
+      <c r="AN2" s="3" t="n">
+        <v>12034468796.1706</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>11861189132.9223</v>
+      </c>
+      <c r="AP2" s="3" t="n">
+        <v>12250042498.617</v>
+      </c>
+      <c r="AQ2" s="3" t="n">
+        <v>13227171028.5887</v>
+      </c>
+      <c r="AR2" s="3" t="n">
+        <v>13044785404.6434</v>
+      </c>
+      <c r="AS2" s="3" t="n">
+        <v>13102504225.1953</v>
+      </c>
+      <c r="AT2" s="3" t="n">
+        <v>11969037894.5947</v>
+      </c>
+      <c r="AU2" s="3" t="n">
+        <v>13045110411.5948</v>
+      </c>
+      <c r="AV2" s="3" t="n">
+        <v>6375796644.3276</v>
+      </c>
+      <c r="AW2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3" t="n">
+        <v>569933792.0107</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>661192807.9501</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>899529703.0931</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>1531265623.7691</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>1656253985.0566</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>1813231636.5276</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>2003895788.5089</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>2163684328.8482</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>2336536175.264</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>2268100101.3824</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>2800899168.6457</v>
+      </c>
+      <c r="AJ3" s="3" t="n">
+        <v>2405583139.7334</v>
+      </c>
+      <c r="AK3" s="3" t="n">
+        <v>1867667940.7792</v>
+      </c>
+      <c r="AL3" s="3" t="n">
+        <v>1770856043.4629</v>
+      </c>
+      <c r="AM3" s="3" t="n">
+        <v>1789042810.7525</v>
+      </c>
+      <c r="AN3" s="3" t="n">
+        <v>1655747576.1878</v>
+      </c>
+      <c r="AO3" s="3" t="n">
+        <v>1859852739.6639</v>
+      </c>
+      <c r="AP3" s="3" t="n">
+        <v>1707853741.751</v>
+      </c>
+      <c r="AQ3" s="3" t="n">
+        <v>2117423568.424</v>
+      </c>
+      <c r="AR3" s="3" t="n">
+        <v>2382009496.5678</v>
+      </c>
+      <c r="AS3" s="3" t="n">
+        <v>2080233501.5545</v>
+      </c>
+      <c r="AT3" s="3" t="n">
+        <v>1980240436.3709</v>
+      </c>
+      <c r="AU3" s="3" t="n">
+        <v>2191809031.7026</v>
+      </c>
+      <c r="AV3" s="3" t="n">
+        <v>797655186.1526</v>
+      </c>
+      <c r="AW3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3" t="n">
+        <v>6020297</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>8764615</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>22280053</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>20611069</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>49463752.6406</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>10740762.4004</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>1916858.1523</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>2949517.3293</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>886182.2947</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>249107.5315</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>142438111.8816</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>558733141.0291</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>1698920294.4379</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>1565261894.8145</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>2014570385.4959</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>2244920320.5975</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>2672270699.6757</v>
+      </c>
+      <c r="AP4" s="3" t="n">
+        <v>3002665004.1604</v>
+      </c>
+      <c r="AQ4" s="3" t="n">
+        <v>2727364629.2919</v>
+      </c>
+      <c r="AR4" s="3" t="n">
+        <v>2830066094.7689</v>
+      </c>
+      <c r="AS4" s="3" t="n">
+        <v>3797977289.3471</v>
+      </c>
+      <c r="AT4" s="3" t="n">
+        <v>3305576451.3215</v>
+      </c>
+      <c r="AU4" s="3" t="n">
+        <v>3769401768.7207</v>
+      </c>
+      <c r="AV4" s="3" t="n">
+        <v>2330103062.1281</v>
+      </c>
+      <c r="AW4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3" t="n">
+        <v>3049492820.6242</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>3676007171.7866</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>4906711088.6817</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>5760222461.4176</v>
+      </c>
+      <c r="AC5" s="3" t="n">
+        <v>6156186637.1155</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>5568600373.6984</v>
+      </c>
+      <c r="AE5" s="3" t="n">
+        <v>5855173525.891</v>
+      </c>
+      <c r="AF5" s="3" t="n">
+        <v>5083413419.9099</v>
+      </c>
+      <c r="AG5" s="3" t="n">
+        <v>4755775894.8999</v>
+      </c>
+      <c r="AH5" s="3" t="n">
+        <v>4294989815.897</v>
+      </c>
+      <c r="AI5" s="3" t="n">
+        <v>3680607177.0905</v>
+      </c>
+      <c r="AJ5" s="3" t="n">
+        <v>3742241892.9962</v>
+      </c>
+      <c r="AK5" s="3" t="n">
+        <v>3882247217.4846</v>
+      </c>
+      <c r="AL5" s="3" t="n">
+        <v>3415196013.1486</v>
+      </c>
+      <c r="AM5" s="3" t="n">
+        <v>3750486385.5302</v>
+      </c>
+      <c r="AN5" s="3" t="n">
+        <v>3567942996.0224</v>
+      </c>
+      <c r="AO5" s="3" t="n">
+        <v>4389831743.714</v>
+      </c>
+      <c r="AP5" s="3" t="n">
+        <v>4559299074.1103</v>
+      </c>
+      <c r="AQ5" s="3" t="n">
+        <v>5482781269.3213</v>
+      </c>
+      <c r="AR5" s="3" t="n">
+        <v>6370341549.8303</v>
+      </c>
+      <c r="AS5" s="3" t="n">
+        <v>7161491866.5726</v>
+      </c>
+      <c r="AT5" s="3" t="n">
+        <v>7210249885.9536</v>
+      </c>
+      <c r="AU5" s="3" t="n">
+        <v>7617431058.9485</v>
+      </c>
+      <c r="AV5" s="3" t="n">
+        <v>2791132144.9824</v>
+      </c>
+      <c r="AW5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3" t="n">
+        <v>1690688628.5122</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>2161405920.635</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>2399483211.1437</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>3518251142.647</v>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>4579292388.2287</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>5927497306.4152</v>
+      </c>
+      <c r="AE6" s="3" t="n">
+        <v>7214091634.3839</v>
+      </c>
+      <c r="AF6" s="3" t="n">
+        <v>10845510088.3655</v>
+      </c>
+      <c r="AG6" s="3" t="n">
+        <v>12805516702.4137</v>
+      </c>
+      <c r="AH6" s="3" t="n">
+        <v>13504584508.019</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>13441887015.1903</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
+        <v>11415329842.375</v>
+      </c>
+      <c r="AK6" s="3" t="n">
+        <v>10595283772.0612</v>
+      </c>
+      <c r="AL6" s="3" t="n">
+        <v>8100145466.8103</v>
+      </c>
+      <c r="AM6" s="3" t="n">
+        <v>8047329816.3908</v>
+      </c>
+      <c r="AN6" s="3" t="n">
+        <v>7994739454.7514</v>
+      </c>
+      <c r="AO6" s="3" t="n">
+        <v>9534663039.1326</v>
+      </c>
+      <c r="AP6" s="3" t="n">
+        <v>10472211309.202</v>
+      </c>
+      <c r="AQ6" s="3" t="n">
+        <v>11221462309.7786</v>
+      </c>
+      <c r="AR6" s="3" t="n">
+        <v>11519216329.875</v>
+      </c>
+      <c r="AS6" s="3" t="n">
+        <v>11209099613.624</v>
+      </c>
+      <c r="AT6" s="3" t="n">
+        <v>9139108047.9776</v>
+      </c>
+      <c r="AU6" s="3" t="n">
+        <v>9591251136.8508</v>
+      </c>
+      <c r="AV6" s="3" t="n">
+        <v>3714565356.0927</v>
+      </c>
+      <c r="AW6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3" t="n">
+        <v>6685242888.1716</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>7196565333.5191</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>8465772490.1727</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>11099974783.9154</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>14093263209.8866</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>16204300246.5388</v>
+      </c>
+      <c r="AE7" s="3" t="n">
+        <v>18394347507.6953</v>
+      </c>
+      <c r="AF7" s="3" t="n">
+        <v>20638429310.0387</v>
+      </c>
+      <c r="AG7" s="3" t="n">
+        <v>23320366127.9944</v>
+      </c>
+      <c r="AH7" s="3" t="n">
+        <v>21891280927.6122</v>
+      </c>
+      <c r="AI7" s="3" t="n">
+        <v>21735339234.222</v>
+      </c>
+      <c r="AJ7" s="3" t="n">
+        <v>19210711836.2831</v>
+      </c>
+      <c r="AK7" s="3" t="n">
+        <v>16055360139.0089</v>
+      </c>
+      <c r="AL7" s="3" t="n">
+        <v>13215958405.1536</v>
+      </c>
+      <c r="AM7" s="3" t="n">
+        <v>12626701594.8814</v>
+      </c>
+      <c r="AN7" s="3" t="n">
+        <v>11745129487.4611</v>
+      </c>
+      <c r="AO7" s="3" t="n">
+        <v>12954144404.1901</v>
+      </c>
+      <c r="AP7" s="3" t="n">
+        <v>13606741860.1639</v>
+      </c>
+      <c r="AQ7" s="3" t="n">
+        <v>16206943127.23</v>
+      </c>
+      <c r="AR7" s="3" t="n">
+        <v>18778831439.5665</v>
+      </c>
+      <c r="AS7" s="3" t="n">
+        <v>18005374175.3859</v>
+      </c>
+      <c r="AT7" s="3" t="n">
+        <v>15999439159.9116</v>
+      </c>
+      <c r="AU7" s="3" t="n">
+        <v>17372820458.0606</v>
+      </c>
+      <c r="AV7" s="3" t="n">
+        <v>8885296826.8794</v>
+      </c>
+      <c r="AW7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3" t="n">
+        <v>726998529.4882</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>362137212</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>309450827.5508</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>148887007</v>
+      </c>
+      <c r="AC8" s="3" t="n">
+        <v>87227836</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>33778913</v>
+      </c>
+      <c r="AE8" s="3" t="n">
+        <v>38156531.3298</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>15807920.515</v>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>11448284.1413</v>
+      </c>
+      <c r="AH8" s="3" t="n">
+        <v>7016275.9828</v>
+      </c>
+      <c r="AI8" s="3" t="n">
+        <v>484540600.4697</v>
+      </c>
+      <c r="AJ8" s="3" t="n">
+        <v>522697657.5646</v>
+      </c>
+      <c r="AK8" s="3" t="n">
+        <v>599055450.8974</v>
+      </c>
+      <c r="AL8" s="3" t="n">
+        <v>350138960.9436</v>
+      </c>
+      <c r="AM8" s="3" t="n">
+        <v>385411959.2752</v>
+      </c>
+      <c r="AN8" s="3" t="n">
+        <v>372004164.4054</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>32232953.4636</v>
+      </c>
+      <c r="AP8" s="3" t="n">
+        <v>109449604.243</v>
+      </c>
+      <c r="AQ8" s="3" t="n">
+        <v>526822.287</v>
+      </c>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3" t="n">
+        <v>832221.2852</v>
+      </c>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="3" t="n">
+        <v>19702439894</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>19319595733</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>19385047958</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>18241613499</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>17643919462</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>18690643667</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>18181185718</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>18425728076</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>17479311563</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>19571291342</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>348305</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>1068586</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>1082000</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>200329</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>667000</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="3"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3" t="n">
+        <v>12961307294.9388</v>
+      </c>
+      <c r="Z14" s="3" t="n">
+        <v>13125631984.6665</v>
+      </c>
+      <c r="AA14" s="3" t="n">
+        <v>13666200926.428</v>
+      </c>
+      <c r="AB14" s="3" t="n">
+        <v>14330900498.0756</v>
+      </c>
+      <c r="AC14" s="3" t="n">
+        <v>16227342908.6055</v>
+      </c>
+      <c r="AD14" s="3" t="n">
+        <v>18296900463.4098</v>
+      </c>
+      <c r="AE14" s="3" t="n">
+        <v>16350799014.2156</v>
+      </c>
+      <c r="AF14" s="3" t="n">
+        <v>18648377773.1301</v>
+      </c>
+      <c r="AG14" s="3" t="n">
+        <v>18291545531.4129</v>
+      </c>
+      <c r="AH14" s="3" t="n">
+        <v>17655620627.7657</v>
+      </c>
+      <c r="AI14" s="3" t="n">
+        <v>18099625025.9532</v>
+      </c>
+      <c r="AJ14" s="3" t="n">
+        <v>18675057832.6478</v>
+      </c>
+      <c r="AK14" s="3" t="n">
+        <v>18790872534.7089</v>
+      </c>
+      <c r="AL14" s="3" t="n">
+        <v>15699609681.9545</v>
+      </c>
+      <c r="AM14" s="3" t="n">
+        <v>14850192343.48</v>
+      </c>
+      <c r="AN14" s="3" t="n">
+        <v>14434714318.6138</v>
+      </c>
+      <c r="AO14" s="3" t="n">
+        <v>14109952279.694</v>
+      </c>
+      <c r="AP14" s="3" t="n">
+        <v>14316917425.7098</v>
+      </c>
+      <c r="AQ14" s="3" t="n">
+        <v>15104258682.0678</v>
+      </c>
+      <c r="AR14" s="3" t="n">
+        <v>14609834812.2895</v>
+      </c>
+      <c r="AS14" s="3" t="n">
+        <v>14481291539.225</v>
+      </c>
+      <c r="AT14" s="3" t="n">
+        <v>12798343743.8689</v>
+      </c>
+      <c r="AU14" s="3" t="n">
+        <v>13045110411.5948</v>
+      </c>
+      <c r="AV14" s="3" t="n">
+        <v>6081224506.96881</v>
+      </c>
+      <c r="AW14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3" t="n">
+        <v>920859154.130581</v>
+      </c>
+      <c r="Z15" s="3" t="n">
+        <v>1043016539.54194</v>
+      </c>
+      <c r="AA15" s="3" t="n">
+        <v>1396938901.34518</v>
+      </c>
+      <c r="AB15" s="3" t="n">
+        <v>2333401259.59913</v>
+      </c>
+      <c r="AC15" s="3" t="n">
+        <v>2463643565.82501</v>
+      </c>
+      <c r="AD15" s="3" t="n">
+        <v>2617680385.3775</v>
+      </c>
+      <c r="AE15" s="3" t="n">
+        <v>2801716404.10066</v>
+      </c>
+      <c r="AF15" s="3" t="n">
+        <v>2944378295.98464</v>
+      </c>
+      <c r="AG15" s="3" t="n">
+        <v>3114639572.66255</v>
+      </c>
+      <c r="AH15" s="3" t="n">
+        <v>2992998490.44121</v>
+      </c>
+      <c r="AI15" s="3" t="n">
+        <v>3664213922.38738</v>
+      </c>
+      <c r="AJ15" s="3" t="n">
+        <v>3084878662.4035</v>
+      </c>
+      <c r="AK15" s="3" t="n">
+        <v>2351954237.37449</v>
+      </c>
+      <c r="AL15" s="3" t="n">
+        <v>2189962697.18299</v>
+      </c>
+      <c r="AM15" s="3" t="n">
+        <v>2170463980.77772</v>
+      </c>
+      <c r="AN15" s="3" t="n">
+        <v>1985982401.94974</v>
+      </c>
+      <c r="AO15" s="3" t="n">
+        <v>2212462267.47001</v>
+      </c>
+      <c r="AP15" s="3" t="n">
+        <v>1996009483.11804</v>
+      </c>
+      <c r="AQ15" s="3" t="n">
+        <v>2417910318.68102</v>
+      </c>
+      <c r="AR15" s="3" t="n">
+        <v>2667791319.41662</v>
+      </c>
+      <c r="AS15" s="3" t="n">
+        <v>2299138186.70984</v>
+      </c>
+      <c r="AT15" s="3" t="n">
+        <v>2117446533.57888</v>
+      </c>
+      <c r="AU15" s="3" t="n">
+        <v>2191809031.7026</v>
+      </c>
+      <c r="AV15" s="3" t="n">
+        <v>760802223.900528</v>
+      </c>
+      <c r="AW15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3" t="n">
+        <v>9727174.77143519</v>
+      </c>
+      <c r="Z16" s="3" t="n">
+        <v>13825979.8016546</v>
+      </c>
+      <c r="AA16" s="3" t="n">
+        <v>34600161.2317089</v>
+      </c>
+      <c r="AB16" s="3" t="n">
+        <v>31407937.0814222</v>
+      </c>
+      <c r="AC16" s="3" t="n">
+        <v>73576309.5721154</v>
+      </c>
+      <c r="AD16" s="3" t="n">
+        <v>15505952.1867654</v>
+      </c>
+      <c r="AE16" s="3" t="n">
+        <v>2680026.0574574</v>
+      </c>
+      <c r="AF16" s="3" t="n">
+        <v>4013753.15808871</v>
+      </c>
+      <c r="AG16" s="3" t="n">
+        <v>1181294.97539394</v>
+      </c>
+      <c r="AH16" s="3" t="n">
+        <v>328723.791900811</v>
+      </c>
+      <c r="AI16" s="3" t="n">
+        <v>186341485.790612</v>
+      </c>
+      <c r="AJ16" s="3" t="n">
+        <v>716509820.953175</v>
+      </c>
+      <c r="AK16" s="3" t="n">
+        <v>2139450326.37744</v>
+      </c>
+      <c r="AL16" s="3" t="n">
+        <v>1935710795.70225</v>
+      </c>
+      <c r="AM16" s="3" t="n">
+        <v>2444073686.87906</v>
+      </c>
+      <c r="AN16" s="3" t="n">
+        <v>2692664216.8192</v>
+      </c>
+      <c r="AO16" s="3" t="n">
+        <v>3178906569.00427</v>
+      </c>
+      <c r="AP16" s="3" t="n">
+        <v>3509286349.53604</v>
+      </c>
+      <c r="AQ16" s="3" t="n">
+        <v>3114409029.11968</v>
+      </c>
+      <c r="AR16" s="3" t="n">
+        <v>3169603551.90795</v>
+      </c>
+      <c r="AS16" s="3" t="n">
+        <v>4197641568.44383</v>
+      </c>
+      <c r="AT16" s="3" t="n">
+        <v>3534611893.47195</v>
+      </c>
+      <c r="AU16" s="3" t="n">
+        <v>3769401768.7207</v>
+      </c>
+      <c r="AV16" s="3" t="n">
+        <v>2222448524.57506</v>
+      </c>
+      <c r="AW16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3" t="n">
+        <v>4927157186.83787</v>
+      </c>
+      <c r="Z17" s="3" t="n">
+        <v>5798817279.2369</v>
+      </c>
+      <c r="AA17" s="3" t="n">
+        <v>7619954709.52429</v>
+      </c>
+      <c r="AB17" s="3" t="n">
+        <v>8777647808.71865</v>
+      </c>
+      <c r="AC17" s="3" t="n">
+        <v>9157200366.24047</v>
+      </c>
+      <c r="AD17" s="3" t="n">
+        <v>8039136136.04891</v>
+      </c>
+      <c r="AE17" s="3" t="n">
+        <v>8186321769.03338</v>
+      </c>
+      <c r="AF17" s="3" t="n">
+        <v>6917595114.74923</v>
+      </c>
+      <c r="AG17" s="3" t="n">
+        <v>6339524274.34437</v>
+      </c>
+      <c r="AH17" s="3" t="n">
+        <v>5667694308.37954</v>
+      </c>
+      <c r="AI17" s="3" t="n">
+        <v>4815072321.09857</v>
+      </c>
+      <c r="AJ17" s="3" t="n">
+        <v>4798986979.32172</v>
+      </c>
+      <c r="AK17" s="3" t="n">
+        <v>4888913920.04555</v>
+      </c>
+      <c r="AL17" s="3" t="n">
+        <v>4223466893.2987</v>
+      </c>
+      <c r="AM17" s="3" t="n">
+        <v>4550084302.77115</v>
+      </c>
+      <c r="AN17" s="3" t="n">
+        <v>4279560546.04342</v>
+      </c>
+      <c r="AO17" s="3" t="n">
+        <v>5222100054.68736</v>
+      </c>
+      <c r="AP17" s="3" t="n">
+        <v>5328561788.29761</v>
+      </c>
+      <c r="AQ17" s="3" t="n">
+        <v>6260850971.83937</v>
+      </c>
+      <c r="AR17" s="3" t="n">
+        <v>7134623901.72826</v>
+      </c>
+      <c r="AS17" s="3" t="n">
+        <v>7915101555.64024</v>
+      </c>
+      <c r="AT17" s="3" t="n">
+        <v>7709830759.3545</v>
+      </c>
+      <c r="AU17" s="3" t="n">
+        <v>7617431058.9485</v>
+      </c>
+      <c r="AV17" s="3" t="n">
+        <v>2662177316.67404</v>
+      </c>
+      <c r="AW17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3" t="n">
+        <v>2731696421.89019</v>
+      </c>
+      <c r="Z18" s="3" t="n">
+        <v>3409568429.63167</v>
+      </c>
+      <c r="AA18" s="3" t="n">
+        <v>3726315461.56334</v>
+      </c>
+      <c r="AB18" s="3" t="n">
+        <v>5361245965.69439</v>
+      </c>
+      <c r="AC18" s="3" t="n">
+        <v>6811602767.49798</v>
+      </c>
+      <c r="AD18" s="3" t="n">
+        <v>8557259381.98127</v>
+      </c>
+      <c r="AE18" s="3" t="n">
+        <v>10086272444.2264</v>
+      </c>
+      <c r="AF18" s="3" t="n">
+        <v>14758753893.6722</v>
+      </c>
+      <c r="AG18" s="3" t="n">
+        <v>17069955728.4717</v>
+      </c>
+      <c r="AH18" s="3" t="n">
+        <v>17820730673.175</v>
+      </c>
+      <c r="AI18" s="3" t="n">
+        <v>17585049149.7821</v>
+      </c>
+      <c r="AJ18" s="3" t="n">
+        <v>14638823690.3519</v>
+      </c>
+      <c r="AK18" s="3" t="n">
+        <v>13342640851.6109</v>
+      </c>
+      <c r="AL18" s="3" t="n">
+        <v>10017198450.1811</v>
+      </c>
+      <c r="AM18" s="3" t="n">
+        <v>9763008130.90557</v>
+      </c>
+      <c r="AN18" s="3" t="n">
+        <v>9589270788.40471</v>
+      </c>
+      <c r="AO18" s="3" t="n">
+        <v>11342340045.1231</v>
+      </c>
+      <c r="AP18" s="3" t="n">
+        <v>12239123627.1512</v>
+      </c>
+      <c r="AQ18" s="3" t="n">
+        <v>12813916834.6457</v>
+      </c>
+      <c r="AR18" s="3" t="n">
+        <v>12901235438.2308</v>
+      </c>
+      <c r="AS18" s="3" t="n">
+        <v>12388642400.509</v>
+      </c>
+      <c r="AT18" s="3" t="n">
+        <v>9772334864.37524</v>
+      </c>
+      <c r="AU18" s="3" t="n">
+        <v>9591251136.8508</v>
+      </c>
+      <c r="AV18" s="3" t="n">
+        <v>3542946416.9478</v>
+      </c>
+      <c r="AW18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3" t="n">
+        <v>10801547824.4245</v>
+      </c>
+      <c r="Z19" s="3" t="n">
+        <v>11352417298.7088</v>
+      </c>
+      <c r="AA19" s="3" t="n">
+        <v>13147055489.991</v>
+      </c>
+      <c r="AB19" s="3" t="n">
+        <v>16914567100.7451</v>
+      </c>
+      <c r="AC19" s="3" t="n">
+        <v>20963437698.4331</v>
+      </c>
+      <c r="AD19" s="3" t="n">
+        <v>23393414310.4649</v>
+      </c>
+      <c r="AE19" s="3" t="n">
+        <v>25717777067.3323</v>
+      </c>
+      <c r="AF19" s="3" t="n">
+        <v>28085124300.937</v>
+      </c>
+      <c r="AG19" s="3" t="n">
+        <v>31086415849.3176</v>
+      </c>
+      <c r="AH19" s="3" t="n">
+        <v>28887865544.4851</v>
+      </c>
+      <c r="AI19" s="3" t="n">
+        <v>28434773204.7627</v>
+      </c>
+      <c r="AJ19" s="3" t="n">
+        <v>24635488191.8153</v>
+      </c>
+      <c r="AK19" s="3" t="n">
+        <v>20218515019.1962</v>
+      </c>
+      <c r="AL19" s="3" t="n">
+        <v>16343765503.4971</v>
+      </c>
+      <c r="AM19" s="3" t="n">
+        <v>15318694914.9592</v>
+      </c>
+      <c r="AN19" s="3" t="n">
+        <v>14087666988.7229</v>
+      </c>
+      <c r="AO19" s="3" t="n">
+        <v>15410120968.3986</v>
+      </c>
+      <c r="AP19" s="3" t="n">
+        <v>15902524392.6222</v>
+      </c>
+      <c r="AQ19" s="3" t="n">
+        <v>18506894702.5902</v>
+      </c>
+      <c r="AR19" s="3" t="n">
+        <v>21031823582.3362</v>
+      </c>
+      <c r="AS19" s="3" t="n">
+        <v>19900094533.4714</v>
+      </c>
+      <c r="AT19" s="3" t="n">
+        <v>17108001819.4395</v>
+      </c>
+      <c r="AU19" s="3" t="n">
+        <v>17372820458.0606</v>
+      </c>
+      <c r="AV19" s="3" t="n">
+        <v>8474781714.27936</v>
+      </c>
+      <c r="AW19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3" t="n">
+        <v>1174633370.23208</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>571263173.401171</v>
+      </c>
+      <c r="AA20" s="3" t="n">
+        <v>480566564.475561</v>
+      </c>
+      <c r="AB20" s="3" t="n">
+        <v>226879728.950365</v>
+      </c>
+      <c r="AC20" s="3" t="n">
+        <v>129749602.935987</v>
+      </c>
+      <c r="AD20" s="3" t="n">
+        <v>48765086.7204176</v>
+      </c>
+      <c r="AE20" s="3" t="n">
+        <v>53347973.6637545</v>
+      </c>
+      <c r="AF20" s="3" t="n">
+        <v>21511686.0849076</v>
+      </c>
+      <c r="AG20" s="3" t="n">
+        <v>15260743.3187073</v>
+      </c>
+      <c r="AH20" s="3" t="n">
+        <v>9258719.84761169</v>
+      </c>
+      <c r="AI20" s="3" t="n">
+        <v>633889443.103906</v>
+      </c>
+      <c r="AJ20" s="3" t="n">
+        <v>670298533.47244</v>
+      </c>
+      <c r="AK20" s="3" t="n">
+        <v>754390529.171158</v>
+      </c>
+      <c r="AL20" s="3" t="n">
+        <v>433005983.816413</v>
+      </c>
+      <c r="AM20" s="3" t="n">
+        <v>467581195.005577</v>
+      </c>
+      <c r="AN20" s="3" t="n">
+        <v>446199489.938041</v>
+      </c>
+      <c r="AO20" s="3" t="n">
+        <v>38343999.9234665</v>
+      </c>
+      <c r="AP20" s="3" t="n">
+        <v>127916368.159584</v>
+      </c>
+      <c r="AQ20" s="3" t="n">
+        <v>601584.426868607</v>
+      </c>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3" t="n">
+        <v>889883.896496314</v>
+      </c>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="3" t="n">
+        <v>39159221227.3348</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>37075841095.001</v>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <v>36294366444.8787</v>
+      </c>
+      <c r="R21" s="3" t="n">
+        <v>33369645404.352</v>
+      </c>
+      <c r="S21" s="3" t="n">
+        <v>31587983747.9476</v>
+      </c>
+      <c r="T21" s="3" t="n">
+        <v>32767823423.5663</v>
+      </c>
+      <c r="U21" s="3" t="n">
+        <v>31286645512.572</v>
+      </c>
+      <c r="V21" s="3" t="n">
+        <v>31154027060.9063</v>
+      </c>
+      <c r="W21" s="3" t="n">
+        <v>29189360890.8719</v>
+      </c>
+      <c r="X21" s="3" t="n">
+        <v>32280454746.2768</v>
+      </c>
+      <c r="Y21" s="3" t="n">
+        <v>562766.854984851</v>
+      </c>
+      <c r="Z21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3" t="n">
+        <v>1589499.58592294</v>
+      </c>
+      <c r="AD21" s="3" t="n">
+        <v>1562034.39203304</v>
+      </c>
+      <c r="AE21" s="3" t="n">
+        <v>280086.943011502</v>
+      </c>
+      <c r="AF21" s="3" t="n">
+        <v>907664.90159274</v>
+      </c>
+      <c r="AG21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
@@ -11,12 +11,14 @@
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Proj" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -231,15 +233,101 @@
   <si>
     <t xml:space="preserve">Unlbd. IDV</t>
   </si>
+  <si>
+    <t xml:space="preserve">TopProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/FSD JOINT STARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBCB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCSS-AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIDS-LVT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MQ-9 Reaper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Labeled Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEACE SHIELD PROGRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINCGARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Defense Healthcare Management System Modernization (DHMSM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TopPStext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADP SOFTWARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADP SVCS/TELECOMM &amp;
+TRANSMISSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADPE SYSTEM
+CONFIGURATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELEC COUNTERMEASURE
+&amp; QUICK REAC EQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGINEERING AND
+TECHNICAL SERVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT AND TELECOM-
+OTHER IT AND
+TELECOMMUNICATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAINT-REP OF
+COMMUNICATION EQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISC COMMUNICATION
+EQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISCELLANEOUS
+ELECTRICAL AND
+ELECTRONIC
+COMPONENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Labeled PSC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -275,11 +363,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8010,4 +8101,3655 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>440598490</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>201230217</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>225651948</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>229437727</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v>-786732.8985</v>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>-1534571.5421</v>
+      </c>
+      <c r="Y2" s="5" t="n">
+        <v>-888138.7617</v>
+      </c>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="n">
+        <v>138652929</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>137081881</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>88157324</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>32348496</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>42752802.6906</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>72447181.8156</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>98340539.9883</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>69644900.3875</v>
+      </c>
+      <c r="Z3" s="5" t="n">
+        <v>58583429.5892</v>
+      </c>
+      <c r="AA3" s="5" t="n">
+        <v>41034948.21</v>
+      </c>
+      <c r="AB3" s="5" t="n">
+        <v>117118433.3225</v>
+      </c>
+      <c r="AC3" s="5" t="n">
+        <v>120592865.89</v>
+      </c>
+      <c r="AD3" s="5" t="n">
+        <v>152774905.1797</v>
+      </c>
+      <c r="AE3" s="5" t="n">
+        <v>104419272.9219</v>
+      </c>
+      <c r="AF3" s="5" t="n">
+        <v>119727170.2176</v>
+      </c>
+      <c r="AG3" s="5" t="n">
+        <v>104767863.8983</v>
+      </c>
+      <c r="AH3" s="5" t="n">
+        <v>151187983.1875</v>
+      </c>
+      <c r="AI3" s="5" t="n">
+        <v>137173563.8686</v>
+      </c>
+      <c r="AJ3" s="5" t="n">
+        <v>180727480.8613</v>
+      </c>
+      <c r="AK3" s="5" t="n">
+        <v>93779612.7237</v>
+      </c>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5" t="n">
+        <v>265582023.5</v>
+      </c>
+      <c r="AH4" s="5" t="n">
+        <v>487402198.75</v>
+      </c>
+      <c r="AI4" s="5" t="n">
+        <v>489189214.0313</v>
+      </c>
+      <c r="AJ4" s="5" t="n">
+        <v>678232070.75</v>
+      </c>
+      <c r="AK4" s="5" t="n">
+        <v>142304670.6954</v>
+      </c>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5" t="n">
+        <v>62689562</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>131986794</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>192662861.4063</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>584746411.4939</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>516079825.4951</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>436613597.1545</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>176693991.9806</v>
+      </c>
+      <c r="Y5" s="5" t="n">
+        <v>106260763.0338</v>
+      </c>
+      <c r="Z5" s="5" t="n">
+        <v>104376872.5062</v>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <v>319301.72</v>
+      </c>
+      <c r="AB5" s="5" t="n">
+        <v>2215922.48</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>-365291.8415</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>-5642.2799</v>
+      </c>
+      <c r="AE5" s="5" t="n">
+        <v>-353651.7134</v>
+      </c>
+      <c r="AF5" s="5" t="n">
+        <v>-332923.2226</v>
+      </c>
+      <c r="AG5" s="5" t="n">
+        <v>-27067.0502</v>
+      </c>
+      <c r="AH5" s="5" t="n">
+        <v>-73.63</v>
+      </c>
+      <c r="AI5" s="5" t="n">
+        <v>-34.34</v>
+      </c>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5" t="n">
+        <v>84000</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>83035159</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>141360939.25</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>142404724.7883</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>145469517.2884</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>136419174.4557</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>141778690.0329</v>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>127881276.9199</v>
+      </c>
+      <c r="Z6" s="5" t="n">
+        <v>109045553.2843</v>
+      </c>
+      <c r="AA6" s="5" t="n">
+        <v>99332342.4169</v>
+      </c>
+      <c r="AB6" s="5" t="n">
+        <v>104829324.1288</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <v>332055767.4303</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v>242616383.8665</v>
+      </c>
+      <c r="AE6" s="5" t="n">
+        <v>135225721.9806</v>
+      </c>
+      <c r="AF6" s="5" t="n">
+        <v>368111529.0318</v>
+      </c>
+      <c r="AG6" s="5" t="n">
+        <v>204791081.5448</v>
+      </c>
+      <c r="AH6" s="5" t="n">
+        <v>127981064.865</v>
+      </c>
+      <c r="AI6" s="5" t="n">
+        <v>99552310.0928</v>
+      </c>
+      <c r="AJ6" s="5" t="n">
+        <v>86439797.669</v>
+      </c>
+      <c r="AK6" s="5" t="n">
+        <v>2949275.687</v>
+      </c>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5" t="n">
+        <v>262887</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>1707801</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>1793854</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>209677104</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>195290328</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>269484931</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>365950603.5441</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>243885308.6506</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>114080141.3829</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>105116634.0976</v>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>144960750.2504</v>
+      </c>
+      <c r="Z7" s="5" t="n">
+        <v>207178088.2896</v>
+      </c>
+      <c r="AA7" s="5" t="n">
+        <v>241617543.07</v>
+      </c>
+      <c r="AB7" s="5" t="n">
+        <v>236113550.69</v>
+      </c>
+      <c r="AC7" s="5" t="n">
+        <v>218319601.0649</v>
+      </c>
+      <c r="AD7" s="5" t="n">
+        <v>481515665.2058</v>
+      </c>
+      <c r="AE7" s="5" t="n">
+        <v>430150475.8633</v>
+      </c>
+      <c r="AF7" s="5" t="n">
+        <v>480161015.3246</v>
+      </c>
+      <c r="AG7" s="5" t="n">
+        <v>628561540.4904</v>
+      </c>
+      <c r="AH7" s="5" t="n">
+        <v>690829678.8275</v>
+      </c>
+      <c r="AI7" s="5" t="n">
+        <v>513563342.8842</v>
+      </c>
+      <c r="AJ7" s="5" t="n">
+        <v>459632618.0985</v>
+      </c>
+      <c r="AK7" s="5" t="n">
+        <v>192756535.5416</v>
+      </c>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5" t="n">
+        <v>20517218</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>91284725</v>
+      </c>
+      <c r="U8" s="5" t="n">
+        <v>199540142</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>168167091</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>139441494</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>99215794</v>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>64526884.1992</v>
+      </c>
+      <c r="Z8" s="5" t="n">
+        <v>-21284</v>
+      </c>
+      <c r="AA8" s="5" t="n">
+        <v>-18.87</v>
+      </c>
+      <c r="AB8" s="5" t="n">
+        <v>-123974.08</v>
+      </c>
+      <c r="AC8" s="5" t="n">
+        <v>-21809.2299</v>
+      </c>
+      <c r="AD8" s="5" t="n">
+        <v>-117924.4805</v>
+      </c>
+      <c r="AE8" s="5" t="n">
+        <v>3334989.5938</v>
+      </c>
+      <c r="AF8" s="5" t="n">
+        <v>13898060.3594</v>
+      </c>
+      <c r="AG8" s="5" t="n">
+        <v>40891591.1901</v>
+      </c>
+      <c r="AH8" s="5" t="n">
+        <v>65366835.5894</v>
+      </c>
+      <c r="AI8" s="5" t="n">
+        <v>66892801.7532</v>
+      </c>
+      <c r="AJ8" s="5" t="n">
+        <v>56006244.5396</v>
+      </c>
+      <c r="AK8" s="5" t="n">
+        <v>104997881.9063</v>
+      </c>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1721030129</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>1655833804</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>1792461019</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>1784635917</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>842287955.457</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <v>1167772348.3184</v>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>1002311562.7056</v>
+      </c>
+      <c r="U9" s="5" t="n">
+        <v>1511639473.0116</v>
+      </c>
+      <c r="V9" s="5" t="n">
+        <v>1942651415.1738</v>
+      </c>
+      <c r="W9" s="5" t="n">
+        <v>1734205549.5861</v>
+      </c>
+      <c r="X9" s="5" t="n">
+        <v>1470518085.9521</v>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>1751842108.4077</v>
+      </c>
+      <c r="Z9" s="5" t="n">
+        <v>1834470473.327</v>
+      </c>
+      <c r="AA9" s="5" t="n">
+        <v>1649986410.4274</v>
+      </c>
+      <c r="AB9" s="5" t="n">
+        <v>1465849107.7281</v>
+      </c>
+      <c r="AC9" s="5" t="n">
+        <v>488978968.5597</v>
+      </c>
+      <c r="AD9" s="5" t="n">
+        <v>430821638.3569</v>
+      </c>
+      <c r="AE9" s="5" t="n">
+        <v>563982216.3608</v>
+      </c>
+      <c r="AF9" s="5" t="n">
+        <v>887871300.8177</v>
+      </c>
+      <c r="AG9" s="5" t="n">
+        <v>869841138.4002</v>
+      </c>
+      <c r="AH9" s="5" t="n">
+        <v>1114540633.7933</v>
+      </c>
+      <c r="AI9" s="5" t="n">
+        <v>1145930508.62</v>
+      </c>
+      <c r="AJ9" s="5" t="n">
+        <v>1014740736.2659</v>
+      </c>
+      <c r="AK9" s="5" t="n">
+        <v>536855777.5632</v>
+      </c>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>1394566</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>-99306</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5" t="n">
+        <v>2740945</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="M11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>33167538</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>135423809</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>76594684</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>139065916</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>280484081</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>821663735</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>889381849.8125</v>
+      </c>
+      <c r="U11" s="5" t="n">
+        <v>556257433.1015</v>
+      </c>
+      <c r="V11" s="5" t="n">
+        <v>726821067.8321</v>
+      </c>
+      <c r="W11" s="5" t="n">
+        <v>442362968.4903</v>
+      </c>
+      <c r="X11" s="5" t="n">
+        <v>55251848.9244</v>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>88749915.5508</v>
+      </c>
+      <c r="Z11" s="5" t="n">
+        <v>76231462.688</v>
+      </c>
+      <c r="AA11" s="5" t="n">
+        <v>-7850900.27</v>
+      </c>
+      <c r="AB11" s="5" t="n">
+        <v>24160145.46</v>
+      </c>
+      <c r="AC11" s="5" t="n">
+        <v>-450317.4465</v>
+      </c>
+      <c r="AD11" s="5" t="n">
+        <v>-182275.75</v>
+      </c>
+      <c r="AE11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5" t="n">
+        <v>54353.7813</v>
+      </c>
+      <c r="AJ11" s="5" t="n">
+        <v>38919604</v>
+      </c>
+      <c r="AK11" s="5" t="n">
+        <v>3165609.2539</v>
+      </c>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="M12"/>
+      <c r="N12" s="5" t="n">
+        <v>18554485541.8069</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>20394069634.8908</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>23706877300.2514</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>29326013362.7978</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>35998170456.2182</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>39675898126.2794</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>42527860986.3657</v>
+      </c>
+      <c r="U12" s="5" t="n">
+        <v>49061384983.6783</v>
+      </c>
+      <c r="V12" s="5" t="n">
+        <v>53166629656.1687</v>
+      </c>
+      <c r="W12" s="5" t="n">
+        <v>52270901155.5862</v>
+      </c>
+      <c r="X12" s="5" t="n">
+        <v>53975555464.2606</v>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>50065097418.9693</v>
+      </c>
+      <c r="Z12" s="5" t="n">
+        <v>47230350945.0186</v>
+      </c>
+      <c r="AA12" s="5" t="n">
+        <v>39088195809.4528</v>
+      </c>
+      <c r="AB12" s="5" t="n">
+        <v>38903910617.5664</v>
+      </c>
+      <c r="AC12" s="5" t="n">
+        <v>38455843011.1692</v>
+      </c>
+      <c r="AD12" s="5" t="n">
+        <v>41996761962.6637</v>
+      </c>
+      <c r="AE12" s="5" t="n">
+        <v>44471504067.2406</v>
+      </c>
+      <c r="AF12" s="5" t="n">
+        <v>49114236602.393</v>
+      </c>
+      <c r="AG12" s="5" t="n">
+        <v>52810842143.2783</v>
+      </c>
+      <c r="AH12" s="5" t="n">
+        <v>52719372350.2967</v>
+      </c>
+      <c r="AI12" s="5" t="n">
+        <v>47152128036.7237</v>
+      </c>
+      <c r="AJ12" s="5" t="n">
+        <v>51073125313.6937</v>
+      </c>
+      <c r="AK12" s="5" t="n">
+        <v>28590966943.3625</v>
+      </c>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="M13"/>
+      <c r="N13" s="4" t="n">
+        <v>18554485541.8069</v>
+      </c>
+      <c r="O13" s="4" t="n">
+        <v>20394069634.8908</v>
+      </c>
+      <c r="P13" s="4" t="n">
+        <v>23706877300.2514</v>
+      </c>
+      <c r="Q13" s="4" t="n">
+        <v>29326013362.7978</v>
+      </c>
+      <c r="R13" s="4" t="n">
+        <v>35998170456.2182</v>
+      </c>
+      <c r="S13" s="4" t="n">
+        <v>39675898126.2794</v>
+      </c>
+      <c r="T13" s="4" t="n">
+        <v>42527860986.3657</v>
+      </c>
+      <c r="U13" s="4" t="n">
+        <v>49061384983.6783</v>
+      </c>
+      <c r="V13" s="4" t="n">
+        <v>53166629656.1687</v>
+      </c>
+      <c r="W13" s="4" t="n">
+        <v>52270901155.5862</v>
+      </c>
+      <c r="X13" s="4" t="n">
+        <v>53975555464.2606</v>
+      </c>
+      <c r="Y13" s="4" t="n">
+        <v>50065097418.9693</v>
+      </c>
+      <c r="Z13" s="4" t="n">
+        <v>47230350945.0186</v>
+      </c>
+      <c r="AA13" s="4" t="n">
+        <v>39088195809.4528</v>
+      </c>
+      <c r="AB13" s="4" t="n">
+        <v>38903910617.5664</v>
+      </c>
+      <c r="AC13" s="4" t="n">
+        <v>38455843011.1692</v>
+      </c>
+      <c r="AD13" s="4" t="n">
+        <v>41996761962.6637</v>
+      </c>
+      <c r="AE13" s="4" t="n">
+        <v>44471504067.2406</v>
+      </c>
+      <c r="AF13" s="4" t="n">
+        <v>49114236602.393</v>
+      </c>
+      <c r="AG13" s="4" t="n">
+        <v>52810842143.2783</v>
+      </c>
+      <c r="AH13" s="4" t="n">
+        <v>52719372350.2967</v>
+      </c>
+      <c r="AI13" s="4" t="n">
+        <v>47152128036.7237</v>
+      </c>
+      <c r="AJ13" s="4" t="n">
+        <v>51073125313.6937</v>
+      </c>
+      <c r="AK13" s="4" t="n">
+        <v>28590966943.3625</v>
+      </c>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16" t="s">
+        <v>17</v>
+      </c>
+      <c r="U16" t="s">
+        <v>18</v>
+      </c>
+      <c r="V16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>711888220.175922</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>317436067.15464</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>350429767.067843</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>349626004.052508</v>
+      </c>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="5" t="n">
+        <v>-1038177.44911513</v>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>-2007569.02369361</v>
+      </c>
+      <c r="Y17" s="5" t="n">
+        <v>-1138933.95325569</v>
+      </c>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5" t="n">
+        <v>206243365.749227</v>
+      </c>
+      <c r="S18" s="5" t="n">
+        <v>197898902.63085</v>
+      </c>
+      <c r="T18" s="5" t="n">
+        <v>123255821.090479</v>
+      </c>
+      <c r="U18" s="5" t="n">
+        <v>44020381.4670362</v>
+      </c>
+      <c r="V18" s="5" t="n">
+        <v>56990160.2688995</v>
+      </c>
+      <c r="W18" s="5" t="n">
+        <v>95601735.4254562</v>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>128651820.027657</v>
+      </c>
+      <c r="Y18" s="5" t="n">
+        <v>89311428.7350826</v>
+      </c>
+      <c r="Z18" s="5" t="n">
+        <v>73774112.8676035</v>
+      </c>
+      <c r="AA18" s="5" t="n">
+        <v>50746646.6246489</v>
+      </c>
+      <c r="AB18" s="5" t="n">
+        <v>142087902.806911</v>
+      </c>
+      <c r="AC18" s="5" t="n">
+        <v>144644819.598432</v>
+      </c>
+      <c r="AD18" s="5" t="n">
+        <v>181739503.304695</v>
+      </c>
+      <c r="AE18" s="5" t="n">
+        <v>122037299.727268</v>
+      </c>
+      <c r="AF18" s="5" t="n">
+        <v>136717832.280993</v>
+      </c>
+      <c r="AG18" s="5" t="n">
+        <v>117337398.63944</v>
+      </c>
+      <c r="AH18" s="5" t="n">
+        <v>167097619.213551</v>
+      </c>
+      <c r="AI18" s="5" t="n">
+        <v>146677990.19625</v>
+      </c>
+      <c r="AJ18" s="5" t="n">
+        <v>180727480.8613</v>
+      </c>
+      <c r="AK18" s="5" t="n">
+        <v>89446842.6399369</v>
+      </c>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>83</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5" t="n">
+        <v>297445252.803271</v>
+      </c>
+      <c r="AH19" s="5" t="n">
+        <v>538691933.667574</v>
+      </c>
+      <c r="AI19" s="5" t="n">
+        <v>523083958.134435</v>
+      </c>
+      <c r="AJ19" s="5" t="n">
+        <v>678232070.75</v>
+      </c>
+      <c r="AK19" s="5" t="n">
+        <v>135729964.295349</v>
+      </c>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5" t="n">
+        <v>93249427.5993608</v>
+      </c>
+      <c r="S20" s="5" t="n">
+        <v>190543356.305157</v>
+      </c>
+      <c r="T20" s="5" t="n">
+        <v>269368647.989753</v>
+      </c>
+      <c r="U20" s="5" t="n">
+        <v>795732824.65565</v>
+      </c>
+      <c r="V20" s="5" t="n">
+        <v>687942546.816424</v>
+      </c>
+      <c r="W20" s="5" t="n">
+        <v>576157920.187493</v>
+      </c>
+      <c r="X20" s="5" t="n">
+        <v>231155977.575077</v>
+      </c>
+      <c r="Y20" s="5" t="n">
+        <v>136266984.549124</v>
+      </c>
+      <c r="Z20" s="5" t="n">
+        <v>131441795.521979</v>
+      </c>
+      <c r="AA20" s="5" t="n">
+        <v>394870.525205973</v>
+      </c>
+      <c r="AB20" s="5" t="n">
+        <v>2688353.73761271</v>
+      </c>
+      <c r="AC20" s="5" t="n">
+        <v>-438148.410559733</v>
+      </c>
+      <c r="AD20" s="5" t="n">
+        <v>-6711.99988850211</v>
+      </c>
+      <c r="AE20" s="5" t="n">
+        <v>-413321.209194189</v>
+      </c>
+      <c r="AF20" s="5" t="n">
+        <v>-380168.855800648</v>
+      </c>
+      <c r="AG20" s="5" t="n">
+        <v>-30314.422201011</v>
+      </c>
+      <c r="AH20" s="5" t="n">
+        <v>-81.3781455595936</v>
+      </c>
+      <c r="AI20" s="5" t="n">
+        <v>-36.7193360097003</v>
+      </c>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5" t="n">
+        <v>124948.263609599</v>
+      </c>
+      <c r="S21" s="5" t="n">
+        <v>119874098.064632</v>
+      </c>
+      <c r="T21" s="5" t="n">
+        <v>197641646.170885</v>
+      </c>
+      <c r="U21" s="5" t="n">
+        <v>193786762.385778</v>
+      </c>
+      <c r="V21" s="5" t="n">
+        <v>193913160.840053</v>
+      </c>
+      <c r="W21" s="5" t="n">
+        <v>180019560.408417</v>
+      </c>
+      <c r="X21" s="5" t="n">
+        <v>185478811.851549</v>
+      </c>
+      <c r="Y21" s="5" t="n">
+        <v>163992761.661454</v>
+      </c>
+      <c r="Z21" s="5" t="n">
+        <v>137321065.224718</v>
+      </c>
+      <c r="AA21" s="5" t="n">
+        <v>122841224.344488</v>
+      </c>
+      <c r="AB21" s="5" t="n">
+        <v>127178774.472776</v>
+      </c>
+      <c r="AC21" s="5" t="n">
+        <v>398283482.377688</v>
+      </c>
+      <c r="AD21" s="5" t="n">
+        <v>288614030.200936</v>
+      </c>
+      <c r="AE21" s="5" t="n">
+        <v>158041532.969931</v>
+      </c>
+      <c r="AF21" s="5" t="n">
+        <v>420350787.506304</v>
+      </c>
+      <c r="AG21" s="5" t="n">
+        <v>229360911.627923</v>
+      </c>
+      <c r="AH21" s="5" t="n">
+        <v>141448617.757107</v>
+      </c>
+      <c r="AI21" s="5" t="n">
+        <v>106450050.228288</v>
+      </c>
+      <c r="AJ21" s="5" t="n">
+        <v>86439797.669</v>
+      </c>
+      <c r="AK21" s="5" t="n">
+        <v>2813014.37076859</v>
+      </c>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5" t="n">
+        <v>414698.232850795</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>2652156.61523218</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>2733543.49380217</v>
+      </c>
+      <c r="R22" s="5" t="n">
+        <v>311890357.898683</v>
+      </c>
+      <c r="S22" s="5" t="n">
+        <v>281931801.078939</v>
+      </c>
+      <c r="T22" s="5" t="n">
+        <v>376776255.616788</v>
+      </c>
+      <c r="U22" s="5" t="n">
+        <v>497991781.939519</v>
+      </c>
+      <c r="V22" s="5" t="n">
+        <v>325102962.905486</v>
+      </c>
+      <c r="W22" s="5" t="n">
+        <v>150540838.448987</v>
+      </c>
+      <c r="X22" s="5" t="n">
+        <v>137516494.148258</v>
+      </c>
+      <c r="Y22" s="5" t="n">
+        <v>185895186.055811</v>
+      </c>
+      <c r="Z22" s="5" t="n">
+        <v>260899366.533314</v>
+      </c>
+      <c r="AA22" s="5" t="n">
+        <v>298800915.106338</v>
+      </c>
+      <c r="AB22" s="5" t="n">
+        <v>286452595.804917</v>
+      </c>
+      <c r="AC22" s="5" t="n">
+        <v>261862914.342205</v>
+      </c>
+      <c r="AD22" s="5" t="n">
+        <v>572806232.312819</v>
+      </c>
+      <c r="AE22" s="5" t="n">
+        <v>502727141.090319</v>
+      </c>
+      <c r="AF22" s="5" t="n">
+        <v>548301384.236423</v>
+      </c>
+      <c r="AG22" s="5" t="n">
+        <v>703973272.925908</v>
+      </c>
+      <c r="AH22" s="5" t="n">
+        <v>763526255.066027</v>
+      </c>
+      <c r="AI22" s="5" t="n">
+        <v>549146911.753927</v>
+      </c>
+      <c r="AJ22" s="5" t="n">
+        <v>459632618.0985</v>
+      </c>
+      <c r="AK22" s="5" t="n">
+        <v>183850871.225145</v>
+      </c>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5" t="n">
+        <v>29619778.3224023</v>
+      </c>
+      <c r="T23" s="5" t="n">
+        <v>127628349.210028</v>
+      </c>
+      <c r="U23" s="5" t="n">
+        <v>271537606.225235</v>
+      </c>
+      <c r="V23" s="5" t="n">
+        <v>224169384.575851</v>
+      </c>
+      <c r="W23" s="5" t="n">
+        <v>184007831.397077</v>
+      </c>
+      <c r="X23" s="5" t="n">
+        <v>129796851.58438</v>
+      </c>
+      <c r="Y23" s="5" t="n">
+        <v>82748172.3369387</v>
+      </c>
+      <c r="Z23" s="5" t="n">
+        <v>-26802.941194886</v>
+      </c>
+      <c r="AA23" s="5" t="n">
+        <v>-23.3359432283569</v>
+      </c>
+      <c r="AB23" s="5" t="n">
+        <v>-150405.162790306</v>
+      </c>
+      <c r="AC23" s="5" t="n">
+        <v>-26159.027743347</v>
+      </c>
+      <c r="AD23" s="5" t="n">
+        <v>-140281.785731273</v>
+      </c>
+      <c r="AE23" s="5" t="n">
+        <v>3897682.03950529</v>
+      </c>
+      <c r="AF23" s="5" t="n">
+        <v>15870354.9227312</v>
+      </c>
+      <c r="AG23" s="5" t="n">
+        <v>45797563.8515583</v>
+      </c>
+      <c r="AH23" s="5" t="n">
+        <v>72245441.5505122</v>
+      </c>
+      <c r="AI23" s="5" t="n">
+        <v>71527643.1044269</v>
+      </c>
+      <c r="AJ23" s="5" t="n">
+        <v>56006244.5396</v>
+      </c>
+      <c r="AK23" s="5" t="n">
+        <v>100146809.60637</v>
+      </c>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>2780720095.98341</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>2612039973.11928</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>2783630732.78835</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>2719496625.54534</v>
+      </c>
+      <c r="R24" s="5" t="n">
+        <v>1252885922.54323</v>
+      </c>
+      <c r="S24" s="5" t="n">
+        <v>1685860046.33875</v>
+      </c>
+      <c r="T24" s="5" t="n">
+        <v>1401366659.56149</v>
+      </c>
+      <c r="U24" s="5" t="n">
+        <v>2057064607.96818</v>
+      </c>
+      <c r="V24" s="5" t="n">
+        <v>2589584975.24892</v>
+      </c>
+      <c r="W24" s="5" t="n">
+        <v>2288468039.33494</v>
+      </c>
+      <c r="X24" s="5" t="n">
+        <v>1923772517.04976</v>
+      </c>
+      <c r="Y24" s="5" t="n">
+        <v>2246532348.37928</v>
+      </c>
+      <c r="Z24" s="5" t="n">
+        <v>2310148666.61991</v>
+      </c>
+      <c r="AA24" s="5" t="n">
+        <v>2040486974.10144</v>
+      </c>
+      <c r="AB24" s="5" t="n">
+        <v>1778365878.36642</v>
+      </c>
+      <c r="AC24" s="5" t="n">
+        <v>586504634.190058</v>
+      </c>
+      <c r="AD24" s="5" t="n">
+        <v>512501123.635467</v>
+      </c>
+      <c r="AE24" s="5" t="n">
+        <v>659139494.586893</v>
+      </c>
+      <c r="AF24" s="5" t="n">
+        <v>1013870447.04793</v>
+      </c>
+      <c r="AG24" s="5" t="n">
+        <v>974200414.246534</v>
+      </c>
+      <c r="AH24" s="5" t="n">
+        <v>1231824662.89438</v>
+      </c>
+      <c r="AI24" s="5" t="n">
+        <v>1225329277.51265</v>
+      </c>
+      <c r="AJ24" s="5" t="n">
+        <v>1014740736.2659</v>
+      </c>
+      <c r="AK24" s="5" t="n">
+        <v>512052170.630268</v>
+      </c>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="M25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N25" s="5" t="n">
+        <v>2253242.19258639</v>
+      </c>
+      <c r="O25" s="5" t="n">
+        <v>-156652.944845051</v>
+      </c>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5" t="n">
+        <v>4176757.066974</v>
+      </c>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="M26" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" s="5" t="n">
+        <v>53589787.8234609</v>
+      </c>
+      <c r="O26" s="5" t="n">
+        <v>213627962.882241</v>
+      </c>
+      <c r="P26" s="5" t="n">
+        <v>118948927.809633</v>
+      </c>
+      <c r="Q26" s="5" t="n">
+        <v>211913973.986422</v>
+      </c>
+      <c r="R26" s="5" t="n">
+        <v>417214272.512907</v>
+      </c>
+      <c r="S26" s="5" t="n">
+        <v>1186198717.88939</v>
+      </c>
+      <c r="T26" s="5" t="n">
+        <v>1243475699.89317</v>
+      </c>
+      <c r="U26" s="5" t="n">
+        <v>756964540.144383</v>
+      </c>
+      <c r="V26" s="5" t="n">
+        <v>968863946.589199</v>
+      </c>
+      <c r="W26" s="5" t="n">
+        <v>583744825.068167</v>
+      </c>
+      <c r="X26" s="5" t="n">
+        <v>72282000.1279525</v>
+      </c>
+      <c r="Y26" s="5" t="n">
+        <v>113811373.321779</v>
+      </c>
+      <c r="Z26" s="5" t="n">
+        <v>95998280.9446819</v>
+      </c>
+      <c r="AA26" s="5" t="n">
+        <v>-9708964.65247545</v>
+      </c>
+      <c r="AB26" s="5" t="n">
+        <v>29311051.2370712</v>
+      </c>
+      <c r="AC26" s="5" t="n">
+        <v>-540132.165616112</v>
+      </c>
+      <c r="AD26" s="5" t="n">
+        <v>-216833.414038293</v>
+      </c>
+      <c r="AE26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5" t="n">
+        <v>58119.8240813181</v>
+      </c>
+      <c r="AJ26" s="5" t="n">
+        <v>38919604</v>
+      </c>
+      <c r="AK26" s="5" t="n">
+        <v>3019352.97629527</v>
+      </c>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="M27"/>
+      <c r="N27" s="5" t="n">
+        <v>29979039847.905</v>
+      </c>
+      <c r="O27" s="5" t="n">
+        <v>32171178636.5445</v>
+      </c>
+      <c r="P27" s="5" t="n">
+        <v>36815970630.278</v>
+      </c>
+      <c r="Q27" s="5" t="n">
+        <v>44688103394.7196</v>
+      </c>
+      <c r="R27" s="5" t="n">
+        <v>53546534424.129</v>
+      </c>
+      <c r="S27" s="5" t="n">
+        <v>57278297049.9515</v>
+      </c>
+      <c r="T27" s="5" t="n">
+        <v>59459681706.04</v>
+      </c>
+      <c r="U27" s="5" t="n">
+        <v>66763563977.832</v>
+      </c>
+      <c r="V27" s="5" t="n">
+        <v>70871955857.2583</v>
+      </c>
+      <c r="W27" s="5" t="n">
+        <v>68976994515.0645</v>
+      </c>
+      <c r="X27" s="5" t="n">
+        <v>70612317649.5376</v>
+      </c>
+      <c r="Y27" s="5" t="n">
+        <v>64202624389.8796</v>
+      </c>
+      <c r="Z27" s="5" t="n">
+        <v>59477180933.7137</v>
+      </c>
+      <c r="AA27" s="5" t="n">
+        <v>48339158362.9193</v>
+      </c>
+      <c r="AB27" s="5" t="n">
+        <v>47198164403.5154</v>
+      </c>
+      <c r="AC27" s="5" t="n">
+        <v>46125767339.5873</v>
+      </c>
+      <c r="AD27" s="5" t="n">
+        <v>49958929122.0466</v>
+      </c>
+      <c r="AE27" s="5" t="n">
+        <v>51974909605.3897</v>
+      </c>
+      <c r="AF27" s="5" t="n">
+        <v>56084111486.2321</v>
+      </c>
+      <c r="AG27" s="5" t="n">
+        <v>59146828106.2369</v>
+      </c>
+      <c r="AH27" s="5" t="n">
+        <v>58267075335.2283</v>
+      </c>
+      <c r="AI27" s="5" t="n">
+        <v>50419185583.9507</v>
+      </c>
+      <c r="AJ27" s="5" t="n">
+        <v>51073125313.6937</v>
+      </c>
+      <c r="AK27" s="5" t="n">
+        <v>27270017937.0679</v>
+      </c>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="M28" t="s">
+        <v>82</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4" t="n">
+        <v>4908197.07727307</v>
+      </c>
+      <c r="P28" s="4" t="n">
+        <v>6251266.76394206</v>
+      </c>
+      <c r="Q28" s="4" t="n">
+        <v>1245582.40790326</v>
+      </c>
+      <c r="R28" s="4" t="n">
+        <v>15989794.4043259</v>
+      </c>
+      <c r="S28" s="4" t="n">
+        <v>24244100.4830277</v>
+      </c>
+      <c r="T28" s="4" t="n">
+        <v>74552618.190887</v>
+      </c>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4" t="n">
+        <v>20044684.7948307</v>
+      </c>
+      <c r="W28" s="4" t="n">
+        <v>28505698.5066915</v>
+      </c>
+      <c r="X28" s="4" t="n">
+        <v>11161704.6812588</v>
+      </c>
+      <c r="Y28" s="4" t="n">
+        <v>280985754.545777</v>
+      </c>
+      <c r="Z28" s="4" t="n">
+        <v>616221460.786337</v>
+      </c>
+      <c r="AA28" s="4" t="n">
+        <v>165478866.397853</v>
+      </c>
+      <c r="AB28" s="4" t="n">
+        <v>548798568.149088</v>
+      </c>
+      <c r="AC28" s="4" t="n">
+        <v>156390006.645587</v>
+      </c>
+      <c r="AD28" s="4" t="n">
+        <v>46707070.3069022</v>
+      </c>
+      <c r="AE28" s="4" t="n">
+        <v>-33550713.288908</v>
+      </c>
+      <c r="AF28" s="4" t="n">
+        <v>24850516.8705382</v>
+      </c>
+      <c r="AG28" s="4" t="n">
+        <v>-11519132.2051029</v>
+      </c>
+      <c r="AH28" s="4" t="n">
+        <v>18204511.0767526</v>
+      </c>
+      <c r="AI28" s="4" t="n">
+        <v>11640813.7500581</v>
+      </c>
+      <c r="AJ28" s="4" t="n">
+        <v>14412182.8907</v>
+      </c>
+      <c r="AK28" s="4" t="n">
+        <v>-953163.38816421</v>
+      </c>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="M29"/>
+      <c r="N29" s="4" t="n">
+        <v>29979039847.905</v>
+      </c>
+      <c r="O29" s="4" t="n">
+        <v>32171178636.5445</v>
+      </c>
+      <c r="P29" s="4" t="n">
+        <v>36815970630.278</v>
+      </c>
+      <c r="Q29" s="4" t="n">
+        <v>44688103394.7196</v>
+      </c>
+      <c r="R29" s="4" t="n">
+        <v>53546534424.129</v>
+      </c>
+      <c r="S29" s="4" t="n">
+        <v>57278297049.9515</v>
+      </c>
+      <c r="T29" s="4" t="n">
+        <v>59459681706.04</v>
+      </c>
+      <c r="U29" s="4" t="n">
+        <v>66763563977.832</v>
+      </c>
+      <c r="V29" s="4" t="n">
+        <v>70871955857.2583</v>
+      </c>
+      <c r="W29" s="4" t="n">
+        <v>68976994515.0645</v>
+      </c>
+      <c r="X29" s="4" t="n">
+        <v>70612317649.5376</v>
+      </c>
+      <c r="Y29" s="4" t="n">
+        <v>64202624389.8796</v>
+      </c>
+      <c r="Z29" s="4" t="n">
+        <v>59477180933.7137</v>
+      </c>
+      <c r="AA29" s="4" t="n">
+        <v>48339158362.9193</v>
+      </c>
+      <c r="AB29" s="4" t="n">
+        <v>47198164403.5154</v>
+      </c>
+      <c r="AC29" s="4" t="n">
+        <v>46125767339.5873</v>
+      </c>
+      <c r="AD29" s="4" t="n">
+        <v>49958929122.0466</v>
+      </c>
+      <c r="AE29" s="4" t="n">
+        <v>51974909605.3897</v>
+      </c>
+      <c r="AF29" s="4" t="n">
+        <v>56084111486.2321</v>
+      </c>
+      <c r="AG29" s="4" t="n">
+        <v>59146828106.2369</v>
+      </c>
+      <c r="AH29" s="4" t="n">
+        <v>58267075335.2283</v>
+      </c>
+      <c r="AI29" s="4" t="n">
+        <v>50419185583.9507</v>
+      </c>
+      <c r="AJ29" s="4" t="n">
+        <v>51073125313.6937</v>
+      </c>
+      <c r="AK29" s="4" t="n">
+        <v>27270017937.0679</v>
+      </c>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="6" t="n">
+        <v>641877119.7422</v>
+      </c>
+      <c r="O2" s="6" t="n">
+        <v>629870809.4102</v>
+      </c>
+      <c r="P2" s="6" t="n">
+        <v>821226165</v>
+      </c>
+      <c r="Q2" s="6" t="n">
+        <v>1285600888.6791</v>
+      </c>
+      <c r="R2" s="6" t="n">
+        <v>923889614.5964</v>
+      </c>
+      <c r="S2" s="6" t="n">
+        <v>981039536.6565</v>
+      </c>
+      <c r="T2" s="6" t="n">
+        <v>1481308626.49</v>
+      </c>
+      <c r="U2" s="6" t="n">
+        <v>1343377747.6518</v>
+      </c>
+      <c r="V2" s="6" t="n">
+        <v>1714639129.9055</v>
+      </c>
+      <c r="W2" s="6" t="n">
+        <v>2059115936.9729</v>
+      </c>
+      <c r="X2" s="6" t="n">
+        <v>2181838955.4037</v>
+      </c>
+      <c r="Y2" s="6" t="n">
+        <v>2383432373.6058</v>
+      </c>
+      <c r="Z2" s="6" t="n">
+        <v>2260243685.4927</v>
+      </c>
+      <c r="AA2" s="6" t="n">
+        <v>1981475840.467</v>
+      </c>
+      <c r="AB2" s="6" t="n">
+        <v>2353265503.8609</v>
+      </c>
+      <c r="AC2" s="6" t="n">
+        <v>2584198918.5992</v>
+      </c>
+      <c r="AD2" s="6" t="n">
+        <v>2842846276.9154</v>
+      </c>
+      <c r="AE2" s="6" t="n">
+        <v>3036084143.101</v>
+      </c>
+      <c r="AF2" s="6" t="n">
+        <v>2941508496.57</v>
+      </c>
+      <c r="AG2" s="6" t="n">
+        <v>3507666907.3163</v>
+      </c>
+      <c r="AH2" s="6" t="n">
+        <v>3562231571.1846</v>
+      </c>
+      <c r="AI2" s="6" t="n">
+        <v>1166501984.76</v>
+      </c>
+      <c r="AJ2" s="6" t="n">
+        <v>749620913.5802</v>
+      </c>
+      <c r="AK2" s="6" t="n">
+        <v>179666178.0145</v>
+      </c>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="6" t="n">
+        <v>351187908</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <v>1025719373.2484</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <v>815427351.4492</v>
+      </c>
+      <c r="Q3" s="6" t="n">
+        <v>828615056.4004</v>
+      </c>
+      <c r="R3" s="6" t="n">
+        <v>712110637.8609</v>
+      </c>
+      <c r="S3" s="6" t="n">
+        <v>1121438640.6092</v>
+      </c>
+      <c r="T3" s="6" t="n">
+        <v>944741825.4625</v>
+      </c>
+      <c r="U3" s="6" t="n">
+        <v>1003134576.1278</v>
+      </c>
+      <c r="V3" s="6" t="n">
+        <v>940846312.9265</v>
+      </c>
+      <c r="W3" s="6" t="n">
+        <v>873617128.6325</v>
+      </c>
+      <c r="X3" s="6" t="n">
+        <v>1479939084.5839</v>
+      </c>
+      <c r="Y3" s="6" t="n">
+        <v>1377578956.109</v>
+      </c>
+      <c r="Z3" s="6" t="n">
+        <v>983572867.8163</v>
+      </c>
+      <c r="AA3" s="6" t="n">
+        <v>1101923003.7253</v>
+      </c>
+      <c r="AB3" s="6" t="n">
+        <v>963543931.628</v>
+      </c>
+      <c r="AC3" s="6" t="n">
+        <v>898308617.0824</v>
+      </c>
+      <c r="AD3" s="6" t="n">
+        <v>1435381227.3639</v>
+      </c>
+      <c r="AE3" s="6" t="n">
+        <v>1803118434.6465</v>
+      </c>
+      <c r="AF3" s="6" t="n">
+        <v>1591926675.791</v>
+      </c>
+      <c r="AG3" s="6" t="n">
+        <v>2039473772.2537</v>
+      </c>
+      <c r="AH3" s="6" t="n">
+        <v>2487148022.9781</v>
+      </c>
+      <c r="AI3" s="6" t="n">
+        <v>579573604.6659</v>
+      </c>
+      <c r="AJ3" s="6" t="n">
+        <v>559986357.6148</v>
+      </c>
+      <c r="AK3" s="6" t="n">
+        <v>304475696.4542</v>
+      </c>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>1339727732.543</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>1097148417</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>1251060712.4033</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>1495220537.2436</v>
+      </c>
+      <c r="R4" s="6" t="n">
+        <v>1361058381.626</v>
+      </c>
+      <c r="S4" s="6" t="n">
+        <v>991755823.5686</v>
+      </c>
+      <c r="T4" s="6" t="n">
+        <v>1044755712.2014</v>
+      </c>
+      <c r="U4" s="6" t="n">
+        <v>1465073122.9674</v>
+      </c>
+      <c r="V4" s="6" t="n">
+        <v>1900834605.8289</v>
+      </c>
+      <c r="W4" s="6" t="n">
+        <v>1494126729.7796</v>
+      </c>
+      <c r="X4" s="6" t="n">
+        <v>1188877615.4633</v>
+      </c>
+      <c r="Y4" s="6" t="n">
+        <v>984281497.6038</v>
+      </c>
+      <c r="Z4" s="6" t="n">
+        <v>985730287.3726</v>
+      </c>
+      <c r="AA4" s="6" t="n">
+        <v>724052874.8979</v>
+      </c>
+      <c r="AB4" s="6" t="n">
+        <v>658323638.1881</v>
+      </c>
+      <c r="AC4" s="6" t="n">
+        <v>727812275.7493</v>
+      </c>
+      <c r="AD4" s="6" t="n">
+        <v>925224205.2999</v>
+      </c>
+      <c r="AE4" s="6" t="n">
+        <v>1000977518.5718</v>
+      </c>
+      <c r="AF4" s="6" t="n">
+        <v>978330768.4442</v>
+      </c>
+      <c r="AG4" s="6" t="n">
+        <v>1034817437.5223</v>
+      </c>
+      <c r="AH4" s="6" t="n">
+        <v>997183380.9892</v>
+      </c>
+      <c r="AI4" s="6" t="n">
+        <v>136261710.3218</v>
+      </c>
+      <c r="AJ4" s="6" t="n">
+        <v>99691626.4961</v>
+      </c>
+      <c r="AK4" s="6" t="n">
+        <v>14144260.1074</v>
+      </c>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>491631144</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>300732196</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>305677407</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>465950460</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>769688340</v>
+      </c>
+      <c r="S5" s="6" t="n">
+        <v>973667085</v>
+      </c>
+      <c r="T5" s="6" t="n">
+        <v>1278631827.9922</v>
+      </c>
+      <c r="U5" s="6" t="n">
+        <v>2696482989.6133</v>
+      </c>
+      <c r="V5" s="6" t="n">
+        <v>2442519726.477</v>
+      </c>
+      <c r="W5" s="6" t="n">
+        <v>2341494074.3916</v>
+      </c>
+      <c r="X5" s="6" t="n">
+        <v>1696055957.0317</v>
+      </c>
+      <c r="Y5" s="6" t="n">
+        <v>1365327166.9176</v>
+      </c>
+      <c r="Z5" s="6" t="n">
+        <v>1829002184.9173</v>
+      </c>
+      <c r="AA5" s="6" t="n">
+        <v>1667634173.7817</v>
+      </c>
+      <c r="AB5" s="6" t="n">
+        <v>1129285752.9649</v>
+      </c>
+      <c r="AC5" s="6" t="n">
+        <v>1152695466.0709</v>
+      </c>
+      <c r="AD5" s="6" t="n">
+        <v>1136352104.4056</v>
+      </c>
+      <c r="AE5" s="6" t="n">
+        <v>998234272.5168</v>
+      </c>
+      <c r="AF5" s="6" t="n">
+        <v>1118797821.3056</v>
+      </c>
+      <c r="AG5" s="6" t="n">
+        <v>1798001745.8521</v>
+      </c>
+      <c r="AH5" s="6" t="n">
+        <v>1132954059.8557</v>
+      </c>
+      <c r="AI5" s="6" t="n">
+        <v>1204826803.6533</v>
+      </c>
+      <c r="AJ5" s="6" t="n">
+        <v>1010906263.4309</v>
+      </c>
+      <c r="AK5" s="6" t="n">
+        <v>1309599808.2079</v>
+      </c>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>814070669</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>711114343</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>916473463</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>847695122</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>966537953.375</v>
+      </c>
+      <c r="S6" s="6" t="n">
+        <v>1012912359</v>
+      </c>
+      <c r="T6" s="6" t="n">
+        <v>1029710135.69</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>1922031011.4328</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>2354140065.9908</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>2646633367.5519</v>
+      </c>
+      <c r="X6" s="6" t="n">
+        <v>3091092037.4034</v>
+      </c>
+      <c r="Y6" s="6" t="n">
+        <v>2637663150.1015</v>
+      </c>
+      <c r="Z6" s="6" t="n">
+        <v>2113382221.1912</v>
+      </c>
+      <c r="AA6" s="6" t="n">
+        <v>1705901634.3329</v>
+      </c>
+      <c r="AB6" s="6" t="n">
+        <v>1045704927.3628</v>
+      </c>
+      <c r="AC6" s="6" t="n">
+        <v>987338517.6224</v>
+      </c>
+      <c r="AD6" s="6" t="n">
+        <v>1147623859.5144</v>
+      </c>
+      <c r="AE6" s="6" t="n">
+        <v>1273437545.9269</v>
+      </c>
+      <c r="AF6" s="6" t="n">
+        <v>905524380.2804</v>
+      </c>
+      <c r="AG6" s="6" t="n">
+        <v>1272385333.9664</v>
+      </c>
+      <c r="AH6" s="6" t="n">
+        <v>1179205071.9607</v>
+      </c>
+      <c r="AI6" s="6" t="n">
+        <v>1158924124.55</v>
+      </c>
+      <c r="AJ6" s="6" t="n">
+        <v>1245347519.4283</v>
+      </c>
+      <c r="AK6" s="6" t="n">
+        <v>400437665.0497</v>
+      </c>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>2435579587.132</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>2316779497.0697</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>2819894442.8714</v>
+      </c>
+      <c r="Q7" s="6" t="n">
+        <v>3646169674.172</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>5672550740.0513</v>
+      </c>
+      <c r="S7" s="6" t="n">
+        <v>5657850364.3533</v>
+      </c>
+      <c r="T7" s="6" t="n">
+        <v>6490660424.4984</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>6688554319.4974</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>6617845487.8148</v>
+      </c>
+      <c r="W7" s="6" t="n">
+        <v>7015052329.9102</v>
+      </c>
+      <c r="X7" s="6" t="n">
+        <v>6943317286.6748</v>
+      </c>
+      <c r="Y7" s="6" t="n">
+        <v>7837467133.8587</v>
+      </c>
+      <c r="Z7" s="6" t="n">
+        <v>6712302828.3272</v>
+      </c>
+      <c r="AA7" s="6" t="n">
+        <v>5613203975.0445</v>
+      </c>
+      <c r="AB7" s="6" t="n">
+        <v>5393361688.0726</v>
+      </c>
+      <c r="AC7" s="6" t="n">
+        <v>4216906745.115</v>
+      </c>
+      <c r="AD7" s="6" t="n">
+        <v>4294092048.9373</v>
+      </c>
+      <c r="AE7" s="6" t="n">
+        <v>4246980696.2553</v>
+      </c>
+      <c r="AF7" s="6" t="n">
+        <v>4561125875.9834</v>
+      </c>
+      <c r="AG7" s="6" t="n">
+        <v>4046777076.7495</v>
+      </c>
+      <c r="AH7" s="6" t="n">
+        <v>4209152987.9945</v>
+      </c>
+      <c r="AI7" s="6" t="n">
+        <v>2844702833.9271</v>
+      </c>
+      <c r="AJ7" s="6" t="n">
+        <v>2025246489.9319</v>
+      </c>
+      <c r="AK7" s="6" t="n">
+        <v>812958382.4892</v>
+      </c>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>521021751</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>264768243.0508</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>293015040.0271</v>
+      </c>
+      <c r="Q8" s="6" t="n">
+        <v>825486114.4331</v>
+      </c>
+      <c r="R8" s="6" t="n">
+        <v>1114657763.4399</v>
+      </c>
+      <c r="S8" s="6" t="n">
+        <v>1214986039.2011</v>
+      </c>
+      <c r="T8" s="6" t="n">
+        <v>1381029832.5159</v>
+      </c>
+      <c r="U8" s="6" t="n">
+        <v>2026765897.7634</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>2217915458.641</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <v>2519573734.0585</v>
+      </c>
+      <c r="X8" s="6" t="n">
+        <v>2276642298.8994</v>
+      </c>
+      <c r="Y8" s="6" t="n">
+        <v>2451895695.847</v>
+      </c>
+      <c r="Z8" s="6" t="n">
+        <v>2265462135.5057</v>
+      </c>
+      <c r="AA8" s="6" t="n">
+        <v>1890553631.4922</v>
+      </c>
+      <c r="AB8" s="6" t="n">
+        <v>1336795988.8198</v>
+      </c>
+      <c r="AC8" s="6" t="n">
+        <v>1327624153.8112</v>
+      </c>
+      <c r="AD8" s="6" t="n">
+        <v>1553963813.1582</v>
+      </c>
+      <c r="AE8" s="6" t="n">
+        <v>1323243256.1922</v>
+      </c>
+      <c r="AF8" s="6" t="n">
+        <v>1557027750.4191</v>
+      </c>
+      <c r="AG8" s="6" t="n">
+        <v>1256665380.0856</v>
+      </c>
+      <c r="AH8" s="6" t="n">
+        <v>1450620691.1102</v>
+      </c>
+      <c r="AI8" s="6" t="n">
+        <v>776270522.9253</v>
+      </c>
+      <c r="AJ8" s="6" t="n">
+        <v>671933615.0434</v>
+      </c>
+      <c r="AK8" s="6" t="n">
+        <v>365942759.0056</v>
+      </c>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>893225383.7109</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>1178381810.6851</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>1043321344</v>
+      </c>
+      <c r="Q9" s="6" t="n">
+        <v>1357368238.9646</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>1688205233.8494</v>
+      </c>
+      <c r="S9" s="6" t="n">
+        <v>2186240206.5633</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <v>2162093371.9563</v>
+      </c>
+      <c r="U9" s="6" t="n">
+        <v>2766950147.4032</v>
+      </c>
+      <c r="V9" s="6" t="n">
+        <v>2504364775.9165</v>
+      </c>
+      <c r="W9" s="6" t="n">
+        <v>3147977997.7128</v>
+      </c>
+      <c r="X9" s="6" t="n">
+        <v>3388448284.4046</v>
+      </c>
+      <c r="Y9" s="6" t="n">
+        <v>3015871471.8675</v>
+      </c>
+      <c r="Z9" s="6" t="n">
+        <v>2936196357.1895</v>
+      </c>
+      <c r="AA9" s="6" t="n">
+        <v>2143189248.0424</v>
+      </c>
+      <c r="AB9" s="6" t="n">
+        <v>1624894419.2672</v>
+      </c>
+      <c r="AC9" s="6" t="n">
+        <v>1961365734.7356</v>
+      </c>
+      <c r="AD9" s="6" t="n">
+        <v>2016705243.1316</v>
+      </c>
+      <c r="AE9" s="6" t="n">
+        <v>2028751303.8439</v>
+      </c>
+      <c r="AF9" s="6" t="n">
+        <v>2697152667.2257</v>
+      </c>
+      <c r="AG9" s="6" t="n">
+        <v>2665912190.0078</v>
+      </c>
+      <c r="AH9" s="6" t="n">
+        <v>2341768776.8267</v>
+      </c>
+      <c r="AI9" s="6" t="n">
+        <v>422807505.9804</v>
+      </c>
+      <c r="AJ9" s="6" t="n">
+        <v>213150006.5664</v>
+      </c>
+      <c r="AK9" s="6" t="n">
+        <v>108428309.4101</v>
+      </c>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>261591100.3501</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>269655652.3799</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>354186894.4063</v>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>295937791</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>342239100.48</v>
+      </c>
+      <c r="S10" s="6" t="n">
+        <v>627853243.6719</v>
+      </c>
+      <c r="T10" s="6" t="n">
+        <v>602643691.011</v>
+      </c>
+      <c r="U10" s="6" t="n">
+        <v>615121005.2408</v>
+      </c>
+      <c r="V10" s="6" t="n">
+        <v>633511086.3849</v>
+      </c>
+      <c r="W10" s="6" t="n">
+        <v>640047360.7067</v>
+      </c>
+      <c r="X10" s="6" t="n">
+        <v>594329042.2771</v>
+      </c>
+      <c r="Y10" s="6" t="n">
+        <v>544437005.1299</v>
+      </c>
+      <c r="Z10" s="6" t="n">
+        <v>561371012.5023</v>
+      </c>
+      <c r="AA10" s="6" t="n">
+        <v>475130232.7524</v>
+      </c>
+      <c r="AB10" s="6" t="n">
+        <v>398710696.4688</v>
+      </c>
+      <c r="AC10" s="6" t="n">
+        <v>376465059.2299</v>
+      </c>
+      <c r="AD10" s="6" t="n">
+        <v>425522597.2851</v>
+      </c>
+      <c r="AE10" s="6" t="n">
+        <v>442268754.6104</v>
+      </c>
+      <c r="AF10" s="6" t="n">
+        <v>578996643.1952</v>
+      </c>
+      <c r="AG10" s="6" t="n">
+        <v>678951854.8216</v>
+      </c>
+      <c r="AH10" s="6" t="n">
+        <v>450116328.2598</v>
+      </c>
+      <c r="AI10" s="6" t="n">
+        <v>593174826.2083</v>
+      </c>
+      <c r="AJ10" s="6" t="n">
+        <v>499734217.9209</v>
+      </c>
+      <c r="AK10" s="6" t="n">
+        <v>285126921.2172</v>
+      </c>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="M11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>13000763869.3287</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>14592537362.0467</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>17183009932.0941</v>
+      </c>
+      <c r="Q11" s="6" t="n">
+        <v>20435643838.905</v>
+      </c>
+      <c r="R11" s="6" t="n">
+        <v>23981108322.3963</v>
+      </c>
+      <c r="S11" s="6" t="n">
+        <v>27465502290.9739</v>
+      </c>
+      <c r="T11" s="6" t="n">
+        <v>28786929731.7224</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>31926781449.9198</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>35625840034.4134</v>
+      </c>
+      <c r="W11" s="6" t="n">
+        <v>32608045869.8561</v>
+      </c>
+      <c r="X11" s="6" t="n">
+        <v>33280395915.5525</v>
+      </c>
+      <c r="Y11" s="6" t="n">
+        <v>29820121427.9161</v>
+      </c>
+      <c r="Z11" s="6" t="n">
+        <v>28972951960.3881</v>
+      </c>
+      <c r="AA11" s="6" t="n">
+        <v>23809570821.6208</v>
+      </c>
+      <c r="AB11" s="6" t="n">
+        <v>25950186580.6627</v>
+      </c>
+      <c r="AC11" s="6" t="n">
+        <v>25382237307.5803</v>
+      </c>
+      <c r="AD11" s="6" t="n">
+        <v>27526473336.7508</v>
+      </c>
+      <c r="AE11" s="6" t="n">
+        <v>29555167166.5828</v>
+      </c>
+      <c r="AF11" s="6" t="n">
+        <v>34053281675.7069</v>
+      </c>
+      <c r="AG11" s="6" t="n">
+        <v>36624598616.6766</v>
+      </c>
+      <c r="AH11" s="6" t="n">
+        <v>37546299780.5199</v>
+      </c>
+      <c r="AI11" s="6" t="n">
+        <v>40721440180.423</v>
+      </c>
+      <c r="AJ11" s="6" t="n">
+        <v>46512206855.8651</v>
+      </c>
+      <c r="AK11" s="6" t="n">
+        <v>25886996326.7778</v>
+      </c>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+    </row>
+    <row r="12">
+      <c r="M12"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="n">
+        <v>13342</v>
+      </c>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16" t="s">
+        <v>17</v>
+      </c>
+      <c r="U16" t="s">
+        <v>18</v>
+      </c>
+      <c r="V16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" s="6" t="n">
+        <v>1037100150.62676</v>
+      </c>
+      <c r="O17" s="6" t="n">
+        <v>993606802.872374</v>
+      </c>
+      <c r="P17" s="6" t="n">
+        <v>1275336181.50271</v>
+      </c>
+      <c r="Q17" s="6" t="n">
+        <v>1959047918.54579</v>
+      </c>
+      <c r="R17" s="6" t="n">
+        <v>1374266703.69955</v>
+      </c>
+      <c r="S17" s="6" t="n">
+        <v>1416282343.99409</v>
+      </c>
+      <c r="T17" s="6" t="n">
+        <v>2071069115.55567</v>
+      </c>
+      <c r="U17" s="6" t="n">
+        <v>1828091201.08583</v>
+      </c>
+      <c r="V17" s="6" t="n">
+        <v>2285641002.85584</v>
+      </c>
+      <c r="W17" s="6" t="n">
+        <v>2717221734.28194</v>
+      </c>
+      <c r="X17" s="6" t="n">
+        <v>2854342193.49746</v>
+      </c>
+      <c r="Y17" s="6" t="n">
+        <v>3056472898.8885</v>
+      </c>
+      <c r="Z17" s="6" t="n">
+        <v>2846324872.59788</v>
+      </c>
+      <c r="AA17" s="6" t="n">
+        <v>2450429661.97661</v>
+      </c>
+      <c r="AB17" s="6" t="n">
+        <v>2854978082.49119</v>
+      </c>
+      <c r="AC17" s="6" t="n">
+        <v>3099611105.75315</v>
+      </c>
+      <c r="AD17" s="6" t="n">
+        <v>3381821574.23363</v>
+      </c>
+      <c r="AE17" s="6" t="n">
+        <v>3548344095.88303</v>
+      </c>
+      <c r="AF17" s="6" t="n">
+        <v>3358942373.3666</v>
+      </c>
+      <c r="AG17" s="6" t="n">
+        <v>3928499588.36301</v>
+      </c>
+      <c r="AH17" s="6" t="n">
+        <v>3937088134.14152</v>
+      </c>
+      <c r="AI17" s="6" t="n">
+        <v>1247326101.75844</v>
+      </c>
+      <c r="AJ17" s="6" t="n">
+        <v>749620913.5802</v>
+      </c>
+      <c r="AK17" s="6" t="n">
+        <v>171365309.429568</v>
+      </c>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" s="6" t="n">
+        <v>567424856.071171</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>1618048863.15008</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <v>1266330822.14336</v>
+      </c>
+      <c r="Q18" s="6" t="n">
+        <v>1262675388.45961</v>
+      </c>
+      <c r="R18" s="6" t="n">
+        <v>1059249853.55528</v>
+      </c>
+      <c r="S18" s="6" t="n">
+        <v>1618970171.15189</v>
+      </c>
+      <c r="T18" s="6" t="n">
+        <v>1320876407.45423</v>
+      </c>
+      <c r="U18" s="6" t="n">
+        <v>1365082528.22386</v>
+      </c>
+      <c r="V18" s="6" t="n">
+        <v>1254162973.83174</v>
+      </c>
+      <c r="W18" s="6" t="n">
+        <v>1152830400.04583</v>
+      </c>
+      <c r="X18" s="6" t="n">
+        <v>1936097328.5731</v>
+      </c>
+      <c r="Y18" s="6" t="n">
+        <v>1766583684.96368</v>
+      </c>
+      <c r="Z18" s="6" t="n">
+        <v>1238613312.20474</v>
+      </c>
+      <c r="AA18" s="6" t="n">
+        <v>1362713972.28162</v>
+      </c>
+      <c r="AB18" s="6" t="n">
+        <v>1168970012.86172</v>
+      </c>
+      <c r="AC18" s="6" t="n">
+        <v>1077474085.24251</v>
+      </c>
+      <c r="AD18" s="6" t="n">
+        <v>1707515190.45067</v>
+      </c>
+      <c r="AE18" s="6" t="n">
+        <v>2107347606.38777</v>
+      </c>
+      <c r="AF18" s="6" t="n">
+        <v>1817839374.87932</v>
+      </c>
+      <c r="AG18" s="6" t="n">
+        <v>2284159838.00064</v>
+      </c>
+      <c r="AH18" s="6" t="n">
+        <v>2748872658.45671</v>
+      </c>
+      <c r="AI18" s="6" t="n">
+        <v>619730865.814805</v>
+      </c>
+      <c r="AJ18" s="6" t="n">
+        <v>559986357.6148</v>
+      </c>
+      <c r="AK18" s="6" t="n">
+        <v>290408425.855456</v>
+      </c>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>87</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>2164638355.97884</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>1730726546.78606</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <v>1942854550.65169</v>
+      </c>
+      <c r="Q19" s="6" t="n">
+        <v>2278474374.93889</v>
+      </c>
+      <c r="R19" s="6" t="n">
+        <v>2024546207.80309</v>
+      </c>
+      <c r="S19" s="6" t="n">
+        <v>1431752962.02699</v>
+      </c>
+      <c r="T19" s="6" t="n">
+        <v>1460709301.3208</v>
+      </c>
+      <c r="U19" s="6" t="n">
+        <v>1993696329.81166</v>
+      </c>
+      <c r="V19" s="6" t="n">
+        <v>2533842508.872</v>
+      </c>
+      <c r="W19" s="6" t="n">
+        <v>1971658589.5096</v>
+      </c>
+      <c r="X19" s="6" t="n">
+        <v>1555322647.58453</v>
+      </c>
+      <c r="Y19" s="6" t="n">
+        <v>1262225752.91787</v>
+      </c>
+      <c r="Z19" s="6" t="n">
+        <v>1241330150.65147</v>
+      </c>
+      <c r="AA19" s="6" t="n">
+        <v>895413713.987599</v>
+      </c>
+      <c r="AB19" s="6" t="n">
+        <v>798677223.258179</v>
+      </c>
+      <c r="AC19" s="6" t="n">
+        <v>872972663.435238</v>
+      </c>
+      <c r="AD19" s="6" t="n">
+        <v>1100637485.71076</v>
+      </c>
+      <c r="AE19" s="6" t="n">
+        <v>1169866347.81082</v>
+      </c>
+      <c r="AF19" s="6" t="n">
+        <v>1117167153.22339</v>
+      </c>
+      <c r="AG19" s="6" t="n">
+        <v>1158969761.02772</v>
+      </c>
+      <c r="AH19" s="6" t="n">
+        <v>1102117809.6937</v>
+      </c>
+      <c r="AI19" s="6" t="n">
+        <v>145702956.510269</v>
+      </c>
+      <c r="AJ19" s="6" t="n">
+        <v>99691626.4961</v>
+      </c>
+      <c r="AK19" s="6" t="n">
+        <v>13490772.3687498</v>
+      </c>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>88</v>
+      </c>
+      <c r="N20" s="6" t="n">
+        <v>794343212.763195</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>474398164.392073</v>
+      </c>
+      <c r="P20" s="6" t="n">
+        <v>474706571.258637</v>
+      </c>
+      <c r="Q20" s="6" t="n">
+        <v>710033173.472939</v>
+      </c>
+      <c r="R20" s="6" t="n">
+        <v>1144895495.28041</v>
+      </c>
+      <c r="S20" s="6" t="n">
+        <v>1405639069.46447</v>
+      </c>
+      <c r="T20" s="6" t="n">
+        <v>1787699633.80012</v>
+      </c>
+      <c r="U20" s="6" t="n">
+        <v>3669419741.25016</v>
+      </c>
+      <c r="V20" s="6" t="n">
+        <v>3255917317.96518</v>
+      </c>
+      <c r="W20" s="6" t="n">
+        <v>3089849617.2015</v>
+      </c>
+      <c r="X20" s="6" t="n">
+        <v>2218827411.02335</v>
+      </c>
+      <c r="Y20" s="6" t="n">
+        <v>1750872200.11473</v>
+      </c>
+      <c r="Z20" s="6" t="n">
+        <v>2303262451.02689</v>
+      </c>
+      <c r="AA20" s="6" t="n">
+        <v>2062311415.21132</v>
+      </c>
+      <c r="AB20" s="6" t="n">
+        <v>1370047735.07058</v>
+      </c>
+      <c r="AC20" s="6" t="n">
+        <v>1382597772.35779</v>
+      </c>
+      <c r="AD20" s="6" t="n">
+        <v>1351793128.53117</v>
+      </c>
+      <c r="AE20" s="6" t="n">
+        <v>1166660250.58689</v>
+      </c>
+      <c r="AF20" s="6" t="n">
+        <v>1277568095.96018</v>
+      </c>
+      <c r="AG20" s="6" t="n">
+        <v>2013717181.56105</v>
+      </c>
+      <c r="AH20" s="6" t="n">
+        <v>1252175748.9511</v>
+      </c>
+      <c r="AI20" s="6" t="n">
+        <v>1288306355.17876</v>
+      </c>
+      <c r="AJ20" s="6" t="n">
+        <v>1010906263.4309</v>
+      </c>
+      <c r="AK20" s="6" t="n">
+        <v>1249094174.7775</v>
+      </c>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21" s="6" t="n">
+        <v>1315318442.53899</v>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>1121766619.86692</v>
+      </c>
+      <c r="P21" s="6" t="n">
+        <v>1423251981.68885</v>
+      </c>
+      <c r="Q21" s="6" t="n">
+        <v>1291750323.86746</v>
+      </c>
+      <c r="R21" s="6" t="n">
+        <v>1437705226.0355</v>
+      </c>
+      <c r="S21" s="6" t="n">
+        <v>1462295693.96794</v>
+      </c>
+      <c r="T21" s="6" t="n">
+        <v>1439673557.46483</v>
+      </c>
+      <c r="U21" s="6" t="n">
+        <v>2615532367.09198</v>
+      </c>
+      <c r="V21" s="6" t="n">
+        <v>3138105836.64381</v>
+      </c>
+      <c r="W21" s="6" t="n">
+        <v>3492513257.68476</v>
+      </c>
+      <c r="X21" s="6" t="n">
+        <v>4043852276.307</v>
+      </c>
+      <c r="Y21" s="6" t="n">
+        <v>3382494097.1518</v>
+      </c>
+      <c r="Z21" s="6" t="n">
+        <v>2661382230.63829</v>
+      </c>
+      <c r="AA21" s="6" t="n">
+        <v>2109635595.75802</v>
+      </c>
+      <c r="AB21" s="6" t="n">
+        <v>1268647606.26275</v>
+      </c>
+      <c r="AC21" s="6" t="n">
+        <v>1184260782.8422</v>
+      </c>
+      <c r="AD21" s="6" t="n">
+        <v>1365201895.97524</v>
+      </c>
+      <c r="AE21" s="6" t="n">
+        <v>1488296893.16525</v>
+      </c>
+      <c r="AF21" s="6" t="n">
+        <v>1034028701.4595</v>
+      </c>
+      <c r="AG21" s="6" t="n">
+        <v>1425039889.13546</v>
+      </c>
+      <c r="AH21" s="6" t="n">
+        <v>1303293793.16351</v>
+      </c>
+      <c r="AI21" s="6" t="n">
+        <v>1239223189.83981</v>
+      </c>
+      <c r="AJ21" s="6" t="n">
+        <v>1245347519.4283</v>
+      </c>
+      <c r="AK21" s="6" t="n">
+        <v>381936795.989267</v>
+      </c>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>90</v>
+      </c>
+      <c r="N22" s="6" t="n">
+        <v>3935239127.53356</v>
+      </c>
+      <c r="O22" s="6" t="n">
+        <v>3654666694.58649</v>
+      </c>
+      <c r="P22" s="6" t="n">
+        <v>4379199743.36463</v>
+      </c>
+      <c r="Q22" s="6" t="n">
+        <v>5556173127.87531</v>
+      </c>
+      <c r="R22" s="6" t="n">
+        <v>8437801966.7471</v>
+      </c>
+      <c r="S22" s="6" t="n">
+        <v>8167982305.07995</v>
+      </c>
+      <c r="T22" s="6" t="n">
+        <v>9074818106.33255</v>
+      </c>
+      <c r="U22" s="6" t="n">
+        <v>9101898048.28232</v>
+      </c>
+      <c r="V22" s="6" t="n">
+        <v>8821692409.61371</v>
+      </c>
+      <c r="W22" s="6" t="n">
+        <v>9257105107.92283</v>
+      </c>
+      <c r="X22" s="6" t="n">
+        <v>9083440116.01405</v>
+      </c>
+      <c r="Y22" s="6" t="n">
+        <v>10050633764.9211</v>
+      </c>
+      <c r="Z22" s="6" t="n">
+        <v>8452802950.09965</v>
+      </c>
+      <c r="AA22" s="6" t="n">
+        <v>6941675108.15186</v>
+      </c>
+      <c r="AB22" s="6" t="n">
+        <v>6543218087.85801</v>
+      </c>
+      <c r="AC22" s="6" t="n">
+        <v>5057958536.01278</v>
+      </c>
+      <c r="AD22" s="6" t="n">
+        <v>5108209068.76402</v>
+      </c>
+      <c r="AE22" s="6" t="n">
+        <v>4963547836.15936</v>
+      </c>
+      <c r="AF22" s="6" t="n">
+        <v>5208402081.09694</v>
+      </c>
+      <c r="AG22" s="6" t="n">
+        <v>4532289553.2206</v>
+      </c>
+      <c r="AH22" s="6" t="n">
+        <v>4652085624.6043</v>
+      </c>
+      <c r="AI22" s="6" t="n">
+        <v>3041805451.56424</v>
+      </c>
+      <c r="AJ22" s="6" t="n">
+        <v>2025246489.9319</v>
+      </c>
+      <c r="AK22" s="6" t="n">
+        <v>775398387.766557</v>
+      </c>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="6" t="n">
+        <v>841830499.674051</v>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>417665850.757841</v>
+      </c>
+      <c r="P23" s="6" t="n">
+        <v>455042347.890882</v>
+      </c>
+      <c r="Q23" s="6" t="n">
+        <v>1257907386.73974</v>
+      </c>
+      <c r="R23" s="6" t="n">
+        <v>1658030381.67589</v>
+      </c>
+      <c r="S23" s="6" t="n">
+        <v>1754020313.37534</v>
+      </c>
+      <c r="T23" s="6" t="n">
+        <v>1930865845.6692</v>
+      </c>
+      <c r="U23" s="6" t="n">
+        <v>2758057375.02989</v>
+      </c>
+      <c r="V23" s="6" t="n">
+        <v>2956516286.55942</v>
+      </c>
+      <c r="W23" s="6" t="n">
+        <v>3324844603.63815</v>
+      </c>
+      <c r="X23" s="6" t="n">
+        <v>2978366555.03625</v>
+      </c>
+      <c r="Y23" s="6" t="n">
+        <v>3144269092.02384</v>
+      </c>
+      <c r="Z23" s="6" t="n">
+        <v>2852896466.698</v>
+      </c>
+      <c r="AA23" s="6" t="n">
+        <v>2337988988.58855</v>
+      </c>
+      <c r="AB23" s="6" t="n">
+        <v>1621798833.40025</v>
+      </c>
+      <c r="AC23" s="6" t="n">
+        <v>1592415561.27962</v>
+      </c>
+      <c r="AD23" s="6" t="n">
+        <v>1848579851.67559</v>
+      </c>
+      <c r="AE23" s="6" t="n">
+        <v>1546506017.03381</v>
+      </c>
+      <c r="AF23" s="6" t="n">
+        <v>1777987890.73324</v>
+      </c>
+      <c r="AG23" s="6" t="n">
+        <v>1407433932.24685</v>
+      </c>
+      <c r="AH23" s="6" t="n">
+        <v>1603270701.52009</v>
+      </c>
+      <c r="AI23" s="6" t="n">
+        <v>830056440.469419</v>
+      </c>
+      <c r="AJ23" s="6" t="n">
+        <v>671933615.0434</v>
+      </c>
+      <c r="AK23" s="6" t="n">
+        <v>349035610.505631</v>
+      </c>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>92</v>
+      </c>
+      <c r="N24" s="6" t="n">
+        <v>1443211093.6783</v>
+      </c>
+      <c r="O24" s="6" t="n">
+        <v>1858870368.31274</v>
+      </c>
+      <c r="P24" s="6" t="n">
+        <v>1620242407.81129</v>
+      </c>
+      <c r="Q24" s="6" t="n">
+        <v>2068409758.16058</v>
+      </c>
+      <c r="R24" s="6" t="n">
+        <v>2511170387.93</v>
+      </c>
+      <c r="S24" s="6" t="n">
+        <v>3156175962.93649</v>
+      </c>
+      <c r="T24" s="6" t="n">
+        <v>3022897948.15863</v>
+      </c>
+      <c r="U24" s="6" t="n">
+        <v>3765312643.56034</v>
+      </c>
+      <c r="V24" s="6" t="n">
+        <v>3338357744.26663</v>
+      </c>
+      <c r="W24" s="6" t="n">
+        <v>4154090637.07282</v>
+      </c>
+      <c r="X24" s="6" t="n">
+        <v>4432861960.18559</v>
+      </c>
+      <c r="Y24" s="6" t="n">
+        <v>3867501978.39621</v>
+      </c>
+      <c r="Z24" s="6" t="n">
+        <v>3697552071.90324</v>
+      </c>
+      <c r="AA24" s="6" t="n">
+        <v>2650415613.1395</v>
+      </c>
+      <c r="AB24" s="6" t="n">
+        <v>1971319405.20907</v>
+      </c>
+      <c r="AC24" s="6" t="n">
+        <v>2352555358.67402</v>
+      </c>
+      <c r="AD24" s="6" t="n">
+        <v>2399052441.02493</v>
+      </c>
+      <c r="AE24" s="6" t="n">
+        <v>2371050132.90471</v>
+      </c>
+      <c r="AF24" s="6" t="n">
+        <v>3079909642.26255</v>
+      </c>
+      <c r="AG24" s="6" t="n">
+        <v>2985755266.33184</v>
+      </c>
+      <c r="AH24" s="6" t="n">
+        <v>2588195034.46305</v>
+      </c>
+      <c r="AI24" s="6" t="n">
+        <v>452102821.185722</v>
+      </c>
+      <c r="AJ24" s="6" t="n">
+        <v>213150006.5664</v>
+      </c>
+      <c r="AK24" s="6" t="n">
+        <v>103418745.800265</v>
+      </c>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+    </row>
+    <row r="25">
+      <c r="M25" t="s">
+        <v>93</v>
+      </c>
+      <c r="N25" s="6" t="n">
+        <v>422660601.587839</v>
+      </c>
+      <c r="O25" s="6" t="n">
+        <v>425375627.247345</v>
+      </c>
+      <c r="P25" s="6" t="n">
+        <v>550040148.136821</v>
+      </c>
+      <c r="Q25" s="6" t="n">
+        <v>450961350.900483</v>
+      </c>
+      <c r="R25" s="6" t="n">
+        <v>509073587.43199</v>
+      </c>
+      <c r="S25" s="6" t="n">
+        <v>906403289.986143</v>
+      </c>
+      <c r="T25" s="6" t="n">
+        <v>842577106.36223</v>
+      </c>
+      <c r="U25" s="6" t="n">
+        <v>837067086.491032</v>
+      </c>
+      <c r="V25" s="6" t="n">
+        <v>844480269.667518</v>
+      </c>
+      <c r="W25" s="6" t="n">
+        <v>844610334.102293</v>
+      </c>
+      <c r="X25" s="6" t="n">
+        <v>777517725.582353</v>
+      </c>
+      <c r="Y25" s="6" t="n">
+        <v>698176700.861907</v>
+      </c>
+      <c r="Z25" s="6" t="n">
+        <v>706934515.909263</v>
+      </c>
+      <c r="AA25" s="6" t="n">
+        <v>587578809.622999</v>
+      </c>
+      <c r="AB25" s="6" t="n">
+        <v>483715202.473178</v>
+      </c>
+      <c r="AC25" s="6" t="n">
+        <v>451550099.382267</v>
+      </c>
+      <c r="AD25" s="6" t="n">
+        <v>506197437.233257</v>
+      </c>
+      <c r="AE25" s="6" t="n">
+        <v>516890063.070676</v>
+      </c>
+      <c r="AF25" s="6" t="n">
+        <v>661162924.102776</v>
+      </c>
+      <c r="AG25" s="6" t="n">
+        <v>760409170.158539</v>
+      </c>
+      <c r="AH25" s="6" t="n">
+        <v>497482440.30797</v>
+      </c>
+      <c r="AI25" s="6" t="n">
+        <v>634274483.28591</v>
+      </c>
+      <c r="AJ25" s="6" t="n">
+        <v>499734217.9209</v>
+      </c>
+      <c r="AK25" s="6" t="n">
+        <v>271953595.390347</v>
+      </c>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+    </row>
+    <row r="26">
+      <c r="M26" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" s="6" t="n">
+        <v>21005724853.6277</v>
+      </c>
+      <c r="O26" s="6" t="n">
+        <v>23019394100.3167</v>
+      </c>
+      <c r="P26" s="6" t="n">
+        <v>26684627460.1102</v>
+      </c>
+      <c r="Q26" s="6" t="n">
+        <v>31140617495.9038</v>
+      </c>
+      <c r="R26" s="6" t="n">
+        <v>35671402908.5372</v>
+      </c>
+      <c r="S26" s="6" t="n">
+        <v>39650701638.5983</v>
+      </c>
+      <c r="T26" s="6" t="n">
+        <v>40248007763.4543</v>
+      </c>
+      <c r="U26" s="6" t="n">
+        <v>43446505161.7907</v>
+      </c>
+      <c r="V26" s="6" t="n">
+        <v>47489806644.2273</v>
+      </c>
+      <c r="W26" s="6" t="n">
+        <v>43029772806.4262</v>
+      </c>
+      <c r="X26" s="6" t="n">
+        <v>43538336339.0748</v>
+      </c>
+      <c r="Y26" s="6" t="n">
+        <v>38240813540.7262</v>
+      </c>
+      <c r="Z26" s="6" t="n">
+        <v>36485638396.7553</v>
+      </c>
+      <c r="AA26" s="6" t="n">
+        <v>29444557126.915</v>
+      </c>
+      <c r="AB26" s="6" t="n">
+        <v>31482726365.8934</v>
+      </c>
+      <c r="AC26" s="6" t="n">
+        <v>30444662785.5122</v>
+      </c>
+      <c r="AD26" s="6" t="n">
+        <v>32745218110.7016</v>
+      </c>
+      <c r="AE26" s="6" t="n">
+        <v>34541830191.5921</v>
+      </c>
+      <c r="AF26" s="6" t="n">
+        <v>38885833886.2862</v>
+      </c>
+      <c r="AG26" s="6" t="n">
+        <v>41018638425.8636</v>
+      </c>
+      <c r="AH26" s="6" t="n">
+        <v>41497327838.6973</v>
+      </c>
+      <c r="AI26" s="6" t="n">
+        <v>43542930832.3781</v>
+      </c>
+      <c r="AJ26" s="6" t="n">
+        <v>46512206855.8651</v>
+      </c>
+      <c r="AK26" s="6" t="n">
+        <v>24690975144.9287</v>
+      </c>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+    </row>
+    <row r="27">
+      <c r="M27"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6" t="n">
+        <v>21046.6999992214</v>
+      </c>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
@@ -1672,7 +1672,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="189" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
@@ -1680,7 +1680,7 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1719,7 +1719,7 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1728,7 +1728,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3184,11 +3184,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
       <c r="M1" t="s">
         <v>39</v>
       </c>
@@ -3299,556 +3308,712 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
       <c r="M2" t="s">
         <v>41</v>
       </c>
       <c r="N2" t="s">
         <v>41</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="11" t="n">
         <v>6661658000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="11" t="n">
         <v>6700563000</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="11" t="n">
         <v>5742264395</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="11" t="n">
         <v>5759755904</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="11" t="n">
         <v>6835234236</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="11" t="n">
         <v>5863702027</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="11" t="n">
         <v>5071457656</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2" s="11" t="n">
         <v>5149195469</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" s="11" t="n">
         <v>4458562507</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2" s="11" t="n">
         <v>5372241611</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2" s="11" t="n">
         <v>6220843427.6992</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" s="11" t="n">
         <v>6231182309.3674</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="11" t="n">
         <v>6897133013.4434</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="11" t="n">
         <v>8170110388.449</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="11" t="n">
         <v>9417999635.0749</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="11" t="n">
         <v>9796014474.4215</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="11" t="n">
         <v>9979829664.507</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="11" t="n">
         <v>11645743784.3225</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="11" t="n">
         <v>10767499855.9391</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="11" t="n">
         <v>10810598638.093</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="11" t="n">
         <v>9987160410.177</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="11" t="n">
         <v>9781491145.6566</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="11" t="n">
         <v>10567857651.0198</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="11" t="n">
         <v>8413506656.3357</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="11" t="n">
         <v>8970279015.2448</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="11" t="n">
         <v>8470856610.7911</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="11" t="n">
         <v>9806367292.4392</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="11" t="n">
         <v>10825628755.8145</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="11" t="n">
         <v>12063271848.3711</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="11" t="n">
         <v>12827417611.6526</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="11" t="n">
         <v>12427959601.331</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="11" t="n">
         <v>12108663624.245</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="11" t="n">
         <v>13386763122.6948</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="11" t="n">
         <v>6540122909.4686</v>
       </c>
+      <c r="AW2" s="11"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
       <c r="M3" t="s">
         <v>42</v>
       </c>
       <c r="N3" t="s">
         <v>42</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="11" t="n">
         <v>4381421000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="11" t="n">
         <v>4283465000</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="11" t="n">
         <v>4481070522</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="11" t="n">
         <v>4990730082</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="11" t="n">
         <v>2540178984</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="11" t="n">
         <v>5546896429</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="11" t="n">
         <v>6094007609</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" s="11" t="n">
         <v>6073548488</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3" s="11" t="n">
         <v>5395048586</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3" s="11" t="n">
         <v>5857339429</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3" s="11" t="n">
         <v>4578792855.9665</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3" s="11" t="n">
         <v>6382222488.2063</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="11" t="n">
         <v>6829551284.3173</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="11" t="n">
         <v>9328096423.7714</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="11" t="n">
         <v>11718340385.8563</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="11" t="n">
         <v>15482354726.8009</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="11" t="n">
         <v>16369185977.3895</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="11" t="n">
         <v>19994564304.9331</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="11" t="n">
         <v>24928318242.9471</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="11" t="n">
         <v>22926496775.0749</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="11" t="n">
         <v>22279603997.5926</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="11" t="n">
         <v>17504111246.6376</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="11" t="n">
         <v>15394581971.9816</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="11" t="n">
         <v>11790390777.6222</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="11" t="n">
         <v>10974655365.3427</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="11" t="n">
         <v>10292630027.9382</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="11" t="n">
         <v>11025957345.7779</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="11" t="n">
         <v>11213777272.4046</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="11" t="n">
         <v>12646339956.3991</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="11" t="n">
         <v>11804220061.1826</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="11" t="n">
         <v>11762391476.3707</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="11" t="n">
         <v>10114146856.1204</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="11" t="n">
         <v>10722139023.4111</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="11" t="n">
         <v>4343182765.9998</v>
       </c>
+      <c r="AW3" s="11"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
       <c r="M4" t="s">
         <v>43</v>
       </c>
       <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="11" t="n">
         <v>430743000</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="11" t="n">
         <v>404202000</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="11" t="n">
         <v>324645828</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="11" t="n">
         <v>327736540</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="11" t="n">
         <v>228114942</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="11" t="n">
         <v>372179135</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="11" t="n">
         <v>437479944</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="11" t="n">
         <v>570741667</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4" s="11" t="n">
         <v>626754765</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4" s="11" t="n">
         <v>794787483</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4" s="11" t="n">
         <v>844139727</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4" s="11" t="n">
         <v>926507537.6719</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="11" t="n">
         <v>1155517218</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="11" t="n">
         <v>1451703267.8398</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="11" t="n">
         <v>1557867707.6127</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="11" t="n">
         <v>1646017618.0913</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="11" t="n">
         <v>1509991032.2159</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="11" t="n">
         <v>1275999627.3959</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="11" t="n">
         <v>1501608133.1676</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="11" t="n">
         <v>1431069075.6025</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="11" t="n">
         <v>1818954682.6731</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="11" t="n">
         <v>2087954419.6087</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="11" t="n">
         <v>1910056953.2236</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="11" t="n">
         <v>1843237476.0981</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="11" t="n">
         <v>1688848199.5978</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="11" t="n">
         <v>1869537027.1707</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="11" t="n">
         <v>2048012943.9336</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="11" t="n">
         <v>2076715835.9577</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="11" t="n">
         <v>2986249974.1152</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="11" t="n">
         <v>3401538442.3926</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="11" t="n">
         <v>3048652916.2152</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="11" t="n">
         <v>2751539026.2907</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="11" t="n">
         <v>2572749611.4303</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="11" t="n">
         <v>1449302128.5882</v>
       </c>
+      <c r="AW4" s="11"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
       <c r="M5" t="s">
         <v>45</v>
       </c>
       <c r="N5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="11" t="n">
         <v>7523961894</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="11" t="n">
         <v>6608223733</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="11" t="n">
         <v>6907147137</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="11" t="n">
         <v>5328978016</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="11" t="n">
         <v>5844414206</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="11" t="n">
         <v>4982669486</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="11" t="n">
         <v>4407502006</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5" s="11" t="n">
         <v>4620424438</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5" s="11" t="n">
         <v>4606938958</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5" s="11" t="n">
         <v>5031670276</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5" s="11" t="n">
         <v>6575625378.7397</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5" s="11" t="n">
         <v>5743759214.4297</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="11" t="n">
         <v>7166306642.8233</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="11" t="n">
         <v>7905418613.7131</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="11" t="n">
         <v>9779610855.8585</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="11" t="n">
         <v>9827445480.9331</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="11" t="n">
         <v>11778838777.1185</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="11" t="n">
         <v>14034876106.4497</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="11" t="n">
         <v>14193980839.0803</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="11" t="n">
         <v>13896340897.2904</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="11" t="n">
         <v>14454005952.2641</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="11" t="n">
         <v>15101285121.0824</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="11" t="n">
         <v>13708104218.1037</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="11" t="n">
         <v>12289254335.4849</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="11" t="n">
         <v>11690213513.2683</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="11" t="n">
         <v>11640212967.2193</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="11" t="n">
         <v>12335478072.7244</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="11" t="n">
         <v>12740119691.9783</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="11" t="n">
         <v>13121824738.059</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="11" t="n">
         <v>15089195720.6191</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="11" t="n">
         <v>15945296894.1789</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="11" t="n">
         <v>14205481334.4585</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="11" t="n">
         <v>15859287682.3123</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="11" t="n">
         <v>7751837394.8186</v>
       </c>
+      <c r="AW5" s="11"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
       <c r="M6" t="s">
         <v>44</v>
       </c>
       <c r="N6" t="s">
         <v>44</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="11" t="n">
         <v>704656000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="11" t="n">
         <v>1323142000</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="11" t="n">
         <v>1929920076</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="11" t="n">
         <v>1834412957</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="11" t="n">
         <v>2195977094</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="11" t="n">
         <v>1925196590</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="11" t="n">
         <v>2170738503</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6" s="11" t="n">
         <v>2011818014</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6" s="11" t="n">
         <v>2392006747</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6" s="11" t="n">
         <v>2515252543</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6" s="11" t="n">
         <v>2531274875.4015</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6" s="11" t="n">
         <v>3103049496.2155</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="11" t="n">
         <v>3754784593.6674</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="11" t="n">
         <v>4628359028.0245</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="11" t="n">
         <v>5058227503.2728</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="11" t="n">
         <v>5481413289.351</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="11" t="n">
         <v>5564659728.3092</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="11" t="n">
         <v>5503088444.5165</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="11" t="n">
         <v>5561049613.1652</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="11" t="n">
         <v>6281179143.512</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="11" t="n">
         <v>7581211434.9876</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="11" t="n">
         <v>7943233945.9716</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="11" t="n">
         <v>8039614746.3742</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="11" t="n">
         <v>6776246190.6162</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="11" t="n">
         <v>7530077033.8422</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="11" t="n">
         <v>7341716162.4769</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="11" t="n">
         <v>8088369057.8871</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="11" t="n">
         <v>8852021536.0925</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="11" t="n">
         <v>10165986237.9771</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="11" t="n">
         <v>11802878479.405</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="11" t="n">
         <v>12172379783.5836</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="11" t="n">
         <v>10424653256.3005</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="11" t="n">
         <v>11046884426.0295</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="11" t="n">
         <v>4810104021.6876</v>
       </c>
+      <c r="AW6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>542</v>
+      </c>
+      <c r="N7" t="s">
+        <v>543</v>
+      </c>
+      <c r="O7" s="11" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="11" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="11" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="11" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="11" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="11" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="11" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="11" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="11" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="11" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="11" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="11" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="11" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="11" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="11" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="11" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="11" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="11" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="11" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="11" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="11" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="11" t="str">
+        <f>Sum(AJ2:AJ6)</f>
+      </c>
+      <c r="AK7" s="11" t="str">
+        <f>Sum(AK2:AK6)</f>
+      </c>
+      <c r="AL7" s="11" t="str">
+        <f>Sum(AL2:AL6)</f>
+      </c>
+      <c r="AM7" s="11" t="str">
+        <f>Sum(AM2:AM6)</f>
+      </c>
+      <c r="AN7" s="11" t="str">
+        <f>Sum(AN2:AN6)</f>
+      </c>
+      <c r="AO7" s="11" t="str">
+        <f>Sum(AO2:AO6)</f>
+      </c>
+      <c r="AP7" s="11" t="str">
+        <f>Sum(AP2:AP6)</f>
+      </c>
+      <c r="AQ7" s="11" t="str">
+        <f>Sum(AQ2:AQ6)</f>
+      </c>
+      <c r="AR7" s="11" t="str">
+        <f>Sum(AR2:AR6)</f>
+      </c>
+      <c r="AS7" s="11" t="str">
+        <f>Sum(AS2:AS6)</f>
+      </c>
+      <c r="AT7" s="11" t="str">
+        <f>Sum(AT2:AT6)</f>
+      </c>
+      <c r="AU7" s="11" t="str">
+        <f>Sum(AU2:AU6)</f>
+      </c>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
     </row>
     <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
       <c r="M10" t="s">
         <v>39</v>
       </c>
@@ -3959,554 +4124,632 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
       <c r="M11" t="s">
         <v>41</v>
       </c>
       <c r="N11" t="s">
         <v>41</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="11" t="n">
         <v>13240255560.5454</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="11" t="n">
         <v>12858913430.0931</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="11" t="n">
         <v>10751164950.794</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="11" t="n">
         <v>10536404147.7274</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="11" t="n">
         <v>12237148805.0144</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="11" t="n">
         <v>10280050064.214</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" s="11" t="n">
         <v>8727092961.7205</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11" s="11" t="n">
         <v>8706205492.74636</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11" s="11" t="n">
         <v>7445521501.36268</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11" s="11" t="n">
         <v>8860856403.36847</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11" s="11" t="n">
         <v>10051203661.0427</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11" s="11" t="n">
         <v>9829547646.9578</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11" s="11" t="n">
         <v>10711011966.6988</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11" s="11" t="n">
         <v>12449927416.6071</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11" s="11" t="n">
         <v>14009079774.7434</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11" s="11" t="n">
         <v>14142062397.3196</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11" s="11" t="n">
         <v>13953146985.7448</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11" s="11" t="n">
         <v>15847725466.2239</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11" s="11" t="n">
         <v>14353247129.2284</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11" s="11" t="n">
         <v>14265730769.4917</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11" s="11" t="n">
         <v>13065480053.6005</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11" s="11" t="n">
         <v>12543616898.2582</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11" s="11" t="n">
         <v>13308103137.39</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11" s="11" t="n">
         <v>10404722505.758</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11" s="11" t="n">
         <v>10882728676.5294</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11" s="11" t="n">
         <v>10160348352.8595</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11" s="11" t="n">
         <v>11665556714.6647</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11" s="11" t="n">
         <v>12652171043.1522</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11" s="11" t="n">
         <v>13775188825.7957</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11" s="11" t="n">
         <v>14366388297.027</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11" s="11" t="n">
         <v>13735764028.8722</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11" s="11" t="n">
         <v>12947643804.5162</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11" s="11" t="n">
         <v>13386763122.6948</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11" s="11" t="n">
         <v>6237958632.35896</v>
       </c>
+      <c r="AW11" s="11"/>
     </row>
     <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
       <c r="M12" t="s">
         <v>42</v>
       </c>
       <c r="N12" t="s">
         <v>42</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="11" t="n">
         <v>8708212543.83523</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="11" t="n">
         <v>8220310086.75447</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="11" t="n">
         <v>8389848502.98981</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="11" t="n">
         <v>9129614173.34614</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12" s="11" t="n">
         <v>4547693194.60352</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="11" t="n">
         <v>9724636881.02916</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" s="11" t="n">
         <v>10486722855.7562</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12" s="11" t="n">
         <v>10269091846.4892</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12" s="11" t="n">
         <v>9009394885.65957</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12" s="11" t="n">
         <v>9660966007.16667</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12" s="11" t="n">
         <v>7398093209.05348</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12" s="11" t="n">
         <v>10067810076.2676</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12" s="11" t="n">
         <v>10606059849.9296</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12" s="11" t="n">
         <v>14214510929.4065</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12" s="11" t="n">
         <v>17430789090.4641</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12" s="11" t="n">
         <v>22351174263.3256</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12" s="11" t="n">
         <v>22886328289.9319</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12" s="11" t="n">
         <v>27208941892.394</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12" s="11" t="n">
         <v>33229841378.6109</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12" s="11" t="n">
         <v>30253942582.6406</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12" s="11" t="n">
         <v>29146795453.0937</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12" s="11" t="n">
         <v>22446972793.0808</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12" s="11" t="n">
         <v>19386397073.6175</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12" s="11" t="n">
         <v>14580810271.687</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12" s="11" t="n">
         <v>13314434975.3744</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12" s="11" t="n">
         <v>12345470045.8195</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12" s="11" t="n">
         <v>13116368876.9659</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12" s="11" t="n">
         <v>13105809490.6563</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12" s="11" t="n">
         <v>14441001002.4043</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12" s="11" t="n">
         <v>13220432520.1397</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12" s="11" t="n">
         <v>13000157621.7984</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12" s="11" t="n">
         <v>10814931766.4921</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12" s="11" t="n">
         <v>10722139023.4111</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12" s="11" t="n">
         <v>4142520683.80202</v>
       </c>
+      <c r="AW12" s="11"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
       <c r="M13" t="s">
         <v>43</v>
       </c>
       <c r="N13" t="s">
         <v>44</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="11" t="n">
         <v>856115309.56948</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="11" t="n">
         <v>775695792.468557</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="11" t="n">
         <v>607830048.796471</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="11" t="n">
         <v>599533156.781815</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13" s="11" t="n">
         <v>408395146.899135</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" s="11" t="n">
         <v>652492252.000281</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" s="11" t="n">
         <v>752826583.429977</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13" s="11" t="n">
         <v>965004002.293123</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13" s="11" t="n">
         <v>1046641394.29749</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13" s="11" t="n">
         <v>1310904882.54246</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13" s="11" t="n">
         <v>1363901923.11784</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13" s="11" t="n">
         <v>1461544460.53049</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13" s="11" t="n">
         <v>1794478767.56917</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13" s="11" t="n">
         <v>2212161091.55752</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13" s="11" t="n">
         <v>2317296011.90088</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13" s="11" t="n">
         <v>2376281080.73097</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13" s="11" t="n">
         <v>2111170984.67089</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13" s="11" t="n">
         <v>1736401913.39231</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13" s="11" t="n">
         <v>2001667324.35345</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13" s="11" t="n">
         <v>1888447331.04363</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13" s="11" t="n">
         <v>2379606930.17921</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13" s="11" t="n">
         <v>2677557025.87598</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13" s="11" t="n">
         <v>2405334720.73554</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13" s="11" t="n">
         <v>2279474568.02359</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13" s="11" t="n">
         <v>2048908032.94222</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13" s="11" t="n">
         <v>2242411638.79761</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO13" s="11" t="n">
         <v>2436295769.61136</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP13" s="11" t="n">
         <v>2427107427.86623</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13" s="11" t="n">
         <v>3410033181.00793</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13" s="11" t="n">
         <v>3809638350.45677</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13" s="11" t="n">
         <v>3369465174.20128</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT13" s="11" t="n">
         <v>2942186547.76272</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13" s="11" t="n">
         <v>2572749611.4303</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV13" s="11" t="n">
         <v>1382342021.55958</v>
       </c>
+      <c r="AW13" s="11"/>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
       <c r="M14" t="s">
         <v>45</v>
       </c>
       <c r="N14" t="s">
         <v>45</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="11" t="n">
         <v>14954111769.8274</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="11" t="n">
         <v>12681707031.0859</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="11" t="n">
         <v>12932159354.0611</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="11" t="n">
         <v>9748375974.04724</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="11" t="n">
         <v>10463279508.4452</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="11" t="n">
         <v>8735452711.21452</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" s="11" t="n">
         <v>7584541239.30707</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" s="11" t="n">
         <v>7812164999.97179</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14" s="11" t="n">
         <v>7693300926.79003</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14" s="11" t="n">
         <v>8299125581.66465</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14" s="11" t="n">
         <v>10624435520.4545</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14" s="11" t="n">
         <v>9060648857.28266</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="11" t="n">
         <v>11129029418.2672</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="11" t="n">
         <v>12046579943.1269</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="11" t="n">
         <v>14546968990.6798</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="11" t="n">
         <v>14187437917.7885</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="11" t="n">
         <v>16468404201.6306</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="11" t="n">
         <v>19098897211.4347</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="11" t="n">
         <v>18920800321.0215</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="11" t="n">
         <v>18337694752.9329</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="11" t="n">
         <v>18909131195.2386</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="11" t="n">
         <v>19365629678.4909</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="11" t="n">
         <v>17262615638.5643</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="11" t="n">
         <v>15197739347.7326</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="11" t="n">
         <v>14182549017.6378</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="11" t="n">
         <v>13961825123.7728</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="11" t="n">
         <v>14674161671.5517</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="11" t="n">
         <v>14889682353.6984</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="11" t="n">
         <v>14983962541.6522</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="11" t="n">
         <v>16899523456.3291</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="11" t="n">
         <v>17623233622.7818</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="11" t="n">
         <v>15189744970.8651</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="11" t="n">
         <v>15859287682.3123</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="11" t="n">
         <v>7393689944.82409</v>
       </c>
+      <c r="AW14" s="11"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
       <c r="M15" t="s">
         <v>44</v>
       </c>
       <c r="N15" t="s">
         <v>44</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="11" t="n">
         <v>1400526043.55727</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="11" t="n">
         <v>2539214754.59902</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="11" t="n">
         <v>3613363588.23736</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="11" t="n">
         <v>3355717952.44947</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" s="11" t="n">
         <v>3931467092.98537</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="11" t="n">
         <v>3375191515.10834</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" s="11" t="n">
         <v>3735461872.35818</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15" s="11" t="n">
         <v>3401560719.40583</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15" s="11" t="n">
         <v>3994502182.76217</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15" s="11" t="n">
         <v>4148601871.53455</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15" s="11" t="n">
         <v>4089856880.41192</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15" s="11" t="n">
         <v>4894989643.95013</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="11" t="n">
         <v>5831052212.09432</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="11" t="n">
         <v>7052870918.16663</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="11" t="n">
         <v>7524008850.90779</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="11" t="n">
         <v>7913268091.417</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="11" t="n">
         <v>7780144323.59438</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="11" t="n">
         <v>7488695999.17274</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="11" t="n">
         <v>7412966841.28893</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="11" t="n">
         <v>8288681651.77716</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="11" t="n">
         <v>9917950920.76658</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="11" t="n">
         <v>10186267315.26</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="11" t="n">
         <v>10124286848.1773</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="11" t="n">
         <v>8379973312.43186</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="11" t="n">
         <v>9135477852.29442</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="11" t="n">
         <v>8806003589.24237</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="11" t="n">
         <v>9621843151.50727</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="11" t="n">
         <v>10345569119.2213</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="11" t="n">
         <v>11608656572.5106</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="11" t="n">
         <v>13218929981.9568</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="11" t="n">
         <v>13453289336.3455</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="11" t="n">
         <v>11146952408.3493</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="11" t="n">
         <v>11046884426.0295</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="11" t="n">
         <v>4587869420.80095</v>
       </c>
+      <c r="AW15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4660,89 +4903,89 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11" t="n">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
         <v>7745409866.4287</v>
       </c>
-      <c r="AA2" s="11" t="n">
+      <c r="AA2" s="2" t="n">
         <v>9365489431.6874</v>
       </c>
-      <c r="AB2" s="11" t="n">
+      <c r="AB2" s="2" t="n">
         <v>10261062296.0877</v>
       </c>
-      <c r="AC2" s="11" t="n">
+      <c r="AC2" s="2" t="n">
         <v>13927889331.964</v>
       </c>
-      <c r="AD2" s="11" t="n">
+      <c r="AD2" s="2" t="n">
         <v>17718446729.6663</v>
       </c>
-      <c r="AE2" s="11" t="n">
+      <c r="AE2" s="2" t="n">
         <v>20006698311.5627</v>
       </c>
-      <c r="AF2" s="11" t="n">
+      <c r="AF2" s="2" t="n">
         <v>23590550916.16</v>
       </c>
-      <c r="AG2" s="11" t="n">
+      <c r="AG2" s="2" t="n">
         <v>27713303440.4714</v>
       </c>
-      <c r="AH2" s="11" t="n">
+      <c r="AH2" s="2" t="n">
         <v>29279795135.5725</v>
       </c>
-      <c r="AI2" s="11" t="n">
+      <c r="AI2" s="2" t="n">
         <v>28917543429.9633</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>30663895756.9403</v>
       </c>
-      <c r="AK2" s="11" t="n">
+      <c r="AK2" s="2" t="n">
         <v>28185090296.6477</v>
       </c>
-      <c r="AL2" s="11" t="n">
+      <c r="AL2" s="2" t="n">
         <v>29396220082.02</v>
       </c>
-      <c r="AM2" s="11" t="n">
+      <c r="AM2" s="2" t="n">
         <v>24834689731.2118</v>
       </c>
-      <c r="AN2" s="11" t="n">
+      <c r="AN2" s="2" t="n">
         <v>25032277394.0532</v>
       </c>
-      <c r="AO2" s="11" t="n">
+      <c r="AO2" s="2" t="n">
         <v>24505678968.4119</v>
       </c>
-      <c r="AP2" s="11" t="n">
+      <c r="AP2" s="2" t="n">
         <v>25791705919.4623</v>
       </c>
-      <c r="AQ2" s="11" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>26845599544.7238</v>
       </c>
-      <c r="AR2" s="11" t="n">
+      <c r="AR2" s="2" t="n">
         <v>31994252515.3208</v>
       </c>
-      <c r="AS2" s="11" t="n">
+      <c r="AS2" s="2" t="n">
         <v>34192852294.0024</v>
       </c>
-      <c r="AT2" s="11" t="n">
+      <c r="AT2" s="2" t="n">
         <v>34502358757.4437</v>
       </c>
-      <c r="AU2" s="11" t="n">
+      <c r="AU2" s="2" t="n">
         <v>31125639346.0963</v>
       </c>
-      <c r="AV2" s="11" t="n">
+      <c r="AV2" s="2" t="n">
         <v>33048419165.1799</v>
       </c>
-      <c r="AW2" s="11" t="n">
+      <c r="AW2" s="2" t="n">
         <v>14626524313.5635</v>
       </c>
-      <c r="AX2" s="11"/>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -4760,89 +5003,89 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11" t="n">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
         <v>351263617</v>
       </c>
-      <c r="AA3" s="11" t="n">
+      <c r="AA3" s="2" t="n">
         <v>910786484.5408</v>
       </c>
-      <c r="AB3" s="11" t="n">
+      <c r="AB3" s="2" t="n">
         <v>646264465</v>
       </c>
-      <c r="AC3" s="11" t="n">
+      <c r="AC3" s="2" t="n">
         <v>793441443.5</v>
       </c>
-      <c r="AD3" s="11" t="n">
+      <c r="AD3" s="2" t="n">
         <v>986688633.6206</v>
       </c>
-      <c r="AE3" s="11" t="n">
+      <c r="AE3" s="2" t="n">
         <v>1077885901.5297</v>
       </c>
-      <c r="AF3" s="11" t="n">
+      <c r="AF3" s="2" t="n">
         <v>553242238.9113</v>
       </c>
-      <c r="AG3" s="11" t="n">
+      <c r="AG3" s="2" t="n">
         <v>386969561.8881</v>
       </c>
-      <c r="AH3" s="11" t="n">
+      <c r="AH3" s="2" t="n">
         <v>594426627.5902</v>
       </c>
-      <c r="AI3" s="11" t="n">
+      <c r="AI3" s="2" t="n">
         <v>537478893.2873</v>
       </c>
-      <c r="AJ3" s="11" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>684468646.1753</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AK3" s="2" t="n">
         <v>1134877810.7948</v>
       </c>
-      <c r="AL3" s="11" t="n">
+      <c r="AL3" s="2" t="n">
         <v>362692336.111</v>
       </c>
-      <c r="AM3" s="11" t="n">
+      <c r="AM3" s="2" t="n">
         <v>167024104.8643</v>
       </c>
-      <c r="AN3" s="11" t="n">
+      <c r="AN3" s="2" t="n">
         <v>103291895.5268</v>
       </c>
-      <c r="AO3" s="11" t="n">
+      <c r="AO3" s="2" t="n">
         <v>131801684.8803</v>
       </c>
-      <c r="AP3" s="11" t="n">
+      <c r="AP3" s="2" t="n">
         <v>188200819.8463</v>
       </c>
-      <c r="AQ3" s="11" t="n">
+      <c r="AQ3" s="2" t="n">
         <v>72065956.0363</v>
       </c>
-      <c r="AR3" s="11" t="n">
+      <c r="AR3" s="2" t="n">
         <v>113243602.0722</v>
       </c>
-      <c r="AS3" s="11" t="n">
+      <c r="AS3" s="2" t="n">
         <v>86293626.4005</v>
       </c>
-      <c r="AT3" s="11" t="n">
+      <c r="AT3" s="2" t="n">
         <v>91330766.8958</v>
       </c>
-      <c r="AU3" s="11" t="n">
+      <c r="AU3" s="2" t="n">
         <v>179981442.6027</v>
       </c>
-      <c r="AV3" s="11" t="n">
+      <c r="AV3" s="2" t="n">
         <v>280510565.1576</v>
       </c>
-      <c r="AW3" s="11" t="n">
+      <c r="AW3" s="2" t="n">
         <v>115561021.6707</v>
       </c>
-      <c r="AX3" s="11"/>
+      <c r="AX3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -4860,89 +5103,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="n">
         <v>1872242063.2094</v>
       </c>
-      <c r="AA4" s="11" t="n">
+      <c r="AA4" s="2" t="n">
         <v>1711195301.9999</v>
       </c>
-      <c r="AB4" s="11" t="n">
+      <c r="AB4" s="2" t="n">
         <v>2193214227.6811</v>
       </c>
-      <c r="AC4" s="11" t="n">
+      <c r="AC4" s="2" t="n">
         <v>3246531633.0533</v>
       </c>
-      <c r="AD4" s="11" t="n">
+      <c r="AD4" s="2" t="n">
         <v>4084153850.8455</v>
       </c>
-      <c r="AE4" s="11" t="n">
+      <c r="AE4" s="2" t="n">
         <v>5522774020.5523</v>
       </c>
-      <c r="AF4" s="11" t="n">
+      <c r="AF4" s="2" t="n">
         <v>6394675350.2036</v>
       </c>
-      <c r="AG4" s="11" t="n">
+      <c r="AG4" s="2" t="n">
         <v>8079268735.7749</v>
       </c>
-      <c r="AH4" s="11" t="n">
+      <c r="AH4" s="2" t="n">
         <v>8310577598.401</v>
       </c>
-      <c r="AI4" s="11" t="n">
+      <c r="AI4" s="2" t="n">
         <v>7389243494.1793</v>
       </c>
-      <c r="AJ4" s="11" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>7082022035.5353</v>
       </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AK4" s="2" t="n">
         <v>4318518817.8775</v>
       </c>
-      <c r="AL4" s="11" t="n">
+      <c r="AL4" s="2" t="n">
         <v>1991126208.0814</v>
       </c>
-      <c r="AM4" s="11" t="n">
+      <c r="AM4" s="2" t="n">
         <v>870175553.7347</v>
       </c>
-      <c r="AN4" s="11" t="n">
+      <c r="AN4" s="2" t="n">
         <v>627734141.7625</v>
       </c>
-      <c r="AO4" s="11" t="n">
+      <c r="AO4" s="2" t="n">
         <v>477583914.5411</v>
       </c>
-      <c r="AP4" s="11" t="n">
+      <c r="AP4" s="2" t="n">
         <v>560963783.9982</v>
       </c>
-      <c r="AQ4" s="11" t="n">
+      <c r="AQ4" s="2" t="n">
         <v>541606517.3411</v>
       </c>
-      <c r="AR4" s="11" t="n">
+      <c r="AR4" s="2" t="n">
         <v>510576105.6518</v>
       </c>
-      <c r="AS4" s="11" t="n">
+      <c r="AS4" s="2" t="n">
         <v>461925072.8385</v>
       </c>
-      <c r="AT4" s="11" t="n">
+      <c r="AT4" s="2" t="n">
         <v>469803369.5043</v>
       </c>
-      <c r="AU4" s="11" t="n">
+      <c r="AU4" s="2" t="n">
         <v>-14599833.4175</v>
       </c>
-      <c r="AV4" s="11" t="n">
+      <c r="AV4" s="2" t="n">
         <v>534502114.3888</v>
       </c>
-      <c r="AW4" s="11" t="n">
+      <c r="AW4" s="2" t="n">
         <v>350135007.872</v>
       </c>
-      <c r="AX4" s="11"/>
+      <c r="AX4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -4960,89 +5203,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
         <v>418939429</v>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="AA5" s="2" t="n">
         <v>410489407</v>
       </c>
-      <c r="AB5" s="11" t="n">
+      <c r="AB5" s="2" t="n">
         <v>1080790156</v>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AC5" s="2" t="n">
         <v>1037676424</v>
       </c>
-      <c r="AD5" s="11" t="n">
+      <c r="AD5" s="2" t="n">
         <v>847635772</v>
       </c>
-      <c r="AE5" s="11" t="n">
+      <c r="AE5" s="2" t="n">
         <v>1117765653.1602</v>
       </c>
-      <c r="AF5" s="11" t="n">
+      <c r="AF5" s="2" t="n">
         <v>1112505652.6105</v>
       </c>
-      <c r="AG5" s="11" t="n">
+      <c r="AG5" s="2" t="n">
         <v>831477106.426</v>
       </c>
-      <c r="AH5" s="11" t="n">
+      <c r="AH5" s="2" t="n">
         <v>825862732.9017</v>
       </c>
-      <c r="AI5" s="11" t="n">
+      <c r="AI5" s="2" t="n">
         <v>877324654.5554</v>
       </c>
-      <c r="AJ5" s="11" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>2035459607.72</v>
       </c>
-      <c r="AK5" s="11" t="n">
+      <c r="AK5" s="2" t="n">
         <v>2181515114.5837</v>
       </c>
-      <c r="AL5" s="11" t="n">
+      <c r="AL5" s="2" t="n">
         <v>1823707152.5427</v>
       </c>
-      <c r="AM5" s="11" t="n">
+      <c r="AM5" s="2" t="n">
         <v>2105131324.5821</v>
       </c>
-      <c r="AN5" s="11" t="n">
+      <c r="AN5" s="2" t="n">
         <v>3061035752.9761</v>
       </c>
-      <c r="AO5" s="11" t="n">
+      <c r="AO5" s="2" t="n">
         <v>2444038534.535</v>
       </c>
-      <c r="AP5" s="11" t="n">
+      <c r="AP5" s="2" t="n">
         <v>3584284892.3796</v>
       </c>
-      <c r="AQ5" s="11" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>3712244208.7281</v>
       </c>
-      <c r="AR5" s="11" t="n">
+      <c r="AR5" s="2" t="n">
         <v>3075956189.6551</v>
       </c>
-      <c r="AS5" s="11" t="n">
+      <c r="AS5" s="2" t="n">
         <v>3740473923.6574</v>
       </c>
-      <c r="AT5" s="11" t="n">
+      <c r="AT5" s="2" t="n">
         <v>4043092692.9331</v>
       </c>
-      <c r="AU5" s="11" t="n">
+      <c r="AU5" s="2" t="n">
         <v>3383221172.6934</v>
       </c>
-      <c r="AV5" s="11" t="n">
+      <c r="AV5" s="2" t="n">
         <v>4999872807.408</v>
       </c>
-      <c r="AW5" s="11" t="n">
+      <c r="AW5" s="2" t="n">
         <v>2766622413.9943</v>
       </c>
-      <c r="AX5" s="11"/>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5060,89 +5303,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11" t="n">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
         <v>5131200658.1172</v>
       </c>
-      <c r="AA6" s="11" t="n">
+      <c r="AA6" s="2" t="n">
         <v>5100026501.7071</v>
       </c>
-      <c r="AB6" s="11" t="n">
+      <c r="AB6" s="2" t="n">
         <v>5955519489.22</v>
       </c>
-      <c r="AC6" s="11" t="n">
+      <c r="AC6" s="2" t="n">
         <v>7025395312.6037</v>
       </c>
-      <c r="AD6" s="11" t="n">
+      <c r="AD6" s="2" t="n">
         <v>8006755847.5671</v>
       </c>
-      <c r="AE6" s="11" t="n">
+      <c r="AE6" s="2" t="n">
         <v>8894373021.9812</v>
       </c>
-      <c r="AF6" s="11" t="n">
+      <c r="AF6" s="2" t="n">
         <v>9253374271.4146</v>
       </c>
-      <c r="AG6" s="11" t="n">
+      <c r="AG6" s="2" t="n">
         <v>10561921547.1397</v>
       </c>
-      <c r="AH6" s="11" t="n">
+      <c r="AH6" s="2" t="n">
         <v>11198190212.8784</v>
       </c>
-      <c r="AI6" s="11" t="n">
+      <c r="AI6" s="2" t="n">
         <v>10905405012.357</v>
       </c>
-      <c r="AJ6" s="11" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>12625358750.8069</v>
       </c>
-      <c r="AK6" s="11" t="n">
+      <c r="AK6" s="2" t="n">
         <v>14400767146.0502</v>
       </c>
-      <c r="AL6" s="11" t="n">
+      <c r="AL6" s="2" t="n">
         <v>13984870220.1961</v>
       </c>
-      <c r="AM6" s="11" t="n">
+      <c r="AM6" s="2" t="n">
         <v>11811848954.9703</v>
       </c>
-      <c r="AN6" s="11" t="n">
+      <c r="AN6" s="2" t="n">
         <v>10937778421.2594</v>
       </c>
-      <c r="AO6" s="11" t="n">
+      <c r="AO6" s="2" t="n">
         <v>11166325215.6848</v>
       </c>
-      <c r="AP6" s="11" t="n">
+      <c r="AP6" s="2" t="n">
         <v>11949242310.9642</v>
       </c>
-      <c r="AQ6" s="11" t="n">
+      <c r="AQ6" s="2" t="n">
         <v>12577414811.1868</v>
       </c>
-      <c r="AR6" s="11" t="n">
+      <c r="AR6" s="2" t="n">
         <v>14110510627.4617</v>
       </c>
-      <c r="AS6" s="11" t="n">
+      <c r="AS6" s="2" t="n">
         <v>15192987435.5439</v>
       </c>
-      <c r="AT6" s="11" t="n">
+      <c r="AT6" s="2" t="n">
         <v>15225977738.9764</v>
       </c>
-      <c r="AU6" s="11" t="n">
+      <c r="AU6" s="2" t="n">
         <v>14012405429.6442</v>
       </c>
-      <c r="AV6" s="11" t="n">
+      <c r="AV6" s="2" t="n">
         <v>13638663594.8197</v>
       </c>
-      <c r="AW6" s="11" t="n">
+      <c r="AW6" s="2" t="n">
         <v>6434368340.8512</v>
       </c>
-      <c r="AX6" s="11"/>
+      <c r="AX6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5160,89 +5403,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11" t="n">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
         <v>572636615</v>
       </c>
-      <c r="AA7" s="11" t="n">
+      <c r="AA7" s="2" t="n">
         <v>700276049.875</v>
       </c>
-      <c r="AB7" s="11" t="n">
+      <c r="AB7" s="2" t="n">
         <v>762655276</v>
       </c>
-      <c r="AC7" s="11" t="n">
+      <c r="AC7" s="2" t="n">
         <v>819932062</v>
       </c>
-      <c r="AD7" s="11" t="n">
+      <c r="AD7" s="2" t="n">
         <v>1386045997</v>
       </c>
-      <c r="AE7" s="11" t="n">
+      <c r="AE7" s="2" t="n">
         <v>2098175267.1875</v>
       </c>
-      <c r="AF7" s="11" t="n">
+      <c r="AF7" s="2" t="n">
         <v>1586235192.373</v>
       </c>
-      <c r="AG7" s="11" t="n">
+      <c r="AG7" s="2" t="n">
         <v>1731491457.1049</v>
       </c>
-      <c r="AH7" s="11" t="n">
+      <c r="AH7" s="2" t="n">
         <v>1165626022.0423</v>
       </c>
-      <c r="AI7" s="11" t="n">
+      <c r="AI7" s="2" t="n">
         <v>1608472749.4224</v>
       </c>
-      <c r="AJ7" s="11" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>2681972519.1245</v>
       </c>
-      <c r="AK7" s="11" t="n">
+      <c r="AK7" s="2" t="n">
         <v>2059411573.4266</v>
       </c>
-      <c r="AL7" s="11" t="n">
+      <c r="AL7" s="2" t="n">
         <v>1764305123.303</v>
       </c>
-      <c r="AM7" s="11" t="n">
+      <c r="AM7" s="2" t="n">
         <v>931772516.5176</v>
       </c>
-      <c r="AN7" s="11" t="n">
+      <c r="AN7" s="2" t="n">
         <v>615529782.1261</v>
       </c>
-      <c r="AO7" s="11" t="n">
+      <c r="AO7" s="2" t="n">
         <v>664256316.377</v>
       </c>
-      <c r="AP7" s="11" t="n">
+      <c r="AP7" s="2" t="n">
         <v>1009232434.8681</v>
       </c>
-      <c r="AQ7" s="11" t="n">
+      <c r="AQ7" s="2" t="n">
         <v>1520885804.4895</v>
       </c>
-      <c r="AR7" s="11" t="n">
+      <c r="AR7" s="2" t="n">
         <v>1179133714.7599</v>
       </c>
-      <c r="AS7" s="11" t="n">
+      <c r="AS7" s="2" t="n">
         <v>1250667059.2506</v>
       </c>
-      <c r="AT7" s="11" t="n">
+      <c r="AT7" s="2" t="n">
         <v>1024117345.9261</v>
       </c>
-      <c r="AU7" s="11" t="n">
+      <c r="AU7" s="2" t="n">
         <v>917836539.796</v>
       </c>
-      <c r="AV7" s="11" t="n">
+      <c r="AV7" s="2" t="n">
         <v>1085388156.924</v>
       </c>
-      <c r="AW7" s="11" t="n">
+      <c r="AW7" s="2" t="n">
         <v>601338122.6111</v>
       </c>
-      <c r="AX7" s="11"/>
+      <c r="AX7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5260,75 +5503,75 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11" t="n">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="n">
         <v>630815.8438</v>
       </c>
-      <c r="AA8" s="11" t="n">
+      <c r="AA8" s="2" t="n">
         <v>165305</v>
       </c>
-      <c r="AB8" s="11" t="n">
+      <c r="AB8" s="2" t="n">
         <v>21370907</v>
       </c>
-      <c r="AC8" s="11" t="n">
+      <c r="AC8" s="2" t="n">
         <v>95453350.9297</v>
       </c>
-      <c r="AD8" s="11" t="n">
+      <c r="AD8" s="2" t="n">
         <v>193097212.1778</v>
       </c>
-      <c r="AE8" s="11" t="n">
+      <c r="AE8" s="2" t="n">
         <v>355929347.3939</v>
       </c>
-      <c r="AF8" s="11" t="n">
+      <c r="AF8" s="2" t="n">
         <v>689542514.8119</v>
       </c>
-      <c r="AG8" s="11" t="n">
+      <c r="AG8" s="2" t="n">
         <v>2737039346.3235</v>
       </c>
-      <c r="AH8" s="11" t="n">
+      <c r="AH8" s="2" t="n">
         <v>4183647377.3102</v>
       </c>
-      <c r="AI8" s="11" t="n">
+      <c r="AI8" s="2" t="n">
         <v>4737546063.5601</v>
       </c>
-      <c r="AJ8" s="11" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>268866937.412</v>
       </c>
-      <c r="AK8" s="11" t="n">
+      <c r="AK8" s="2" t="n">
         <v>117347085.451</v>
       </c>
-      <c r="AL8" s="11" t="n">
+      <c r="AL8" s="2" t="n">
         <v>2583647.7504</v>
       </c>
-      <c r="AM8" s="11" t="n">
+      <c r="AM8" s="2" t="n">
         <v>7700463.98</v>
       </c>
-      <c r="AN8" s="11" t="n">
+      <c r="AN8" s="2" t="n">
         <v>-7419796.22</v>
       </c>
-      <c r="AO8" s="11" t="n">
+      <c r="AO8" s="2" t="n">
         <v>147331.4063</v>
       </c>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11" t="n">
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2" t="n">
         <v>467462</v>
       </c>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5344,109 +5587,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="11" t="n">
+      <c r="P9" s="2" t="n">
         <v>19702439894</v>
       </c>
-      <c r="Q9" s="11" t="n">
+      <c r="Q9" s="2" t="n">
         <v>19319595733</v>
       </c>
-      <c r="R9" s="11" t="n">
+      <c r="R9" s="2" t="n">
         <v>19385047958</v>
       </c>
-      <c r="S9" s="11" t="n">
+      <c r="S9" s="2" t="n">
         <v>18241613499</v>
       </c>
-      <c r="T9" s="11" t="n">
+      <c r="T9" s="2" t="n">
         <v>17643919462</v>
       </c>
-      <c r="U9" s="11" t="n">
+      <c r="U9" s="2" t="n">
         <v>18690643667</v>
       </c>
-      <c r="V9" s="11" t="n">
+      <c r="V9" s="2" t="n">
         <v>18181185718</v>
       </c>
-      <c r="W9" s="11" t="n">
+      <c r="W9" s="2" t="n">
         <v>18425728076</v>
       </c>
-      <c r="X9" s="11" t="n">
+      <c r="X9" s="2" t="n">
         <v>17479311563</v>
       </c>
-      <c r="Y9" s="11" t="n">
+      <c r="Y9" s="2" t="n">
         <v>19571291342</v>
       </c>
-      <c r="Z9" s="11" t="n">
+      <c r="Z9" s="2" t="n">
         <v>4658353200.2078</v>
       </c>
-      <c r="AA9" s="11" t="n">
+      <c r="AA9" s="2" t="n">
         <v>4188292564.0806</v>
       </c>
-      <c r="AB9" s="11" t="n">
+      <c r="AB9" s="2" t="n">
         <v>4882415935.2626</v>
       </c>
-      <c r="AC9" s="11" t="n">
+      <c r="AC9" s="2" t="n">
         <v>4537368163.7471</v>
       </c>
-      <c r="AD9" s="11" t="n">
+      <c r="AD9" s="2" t="n">
         <v>4309222044.7979</v>
       </c>
-      <c r="AE9" s="11" t="n">
+      <c r="AE9" s="2" t="n">
         <v>3159644066.2303</v>
       </c>
-      <c r="AF9" s="11" t="n">
+      <c r="AF9" s="2" t="n">
         <v>2022379043.0552</v>
       </c>
-      <c r="AG9" s="11" t="n">
+      <c r="AG9" s="2" t="n">
         <v>412801072.4892</v>
       </c>
-      <c r="AH9" s="11" t="n">
+      <c r="AH9" s="2" t="n">
         <v>1394330977.603</v>
       </c>
-      <c r="AI9" s="11" t="n">
+      <c r="AI9" s="2" t="n">
         <v>372670232.248</v>
       </c>
-      <c r="AJ9" s="11" t="n">
+      <c r="AJ9" s="2" t="n">
         <v>78892223.9801</v>
       </c>
-      <c r="AK9" s="11" t="n">
+      <c r="AK9" s="2" t="n">
         <v>20548034.1254</v>
       </c>
-      <c r="AL9" s="11" t="n">
+      <c r="AL9" s="2" t="n">
         <v>294710770.6983</v>
       </c>
-      <c r="AM9" s="11" t="n">
+      <c r="AM9" s="2" t="n">
         <v>384292786.2963</v>
       </c>
-      <c r="AN9" s="11" t="n">
+      <c r="AN9" s="2" t="n">
         <v>483845535.8117</v>
       </c>
-      <c r="AO9" s="11" t="n">
+      <c r="AO9" s="2" t="n">
         <v>225120829.7598</v>
       </c>
-      <c r="AP9" s="11" t="n">
+      <c r="AP9" s="2" t="n">
         <v>220554551.2435</v>
       </c>
-      <c r="AQ9" s="11" t="n">
+      <c r="AQ9" s="2" t="n">
         <v>438446249.742</v>
       </c>
-      <c r="AR9" s="11" t="n">
+      <c r="AR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="11" t="n">
+      <c r="AS9" s="2" t="n">
         <v>50903.5586</v>
       </c>
-      <c r="AT9" s="11" t="n">
+      <c r="AT9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="11" t="n">
+      <c r="AU9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="11" t="n">
+      <c r="AV9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="11" t="n">
+      <c r="AW9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="11"/>
+      <c r="AX9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -5461,107 +5704,107 @@
       <c r="O10" t="s">
         <v>543</v>
       </c>
-      <c r="P10" s="11" t="str">
+      <c r="P10" s="2" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="11" t="str">
+      <c r="Q10" s="2" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="11" t="str">
+      <c r="R10" s="2" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="11" t="str">
+      <c r="S10" s="2" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="11" t="str">
+      <c r="T10" s="2" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="11" t="str">
+      <c r="U10" s="2" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="11" t="str">
+      <c r="V10" s="2" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="11" t="str">
+      <c r="W10" s="2" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="11" t="str">
+      <c r="X10" s="2" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="11" t="str">
+      <c r="Y10" s="2" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="11" t="str">
+      <c r="Z10" s="2" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="11" t="str">
+      <c r="AA10" s="2" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="11" t="str">
+      <c r="AB10" s="2" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="11" t="str">
+      <c r="AC10" s="2" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="11" t="str">
+      <c r="AD10" s="2" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="11" t="str">
+      <c r="AE10" s="2" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="11" t="str">
+      <c r="AF10" s="2" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="11" t="str">
+      <c r="AG10" s="2" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="11" t="str">
+      <c r="AH10" s="2" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="11" t="str">
+      <c r="AI10" s="2" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="11" t="str">
+      <c r="AJ10" s="2" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="11" t="str">
+      <c r="AK10" s="2" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="11" t="str">
+      <c r="AL10" s="2" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="11" t="str">
+      <c r="AM10" s="2" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="11" t="str">
+      <c r="AN10" s="2" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="11" t="str">
+      <c r="AO10" s="2" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="11" t="str">
+      <c r="AP10" s="2" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="11" t="str">
+      <c r="AQ10" s="2" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="11" t="str">
+      <c r="AR10" s="2" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="11" t="str">
+      <c r="AS10" s="2" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="11" t="str">
+      <c r="AT10" s="2" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="11" t="str">
+      <c r="AU10" s="2" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="11" t="str">
+      <c r="AV10" s="2" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="11"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -5698,89 +5941,89 @@
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11" t="n">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
         <v>12514491468.9675</v>
       </c>
-      <c r="AA14" s="11" t="n">
+      <c r="AA14" s="2" t="n">
         <v>14773845481.5322</v>
       </c>
-      <c r="AB14" s="11" t="n">
+      <c r="AB14" s="2" t="n">
         <v>15935079232.2282</v>
       </c>
-      <c r="AC14" s="11" t="n">
+      <c r="AC14" s="2" t="n">
         <v>21223851699.0718</v>
       </c>
-      <c r="AD14" s="11" t="n">
+      <c r="AD14" s="2" t="n">
         <v>26355823246.7974</v>
       </c>
-      <c r="AE14" s="11" t="n">
+      <c r="AE14" s="2" t="n">
         <v>28882764171.6176</v>
       </c>
-      <c r="AF14" s="11" t="n">
+      <c r="AF14" s="2" t="n">
         <v>32982769794.0111</v>
       </c>
-      <c r="AG14" s="11" t="n">
+      <c r="AG14" s="2" t="n">
         <v>37712732893.711</v>
       </c>
-      <c r="AH14" s="11" t="n">
+      <c r="AH14" s="2" t="n">
         <v>39030428706.4601</v>
       </c>
-      <c r="AI14" s="11" t="n">
+      <c r="AI14" s="2" t="n">
         <v>38159763663.1629</v>
       </c>
-      <c r="AJ14" s="11" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>40115358312.4323</v>
       </c>
-      <c r="AK14" s="11" t="n">
+      <c r="AK14" s="2" t="n">
         <v>36144077590.9663</v>
       </c>
-      <c r="AL14" s="11" t="n">
+      <c r="AL14" s="2" t="n">
         <v>37018659942.2246</v>
       </c>
-      <c r="AM14" s="11" t="n">
+      <c r="AM14" s="2" t="n">
         <v>30712289860.1704</v>
       </c>
-      <c r="AN14" s="11" t="n">
+      <c r="AN14" s="2" t="n">
         <v>30369120355.357</v>
       </c>
-      <c r="AO14" s="11" t="n">
+      <c r="AO14" s="2" t="n">
         <v>29393277018.1968</v>
       </c>
-      <c r="AP14" s="11" t="n">
+      <c r="AP14" s="2" t="n">
         <v>30681556095.03</v>
       </c>
-      <c r="AQ14" s="11" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>31375093757.338</v>
       </c>
-      <c r="AR14" s="11" t="n">
+      <c r="AR14" s="2" t="n">
         <v>36534604813.5559</v>
       </c>
-      <c r="AS14" s="11" t="n">
+      <c r="AS14" s="2" t="n">
         <v>38295143099.753</v>
       </c>
-      <c r="AT14" s="11" t="n">
+      <c r="AT14" s="2" t="n">
         <v>38133070394.0319</v>
       </c>
-      <c r="AU14" s="11" t="n">
+      <c r="AU14" s="2" t="n">
         <v>33282260036.8683</v>
       </c>
-      <c r="AV14" s="11" t="n">
+      <c r="AV14" s="2" t="n">
         <v>33048419165.1799</v>
       </c>
-      <c r="AW14" s="11" t="n">
+      <c r="AW14" s="2" t="n">
         <v>13950755187.0482</v>
       </c>
-      <c r="AX14" s="11"/>
+      <c r="AX14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -5798,89 +6041,89 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11" t="n">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
         <v>567547181.377509</v>
       </c>
-      <c r="AA15" s="11" t="n">
+      <c r="AA15" s="2" t="n">
         <v>1436744858.60258</v>
       </c>
-      <c r="AB15" s="11" t="n">
+      <c r="AB15" s="2" t="n">
         <v>1003626638.0212</v>
       </c>
-      <c r="AC15" s="11" t="n">
+      <c r="AC15" s="2" t="n">
         <v>1209076488.71782</v>
       </c>
-      <c r="AD15" s="11" t="n">
+      <c r="AD15" s="2" t="n">
         <v>1467678946.35978</v>
       </c>
-      <c r="AE15" s="11" t="n">
+      <c r="AE15" s="2" t="n">
         <v>1556095054.4149</v>
       </c>
-      <c r="AF15" s="11" t="n">
+      <c r="AF15" s="2" t="n">
         <v>773507217.834188</v>
       </c>
-      <c r="AG15" s="11" t="n">
+      <c r="AG15" s="2" t="n">
         <v>526594736.597523</v>
       </c>
-      <c r="AH15" s="11" t="n">
+      <c r="AH15" s="2" t="n">
         <v>792380069.667696</v>
       </c>
-      <c r="AI15" s="11" t="n">
+      <c r="AI15" s="2" t="n">
         <v>709260369.624965</v>
       </c>
-      <c r="AJ15" s="11" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>895440853.719083</v>
       </c>
-      <c r="AK15" s="11" t="n">
+      <c r="AK15" s="2" t="n">
         <v>1455347888.47251</v>
       </c>
-      <c r="AL15" s="11" t="n">
+      <c r="AL15" s="2" t="n">
         <v>456738458.777437</v>
       </c>
-      <c r="AM15" s="11" t="n">
+      <c r="AM15" s="2" t="n">
         <v>206553525.642842</v>
       </c>
-      <c r="AN15" s="11" t="n">
+      <c r="AN15" s="2" t="n">
         <v>125313568.462275</v>
       </c>
-      <c r="AO15" s="11" t="n">
+      <c r="AO15" s="2" t="n">
         <v>158089210.266138</v>
       </c>
-      <c r="AP15" s="11" t="n">
+      <c r="AP15" s="2" t="n">
         <v>223881818.026144</v>
       </c>
-      <c r="AQ15" s="11" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>84225205.0874944</v>
       </c>
-      <c r="AR15" s="11" t="n">
+      <c r="AR15" s="2" t="n">
         <v>129314171.268424</v>
       </c>
-      <c r="AS15" s="11" t="n">
+      <c r="AS15" s="2" t="n">
         <v>96646712.6868914</v>
       </c>
-      <c r="AT15" s="11" t="n">
+      <c r="AT15" s="2" t="n">
         <v>100941578.7385</v>
       </c>
-      <c r="AU15" s="11" t="n">
+      <c r="AU15" s="2" t="n">
         <v>192451923.891646</v>
       </c>
-      <c r="AV15" s="11" t="n">
+      <c r="AV15" s="2" t="n">
         <v>280510565.1576</v>
       </c>
-      <c r="AW15" s="11" t="n">
+      <c r="AW15" s="2" t="n">
         <v>110221915.195403</v>
       </c>
-      <c r="AX15" s="11"/>
+      <c r="AX15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -5898,89 +6141,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
         <v>3025037761.96926</v>
       </c>
-      <c r="AA16" s="11" t="n">
+      <c r="AA16" s="2" t="n">
         <v>2699371470.63925</v>
       </c>
-      <c r="AB16" s="11" t="n">
+      <c r="AB16" s="2" t="n">
         <v>3405986776.30812</v>
       </c>
-      <c r="AC16" s="11" t="n">
+      <c r="AC16" s="2" t="n">
         <v>4947189360.42497</v>
       </c>
-      <c r="AD16" s="11" t="n">
+      <c r="AD16" s="2" t="n">
         <v>6075094428.3048</v>
       </c>
-      <c r="AE16" s="11" t="n">
+      <c r="AE16" s="2" t="n">
         <v>7972978705.66475</v>
       </c>
-      <c r="AF16" s="11" t="n">
+      <c r="AF16" s="2" t="n">
         <v>8940618035.27962</v>
       </c>
-      <c r="AG16" s="11" t="n">
+      <c r="AG16" s="2" t="n">
         <v>10994405790.1026</v>
       </c>
-      <c r="AH16" s="11" t="n">
+      <c r="AH16" s="2" t="n">
         <v>11078131010.207</v>
       </c>
-      <c r="AI16" s="11" t="n">
+      <c r="AI16" s="2" t="n">
         <v>9750890011.46887</v>
       </c>
-      <c r="AJ16" s="11" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>9264897512.82625</v>
       </c>
-      <c r="AK16" s="11" t="n">
+      <c r="AK16" s="2" t="n">
         <v>5537994648.53861</v>
       </c>
-      <c r="AL16" s="11" t="n">
+      <c r="AL16" s="2" t="n">
         <v>2507425233.35849</v>
       </c>
-      <c r="AM16" s="11" t="n">
+      <c r="AM16" s="2" t="n">
         <v>1076119094.89438</v>
       </c>
-      <c r="AN16" s="11" t="n">
+      <c r="AN16" s="2" t="n">
         <v>761566093.338394</v>
       </c>
-      <c r="AO16" s="11" t="n">
+      <c r="AO16" s="2" t="n">
         <v>572836864.370754</v>
       </c>
-      <c r="AP16" s="11" t="n">
+      <c r="AP16" s="2" t="n">
         <v>667316921.950228</v>
       </c>
-      <c r="AQ16" s="11" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>632988480.397044</v>
       </c>
-      <c r="AR16" s="11" t="n">
+      <c r="AR16" s="2" t="n">
         <v>583032725.590335</v>
       </c>
-      <c r="AS16" s="11" t="n">
+      <c r="AS16" s="2" t="n">
         <v>517344578.732819</v>
       </c>
-      <c r="AT16" s="11" t="n">
+      <c r="AT16" s="2" t="n">
         <v>519241165.121669</v>
       </c>
-      <c r="AU16" s="11" t="n">
+      <c r="AU16" s="2" t="n">
         <v>-15611420.7612939</v>
       </c>
-      <c r="AV16" s="11" t="n">
+      <c r="AV16" s="2" t="n">
         <v>534502114.3888</v>
       </c>
-      <c r="AW16" s="11" t="n">
+      <c r="AW16" s="2" t="n">
         <v>333958203.091886</v>
       </c>
-      <c r="AX16" s="11"/>
+      <c r="AX16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -5998,89 +6241,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11" t="n">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>676893024.468438</v>
       </c>
-      <c r="AA17" s="11" t="n">
+      <c r="AA17" s="2" t="n">
         <v>647537655.672858</v>
       </c>
-      <c r="AB17" s="11" t="n">
+      <c r="AB17" s="2" t="n">
         <v>1678430192.92835</v>
       </c>
-      <c r="AC17" s="11" t="n">
+      <c r="AC17" s="2" t="n">
         <v>1581251114.91632</v>
       </c>
-      <c r="AD17" s="11" t="n">
+      <c r="AD17" s="2" t="n">
         <v>1260840689.10455</v>
       </c>
-      <c r="AE17" s="11" t="n">
+      <c r="AE17" s="2" t="n">
         <v>1613667645.53559</v>
       </c>
-      <c r="AF17" s="11" t="n">
+      <c r="AF17" s="2" t="n">
         <v>1555432849.5759</v>
       </c>
-      <c r="AG17" s="11" t="n">
+      <c r="AG17" s="2" t="n">
         <v>1131488134.90371</v>
       </c>
-      <c r="AH17" s="11" t="n">
+      <c r="AH17" s="2" t="n">
         <v>1100888048.17766</v>
       </c>
-      <c r="AI17" s="11" t="n">
+      <c r="AI17" s="2" t="n">
         <v>1157722873.47932</v>
       </c>
-      <c r="AJ17" s="11" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>2662844673.7949</v>
       </c>
-      <c r="AK17" s="11" t="n">
+      <c r="AK17" s="2" t="n">
         <v>2797537660.42599</v>
       </c>
-      <c r="AL17" s="11" t="n">
+      <c r="AL17" s="2" t="n">
         <v>2296594416.75883</v>
       </c>
-      <c r="AM17" s="11" t="n">
+      <c r="AM17" s="2" t="n">
         <v>2603350560.60856</v>
       </c>
-      <c r="AN17" s="11" t="n">
+      <c r="AN17" s="2" t="n">
         <v>3713643857.92027</v>
       </c>
-      <c r="AO17" s="11" t="n">
+      <c r="AO17" s="2" t="n">
         <v>2931496074.08697</v>
       </c>
-      <c r="AP17" s="11" t="n">
+      <c r="AP17" s="2" t="n">
         <v>4263829555.49789</v>
       </c>
-      <c r="AQ17" s="11" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>4338588523.78919</v>
       </c>
-      <c r="AR17" s="11" t="n">
+      <c r="AR17" s="2" t="n">
         <v>3512469739.96491</v>
       </c>
-      <c r="AS17" s="11" t="n">
+      <c r="AS17" s="2" t="n">
         <v>4189237649.3107</v>
       </c>
-      <c r="AT17" s="11" t="n">
+      <c r="AT17" s="2" t="n">
         <v>4468550667.8859</v>
       </c>
-      <c r="AU17" s="11" t="n">
+      <c r="AU17" s="2" t="n">
         <v>3617636430.84628</v>
       </c>
-      <c r="AV17" s="11" t="n">
+      <c r="AV17" s="2" t="n">
         <v>4999872807.408</v>
       </c>
-      <c r="AW17" s="11" t="n">
+      <c r="AW17" s="2" t="n">
         <v>2638799974.97719</v>
       </c>
-      <c r="AX17" s="11"/>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6098,89 +6341,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11" t="n">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
         <v>8290635094.71531</v>
       </c>
-      <c r="AA18" s="11" t="n">
+      <c r="AA18" s="2" t="n">
         <v>8045175218.82085</v>
       </c>
-      <c r="AB18" s="11" t="n">
+      <c r="AB18" s="2" t="n">
         <v>9248718328.704</v>
       </c>
-      <c r="AC18" s="11" t="n">
+      <c r="AC18" s="2" t="n">
         <v>10705566700.61</v>
       </c>
-      <c r="AD18" s="11" t="n">
+      <c r="AD18" s="2" t="n">
         <v>11909883813.0894</v>
       </c>
-      <c r="AE18" s="11" t="n">
+      <c r="AE18" s="2" t="n">
         <v>12840403471.262</v>
       </c>
-      <c r="AF18" s="11" t="n">
+      <c r="AF18" s="2" t="n">
         <v>12937464432.1182</v>
       </c>
-      <c r="AG18" s="11" t="n">
+      <c r="AG18" s="2" t="n">
         <v>14372841801.6714</v>
       </c>
-      <c r="AH18" s="11" t="n">
+      <c r="AH18" s="2" t="n">
         <v>14927364167.7269</v>
       </c>
-      <c r="AI18" s="11" t="n">
+      <c r="AI18" s="2" t="n">
         <v>14390837829.3095</v>
       </c>
-      <c r="AJ18" s="11" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>16516844243.3473</v>
       </c>
-      <c r="AK18" s="11" t="n">
+      <c r="AK18" s="2" t="n">
         <v>18467297412.1422</v>
       </c>
-      <c r="AL18" s="11" t="n">
+      <c r="AL18" s="2" t="n">
         <v>17611147064.9327</v>
       </c>
-      <c r="AM18" s="11" t="n">
+      <c r="AM18" s="2" t="n">
         <v>14607346933.4983</v>
       </c>
-      <c r="AN18" s="11" t="n">
+      <c r="AN18" s="2" t="n">
         <v>13269695923.6464</v>
       </c>
-      <c r="AO18" s="11" t="n">
+      <c r="AO18" s="2" t="n">
         <v>13393421613.1278</v>
       </c>
-      <c r="AP18" s="11" t="n">
+      <c r="AP18" s="2" t="n">
         <v>14214699461.981</v>
       </c>
-      <c r="AQ18" s="11" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>14699525271.1156</v>
       </c>
-      <c r="AR18" s="11" t="n">
+      <c r="AR18" s="2" t="n">
         <v>16112954326.5601</v>
       </c>
-      <c r="AS18" s="11" t="n">
+      <c r="AS18" s="2" t="n">
         <v>17015767592.4262</v>
       </c>
-      <c r="AT18" s="11" t="n">
+      <c r="AT18" s="2" t="n">
         <v>16828219920.271</v>
       </c>
-      <c r="AU18" s="11" t="n">
+      <c r="AU18" s="2" t="n">
         <v>14983291300.9684</v>
       </c>
-      <c r="AV18" s="11" t="n">
+      <c r="AV18" s="2" t="n">
         <v>13638663594.8197</v>
       </c>
-      <c r="AW18" s="11" t="n">
+      <c r="AW18" s="2" t="n">
         <v>6137090096.1938</v>
       </c>
-      <c r="AX18" s="11"/>
+      <c r="AX18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6198,89 +6441,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11" t="n">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
         <v>925226186.4536</v>
       </c>
-      <c r="AA19" s="11" t="n">
+      <c r="AA19" s="2" t="n">
         <v>1104669460.22777</v>
       </c>
-      <c r="AB19" s="11" t="n">
+      <c r="AB19" s="2" t="n">
         <v>1184377591.64278</v>
       </c>
-      <c r="AC19" s="11" t="n">
+      <c r="AC19" s="2" t="n">
         <v>1249443908.72384</v>
       </c>
-      <c r="AD19" s="11" t="n">
+      <c r="AD19" s="2" t="n">
         <v>2061714769.14507</v>
       </c>
-      <c r="AE19" s="11" t="n">
+      <c r="AE19" s="2" t="n">
         <v>3029040598.76154</v>
       </c>
-      <c r="AF19" s="11" t="n">
+      <c r="AF19" s="2" t="n">
         <v>2217770597.01299</v>
       </c>
-      <c r="AG19" s="11" t="n">
+      <c r="AG19" s="2" t="n">
         <v>2356242913.07615</v>
       </c>
-      <c r="AH19" s="11" t="n">
+      <c r="AH19" s="2" t="n">
         <v>1553797871.23047</v>
       </c>
-      <c r="AI19" s="11" t="n">
+      <c r="AI19" s="2" t="n">
         <v>2122550282.50422</v>
       </c>
-      <c r="AJ19" s="11" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>3508630783.30238</v>
       </c>
-      <c r="AK19" s="11" t="n">
+      <c r="AK19" s="2" t="n">
         <v>2640954168.25818</v>
       </c>
-      <c r="AL19" s="11" t="n">
+      <c r="AL19" s="2" t="n">
         <v>2221789441.35155</v>
       </c>
-      <c r="AM19" s="11" t="n">
+      <c r="AM19" s="2" t="n">
         <v>1152294146.64536</v>
       </c>
-      <c r="AN19" s="11" t="n">
+      <c r="AN19" s="2" t="n">
         <v>746759783.036562</v>
       </c>
-      <c r="AO19" s="11" t="n">
+      <c r="AO19" s="2" t="n">
         <v>796740622.592979</v>
       </c>
-      <c r="AP19" s="11" t="n">
+      <c r="AP19" s="2" t="n">
         <v>1200572837.64093</v>
       </c>
-      <c r="AQ19" s="11" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>1777495586.58826</v>
       </c>
-      <c r="AR19" s="11" t="n">
+      <c r="AR19" s="2" t="n">
         <v>1346466346.43095</v>
       </c>
-      <c r="AS19" s="11" t="n">
+      <c r="AS19" s="2" t="n">
         <v>1400715962.28168</v>
       </c>
-      <c r="AT19" s="11" t="n">
+      <c r="AT19" s="2" t="n">
         <v>1131886057.95028</v>
       </c>
-      <c r="AU19" s="11" t="n">
+      <c r="AU19" s="2" t="n">
         <v>981431226.172102</v>
       </c>
-      <c r="AV19" s="11" t="n">
+      <c r="AV19" s="2" t="n">
         <v>1085388156.924</v>
       </c>
-      <c r="AW19" s="11" t="n">
+      <c r="AW19" s="2" t="n">
         <v>573555326.839145</v>
       </c>
-      <c r="AX19" s="11"/>
+      <c r="AX19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -6298,75 +6541,75 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11" t="n">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="n">
         <v>1019228.11469816</v>
       </c>
-      <c r="AA20" s="11" t="n">
+      <c r="AA20" s="2" t="n">
         <v>260764.85859476</v>
       </c>
-      <c r="AB20" s="11" t="n">
+      <c r="AB20" s="2" t="n">
         <v>33188288.549756</v>
       </c>
-      <c r="AC20" s="11" t="n">
+      <c r="AC20" s="2" t="n">
         <v>145455475.415221</v>
       </c>
-      <c r="AD20" s="11" t="n">
+      <c r="AD20" s="2" t="n">
         <v>287228111.541315</v>
       </c>
-      <c r="AE20" s="11" t="n">
+      <c r="AE20" s="2" t="n">
         <v>513839077.415107</v>
       </c>
-      <c r="AF20" s="11" t="n">
+      <c r="AF20" s="2" t="n">
         <v>964073374.549508</v>
       </c>
-      <c r="AG20" s="11" t="n">
+      <c r="AG20" s="2" t="n">
         <v>3724609518.64494</v>
       </c>
-      <c r="AH20" s="11" t="n">
+      <c r="AH20" s="2" t="n">
         <v>5576867936.98537</v>
       </c>
-      <c r="AI20" s="11" t="n">
+      <c r="AI20" s="2" t="n">
         <v>6251694185.80279</v>
       </c>
-      <c r="AJ20" s="11" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>351739179.461811</v>
       </c>
-      <c r="AK20" s="11" t="n">
+      <c r="AK20" s="2" t="n">
         <v>150483894.746265</v>
       </c>
-      <c r="AL20" s="11" t="n">
+      <c r="AL20" s="2" t="n">
         <v>3253587.61145794</v>
       </c>
-      <c r="AM20" s="11" t="n">
+      <c r="AM20" s="2" t="n">
         <v>9522924.76254834</v>
       </c>
-      <c r="AN20" s="11" t="n">
+      <c r="AN20" s="2" t="n">
         <v>-9001685.33890305</v>
       </c>
-      <c r="AO20" s="11" t="n">
+      <c r="AO20" s="2" t="n">
         <v>176716.296840359</v>
       </c>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11" t="n">
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2" t="n">
         <v>467462</v>
       </c>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -6382,109 +6625,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="11" t="n">
+      <c r="P21" s="2" t="n">
         <v>39159221227.3348</v>
       </c>
-      <c r="Q21" s="11" t="n">
+      <c r="Q21" s="2" t="n">
         <v>37075841095.001</v>
       </c>
-      <c r="R21" s="11" t="n">
+      <c r="R21" s="2" t="n">
         <v>36294366444.8787</v>
       </c>
-      <c r="S21" s="11" t="n">
+      <c r="S21" s="2" t="n">
         <v>33369645404.352</v>
       </c>
-      <c r="T21" s="11" t="n">
+      <c r="T21" s="2" t="n">
         <v>31587983747.9476</v>
       </c>
-      <c r="U21" s="11" t="n">
+      <c r="U21" s="2" t="n">
         <v>32767823423.5663</v>
       </c>
-      <c r="V21" s="11" t="n">
+      <c r="V21" s="2" t="n">
         <v>31286645512.572</v>
       </c>
-      <c r="W21" s="11" t="n">
+      <c r="W21" s="2" t="n">
         <v>31154027060.9063</v>
       </c>
-      <c r="X21" s="11" t="n">
+      <c r="X21" s="2" t="n">
         <v>29189360890.8719</v>
       </c>
-      <c r="Y21" s="11" t="n">
+      <c r="Y21" s="2" t="n">
         <v>32280454746.2768</v>
       </c>
-      <c r="Z21" s="11" t="n">
+      <c r="Z21" s="2" t="n">
         <v>7526641248.01413</v>
       </c>
-      <c r="AA21" s="11" t="n">
+      <c r="AA21" s="2" t="n">
         <v>6606935774.63454</v>
       </c>
-      <c r="AB21" s="11" t="n">
+      <c r="AB21" s="2" t="n">
         <v>7582225166.1767</v>
       </c>
-      <c r="AC21" s="11" t="n">
+      <c r="AC21" s="2" t="n">
         <v>6914215550.98462</v>
       </c>
-      <c r="AD21" s="11" t="n">
+      <c r="AD21" s="2" t="n">
         <v>6409878714.35362</v>
       </c>
-      <c r="AE21" s="11" t="n">
+      <c r="AE21" s="2" t="n">
         <v>4561435025.9102</v>
       </c>
-      <c r="AF21" s="11" t="n">
+      <c r="AF21" s="2" t="n">
         <v>2827558485.19115</v>
       </c>
-      <c r="AG21" s="11" t="n">
+      <c r="AG21" s="2" t="n">
         <v>561746693.910476</v>
       </c>
-      <c r="AH21" s="11" t="n">
+      <c r="AH21" s="2" t="n">
         <v>1858665184.04787</v>
       </c>
-      <c r="AI21" s="11" t="n">
+      <c r="AI21" s="2" t="n">
         <v>491777872.533406</v>
       </c>
-      <c r="AJ21" s="11" t="n">
+      <c r="AJ21" s="2" t="n">
         <v>103208993.994511</v>
       </c>
-      <c r="AK21" s="11" t="n">
+      <c r="AK21" s="2" t="n">
         <v>26350447.4157607</v>
       </c>
-      <c r="AL21" s="11" t="n">
+      <c r="AL21" s="2" t="n">
         <v>371129273.469558</v>
       </c>
-      <c r="AM21" s="11" t="n">
+      <c r="AM21" s="2" t="n">
         <v>475242959.410575</v>
       </c>
-      <c r="AN21" s="11" t="n">
+      <c r="AN21" s="2" t="n">
         <v>587000658.356338</v>
       </c>
-      <c r="AO21" s="11" t="n">
+      <c r="AO21" s="2" t="n">
         <v>270020631.553428</v>
       </c>
-      <c r="AP21" s="11" t="n">
+      <c r="AP21" s="2" t="n">
         <v>262369494.174687</v>
       </c>
-      <c r="AQ21" s="11" t="n">
+      <c r="AQ21" s="2" t="n">
         <v>512422610.278865</v>
       </c>
-      <c r="AR21" s="11" t="n">
+      <c r="AR21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="11" t="n">
+      <c r="AS21" s="2" t="n">
         <v>57010.718032891</v>
       </c>
-      <c r="AT21" s="11" t="n">
+      <c r="AT21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="11" t="n">
+      <c r="AU21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="11" t="n">
+      <c r="AV21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="11" t="n">
+      <c r="AW21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="11"/>
+      <c r="AX21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -6493,41 +6736,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
@@ -15,12 +15,13 @@
     <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="AllProj" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="AllPSC" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="vend" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="549">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -1665,6 +1666,21 @@
   <si>
     <t xml:space="preserve"/>
   </si>
+  <si>
+    <t xml:space="preserve">Shiny.VendorSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small</t>
+  </si>
 </sst>
 </file>
 
@@ -1673,7 +1689,7 @@
   <numFmts count="11">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
@@ -1681,7 +1697,7 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1721,7 +1737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1730,7 +1746,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3182,6 +3198,1492 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>K1</f>
+      </c>
+      <c r="K1" t="s">
+        <v>544</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>K2</f>
+      </c>
+      <c r="K2" t="s">
+        <v>545</v>
+      </c>
+      <c r="L2" s="12" t="n">
+        <v>2991230000</v>
+      </c>
+      <c r="M2" s="12" t="n">
+        <v>1866728995</v>
+      </c>
+      <c r="N2" s="12" t="n">
+        <v>2238357061</v>
+      </c>
+      <c r="O2" s="12" t="n">
+        <v>2935345722</v>
+      </c>
+      <c r="P2" s="12" t="n">
+        <v>2854844106</v>
+      </c>
+      <c r="Q2" s="12" t="n">
+        <v>3420852712</v>
+      </c>
+      <c r="R2" s="12" t="n">
+        <v>3472714428</v>
+      </c>
+      <c r="S2" s="12" t="n">
+        <v>4999730461</v>
+      </c>
+      <c r="T2" s="12" t="n">
+        <v>4819818383</v>
+      </c>
+      <c r="U2" s="12" t="n">
+        <v>6034381572</v>
+      </c>
+      <c r="V2" s="12" t="n">
+        <v>6682431662.1941</v>
+      </c>
+      <c r="W2" s="12" t="n">
+        <v>7081760358.5977</v>
+      </c>
+      <c r="X2" s="12" t="n">
+        <v>8507968428.2789</v>
+      </c>
+      <c r="Y2" s="12" t="n">
+        <v>9573195533.7237</v>
+      </c>
+      <c r="Z2" s="12" t="n">
+        <v>10956430924.4908</v>
+      </c>
+      <c r="AA2" s="12" t="n">
+        <v>12139140465.4225</v>
+      </c>
+      <c r="AB2" s="12" t="n">
+        <v>12033519835.6852</v>
+      </c>
+      <c r="AC2" s="12" t="n">
+        <v>14941932436.4759</v>
+      </c>
+      <c r="AD2" s="12" t="n">
+        <v>15203216117.2469</v>
+      </c>
+      <c r="AE2" s="12" t="n">
+        <v>14084609803.7756</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>15235247708.9364</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>14065427722.434</v>
+      </c>
+      <c r="AH2" s="12" t="n">
+        <v>13142928286.5879</v>
+      </c>
+      <c r="AI2" s="12" t="n">
+        <v>10791511319.1229</v>
+      </c>
+      <c r="AJ2" s="12" t="n">
+        <v>10458155746.1654</v>
+      </c>
+      <c r="AK2" s="12" t="n">
+        <v>9957749177.0247</v>
+      </c>
+      <c r="AL2" s="12" t="n">
+        <v>10355559302.0524</v>
+      </c>
+      <c r="AM2" s="12" t="n">
+        <v>11217747143.6144</v>
+      </c>
+      <c r="AN2" s="12" t="n">
+        <v>11251965639.3453</v>
+      </c>
+      <c r="AO2" s="12" t="n">
+        <v>12506858710.1818</v>
+      </c>
+      <c r="AP2" s="12" t="n">
+        <v>10804406161.9669</v>
+      </c>
+      <c r="AQ2" s="12" t="n">
+        <v>9533605096.6767</v>
+      </c>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>K3</f>
+      </c>
+      <c r="K3" t="s">
+        <v>546</v>
+      </c>
+      <c r="L3" s="12" t="n">
+        <v>7615059781</v>
+      </c>
+      <c r="M3" s="12" t="n">
+        <v>8164529255</v>
+      </c>
+      <c r="N3" s="12" t="n">
+        <v>8453705987</v>
+      </c>
+      <c r="O3" s="12" t="n">
+        <v>6962506320</v>
+      </c>
+      <c r="P3" s="12" t="n">
+        <v>6468122587</v>
+      </c>
+      <c r="Q3" s="12" t="n">
+        <v>6425246161</v>
+      </c>
+      <c r="R3" s="12" t="n">
+        <v>6254809833</v>
+      </c>
+      <c r="S3" s="12" t="n">
+        <v>6228661273</v>
+      </c>
+      <c r="T3" s="12" t="n">
+        <v>5673097069</v>
+      </c>
+      <c r="U3" s="12" t="n">
+        <v>5596724206</v>
+      </c>
+      <c r="V3" s="12" t="n">
+        <v>6478146238.5843</v>
+      </c>
+      <c r="W3" s="12" t="n">
+        <v>7159205123.6671</v>
+      </c>
+      <c r="X3" s="12" t="n">
+        <v>8077028392.2327</v>
+      </c>
+      <c r="Y3" s="12" t="n">
+        <v>10879559612.4204</v>
+      </c>
+      <c r="Z3" s="12" t="n">
+        <v>13755997175.8927</v>
+      </c>
+      <c r="AA3" s="12" t="n">
+        <v>15947354592.6793</v>
+      </c>
+      <c r="AB3" s="12" t="n">
+        <v>17243723650.2657</v>
+      </c>
+      <c r="AC3" s="12" t="n">
+        <v>19272738606.1368</v>
+      </c>
+      <c r="AD3" s="12" t="n">
+        <v>21653624428.0572</v>
+      </c>
+      <c r="AE3" s="12" t="n">
+        <v>20536671353.4467</v>
+      </c>
+      <c r="AF3" s="12" t="n">
+        <v>19798328145.8811</v>
+      </c>
+      <c r="AG3" s="12" t="n">
+        <v>18559884228.3146</v>
+      </c>
+      <c r="AH3" s="12" t="n">
+        <v>16666577586.553</v>
+      </c>
+      <c r="AI3" s="12" t="n">
+        <v>13660209245.9601</v>
+      </c>
+      <c r="AJ3" s="12" t="n">
+        <v>12565811616.4415</v>
+      </c>
+      <c r="AK3" s="12" t="n">
+        <v>11546179735.5361</v>
+      </c>
+      <c r="AL3" s="12" t="n">
+        <v>13121580806.9065</v>
+      </c>
+      <c r="AM3" s="12" t="n">
+        <v>14068617809.0185</v>
+      </c>
+      <c r="AN3" s="12" t="n">
+        <v>16297849754.1615</v>
+      </c>
+      <c r="AO3" s="12" t="n">
+        <v>16853150808.0905</v>
+      </c>
+      <c r="AP3" s="12" t="n">
+        <v>17786317785.7385</v>
+      </c>
+      <c r="AQ3" s="12" t="n">
+        <v>14080988639.3575</v>
+      </c>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>K4</f>
+      </c>
+      <c r="K4" t="s">
+        <v>547</v>
+      </c>
+      <c r="L4" s="12" t="n">
+        <v>5241483000</v>
+      </c>
+      <c r="M4" s="12" t="n">
+        <v>6203885402</v>
+      </c>
+      <c r="N4" s="12" t="n">
+        <v>5570774481</v>
+      </c>
+      <c r="O4" s="12" t="n">
+        <v>5129556329</v>
+      </c>
+      <c r="P4" s="12" t="n">
+        <v>4888091025</v>
+      </c>
+      <c r="Q4" s="12" t="n">
+        <v>4752793012</v>
+      </c>
+      <c r="R4" s="12" t="n">
+        <v>4429609111</v>
+      </c>
+      <c r="S4" s="12" t="n">
+        <v>3708992945</v>
+      </c>
+      <c r="T4" s="12" t="n">
+        <v>3563022679</v>
+      </c>
+      <c r="U4" s="12" t="n">
+        <v>4605026491</v>
+      </c>
+      <c r="V4" s="12" t="n">
+        <v>3978944998.2136</v>
+      </c>
+      <c r="W4" s="12" t="n">
+        <v>4486767311.7145</v>
+      </c>
+      <c r="X4" s="12" t="n">
+        <v>4964420559.096</v>
+      </c>
+      <c r="Y4" s="12" t="n">
+        <v>5478108104.2694</v>
+      </c>
+      <c r="Z4" s="12" t="n">
+        <v>6397200595.2043</v>
+      </c>
+      <c r="AA4" s="12" t="n">
+        <v>7129488415.3562</v>
+      </c>
+      <c r="AB4" s="12" t="n">
+        <v>7908655444.0817</v>
+      </c>
+      <c r="AC4" s="12" t="n">
+        <v>9077135853.9106</v>
+      </c>
+      <c r="AD4" s="12" t="n">
+        <v>10205405827.474</v>
+      </c>
+      <c r="AE4" s="12" t="n">
+        <v>10844541705.7431</v>
+      </c>
+      <c r="AF4" s="12" t="n">
+        <v>10977985775.4851</v>
+      </c>
+      <c r="AG4" s="12" t="n">
+        <v>9799381759.8001</v>
+      </c>
+      <c r="AH4" s="12" t="n">
+        <v>9826696229.7005</v>
+      </c>
+      <c r="AI4" s="12" t="n">
+        <v>8090717492.0668</v>
+      </c>
+      <c r="AJ4" s="12" t="n">
+        <v>8057469208.7341</v>
+      </c>
+      <c r="AK4" s="12" t="n">
+        <v>7981850323.014</v>
+      </c>
+      <c r="AL4" s="12" t="n">
+        <v>8709609402.1173</v>
+      </c>
+      <c r="AM4" s="12" t="n">
+        <v>8943055092.3056</v>
+      </c>
+      <c r="AN4" s="12" t="n">
+        <v>11356012250.4584</v>
+      </c>
+      <c r="AO4" s="12" t="n">
+        <v>12079985688.9346</v>
+      </c>
+      <c r="AP4" s="12" t="n">
+        <v>12436070120.098</v>
+      </c>
+      <c r="AQ4" s="12" t="n">
+        <v>12355672182.4764</v>
+      </c>
+      <c r="AR4" s="12" t="n">
+        <v>38494033694.1737</v>
+      </c>
+      <c r="AS4" s="12" t="n">
+        <v>19072546360.8401</v>
+      </c>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>K5</f>
+      </c>
+      <c r="K5" t="s">
+        <v>548</v>
+      </c>
+      <c r="L5" s="12" t="n">
+        <v>2079626513</v>
+      </c>
+      <c r="M5" s="12" t="n">
+        <v>2461068683</v>
+      </c>
+      <c r="N5" s="12" t="n">
+        <v>2556014813</v>
+      </c>
+      <c r="O5" s="12" t="n">
+        <v>2655462116</v>
+      </c>
+      <c r="P5" s="12" t="n">
+        <v>2822407498</v>
+      </c>
+      <c r="Q5" s="12" t="n">
+        <v>3222215366</v>
+      </c>
+      <c r="R5" s="12" t="n">
+        <v>3101955830</v>
+      </c>
+      <c r="S5" s="12" t="n">
+        <v>2739625620</v>
+      </c>
+      <c r="T5" s="12" t="n">
+        <v>2484196797</v>
+      </c>
+      <c r="U5" s="12" t="n">
+        <v>3324921213</v>
+      </c>
+      <c r="V5" s="12" t="n">
+        <v>3610376509.8149</v>
+      </c>
+      <c r="W5" s="12" t="n">
+        <v>3538458971.9115</v>
+      </c>
+      <c r="X5" s="12" t="n">
+        <v>4250248447.6438</v>
+      </c>
+      <c r="Y5" s="12" t="n">
+        <v>5291063863.7842</v>
+      </c>
+      <c r="Z5" s="12" t="n">
+        <v>6062492553.5167</v>
+      </c>
+      <c r="AA5" s="12" t="n">
+        <v>6960183526.5496</v>
+      </c>
+      <c r="AB5" s="12" t="n">
+        <v>7906727651.4435</v>
+      </c>
+      <c r="AC5" s="12" t="n">
+        <v>9104816947.8869</v>
+      </c>
+      <c r="AD5" s="12" t="n">
+        <v>9866294508.0747</v>
+      </c>
+      <c r="AE5" s="12" t="n">
+        <v>9648130192.394</v>
+      </c>
+      <c r="AF5" s="12" t="n">
+        <v>9913829846.3568</v>
+      </c>
+      <c r="AG5" s="12" t="n">
+        <v>9725526908.1361</v>
+      </c>
+      <c r="AH5" s="12" t="n">
+        <v>9853576032.407</v>
+      </c>
+      <c r="AI5" s="12" t="n">
+        <v>8488731839.7971</v>
+      </c>
+      <c r="AJ5" s="12" t="n">
+        <v>9754617236.7375</v>
+      </c>
+      <c r="AK5" s="12" t="n">
+        <v>10047514819.549</v>
+      </c>
+      <c r="AL5" s="12" t="n">
+        <v>11039011775.4139</v>
+      </c>
+      <c r="AM5" s="12" t="n">
+        <v>11445018953.4458</v>
+      </c>
+      <c r="AN5" s="12" t="n">
+        <v>12060989736.8789</v>
+      </c>
+      <c r="AO5" s="12" t="n">
+        <v>13460814522.7468</v>
+      </c>
+      <c r="AP5" s="12" t="n">
+        <v>14276776578.0542</v>
+      </c>
+      <c r="AQ5" s="12" t="n">
+        <v>13613027497.8496</v>
+      </c>
+      <c r="AR5" s="12" t="n">
+        <v>15093790171.7043</v>
+      </c>
+      <c r="AS5" s="12" t="n">
+        <v>5822002859.7227</v>
+      </c>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>K6</f>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="12" t="n">
+        <v>1775040600</v>
+      </c>
+      <c r="M6" s="12" t="n">
+        <v>623383398</v>
+      </c>
+      <c r="N6" s="12" t="n">
+        <v>566195616</v>
+      </c>
+      <c r="O6" s="12" t="n">
+        <v>558743012</v>
+      </c>
+      <c r="P6" s="12" t="n">
+        <v>610454246</v>
+      </c>
+      <c r="Q6" s="12" t="n">
+        <v>869536416</v>
+      </c>
+      <c r="R6" s="12" t="n">
+        <v>922096516</v>
+      </c>
+      <c r="S6" s="12" t="n">
+        <v>748717777</v>
+      </c>
+      <c r="T6" s="12" t="n">
+        <v>939176635</v>
+      </c>
+      <c r="U6" s="12" t="n">
+        <v>10237860</v>
+      </c>
+      <c r="V6" s="12" t="n">
+        <v>776856</v>
+      </c>
+      <c r="W6" s="12" t="n">
+        <v>120529280</v>
+      </c>
+      <c r="X6" s="12" t="n">
+        <v>3626925</v>
+      </c>
+      <c r="Y6" s="12" t="n">
+        <v>261760607.6001</v>
+      </c>
+      <c r="Z6" s="12" t="n">
+        <v>359924838.5707</v>
+      </c>
+      <c r="AA6" s="12" t="n">
+        <v>57078589.5902</v>
+      </c>
+      <c r="AB6" s="12" t="n">
+        <v>109878598.064</v>
+      </c>
+      <c r="AC6" s="12" t="n">
+        <v>57648423.2075</v>
+      </c>
+      <c r="AD6" s="12" t="n">
+        <v>23915803.4465</v>
+      </c>
+      <c r="AE6" s="12" t="n">
+        <v>231731474.2134</v>
+      </c>
+      <c r="AF6" s="12" t="n">
+        <v>195545001.035</v>
+      </c>
+      <c r="AG6" s="12" t="n">
+        <v>267855260.2721</v>
+      </c>
+      <c r="AH6" s="12" t="n">
+        <v>130437405.4545</v>
+      </c>
+      <c r="AI6" s="12" t="n">
+        <v>81465539.2102</v>
+      </c>
+      <c r="AJ6" s="12" t="n">
+        <v>18019319.2173</v>
+      </c>
+      <c r="AK6" s="12" t="n">
+        <v>81658740.4724</v>
+      </c>
+      <c r="AL6" s="12" t="n">
+        <v>78423426.2721</v>
+      </c>
+      <c r="AM6" s="12" t="n">
+        <v>33824093.8633</v>
+      </c>
+      <c r="AN6" s="12" t="n">
+        <v>16855374.0774</v>
+      </c>
+      <c r="AO6" s="12" t="n">
+        <v>24440585.2982</v>
+      </c>
+      <c r="AP6" s="12" t="n">
+        <v>53110025.8218</v>
+      </c>
+      <c r="AQ6" s="12" t="n">
+        <v>21190681.0549</v>
+      </c>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>K7</f>
+      </c>
+      <c r="K7" t="s">
+        <v>542</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f>Sum(L2:L6)</f>
+      </c>
+      <c r="M7" s="12" t="str">
+        <f>Sum(M2:M6)</f>
+      </c>
+      <c r="N7" s="12" t="str">
+        <f>Sum(N2:N6)</f>
+      </c>
+      <c r="O7" s="12" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="12" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="12" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="12" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="12" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="12" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="12" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="12" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="12" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="12" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="12" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="12" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="12" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="12" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="12" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="12" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="12" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="12" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="12" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="12" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="12" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="12" t="str">
+        <f>Sum(AJ2:AJ6)</f>
+      </c>
+      <c r="AK7" s="12" t="str">
+        <f>Sum(AK2:AK6)</f>
+      </c>
+      <c r="AL7" s="12" t="str">
+        <f>Sum(AL2:AL6)</f>
+      </c>
+      <c r="AM7" s="12" t="str">
+        <f>Sum(AM2:AM6)</f>
+      </c>
+      <c r="AN7" s="12" t="str">
+        <f>Sum(AN2:AN6)</f>
+      </c>
+      <c r="AO7" s="12" t="str">
+        <f>Sum(AO2:AO6)</f>
+      </c>
+      <c r="AP7" s="12" t="str">
+        <f>Sum(AP2:AP6)</f>
+      </c>
+      <c r="AQ7" s="12" t="str">
+        <f>Sum(AQ2:AQ6)</f>
+      </c>
+      <c r="AR7" s="12" t="str">
+        <f>Sum(AR2:AR6)</f>
+      </c>
+      <c r="AS7" s="12" t="str">
+        <f>Sum(AS2:AS6)</f>
+      </c>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>K10</f>
+      </c>
+      <c r="K10" t="s">
+        <v>544</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>K11</f>
+      </c>
+      <c r="K11" t="s">
+        <v>545</v>
+      </c>
+      <c r="L11" s="12" t="n">
+        <v>5945164047.80464</v>
+      </c>
+      <c r="M11" s="12" t="n">
+        <v>3582401440.61771</v>
+      </c>
+      <c r="N11" s="12" t="n">
+        <v>4190846036.72022</v>
+      </c>
+      <c r="O11" s="12" t="n">
+        <v>5369670061.6802</v>
+      </c>
+      <c r="P11" s="12" t="n">
+        <v>5111039495.36107</v>
+      </c>
+      <c r="Q11" s="12" t="n">
+        <v>5997326770.65347</v>
+      </c>
+      <c r="R11" s="12" t="n">
+        <v>5975935066.08665</v>
+      </c>
+      <c r="S11" s="12" t="n">
+        <v>8453491630.6572</v>
+      </c>
+      <c r="T11" s="12" t="n">
+        <v>8048796298.57112</v>
+      </c>
+      <c r="U11" s="12" t="n">
+        <v>9952975399.15967</v>
+      </c>
+      <c r="V11" s="12" t="n">
+        <v>10797005642.136</v>
+      </c>
+      <c r="W11" s="12" t="n">
+        <v>11171315075.2349</v>
+      </c>
+      <c r="X11" s="12" t="n">
+        <v>13212584340.4744</v>
+      </c>
+      <c r="Y11" s="12" t="n">
+        <v>14588002349.1914</v>
+      </c>
+      <c r="Z11" s="12" t="n">
+        <v>16297464516.3529</v>
+      </c>
+      <c r="AA11" s="12" t="n">
+        <v>17524727261.2845</v>
+      </c>
+      <c r="AB11" s="12" t="n">
+        <v>16824482648.2703</v>
+      </c>
+      <c r="AC11" s="12" t="n">
+        <v>20333234834.4217</v>
+      </c>
+      <c r="AD11" s="12" t="n">
+        <v>20266126864.1253</v>
+      </c>
+      <c r="AE11" s="12" t="n">
+        <v>18586135530.5528</v>
+      </c>
+      <c r="AF11" s="12" t="n">
+        <v>19931173314.2818</v>
+      </c>
+      <c r="AG11" s="12" t="n">
+        <v>18037263872.4613</v>
+      </c>
+      <c r="AH11" s="12" t="n">
+        <v>16550889588.1422</v>
+      </c>
+      <c r="AI11" s="12" t="n">
+        <v>13345527053.059</v>
+      </c>
+      <c r="AJ11" s="12" t="n">
+        <v>12687818433.4046</v>
+      </c>
+      <c r="AK11" s="12" t="n">
+        <v>11943798023.9311</v>
+      </c>
+      <c r="AL11" s="12" t="n">
+        <v>12318870051.2275</v>
+      </c>
+      <c r="AM11" s="12" t="n">
+        <v>13110449174.0131</v>
+      </c>
+      <c r="AN11" s="12" t="n">
+        <v>12848748937.4017</v>
+      </c>
+      <c r="AO11" s="12" t="n">
+        <v>14007370309.9292</v>
+      </c>
+      <c r="AP11" s="12" t="n">
+        <v>11941362723.53</v>
+      </c>
+      <c r="AQ11" s="12" t="n">
+        <v>10194165664.7834</v>
+      </c>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>K12</f>
+      </c>
+      <c r="K12" t="s">
+        <v>546</v>
+      </c>
+      <c r="L12" s="12" t="n">
+        <v>15135171695.8857</v>
+      </c>
+      <c r="M12" s="12" t="n">
+        <v>15668381132.6761</v>
+      </c>
+      <c r="N12" s="12" t="n">
+        <v>15827760837.8483</v>
+      </c>
+      <c r="O12" s="12" t="n">
+        <v>12736612747.37</v>
+      </c>
+      <c r="P12" s="12" t="n">
+        <v>11579907264.8186</v>
+      </c>
+      <c r="Q12" s="12" t="n">
+        <v>11264530821.286</v>
+      </c>
+      <c r="R12" s="12" t="n">
+        <v>10763435401.2389</v>
+      </c>
+      <c r="S12" s="12" t="n">
+        <v>10531354910.4751</v>
+      </c>
+      <c r="T12" s="12" t="n">
+        <v>9473718522.55992</v>
+      </c>
+      <c r="U12" s="12" t="n">
+        <v>9231113026.83785</v>
+      </c>
+      <c r="V12" s="12" t="n">
+        <v>10466935544.4798</v>
+      </c>
+      <c r="W12" s="12" t="n">
+        <v>11293482421.7291</v>
+      </c>
+      <c r="X12" s="12" t="n">
+        <v>12543349185.226</v>
+      </c>
+      <c r="Y12" s="12" t="n">
+        <v>16578690012.6569</v>
+      </c>
+      <c r="Z12" s="12" t="n">
+        <v>20461761444.5993</v>
+      </c>
+      <c r="AA12" s="12" t="n">
+        <v>23022473508.0509</v>
+      </c>
+      <c r="AB12" s="12" t="n">
+        <v>24109049829.7204</v>
+      </c>
+      <c r="AC12" s="12" t="n">
+        <v>26226669250.9172</v>
+      </c>
+      <c r="AD12" s="12" t="n">
+        <v>28864622876.0311</v>
+      </c>
+      <c r="AE12" s="12" t="n">
+        <v>27100314629.8921</v>
+      </c>
+      <c r="AF12" s="12" t="n">
+        <v>25900721612.6273</v>
+      </c>
+      <c r="AG12" s="12" t="n">
+        <v>23800878002.0599</v>
+      </c>
+      <c r="AH12" s="12" t="n">
+        <v>20988221150.7416</v>
+      </c>
+      <c r="AI12" s="12" t="n">
+        <v>16893156727.6736</v>
+      </c>
+      <c r="AJ12" s="12" t="n">
+        <v>15244823286.958</v>
+      </c>
+      <c r="AK12" s="12" t="n">
+        <v>13849037192.8061</v>
+      </c>
+      <c r="AL12" s="12" t="n">
+        <v>15609301642.9277</v>
+      </c>
+      <c r="AM12" s="12" t="n">
+        <v>16442329852.1885</v>
+      </c>
+      <c r="AN12" s="12" t="n">
+        <v>18610702025.1175</v>
+      </c>
+      <c r="AO12" s="12" t="n">
+        <v>18875109228.3327</v>
+      </c>
+      <c r="AP12" s="12" t="n">
+        <v>19657986659.4733</v>
+      </c>
+      <c r="AQ12" s="12" t="n">
+        <v>15056626476.3349</v>
+      </c>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>K13</f>
+      </c>
+      <c r="K13" t="s">
+        <v>547</v>
+      </c>
+      <c r="L13" s="12" t="n">
+        <v>10417612918.0234</v>
+      </c>
+      <c r="M13" s="12" t="n">
+        <v>11905749608.5831</v>
+      </c>
+      <c r="N13" s="12" t="n">
+        <v>10430086674.7019</v>
+      </c>
+      <c r="O13" s="12" t="n">
+        <v>9383571019.62298</v>
+      </c>
+      <c r="P13" s="12" t="n">
+        <v>8751170066.76055</v>
+      </c>
+      <c r="Q13" s="12" t="n">
+        <v>8332440816.94983</v>
+      </c>
+      <c r="R13" s="12" t="n">
+        <v>7622583706.29312</v>
+      </c>
+      <c r="S13" s="12" t="n">
+        <v>6271126226.36321</v>
+      </c>
+      <c r="T13" s="12" t="n">
+        <v>5950025804.21092</v>
+      </c>
+      <c r="U13" s="12" t="n">
+        <v>7595428766.06835</v>
+      </c>
+      <c r="V13" s="12" t="n">
+        <v>6428900999.99245</v>
+      </c>
+      <c r="W13" s="12" t="n">
+        <v>7077772865.83481</v>
+      </c>
+      <c r="X13" s="12" t="n">
+        <v>7709575545.74632</v>
+      </c>
+      <c r="Y13" s="12" t="n">
+        <v>8347751136.25219</v>
+      </c>
+      <c r="Z13" s="12" t="n">
+        <v>9515703646.82228</v>
+      </c>
+      <c r="AA13" s="12" t="n">
+        <v>10292519503.1308</v>
+      </c>
+      <c r="AB13" s="12" t="n">
+        <v>11057366265.8133</v>
+      </c>
+      <c r="AC13" s="12" t="n">
+        <v>12352320272.2394</v>
+      </c>
+      <c r="AD13" s="12" t="n">
+        <v>13603966924.1329</v>
+      </c>
+      <c r="AE13" s="12" t="n">
+        <v>14310522245.0424</v>
+      </c>
+      <c r="AF13" s="12" t="n">
+        <v>14361705258.2986</v>
+      </c>
+      <c r="AG13" s="12" t="n">
+        <v>12566559515.7537</v>
+      </c>
+      <c r="AH13" s="12" t="n">
+        <v>12374758559.7007</v>
+      </c>
+      <c r="AI13" s="12" t="n">
+        <v>10005539166.4836</v>
+      </c>
+      <c r="AJ13" s="12" t="n">
+        <v>9775309226.06989</v>
+      </c>
+      <c r="AK13" s="12" t="n">
+        <v>9573810950.70057</v>
+      </c>
+      <c r="AL13" s="12" t="n">
+        <v>10360864468.2637</v>
+      </c>
+      <c r="AM13" s="12" t="n">
+        <v>10451962211.9326</v>
+      </c>
+      <c r="AN13" s="12" t="n">
+        <v>12967560958.948</v>
+      </c>
+      <c r="AO13" s="12" t="n">
+        <v>13529283156.1133</v>
+      </c>
+      <c r="AP13" s="12" t="n">
+        <v>13744728024.2109</v>
+      </c>
+      <c r="AQ13" s="12" t="n">
+        <v>13211766991.6732</v>
+      </c>
+      <c r="AR13" s="12" t="n">
+        <v>38494033694.1737</v>
+      </c>
+      <c r="AS13" s="12" t="n">
+        <v>18191363810.6743</v>
+      </c>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>K14</f>
+      </c>
+      <c r="K14" t="s">
+        <v>548</v>
+      </c>
+      <c r="L14" s="12" t="n">
+        <v>4133323341.21714</v>
+      </c>
+      <c r="M14" s="12" t="n">
+        <v>4722986581.90517</v>
+      </c>
+      <c r="N14" s="12" t="n">
+        <v>4785592404.13307</v>
+      </c>
+      <c r="O14" s="12" t="n">
+        <v>4857674963.92071</v>
+      </c>
+      <c r="P14" s="12" t="n">
+        <v>5052968098.6655</v>
+      </c>
+      <c r="Q14" s="12" t="n">
+        <v>5649082290.95446</v>
+      </c>
+      <c r="R14" s="12" t="n">
+        <v>5337924267.1056</v>
+      </c>
+      <c r="S14" s="12" t="n">
+        <v>4632130157.90694</v>
+      </c>
+      <c r="T14" s="12" t="n">
+        <v>4148453820.40526</v>
+      </c>
+      <c r="U14" s="12" t="n">
+        <v>5484051454.5329</v>
+      </c>
+      <c r="V14" s="12" t="n">
+        <v>5833393817.88867</v>
+      </c>
+      <c r="W14" s="12" t="n">
+        <v>5581838138.31319</v>
+      </c>
+      <c r="X14" s="12" t="n">
+        <v>6600490652.48166</v>
+      </c>
+      <c r="Y14" s="12" t="n">
+        <v>8062725952.13381</v>
+      </c>
+      <c r="Z14" s="12" t="n">
+        <v>9017832353.6671</v>
+      </c>
+      <c r="AA14" s="12" t="n">
+        <v>10048101703.6343</v>
+      </c>
+      <c r="AB14" s="12" t="n">
+        <v>11054670951.8708</v>
+      </c>
+      <c r="AC14" s="12" t="n">
+        <v>12389989173.9485</v>
+      </c>
+      <c r="AD14" s="12" t="n">
+        <v>13151926187.0279</v>
+      </c>
+      <c r="AE14" s="12" t="n">
+        <v>12731730439.8581</v>
+      </c>
+      <c r="AF14" s="12" t="n">
+        <v>12969546977.5746</v>
+      </c>
+      <c r="AG14" s="12" t="n">
+        <v>12471849317.5277</v>
+      </c>
+      <c r="AH14" s="12" t="n">
+        <v>12408608295.2426</v>
+      </c>
+      <c r="AI14" s="12" t="n">
+        <v>10497751154.9682</v>
+      </c>
+      <c r="AJ14" s="12" t="n">
+        <v>11834286598.0423</v>
+      </c>
+      <c r="AK14" s="12" t="n">
+        <v>12051467205.4639</v>
+      </c>
+      <c r="AL14" s="12" t="n">
+        <v>13131898296.2457</v>
+      </c>
+      <c r="AM14" s="12" t="n">
+        <v>13376067169.6173</v>
+      </c>
+      <c r="AN14" s="12" t="n">
+        <v>13772582856.4433</v>
+      </c>
+      <c r="AO14" s="12" t="n">
+        <v>15075777064.6189</v>
+      </c>
+      <c r="AP14" s="12" t="n">
+        <v>15779133539.1918</v>
+      </c>
+      <c r="AQ14" s="12" t="n">
+        <v>14556241432.8139</v>
+      </c>
+      <c r="AR14" s="12" t="n">
+        <v>15093790171.7043</v>
+      </c>
+      <c r="AS14" s="12" t="n">
+        <v>5553016892.67131</v>
+      </c>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>K15</f>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="12" t="n">
+        <v>3527949224.40387</v>
+      </c>
+      <c r="M15" s="12" t="n">
+        <v>1196322331.21893</v>
+      </c>
+      <c r="N15" s="12" t="n">
+        <v>1060080491.47524</v>
+      </c>
+      <c r="O15" s="12" t="n">
+        <v>1022116611.75815</v>
+      </c>
+      <c r="P15" s="12" t="n">
+        <v>1092898822.34181</v>
+      </c>
+      <c r="Q15" s="12" t="n">
+        <v>1524442723.72253</v>
+      </c>
+      <c r="R15" s="12" t="n">
+        <v>1586767071.84768</v>
+      </c>
+      <c r="S15" s="12" t="n">
+        <v>1265924135.50387</v>
+      </c>
+      <c r="T15" s="12" t="n">
+        <v>1568366445.12472</v>
+      </c>
+      <c r="U15" s="12" t="n">
+        <v>16886099.6780269</v>
+      </c>
+      <c r="V15" s="12" t="n">
+        <v>1255189.58354348</v>
+      </c>
+      <c r="W15" s="12" t="n">
+        <v>190132183.876641</v>
+      </c>
+      <c r="X15" s="12" t="n">
+        <v>5632490.63075908</v>
+      </c>
+      <c r="Y15" s="12" t="n">
+        <v>398880848.630354</v>
+      </c>
+      <c r="Z15" s="12" t="n">
+        <v>535380757.254455</v>
+      </c>
+      <c r="AA15" s="12" t="n">
+        <v>82401774.4811749</v>
+      </c>
+      <c r="AB15" s="12" t="n">
+        <v>153625089.897795</v>
+      </c>
+      <c r="AC15" s="12" t="n">
+        <v>78448951.0908728</v>
+      </c>
+      <c r="AD15" s="12" t="n">
+        <v>31880143.1859158</v>
+      </c>
+      <c r="AE15" s="12" t="n">
+        <v>305794242.54057</v>
+      </c>
+      <c r="AF15" s="12" t="n">
+        <v>255817390.096251</v>
+      </c>
+      <c r="AG15" s="12" t="n">
+        <v>343493003.163263</v>
+      </c>
+      <c r="AH15" s="12" t="n">
+        <v>164259824.657511</v>
+      </c>
+      <c r="AI15" s="12" t="n">
+        <v>100745903.448686</v>
+      </c>
+      <c r="AJ15" s="12" t="n">
+        <v>21861010.3035125</v>
+      </c>
+      <c r="AK15" s="12" t="n">
+        <v>97945377.5900763</v>
+      </c>
+      <c r="AL15" s="12" t="n">
+        <v>93291725.6363493</v>
+      </c>
+      <c r="AM15" s="12" t="n">
+        <v>39531026.8429677</v>
+      </c>
+      <c r="AN15" s="12" t="n">
+        <v>19247345.4601754</v>
+      </c>
+      <c r="AO15" s="12" t="n">
+        <v>27372846.9151566</v>
+      </c>
+      <c r="AP15" s="12" t="n">
+        <v>58698837.5933752</v>
+      </c>
+      <c r="AQ15" s="12" t="n">
+        <v>22658932.3800019</v>
+      </c>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>K16</f>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -4905,89 +6407,89 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="n">
         <v>7745409866.4287</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="3" t="n">
         <v>9365489431.6874</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="3" t="n">
         <v>10261062296.0877</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="3" t="n">
         <v>13927889331.964</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="3" t="n">
         <v>17718446729.6663</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="3" t="n">
         <v>20006698311.5627</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="3" t="n">
         <v>23590550916.16</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="3" t="n">
         <v>27713303440.4714</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="3" t="n">
         <v>29279795135.5725</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="3" t="n">
         <v>28917543429.9633</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>30663895756.9403</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="3" t="n">
         <v>28185090296.6477</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="3" t="n">
         <v>29396220082.02</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="3" t="n">
         <v>24834689731.2118</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="3" t="n">
         <v>25032277394.0532</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="3" t="n">
         <v>24505678968.4119</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="3" t="n">
         <v>25791705919.4623</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>26845599544.7238</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="3" t="n">
         <v>31994252515.3208</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="3" t="n">
         <v>34192852294.0024</v>
       </c>
-      <c r="AT2" s="12" t="n">
+      <c r="AT2" s="3" t="n">
         <v>34502358757.4437</v>
       </c>
-      <c r="AU2" s="12" t="n">
+      <c r="AU2" s="3" t="n">
         <v>31125639346.0963</v>
       </c>
-      <c r="AV2" s="12" t="n">
+      <c r="AV2" s="3" t="n">
         <v>33048419165.1799</v>
       </c>
-      <c r="AW2" s="12" t="n">
+      <c r="AW2" s="3" t="n">
         <v>14626524313.5635</v>
       </c>
-      <c r="AX2" s="12"/>
+      <c r="AX2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5005,89 +6507,89 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12" t="n">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="n">
         <v>351263617</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="3" t="n">
         <v>910786484.5408</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="3" t="n">
         <v>646264465</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="3" t="n">
         <v>793441443.5</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="3" t="n">
         <v>986688633.6206</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="3" t="n">
         <v>1077885901.5297</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="3" t="n">
         <v>553242238.9113</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="3" t="n">
         <v>386969561.8881</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="3" t="n">
         <v>594426627.5902</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="3" t="n">
         <v>537478893.2873</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="3" t="n">
         <v>684468646.1753</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="3" t="n">
         <v>1134877810.7948</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="3" t="n">
         <v>362692336.111</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="3" t="n">
         <v>167024104.8643</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="3" t="n">
         <v>103291895.5268</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="3" t="n">
         <v>131801684.8803</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="3" t="n">
         <v>188200819.8463</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="3" t="n">
         <v>72065956.0363</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="3" t="n">
         <v>113243602.0722</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="3" t="n">
         <v>86293626.4005</v>
       </c>
-      <c r="AT3" s="12" t="n">
+      <c r="AT3" s="3" t="n">
         <v>91330766.8958</v>
       </c>
-      <c r="AU3" s="12" t="n">
+      <c r="AU3" s="3" t="n">
         <v>179981442.6027</v>
       </c>
-      <c r="AV3" s="12" t="n">
+      <c r="AV3" s="3" t="n">
         <v>280510565.1576</v>
       </c>
-      <c r="AW3" s="12" t="n">
+      <c r="AW3" s="3" t="n">
         <v>115561021.6707</v>
       </c>
-      <c r="AX3" s="12"/>
+      <c r="AX3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5105,89 +6607,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12" t="n">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="n">
         <v>1872242063.2094</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="3" t="n">
         <v>1711195301.9999</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="3" t="n">
         <v>2193214227.6811</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="3" t="n">
         <v>3246531633.0533</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="3" t="n">
         <v>4084153850.8455</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="3" t="n">
         <v>5522774020.5523</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="3" t="n">
         <v>6394675350.2036</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="3" t="n">
         <v>8079268735.7749</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="3" t="n">
         <v>8310577598.401</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="3" t="n">
         <v>7389243494.1793</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="3" t="n">
         <v>7082022035.5353</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="3" t="n">
         <v>4318518817.8775</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="3" t="n">
         <v>1991126208.0814</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="3" t="n">
         <v>870175553.7347</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="3" t="n">
         <v>627734141.7625</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="3" t="n">
         <v>477583914.5411</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="3" t="n">
         <v>560963783.9982</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="3" t="n">
         <v>541606517.3411</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="3" t="n">
         <v>510576105.6518</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="3" t="n">
         <v>461925072.8385</v>
       </c>
-      <c r="AT4" s="12" t="n">
+      <c r="AT4" s="3" t="n">
         <v>469803369.5043</v>
       </c>
-      <c r="AU4" s="12" t="n">
+      <c r="AU4" s="3" t="n">
         <v>-14599833.4175</v>
       </c>
-      <c r="AV4" s="12" t="n">
+      <c r="AV4" s="3" t="n">
         <v>534502114.3888</v>
       </c>
-      <c r="AW4" s="12" t="n">
+      <c r="AW4" s="3" t="n">
         <v>350135007.872</v>
       </c>
-      <c r="AX4" s="12"/>
+      <c r="AX4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5205,89 +6707,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12" t="n">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="n">
         <v>418939429</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="3" t="n">
         <v>410489407</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="3" t="n">
         <v>1080790156</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="3" t="n">
         <v>1037676424</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="3" t="n">
         <v>847635772</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="3" t="n">
         <v>1117765653.1602</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="3" t="n">
         <v>1112505652.6105</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="3" t="n">
         <v>831477106.426</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="3" t="n">
         <v>825862732.9017</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="3" t="n">
         <v>877324654.5554</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="3" t="n">
         <v>2035459607.72</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="3" t="n">
         <v>2181515114.5837</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="3" t="n">
         <v>1823707152.5427</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="3" t="n">
         <v>2105131324.5821</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="3" t="n">
         <v>3061035752.9761</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="3" t="n">
         <v>2444038534.535</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="3" t="n">
         <v>3584284892.3796</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>3712244208.7281</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="3" t="n">
         <v>3075956189.6551</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="3" t="n">
         <v>3740473923.6574</v>
       </c>
-      <c r="AT5" s="12" t="n">
+      <c r="AT5" s="3" t="n">
         <v>4043092692.9331</v>
       </c>
-      <c r="AU5" s="12" t="n">
+      <c r="AU5" s="3" t="n">
         <v>3383221172.6934</v>
       </c>
-      <c r="AV5" s="12" t="n">
+      <c r="AV5" s="3" t="n">
         <v>4999872807.408</v>
       </c>
-      <c r="AW5" s="12" t="n">
+      <c r="AW5" s="3" t="n">
         <v>2766622413.9943</v>
       </c>
-      <c r="AX5" s="12"/>
+      <c r="AX5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5305,89 +6807,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12" t="n">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="n">
         <v>5131200658.1172</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="3" t="n">
         <v>5100026501.7071</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="3" t="n">
         <v>5955519489.22</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="3" t="n">
         <v>7025395312.6037</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="3" t="n">
         <v>8006755847.5671</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="3" t="n">
         <v>8894373021.9812</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="3" t="n">
         <v>9253374271.4146</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="3" t="n">
         <v>10561921547.1397</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="3" t="n">
         <v>11198190212.8784</v>
       </c>
-      <c r="AI6" s="12" t="n">
+      <c r="AI6" s="3" t="n">
         <v>10905405012.357</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="3" t="n">
         <v>12625358750.8069</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="3" t="n">
         <v>14400767146.0502</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="3" t="n">
         <v>13984870220.1961</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="3" t="n">
         <v>11811848954.9703</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="3" t="n">
         <v>10937778421.2594</v>
       </c>
-      <c r="AO6" s="12" t="n">
+      <c r="AO6" s="3" t="n">
         <v>11166325215.6848</v>
       </c>
-      <c r="AP6" s="12" t="n">
+      <c r="AP6" s="3" t="n">
         <v>11949242310.9642</v>
       </c>
-      <c r="AQ6" s="12" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>12577414811.1868</v>
       </c>
-      <c r="AR6" s="12" t="n">
+      <c r="AR6" s="3" t="n">
         <v>14110510627.4617</v>
       </c>
-      <c r="AS6" s="12" t="n">
+      <c r="AS6" s="3" t="n">
         <v>15192987435.5439</v>
       </c>
-      <c r="AT6" s="12" t="n">
+      <c r="AT6" s="3" t="n">
         <v>15225977738.9764</v>
       </c>
-      <c r="AU6" s="12" t="n">
+      <c r="AU6" s="3" t="n">
         <v>14012405429.6442</v>
       </c>
-      <c r="AV6" s="12" t="n">
+      <c r="AV6" s="3" t="n">
         <v>13638663594.8197</v>
       </c>
-      <c r="AW6" s="12" t="n">
+      <c r="AW6" s="3" t="n">
         <v>6434368340.8512</v>
       </c>
-      <c r="AX6" s="12"/>
+      <c r="AX6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5405,89 +6907,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12" t="n">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="n">
         <v>572636615</v>
       </c>
-      <c r="AA7" s="12" t="n">
+      <c r="AA7" s="3" t="n">
         <v>700276049.875</v>
       </c>
-      <c r="AB7" s="12" t="n">
+      <c r="AB7" s="3" t="n">
         <v>762655276</v>
       </c>
-      <c r="AC7" s="12" t="n">
+      <c r="AC7" s="3" t="n">
         <v>819932062</v>
       </c>
-      <c r="AD7" s="12" t="n">
+      <c r="AD7" s="3" t="n">
         <v>1386045997</v>
       </c>
-      <c r="AE7" s="12" t="n">
+      <c r="AE7" s="3" t="n">
         <v>2098175267.1875</v>
       </c>
-      <c r="AF7" s="12" t="n">
+      <c r="AF7" s="3" t="n">
         <v>1586235192.373</v>
       </c>
-      <c r="AG7" s="12" t="n">
+      <c r="AG7" s="3" t="n">
         <v>1731491457.1049</v>
       </c>
-      <c r="AH7" s="12" t="n">
+      <c r="AH7" s="3" t="n">
         <v>1165626022.0423</v>
       </c>
-      <c r="AI7" s="12" t="n">
+      <c r="AI7" s="3" t="n">
         <v>1608472749.4224</v>
       </c>
-      <c r="AJ7" s="12" t="n">
+      <c r="AJ7" s="3" t="n">
         <v>2681972519.1245</v>
       </c>
-      <c r="AK7" s="12" t="n">
+      <c r="AK7" s="3" t="n">
         <v>2059411573.4266</v>
       </c>
-      <c r="AL7" s="12" t="n">
+      <c r="AL7" s="3" t="n">
         <v>1764305123.303</v>
       </c>
-      <c r="AM7" s="12" t="n">
+      <c r="AM7" s="3" t="n">
         <v>931772516.5176</v>
       </c>
-      <c r="AN7" s="12" t="n">
+      <c r="AN7" s="3" t="n">
         <v>615529782.1261</v>
       </c>
-      <c r="AO7" s="12" t="n">
+      <c r="AO7" s="3" t="n">
         <v>664256316.377</v>
       </c>
-      <c r="AP7" s="12" t="n">
+      <c r="AP7" s="3" t="n">
         <v>1009232434.8681</v>
       </c>
-      <c r="AQ7" s="12" t="n">
+      <c r="AQ7" s="3" t="n">
         <v>1520885804.4895</v>
       </c>
-      <c r="AR7" s="12" t="n">
+      <c r="AR7" s="3" t="n">
         <v>1179133714.7599</v>
       </c>
-      <c r="AS7" s="12" t="n">
+      <c r="AS7" s="3" t="n">
         <v>1250667059.2506</v>
       </c>
-      <c r="AT7" s="12" t="n">
+      <c r="AT7" s="3" t="n">
         <v>1024117345.9261</v>
       </c>
-      <c r="AU7" s="12" t="n">
+      <c r="AU7" s="3" t="n">
         <v>917836539.796</v>
       </c>
-      <c r="AV7" s="12" t="n">
+      <c r="AV7" s="3" t="n">
         <v>1085388156.924</v>
       </c>
-      <c r="AW7" s="12" t="n">
+      <c r="AW7" s="3" t="n">
         <v>601338122.6111</v>
       </c>
-      <c r="AX7" s="12"/>
+      <c r="AX7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5505,75 +7007,75 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12" t="n">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3" t="n">
         <v>630815.8438</v>
       </c>
-      <c r="AA8" s="12" t="n">
+      <c r="AA8" s="3" t="n">
         <v>165305</v>
       </c>
-      <c r="AB8" s="12" t="n">
+      <c r="AB8" s="3" t="n">
         <v>21370907</v>
       </c>
-      <c r="AC8" s="12" t="n">
+      <c r="AC8" s="3" t="n">
         <v>95453350.9297</v>
       </c>
-      <c r="AD8" s="12" t="n">
+      <c r="AD8" s="3" t="n">
         <v>193097212.1778</v>
       </c>
-      <c r="AE8" s="12" t="n">
+      <c r="AE8" s="3" t="n">
         <v>355929347.3939</v>
       </c>
-      <c r="AF8" s="12" t="n">
+      <c r="AF8" s="3" t="n">
         <v>689542514.8119</v>
       </c>
-      <c r="AG8" s="12" t="n">
+      <c r="AG8" s="3" t="n">
         <v>2737039346.3235</v>
       </c>
-      <c r="AH8" s="12" t="n">
+      <c r="AH8" s="3" t="n">
         <v>4183647377.3102</v>
       </c>
-      <c r="AI8" s="12" t="n">
+      <c r="AI8" s="3" t="n">
         <v>4737546063.5601</v>
       </c>
-      <c r="AJ8" s="12" t="n">
+      <c r="AJ8" s="3" t="n">
         <v>268866937.412</v>
       </c>
-      <c r="AK8" s="12" t="n">
+      <c r="AK8" s="3" t="n">
         <v>117347085.451</v>
       </c>
-      <c r="AL8" s="12" t="n">
+      <c r="AL8" s="3" t="n">
         <v>2583647.7504</v>
       </c>
-      <c r="AM8" s="12" t="n">
+      <c r="AM8" s="3" t="n">
         <v>7700463.98</v>
       </c>
-      <c r="AN8" s="12" t="n">
+      <c r="AN8" s="3" t="n">
         <v>-7419796.22</v>
       </c>
-      <c r="AO8" s="12" t="n">
+      <c r="AO8" s="3" t="n">
         <v>147331.4063</v>
       </c>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12" t="n">
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3" t="n">
         <v>467462</v>
       </c>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5589,109 +7091,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="3" t="n">
         <v>19702439894</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="3" t="n">
         <v>19319595733</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="3" t="n">
         <v>19385047958</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="3" t="n">
         <v>18241613499</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="3" t="n">
         <v>17643919462</v>
       </c>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="3" t="n">
         <v>18690643667</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="3" t="n">
         <v>18181185718</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="3" t="n">
         <v>18425728076</v>
       </c>
-      <c r="X9" s="12" t="n">
+      <c r="X9" s="3" t="n">
         <v>17479311563</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="3" t="n">
         <v>19571291342</v>
       </c>
-      <c r="Z9" s="12" t="n">
+      <c r="Z9" s="3" t="n">
         <v>4658353200.2078</v>
       </c>
-      <c r="AA9" s="12" t="n">
+      <c r="AA9" s="3" t="n">
         <v>4188292564.0806</v>
       </c>
-      <c r="AB9" s="12" t="n">
+      <c r="AB9" s="3" t="n">
         <v>4882415935.2626</v>
       </c>
-      <c r="AC9" s="12" t="n">
+      <c r="AC9" s="3" t="n">
         <v>4537368163.7471</v>
       </c>
-      <c r="AD9" s="12" t="n">
+      <c r="AD9" s="3" t="n">
         <v>4309222044.7979</v>
       </c>
-      <c r="AE9" s="12" t="n">
+      <c r="AE9" s="3" t="n">
         <v>3159644066.2303</v>
       </c>
-      <c r="AF9" s="12" t="n">
+      <c r="AF9" s="3" t="n">
         <v>2022379043.0552</v>
       </c>
-      <c r="AG9" s="12" t="n">
+      <c r="AG9" s="3" t="n">
         <v>412801072.4892</v>
       </c>
-      <c r="AH9" s="12" t="n">
+      <c r="AH9" s="3" t="n">
         <v>1394330977.603</v>
       </c>
-      <c r="AI9" s="12" t="n">
+      <c r="AI9" s="3" t="n">
         <v>372670232.248</v>
       </c>
-      <c r="AJ9" s="12" t="n">
+      <c r="AJ9" s="3" t="n">
         <v>78892223.9801</v>
       </c>
-      <c r="AK9" s="12" t="n">
+      <c r="AK9" s="3" t="n">
         <v>20548034.1254</v>
       </c>
-      <c r="AL9" s="12" t="n">
+      <c r="AL9" s="3" t="n">
         <v>294710770.6983</v>
       </c>
-      <c r="AM9" s="12" t="n">
+      <c r="AM9" s="3" t="n">
         <v>384292786.2963</v>
       </c>
-      <c r="AN9" s="12" t="n">
+      <c r="AN9" s="3" t="n">
         <v>483845535.8117</v>
       </c>
-      <c r="AO9" s="12" t="n">
+      <c r="AO9" s="3" t="n">
         <v>225120829.7598</v>
       </c>
-      <c r="AP9" s="12" t="n">
+      <c r="AP9" s="3" t="n">
         <v>220554551.2435</v>
       </c>
-      <c r="AQ9" s="12" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>438446249.742</v>
       </c>
-      <c r="AR9" s="12" t="n">
+      <c r="AR9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="12" t="n">
+      <c r="AS9" s="3" t="n">
         <v>50903.5586</v>
       </c>
-      <c r="AT9" s="12" t="n">
+      <c r="AT9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="12" t="n">
+      <c r="AU9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="12" t="n">
+      <c r="AV9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="12" t="n">
+      <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="12"/>
+      <c r="AX9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -5706,107 +7208,107 @@
       <c r="O10" t="s">
         <v>543</v>
       </c>
-      <c r="P10" s="12" t="str">
+      <c r="P10" s="3" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="12" t="str">
+      <c r="Q10" s="3" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="12" t="str">
+      <c r="R10" s="3" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="12" t="str">
+      <c r="S10" s="3" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="12" t="str">
+      <c r="T10" s="3" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="12" t="str">
+      <c r="U10" s="3" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="12" t="str">
+      <c r="V10" s="3" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="12" t="str">
+      <c r="W10" s="3" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="12" t="str">
+      <c r="X10" s="3" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="12" t="str">
+      <c r="Y10" s="3" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="12" t="str">
+      <c r="Z10" s="3" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="12" t="str">
+      <c r="AA10" s="3" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="12" t="str">
+      <c r="AB10" s="3" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="12" t="str">
+      <c r="AC10" s="3" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="12" t="str">
+      <c r="AD10" s="3" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="12" t="str">
+      <c r="AE10" s="3" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="12" t="str">
+      <c r="AF10" s="3" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="12" t="str">
+      <c r="AG10" s="3" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="12" t="str">
+      <c r="AH10" s="3" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="12" t="str">
+      <c r="AI10" s="3" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="12" t="str">
+      <c r="AJ10" s="3" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="12" t="str">
+      <c r="AK10" s="3" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="12" t="str">
+      <c r="AL10" s="3" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="12" t="str">
+      <c r="AM10" s="3" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="12" t="str">
+      <c r="AN10" s="3" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="12" t="str">
+      <c r="AO10" s="3" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="12" t="str">
+      <c r="AP10" s="3" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="12" t="str">
+      <c r="AQ10" s="3" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="12" t="str">
+      <c r="AR10" s="3" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="12" t="str">
+      <c r="AS10" s="3" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="12" t="str">
+      <c r="AT10" s="3" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="12" t="str">
+      <c r="AU10" s="3" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="12" t="str">
+      <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="12"/>
-      <c r="AX10" s="12"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -5943,89 +7445,89 @@
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12" t="n">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="n">
         <v>12514491468.9675</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="3" t="n">
         <v>14773845481.5322</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="3" t="n">
         <v>15935079232.2282</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="3" t="n">
         <v>21223851699.0718</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="3" t="n">
         <v>26355823246.7974</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="3" t="n">
         <v>28882764171.6176</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="3" t="n">
         <v>32982769794.0111</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="3" t="n">
         <v>37712732893.711</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="3" t="n">
         <v>39030428706.4601</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="3" t="n">
         <v>38159763663.1629</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="3" t="n">
         <v>40115358312.4323</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="3" t="n">
         <v>36144077590.9663</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="3" t="n">
         <v>37018659942.2246</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="3" t="n">
         <v>30712289860.1704</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="3" t="n">
         <v>30369120355.357</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="3" t="n">
         <v>29393277018.1968</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="3" t="n">
         <v>30681556095.03</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="3" t="n">
         <v>31375093757.338</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="3" t="n">
         <v>36534604813.5559</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="3" t="n">
         <v>38295143099.753</v>
       </c>
-      <c r="AT14" s="12" t="n">
+      <c r="AT14" s="3" t="n">
         <v>38133070394.0319</v>
       </c>
-      <c r="AU14" s="12" t="n">
+      <c r="AU14" s="3" t="n">
         <v>33282260036.8683</v>
       </c>
-      <c r="AV14" s="12" t="n">
+      <c r="AV14" s="3" t="n">
         <v>33048419165.1799</v>
       </c>
-      <c r="AW14" s="12" t="n">
+      <c r="AW14" s="3" t="n">
         <v>13950755187.0482</v>
       </c>
-      <c r="AX14" s="12"/>
+      <c r="AX14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6043,89 +7545,89 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="n">
         <v>567547181.377509</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="3" t="n">
         <v>1436744858.60258</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="3" t="n">
         <v>1003626638.0212</v>
       </c>
-      <c r="AC15" s="12" t="n">
+      <c r="AC15" s="3" t="n">
         <v>1209076488.71782</v>
       </c>
-      <c r="AD15" s="12" t="n">
+      <c r="AD15" s="3" t="n">
         <v>1467678946.35978</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="3" t="n">
         <v>1556095054.4149</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="3" t="n">
         <v>773507217.834188</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="3" t="n">
         <v>526594736.597523</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="3" t="n">
         <v>792380069.667696</v>
       </c>
-      <c r="AI15" s="12" t="n">
+      <c r="AI15" s="3" t="n">
         <v>709260369.624965</v>
       </c>
-      <c r="AJ15" s="12" t="n">
+      <c r="AJ15" s="3" t="n">
         <v>895440853.719083</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="3" t="n">
         <v>1455347888.47251</v>
       </c>
-      <c r="AL15" s="12" t="n">
+      <c r="AL15" s="3" t="n">
         <v>456738458.777437</v>
       </c>
-      <c r="AM15" s="12" t="n">
+      <c r="AM15" s="3" t="n">
         <v>206553525.642842</v>
       </c>
-      <c r="AN15" s="12" t="n">
+      <c r="AN15" s="3" t="n">
         <v>125313568.462275</v>
       </c>
-      <c r="AO15" s="12" t="n">
+      <c r="AO15" s="3" t="n">
         <v>158089210.266138</v>
       </c>
-      <c r="AP15" s="12" t="n">
+      <c r="AP15" s="3" t="n">
         <v>223881818.026144</v>
       </c>
-      <c r="AQ15" s="12" t="n">
+      <c r="AQ15" s="3" t="n">
         <v>84225205.0874944</v>
       </c>
-      <c r="AR15" s="12" t="n">
+      <c r="AR15" s="3" t="n">
         <v>129314171.268424</v>
       </c>
-      <c r="AS15" s="12" t="n">
+      <c r="AS15" s="3" t="n">
         <v>96646712.6868914</v>
       </c>
-      <c r="AT15" s="12" t="n">
+      <c r="AT15" s="3" t="n">
         <v>100941578.7385</v>
       </c>
-      <c r="AU15" s="12" t="n">
+      <c r="AU15" s="3" t="n">
         <v>192451923.891646</v>
       </c>
-      <c r="AV15" s="12" t="n">
+      <c r="AV15" s="3" t="n">
         <v>280510565.1576</v>
       </c>
-      <c r="AW15" s="12" t="n">
+      <c r="AW15" s="3" t="n">
         <v>110221915.195403</v>
       </c>
-      <c r="AX15" s="12"/>
+      <c r="AX15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6143,89 +7645,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12" t="n">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="n">
         <v>3025037761.96926</v>
       </c>
-      <c r="AA16" s="12" t="n">
+      <c r="AA16" s="3" t="n">
         <v>2699371470.63925</v>
       </c>
-      <c r="AB16" s="12" t="n">
+      <c r="AB16" s="3" t="n">
         <v>3405986776.30812</v>
       </c>
-      <c r="AC16" s="12" t="n">
+      <c r="AC16" s="3" t="n">
         <v>4947189360.42497</v>
       </c>
-      <c r="AD16" s="12" t="n">
+      <c r="AD16" s="3" t="n">
         <v>6075094428.3048</v>
       </c>
-      <c r="AE16" s="12" t="n">
+      <c r="AE16" s="3" t="n">
         <v>7972978705.66475</v>
       </c>
-      <c r="AF16" s="12" t="n">
+      <c r="AF16" s="3" t="n">
         <v>8940618035.27962</v>
       </c>
-      <c r="AG16" s="12" t="n">
+      <c r="AG16" s="3" t="n">
         <v>10994405790.1026</v>
       </c>
-      <c r="AH16" s="12" t="n">
+      <c r="AH16" s="3" t="n">
         <v>11078131010.207</v>
       </c>
-      <c r="AI16" s="12" t="n">
+      <c r="AI16" s="3" t="n">
         <v>9750890011.46887</v>
       </c>
-      <c r="AJ16" s="12" t="n">
+      <c r="AJ16" s="3" t="n">
         <v>9264897512.82625</v>
       </c>
-      <c r="AK16" s="12" t="n">
+      <c r="AK16" s="3" t="n">
         <v>5537994648.53861</v>
       </c>
-      <c r="AL16" s="12" t="n">
+      <c r="AL16" s="3" t="n">
         <v>2507425233.35849</v>
       </c>
-      <c r="AM16" s="12" t="n">
+      <c r="AM16" s="3" t="n">
         <v>1076119094.89438</v>
       </c>
-      <c r="AN16" s="12" t="n">
+      <c r="AN16" s="3" t="n">
         <v>761566093.338394</v>
       </c>
-      <c r="AO16" s="12" t="n">
+      <c r="AO16" s="3" t="n">
         <v>572836864.370754</v>
       </c>
-      <c r="AP16" s="12" t="n">
+      <c r="AP16" s="3" t="n">
         <v>667316921.950228</v>
       </c>
-      <c r="AQ16" s="12" t="n">
+      <c r="AQ16" s="3" t="n">
         <v>632988480.397044</v>
       </c>
-      <c r="AR16" s="12" t="n">
+      <c r="AR16" s="3" t="n">
         <v>583032725.590335</v>
       </c>
-      <c r="AS16" s="12" t="n">
+      <c r="AS16" s="3" t="n">
         <v>517344578.732819</v>
       </c>
-      <c r="AT16" s="12" t="n">
+      <c r="AT16" s="3" t="n">
         <v>519241165.121669</v>
       </c>
-      <c r="AU16" s="12" t="n">
+      <c r="AU16" s="3" t="n">
         <v>-15611420.7612939</v>
       </c>
-      <c r="AV16" s="12" t="n">
+      <c r="AV16" s="3" t="n">
         <v>534502114.3888</v>
       </c>
-      <c r="AW16" s="12" t="n">
+      <c r="AW16" s="3" t="n">
         <v>333958203.091886</v>
       </c>
-      <c r="AX16" s="12"/>
+      <c r="AX16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6243,89 +7745,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12" t="n">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="n">
         <v>676893024.468438</v>
       </c>
-      <c r="AA17" s="12" t="n">
+      <c r="AA17" s="3" t="n">
         <v>647537655.672858</v>
       </c>
-      <c r="AB17" s="12" t="n">
+      <c r="AB17" s="3" t="n">
         <v>1678430192.92835</v>
       </c>
-      <c r="AC17" s="12" t="n">
+      <c r="AC17" s="3" t="n">
         <v>1581251114.91632</v>
       </c>
-      <c r="AD17" s="12" t="n">
+      <c r="AD17" s="3" t="n">
         <v>1260840689.10455</v>
       </c>
-      <c r="AE17" s="12" t="n">
+      <c r="AE17" s="3" t="n">
         <v>1613667645.53559</v>
       </c>
-      <c r="AF17" s="12" t="n">
+      <c r="AF17" s="3" t="n">
         <v>1555432849.5759</v>
       </c>
-      <c r="AG17" s="12" t="n">
+      <c r="AG17" s="3" t="n">
         <v>1131488134.90371</v>
       </c>
-      <c r="AH17" s="12" t="n">
+      <c r="AH17" s="3" t="n">
         <v>1100888048.17766</v>
       </c>
-      <c r="AI17" s="12" t="n">
+      <c r="AI17" s="3" t="n">
         <v>1157722873.47932</v>
       </c>
-      <c r="AJ17" s="12" t="n">
+      <c r="AJ17" s="3" t="n">
         <v>2662844673.7949</v>
       </c>
-      <c r="AK17" s="12" t="n">
+      <c r="AK17" s="3" t="n">
         <v>2797537660.42599</v>
       </c>
-      <c r="AL17" s="12" t="n">
+      <c r="AL17" s="3" t="n">
         <v>2296594416.75883</v>
       </c>
-      <c r="AM17" s="12" t="n">
+      <c r="AM17" s="3" t="n">
         <v>2603350560.60856</v>
       </c>
-      <c r="AN17" s="12" t="n">
+      <c r="AN17" s="3" t="n">
         <v>3713643857.92027</v>
       </c>
-      <c r="AO17" s="12" t="n">
+      <c r="AO17" s="3" t="n">
         <v>2931496074.08697</v>
       </c>
-      <c r="AP17" s="12" t="n">
+      <c r="AP17" s="3" t="n">
         <v>4263829555.49789</v>
       </c>
-      <c r="AQ17" s="12" t="n">
+      <c r="AQ17" s="3" t="n">
         <v>4338588523.78919</v>
       </c>
-      <c r="AR17" s="12" t="n">
+      <c r="AR17" s="3" t="n">
         <v>3512469739.96491</v>
       </c>
-      <c r="AS17" s="12" t="n">
+      <c r="AS17" s="3" t="n">
         <v>4189237649.3107</v>
       </c>
-      <c r="AT17" s="12" t="n">
+      <c r="AT17" s="3" t="n">
         <v>4468550667.8859</v>
       </c>
-      <c r="AU17" s="12" t="n">
+      <c r="AU17" s="3" t="n">
         <v>3617636430.84628</v>
       </c>
-      <c r="AV17" s="12" t="n">
+      <c r="AV17" s="3" t="n">
         <v>4999872807.408</v>
       </c>
-      <c r="AW17" s="12" t="n">
+      <c r="AW17" s="3" t="n">
         <v>2638799974.97719</v>
       </c>
-      <c r="AX17" s="12"/>
+      <c r="AX17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6343,89 +7845,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12" t="n">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="n">
         <v>8290635094.71531</v>
       </c>
-      <c r="AA18" s="12" t="n">
+      <c r="AA18" s="3" t="n">
         <v>8045175218.82085</v>
       </c>
-      <c r="AB18" s="12" t="n">
+      <c r="AB18" s="3" t="n">
         <v>9248718328.704</v>
       </c>
-      <c r="AC18" s="12" t="n">
+      <c r="AC18" s="3" t="n">
         <v>10705566700.61</v>
       </c>
-      <c r="AD18" s="12" t="n">
+      <c r="AD18" s="3" t="n">
         <v>11909883813.0894</v>
       </c>
-      <c r="AE18" s="12" t="n">
+      <c r="AE18" s="3" t="n">
         <v>12840403471.262</v>
       </c>
-      <c r="AF18" s="12" t="n">
+      <c r="AF18" s="3" t="n">
         <v>12937464432.1182</v>
       </c>
-      <c r="AG18" s="12" t="n">
+      <c r="AG18" s="3" t="n">
         <v>14372841801.6714</v>
       </c>
-      <c r="AH18" s="12" t="n">
+      <c r="AH18" s="3" t="n">
         <v>14927364167.7269</v>
       </c>
-      <c r="AI18" s="12" t="n">
+      <c r="AI18" s="3" t="n">
         <v>14390837829.3095</v>
       </c>
-      <c r="AJ18" s="12" t="n">
+      <c r="AJ18" s="3" t="n">
         <v>16516844243.3473</v>
       </c>
-      <c r="AK18" s="12" t="n">
+      <c r="AK18" s="3" t="n">
         <v>18467297412.1422</v>
       </c>
-      <c r="AL18" s="12" t="n">
+      <c r="AL18" s="3" t="n">
         <v>17611147064.9327</v>
       </c>
-      <c r="AM18" s="12" t="n">
+      <c r="AM18" s="3" t="n">
         <v>14607346933.4983</v>
       </c>
-      <c r="AN18" s="12" t="n">
+      <c r="AN18" s="3" t="n">
         <v>13269695923.6464</v>
       </c>
-      <c r="AO18" s="12" t="n">
+      <c r="AO18" s="3" t="n">
         <v>13393421613.1278</v>
       </c>
-      <c r="AP18" s="12" t="n">
+      <c r="AP18" s="3" t="n">
         <v>14214699461.981</v>
       </c>
-      <c r="AQ18" s="12" t="n">
+      <c r="AQ18" s="3" t="n">
         <v>14699525271.1156</v>
       </c>
-      <c r="AR18" s="12" t="n">
+      <c r="AR18" s="3" t="n">
         <v>16112954326.5601</v>
       </c>
-      <c r="AS18" s="12" t="n">
+      <c r="AS18" s="3" t="n">
         <v>17015767592.4262</v>
       </c>
-      <c r="AT18" s="12" t="n">
+      <c r="AT18" s="3" t="n">
         <v>16828219920.271</v>
       </c>
-      <c r="AU18" s="12" t="n">
+      <c r="AU18" s="3" t="n">
         <v>14983291300.9684</v>
       </c>
-      <c r="AV18" s="12" t="n">
+      <c r="AV18" s="3" t="n">
         <v>13638663594.8197</v>
       </c>
-      <c r="AW18" s="12" t="n">
+      <c r="AW18" s="3" t="n">
         <v>6137090096.1938</v>
       </c>
-      <c r="AX18" s="12"/>
+      <c r="AX18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6443,89 +7945,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12" t="n">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="n">
         <v>925226186.4536</v>
       </c>
-      <c r="AA19" s="12" t="n">
+      <c r="AA19" s="3" t="n">
         <v>1104669460.22777</v>
       </c>
-      <c r="AB19" s="12" t="n">
+      <c r="AB19" s="3" t="n">
         <v>1184377591.64278</v>
       </c>
-      <c r="AC19" s="12" t="n">
+      <c r="AC19" s="3" t="n">
         <v>1249443908.72384</v>
       </c>
-      <c r="AD19" s="12" t="n">
+      <c r="AD19" s="3" t="n">
         <v>2061714769.14507</v>
       </c>
-      <c r="AE19" s="12" t="n">
+      <c r="AE19" s="3" t="n">
         <v>3029040598.76154</v>
       </c>
-      <c r="AF19" s="12" t="n">
+      <c r="AF19" s="3" t="n">
         <v>2217770597.01299</v>
       </c>
-      <c r="AG19" s="12" t="n">
+      <c r="AG19" s="3" t="n">
         <v>2356242913.07615</v>
       </c>
-      <c r="AH19" s="12" t="n">
+      <c r="AH19" s="3" t="n">
         <v>1553797871.23047</v>
       </c>
-      <c r="AI19" s="12" t="n">
+      <c r="AI19" s="3" t="n">
         <v>2122550282.50422</v>
       </c>
-      <c r="AJ19" s="12" t="n">
+      <c r="AJ19" s="3" t="n">
         <v>3508630783.30238</v>
       </c>
-      <c r="AK19" s="12" t="n">
+      <c r="AK19" s="3" t="n">
         <v>2640954168.25818</v>
       </c>
-      <c r="AL19" s="12" t="n">
+      <c r="AL19" s="3" t="n">
         <v>2221789441.35155</v>
       </c>
-      <c r="AM19" s="12" t="n">
+      <c r="AM19" s="3" t="n">
         <v>1152294146.64536</v>
       </c>
-      <c r="AN19" s="12" t="n">
+      <c r="AN19" s="3" t="n">
         <v>746759783.036562</v>
       </c>
-      <c r="AO19" s="12" t="n">
+      <c r="AO19" s="3" t="n">
         <v>796740622.592979</v>
       </c>
-      <c r="AP19" s="12" t="n">
+      <c r="AP19" s="3" t="n">
         <v>1200572837.64093</v>
       </c>
-      <c r="AQ19" s="12" t="n">
+      <c r="AQ19" s="3" t="n">
         <v>1777495586.58826</v>
       </c>
-      <c r="AR19" s="12" t="n">
+      <c r="AR19" s="3" t="n">
         <v>1346466346.43095</v>
       </c>
-      <c r="AS19" s="12" t="n">
+      <c r="AS19" s="3" t="n">
         <v>1400715962.28168</v>
       </c>
-      <c r="AT19" s="12" t="n">
+      <c r="AT19" s="3" t="n">
         <v>1131886057.95028</v>
       </c>
-      <c r="AU19" s="12" t="n">
+      <c r="AU19" s="3" t="n">
         <v>981431226.172102</v>
       </c>
-      <c r="AV19" s="12" t="n">
+      <c r="AV19" s="3" t="n">
         <v>1085388156.924</v>
       </c>
-      <c r="AW19" s="12" t="n">
+      <c r="AW19" s="3" t="n">
         <v>573555326.839145</v>
       </c>
-      <c r="AX19" s="12"/>
+      <c r="AX19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -6543,75 +8045,75 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12" t="n">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3" t="n">
         <v>1019228.11469816</v>
       </c>
-      <c r="AA20" s="12" t="n">
+      <c r="AA20" s="3" t="n">
         <v>260764.85859476</v>
       </c>
-      <c r="AB20" s="12" t="n">
+      <c r="AB20" s="3" t="n">
         <v>33188288.549756</v>
       </c>
-      <c r="AC20" s="12" t="n">
+      <c r="AC20" s="3" t="n">
         <v>145455475.415221</v>
       </c>
-      <c r="AD20" s="12" t="n">
+      <c r="AD20" s="3" t="n">
         <v>287228111.541315</v>
       </c>
-      <c r="AE20" s="12" t="n">
+      <c r="AE20" s="3" t="n">
         <v>513839077.415107</v>
       </c>
-      <c r="AF20" s="12" t="n">
+      <c r="AF20" s="3" t="n">
         <v>964073374.549508</v>
       </c>
-      <c r="AG20" s="12" t="n">
+      <c r="AG20" s="3" t="n">
         <v>3724609518.64494</v>
       </c>
-      <c r="AH20" s="12" t="n">
+      <c r="AH20" s="3" t="n">
         <v>5576867936.98537</v>
       </c>
-      <c r="AI20" s="12" t="n">
+      <c r="AI20" s="3" t="n">
         <v>6251694185.80279</v>
       </c>
-      <c r="AJ20" s="12" t="n">
+      <c r="AJ20" s="3" t="n">
         <v>351739179.461811</v>
       </c>
-      <c r="AK20" s="12" t="n">
+      <c r="AK20" s="3" t="n">
         <v>150483894.746265</v>
       </c>
-      <c r="AL20" s="12" t="n">
+      <c r="AL20" s="3" t="n">
         <v>3253587.61145794</v>
       </c>
-      <c r="AM20" s="12" t="n">
+      <c r="AM20" s="3" t="n">
         <v>9522924.76254834</v>
       </c>
-      <c r="AN20" s="12" t="n">
+      <c r="AN20" s="3" t="n">
         <v>-9001685.33890305</v>
       </c>
-      <c r="AO20" s="12" t="n">
+      <c r="AO20" s="3" t="n">
         <v>176716.296840359</v>
       </c>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="12"/>
-      <c r="AT20" s="12"/>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="12" t="n">
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3" t="n">
         <v>467462</v>
       </c>
-      <c r="AW20" s="12"/>
-      <c r="AX20" s="12"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -6627,109 +8129,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="12" t="n">
+      <c r="P21" s="3" t="n">
         <v>39159221227.3348</v>
       </c>
-      <c r="Q21" s="12" t="n">
+      <c r="Q21" s="3" t="n">
         <v>37075841095.001</v>
       </c>
-      <c r="R21" s="12" t="n">
+      <c r="R21" s="3" t="n">
         <v>36294366444.8787</v>
       </c>
-      <c r="S21" s="12" t="n">
+      <c r="S21" s="3" t="n">
         <v>33369645404.352</v>
       </c>
-      <c r="T21" s="12" t="n">
+      <c r="T21" s="3" t="n">
         <v>31587983747.9476</v>
       </c>
-      <c r="U21" s="12" t="n">
+      <c r="U21" s="3" t="n">
         <v>32767823423.5663</v>
       </c>
-      <c r="V21" s="12" t="n">
+      <c r="V21" s="3" t="n">
         <v>31286645512.572</v>
       </c>
-      <c r="W21" s="12" t="n">
+      <c r="W21" s="3" t="n">
         <v>31154027060.9063</v>
       </c>
-      <c r="X21" s="12" t="n">
+      <c r="X21" s="3" t="n">
         <v>29189360890.8719</v>
       </c>
-      <c r="Y21" s="12" t="n">
+      <c r="Y21" s="3" t="n">
         <v>32280454746.2768</v>
       </c>
-      <c r="Z21" s="12" t="n">
+      <c r="Z21" s="3" t="n">
         <v>7526641248.01413</v>
       </c>
-      <c r="AA21" s="12" t="n">
+      <c r="AA21" s="3" t="n">
         <v>6606935774.63454</v>
       </c>
-      <c r="AB21" s="12" t="n">
+      <c r="AB21" s="3" t="n">
         <v>7582225166.1767</v>
       </c>
-      <c r="AC21" s="12" t="n">
+      <c r="AC21" s="3" t="n">
         <v>6914215550.98462</v>
       </c>
-      <c r="AD21" s="12" t="n">
+      <c r="AD21" s="3" t="n">
         <v>6409878714.35362</v>
       </c>
-      <c r="AE21" s="12" t="n">
+      <c r="AE21" s="3" t="n">
         <v>4561435025.9102</v>
       </c>
-      <c r="AF21" s="12" t="n">
+      <c r="AF21" s="3" t="n">
         <v>2827558485.19115</v>
       </c>
-      <c r="AG21" s="12" t="n">
+      <c r="AG21" s="3" t="n">
         <v>561746693.910476</v>
       </c>
-      <c r="AH21" s="12" t="n">
+      <c r="AH21" s="3" t="n">
         <v>1858665184.04787</v>
       </c>
-      <c r="AI21" s="12" t="n">
+      <c r="AI21" s="3" t="n">
         <v>491777872.533406</v>
       </c>
-      <c r="AJ21" s="12" t="n">
+      <c r="AJ21" s="3" t="n">
         <v>103208993.994511</v>
       </c>
-      <c r="AK21" s="12" t="n">
+      <c r="AK21" s="3" t="n">
         <v>26350447.4157607</v>
       </c>
-      <c r="AL21" s="12" t="n">
+      <c r="AL21" s="3" t="n">
         <v>371129273.469558</v>
       </c>
-      <c r="AM21" s="12" t="n">
+      <c r="AM21" s="3" t="n">
         <v>475242959.410575</v>
       </c>
-      <c r="AN21" s="12" t="n">
+      <c r="AN21" s="3" t="n">
         <v>587000658.356338</v>
       </c>
-      <c r="AO21" s="12" t="n">
+      <c r="AO21" s="3" t="n">
         <v>270020631.553428</v>
       </c>
-      <c r="AP21" s="12" t="n">
+      <c r="AP21" s="3" t="n">
         <v>262369494.174687</v>
       </c>
-      <c r="AQ21" s="12" t="n">
+      <c r="AQ21" s="3" t="n">
         <v>512422610.278865</v>
       </c>
-      <c r="AR21" s="12" t="n">
+      <c r="AR21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="12" t="n">
+      <c r="AS21" s="3" t="n">
         <v>57010.718032891</v>
       </c>
-      <c r="AT21" s="12" t="n">
+      <c r="AT21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="12" t="n">
+      <c r="AU21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="12" t="n">
+      <c r="AV21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="12" t="n">
+      <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="12"/>
+      <c r="AX21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -6738,41 +8240,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="12"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
@@ -1686,7 +1686,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
@@ -1698,6 +1698,7 @@
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1733,7 +1734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1747,6 +1748,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3326,106 +3328,106 @@
       <c r="K2" t="s">
         <v>545</v>
       </c>
-      <c r="L2" s="12" t="n">
+      <c r="L2" s="13" t="n">
         <v>2991230000</v>
       </c>
-      <c r="M2" s="12" t="n">
+      <c r="M2" s="13" t="n">
         <v>1866728995</v>
       </c>
-      <c r="N2" s="12" t="n">
+      <c r="N2" s="13" t="n">
         <v>2238357061</v>
       </c>
-      <c r="O2" s="12" t="n">
+      <c r="O2" s="13" t="n">
         <v>2935345722</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="13" t="n">
         <v>2854844106</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="13" t="n">
         <v>3420852712</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="13" t="n">
         <v>3472714428</v>
       </c>
-      <c r="S2" s="12" t="n">
+      <c r="S2" s="13" t="n">
         <v>4999730461</v>
       </c>
-      <c r="T2" s="12" t="n">
+      <c r="T2" s="13" t="n">
         <v>4819818383</v>
       </c>
-      <c r="U2" s="12" t="n">
+      <c r="U2" s="13" t="n">
         <v>6034381572</v>
       </c>
-      <c r="V2" s="12" t="n">
+      <c r="V2" s="13" t="n">
         <v>6682431662.1941</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="13" t="n">
         <v>7081760358.5977</v>
       </c>
-      <c r="X2" s="12" t="n">
+      <c r="X2" s="13" t="n">
         <v>8507968428.2789</v>
       </c>
-      <c r="Y2" s="12" t="n">
+      <c r="Y2" s="13" t="n">
         <v>9573195533.7237</v>
       </c>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="13" t="n">
         <v>10956430924.4908</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="13" t="n">
         <v>12139140465.4225</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="13" t="n">
         <v>12033519835.6852</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="13" t="n">
         <v>14941932436.4759</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="13" t="n">
         <v>15203216117.2469</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="13" t="n">
         <v>14084609803.7756</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="13" t="n">
         <v>15235247708.9364</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="13" t="n">
         <v>14065427722.434</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="13" t="n">
         <v>13142928286.5879</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="13" t="n">
         <v>10791511319.1229</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="13" t="n">
         <v>10458155746.1654</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="13" t="n">
         <v>9957749177.0247</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="13" t="n">
         <v>10355559302.0524</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="13" t="n">
         <v>11217747143.6144</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="13" t="n">
         <v>11251965639.3453</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="13" t="n">
         <v>12506858710.1818</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="13" t="n">
         <v>10804406161.9669</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="13" t="n">
         <v>9533605096.6767</v>
       </c>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3434,106 +3436,106 @@
       <c r="K3" t="s">
         <v>546</v>
       </c>
-      <c r="L3" s="12" t="n">
+      <c r="L3" s="13" t="n">
         <v>7615059781</v>
       </c>
-      <c r="M3" s="12" t="n">
+      <c r="M3" s="13" t="n">
         <v>8164529255</v>
       </c>
-      <c r="N3" s="12" t="n">
+      <c r="N3" s="13" t="n">
         <v>8453705987</v>
       </c>
-      <c r="O3" s="12" t="n">
+      <c r="O3" s="13" t="n">
         <v>6962506320</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="13" t="n">
         <v>6468122587</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="13" t="n">
         <v>6425246161</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="13" t="n">
         <v>6254809833</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="13" t="n">
         <v>6228661273</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="13" t="n">
         <v>5673097069</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="13" t="n">
         <v>5596724206</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="13" t="n">
         <v>6478146238.5843</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="13" t="n">
         <v>7159205123.6671</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="13" t="n">
         <v>8077028392.2327</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="13" t="n">
         <v>10879559612.4204</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="13" t="n">
         <v>13755997175.8927</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="13" t="n">
         <v>15947354592.6793</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="13" t="n">
         <v>17243723650.2657</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="13" t="n">
         <v>19272738606.1368</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="13" t="n">
         <v>21653624428.0572</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="13" t="n">
         <v>20536671353.4467</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="13" t="n">
         <v>19798328145.8811</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="13" t="n">
         <v>18559884228.3146</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="13" t="n">
         <v>16666577586.553</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="13" t="n">
         <v>13660209245.9601</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="13" t="n">
         <v>12565811616.4415</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="13" t="n">
         <v>11546179735.5361</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="13" t="n">
         <v>13121580806.9065</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="13" t="n">
         <v>14068617809.0185</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="13" t="n">
         <v>16297849754.1615</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="13" t="n">
         <v>16853150808.0905</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="13" t="n">
         <v>17786317785.7385</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="13" t="n">
         <v>14080988639.3575</v>
       </c>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3542,110 +3544,110 @@
       <c r="K4" t="s">
         <v>547</v>
       </c>
-      <c r="L4" s="12" t="n">
+      <c r="L4" s="13" t="n">
         <v>5241483000</v>
       </c>
-      <c r="M4" s="12" t="n">
+      <c r="M4" s="13" t="n">
         <v>6203885402</v>
       </c>
-      <c r="N4" s="12" t="n">
+      <c r="N4" s="13" t="n">
         <v>5570774481</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="O4" s="13" t="n">
         <v>5129556329</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="13" t="n">
         <v>4888091025</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="13" t="n">
         <v>4752793012</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="13" t="n">
         <v>4429609111</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="13" t="n">
         <v>3708992945</v>
       </c>
-      <c r="T4" s="12" t="n">
+      <c r="T4" s="13" t="n">
         <v>3563022679</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="U4" s="13" t="n">
         <v>4605026491</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="13" t="n">
         <v>3978944998.2136</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="13" t="n">
         <v>4486767311.7145</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="13" t="n">
         <v>4964420559.096</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="13" t="n">
         <v>5478108104.2694</v>
       </c>
-      <c r="Z4" s="12" t="n">
+      <c r="Z4" s="13" t="n">
         <v>6397200595.2043</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="13" t="n">
         <v>7129488415.3562</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="13" t="n">
         <v>7908655444.0817</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="13" t="n">
         <v>9077135853.9106</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="13" t="n">
         <v>10205405827.474</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="13" t="n">
         <v>10844541705.7431</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="13" t="n">
         <v>10977985775.4851</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="13" t="n">
         <v>9799381759.8001</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="13" t="n">
         <v>9826696229.7005</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="13" t="n">
         <v>8090717492.0668</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="13" t="n">
         <v>8057469208.7341</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="13" t="n">
         <v>7981850323.014</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="13" t="n">
         <v>8709609402.1173</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="13" t="n">
         <v>8943055092.3056</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="13" t="n">
         <v>11356012250.4584</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="13" t="n">
         <v>12079985688.9346</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="13" t="n">
         <v>12436070120.098</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="13" t="n">
         <v>12355672182.4764</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="13" t="n">
         <v>38494033694.1737</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="13" t="n">
         <v>19072546360.8401</v>
       </c>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3654,110 +3656,110 @@
       <c r="K5" t="s">
         <v>548</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="L5" s="13" t="n">
         <v>2079626513</v>
       </c>
-      <c r="M5" s="12" t="n">
+      <c r="M5" s="13" t="n">
         <v>2461068683</v>
       </c>
-      <c r="N5" s="12" t="n">
+      <c r="N5" s="13" t="n">
         <v>2556014813</v>
       </c>
-      <c r="O5" s="12" t="n">
+      <c r="O5" s="13" t="n">
         <v>2655462116</v>
       </c>
-      <c r="P5" s="12" t="n">
+      <c r="P5" s="13" t="n">
         <v>2822407498</v>
       </c>
-      <c r="Q5" s="12" t="n">
+      <c r="Q5" s="13" t="n">
         <v>3222215366</v>
       </c>
-      <c r="R5" s="12" t="n">
+      <c r="R5" s="13" t="n">
         <v>3101955830</v>
       </c>
-      <c r="S5" s="12" t="n">
+      <c r="S5" s="13" t="n">
         <v>2739625620</v>
       </c>
-      <c r="T5" s="12" t="n">
+      <c r="T5" s="13" t="n">
         <v>2484196797</v>
       </c>
-      <c r="U5" s="12" t="n">
+      <c r="U5" s="13" t="n">
         <v>3324921213</v>
       </c>
-      <c r="V5" s="12" t="n">
+      <c r="V5" s="13" t="n">
         <v>3610376509.8149</v>
       </c>
-      <c r="W5" s="12" t="n">
+      <c r="W5" s="13" t="n">
         <v>3538458971.9115</v>
       </c>
-      <c r="X5" s="12" t="n">
+      <c r="X5" s="13" t="n">
         <v>4250248447.6438</v>
       </c>
-      <c r="Y5" s="12" t="n">
+      <c r="Y5" s="13" t="n">
         <v>5291063863.7842</v>
       </c>
-      <c r="Z5" s="12" t="n">
+      <c r="Z5" s="13" t="n">
         <v>6062492553.5167</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="13" t="n">
         <v>6960183526.5496</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="13" t="n">
         <v>7906727651.4435</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="13" t="n">
         <v>9104816947.8869</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="13" t="n">
         <v>9866294508.0747</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="13" t="n">
         <v>9648130192.394</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="13" t="n">
         <v>9913829846.3568</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="13" t="n">
         <v>9725526908.1361</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="13" t="n">
         <v>9853576032.407</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="13" t="n">
         <v>8488731839.7971</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="13" t="n">
         <v>9754617236.7375</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="13" t="n">
         <v>10047514819.549</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="13" t="n">
         <v>11039011775.4139</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="13" t="n">
         <v>11445018953.4458</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="13" t="n">
         <v>12060989736.8789</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="13" t="n">
         <v>13460814522.7468</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="13" t="n">
         <v>14276776578.0542</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="13" t="n">
         <v>13613027497.8496</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="13" t="n">
         <v>15093790171.7043</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="13" t="n">
         <v>5822002859.7227</v>
       </c>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3766,106 +3768,106 @@
       <c r="K6" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="13" t="n">
         <v>1775040600</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="13" t="n">
         <v>623383398</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="13" t="n">
         <v>566195616</v>
       </c>
-      <c r="O6" s="12" t="n">
+      <c r="O6" s="13" t="n">
         <v>558743012</v>
       </c>
-      <c r="P6" s="12" t="n">
+      <c r="P6" s="13" t="n">
         <v>610454246</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="13" t="n">
         <v>869536416</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="13" t="n">
         <v>922096516</v>
       </c>
-      <c r="S6" s="12" t="n">
+      <c r="S6" s="13" t="n">
         <v>748717777</v>
       </c>
-      <c r="T6" s="12" t="n">
+      <c r="T6" s="13" t="n">
         <v>939176635</v>
       </c>
-      <c r="U6" s="12" t="n">
+      <c r="U6" s="13" t="n">
         <v>10237860</v>
       </c>
-      <c r="V6" s="12" t="n">
+      <c r="V6" s="13" t="n">
         <v>776856</v>
       </c>
-      <c r="W6" s="12" t="n">
+      <c r="W6" s="13" t="n">
         <v>120529280</v>
       </c>
-      <c r="X6" s="12" t="n">
+      <c r="X6" s="13" t="n">
         <v>3626925</v>
       </c>
-      <c r="Y6" s="12" t="n">
+      <c r="Y6" s="13" t="n">
         <v>261760607.6001</v>
       </c>
-      <c r="Z6" s="12" t="n">
+      <c r="Z6" s="13" t="n">
         <v>359924838.5707</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="13" t="n">
         <v>57078589.5902</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="13" t="n">
         <v>109878598.064</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="13" t="n">
         <v>57648423.2075</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="13" t="n">
         <v>23915803.4465</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="13" t="n">
         <v>231731474.2134</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="13" t="n">
         <v>195545001.035</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="13" t="n">
         <v>267855260.2721</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="13" t="n">
         <v>130437405.4545</v>
       </c>
-      <c r="AI6" s="12" t="n">
+      <c r="AI6" s="13" t="n">
         <v>81465539.2102</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="13" t="n">
         <v>18019319.2173</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="13" t="n">
         <v>81658740.4724</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="13" t="n">
         <v>78423426.2721</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="13" t="n">
         <v>33824093.8633</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="13" t="n">
         <v>16855374.0774</v>
       </c>
-      <c r="AO6" s="12" t="n">
+      <c r="AO6" s="13" t="n">
         <v>24440585.2982</v>
       </c>
-      <c r="AP6" s="12" t="n">
+      <c r="AP6" s="13" t="n">
         <v>53110025.8218</v>
       </c>
-      <c r="AQ6" s="12" t="n">
+      <c r="AQ6" s="13" t="n">
         <v>21190681.0549</v>
       </c>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3874,110 +3876,110 @@
       <c r="K7" t="s">
         <v>542</v>
       </c>
-      <c r="L7" s="12" t="str">
+      <c r="L7" s="13" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="12" t="str">
+      <c r="M7" s="13" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="12" t="str">
+      <c r="N7" s="13" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="12" t="str">
+      <c r="O7" s="13" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="12" t="str">
+      <c r="P7" s="13" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="12" t="str">
+      <c r="Q7" s="13" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="12" t="str">
+      <c r="R7" s="13" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="12" t="str">
+      <c r="S7" s="13" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="12" t="str">
+      <c r="T7" s="13" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="12" t="str">
+      <c r="U7" s="13" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="12" t="str">
+      <c r="V7" s="13" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="12" t="str">
+      <c r="W7" s="13" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="12" t="str">
+      <c r="X7" s="13" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="12" t="str">
+      <c r="Y7" s="13" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="12" t="str">
+      <c r="Z7" s="13" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="12" t="str">
+      <c r="AA7" s="13" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="12" t="str">
+      <c r="AB7" s="13" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="12" t="str">
+      <c r="AC7" s="13" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="12" t="str">
+      <c r="AD7" s="13" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="12" t="str">
+      <c r="AE7" s="13" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="12" t="str">
+      <c r="AF7" s="13" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="12" t="str">
+      <c r="AG7" s="13" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="12" t="str">
+      <c r="AH7" s="13" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="12" t="str">
+      <c r="AI7" s="13" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="12" t="str">
+      <c r="AJ7" s="13" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="12" t="str">
+      <c r="AK7" s="13" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="12" t="str">
+      <c r="AL7" s="13" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="12" t="str">
+      <c r="AM7" s="13" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="12" t="str">
+      <c r="AN7" s="13" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="12" t="str">
+      <c r="AO7" s="13" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="12" t="str">
+      <c r="AP7" s="13" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="12" t="str">
+      <c r="AQ7" s="13" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="12" t="str">
+      <c r="AR7" s="13" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="12" t="str">
+      <c r="AS7" s="13" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4096,106 +4098,106 @@
       <c r="K11" t="s">
         <v>545</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="L11" s="13" t="n">
         <v>5945164047.80464</v>
       </c>
-      <c r="M11" s="12" t="n">
+      <c r="M11" s="13" t="n">
         <v>3582401440.61771</v>
       </c>
-      <c r="N11" s="12" t="n">
+      <c r="N11" s="13" t="n">
         <v>4190846036.72022</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="13" t="n">
         <v>5369670061.6802</v>
       </c>
-      <c r="P11" s="12" t="n">
+      <c r="P11" s="13" t="n">
         <v>5111039495.36107</v>
       </c>
-      <c r="Q11" s="12" t="n">
+      <c r="Q11" s="13" t="n">
         <v>5997326770.65347</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="13" t="n">
         <v>5975935066.08665</v>
       </c>
-      <c r="S11" s="12" t="n">
+      <c r="S11" s="13" t="n">
         <v>8453491630.6572</v>
       </c>
-      <c r="T11" s="12" t="n">
+      <c r="T11" s="13" t="n">
         <v>8048796298.57112</v>
       </c>
-      <c r="U11" s="12" t="n">
+      <c r="U11" s="13" t="n">
         <v>9952975399.15967</v>
       </c>
-      <c r="V11" s="12" t="n">
+      <c r="V11" s="13" t="n">
         <v>10797005642.136</v>
       </c>
-      <c r="W11" s="12" t="n">
+      <c r="W11" s="13" t="n">
         <v>11171315075.2349</v>
       </c>
-      <c r="X11" s="12" t="n">
+      <c r="X11" s="13" t="n">
         <v>13212584340.4744</v>
       </c>
-      <c r="Y11" s="12" t="n">
+      <c r="Y11" s="13" t="n">
         <v>14588002349.1914</v>
       </c>
-      <c r="Z11" s="12" t="n">
+      <c r="Z11" s="13" t="n">
         <v>16297464516.3529</v>
       </c>
-      <c r="AA11" s="12" t="n">
+      <c r="AA11" s="13" t="n">
         <v>17524727261.2845</v>
       </c>
-      <c r="AB11" s="12" t="n">
+      <c r="AB11" s="13" t="n">
         <v>16824482648.2703</v>
       </c>
-      <c r="AC11" s="12" t="n">
+      <c r="AC11" s="13" t="n">
         <v>20333234834.4217</v>
       </c>
-      <c r="AD11" s="12" t="n">
+      <c r="AD11" s="13" t="n">
         <v>20266126864.1253</v>
       </c>
-      <c r="AE11" s="12" t="n">
+      <c r="AE11" s="13" t="n">
         <v>18586135530.5528</v>
       </c>
-      <c r="AF11" s="12" t="n">
+      <c r="AF11" s="13" t="n">
         <v>19931173314.2818</v>
       </c>
-      <c r="AG11" s="12" t="n">
+      <c r="AG11" s="13" t="n">
         <v>18037263872.4613</v>
       </c>
-      <c r="AH11" s="12" t="n">
+      <c r="AH11" s="13" t="n">
         <v>16550889588.1422</v>
       </c>
-      <c r="AI11" s="12" t="n">
+      <c r="AI11" s="13" t="n">
         <v>13345527053.059</v>
       </c>
-      <c r="AJ11" s="12" t="n">
+      <c r="AJ11" s="13" t="n">
         <v>12687818433.4046</v>
       </c>
-      <c r="AK11" s="12" t="n">
+      <c r="AK11" s="13" t="n">
         <v>11943798023.9311</v>
       </c>
-      <c r="AL11" s="12" t="n">
+      <c r="AL11" s="13" t="n">
         <v>12318870051.2275</v>
       </c>
-      <c r="AM11" s="12" t="n">
+      <c r="AM11" s="13" t="n">
         <v>13110449174.0131</v>
       </c>
-      <c r="AN11" s="12" t="n">
+      <c r="AN11" s="13" t="n">
         <v>12848748937.4017</v>
       </c>
-      <c r="AO11" s="12" t="n">
+      <c r="AO11" s="13" t="n">
         <v>14007370309.9292</v>
       </c>
-      <c r="AP11" s="12" t="n">
+      <c r="AP11" s="13" t="n">
         <v>11941362723.53</v>
       </c>
-      <c r="AQ11" s="12" t="n">
+      <c r="AQ11" s="13" t="n">
         <v>10194165664.7834</v>
       </c>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="12"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -4204,106 +4206,106 @@
       <c r="K12" t="s">
         <v>546</v>
       </c>
-      <c r="L12" s="12" t="n">
+      <c r="L12" s="13" t="n">
         <v>15135171695.8857</v>
       </c>
-      <c r="M12" s="12" t="n">
+      <c r="M12" s="13" t="n">
         <v>15668381132.6761</v>
       </c>
-      <c r="N12" s="12" t="n">
+      <c r="N12" s="13" t="n">
         <v>15827760837.8483</v>
       </c>
-      <c r="O12" s="12" t="n">
+      <c r="O12" s="13" t="n">
         <v>12736612747.37</v>
       </c>
-      <c r="P12" s="12" t="n">
+      <c r="P12" s="13" t="n">
         <v>11579907264.8186</v>
       </c>
-      <c r="Q12" s="12" t="n">
+      <c r="Q12" s="13" t="n">
         <v>11264530821.286</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="13" t="n">
         <v>10763435401.2389</v>
       </c>
-      <c r="S12" s="12" t="n">
+      <c r="S12" s="13" t="n">
         <v>10531354910.4751</v>
       </c>
-      <c r="T12" s="12" t="n">
+      <c r="T12" s="13" t="n">
         <v>9473718522.55992</v>
       </c>
-      <c r="U12" s="12" t="n">
+      <c r="U12" s="13" t="n">
         <v>9231113026.83785</v>
       </c>
-      <c r="V12" s="12" t="n">
+      <c r="V12" s="13" t="n">
         <v>10466935544.4798</v>
       </c>
-      <c r="W12" s="12" t="n">
+      <c r="W12" s="13" t="n">
         <v>11293482421.7291</v>
       </c>
-      <c r="X12" s="12" t="n">
+      <c r="X12" s="13" t="n">
         <v>12543349185.226</v>
       </c>
-      <c r="Y12" s="12" t="n">
+      <c r="Y12" s="13" t="n">
         <v>16578690012.6569</v>
       </c>
-      <c r="Z12" s="12" t="n">
+      <c r="Z12" s="13" t="n">
         <v>20461761444.5993</v>
       </c>
-      <c r="AA12" s="12" t="n">
+      <c r="AA12" s="13" t="n">
         <v>23022473508.0509</v>
       </c>
-      <c r="AB12" s="12" t="n">
+      <c r="AB12" s="13" t="n">
         <v>24109049829.7204</v>
       </c>
-      <c r="AC12" s="12" t="n">
+      <c r="AC12" s="13" t="n">
         <v>26226669250.9172</v>
       </c>
-      <c r="AD12" s="12" t="n">
+      <c r="AD12" s="13" t="n">
         <v>28864622876.0311</v>
       </c>
-      <c r="AE12" s="12" t="n">
+      <c r="AE12" s="13" t="n">
         <v>27100314629.8921</v>
       </c>
-      <c r="AF12" s="12" t="n">
+      <c r="AF12" s="13" t="n">
         <v>25900721612.6273</v>
       </c>
-      <c r="AG12" s="12" t="n">
+      <c r="AG12" s="13" t="n">
         <v>23800878002.0599</v>
       </c>
-      <c r="AH12" s="12" t="n">
+      <c r="AH12" s="13" t="n">
         <v>20988221150.7416</v>
       </c>
-      <c r="AI12" s="12" t="n">
+      <c r="AI12" s="13" t="n">
         <v>16893156727.6736</v>
       </c>
-      <c r="AJ12" s="12" t="n">
+      <c r="AJ12" s="13" t="n">
         <v>15244823286.958</v>
       </c>
-      <c r="AK12" s="12" t="n">
+      <c r="AK12" s="13" t="n">
         <v>13849037192.8061</v>
       </c>
-      <c r="AL12" s="12" t="n">
+      <c r="AL12" s="13" t="n">
         <v>15609301642.9277</v>
       </c>
-      <c r="AM12" s="12" t="n">
+      <c r="AM12" s="13" t="n">
         <v>16442329852.1885</v>
       </c>
-      <c r="AN12" s="12" t="n">
+      <c r="AN12" s="13" t="n">
         <v>18610702025.1175</v>
       </c>
-      <c r="AO12" s="12" t="n">
+      <c r="AO12" s="13" t="n">
         <v>18875109228.3327</v>
       </c>
-      <c r="AP12" s="12" t="n">
+      <c r="AP12" s="13" t="n">
         <v>19657986659.4733</v>
       </c>
-      <c r="AQ12" s="12" t="n">
+      <c r="AQ12" s="13" t="n">
         <v>15056626476.3349</v>
       </c>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4312,110 +4314,110 @@
       <c r="K13" t="s">
         <v>547</v>
       </c>
-      <c r="L13" s="12" t="n">
+      <c r="L13" s="13" t="n">
         <v>10417612918.0234</v>
       </c>
-      <c r="M13" s="12" t="n">
+      <c r="M13" s="13" t="n">
         <v>11905749608.5831</v>
       </c>
-      <c r="N13" s="12" t="n">
+      <c r="N13" s="13" t="n">
         <v>10430086674.7019</v>
       </c>
-      <c r="O13" s="12" t="n">
+      <c r="O13" s="13" t="n">
         <v>9383571019.62298</v>
       </c>
-      <c r="P13" s="12" t="n">
+      <c r="P13" s="13" t="n">
         <v>8751170066.76055</v>
       </c>
-      <c r="Q13" s="12" t="n">
+      <c r="Q13" s="13" t="n">
         <v>8332440816.94983</v>
       </c>
-      <c r="R13" s="12" t="n">
+      <c r="R13" s="13" t="n">
         <v>7622583706.29312</v>
       </c>
-      <c r="S13" s="12" t="n">
+      <c r="S13" s="13" t="n">
         <v>6271126226.36321</v>
       </c>
-      <c r="T13" s="12" t="n">
+      <c r="T13" s="13" t="n">
         <v>5950025804.21092</v>
       </c>
-      <c r="U13" s="12" t="n">
+      <c r="U13" s="13" t="n">
         <v>7595428766.06835</v>
       </c>
-      <c r="V13" s="12" t="n">
+      <c r="V13" s="13" t="n">
         <v>6428900999.99245</v>
       </c>
-      <c r="W13" s="12" t="n">
+      <c r="W13" s="13" t="n">
         <v>7077772865.83481</v>
       </c>
-      <c r="X13" s="12" t="n">
+      <c r="X13" s="13" t="n">
         <v>7709575545.74632</v>
       </c>
-      <c r="Y13" s="12" t="n">
+      <c r="Y13" s="13" t="n">
         <v>8347751136.25219</v>
       </c>
-      <c r="Z13" s="12" t="n">
+      <c r="Z13" s="13" t="n">
         <v>9515703646.82228</v>
       </c>
-      <c r="AA13" s="12" t="n">
+      <c r="AA13" s="13" t="n">
         <v>10292519503.1308</v>
       </c>
-      <c r="AB13" s="12" t="n">
+      <c r="AB13" s="13" t="n">
         <v>11057366265.8133</v>
       </c>
-      <c r="AC13" s="12" t="n">
+      <c r="AC13" s="13" t="n">
         <v>12352320272.2394</v>
       </c>
-      <c r="AD13" s="12" t="n">
+      <c r="AD13" s="13" t="n">
         <v>13603966924.1329</v>
       </c>
-      <c r="AE13" s="12" t="n">
+      <c r="AE13" s="13" t="n">
         <v>14310522245.0424</v>
       </c>
-      <c r="AF13" s="12" t="n">
+      <c r="AF13" s="13" t="n">
         <v>14361705258.2986</v>
       </c>
-      <c r="AG13" s="12" t="n">
+      <c r="AG13" s="13" t="n">
         <v>12566559515.7537</v>
       </c>
-      <c r="AH13" s="12" t="n">
+      <c r="AH13" s="13" t="n">
         <v>12374758559.7007</v>
       </c>
-      <c r="AI13" s="12" t="n">
+      <c r="AI13" s="13" t="n">
         <v>10005539166.4836</v>
       </c>
-      <c r="AJ13" s="12" t="n">
+      <c r="AJ13" s="13" t="n">
         <v>9775309226.06989</v>
       </c>
-      <c r="AK13" s="12" t="n">
+      <c r="AK13" s="13" t="n">
         <v>9573810950.70057</v>
       </c>
-      <c r="AL13" s="12" t="n">
+      <c r="AL13" s="13" t="n">
         <v>10360864468.2637</v>
       </c>
-      <c r="AM13" s="12" t="n">
+      <c r="AM13" s="13" t="n">
         <v>10451962211.9326</v>
       </c>
-      <c r="AN13" s="12" t="n">
+      <c r="AN13" s="13" t="n">
         <v>12967560958.948</v>
       </c>
-      <c r="AO13" s="12" t="n">
+      <c r="AO13" s="13" t="n">
         <v>13529283156.1133</v>
       </c>
-      <c r="AP13" s="12" t="n">
+      <c r="AP13" s="13" t="n">
         <v>13744728024.2109</v>
       </c>
-      <c r="AQ13" s="12" t="n">
+      <c r="AQ13" s="13" t="n">
         <v>13211766991.6732</v>
       </c>
-      <c r="AR13" s="12" t="n">
+      <c r="AR13" s="13" t="n">
         <v>38494033694.1737</v>
       </c>
-      <c r="AS13" s="12" t="n">
+      <c r="AS13" s="13" t="n">
         <v>18191363810.6743</v>
       </c>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -4424,110 +4426,110 @@
       <c r="K14" t="s">
         <v>548</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="L14" s="13" t="n">
         <v>4133323341.21714</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="13" t="n">
         <v>4722986581.90517</v>
       </c>
-      <c r="N14" s="12" t="n">
+      <c r="N14" s="13" t="n">
         <v>4785592404.13307</v>
       </c>
-      <c r="O14" s="12" t="n">
+      <c r="O14" s="13" t="n">
         <v>4857674963.92071</v>
       </c>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="13" t="n">
         <v>5052968098.6655</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="13" t="n">
         <v>5649082290.95446</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="13" t="n">
         <v>5337924267.1056</v>
       </c>
-      <c r="S14" s="12" t="n">
+      <c r="S14" s="13" t="n">
         <v>4632130157.90694</v>
       </c>
-      <c r="T14" s="12" t="n">
+      <c r="T14" s="13" t="n">
         <v>4148453820.40526</v>
       </c>
-      <c r="U14" s="12" t="n">
+      <c r="U14" s="13" t="n">
         <v>5484051454.5329</v>
       </c>
-      <c r="V14" s="12" t="n">
+      <c r="V14" s="13" t="n">
         <v>5833393817.88867</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="13" t="n">
         <v>5581838138.31319</v>
       </c>
-      <c r="X14" s="12" t="n">
+      <c r="X14" s="13" t="n">
         <v>6600490652.48166</v>
       </c>
-      <c r="Y14" s="12" t="n">
+      <c r="Y14" s="13" t="n">
         <v>8062725952.13381</v>
       </c>
-      <c r="Z14" s="12" t="n">
+      <c r="Z14" s="13" t="n">
         <v>9017832353.6671</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="13" t="n">
         <v>10048101703.6343</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="13" t="n">
         <v>11054670951.8708</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="13" t="n">
         <v>12389989173.9485</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="13" t="n">
         <v>13151926187.0279</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="13" t="n">
         <v>12731730439.8581</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="13" t="n">
         <v>12969546977.5746</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="13" t="n">
         <v>12471849317.5277</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="13" t="n">
         <v>12408608295.2426</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="13" t="n">
         <v>10497751154.9682</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="13" t="n">
         <v>11834286598.0423</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="13" t="n">
         <v>12051467205.4639</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="13" t="n">
         <v>13131898296.2457</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="13" t="n">
         <v>13376067169.6173</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="13" t="n">
         <v>13772582856.4433</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="13" t="n">
         <v>15075777064.6189</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="13" t="n">
         <v>15779133539.1918</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="13" t="n">
         <v>14556241432.8139</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="13" t="n">
         <v>15093790171.7043</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="13" t="n">
         <v>5553016892.67131</v>
       </c>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="12"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4536,147 +4538,147 @@
       <c r="K15" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="12" t="n">
+      <c r="L15" s="13" t="n">
         <v>3527949224.40387</v>
       </c>
-      <c r="M15" s="12" t="n">
+      <c r="M15" s="13" t="n">
         <v>1196322331.21893</v>
       </c>
-      <c r="N15" s="12" t="n">
+      <c r="N15" s="13" t="n">
         <v>1060080491.47524</v>
       </c>
-      <c r="O15" s="12" t="n">
+      <c r="O15" s="13" t="n">
         <v>1022116611.75815</v>
       </c>
-      <c r="P15" s="12" t="n">
+      <c r="P15" s="13" t="n">
         <v>1092898822.34181</v>
       </c>
-      <c r="Q15" s="12" t="n">
+      <c r="Q15" s="13" t="n">
         <v>1524442723.72253</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="R15" s="13" t="n">
         <v>1586767071.84768</v>
       </c>
-      <c r="S15" s="12" t="n">
+      <c r="S15" s="13" t="n">
         <v>1265924135.50387</v>
       </c>
-      <c r="T15" s="12" t="n">
+      <c r="T15" s="13" t="n">
         <v>1568366445.12472</v>
       </c>
-      <c r="U15" s="12" t="n">
+      <c r="U15" s="13" t="n">
         <v>16886099.6780269</v>
       </c>
-      <c r="V15" s="12" t="n">
+      <c r="V15" s="13" t="n">
         <v>1255189.58354348</v>
       </c>
-      <c r="W15" s="12" t="n">
+      <c r="W15" s="13" t="n">
         <v>190132183.876641</v>
       </c>
-      <c r="X15" s="12" t="n">
+      <c r="X15" s="13" t="n">
         <v>5632490.63075908</v>
       </c>
-      <c r="Y15" s="12" t="n">
+      <c r="Y15" s="13" t="n">
         <v>398880848.630354</v>
       </c>
-      <c r="Z15" s="12" t="n">
+      <c r="Z15" s="13" t="n">
         <v>535380757.254455</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="13" t="n">
         <v>82401774.4811749</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="13" t="n">
         <v>153625089.897795</v>
       </c>
-      <c r="AC15" s="12" t="n">
+      <c r="AC15" s="13" t="n">
         <v>78448951.0908728</v>
       </c>
-      <c r="AD15" s="12" t="n">
+      <c r="AD15" s="13" t="n">
         <v>31880143.1859158</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="13" t="n">
         <v>305794242.54057</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="13" t="n">
         <v>255817390.096251</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="13" t="n">
         <v>343493003.163263</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="13" t="n">
         <v>164259824.657511</v>
       </c>
-      <c r="AI15" s="12" t="n">
+      <c r="AI15" s="13" t="n">
         <v>100745903.448686</v>
       </c>
-      <c r="AJ15" s="12" t="n">
+      <c r="AJ15" s="13" t="n">
         <v>21861010.3035125</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="13" t="n">
         <v>97945377.5900763</v>
       </c>
-      <c r="AL15" s="12" t="n">
+      <c r="AL15" s="13" t="n">
         <v>93291725.6363493</v>
       </c>
-      <c r="AM15" s="12" t="n">
+      <c r="AM15" s="13" t="n">
         <v>39531026.8429677</v>
       </c>
-      <c r="AN15" s="12" t="n">
+      <c r="AN15" s="13" t="n">
         <v>19247345.4601754</v>
       </c>
-      <c r="AO15" s="12" t="n">
+      <c r="AO15" s="13" t="n">
         <v>27372846.9151566</v>
       </c>
-      <c r="AP15" s="12" t="n">
+      <c r="AP15" s="13" t="n">
         <v>58698837.5933752</v>
       </c>
-      <c r="AQ15" s="12" t="n">
+      <c r="AQ15" s="13" t="n">
         <v>22658932.3800019</v>
       </c>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="12"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
@@ -1697,8 +1697,8 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1747,8 +1747,8 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3365,7 +3365,7 @@
         <v>7081760358.5977</v>
       </c>
       <c r="X2" s="13" t="n">
-        <v>8507968428.2789</v>
+        <v>8598655926.2789</v>
       </c>
       <c r="Y2" s="13" t="n">
         <v>9573195533.7237</v>
@@ -3424,8 +3424,12 @@
       <c r="AQ2" s="13" t="n">
         <v>9533605096.6767</v>
       </c>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
+      <c r="AR2" s="13" t="n">
+        <v>10668488366.195</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>5971491031.3942</v>
+      </c>
       <c r="AT2" s="13"/>
       <c r="AU2" s="13"/>
     </row>
@@ -3470,31 +3474,31 @@
         <v>6478146238.5843</v>
       </c>
       <c r="W3" s="13" t="n">
-        <v>7159205123.6671</v>
+        <v>7110303102.6671</v>
       </c>
       <c r="X3" s="13" t="n">
-        <v>8077028392.2327</v>
+        <v>8055672907.2327</v>
       </c>
       <c r="Y3" s="13" t="n">
-        <v>10879559612.4204</v>
+        <v>10820311965.4204</v>
       </c>
       <c r="Z3" s="13" t="n">
-        <v>13755997175.8927</v>
+        <v>13743039872.4552</v>
       </c>
       <c r="AA3" s="13" t="n">
-        <v>15947354592.6793</v>
+        <v>15940549566.0074</v>
       </c>
       <c r="AB3" s="13" t="n">
-        <v>17243723650.2657</v>
+        <v>17239003493.1719</v>
       </c>
       <c r="AC3" s="13" t="n">
-        <v>19272738606.1368</v>
+        <v>19260008221.5118</v>
       </c>
       <c r="AD3" s="13" t="n">
-        <v>21653624428.0572</v>
+        <v>21641517153.2564</v>
       </c>
       <c r="AE3" s="13" t="n">
-        <v>20536671353.4467</v>
+        <v>20525604708.5632</v>
       </c>
       <c r="AF3" s="13" t="n">
         <v>19798328145.8811</v>
@@ -3512,7 +3516,7 @@
         <v>12565811616.4415</v>
       </c>
       <c r="AK3" s="13" t="n">
-        <v>11546179735.5361</v>
+        <v>11546042235.5361</v>
       </c>
       <c r="AL3" s="13" t="n">
         <v>13121580806.9065</v>
@@ -3527,13 +3531,17 @@
         <v>16853150808.0905</v>
       </c>
       <c r="AP3" s="13" t="n">
-        <v>17786317785.7385</v>
+        <v>17788699302.2479</v>
       </c>
       <c r="AQ3" s="13" t="n">
-        <v>14080988639.3575</v>
-      </c>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
+        <v>14110525798.6946</v>
+      </c>
+      <c r="AR3" s="13" t="n">
+        <v>15055006086.3303</v>
+      </c>
+      <c r="AS3" s="13" t="n">
+        <v>6701786811.9439</v>
+      </c>
       <c r="AT3" s="13"/>
       <c r="AU3" s="13"/>
     </row>
@@ -3575,40 +3583,40 @@
         <v>4605026491</v>
       </c>
       <c r="V4" s="13" t="n">
-        <v>3978944998.2136</v>
+        <v>3979274256.2136</v>
       </c>
       <c r="W4" s="13" t="n">
-        <v>4486767311.7145</v>
+        <v>4536619509.7145</v>
       </c>
       <c r="X4" s="13" t="n">
-        <v>4964420559.096</v>
+        <v>4907353830.096</v>
       </c>
       <c r="Y4" s="13" t="n">
-        <v>5478108104.2694</v>
+        <v>5546496088.2694</v>
       </c>
       <c r="Z4" s="13" t="n">
-        <v>6397200595.2043</v>
+        <v>6411264751.6418</v>
       </c>
       <c r="AA4" s="13" t="n">
-        <v>7129488415.3562</v>
+        <v>7136293442.0281</v>
       </c>
       <c r="AB4" s="13" t="n">
-        <v>7908655444.0817</v>
+        <v>7913375601.1755</v>
       </c>
       <c r="AC4" s="13" t="n">
-        <v>9077135853.9106</v>
+        <v>9089866238.5356</v>
       </c>
       <c r="AD4" s="13" t="n">
-        <v>10205405827.474</v>
+        <v>10217513102.2748</v>
       </c>
       <c r="AE4" s="13" t="n">
-        <v>10844541705.7431</v>
+        <v>10855608350.6266</v>
       </c>
       <c r="AF4" s="13" t="n">
         <v>10977985775.4851</v>
       </c>
       <c r="AG4" s="13" t="n">
-        <v>9799381759.8001</v>
+        <v>9799333336.5306</v>
       </c>
       <c r="AH4" s="13" t="n">
         <v>9826696229.7005</v>
@@ -3635,16 +3643,16 @@
         <v>12079985688.9346</v>
       </c>
       <c r="AP4" s="13" t="n">
-        <v>12436070120.098</v>
+        <v>12433688603.5886</v>
       </c>
       <c r="AQ4" s="13" t="n">
-        <v>12355672182.4764</v>
+        <v>12326135023.1393</v>
       </c>
       <c r="AR4" s="13" t="n">
-        <v>38494033694.1737</v>
+        <v>13252228945.3628</v>
       </c>
       <c r="AS4" s="13" t="n">
-        <v>19072546360.8401</v>
+        <v>6630127812.5056</v>
       </c>
       <c r="AT4" s="13"/>
       <c r="AU4" s="13"/>
@@ -3687,19 +3695,19 @@
         <v>3324921213</v>
       </c>
       <c r="V5" s="13" t="n">
-        <v>3610376509.8149</v>
+        <v>3610047251.8149</v>
       </c>
       <c r="W5" s="13" t="n">
-        <v>3538458971.9115</v>
+        <v>3537508794.9115</v>
       </c>
       <c r="X5" s="13" t="n">
-        <v>4250248447.6438</v>
+        <v>4237983163.6438</v>
       </c>
       <c r="Y5" s="13" t="n">
-        <v>5291063863.7842</v>
+        <v>5281923526.7842</v>
       </c>
       <c r="Z5" s="13" t="n">
-        <v>6062492553.5167</v>
+        <v>6061385700.5167</v>
       </c>
       <c r="AA5" s="13" t="n">
         <v>6960183526.5496</v>
@@ -3720,7 +3728,7 @@
         <v>9913829846.3568</v>
       </c>
       <c r="AG5" s="13" t="n">
-        <v>9725526908.1361</v>
+        <v>9725575331.4056</v>
       </c>
       <c r="AH5" s="13" t="n">
         <v>9853576032.407</v>
@@ -3753,10 +3761,10 @@
         <v>13613027497.8496</v>
       </c>
       <c r="AR5" s="13" t="n">
-        <v>15093790171.7043</v>
+        <v>14608978112.3296</v>
       </c>
       <c r="AS5" s="13" t="n">
-        <v>5822002859.7227</v>
+        <v>5589467378.0171</v>
       </c>
       <c r="AT5" s="13"/>
       <c r="AU5" s="13"/>
@@ -3864,8 +3872,12 @@
       <c r="AQ6" s="13" t="n">
         <v>21190681.0549</v>
       </c>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
+      <c r="AR6" s="13" t="n">
+        <v>3122355.6603</v>
+      </c>
+      <c r="AS6" s="13" t="n">
+        <v>1676186.702</v>
+      </c>
       <c r="AT6" s="13"/>
       <c r="AU6" s="13"/>
     </row>
@@ -4135,7 +4147,7 @@
         <v>11171315075.2349</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>13212584340.4744</v>
+        <v>13353418927.0214</v>
       </c>
       <c r="Y11" s="13" t="n">
         <v>14588002349.1914</v>
@@ -4194,8 +4206,12 @@
       <c r="AQ11" s="13" t="n">
         <v>10194165664.7834</v>
       </c>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
+      <c r="AR11" s="13" t="n">
+        <v>10668488366.195</v>
+      </c>
+      <c r="AS11" s="13" t="n">
+        <v>5695598468.55633</v>
+      </c>
       <c r="AT11" s="13"/>
       <c r="AU11" s="13"/>
     </row>
@@ -4240,31 +4256,31 @@
         <v>10466935544.4798</v>
       </c>
       <c r="W12" s="13" t="n">
-        <v>11293482421.7291</v>
+        <v>11216340601.5116</v>
       </c>
       <c r="X12" s="13" t="n">
-        <v>12543349185.226</v>
+        <v>12510184846.5154</v>
       </c>
       <c r="Y12" s="13" t="n">
-        <v>16578690012.6569</v>
+        <v>16488406176.8598</v>
       </c>
       <c r="Z12" s="13" t="n">
-        <v>20461761444.5993</v>
+        <v>20442487723.5805</v>
       </c>
       <c r="AA12" s="13" t="n">
-        <v>23022473508.0509</v>
+        <v>23012649399.2707</v>
       </c>
       <c r="AB12" s="13" t="n">
-        <v>24109049829.7204</v>
+        <v>24102450413.9047</v>
       </c>
       <c r="AC12" s="13" t="n">
-        <v>26226669250.9172</v>
+        <v>26209345527.8169</v>
       </c>
       <c r="AD12" s="13" t="n">
-        <v>28864622876.0311</v>
+        <v>28848483687.7699</v>
       </c>
       <c r="AE12" s="13" t="n">
-        <v>27100314629.8921</v>
+        <v>27085711018.9622</v>
       </c>
       <c r="AF12" s="13" t="n">
         <v>25900721612.6273</v>
@@ -4282,7 +4298,7 @@
         <v>15244823286.958</v>
       </c>
       <c r="AK12" s="13" t="n">
-        <v>13849037192.8061</v>
+        <v>13848872268.7657</v>
       </c>
       <c r="AL12" s="13" t="n">
         <v>15609301642.9277</v>
@@ -4297,13 +4313,17 @@
         <v>18875109228.3327</v>
       </c>
       <c r="AP12" s="13" t="n">
-        <v>19657986659.4733</v>
+        <v>19660618784.9269</v>
       </c>
       <c r="AQ12" s="13" t="n">
-        <v>15056626476.3349</v>
-      </c>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
+        <v>15088210194.4034</v>
+      </c>
+      <c r="AR12" s="13" t="n">
+        <v>15055006086.3303</v>
+      </c>
+      <c r="AS12" s="13" t="n">
+        <v>6392153400.55309</v>
+      </c>
       <c r="AT12" s="13"/>
       <c r="AU12" s="13"/>
     </row>
@@ -4345,40 +4365,40 @@
         <v>7595428766.06835</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>6428900999.99245</v>
+        <v>6429432992.03718</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>7077772865.83481</v>
+        <v>7156413568.54862</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>7709575545.74632</v>
+        <v>7620952864.98491</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>8347751136.25219</v>
+        <v>8451963367.97085</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>9515703646.82228</v>
+        <v>9536623788.79846</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>10292519503.1308</v>
+        <v>10302343611.911</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>11057366265.8133</v>
+        <v>11063965681.629</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>12352320272.2394</v>
+        <v>12369643995.3397</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>13603966924.1329</v>
+        <v>13620106112.3941</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>14310522245.0424</v>
+        <v>14325125855.9723</v>
       </c>
       <c r="AF13" s="13" t="n">
         <v>14361705258.2986</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>12566559515.7537</v>
+        <v>12566497418.5813</v>
       </c>
       <c r="AH13" s="13" t="n">
         <v>12374758559.7007</v>
@@ -4405,16 +4425,16 @@
         <v>13529283156.1133</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>13744728024.2109</v>
+        <v>13742095898.7572</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>13211766991.6732</v>
+        <v>13180183273.6047</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>38494033694.1737</v>
+        <v>13252228945.3628</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>18191363810.6743</v>
+        <v>6323805163.01688</v>
       </c>
       <c r="AT13" s="13"/>
       <c r="AU13" s="13"/>
@@ -4457,19 +4477,19 @@
         <v>5484051454.5329</v>
       </c>
       <c r="V14" s="13" t="n">
-        <v>5833393817.88867</v>
+        <v>5832861825.84395</v>
       </c>
       <c r="W14" s="13" t="n">
-        <v>5581838138.31319</v>
+        <v>5580339255.81693</v>
       </c>
       <c r="X14" s="13" t="n">
-        <v>6600490652.48166</v>
+        <v>6581443085.40663</v>
       </c>
       <c r="Y14" s="13" t="n">
-        <v>8062725952.13381</v>
+        <v>8048797556.21223</v>
       </c>
       <c r="Z14" s="13" t="n">
-        <v>9017832353.6671</v>
+        <v>9016185932.70971</v>
       </c>
       <c r="AA14" s="13" t="n">
         <v>10048101703.6343</v>
@@ -4490,7 +4510,7 @@
         <v>12969546977.5746</v>
       </c>
       <c r="AG14" s="13" t="n">
-        <v>12471849317.5277</v>
+        <v>12471911414.7</v>
       </c>
       <c r="AH14" s="13" t="n">
         <v>12408608295.2426</v>
@@ -4523,10 +4543,10 @@
         <v>14556241432.8139</v>
       </c>
       <c r="AR14" s="13" t="n">
-        <v>15093790171.7043</v>
+        <v>14608978112.3296</v>
       </c>
       <c r="AS14" s="13" t="n">
-        <v>5553016892.67131</v>
+        <v>5331224927.05929</v>
       </c>
       <c r="AT14" s="13"/>
       <c r="AU14" s="13"/>
@@ -4634,8 +4654,12 @@
       <c r="AQ15" s="13" t="n">
         <v>22658932.3800019</v>
       </c>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
+      <c r="AR15" s="13" t="n">
+        <v>3122355.6603</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>1598744.15999863</v>
+      </c>
       <c r="AT15" s="13"/>
       <c r="AU15" s="13"/>
     </row>

--- a/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="550">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -1681,6 +1681,9 @@
   <si>
     <t xml:space="preserve">Small</t>
   </si>
+  <si>
+    <t xml:space="preserve">Firm Fixed-Price</t>
+  </si>
 </sst>
 </file>
 
@@ -1697,8 +1700,8 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1747,8 +1750,8 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3328,110 +3331,110 @@
       <c r="K2" t="s">
         <v>545</v>
       </c>
-      <c r="L2" s="13" t="n">
+      <c r="L2" s="12" t="n">
         <v>2991230000</v>
       </c>
-      <c r="M2" s="13" t="n">
+      <c r="M2" s="12" t="n">
         <v>1866728995</v>
       </c>
-      <c r="N2" s="13" t="n">
+      <c r="N2" s="12" t="n">
         <v>2238357061</v>
       </c>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="12" t="n">
         <v>2935345722</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="12" t="n">
         <v>2854844106</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="12" t="n">
         <v>3420852712</v>
       </c>
-      <c r="R2" s="13" t="n">
+      <c r="R2" s="12" t="n">
         <v>3472714428</v>
       </c>
-      <c r="S2" s="13" t="n">
+      <c r="S2" s="12" t="n">
         <v>4999730461</v>
       </c>
-      <c r="T2" s="13" t="n">
+      <c r="T2" s="12" t="n">
         <v>4819818383</v>
       </c>
-      <c r="U2" s="13" t="n">
+      <c r="U2" s="12" t="n">
         <v>6034381572</v>
       </c>
-      <c r="V2" s="13" t="n">
+      <c r="V2" s="12" t="n">
         <v>6682431662.1941</v>
       </c>
-      <c r="W2" s="13" t="n">
+      <c r="W2" s="12" t="n">
         <v>7081760358.5977</v>
       </c>
-      <c r="X2" s="13" t="n">
+      <c r="X2" s="12" t="n">
         <v>8598655926.2789</v>
       </c>
-      <c r="Y2" s="13" t="n">
+      <c r="Y2" s="12" t="n">
         <v>9573195533.7237</v>
       </c>
-      <c r="Z2" s="13" t="n">
+      <c r="Z2" s="12" t="n">
         <v>10956430924.4908</v>
       </c>
-      <c r="AA2" s="13" t="n">
+      <c r="AA2" s="12" t="n">
         <v>12139140465.4225</v>
       </c>
-      <c r="AB2" s="13" t="n">
+      <c r="AB2" s="12" t="n">
         <v>12033519835.6852</v>
       </c>
-      <c r="AC2" s="13" t="n">
+      <c r="AC2" s="12" t="n">
         <v>14941932436.4759</v>
       </c>
-      <c r="AD2" s="13" t="n">
+      <c r="AD2" s="12" t="n">
         <v>15203216117.2469</v>
       </c>
-      <c r="AE2" s="13" t="n">
+      <c r="AE2" s="12" t="n">
         <v>14084609803.7756</v>
       </c>
-      <c r="AF2" s="13" t="n">
+      <c r="AF2" s="12" t="n">
         <v>15235247708.9364</v>
       </c>
-      <c r="AG2" s="13" t="n">
+      <c r="AG2" s="12" t="n">
         <v>14065427722.434</v>
       </c>
-      <c r="AH2" s="13" t="n">
+      <c r="AH2" s="12" t="n">
         <v>13142928286.5879</v>
       </c>
-      <c r="AI2" s="13" t="n">
+      <c r="AI2" s="12" t="n">
         <v>10791511319.1229</v>
       </c>
-      <c r="AJ2" s="13" t="n">
+      <c r="AJ2" s="12" t="n">
         <v>10458155746.1654</v>
       </c>
-      <c r="AK2" s="13" t="n">
+      <c r="AK2" s="12" t="n">
         <v>9957749177.0247</v>
       </c>
-      <c r="AL2" s="13" t="n">
+      <c r="AL2" s="12" t="n">
         <v>10355559302.0524</v>
       </c>
-      <c r="AM2" s="13" t="n">
+      <c r="AM2" s="12" t="n">
         <v>11217747143.6144</v>
       </c>
-      <c r="AN2" s="13" t="n">
+      <c r="AN2" s="12" t="n">
         <v>11251965639.3453</v>
       </c>
-      <c r="AO2" s="13" t="n">
+      <c r="AO2" s="12" t="n">
         <v>12506858710.1818</v>
       </c>
-      <c r="AP2" s="13" t="n">
+      <c r="AP2" s="12" t="n">
         <v>10804406161.9669</v>
       </c>
-      <c r="AQ2" s="13" t="n">
+      <c r="AQ2" s="12" t="n">
         <v>9533605096.6767</v>
       </c>
-      <c r="AR2" s="13" t="n">
+      <c r="AR2" s="12" t="n">
         <v>10668488366.195</v>
       </c>
-      <c r="AS2" s="13" t="n">
+      <c r="AS2" s="12" t="n">
         <v>5971491031.3942</v>
       </c>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3440,110 +3443,110 @@
       <c r="K3" t="s">
         <v>546</v>
       </c>
-      <c r="L3" s="13" t="n">
+      <c r="L3" s="12" t="n">
         <v>7615059781</v>
       </c>
-      <c r="M3" s="13" t="n">
+      <c r="M3" s="12" t="n">
         <v>8164529255</v>
       </c>
-      <c r="N3" s="13" t="n">
+      <c r="N3" s="12" t="n">
         <v>8453705987</v>
       </c>
-      <c r="O3" s="13" t="n">
+      <c r="O3" s="12" t="n">
         <v>6962506320</v>
       </c>
-      <c r="P3" s="13" t="n">
+      <c r="P3" s="12" t="n">
         <v>6468122587</v>
       </c>
-      <c r="Q3" s="13" t="n">
+      <c r="Q3" s="12" t="n">
         <v>6425246161</v>
       </c>
-      <c r="R3" s="13" t="n">
+      <c r="R3" s="12" t="n">
         <v>6254809833</v>
       </c>
-      <c r="S3" s="13" t="n">
+      <c r="S3" s="12" t="n">
         <v>6228661273</v>
       </c>
-      <c r="T3" s="13" t="n">
+      <c r="T3" s="12" t="n">
         <v>5673097069</v>
       </c>
-      <c r="U3" s="13" t="n">
+      <c r="U3" s="12" t="n">
         <v>5596724206</v>
       </c>
-      <c r="V3" s="13" t="n">
+      <c r="V3" s="12" t="n">
         <v>6478146238.5843</v>
       </c>
-      <c r="W3" s="13" t="n">
+      <c r="W3" s="12" t="n">
         <v>7110303102.6671</v>
       </c>
-      <c r="X3" s="13" t="n">
+      <c r="X3" s="12" t="n">
         <v>8055672907.2327</v>
       </c>
-      <c r="Y3" s="13" t="n">
+      <c r="Y3" s="12" t="n">
         <v>10820311965.4204</v>
       </c>
-      <c r="Z3" s="13" t="n">
+      <c r="Z3" s="12" t="n">
         <v>13743039872.4552</v>
       </c>
-      <c r="AA3" s="13" t="n">
+      <c r="AA3" s="12" t="n">
         <v>15940549566.0074</v>
       </c>
-      <c r="AB3" s="13" t="n">
+      <c r="AB3" s="12" t="n">
         <v>17239003493.1719</v>
       </c>
-      <c r="AC3" s="13" t="n">
+      <c r="AC3" s="12" t="n">
         <v>19260008221.5118</v>
       </c>
-      <c r="AD3" s="13" t="n">
+      <c r="AD3" s="12" t="n">
         <v>21641517153.2564</v>
       </c>
-      <c r="AE3" s="13" t="n">
+      <c r="AE3" s="12" t="n">
         <v>20525604708.5632</v>
       </c>
-      <c r="AF3" s="13" t="n">
+      <c r="AF3" s="12" t="n">
         <v>19798328145.8811</v>
       </c>
-      <c r="AG3" s="13" t="n">
+      <c r="AG3" s="12" t="n">
         <v>18559884228.3146</v>
       </c>
-      <c r="AH3" s="13" t="n">
+      <c r="AH3" s="12" t="n">
         <v>16666577586.553</v>
       </c>
-      <c r="AI3" s="13" t="n">
+      <c r="AI3" s="12" t="n">
         <v>13660209245.9601</v>
       </c>
-      <c r="AJ3" s="13" t="n">
+      <c r="AJ3" s="12" t="n">
         <v>12565811616.4415</v>
       </c>
-      <c r="AK3" s="13" t="n">
+      <c r="AK3" s="12" t="n">
         <v>11546042235.5361</v>
       </c>
-      <c r="AL3" s="13" t="n">
+      <c r="AL3" s="12" t="n">
         <v>13121580806.9065</v>
       </c>
-      <c r="AM3" s="13" t="n">
+      <c r="AM3" s="12" t="n">
         <v>14068617809.0185</v>
       </c>
-      <c r="AN3" s="13" t="n">
+      <c r="AN3" s="12" t="n">
         <v>16297849754.1615</v>
       </c>
-      <c r="AO3" s="13" t="n">
+      <c r="AO3" s="12" t="n">
         <v>16853150808.0905</v>
       </c>
-      <c r="AP3" s="13" t="n">
+      <c r="AP3" s="12" t="n">
         <v>17788699302.2479</v>
       </c>
-      <c r="AQ3" s="13" t="n">
+      <c r="AQ3" s="12" t="n">
         <v>14110525798.6946</v>
       </c>
-      <c r="AR3" s="13" t="n">
+      <c r="AR3" s="12" t="n">
         <v>15055006086.3303</v>
       </c>
-      <c r="AS3" s="13" t="n">
+      <c r="AS3" s="12" t="n">
         <v>6701786811.9439</v>
       </c>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3552,110 +3555,110 @@
       <c r="K4" t="s">
         <v>547</v>
       </c>
-      <c r="L4" s="13" t="n">
+      <c r="L4" s="12" t="n">
         <v>5241483000</v>
       </c>
-      <c r="M4" s="13" t="n">
+      <c r="M4" s="12" t="n">
         <v>6203885402</v>
       </c>
-      <c r="N4" s="13" t="n">
+      <c r="N4" s="12" t="n">
         <v>5570774481</v>
       </c>
-      <c r="O4" s="13" t="n">
+      <c r="O4" s="12" t="n">
         <v>5129556329</v>
       </c>
-      <c r="P4" s="13" t="n">
+      <c r="P4" s="12" t="n">
         <v>4888091025</v>
       </c>
-      <c r="Q4" s="13" t="n">
+      <c r="Q4" s="12" t="n">
         <v>4752793012</v>
       </c>
-      <c r="R4" s="13" t="n">
+      <c r="R4" s="12" t="n">
         <v>4429609111</v>
       </c>
-      <c r="S4" s="13" t="n">
+      <c r="S4" s="12" t="n">
         <v>3708992945</v>
       </c>
-      <c r="T4" s="13" t="n">
+      <c r="T4" s="12" t="n">
         <v>3563022679</v>
       </c>
-      <c r="U4" s="13" t="n">
+      <c r="U4" s="12" t="n">
         <v>4605026491</v>
       </c>
-      <c r="V4" s="13" t="n">
+      <c r="V4" s="12" t="n">
         <v>3979274256.2136</v>
       </c>
-      <c r="W4" s="13" t="n">
+      <c r="W4" s="12" t="n">
         <v>4536619509.7145</v>
       </c>
-      <c r="X4" s="13" t="n">
+      <c r="X4" s="12" t="n">
         <v>4907353830.096</v>
       </c>
-      <c r="Y4" s="13" t="n">
+      <c r="Y4" s="12" t="n">
         <v>5546496088.2694</v>
       </c>
-      <c r="Z4" s="13" t="n">
+      <c r="Z4" s="12" t="n">
         <v>6411264751.6418</v>
       </c>
-      <c r="AA4" s="13" t="n">
+      <c r="AA4" s="12" t="n">
         <v>7136293442.0281</v>
       </c>
-      <c r="AB4" s="13" t="n">
+      <c r="AB4" s="12" t="n">
         <v>7913375601.1755</v>
       </c>
-      <c r="AC4" s="13" t="n">
+      <c r="AC4" s="12" t="n">
         <v>9089866238.5356</v>
       </c>
-      <c r="AD4" s="13" t="n">
+      <c r="AD4" s="12" t="n">
         <v>10217513102.2748</v>
       </c>
-      <c r="AE4" s="13" t="n">
+      <c r="AE4" s="12" t="n">
         <v>10855608350.6266</v>
       </c>
-      <c r="AF4" s="13" t="n">
+      <c r="AF4" s="12" t="n">
         <v>10977985775.4851</v>
       </c>
-      <c r="AG4" s="13" t="n">
+      <c r="AG4" s="12" t="n">
         <v>9799333336.5306</v>
       </c>
-      <c r="AH4" s="13" t="n">
+      <c r="AH4" s="12" t="n">
         <v>9826696229.7005</v>
       </c>
-      <c r="AI4" s="13" t="n">
+      <c r="AI4" s="12" t="n">
         <v>8090717492.0668</v>
       </c>
-      <c r="AJ4" s="13" t="n">
+      <c r="AJ4" s="12" t="n">
         <v>8057469208.7341</v>
       </c>
-      <c r="AK4" s="13" t="n">
+      <c r="AK4" s="12" t="n">
         <v>7981850323.014</v>
       </c>
-      <c r="AL4" s="13" t="n">
+      <c r="AL4" s="12" t="n">
         <v>8709609402.1173</v>
       </c>
-      <c r="AM4" s="13" t="n">
+      <c r="AM4" s="12" t="n">
         <v>8943055092.3056</v>
       </c>
-      <c r="AN4" s="13" t="n">
+      <c r="AN4" s="12" t="n">
         <v>11356012250.4584</v>
       </c>
-      <c r="AO4" s="13" t="n">
+      <c r="AO4" s="12" t="n">
         <v>12079985688.9346</v>
       </c>
-      <c r="AP4" s="13" t="n">
+      <c r="AP4" s="12" t="n">
         <v>12433688603.5886</v>
       </c>
-      <c r="AQ4" s="13" t="n">
+      <c r="AQ4" s="12" t="n">
         <v>12326135023.1393</v>
       </c>
-      <c r="AR4" s="13" t="n">
+      <c r="AR4" s="12" t="n">
         <v>13252228945.3628</v>
       </c>
-      <c r="AS4" s="13" t="n">
+      <c r="AS4" s="12" t="n">
         <v>6630127812.5056</v>
       </c>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3664,110 +3667,110 @@
       <c r="K5" t="s">
         <v>548</v>
       </c>
-      <c r="L5" s="13" t="n">
+      <c r="L5" s="12" t="n">
         <v>2079626513</v>
       </c>
-      <c r="M5" s="13" t="n">
+      <c r="M5" s="12" t="n">
         <v>2461068683</v>
       </c>
-      <c r="N5" s="13" t="n">
+      <c r="N5" s="12" t="n">
         <v>2556014813</v>
       </c>
-      <c r="O5" s="13" t="n">
+      <c r="O5" s="12" t="n">
         <v>2655462116</v>
       </c>
-      <c r="P5" s="13" t="n">
+      <c r="P5" s="12" t="n">
         <v>2822407498</v>
       </c>
-      <c r="Q5" s="13" t="n">
+      <c r="Q5" s="12" t="n">
         <v>3222215366</v>
       </c>
-      <c r="R5" s="13" t="n">
+      <c r="R5" s="12" t="n">
         <v>3101955830</v>
       </c>
-      <c r="S5" s="13" t="n">
+      <c r="S5" s="12" t="n">
         <v>2739625620</v>
       </c>
-      <c r="T5" s="13" t="n">
+      <c r="T5" s="12" t="n">
         <v>2484196797</v>
       </c>
-      <c r="U5" s="13" t="n">
+      <c r="U5" s="12" t="n">
         <v>3324921213</v>
       </c>
-      <c r="V5" s="13" t="n">
+      <c r="V5" s="12" t="n">
         <v>3610047251.8149</v>
       </c>
-      <c r="W5" s="13" t="n">
+      <c r="W5" s="12" t="n">
         <v>3537508794.9115</v>
       </c>
-      <c r="X5" s="13" t="n">
+      <c r="X5" s="12" t="n">
         <v>4237983163.6438</v>
       </c>
-      <c r="Y5" s="13" t="n">
+      <c r="Y5" s="12" t="n">
         <v>5281923526.7842</v>
       </c>
-      <c r="Z5" s="13" t="n">
+      <c r="Z5" s="12" t="n">
         <v>6061385700.5167</v>
       </c>
-      <c r="AA5" s="13" t="n">
+      <c r="AA5" s="12" t="n">
         <v>6960183526.5496</v>
       </c>
-      <c r="AB5" s="13" t="n">
+      <c r="AB5" s="12" t="n">
         <v>7906727651.4435</v>
       </c>
-      <c r="AC5" s="13" t="n">
+      <c r="AC5" s="12" t="n">
         <v>9104816947.8869</v>
       </c>
-      <c r="AD5" s="13" t="n">
+      <c r="AD5" s="12" t="n">
         <v>9866294508.0747</v>
       </c>
-      <c r="AE5" s="13" t="n">
+      <c r="AE5" s="12" t="n">
         <v>9648130192.394</v>
       </c>
-      <c r="AF5" s="13" t="n">
+      <c r="AF5" s="12" t="n">
         <v>9913829846.3568</v>
       </c>
-      <c r="AG5" s="13" t="n">
+      <c r="AG5" s="12" t="n">
         <v>9725575331.4056</v>
       </c>
-      <c r="AH5" s="13" t="n">
+      <c r="AH5" s="12" t="n">
         <v>9853576032.407</v>
       </c>
-      <c r="AI5" s="13" t="n">
+      <c r="AI5" s="12" t="n">
         <v>8488731839.7971</v>
       </c>
-      <c r="AJ5" s="13" t="n">
+      <c r="AJ5" s="12" t="n">
         <v>9754617236.7375</v>
       </c>
-      <c r="AK5" s="13" t="n">
+      <c r="AK5" s="12" t="n">
         <v>10047514819.549</v>
       </c>
-      <c r="AL5" s="13" t="n">
+      <c r="AL5" s="12" t="n">
         <v>11039011775.4139</v>
       </c>
-      <c r="AM5" s="13" t="n">
+      <c r="AM5" s="12" t="n">
         <v>11445018953.4458</v>
       </c>
-      <c r="AN5" s="13" t="n">
+      <c r="AN5" s="12" t="n">
         <v>12060989736.8789</v>
       </c>
-      <c r="AO5" s="13" t="n">
+      <c r="AO5" s="12" t="n">
         <v>13460814522.7468</v>
       </c>
-      <c r="AP5" s="13" t="n">
+      <c r="AP5" s="12" t="n">
         <v>14276776578.0542</v>
       </c>
-      <c r="AQ5" s="13" t="n">
+      <c r="AQ5" s="12" t="n">
         <v>13613027497.8496</v>
       </c>
-      <c r="AR5" s="13" t="n">
+      <c r="AR5" s="12" t="n">
         <v>14608978112.3296</v>
       </c>
-      <c r="AS5" s="13" t="n">
+      <c r="AS5" s="12" t="n">
         <v>5589467378.0171</v>
       </c>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3776,110 +3779,110 @@
       <c r="K6" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="13" t="n">
+      <c r="L6" s="12" t="n">
         <v>1775040600</v>
       </c>
-      <c r="M6" s="13" t="n">
+      <c r="M6" s="12" t="n">
         <v>623383398</v>
       </c>
-      <c r="N6" s="13" t="n">
+      <c r="N6" s="12" t="n">
         <v>566195616</v>
       </c>
-      <c r="O6" s="13" t="n">
+      <c r="O6" s="12" t="n">
         <v>558743012</v>
       </c>
-      <c r="P6" s="13" t="n">
+      <c r="P6" s="12" t="n">
         <v>610454246</v>
       </c>
-      <c r="Q6" s="13" t="n">
+      <c r="Q6" s="12" t="n">
         <v>869536416</v>
       </c>
-      <c r="R6" s="13" t="n">
+      <c r="R6" s="12" t="n">
         <v>922096516</v>
       </c>
-      <c r="S6" s="13" t="n">
+      <c r="S6" s="12" t="n">
         <v>748717777</v>
       </c>
-      <c r="T6" s="13" t="n">
+      <c r="T6" s="12" t="n">
         <v>939176635</v>
       </c>
-      <c r="U6" s="13" t="n">
+      <c r="U6" s="12" t="n">
         <v>10237860</v>
       </c>
-      <c r="V6" s="13" t="n">
+      <c r="V6" s="12" t="n">
         <v>776856</v>
       </c>
-      <c r="W6" s="13" t="n">
+      <c r="W6" s="12" t="n">
         <v>120529280</v>
       </c>
-      <c r="X6" s="13" t="n">
+      <c r="X6" s="12" t="n">
         <v>3626925</v>
       </c>
-      <c r="Y6" s="13" t="n">
+      <c r="Y6" s="12" t="n">
         <v>261760607.6001</v>
       </c>
-      <c r="Z6" s="13" t="n">
+      <c r="Z6" s="12" t="n">
         <v>359924838.5707</v>
       </c>
-      <c r="AA6" s="13" t="n">
+      <c r="AA6" s="12" t="n">
         <v>57078589.5902</v>
       </c>
-      <c r="AB6" s="13" t="n">
+      <c r="AB6" s="12" t="n">
         <v>109878598.064</v>
       </c>
-      <c r="AC6" s="13" t="n">
+      <c r="AC6" s="12" t="n">
         <v>57648423.2075</v>
       </c>
-      <c r="AD6" s="13" t="n">
+      <c r="AD6" s="12" t="n">
         <v>23915803.4465</v>
       </c>
-      <c r="AE6" s="13" t="n">
+      <c r="AE6" s="12" t="n">
         <v>231731474.2134</v>
       </c>
-      <c r="AF6" s="13" t="n">
+      <c r="AF6" s="12" t="n">
         <v>195545001.035</v>
       </c>
-      <c r="AG6" s="13" t="n">
+      <c r="AG6" s="12" t="n">
         <v>267855260.2721</v>
       </c>
-      <c r="AH6" s="13" t="n">
+      <c r="AH6" s="12" t="n">
         <v>130437405.4545</v>
       </c>
-      <c r="AI6" s="13" t="n">
+      <c r="AI6" s="12" t="n">
         <v>81465539.2102</v>
       </c>
-      <c r="AJ6" s="13" t="n">
+      <c r="AJ6" s="12" t="n">
         <v>18019319.2173</v>
       </c>
-      <c r="AK6" s="13" t="n">
+      <c r="AK6" s="12" t="n">
         <v>81658740.4724</v>
       </c>
-      <c r="AL6" s="13" t="n">
+      <c r="AL6" s="12" t="n">
         <v>78423426.2721</v>
       </c>
-      <c r="AM6" s="13" t="n">
+      <c r="AM6" s="12" t="n">
         <v>33824093.8633</v>
       </c>
-      <c r="AN6" s="13" t="n">
+      <c r="AN6" s="12" t="n">
         <v>16855374.0774</v>
       </c>
-      <c r="AO6" s="13" t="n">
+      <c r="AO6" s="12" t="n">
         <v>24440585.2982</v>
       </c>
-      <c r="AP6" s="13" t="n">
+      <c r="AP6" s="12" t="n">
         <v>53110025.8218</v>
       </c>
-      <c r="AQ6" s="13" t="n">
+      <c r="AQ6" s="12" t="n">
         <v>21190681.0549</v>
       </c>
-      <c r="AR6" s="13" t="n">
+      <c r="AR6" s="12" t="n">
         <v>3122355.6603</v>
       </c>
-      <c r="AS6" s="13" t="n">
+      <c r="AS6" s="12" t="n">
         <v>1676186.702</v>
       </c>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3888,110 +3891,110 @@
       <c r="K7" t="s">
         <v>542</v>
       </c>
-      <c r="L7" s="13" t="str">
+      <c r="L7" s="12" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="13" t="str">
+      <c r="M7" s="12" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="13" t="str">
+      <c r="N7" s="12" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="13" t="str">
+      <c r="O7" s="12" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="13" t="str">
+      <c r="P7" s="12" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="13" t="str">
+      <c r="Q7" s="12" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="13" t="str">
+      <c r="R7" s="12" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="13" t="str">
+      <c r="S7" s="12" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="13" t="str">
+      <c r="T7" s="12" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="13" t="str">
+      <c r="U7" s="12" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="13" t="str">
+      <c r="V7" s="12" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="13" t="str">
+      <c r="W7" s="12" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="13" t="str">
+      <c r="X7" s="12" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="13" t="str">
+      <c r="Y7" s="12" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="13" t="str">
+      <c r="Z7" s="12" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="13" t="str">
+      <c r="AA7" s="12" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="13" t="str">
+      <c r="AB7" s="12" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="13" t="str">
+      <c r="AC7" s="12" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="13" t="str">
+      <c r="AD7" s="12" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="13" t="str">
+      <c r="AE7" s="12" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="13" t="str">
+      <c r="AF7" s="12" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="13" t="str">
+      <c r="AG7" s="12" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="13" t="str">
+      <c r="AH7" s="12" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="13" t="str">
+      <c r="AI7" s="12" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="13" t="str">
+      <c r="AJ7" s="12" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="13" t="str">
+      <c r="AK7" s="12" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="13" t="str">
+      <c r="AL7" s="12" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="13" t="str">
+      <c r="AM7" s="12" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="13" t="str">
+      <c r="AN7" s="12" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="13" t="str">
+      <c r="AO7" s="12" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="13" t="str">
+      <c r="AP7" s="12" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="13" t="str">
+      <c r="AQ7" s="12" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="13" t="str">
+      <c r="AR7" s="12" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="13" t="str">
+      <c r="AS7" s="12" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4110,110 +4113,110 @@
       <c r="K11" t="s">
         <v>545</v>
       </c>
-      <c r="L11" s="13" t="n">
+      <c r="L11" s="12" t="n">
         <v>5945164047.80464</v>
       </c>
-      <c r="M11" s="13" t="n">
+      <c r="M11" s="12" t="n">
         <v>3582401440.61771</v>
       </c>
-      <c r="N11" s="13" t="n">
+      <c r="N11" s="12" t="n">
         <v>4190846036.72022</v>
       </c>
-      <c r="O11" s="13" t="n">
+      <c r="O11" s="12" t="n">
         <v>5369670061.6802</v>
       </c>
-      <c r="P11" s="13" t="n">
+      <c r="P11" s="12" t="n">
         <v>5111039495.36107</v>
       </c>
-      <c r="Q11" s="13" t="n">
+      <c r="Q11" s="12" t="n">
         <v>5997326770.65347</v>
       </c>
-      <c r="R11" s="13" t="n">
+      <c r="R11" s="12" t="n">
         <v>5975935066.08665</v>
       </c>
-      <c r="S11" s="13" t="n">
+      <c r="S11" s="12" t="n">
         <v>8453491630.6572</v>
       </c>
-      <c r="T11" s="13" t="n">
+      <c r="T11" s="12" t="n">
         <v>8048796298.57112</v>
       </c>
-      <c r="U11" s="13" t="n">
+      <c r="U11" s="12" t="n">
         <v>9952975399.15967</v>
       </c>
-      <c r="V11" s="13" t="n">
+      <c r="V11" s="12" t="n">
         <v>10797005642.136</v>
       </c>
-      <c r="W11" s="13" t="n">
+      <c r="W11" s="12" t="n">
         <v>11171315075.2349</v>
       </c>
-      <c r="X11" s="13" t="n">
+      <c r="X11" s="12" t="n">
         <v>13353418927.0214</v>
       </c>
-      <c r="Y11" s="13" t="n">
+      <c r="Y11" s="12" t="n">
         <v>14588002349.1914</v>
       </c>
-      <c r="Z11" s="13" t="n">
+      <c r="Z11" s="12" t="n">
         <v>16297464516.3529</v>
       </c>
-      <c r="AA11" s="13" t="n">
+      <c r="AA11" s="12" t="n">
         <v>17524727261.2845</v>
       </c>
-      <c r="AB11" s="13" t="n">
+      <c r="AB11" s="12" t="n">
         <v>16824482648.2703</v>
       </c>
-      <c r="AC11" s="13" t="n">
+      <c r="AC11" s="12" t="n">
         <v>20333234834.4217</v>
       </c>
-      <c r="AD11" s="13" t="n">
+      <c r="AD11" s="12" t="n">
         <v>20266126864.1253</v>
       </c>
-      <c r="AE11" s="13" t="n">
+      <c r="AE11" s="12" t="n">
         <v>18586135530.5528</v>
       </c>
-      <c r="AF11" s="13" t="n">
+      <c r="AF11" s="12" t="n">
         <v>19931173314.2818</v>
       </c>
-      <c r="AG11" s="13" t="n">
+      <c r="AG11" s="12" t="n">
         <v>18037263872.4613</v>
       </c>
-      <c r="AH11" s="13" t="n">
+      <c r="AH11" s="12" t="n">
         <v>16550889588.1422</v>
       </c>
-      <c r="AI11" s="13" t="n">
+      <c r="AI11" s="12" t="n">
         <v>13345527053.059</v>
       </c>
-      <c r="AJ11" s="13" t="n">
+      <c r="AJ11" s="12" t="n">
         <v>12687818433.4046</v>
       </c>
-      <c r="AK11" s="13" t="n">
+      <c r="AK11" s="12" t="n">
         <v>11943798023.9311</v>
       </c>
-      <c r="AL11" s="13" t="n">
+      <c r="AL11" s="12" t="n">
         <v>12318870051.2275</v>
       </c>
-      <c r="AM11" s="13" t="n">
+      <c r="AM11" s="12" t="n">
         <v>13110449174.0131</v>
       </c>
-      <c r="AN11" s="13" t="n">
+      <c r="AN11" s="12" t="n">
         <v>12848748937.4017</v>
       </c>
-      <c r="AO11" s="13" t="n">
+      <c r="AO11" s="12" t="n">
         <v>14007370309.9292</v>
       </c>
-      <c r="AP11" s="13" t="n">
+      <c r="AP11" s="12" t="n">
         <v>11941362723.53</v>
       </c>
-      <c r="AQ11" s="13" t="n">
+      <c r="AQ11" s="12" t="n">
         <v>10194165664.7834</v>
       </c>
-      <c r="AR11" s="13" t="n">
+      <c r="AR11" s="12" t="n">
         <v>10668488366.195</v>
       </c>
-      <c r="AS11" s="13" t="n">
+      <c r="AS11" s="12" t="n">
         <v>5695598468.55633</v>
       </c>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -4222,110 +4225,110 @@
       <c r="K12" t="s">
         <v>546</v>
       </c>
-      <c r="L12" s="13" t="n">
+      <c r="L12" s="12" t="n">
         <v>15135171695.8857</v>
       </c>
-      <c r="M12" s="13" t="n">
+      <c r="M12" s="12" t="n">
         <v>15668381132.6761</v>
       </c>
-      <c r="N12" s="13" t="n">
+      <c r="N12" s="12" t="n">
         <v>15827760837.8483</v>
       </c>
-      <c r="O12" s="13" t="n">
+      <c r="O12" s="12" t="n">
         <v>12736612747.37</v>
       </c>
-      <c r="P12" s="13" t="n">
+      <c r="P12" s="12" t="n">
         <v>11579907264.8186</v>
       </c>
-      <c r="Q12" s="13" t="n">
+      <c r="Q12" s="12" t="n">
         <v>11264530821.286</v>
       </c>
-      <c r="R12" s="13" t="n">
+      <c r="R12" s="12" t="n">
         <v>10763435401.2389</v>
       </c>
-      <c r="S12" s="13" t="n">
+      <c r="S12" s="12" t="n">
         <v>10531354910.4751</v>
       </c>
-      <c r="T12" s="13" t="n">
+      <c r="T12" s="12" t="n">
         <v>9473718522.55992</v>
       </c>
-      <c r="U12" s="13" t="n">
+      <c r="U12" s="12" t="n">
         <v>9231113026.83785</v>
       </c>
-      <c r="V12" s="13" t="n">
+      <c r="V12" s="12" t="n">
         <v>10466935544.4798</v>
       </c>
-      <c r="W12" s="13" t="n">
+      <c r="W12" s="12" t="n">
         <v>11216340601.5116</v>
       </c>
-      <c r="X12" s="13" t="n">
+      <c r="X12" s="12" t="n">
         <v>12510184846.5154</v>
       </c>
-      <c r="Y12" s="13" t="n">
+      <c r="Y12" s="12" t="n">
         <v>16488406176.8598</v>
       </c>
-      <c r="Z12" s="13" t="n">
+      <c r="Z12" s="12" t="n">
         <v>20442487723.5805</v>
       </c>
-      <c r="AA12" s="13" t="n">
+      <c r="AA12" s="12" t="n">
         <v>23012649399.2707</v>
       </c>
-      <c r="AB12" s="13" t="n">
+      <c r="AB12" s="12" t="n">
         <v>24102450413.9047</v>
       </c>
-      <c r="AC12" s="13" t="n">
+      <c r="AC12" s="12" t="n">
         <v>26209345527.8169</v>
       </c>
-      <c r="AD12" s="13" t="n">
+      <c r="AD12" s="12" t="n">
         <v>28848483687.7699</v>
       </c>
-      <c r="AE12" s="13" t="n">
+      <c r="AE12" s="12" t="n">
         <v>27085711018.9622</v>
       </c>
-      <c r="AF12" s="13" t="n">
+      <c r="AF12" s="12" t="n">
         <v>25900721612.6273</v>
       </c>
-      <c r="AG12" s="13" t="n">
+      <c r="AG12" s="12" t="n">
         <v>23800878002.0599</v>
       </c>
-      <c r="AH12" s="13" t="n">
+      <c r="AH12" s="12" t="n">
         <v>20988221150.7416</v>
       </c>
-      <c r="AI12" s="13" t="n">
+      <c r="AI12" s="12" t="n">
         <v>16893156727.6736</v>
       </c>
-      <c r="AJ12" s="13" t="n">
+      <c r="AJ12" s="12" t="n">
         <v>15244823286.958</v>
       </c>
-      <c r="AK12" s="13" t="n">
+      <c r="AK12" s="12" t="n">
         <v>13848872268.7657</v>
       </c>
-      <c r="AL12" s="13" t="n">
+      <c r="AL12" s="12" t="n">
         <v>15609301642.9277</v>
       </c>
-      <c r="AM12" s="13" t="n">
+      <c r="AM12" s="12" t="n">
         <v>16442329852.1885</v>
       </c>
-      <c r="AN12" s="13" t="n">
+      <c r="AN12" s="12" t="n">
         <v>18610702025.1175</v>
       </c>
-      <c r="AO12" s="13" t="n">
+      <c r="AO12" s="12" t="n">
         <v>18875109228.3327</v>
       </c>
-      <c r="AP12" s="13" t="n">
+      <c r="AP12" s="12" t="n">
         <v>19660618784.9269</v>
       </c>
-      <c r="AQ12" s="13" t="n">
+      <c r="AQ12" s="12" t="n">
         <v>15088210194.4034</v>
       </c>
-      <c r="AR12" s="13" t="n">
+      <c r="AR12" s="12" t="n">
         <v>15055006086.3303</v>
       </c>
-      <c r="AS12" s="13" t="n">
+      <c r="AS12" s="12" t="n">
         <v>6392153400.55309</v>
       </c>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4334,110 +4337,110 @@
       <c r="K13" t="s">
         <v>547</v>
       </c>
-      <c r="L13" s="13" t="n">
+      <c r="L13" s="12" t="n">
         <v>10417612918.0234</v>
       </c>
-      <c r="M13" s="13" t="n">
+      <c r="M13" s="12" t="n">
         <v>11905749608.5831</v>
       </c>
-      <c r="N13" s="13" t="n">
+      <c r="N13" s="12" t="n">
         <v>10430086674.7019</v>
       </c>
-      <c r="O13" s="13" t="n">
+      <c r="O13" s="12" t="n">
         <v>9383571019.62298</v>
       </c>
-      <c r="P13" s="13" t="n">
+      <c r="P13" s="12" t="n">
         <v>8751170066.76055</v>
       </c>
-      <c r="Q13" s="13" t="n">
+      <c r="Q13" s="12" t="n">
         <v>8332440816.94983</v>
       </c>
-      <c r="R13" s="13" t="n">
+      <c r="R13" s="12" t="n">
         <v>7622583706.29312</v>
       </c>
-      <c r="S13" s="13" t="n">
+      <c r="S13" s="12" t="n">
         <v>6271126226.36321</v>
       </c>
-      <c r="T13" s="13" t="n">
+      <c r="T13" s="12" t="n">
         <v>5950025804.21092</v>
       </c>
-      <c r="U13" s="13" t="n">
+      <c r="U13" s="12" t="n">
         <v>7595428766.06835</v>
       </c>
-      <c r="V13" s="13" t="n">
+      <c r="V13" s="12" t="n">
         <v>6429432992.03718</v>
       </c>
-      <c r="W13" s="13" t="n">
+      <c r="W13" s="12" t="n">
         <v>7156413568.54862</v>
       </c>
-      <c r="X13" s="13" t="n">
+      <c r="X13" s="12" t="n">
         <v>7620952864.98491</v>
       </c>
-      <c r="Y13" s="13" t="n">
+      <c r="Y13" s="12" t="n">
         <v>8451963367.97085</v>
       </c>
-      <c r="Z13" s="13" t="n">
+      <c r="Z13" s="12" t="n">
         <v>9536623788.79846</v>
       </c>
-      <c r="AA13" s="13" t="n">
+      <c r="AA13" s="12" t="n">
         <v>10302343611.911</v>
       </c>
-      <c r="AB13" s="13" t="n">
+      <c r="AB13" s="12" t="n">
         <v>11063965681.629</v>
       </c>
-      <c r="AC13" s="13" t="n">
+      <c r="AC13" s="12" t="n">
         <v>12369643995.3397</v>
       </c>
-      <c r="AD13" s="13" t="n">
+      <c r="AD13" s="12" t="n">
         <v>13620106112.3941</v>
       </c>
-      <c r="AE13" s="13" t="n">
+      <c r="AE13" s="12" t="n">
         <v>14325125855.9723</v>
       </c>
-      <c r="AF13" s="13" t="n">
+      <c r="AF13" s="12" t="n">
         <v>14361705258.2986</v>
       </c>
-      <c r="AG13" s="13" t="n">
+      <c r="AG13" s="12" t="n">
         <v>12566497418.5813</v>
       </c>
-      <c r="AH13" s="13" t="n">
+      <c r="AH13" s="12" t="n">
         <v>12374758559.7007</v>
       </c>
-      <c r="AI13" s="13" t="n">
+      <c r="AI13" s="12" t="n">
         <v>10005539166.4836</v>
       </c>
-      <c r="AJ13" s="13" t="n">
+      <c r="AJ13" s="12" t="n">
         <v>9775309226.06989</v>
       </c>
-      <c r="AK13" s="13" t="n">
+      <c r="AK13" s="12" t="n">
         <v>9573810950.70057</v>
       </c>
-      <c r="AL13" s="13" t="n">
+      <c r="AL13" s="12" t="n">
         <v>10360864468.2637</v>
       </c>
-      <c r="AM13" s="13" t="n">
+      <c r="AM13" s="12" t="n">
         <v>10451962211.9326</v>
       </c>
-      <c r="AN13" s="13" t="n">
+      <c r="AN13" s="12" t="n">
         <v>12967560958.948</v>
       </c>
-      <c r="AO13" s="13" t="n">
+      <c r="AO13" s="12" t="n">
         <v>13529283156.1133</v>
       </c>
-      <c r="AP13" s="13" t="n">
+      <c r="AP13" s="12" t="n">
         <v>13742095898.7572</v>
       </c>
-      <c r="AQ13" s="13" t="n">
+      <c r="AQ13" s="12" t="n">
         <v>13180183273.6047</v>
       </c>
-      <c r="AR13" s="13" t="n">
+      <c r="AR13" s="12" t="n">
         <v>13252228945.3628</v>
       </c>
-      <c r="AS13" s="13" t="n">
+      <c r="AS13" s="12" t="n">
         <v>6323805163.01688</v>
       </c>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -4446,110 +4449,110 @@
       <c r="K14" t="s">
         <v>548</v>
       </c>
-      <c r="L14" s="13" t="n">
+      <c r="L14" s="12" t="n">
         <v>4133323341.21714</v>
       </c>
-      <c r="M14" s="13" t="n">
+      <c r="M14" s="12" t="n">
         <v>4722986581.90517</v>
       </c>
-      <c r="N14" s="13" t="n">
+      <c r="N14" s="12" t="n">
         <v>4785592404.13307</v>
       </c>
-      <c r="O14" s="13" t="n">
+      <c r="O14" s="12" t="n">
         <v>4857674963.92071</v>
       </c>
-      <c r="P14" s="13" t="n">
+      <c r="P14" s="12" t="n">
         <v>5052968098.6655</v>
       </c>
-      <c r="Q14" s="13" t="n">
+      <c r="Q14" s="12" t="n">
         <v>5649082290.95446</v>
       </c>
-      <c r="R14" s="13" t="n">
+      <c r="R14" s="12" t="n">
         <v>5337924267.1056</v>
       </c>
-      <c r="S14" s="13" t="n">
+      <c r="S14" s="12" t="n">
         <v>4632130157.90694</v>
       </c>
-      <c r="T14" s="13" t="n">
+      <c r="T14" s="12" t="n">
         <v>4148453820.40526</v>
       </c>
-      <c r="U14" s="13" t="n">
+      <c r="U14" s="12" t="n">
         <v>5484051454.5329</v>
       </c>
-      <c r="V14" s="13" t="n">
+      <c r="V14" s="12" t="n">
         <v>5832861825.84395</v>
       </c>
-      <c r="W14" s="13" t="n">
+      <c r="W14" s="12" t="n">
         <v>5580339255.81693</v>
       </c>
-      <c r="X14" s="13" t="n">
+      <c r="X14" s="12" t="n">
         <v>6581443085.40663</v>
       </c>
-      <c r="Y14" s="13" t="n">
+      <c r="Y14" s="12" t="n">
         <v>8048797556.21223</v>
       </c>
-      <c r="Z14" s="13" t="n">
+      <c r="Z14" s="12" t="n">
         <v>9016185932.70971</v>
       </c>
-      <c r="AA14" s="13" t="n">
+      <c r="AA14" s="12" t="n">
         <v>10048101703.6343</v>
       </c>
-      <c r="AB14" s="13" t="n">
+      <c r="AB14" s="12" t="n">
         <v>11054670951.8708</v>
       </c>
-      <c r="AC14" s="13" t="n">
+      <c r="AC14" s="12" t="n">
         <v>12389989173.9485</v>
       </c>
-      <c r="AD14" s="13" t="n">
+      <c r="AD14" s="12" t="n">
         <v>13151926187.0279</v>
       </c>
-      <c r="AE14" s="13" t="n">
+      <c r="AE14" s="12" t="n">
         <v>12731730439.8581</v>
       </c>
-      <c r="AF14" s="13" t="n">
+      <c r="AF14" s="12" t="n">
         <v>12969546977.5746</v>
       </c>
-      <c r="AG14" s="13" t="n">
+      <c r="AG14" s="12" t="n">
         <v>12471911414.7</v>
       </c>
-      <c r="AH14" s="13" t="n">
+      <c r="AH14" s="12" t="n">
         <v>12408608295.2426</v>
       </c>
-      <c r="AI14" s="13" t="n">
+      <c r="AI14" s="12" t="n">
         <v>10497751154.9682</v>
       </c>
-      <c r="AJ14" s="13" t="n">
+      <c r="AJ14" s="12" t="n">
         <v>11834286598.0423</v>
       </c>
-      <c r="AK14" s="13" t="n">
+      <c r="AK14" s="12" t="n">
         <v>12051467205.4639</v>
       </c>
-      <c r="AL14" s="13" t="n">
+      <c r="AL14" s="12" t="n">
         <v>13131898296.2457</v>
       </c>
-      <c r="AM14" s="13" t="n">
+      <c r="AM14" s="12" t="n">
         <v>13376067169.6173</v>
       </c>
-      <c r="AN14" s="13" t="n">
+      <c r="AN14" s="12" t="n">
         <v>13772582856.4433</v>
       </c>
-      <c r="AO14" s="13" t="n">
+      <c r="AO14" s="12" t="n">
         <v>15075777064.6189</v>
       </c>
-      <c r="AP14" s="13" t="n">
+      <c r="AP14" s="12" t="n">
         <v>15779133539.1918</v>
       </c>
-      <c r="AQ14" s="13" t="n">
+      <c r="AQ14" s="12" t="n">
         <v>14556241432.8139</v>
       </c>
-      <c r="AR14" s="13" t="n">
+      <c r="AR14" s="12" t="n">
         <v>14608978112.3296</v>
       </c>
-      <c r="AS14" s="13" t="n">
+      <c r="AS14" s="12" t="n">
         <v>5331224927.05929</v>
       </c>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4558,151 +4561,151 @@
       <c r="K15" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="13" t="n">
+      <c r="L15" s="12" t="n">
         <v>3527949224.40387</v>
       </c>
-      <c r="M15" s="13" t="n">
+      <c r="M15" s="12" t="n">
         <v>1196322331.21893</v>
       </c>
-      <c r="N15" s="13" t="n">
+      <c r="N15" s="12" t="n">
         <v>1060080491.47524</v>
       </c>
-      <c r="O15" s="13" t="n">
+      <c r="O15" s="12" t="n">
         <v>1022116611.75815</v>
       </c>
-      <c r="P15" s="13" t="n">
+      <c r="P15" s="12" t="n">
         <v>1092898822.34181</v>
       </c>
-      <c r="Q15" s="13" t="n">
+      <c r="Q15" s="12" t="n">
         <v>1524442723.72253</v>
       </c>
-      <c r="R15" s="13" t="n">
+      <c r="R15" s="12" t="n">
         <v>1586767071.84768</v>
       </c>
-      <c r="S15" s="13" t="n">
+      <c r="S15" s="12" t="n">
         <v>1265924135.50387</v>
       </c>
-      <c r="T15" s="13" t="n">
+      <c r="T15" s="12" t="n">
         <v>1568366445.12472</v>
       </c>
-      <c r="U15" s="13" t="n">
+      <c r="U15" s="12" t="n">
         <v>16886099.6780269</v>
       </c>
-      <c r="V15" s="13" t="n">
+      <c r="V15" s="12" t="n">
         <v>1255189.58354348</v>
       </c>
-      <c r="W15" s="13" t="n">
+      <c r="W15" s="12" t="n">
         <v>190132183.876641</v>
       </c>
-      <c r="X15" s="13" t="n">
+      <c r="X15" s="12" t="n">
         <v>5632490.63075908</v>
       </c>
-      <c r="Y15" s="13" t="n">
+      <c r="Y15" s="12" t="n">
         <v>398880848.630354</v>
       </c>
-      <c r="Z15" s="13" t="n">
+      <c r="Z15" s="12" t="n">
         <v>535380757.254455</v>
       </c>
-      <c r="AA15" s="13" t="n">
+      <c r="AA15" s="12" t="n">
         <v>82401774.4811749</v>
       </c>
-      <c r="AB15" s="13" t="n">
+      <c r="AB15" s="12" t="n">
         <v>153625089.897795</v>
       </c>
-      <c r="AC15" s="13" t="n">
+      <c r="AC15" s="12" t="n">
         <v>78448951.0908728</v>
       </c>
-      <c r="AD15" s="13" t="n">
+      <c r="AD15" s="12" t="n">
         <v>31880143.1859158</v>
       </c>
-      <c r="AE15" s="13" t="n">
+      <c r="AE15" s="12" t="n">
         <v>305794242.54057</v>
       </c>
-      <c r="AF15" s="13" t="n">
+      <c r="AF15" s="12" t="n">
         <v>255817390.096251</v>
       </c>
-      <c r="AG15" s="13" t="n">
+      <c r="AG15" s="12" t="n">
         <v>343493003.163263</v>
       </c>
-      <c r="AH15" s="13" t="n">
+      <c r="AH15" s="12" t="n">
         <v>164259824.657511</v>
       </c>
-      <c r="AI15" s="13" t="n">
+      <c r="AI15" s="12" t="n">
         <v>100745903.448686</v>
       </c>
-      <c r="AJ15" s="13" t="n">
+      <c r="AJ15" s="12" t="n">
         <v>21861010.3035125</v>
       </c>
-      <c r="AK15" s="13" t="n">
+      <c r="AK15" s="12" t="n">
         <v>97945377.5900763</v>
       </c>
-      <c r="AL15" s="13" t="n">
+      <c r="AL15" s="12" t="n">
         <v>93291725.6363493</v>
       </c>
-      <c r="AM15" s="13" t="n">
+      <c r="AM15" s="12" t="n">
         <v>39531026.8429677</v>
       </c>
-      <c r="AN15" s="13" t="n">
+      <c r="AN15" s="12" t="n">
         <v>19247345.4601754</v>
       </c>
-      <c r="AO15" s="13" t="n">
+      <c r="AO15" s="12" t="n">
         <v>27372846.9151566</v>
       </c>
-      <c r="AP15" s="13" t="n">
+      <c r="AP15" s="12" t="n">
         <v>58698837.5933752</v>
       </c>
-      <c r="AQ15" s="13" t="n">
+      <c r="AQ15" s="12" t="n">
         <v>22658932.3800019</v>
       </c>
-      <c r="AR15" s="13" t="n">
+      <c r="AR15" s="12" t="n">
         <v>3122355.6603</v>
       </c>
-      <c r="AS15" s="13" t="n">
+      <c r="AS15" s="12" t="n">
         <v>1598744.15999863</v>
       </c>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6428,94 +6431,94 @@
         <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>549</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3" t="n">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13" t="n">
         <v>7745409866.4287</v>
       </c>
-      <c r="AA2" s="3" t="n">
-        <v>9365489431.6874</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>10261062296.0877</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>13927889331.964</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>17718446729.6663</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>20006698311.5627</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>23590550916.16</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>27713303440.4714</v>
-      </c>
-      <c r="AH2" s="3" t="n">
-        <v>29279795135.5725</v>
-      </c>
-      <c r="AI2" s="3" t="n">
-        <v>28917543429.9633</v>
-      </c>
-      <c r="AJ2" s="3" t="n">
+      <c r="AA2" s="13" t="n">
+        <v>9365489411.6874</v>
+      </c>
+      <c r="AB2" s="13" t="n">
+        <v>10261062297.0946</v>
+      </c>
+      <c r="AC2" s="13" t="n">
+        <v>13927889333.4355</v>
+      </c>
+      <c r="AD2" s="13" t="n">
+        <v>17718446729.1087</v>
+      </c>
+      <c r="AE2" s="13" t="n">
+        <v>20006698303.5712</v>
+      </c>
+      <c r="AF2" s="13" t="n">
+        <v>23590550903.9616</v>
+      </c>
+      <c r="AG2" s="13" t="n">
+        <v>27713649523.906</v>
+      </c>
+      <c r="AH2" s="13" t="n">
+        <v>29281030579.0011</v>
+      </c>
+      <c r="AI2" s="13" t="n">
+        <v>28917543438.7466</v>
+      </c>
+      <c r="AJ2" s="13" t="n">
         <v>30663895756.9403</v>
       </c>
-      <c r="AK2" s="3" t="n">
+      <c r="AK2" s="13" t="n">
         <v>28185090296.6477</v>
       </c>
-      <c r="AL2" s="3" t="n">
+      <c r="AL2" s="13" t="n">
         <v>29396220082.02</v>
       </c>
-      <c r="AM2" s="3" t="n">
+      <c r="AM2" s="13" t="n">
         <v>24834689731.2118</v>
       </c>
-      <c r="AN2" s="3" t="n">
+      <c r="AN2" s="13" t="n">
         <v>25032277394.0532</v>
       </c>
-      <c r="AO2" s="3" t="n">
-        <v>24505678968.4119</v>
-      </c>
-      <c r="AP2" s="3" t="n">
+      <c r="AO2" s="13" t="n">
+        <v>24505541468.4119</v>
+      </c>
+      <c r="AP2" s="13" t="n">
         <v>25791705919.4623</v>
       </c>
-      <c r="AQ2" s="3" t="n">
+      <c r="AQ2" s="13" t="n">
         <v>26845599544.7238</v>
       </c>
-      <c r="AR2" s="3" t="n">
-        <v>31994252515.3208</v>
-      </c>
-      <c r="AS2" s="3" t="n">
-        <v>34192852294.0024</v>
-      </c>
-      <c r="AT2" s="3" t="n">
-        <v>34502358757.4437</v>
-      </c>
-      <c r="AU2" s="3" t="n">
-        <v>31125639346.0963</v>
-      </c>
-      <c r="AV2" s="3" t="n">
-        <v>33048419165.1799</v>
-      </c>
-      <c r="AW2" s="3" t="n">
-        <v>14626524313.5635</v>
-      </c>
-      <c r="AX2" s="3"/>
+      <c r="AR2" s="13" t="n">
+        <v>31968135817.146</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>34216243659.7318</v>
+      </c>
+      <c r="AT2" s="13" t="n">
+        <v>34498258473.2095</v>
+      </c>
+      <c r="AU2" s="13" t="n">
+        <v>31120428883.8217</v>
+      </c>
+      <c r="AV2" s="13" t="n">
+        <v>33022194547.0027</v>
+      </c>
+      <c r="AW2" s="13" t="n">
+        <v>36273002264.551</v>
+      </c>
+      <c r="AX2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -6533,89 +6536,89 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3" t="n">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13" t="n">
         <v>351263617</v>
       </c>
-      <c r="AA3" s="3" t="n">
-        <v>910786484.5408</v>
-      </c>
-      <c r="AB3" s="3" t="n">
+      <c r="AA3" s="13" t="n">
+        <v>910786484.5388</v>
+      </c>
+      <c r="AB3" s="13" t="n">
         <v>646264465</v>
       </c>
-      <c r="AC3" s="3" t="n">
+      <c r="AC3" s="13" t="n">
         <v>793441443.5</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v>986688633.6206</v>
-      </c>
-      <c r="AE3" s="3" t="n">
+      <c r="AD3" s="13" t="n">
+        <v>986688632.6206</v>
+      </c>
+      <c r="AE3" s="13" t="n">
         <v>1077885901.5297</v>
       </c>
-      <c r="AF3" s="3" t="n">
-        <v>553242238.9113</v>
-      </c>
-      <c r="AG3" s="3" t="n">
-        <v>386969561.8881</v>
-      </c>
-      <c r="AH3" s="3" t="n">
-        <v>594426627.5902</v>
-      </c>
-      <c r="AI3" s="3" t="n">
-        <v>537478893.2873</v>
-      </c>
-      <c r="AJ3" s="3" t="n">
+      <c r="AF3" s="13" t="n">
+        <v>553242238.9076</v>
+      </c>
+      <c r="AG3" s="13" t="n">
+        <v>386969562.0458</v>
+      </c>
+      <c r="AH3" s="13" t="n">
+        <v>594426626.7577</v>
+      </c>
+      <c r="AI3" s="13" t="n">
+        <v>537478892.7635</v>
+      </c>
+      <c r="AJ3" s="13" t="n">
         <v>684468646.1753</v>
       </c>
-      <c r="AK3" s="3" t="n">
+      <c r="AK3" s="13" t="n">
         <v>1134877810.7948</v>
       </c>
-      <c r="AL3" s="3" t="n">
+      <c r="AL3" s="13" t="n">
         <v>362692336.111</v>
       </c>
-      <c r="AM3" s="3" t="n">
+      <c r="AM3" s="13" t="n">
         <v>167024104.8643</v>
       </c>
-      <c r="AN3" s="3" t="n">
+      <c r="AN3" s="13" t="n">
         <v>103291895.5268</v>
       </c>
-      <c r="AO3" s="3" t="n">
+      <c r="AO3" s="13" t="n">
         <v>131801684.8803</v>
       </c>
-      <c r="AP3" s="3" t="n">
+      <c r="AP3" s="13" t="n">
         <v>188200819.8463</v>
       </c>
-      <c r="AQ3" s="3" t="n">
+      <c r="AQ3" s="13" t="n">
         <v>72065956.0363</v>
       </c>
-      <c r="AR3" s="3" t="n">
-        <v>113243602.0722</v>
-      </c>
-      <c r="AS3" s="3" t="n">
-        <v>86293626.4005</v>
-      </c>
-      <c r="AT3" s="3" t="n">
-        <v>91330766.8958</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>179981442.6027</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>280510565.1576</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>115561021.6707</v>
-      </c>
-      <c r="AX3" s="3"/>
+      <c r="AR3" s="13" t="n">
+        <v>113244315.4437</v>
+      </c>
+      <c r="AS3" s="13" t="n">
+        <v>86318154.5227</v>
+      </c>
+      <c r="AT3" s="13" t="n">
+        <v>91330766.896</v>
+      </c>
+      <c r="AU3" s="13" t="n">
+        <v>179981442.6038</v>
+      </c>
+      <c r="AV3" s="13" t="n">
+        <v>280510565.2276</v>
+      </c>
+      <c r="AW3" s="13" t="n">
+        <v>348374888.257</v>
+      </c>
+      <c r="AX3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -6633,89 +6636,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3" t="n">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13" t="n">
         <v>1872242063.2094</v>
       </c>
-      <c r="AA4" s="3" t="n">
-        <v>1711195301.9999</v>
-      </c>
-      <c r="AB4" s="3" t="n">
-        <v>2193214227.6811</v>
-      </c>
-      <c r="AC4" s="3" t="n">
+      <c r="AA4" s="13" t="n">
+        <v>1711195301.9849</v>
+      </c>
+      <c r="AB4" s="13" t="n">
+        <v>2193214227.6717</v>
+      </c>
+      <c r="AC4" s="13" t="n">
         <v>3246531633.0533</v>
       </c>
-      <c r="AD4" s="3" t="n">
+      <c r="AD4" s="13" t="n">
         <v>4084153850.8455</v>
       </c>
-      <c r="AE4" s="3" t="n">
-        <v>5522774020.5523</v>
-      </c>
-      <c r="AF4" s="3" t="n">
-        <v>6394675350.2036</v>
-      </c>
-      <c r="AG4" s="3" t="n">
-        <v>8079268735.7749</v>
-      </c>
-      <c r="AH4" s="3" t="n">
-        <v>8310577598.401</v>
-      </c>
-      <c r="AI4" s="3" t="n">
-        <v>7389243494.1793</v>
-      </c>
-      <c r="AJ4" s="3" t="n">
+      <c r="AE4" s="13" t="n">
+        <v>5522774020.5248</v>
+      </c>
+      <c r="AF4" s="13" t="n">
+        <v>6394675349.9999</v>
+      </c>
+      <c r="AG4" s="13" t="n">
+        <v>8078608376.083</v>
+      </c>
+      <c r="AH4" s="13" t="n">
+        <v>8310577597.8891</v>
+      </c>
+      <c r="AI4" s="13" t="n">
+        <v>7389243494.5828</v>
+      </c>
+      <c r="AJ4" s="13" t="n">
         <v>7082022035.5353</v>
       </c>
-      <c r="AK4" s="3" t="n">
+      <c r="AK4" s="13" t="n">
         <v>4318518817.8775</v>
       </c>
-      <c r="AL4" s="3" t="n">
+      <c r="AL4" s="13" t="n">
         <v>1991126208.0814</v>
       </c>
-      <c r="AM4" s="3" t="n">
+      <c r="AM4" s="13" t="n">
         <v>870175553.7347</v>
       </c>
-      <c r="AN4" s="3" t="n">
+      <c r="AN4" s="13" t="n">
         <v>627734141.7625</v>
       </c>
-      <c r="AO4" s="3" t="n">
+      <c r="AO4" s="13" t="n">
         <v>477583914.5411</v>
       </c>
-      <c r="AP4" s="3" t="n">
+      <c r="AP4" s="13" t="n">
         <v>560963783.9982</v>
       </c>
-      <c r="AQ4" s="3" t="n">
+      <c r="AQ4" s="13" t="n">
         <v>541606517.3411</v>
       </c>
-      <c r="AR4" s="3" t="n">
-        <v>510576105.6518</v>
-      </c>
-      <c r="AS4" s="3" t="n">
-        <v>461925072.8385</v>
-      </c>
-      <c r="AT4" s="3" t="n">
-        <v>469803369.5043</v>
-      </c>
-      <c r="AU4" s="3" t="n">
-        <v>-14599833.4175</v>
-      </c>
-      <c r="AV4" s="3" t="n">
-        <v>534502114.3888</v>
-      </c>
-      <c r="AW4" s="3" t="n">
-        <v>350135007.872</v>
-      </c>
-      <c r="AX4" s="3"/>
+      <c r="AR4" s="13" t="n">
+        <v>515407705.4876</v>
+      </c>
+      <c r="AS4" s="13" t="n">
+        <v>462483552.8142</v>
+      </c>
+      <c r="AT4" s="13" t="n">
+        <v>470221655.4172</v>
+      </c>
+      <c r="AU4" s="13" t="n">
+        <v>-14277628.4301</v>
+      </c>
+      <c r="AV4" s="13" t="n">
+        <v>536822788.0714</v>
+      </c>
+      <c r="AW4" s="13" t="n">
+        <v>833902870.0879</v>
+      </c>
+      <c r="AX4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -6733,89 +6736,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3" t="n">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13" t="n">
         <v>418939429</v>
       </c>
-      <c r="AA5" s="3" t="n">
-        <v>410489407</v>
-      </c>
-      <c r="AB5" s="3" t="n">
-        <v>1080790156</v>
-      </c>
-      <c r="AC5" s="3" t="n">
-        <v>1037676424</v>
-      </c>
-      <c r="AD5" s="3" t="n">
-        <v>847635772</v>
-      </c>
-      <c r="AE5" s="3" t="n">
-        <v>1117765653.1602</v>
-      </c>
-      <c r="AF5" s="3" t="n">
-        <v>1112505652.6105</v>
-      </c>
-      <c r="AG5" s="3" t="n">
-        <v>831477106.426</v>
-      </c>
-      <c r="AH5" s="3" t="n">
-        <v>825862732.9017</v>
-      </c>
-      <c r="AI5" s="3" t="n">
-        <v>877324654.5554</v>
-      </c>
-      <c r="AJ5" s="3" t="n">
+      <c r="AA5" s="13" t="n">
+        <v>410489406</v>
+      </c>
+      <c r="AB5" s="13" t="n">
+        <v>1080790165</v>
+      </c>
+      <c r="AC5" s="13" t="n">
+        <v>1037676423</v>
+      </c>
+      <c r="AD5" s="13" t="n">
+        <v>847635770</v>
+      </c>
+      <c r="AE5" s="13" t="n">
+        <v>1117765655.71</v>
+      </c>
+      <c r="AF5" s="13" t="n">
+        <v>1112505653.6105</v>
+      </c>
+      <c r="AG5" s="13" t="n">
+        <v>831477108.2402</v>
+      </c>
+      <c r="AH5" s="13" t="n">
+        <v>825862732.9699</v>
+      </c>
+      <c r="AI5" s="13" t="n">
+        <v>877324653.7295</v>
+      </c>
+      <c r="AJ5" s="13" t="n">
         <v>2035459607.72</v>
       </c>
-      <c r="AK5" s="3" t="n">
+      <c r="AK5" s="13" t="n">
         <v>2181515114.5837</v>
       </c>
-      <c r="AL5" s="3" t="n">
+      <c r="AL5" s="13" t="n">
         <v>1823707152.5427</v>
       </c>
-      <c r="AM5" s="3" t="n">
+      <c r="AM5" s="13" t="n">
         <v>2105131324.5821</v>
       </c>
-      <c r="AN5" s="3" t="n">
+      <c r="AN5" s="13" t="n">
         <v>3061035752.9761</v>
       </c>
-      <c r="AO5" s="3" t="n">
+      <c r="AO5" s="13" t="n">
         <v>2444038534.535</v>
       </c>
-      <c r="AP5" s="3" t="n">
+      <c r="AP5" s="13" t="n">
         <v>3584284892.3796</v>
       </c>
-      <c r="AQ5" s="3" t="n">
+      <c r="AQ5" s="13" t="n">
         <v>3712244208.7281</v>
       </c>
-      <c r="AR5" s="3" t="n">
-        <v>3075956189.6551</v>
-      </c>
-      <c r="AS5" s="3" t="n">
-        <v>3740473923.6574</v>
-      </c>
-      <c r="AT5" s="3" t="n">
-        <v>4043092692.9331</v>
-      </c>
-      <c r="AU5" s="3" t="n">
-        <v>3383221172.6934</v>
-      </c>
-      <c r="AV5" s="3" t="n">
-        <v>4999872807.408</v>
-      </c>
-      <c r="AW5" s="3" t="n">
-        <v>2766622413.9943</v>
-      </c>
-      <c r="AX5" s="3"/>
+      <c r="AR5" s="13" t="n">
+        <v>3075956189.318</v>
+      </c>
+      <c r="AS5" s="13" t="n">
+        <v>3759169740.6884</v>
+      </c>
+      <c r="AT5" s="13" t="n">
+        <v>4042143962.1094</v>
+      </c>
+      <c r="AU5" s="13" t="n">
+        <v>3383124811.4857</v>
+      </c>
+      <c r="AV5" s="13" t="n">
+        <v>4999672957.258</v>
+      </c>
+      <c r="AW5" s="13" t="n">
+        <v>4339803525.8971</v>
+      </c>
+      <c r="AX5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -6833,89 +6836,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3" t="n">
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13" t="n">
         <v>5131200658.1172</v>
       </c>
-      <c r="AA6" s="3" t="n">
-        <v>5100026501.7071</v>
-      </c>
-      <c r="AB6" s="3" t="n">
-        <v>5955519489.22</v>
-      </c>
-      <c r="AC6" s="3" t="n">
-        <v>7025395312.6037</v>
-      </c>
-      <c r="AD6" s="3" t="n">
-        <v>8006755847.5671</v>
-      </c>
-      <c r="AE6" s="3" t="n">
-        <v>8894373021.9812</v>
-      </c>
-      <c r="AF6" s="3" t="n">
-        <v>9253374271.4146</v>
-      </c>
-      <c r="AG6" s="3" t="n">
-        <v>10561921547.1397</v>
-      </c>
-      <c r="AH6" s="3" t="n">
-        <v>11198190212.8784</v>
-      </c>
-      <c r="AI6" s="3" t="n">
-        <v>10905405012.357</v>
-      </c>
-      <c r="AJ6" s="3" t="n">
+      <c r="AA6" s="13" t="n">
+        <v>5100026497.7071</v>
+      </c>
+      <c r="AB6" s="13" t="n">
+        <v>5955519487.22</v>
+      </c>
+      <c r="AC6" s="13" t="n">
+        <v>7019794953.5991</v>
+      </c>
+      <c r="AD6" s="13" t="n">
+        <v>8006755850.4451</v>
+      </c>
+      <c r="AE6" s="13" t="n">
+        <v>8894373018.9218</v>
+      </c>
+      <c r="AF6" s="13" t="n">
+        <v>9253374271.2293</v>
+      </c>
+      <c r="AG6" s="13" t="n">
+        <v>10561921558.0396</v>
+      </c>
+      <c r="AH6" s="13" t="n">
+        <v>11193452449.7377</v>
+      </c>
+      <c r="AI6" s="13" t="n">
+        <v>10905405010.4245</v>
+      </c>
+      <c r="AJ6" s="13" t="n">
         <v>12625358750.8069</v>
       </c>
-      <c r="AK6" s="3" t="n">
+      <c r="AK6" s="13" t="n">
         <v>14400767146.0502</v>
       </c>
-      <c r="AL6" s="3" t="n">
+      <c r="AL6" s="13" t="n">
         <v>13984870220.1961</v>
       </c>
-      <c r="AM6" s="3" t="n">
+      <c r="AM6" s="13" t="n">
         <v>11811848954.9703</v>
       </c>
-      <c r="AN6" s="3" t="n">
+      <c r="AN6" s="13" t="n">
         <v>10937778421.2594</v>
       </c>
-      <c r="AO6" s="3" t="n">
+      <c r="AO6" s="13" t="n">
         <v>11166325215.6848</v>
       </c>
-      <c r="AP6" s="3" t="n">
+      <c r="AP6" s="13" t="n">
         <v>11949242310.9642</v>
       </c>
-      <c r="AQ6" s="3" t="n">
+      <c r="AQ6" s="13" t="n">
         <v>12577414811.1868</v>
       </c>
-      <c r="AR6" s="3" t="n">
-        <v>14110510627.4617</v>
-      </c>
-      <c r="AS6" s="3" t="n">
-        <v>15192987435.5439</v>
-      </c>
-      <c r="AT6" s="3" t="n">
-        <v>15225977738.9764</v>
-      </c>
-      <c r="AU6" s="3" t="n">
-        <v>14012405429.6442</v>
-      </c>
-      <c r="AV6" s="3" t="n">
-        <v>13638663594.8197</v>
-      </c>
-      <c r="AW6" s="3" t="n">
-        <v>6434368340.8512</v>
-      </c>
-      <c r="AX6" s="3"/>
+      <c r="AR6" s="13" t="n">
+        <v>14107101750.5063</v>
+      </c>
+      <c r="AS6" s="13" t="n">
+        <v>15177867962.744</v>
+      </c>
+      <c r="AT6" s="13" t="n">
+        <v>15203796448.0048</v>
+      </c>
+      <c r="AU6" s="13" t="n">
+        <v>13998065538.2494</v>
+      </c>
+      <c r="AV6" s="13" t="n">
+        <v>13621229112.1481</v>
+      </c>
+      <c r="AW6" s="13" t="n">
+        <v>13011582701.3353</v>
+      </c>
+      <c r="AX6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -6933,89 +6936,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3" t="n">
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13" t="n">
         <v>572636615</v>
       </c>
-      <c r="AA7" s="3" t="n">
-        <v>700276049.875</v>
-      </c>
-      <c r="AB7" s="3" t="n">
+      <c r="AA7" s="13" t="n">
+        <v>700276052.875</v>
+      </c>
+      <c r="AB7" s="13" t="n">
         <v>762655276</v>
       </c>
-      <c r="AC7" s="3" t="n">
+      <c r="AC7" s="13" t="n">
         <v>819932062</v>
       </c>
-      <c r="AD7" s="3" t="n">
-        <v>1386045997</v>
-      </c>
-      <c r="AE7" s="3" t="n">
-        <v>2098175267.1875</v>
-      </c>
-      <c r="AF7" s="3" t="n">
-        <v>1586235192.373</v>
-      </c>
-      <c r="AG7" s="3" t="n">
-        <v>1731491457.1049</v>
-      </c>
-      <c r="AH7" s="3" t="n">
-        <v>1165626022.0423</v>
-      </c>
-      <c r="AI7" s="3" t="n">
-        <v>1608472749.4224</v>
-      </c>
-      <c r="AJ7" s="3" t="n">
+      <c r="AD7" s="13" t="n">
+        <v>1386046004</v>
+      </c>
+      <c r="AE7" s="13" t="n">
+        <v>2098175271.1875</v>
+      </c>
+      <c r="AF7" s="13" t="n">
+        <v>1586235193.2845</v>
+      </c>
+      <c r="AG7" s="13" t="n">
+        <v>1731758562.3023</v>
+      </c>
+      <c r="AH7" s="13" t="n">
+        <v>1170878334.7373</v>
+      </c>
+      <c r="AI7" s="13" t="n">
+        <v>1608472749.5467</v>
+      </c>
+      <c r="AJ7" s="13" t="n">
         <v>2681972519.1245</v>
       </c>
-      <c r="AK7" s="3" t="n">
+      <c r="AK7" s="13" t="n">
         <v>2059411573.4266</v>
       </c>
-      <c r="AL7" s="3" t="n">
+      <c r="AL7" s="13" t="n">
         <v>1764305123.303</v>
       </c>
-      <c r="AM7" s="3" t="n">
+      <c r="AM7" s="13" t="n">
         <v>931772516.5176</v>
       </c>
-      <c r="AN7" s="3" t="n">
+      <c r="AN7" s="13" t="n">
         <v>615529782.1261</v>
       </c>
-      <c r="AO7" s="3" t="n">
+      <c r="AO7" s="13" t="n">
         <v>664256316.377</v>
       </c>
-      <c r="AP7" s="3" t="n">
+      <c r="AP7" s="13" t="n">
         <v>1009232434.8681</v>
       </c>
-      <c r="AQ7" s="3" t="n">
+      <c r="AQ7" s="13" t="n">
         <v>1520885804.4895</v>
       </c>
-      <c r="AR7" s="3" t="n">
-        <v>1179133714.7599</v>
-      </c>
-      <c r="AS7" s="3" t="n">
-        <v>1250667059.2506</v>
-      </c>
-      <c r="AT7" s="3" t="n">
-        <v>1024117345.9261</v>
-      </c>
-      <c r="AU7" s="3" t="n">
-        <v>917836539.796</v>
-      </c>
-      <c r="AV7" s="3" t="n">
-        <v>1085388156.924</v>
-      </c>
-      <c r="AW7" s="3" t="n">
-        <v>601338122.6111</v>
-      </c>
-      <c r="AX7" s="3"/>
+      <c r="AR7" s="13" t="n">
+        <v>1177284777.8423</v>
+      </c>
+      <c r="AS7" s="13" t="n">
+        <v>1250759146.1901</v>
+      </c>
+      <c r="AT7" s="13" t="n">
+        <v>1024082860.7399</v>
+      </c>
+      <c r="AU7" s="13" t="n">
+        <v>916119377.1542</v>
+      </c>
+      <c r="AV7" s="13" t="n">
+        <v>1085387317.1159</v>
+      </c>
+      <c r="AW7" s="13" t="n">
+        <v>1568315730.6318</v>
+      </c>
+      <c r="AX7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -7033,75 +7036,75 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3" t="n">
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13" t="n">
         <v>630815.8438</v>
       </c>
-      <c r="AA8" s="3" t="n">
+      <c r="AA8" s="13" t="n">
         <v>165305</v>
       </c>
-      <c r="AB8" s="3" t="n">
+      <c r="AB8" s="13" t="n">
         <v>21370907</v>
       </c>
-      <c r="AC8" s="3" t="n">
+      <c r="AC8" s="13" t="n">
         <v>95453350.9297</v>
       </c>
-      <c r="AD8" s="3" t="n">
+      <c r="AD8" s="13" t="n">
         <v>193097212.1778</v>
       </c>
-      <c r="AE8" s="3" t="n">
-        <v>355929347.3939</v>
-      </c>
-      <c r="AF8" s="3" t="n">
-        <v>689542514.8119</v>
-      </c>
-      <c r="AG8" s="3" t="n">
-        <v>2737039346.3235</v>
-      </c>
-      <c r="AH8" s="3" t="n">
-        <v>4183647377.3102</v>
-      </c>
-      <c r="AI8" s="3" t="n">
-        <v>4737546063.5601</v>
-      </c>
-      <c r="AJ8" s="3" t="n">
+      <c r="AE8" s="13" t="n">
+        <v>355929347.3926</v>
+      </c>
+      <c r="AF8" s="13" t="n">
+        <v>689542515.8181</v>
+      </c>
+      <c r="AG8" s="13" t="n">
+        <v>2736426166.653</v>
+      </c>
+      <c r="AH8" s="13" t="n">
+        <v>4181897375.4904</v>
+      </c>
+      <c r="AI8" s="13" t="n">
+        <v>4737546060.7354</v>
+      </c>
+      <c r="AJ8" s="13" t="n">
         <v>268866937.412</v>
       </c>
-      <c r="AK8" s="3" t="n">
+      <c r="AK8" s="13" t="n">
         <v>117347085.451</v>
       </c>
-      <c r="AL8" s="3" t="n">
+      <c r="AL8" s="13" t="n">
         <v>2583647.7504</v>
       </c>
-      <c r="AM8" s="3" t="n">
+      <c r="AM8" s="13" t="n">
         <v>7700463.98</v>
       </c>
-      <c r="AN8" s="3" t="n">
+      <c r="AN8" s="13" t="n">
         <v>-7419796.22</v>
       </c>
-      <c r="AO8" s="3" t="n">
+      <c r="AO8" s="13" t="n">
         <v>147331.4063</v>
       </c>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3" t="n">
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13" t="n">
         <v>467462</v>
       </c>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -7117,109 +7120,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="13" t="n">
         <v>19702439894</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="13" t="n">
         <v>19319595733</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="13" t="n">
         <v>19385047958</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="S9" s="13" t="n">
         <v>18241613499</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="T9" s="13" t="n">
         <v>17643919462</v>
       </c>
-      <c r="U9" s="3" t="n">
+      <c r="U9" s="13" t="n">
         <v>18690643667</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="V9" s="13" t="n">
         <v>18181185718</v>
       </c>
-      <c r="W9" s="3" t="n">
+      <c r="W9" s="13" t="n">
         <v>18425728076</v>
       </c>
-      <c r="X9" s="3" t="n">
+      <c r="X9" s="13" t="n">
         <v>17479311563</v>
       </c>
-      <c r="Y9" s="3" t="n">
+      <c r="Y9" s="13" t="n">
         <v>19571291342</v>
       </c>
-      <c r="Z9" s="3" t="n">
+      <c r="Z9" s="13" t="n">
         <v>4658353200.2078</v>
       </c>
-      <c r="AA9" s="3" t="n">
+      <c r="AA9" s="13" t="n">
         <v>4188292564.0806</v>
       </c>
-      <c r="AB9" s="3" t="n">
+      <c r="AB9" s="13" t="n">
         <v>4882415935.2626</v>
       </c>
-      <c r="AC9" s="3" t="n">
-        <v>4537368163.7471</v>
-      </c>
-      <c r="AD9" s="3" t="n">
+      <c r="AC9" s="13" t="n">
+        <v>4537368163.7469</v>
+      </c>
+      <c r="AD9" s="13" t="n">
         <v>4309222044.7979</v>
       </c>
-      <c r="AE9" s="3" t="n">
+      <c r="AE9" s="13" t="n">
         <v>3159644066.2303</v>
       </c>
-      <c r="AF9" s="3" t="n">
-        <v>2022379043.0552</v>
-      </c>
-      <c r="AG9" s="3" t="n">
-        <v>412801072.4892</v>
-      </c>
-      <c r="AH9" s="3" t="n">
-        <v>1394330977.603</v>
-      </c>
-      <c r="AI9" s="3" t="n">
-        <v>372670232.248</v>
-      </c>
-      <c r="AJ9" s="3" t="n">
+      <c r="AF9" s="13" t="n">
+        <v>2022379043.0551</v>
+      </c>
+      <c r="AG9" s="13" t="n">
+        <v>412801078.5145</v>
+      </c>
+      <c r="AH9" s="13" t="n">
+        <v>1394330979.0396</v>
+      </c>
+      <c r="AI9" s="13" t="n">
+        <v>372670234.705</v>
+      </c>
+      <c r="AJ9" s="13" t="n">
         <v>78892223.9801</v>
       </c>
-      <c r="AK9" s="3" t="n">
+      <c r="AK9" s="13" t="n">
         <v>20548034.1254</v>
       </c>
-      <c r="AL9" s="3" t="n">
+      <c r="AL9" s="13" t="n">
         <v>294710770.6983</v>
       </c>
-      <c r="AM9" s="3" t="n">
+      <c r="AM9" s="13" t="n">
         <v>384292786.2963</v>
       </c>
-      <c r="AN9" s="3" t="n">
+      <c r="AN9" s="13" t="n">
         <v>483845535.8117</v>
       </c>
-      <c r="AO9" s="3" t="n">
+      <c r="AO9" s="13" t="n">
         <v>225120829.7598</v>
       </c>
-      <c r="AP9" s="3" t="n">
+      <c r="AP9" s="13" t="n">
         <v>220554551.2435</v>
       </c>
-      <c r="AQ9" s="3" t="n">
+      <c r="AQ9" s="13" t="n">
         <v>438446249.742</v>
       </c>
-      <c r="AR9" s="3" t="n">
+      <c r="AR9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="3" t="n">
+      <c r="AS9" s="13" t="n">
         <v>50903.5586</v>
       </c>
-      <c r="AT9" s="3" t="n">
+      <c r="AT9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="3" t="n">
+      <c r="AU9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="3" t="n">
+      <c r="AV9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="3" t="n">
+      <c r="AW9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="3"/>
+      <c r="AX9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -7234,107 +7237,107 @@
       <c r="O10" t="s">
         <v>543</v>
       </c>
-      <c r="P10" s="3" t="str">
+      <c r="P10" s="13" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="3" t="str">
+      <c r="Q10" s="13" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="3" t="str">
+      <c r="R10" s="13" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="3" t="str">
+      <c r="S10" s="13" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="3" t="str">
+      <c r="T10" s="13" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="3" t="str">
+      <c r="U10" s="13" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="3" t="str">
+      <c r="V10" s="13" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="3" t="str">
+      <c r="W10" s="13" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="3" t="str">
+      <c r="X10" s="13" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="3" t="str">
+      <c r="Y10" s="13" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="3" t="str">
+      <c r="Z10" s="13" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="3" t="str">
+      <c r="AA10" s="13" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="3" t="str">
+      <c r="AB10" s="13" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="3" t="str">
+      <c r="AC10" s="13" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="3" t="str">
+      <c r="AD10" s="13" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="3" t="str">
+      <c r="AE10" s="13" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="3" t="str">
+      <c r="AF10" s="13" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="3" t="str">
+      <c r="AG10" s="13" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="3" t="str">
+      <c r="AH10" s="13" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="3" t="str">
+      <c r="AI10" s="13" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="3" t="str">
+      <c r="AJ10" s="13" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="3" t="str">
+      <c r="AK10" s="13" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="3" t="str">
+      <c r="AL10" s="13" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="3" t="str">
+      <c r="AM10" s="13" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="3" t="str">
+      <c r="AN10" s="13" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="3" t="str">
+      <c r="AO10" s="13" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="3" t="str">
+      <c r="AP10" s="13" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="3" t="str">
+      <c r="AQ10" s="13" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="3" t="str">
+      <c r="AR10" s="13" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="3" t="str">
+      <c r="AS10" s="13" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="3" t="str">
+      <c r="AT10" s="13" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="3" t="str">
+      <c r="AU10" s="13" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="3" t="str">
+      <c r="AV10" s="13" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -7466,94 +7469,94 @@
         <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>48</v>
+        <v>549</v>
       </c>
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3" t="n">
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13" t="n">
         <v>12514491468.9675</v>
       </c>
-      <c r="AA14" s="3" t="n">
-        <v>14773845481.5322</v>
-      </c>
-      <c r="AB14" s="3" t="n">
-        <v>15935079232.2282</v>
-      </c>
-      <c r="AC14" s="3" t="n">
-        <v>21223851699.0718</v>
-      </c>
-      <c r="AD14" s="3" t="n">
-        <v>26355823246.7974</v>
-      </c>
-      <c r="AE14" s="3" t="n">
-        <v>28882764171.6176</v>
-      </c>
-      <c r="AF14" s="3" t="n">
-        <v>32982769794.0111</v>
-      </c>
-      <c r="AG14" s="3" t="n">
-        <v>37712732893.711</v>
-      </c>
-      <c r="AH14" s="3" t="n">
-        <v>39030428706.4601</v>
-      </c>
-      <c r="AI14" s="3" t="n">
-        <v>38159763663.1629</v>
-      </c>
-      <c r="AJ14" s="3" t="n">
+      <c r="AA14" s="13" t="n">
+        <v>14773845449.9827</v>
+      </c>
+      <c r="AB14" s="13" t="n">
+        <v>15935079233.7919</v>
+      </c>
+      <c r="AC14" s="13" t="n">
+        <v>21223851701.3141</v>
+      </c>
+      <c r="AD14" s="13" t="n">
+        <v>26355823245.968</v>
+      </c>
+      <c r="AE14" s="13" t="n">
+        <v>28882764160.0806</v>
+      </c>
+      <c r="AF14" s="13" t="n">
+        <v>32982769776.956</v>
+      </c>
+      <c r="AG14" s="13" t="n">
+        <v>37713203849.9128</v>
+      </c>
+      <c r="AH14" s="13" t="n">
+        <v>39032075572.0354</v>
+      </c>
+      <c r="AI14" s="13" t="n">
+        <v>38159763674.7534</v>
+      </c>
+      <c r="AJ14" s="13" t="n">
         <v>40115358312.4323</v>
       </c>
-      <c r="AK14" s="3" t="n">
+      <c r="AK14" s="13" t="n">
         <v>36144077590.9663</v>
       </c>
-      <c r="AL14" s="3" t="n">
+      <c r="AL14" s="13" t="n">
         <v>37018659942.2246</v>
       </c>
-      <c r="AM14" s="3" t="n">
+      <c r="AM14" s="13" t="n">
         <v>30712289860.1704</v>
       </c>
-      <c r="AN14" s="3" t="n">
+      <c r="AN14" s="13" t="n">
         <v>30369120355.357</v>
       </c>
-      <c r="AO14" s="3" t="n">
-        <v>29393277018.1968</v>
-      </c>
-      <c r="AP14" s="3" t="n">
+      <c r="AO14" s="13" t="n">
+        <v>29393112094.1564</v>
+      </c>
+      <c r="AP14" s="13" t="n">
         <v>30681556095.03</v>
       </c>
-      <c r="AQ14" s="3" t="n">
+      <c r="AQ14" s="13" t="n">
         <v>31375093757.338</v>
       </c>
-      <c r="AR14" s="3" t="n">
-        <v>36534604813.5559</v>
-      </c>
-      <c r="AS14" s="3" t="n">
-        <v>38295143099.753</v>
-      </c>
-      <c r="AT14" s="3" t="n">
-        <v>38133070394.0319</v>
-      </c>
-      <c r="AU14" s="3" t="n">
-        <v>33282260036.8683</v>
-      </c>
-      <c r="AV14" s="3" t="n">
-        <v>33048419165.1799</v>
-      </c>
-      <c r="AW14" s="3" t="n">
-        <v>13950755187.0482</v>
-      </c>
-      <c r="AX14" s="3"/>
+      <c r="AR14" s="13" t="n">
+        <v>36504781855.6233</v>
+      </c>
+      <c r="AS14" s="13" t="n">
+        <v>38321340846.8787</v>
+      </c>
+      <c r="AT14" s="13" t="n">
+        <v>38128538633.5098</v>
+      </c>
+      <c r="AU14" s="13" t="n">
+        <v>33276688554.1943</v>
+      </c>
+      <c r="AV14" s="13" t="n">
+        <v>33022194547.0027</v>
+      </c>
+      <c r="AW14" s="13" t="n">
+        <v>34597130777.1824</v>
+      </c>
+      <c r="AX14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -7571,89 +7574,89 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3" t="n">
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13" t="n">
         <v>567547181.377509</v>
       </c>
-      <c r="AA15" s="3" t="n">
-        <v>1436744858.60258</v>
-      </c>
-      <c r="AB15" s="3" t="n">
+      <c r="AA15" s="13" t="n">
+        <v>1436744858.59943</v>
+      </c>
+      <c r="AB15" s="13" t="n">
         <v>1003626638.0212</v>
       </c>
-      <c r="AC15" s="3" t="n">
+      <c r="AC15" s="13" t="n">
         <v>1209076488.71782</v>
       </c>
-      <c r="AD15" s="3" t="n">
-        <v>1467678946.35978</v>
-      </c>
-      <c r="AE15" s="3" t="n">
+      <c r="AD15" s="13" t="n">
+        <v>1467678944.87231</v>
+      </c>
+      <c r="AE15" s="13" t="n">
         <v>1556095054.4149</v>
       </c>
-      <c r="AF15" s="3" t="n">
-        <v>773507217.834188</v>
-      </c>
-      <c r="AG15" s="3" t="n">
-        <v>526594736.597523</v>
-      </c>
-      <c r="AH15" s="3" t="n">
-        <v>792380069.667696</v>
-      </c>
-      <c r="AI15" s="3" t="n">
-        <v>709260369.624965</v>
-      </c>
-      <c r="AJ15" s="3" t="n">
+      <c r="AF15" s="13" t="n">
+        <v>773507217.829015</v>
+      </c>
+      <c r="AG15" s="13" t="n">
+        <v>526594736.812124</v>
+      </c>
+      <c r="AH15" s="13" t="n">
+        <v>792380068.557961</v>
+      </c>
+      <c r="AI15" s="13" t="n">
+        <v>709260368.933755</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
         <v>895440853.719083</v>
       </c>
-      <c r="AK15" s="3" t="n">
+      <c r="AK15" s="13" t="n">
         <v>1455347888.47251</v>
       </c>
-      <c r="AL15" s="3" t="n">
+      <c r="AL15" s="13" t="n">
         <v>456738458.777437</v>
       </c>
-      <c r="AM15" s="3" t="n">
+      <c r="AM15" s="13" t="n">
         <v>206553525.642842</v>
       </c>
-      <c r="AN15" s="3" t="n">
+      <c r="AN15" s="13" t="n">
         <v>125313568.462275</v>
       </c>
-      <c r="AO15" s="3" t="n">
+      <c r="AO15" s="13" t="n">
         <v>158089210.266138</v>
       </c>
-      <c r="AP15" s="3" t="n">
+      <c r="AP15" s="13" t="n">
         <v>223881818.026144</v>
       </c>
-      <c r="AQ15" s="3" t="n">
+      <c r="AQ15" s="13" t="n">
         <v>84225205.0874944</v>
       </c>
-      <c r="AR15" s="3" t="n">
-        <v>129314171.268424</v>
-      </c>
-      <c r="AS15" s="3" t="n">
-        <v>96646712.6868914</v>
-      </c>
-      <c r="AT15" s="3" t="n">
-        <v>100941578.7385</v>
-      </c>
-      <c r="AU15" s="3" t="n">
-        <v>192451923.891646</v>
-      </c>
-      <c r="AV15" s="3" t="n">
-        <v>280510565.1576</v>
-      </c>
-      <c r="AW15" s="3" t="n">
-        <v>110221915.195403</v>
-      </c>
-      <c r="AX15" s="3"/>
+      <c r="AR15" s="13" t="n">
+        <v>129314985.875543</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>96674183.5729568</v>
+      </c>
+      <c r="AT15" s="13" t="n">
+        <v>100941578.738721</v>
+      </c>
+      <c r="AU15" s="13" t="n">
+        <v>192451923.892822</v>
+      </c>
+      <c r="AV15" s="13" t="n">
+        <v>280510565.2276</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>332279403.855487</v>
+      </c>
+      <c r="AX15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -7671,89 +7674,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3" t="n">
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13" t="n">
         <v>3025037761.96926</v>
       </c>
-      <c r="AA16" s="3" t="n">
-        <v>2699371470.63925</v>
-      </c>
-      <c r="AB16" s="3" t="n">
-        <v>3405986776.30812</v>
-      </c>
-      <c r="AC16" s="3" t="n">
+      <c r="AA16" s="13" t="n">
+        <v>2699371470.61559</v>
+      </c>
+      <c r="AB16" s="13" t="n">
+        <v>3405986776.29352</v>
+      </c>
+      <c r="AC16" s="13" t="n">
         <v>4947189360.42497</v>
       </c>
-      <c r="AD16" s="3" t="n">
+      <c r="AD16" s="13" t="n">
         <v>6075094428.3048</v>
       </c>
-      <c r="AE16" s="3" t="n">
-        <v>7972978705.66475</v>
-      </c>
-      <c r="AF16" s="3" t="n">
-        <v>8940618035.27962</v>
-      </c>
-      <c r="AG16" s="3" t="n">
-        <v>10994405790.1026</v>
-      </c>
-      <c r="AH16" s="3" t="n">
-        <v>11078131010.207</v>
-      </c>
-      <c r="AI16" s="3" t="n">
-        <v>9750890011.46887</v>
-      </c>
-      <c r="AJ16" s="3" t="n">
+      <c r="AE16" s="13" t="n">
+        <v>7972978705.62505</v>
+      </c>
+      <c r="AF16" s="13" t="n">
+        <v>8940618034.99482</v>
+      </c>
+      <c r="AG16" s="13" t="n">
+        <v>10993507161.4448</v>
+      </c>
+      <c r="AH16" s="13" t="n">
+        <v>11078131009.5247</v>
+      </c>
+      <c r="AI16" s="13" t="n">
+        <v>9750890012.00133</v>
+      </c>
+      <c r="AJ16" s="13" t="n">
         <v>9264897512.82625</v>
       </c>
-      <c r="AK16" s="3" t="n">
+      <c r="AK16" s="13" t="n">
         <v>5537994648.53861</v>
       </c>
-      <c r="AL16" s="3" t="n">
+      <c r="AL16" s="13" t="n">
         <v>2507425233.35849</v>
       </c>
-      <c r="AM16" s="3" t="n">
+      <c r="AM16" s="13" t="n">
         <v>1076119094.89438</v>
       </c>
-      <c r="AN16" s="3" t="n">
+      <c r="AN16" s="13" t="n">
         <v>761566093.338394</v>
       </c>
-      <c r="AO16" s="3" t="n">
+      <c r="AO16" s="13" t="n">
         <v>572836864.370754</v>
       </c>
-      <c r="AP16" s="3" t="n">
+      <c r="AP16" s="13" t="n">
         <v>667316921.950228</v>
       </c>
-      <c r="AQ16" s="3" t="n">
+      <c r="AQ16" s="13" t="n">
         <v>632988480.397044</v>
       </c>
-      <c r="AR16" s="3" t="n">
-        <v>583032725.590335</v>
-      </c>
-      <c r="AS16" s="3" t="n">
-        <v>517344578.732819</v>
-      </c>
-      <c r="AT16" s="3" t="n">
-        <v>519241165.121669</v>
-      </c>
-      <c r="AU16" s="3" t="n">
-        <v>-15611420.7612939</v>
-      </c>
-      <c r="AV16" s="3" t="n">
-        <v>534502114.3888</v>
-      </c>
-      <c r="AW16" s="3" t="n">
-        <v>333958203.091886</v>
-      </c>
-      <c r="AX16" s="3"/>
+      <c r="AR16" s="13" t="n">
+        <v>588549984.996025</v>
+      </c>
+      <c r="AS16" s="13" t="n">
+        <v>517970062.398349</v>
+      </c>
+      <c r="AT16" s="13" t="n">
+        <v>519703467.605785</v>
+      </c>
+      <c r="AU16" s="13" t="n">
+        <v>-15266890.9652444</v>
+      </c>
+      <c r="AV16" s="13" t="n">
+        <v>536822788.0714</v>
+      </c>
+      <c r="AW16" s="13" t="n">
+        <v>795375206.096301</v>
+      </c>
+      <c r="AX16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -7771,89 +7774,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3" t="n">
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13" t="n">
         <v>676893024.468438</v>
       </c>
-      <c r="AA17" s="3" t="n">
-        <v>647537655.672858</v>
-      </c>
-      <c r="AB17" s="3" t="n">
-        <v>1678430192.92835</v>
-      </c>
-      <c r="AC17" s="3" t="n">
-        <v>1581251114.91632</v>
-      </c>
-      <c r="AD17" s="3" t="n">
-        <v>1260840689.10455</v>
-      </c>
-      <c r="AE17" s="3" t="n">
-        <v>1613667645.53559</v>
-      </c>
-      <c r="AF17" s="3" t="n">
-        <v>1555432849.5759</v>
-      </c>
-      <c r="AG17" s="3" t="n">
-        <v>1131488134.90371</v>
-      </c>
-      <c r="AH17" s="3" t="n">
-        <v>1100888048.17766</v>
-      </c>
-      <c r="AI17" s="3" t="n">
-        <v>1157722873.47932</v>
-      </c>
-      <c r="AJ17" s="3" t="n">
+      <c r="AA17" s="13" t="n">
+        <v>647537654.095381</v>
+      </c>
+      <c r="AB17" s="13" t="n">
+        <v>1678430206.90504</v>
+      </c>
+      <c r="AC17" s="13" t="n">
+        <v>1581251113.39248</v>
+      </c>
+      <c r="AD17" s="13" t="n">
+        <v>1260840686.12959</v>
+      </c>
+      <c r="AE17" s="13" t="n">
+        <v>1613667649.21662</v>
+      </c>
+      <c r="AF17" s="13" t="n">
+        <v>1555432850.97404</v>
+      </c>
+      <c r="AG17" s="13" t="n">
+        <v>1131488137.3725</v>
+      </c>
+      <c r="AH17" s="13" t="n">
+        <v>1100888048.26857</v>
+      </c>
+      <c r="AI17" s="13" t="n">
+        <v>1157722872.38946</v>
+      </c>
+      <c r="AJ17" s="13" t="n">
         <v>2662844673.7949</v>
       </c>
-      <c r="AK17" s="3" t="n">
+      <c r="AK17" s="13" t="n">
         <v>2797537660.42599</v>
       </c>
-      <c r="AL17" s="3" t="n">
+      <c r="AL17" s="13" t="n">
         <v>2296594416.75883</v>
       </c>
-      <c r="AM17" s="3" t="n">
+      <c r="AM17" s="13" t="n">
         <v>2603350560.60856</v>
       </c>
-      <c r="AN17" s="3" t="n">
+      <c r="AN17" s="13" t="n">
         <v>3713643857.92027</v>
       </c>
-      <c r="AO17" s="3" t="n">
+      <c r="AO17" s="13" t="n">
         <v>2931496074.08697</v>
       </c>
-      <c r="AP17" s="3" t="n">
+      <c r="AP17" s="13" t="n">
         <v>4263829555.49789</v>
       </c>
-      <c r="AQ17" s="3" t="n">
+      <c r="AQ17" s="13" t="n">
         <v>4338588523.78919</v>
       </c>
-      <c r="AR17" s="3" t="n">
-        <v>3512469739.96491</v>
-      </c>
-      <c r="AS17" s="3" t="n">
-        <v>4189237649.3107</v>
-      </c>
-      <c r="AT17" s="3" t="n">
-        <v>4468550667.8859</v>
-      </c>
-      <c r="AU17" s="3" t="n">
-        <v>3617636430.84628</v>
-      </c>
-      <c r="AV17" s="3" t="n">
-        <v>4999872807.408</v>
-      </c>
-      <c r="AW17" s="3" t="n">
-        <v>2638799974.97719</v>
-      </c>
-      <c r="AX17" s="3"/>
+      <c r="AR17" s="13" t="n">
+        <v>3512469739.57997</v>
+      </c>
+      <c r="AS17" s="13" t="n">
+        <v>4210176498.82266</v>
+      </c>
+      <c r="AT17" s="13" t="n">
+        <v>4467502101.33602</v>
+      </c>
+      <c r="AU17" s="13" t="n">
+        <v>3617533393.00225</v>
+      </c>
+      <c r="AV17" s="13" t="n">
+        <v>4999672957.258</v>
+      </c>
+      <c r="AW17" s="13" t="n">
+        <v>4139297570.06834</v>
+      </c>
+      <c r="AX17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -7871,89 +7874,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3" t="n">
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13" t="n">
         <v>8290635094.71531</v>
       </c>
-      <c r="AA18" s="3" t="n">
-        <v>8045175218.82085</v>
-      </c>
-      <c r="AB18" s="3" t="n">
-        <v>9248718328.704</v>
-      </c>
-      <c r="AC18" s="3" t="n">
-        <v>10705566700.61</v>
-      </c>
-      <c r="AD18" s="3" t="n">
-        <v>11909883813.0894</v>
-      </c>
-      <c r="AE18" s="3" t="n">
-        <v>12840403471.262</v>
-      </c>
-      <c r="AF18" s="3" t="n">
-        <v>12937464432.1182</v>
-      </c>
-      <c r="AG18" s="3" t="n">
-        <v>14372841801.6714</v>
-      </c>
-      <c r="AH18" s="3" t="n">
-        <v>14927364167.7269</v>
-      </c>
-      <c r="AI18" s="3" t="n">
-        <v>14390837829.3095</v>
-      </c>
-      <c r="AJ18" s="3" t="n">
+      <c r="AA18" s="13" t="n">
+        <v>8045175212.51094</v>
+      </c>
+      <c r="AB18" s="13" t="n">
+        <v>9248718325.59807</v>
+      </c>
+      <c r="AC18" s="13" t="n">
+        <v>10697032658.8653</v>
+      </c>
+      <c r="AD18" s="13" t="n">
+        <v>11909883817.3704</v>
+      </c>
+      <c r="AE18" s="13" t="n">
+        <v>12840403466.8452</v>
+      </c>
+      <c r="AF18" s="13" t="n">
+        <v>12937464431.8591</v>
+      </c>
+      <c r="AG18" s="13" t="n">
+        <v>14372841816.5041</v>
+      </c>
+      <c r="AH18" s="13" t="n">
+        <v>14921048654.738</v>
+      </c>
+      <c r="AI18" s="13" t="n">
+        <v>14390837826.7593</v>
+      </c>
+      <c r="AJ18" s="13" t="n">
         <v>16516844243.3473</v>
       </c>
-      <c r="AK18" s="3" t="n">
+      <c r="AK18" s="13" t="n">
         <v>18467297412.1422</v>
       </c>
-      <c r="AL18" s="3" t="n">
+      <c r="AL18" s="13" t="n">
         <v>17611147064.9327</v>
       </c>
-      <c r="AM18" s="3" t="n">
+      <c r="AM18" s="13" t="n">
         <v>14607346933.4983</v>
       </c>
-      <c r="AN18" s="3" t="n">
+      <c r="AN18" s="13" t="n">
         <v>13269695923.6464</v>
       </c>
-      <c r="AO18" s="3" t="n">
+      <c r="AO18" s="13" t="n">
         <v>13393421613.1278</v>
       </c>
-      <c r="AP18" s="3" t="n">
+      <c r="AP18" s="13" t="n">
         <v>14214699461.981</v>
       </c>
-      <c r="AQ18" s="3" t="n">
+      <c r="AQ18" s="13" t="n">
         <v>14699525271.1156</v>
       </c>
-      <c r="AR18" s="3" t="n">
-        <v>16112954326.5601</v>
-      </c>
-      <c r="AS18" s="3" t="n">
-        <v>17015767592.4262</v>
-      </c>
-      <c r="AT18" s="3" t="n">
-        <v>16828219920.271</v>
-      </c>
-      <c r="AU18" s="3" t="n">
-        <v>14983291300.9684</v>
-      </c>
-      <c r="AV18" s="3" t="n">
-        <v>13638663594.8197</v>
-      </c>
-      <c r="AW18" s="3" t="n">
-        <v>6137090096.1938</v>
-      </c>
-      <c r="AX18" s="3"/>
+      <c r="AR18" s="13" t="n">
+        <v>16109061690.7698</v>
+      </c>
+      <c r="AS18" s="13" t="n">
+        <v>16998834159.395</v>
+      </c>
+      <c r="AT18" s="13" t="n">
+        <v>16803704473.7765</v>
+      </c>
+      <c r="AU18" s="13" t="n">
+        <v>14967957832.9874</v>
+      </c>
+      <c r="AV18" s="13" t="n">
+        <v>13621229112.1481</v>
+      </c>
+      <c r="AW18" s="13" t="n">
+        <v>12410426494.4222</v>
+      </c>
+      <c r="AX18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -7971,89 +7974,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3" t="n">
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13" t="n">
         <v>925226186.4536</v>
       </c>
-      <c r="AA19" s="3" t="n">
-        <v>1104669460.22777</v>
-      </c>
-      <c r="AB19" s="3" t="n">
+      <c r="AA19" s="13" t="n">
+        <v>1104669464.9602</v>
+      </c>
+      <c r="AB19" s="13" t="n">
         <v>1184377591.64278</v>
       </c>
-      <c r="AC19" s="3" t="n">
+      <c r="AC19" s="13" t="n">
         <v>1249443908.72384</v>
       </c>
-      <c r="AD19" s="3" t="n">
-        <v>2061714769.14507</v>
-      </c>
-      <c r="AE19" s="3" t="n">
-        <v>3029040598.76154</v>
-      </c>
-      <c r="AF19" s="3" t="n">
-        <v>2217770597.01299</v>
-      </c>
-      <c r="AG19" s="3" t="n">
-        <v>2356242913.07615</v>
-      </c>
-      <c r="AH19" s="3" t="n">
-        <v>1553797871.23047</v>
-      </c>
-      <c r="AI19" s="3" t="n">
-        <v>2122550282.50422</v>
-      </c>
-      <c r="AJ19" s="3" t="n">
+      <c r="AD19" s="13" t="n">
+        <v>2061714779.55742</v>
+      </c>
+      <c r="AE19" s="13" t="n">
+        <v>3029040604.53615</v>
+      </c>
+      <c r="AF19" s="13" t="n">
+        <v>2217770598.28739</v>
+      </c>
+      <c r="AG19" s="13" t="n">
+        <v>2356606394.35458</v>
+      </c>
+      <c r="AH19" s="13" t="n">
+        <v>1560799286.89055</v>
+      </c>
+      <c r="AI19" s="13" t="n">
+        <v>2122550282.66825</v>
+      </c>
+      <c r="AJ19" s="13" t="n">
         <v>3508630783.30238</v>
       </c>
-      <c r="AK19" s="3" t="n">
+      <c r="AK19" s="13" t="n">
         <v>2640954168.25818</v>
       </c>
-      <c r="AL19" s="3" t="n">
+      <c r="AL19" s="13" t="n">
         <v>2221789441.35155</v>
       </c>
-      <c r="AM19" s="3" t="n">
+      <c r="AM19" s="13" t="n">
         <v>1152294146.64536</v>
       </c>
-      <c r="AN19" s="3" t="n">
+      <c r="AN19" s="13" t="n">
         <v>746759783.036562</v>
       </c>
-      <c r="AO19" s="3" t="n">
+      <c r="AO19" s="13" t="n">
         <v>796740622.592979</v>
       </c>
-      <c r="AP19" s="3" t="n">
+      <c r="AP19" s="13" t="n">
         <v>1200572837.64093</v>
       </c>
-      <c r="AQ19" s="3" t="n">
+      <c r="AQ19" s="13" t="n">
         <v>1777495586.58826</v>
       </c>
-      <c r="AR19" s="3" t="n">
-        <v>1346466346.43095</v>
-      </c>
-      <c r="AS19" s="3" t="n">
-        <v>1400715962.28168</v>
-      </c>
-      <c r="AT19" s="3" t="n">
-        <v>1131886057.95028</v>
-      </c>
-      <c r="AU19" s="3" t="n">
-        <v>981431226.172102</v>
-      </c>
-      <c r="AV19" s="3" t="n">
-        <v>1085388156.924</v>
-      </c>
-      <c r="AW19" s="3" t="n">
-        <v>573555326.839145</v>
-      </c>
-      <c r="AX19" s="3"/>
+      <c r="AR19" s="13" t="n">
+        <v>1344355024.10587</v>
+      </c>
+      <c r="AS19" s="13" t="n">
+        <v>1400819097.36077</v>
+      </c>
+      <c r="AT19" s="13" t="n">
+        <v>1131847943.85952</v>
+      </c>
+      <c r="AU19" s="13" t="n">
+        <v>979595085.460758</v>
+      </c>
+      <c r="AV19" s="13" t="n">
+        <v>1085387317.1159</v>
+      </c>
+      <c r="AW19" s="13" t="n">
+        <v>1495857002.31953</v>
+      </c>
+      <c r="AX19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -8071,75 +8074,75 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3" t="n">
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13" t="n">
         <v>1019228.11469816</v>
       </c>
-      <c r="AA20" s="3" t="n">
+      <c r="AA20" s="13" t="n">
         <v>260764.85859476</v>
       </c>
-      <c r="AB20" s="3" t="n">
+      <c r="AB20" s="13" t="n">
         <v>33188288.549756</v>
       </c>
-      <c r="AC20" s="3" t="n">
+      <c r="AC20" s="13" t="n">
         <v>145455475.415221</v>
       </c>
-      <c r="AD20" s="3" t="n">
+      <c r="AD20" s="13" t="n">
         <v>287228111.541315</v>
       </c>
-      <c r="AE20" s="3" t="n">
-        <v>513839077.415107</v>
-      </c>
-      <c r="AF20" s="3" t="n">
-        <v>964073374.549508</v>
-      </c>
-      <c r="AG20" s="3" t="n">
-        <v>3724609518.64494</v>
-      </c>
-      <c r="AH20" s="3" t="n">
-        <v>5576867936.98537</v>
-      </c>
-      <c r="AI20" s="3" t="n">
-        <v>6251694185.80279</v>
-      </c>
-      <c r="AJ20" s="3" t="n">
+      <c r="AE20" s="13" t="n">
+        <v>513839077.413231</v>
+      </c>
+      <c r="AF20" s="13" t="n">
+        <v>964073375.956311</v>
+      </c>
+      <c r="AG20" s="13" t="n">
+        <v>3723775093.35966</v>
+      </c>
+      <c r="AH20" s="13" t="n">
+        <v>5574535156.95916</v>
+      </c>
+      <c r="AI20" s="13" t="n">
+        <v>6251694182.0753</v>
+      </c>
+      <c r="AJ20" s="13" t="n">
         <v>351739179.461811</v>
       </c>
-      <c r="AK20" s="3" t="n">
+      <c r="AK20" s="13" t="n">
         <v>150483894.746265</v>
       </c>
-      <c r="AL20" s="3" t="n">
+      <c r="AL20" s="13" t="n">
         <v>3253587.61145794</v>
       </c>
-      <c r="AM20" s="3" t="n">
+      <c r="AM20" s="13" t="n">
         <v>9522924.76254834</v>
       </c>
-      <c r="AN20" s="3" t="n">
+      <c r="AN20" s="13" t="n">
         <v>-9001685.33890305</v>
       </c>
-      <c r="AO20" s="3" t="n">
+      <c r="AO20" s="13" t="n">
         <v>176716.296840359</v>
       </c>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3" t="n">
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13" t="n">
         <v>467462</v>
       </c>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -8155,109 +8158,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="3" t="n">
+      <c r="P21" s="13" t="n">
         <v>39159221227.3348</v>
       </c>
-      <c r="Q21" s="3" t="n">
+      <c r="Q21" s="13" t="n">
         <v>37075841095.001</v>
       </c>
-      <c r="R21" s="3" t="n">
+      <c r="R21" s="13" t="n">
         <v>36294366444.8787</v>
       </c>
-      <c r="S21" s="3" t="n">
+      <c r="S21" s="13" t="n">
         <v>33369645404.352</v>
       </c>
-      <c r="T21" s="3" t="n">
+      <c r="T21" s="13" t="n">
         <v>31587983747.9476</v>
       </c>
-      <c r="U21" s="3" t="n">
+      <c r="U21" s="13" t="n">
         <v>32767823423.5663</v>
       </c>
-      <c r="V21" s="3" t="n">
+      <c r="V21" s="13" t="n">
         <v>31286645512.572</v>
       </c>
-      <c r="W21" s="3" t="n">
+      <c r="W21" s="13" t="n">
         <v>31154027060.9063</v>
       </c>
-      <c r="X21" s="3" t="n">
+      <c r="X21" s="13" t="n">
         <v>29189360890.8719</v>
       </c>
-      <c r="Y21" s="3" t="n">
+      <c r="Y21" s="13" t="n">
         <v>32280454746.2768</v>
       </c>
-      <c r="Z21" s="3" t="n">
+      <c r="Z21" s="13" t="n">
         <v>7526641248.01413</v>
       </c>
-      <c r="AA21" s="3" t="n">
+      <c r="AA21" s="13" t="n">
         <v>6606935774.63454</v>
       </c>
-      <c r="AB21" s="3" t="n">
+      <c r="AB21" s="13" t="n">
         <v>7582225166.1767</v>
       </c>
-      <c r="AC21" s="3" t="n">
-        <v>6914215550.98462</v>
-      </c>
-      <c r="AD21" s="3" t="n">
+      <c r="AC21" s="13" t="n">
+        <v>6914215550.98431</v>
+      </c>
+      <c r="AD21" s="13" t="n">
         <v>6409878714.35362</v>
       </c>
-      <c r="AE21" s="3" t="n">
+      <c r="AE21" s="13" t="n">
         <v>4561435025.9102</v>
       </c>
-      <c r="AF21" s="3" t="n">
-        <v>2827558485.19115</v>
-      </c>
-      <c r="AG21" s="3" t="n">
-        <v>561746693.910476</v>
-      </c>
-      <c r="AH21" s="3" t="n">
-        <v>1858665184.04787</v>
-      </c>
-      <c r="AI21" s="3" t="n">
-        <v>491777872.533406</v>
-      </c>
-      <c r="AJ21" s="3" t="n">
+      <c r="AF21" s="13" t="n">
+        <v>2827558485.19101</v>
+      </c>
+      <c r="AG21" s="13" t="n">
+        <v>561746702.109806</v>
+      </c>
+      <c r="AH21" s="13" t="n">
+        <v>1858665185.96288</v>
+      </c>
+      <c r="AI21" s="13" t="n">
+        <v>491777875.775678</v>
+      </c>
+      <c r="AJ21" s="13" t="n">
         <v>103208993.994511</v>
       </c>
-      <c r="AK21" s="3" t="n">
+      <c r="AK21" s="13" t="n">
         <v>26350447.4157607</v>
       </c>
-      <c r="AL21" s="3" t="n">
+      <c r="AL21" s="13" t="n">
         <v>371129273.469558</v>
       </c>
-      <c r="AM21" s="3" t="n">
+      <c r="AM21" s="13" t="n">
         <v>475242959.410575</v>
       </c>
-      <c r="AN21" s="3" t="n">
+      <c r="AN21" s="13" t="n">
         <v>587000658.356338</v>
       </c>
-      <c r="AO21" s="3" t="n">
+      <c r="AO21" s="13" t="n">
         <v>270020631.553428</v>
       </c>
-      <c r="AP21" s="3" t="n">
+      <c r="AP21" s="13" t="n">
         <v>262369494.174687</v>
       </c>
-      <c r="AQ21" s="3" t="n">
+      <c r="AQ21" s="13" t="n">
         <v>512422610.278865</v>
       </c>
-      <c r="AR21" s="3" t="n">
+      <c r="AR21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="3" t="n">
+      <c r="AS21" s="13" t="n">
         <v>57010.718032891</v>
       </c>
-      <c r="AT21" s="3" t="n">
+      <c r="AT21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="3" t="n">
+      <c r="AU21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="3" t="n">
+      <c r="AV21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="3" t="n">
+      <c r="AW21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="3"/>
+      <c r="AX21" s="13"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -8266,41 +8269,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
@@ -1690,9 +1690,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
@@ -1701,7 +1701,7 @@
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1739,9 +1739,9 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1751,7 +1751,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2165,110 +2165,110 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="13" t="n">
         <v>11700035314</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="13" t="n">
         <v>10081161897</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="13" t="n">
         <v>8531471514</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="Q2" s="13" t="n">
         <v>8121304048</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="13" t="n">
         <v>7378565194</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="13" t="n">
         <v>8419664740</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="T2" s="13" t="n">
         <v>7996254996</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="U2" s="13" t="n">
         <v>7567531907</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="V2" s="13" t="n">
         <v>7418594145</v>
       </c>
-      <c r="W2" s="1" t="n">
+      <c r="W2" s="13" t="n">
         <v>8227763201</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="X2" s="13" t="n">
         <v>8684401010.0859</v>
       </c>
-      <c r="Y2" s="1" t="n">
-        <v>9026870548.172</v>
-      </c>
-      <c r="Z2" s="1" t="n">
-        <v>10514820344.3802</v>
-      </c>
-      <c r="AA2" s="1" t="n">
-        <v>13795716853.528</v>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>16073404597.3922</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>18719174968.8928</v>
-      </c>
-      <c r="AD2" s="1" t="n">
-        <v>20873730909.2525</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>23775624976.4901</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>26054184062.6379</v>
-      </c>
-      <c r="AG2" s="1" t="n">
-        <v>23869128586.6903</v>
-      </c>
-      <c r="AH2" s="1" t="n">
+      <c r="Y2" s="13" t="n">
+        <v>9026870529.155</v>
+      </c>
+      <c r="Z2" s="13" t="n">
+        <v>10514820347.3809</v>
+      </c>
+      <c r="AA2" s="13" t="n">
+        <v>13790116496.9814</v>
+      </c>
+      <c r="AB2" s="13" t="n">
+        <v>16073404596.7357</v>
+      </c>
+      <c r="AC2" s="13" t="n">
+        <v>18719174970.8771</v>
+      </c>
+      <c r="AD2" s="13" t="n">
+        <v>20873730896.411</v>
+      </c>
+      <c r="AE2" s="13" t="n">
+        <v>23775624996.113</v>
+      </c>
+      <c r="AF2" s="13" t="n">
+        <v>26054184072.8213</v>
+      </c>
+      <c r="AG2" s="13" t="n">
+        <v>23869128597.6252</v>
+      </c>
+      <c r="AH2" s="13" t="n">
         <v>24805458836.7939</v>
       </c>
-      <c r="AI2" s="1" t="n">
+      <c r="AI2" s="13" t="n">
         <v>21419605017.453</v>
       </c>
-      <c r="AJ2" s="1" t="n">
+      <c r="AJ2" s="13" t="n">
         <v>21498741071.7026</v>
       </c>
-      <c r="AK2" s="1" t="n">
+      <c r="AK2" s="13" t="n">
         <v>17576987829.7833</v>
       </c>
-      <c r="AL2" s="1" t="n">
+      <c r="AL2" s="13" t="n">
         <v>18110904721.8891</v>
       </c>
-      <c r="AM2" s="1" t="n">
-        <v>18324491229.5785</v>
-      </c>
-      <c r="AN2" s="1" t="n">
+      <c r="AM2" s="13" t="n">
+        <v>18324353729.5785</v>
+      </c>
+      <c r="AN2" s="13" t="n">
         <v>19658352960.0976</v>
       </c>
-      <c r="AO2" s="1" t="n">
+      <c r="AO2" s="13" t="n">
         <v>21290284393.5529</v>
       </c>
-      <c r="AP2" s="1" t="n">
-        <v>23543555844.9097</v>
-      </c>
-      <c r="AQ2" s="1" t="n">
-        <v>25127698454.5886</v>
-      </c>
-      <c r="AR2" s="1" t="n">
-        <v>23327660862.2622</v>
-      </c>
-      <c r="AS2" s="1" t="n">
-        <v>20837104418.5235</v>
-      </c>
-      <c r="AT2" s="1" t="n">
-        <v>23682759351.5933</v>
-      </c>
-      <c r="AU2" s="1" t="n">
-        <v>11136524172.6448</v>
-      </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+      <c r="AP2" s="13" t="n">
+        <v>23540015810.139</v>
+      </c>
+      <c r="AQ2" s="13" t="n">
+        <v>25130504578.0061</v>
+      </c>
+      <c r="AR2" s="13" t="n">
+        <v>23307693603.3582</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>20830360260.9581</v>
+      </c>
+      <c r="AT2" s="13" t="n">
+        <v>23675639434.1056</v>
+      </c>
+      <c r="AU2" s="13" t="n">
+        <v>26672737311.3772</v>
+      </c>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2277,110 +2277,110 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="13" t="n">
         <v>3573425000</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="O3" s="13" t="n">
         <v>3700301444</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="P3" s="13" t="n">
         <v>4178994977</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="Q3" s="13" t="n">
         <v>3523211028</v>
       </c>
-      <c r="R3" s="1" t="n">
+      <c r="R3" s="13" t="n">
         <v>3643050364</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="S3" s="13" t="n">
         <v>3537845276</v>
       </c>
-      <c r="T3" s="1" t="n">
+      <c r="T3" s="13" t="n">
         <v>3014877084</v>
       </c>
-      <c r="U3" s="1" t="n">
+      <c r="U3" s="13" t="n">
         <v>3737151692</v>
       </c>
-      <c r="V3" s="1" t="n">
+      <c r="V3" s="13" t="n">
         <v>2993041644</v>
       </c>
-      <c r="W3" s="1" t="n">
+      <c r="W3" s="13" t="n">
         <v>3386496796</v>
       </c>
-      <c r="X3" s="1" t="n">
+      <c r="X3" s="13" t="n">
         <v>3219854370</v>
       </c>
-      <c r="Y3" s="1" t="n">
-        <v>3755954513</v>
-      </c>
-      <c r="Z3" s="1" t="n">
-        <v>4389212273</v>
-      </c>
-      <c r="AA3" s="1" t="n">
-        <v>4497648369.3125</v>
-      </c>
-      <c r="AB3" s="1" t="n">
-        <v>5039304729.43</v>
-      </c>
-      <c r="AC3" s="1" t="n">
-        <v>5920884151.006</v>
-      </c>
-      <c r="AD3" s="1" t="n">
-        <v>5428838947.6298</v>
-      </c>
-      <c r="AE3" s="1" t="n">
-        <v>6856882959.6699</v>
-      </c>
-      <c r="AF3" s="1" t="n">
-        <v>6831973931.0393</v>
-      </c>
-      <c r="AG3" s="1" t="n">
-        <v>6917032062.7505</v>
-      </c>
-      <c r="AH3" s="1" t="n">
+      <c r="Y3" s="13" t="n">
+        <v>3755954516</v>
+      </c>
+      <c r="Z3" s="13" t="n">
+        <v>4389212277</v>
+      </c>
+      <c r="AA3" s="13" t="n">
+        <v>4497648362.3275</v>
+      </c>
+      <c r="AB3" s="13" t="n">
+        <v>5039304727.4075</v>
+      </c>
+      <c r="AC3" s="13" t="n">
+        <v>5920884143.9395</v>
+      </c>
+      <c r="AD3" s="13" t="n">
+        <v>5428838943.5233</v>
+      </c>
+      <c r="AE3" s="13" t="n">
+        <v>6856882968.71</v>
+      </c>
+      <c r="AF3" s="13" t="n">
+        <v>6831973921.6098</v>
+      </c>
+      <c r="AG3" s="13" t="n">
+        <v>6917032060.1183</v>
+      </c>
+      <c r="AH3" s="13" t="n">
         <v>7619741226.0681</v>
       </c>
-      <c r="AI3" s="1" t="n">
+      <c r="AI3" s="13" t="n">
         <v>7747507528.8668</v>
       </c>
-      <c r="AJ3" s="1" t="n">
+      <c r="AJ3" s="13" t="n">
         <v>7224439663.1544</v>
       </c>
-      <c r="AK3" s="1" t="n">
+      <c r="AK3" s="13" t="n">
         <v>5475487015.8885</v>
       </c>
-      <c r="AL3" s="1" t="n">
+      <c r="AL3" s="13" t="n">
         <v>5882858008.7334</v>
       </c>
-      <c r="AM3" s="1" t="n">
+      <c r="AM3" s="13" t="n">
         <v>5466011221.5931</v>
       </c>
-      <c r="AN3" s="1" t="n">
+      <c r="AN3" s="13" t="n">
         <v>5754790956.6206</v>
       </c>
-      <c r="AO3" s="1" t="n">
+      <c r="AO3" s="13" t="n">
         <v>6078165785.4011</v>
       </c>
-      <c r="AP3" s="1" t="n">
-        <v>6911284041.4142</v>
-      </c>
-      <c r="AQ3" s="1" t="n">
-        <v>7299019475.698</v>
-      </c>
-      <c r="AR3" s="1" t="n">
-        <v>7122470035.3102</v>
-      </c>
-      <c r="AS3" s="1" t="n">
-        <v>5791104396.7158</v>
-      </c>
-      <c r="AT3" s="1" t="n">
-        <v>5798067789.9588</v>
-      </c>
-      <c r="AU3" s="1" t="n">
-        <v>2384572702.8597</v>
-      </c>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
+      <c r="AP3" s="13" t="n">
+        <v>6908893696.6178</v>
+      </c>
+      <c r="AQ3" s="13" t="n">
+        <v>7373651282.9093</v>
+      </c>
+      <c r="AR3" s="13" t="n">
+        <v>7157770035.4279</v>
+      </c>
+      <c r="AS3" s="13" t="n">
+        <v>5821022507.764</v>
+      </c>
+      <c r="AT3" s="13" t="n">
+        <v>5828719281.4607</v>
+      </c>
+      <c r="AU3" s="13" t="n">
+        <v>4301260283.4259</v>
+      </c>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2389,110 +2389,110 @@
       <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="N4" s="13" t="n">
         <v>4428979580</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="O4" s="13" t="n">
         <v>5538132392</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="P4" s="13" t="n">
         <v>6674581467</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="13" t="n">
         <v>6597098423</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="R4" s="13" t="n">
         <v>6622303904</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="S4" s="13" t="n">
         <v>6733133651</v>
       </c>
-      <c r="T4" s="1" t="n">
+      <c r="T4" s="13" t="n">
         <v>7170053638</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="U4" s="13" t="n">
         <v>7121044477</v>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="V4" s="13" t="n">
         <v>7067675774</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="W4" s="13" t="n">
         <v>7957031345</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="X4" s="13" t="n">
         <v>8846420884.721</v>
       </c>
-      <c r="Y4" s="1" t="n">
-        <v>9603882642.7188</v>
-      </c>
-      <c r="Z4" s="1" t="n">
-        <v>10899260134.8712</v>
-      </c>
-      <c r="AA4" s="1" t="n">
-        <v>13190322498.9573</v>
-      </c>
-      <c r="AB4" s="1" t="n">
-        <v>16419336760.853</v>
-      </c>
-      <c r="AC4" s="1" t="n">
-        <v>17593186469.699</v>
-      </c>
-      <c r="AD4" s="1" t="n">
-        <v>18899935322.6578</v>
-      </c>
-      <c r="AE4" s="1" t="n">
-        <v>21821764331.4577</v>
-      </c>
-      <c r="AF4" s="1" t="n">
-        <v>24066298690.6221</v>
-      </c>
-      <c r="AG4" s="1" t="n">
-        <v>24559523880.132</v>
-      </c>
-      <c r="AH4" s="1" t="n">
+      <c r="Y4" s="13" t="n">
+        <v>9603882636.7188</v>
+      </c>
+      <c r="Z4" s="13" t="n">
+        <v>10899260135.868</v>
+      </c>
+      <c r="AA4" s="13" t="n">
+        <v>13190322503.9556</v>
+      </c>
+      <c r="AB4" s="13" t="n">
+        <v>16419336769.8524</v>
+      </c>
+      <c r="AC4" s="13" t="n">
+        <v>17593186470.2513</v>
+      </c>
+      <c r="AD4" s="13" t="n">
+        <v>18899935329.9323</v>
+      </c>
+      <c r="AE4" s="13" t="n">
+        <v>21821103970.9614</v>
+      </c>
+      <c r="AF4" s="13" t="n">
+        <v>24066298681.1917</v>
+      </c>
+      <c r="AG4" s="13" t="n">
+        <v>24559523877.4905</v>
+      </c>
+      <c r="AH4" s="13" t="n">
         <v>23695736414.8324</v>
       </c>
-      <c r="AI4" s="1" t="n">
+      <c r="AI4" s="13" t="n">
         <v>23250963332.6371</v>
       </c>
-      <c r="AJ4" s="1" t="n">
+      <c r="AJ4" s="13" t="n">
         <v>20897034805.8459</v>
       </c>
-      <c r="AK4" s="1" t="n">
+      <c r="AK4" s="13" t="n">
         <v>18060160590.4853</v>
       </c>
-      <c r="AL4" s="1" t="n">
+      <c r="AL4" s="13" t="n">
         <v>16860310396.6733</v>
       </c>
-      <c r="AM4" s="1" t="n">
+      <c r="AM4" s="13" t="n">
         <v>15824450344.4246</v>
       </c>
-      <c r="AN4" s="1" t="n">
+      <c r="AN4" s="13" t="n">
         <v>17891040796.044</v>
       </c>
-      <c r="AO4" s="1" t="n">
+      <c r="AO4" s="13" t="n">
         <v>18339812913.2936</v>
       </c>
-      <c r="AP4" s="1" t="n">
-        <v>20528832868.5976</v>
-      </c>
-      <c r="AQ4" s="1" t="n">
-        <v>22498532384.9653</v>
-      </c>
-      <c r="AR4" s="1" t="n">
-        <v>24906549774.107</v>
-      </c>
-      <c r="AS4" s="1" t="n">
-        <v>22976275282.1758</v>
-      </c>
-      <c r="AT4" s="1" t="n">
-        <v>24106996724.3259</v>
-      </c>
-      <c r="AU4" s="1" t="n">
-        <v>11373452345.0583</v>
-      </c>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
+      <c r="AP4" s="13" t="n">
+        <v>20508221048.9871</v>
+      </c>
+      <c r="AQ4" s="13" t="n">
+        <v>22448737259.3344</v>
+      </c>
+      <c r="AR4" s="13" t="n">
+        <v>24864370527.5907</v>
+      </c>
+      <c r="AS4" s="13" t="n">
+        <v>22932059656.1626</v>
+      </c>
+      <c r="AT4" s="13" t="n">
+        <v>24041926033.2574</v>
+      </c>
+      <c r="AU4" s="13" t="n">
+        <v>25400984385.957</v>
+      </c>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2501,50 +2501,50 @@
       <c r="M5" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1" t="n">
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13" t="n">
         <v>13342</v>
       </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1" t="n">
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1" t="n">
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1" t="n">
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2553,110 +2553,110 @@
       <c r="M6" t="s">
         <v>542</v>
       </c>
-      <c r="N6" s="1" t="str">
+      <c r="N6" s="13" t="str">
         <f>Sum(N2:N5)</f>
       </c>
-      <c r="O6" s="1" t="str">
+      <c r="O6" s="13" t="str">
         <f>Sum(O2:O5)</f>
       </c>
-      <c r="P6" s="1" t="str">
+      <c r="P6" s="13" t="str">
         <f>Sum(P2:P5)</f>
       </c>
-      <c r="Q6" s="1" t="str">
+      <c r="Q6" s="13" t="str">
         <f>Sum(Q2:Q5)</f>
       </c>
-      <c r="R6" s="1" t="str">
+      <c r="R6" s="13" t="str">
         <f>Sum(R2:R5)</f>
       </c>
-      <c r="S6" s="1" t="str">
+      <c r="S6" s="13" t="str">
         <f>Sum(S2:S5)</f>
       </c>
-      <c r="T6" s="1" t="str">
+      <c r="T6" s="13" t="str">
         <f>Sum(T2:T5)</f>
       </c>
-      <c r="U6" s="1" t="str">
+      <c r="U6" s="13" t="str">
         <f>Sum(U2:U5)</f>
       </c>
-      <c r="V6" s="1" t="str">
+      <c r="V6" s="13" t="str">
         <f>Sum(V2:V5)</f>
       </c>
-      <c r="W6" s="1" t="str">
+      <c r="W6" s="13" t="str">
         <f>Sum(W2:W5)</f>
       </c>
-      <c r="X6" s="1" t="str">
+      <c r="X6" s="13" t="str">
         <f>Sum(X2:X5)</f>
       </c>
-      <c r="Y6" s="1" t="str">
+      <c r="Y6" s="13" t="str">
         <f>Sum(Y2:Y5)</f>
       </c>
-      <c r="Z6" s="1" t="str">
+      <c r="Z6" s="13" t="str">
         <f>Sum(Z2:Z5)</f>
       </c>
-      <c r="AA6" s="1" t="str">
+      <c r="AA6" s="13" t="str">
         <f>Sum(AA2:AA5)</f>
       </c>
-      <c r="AB6" s="1" t="str">
+      <c r="AB6" s="13" t="str">
         <f>Sum(AB2:AB5)</f>
       </c>
-      <c r="AC6" s="1" t="str">
+      <c r="AC6" s="13" t="str">
         <f>Sum(AC2:AC5)</f>
       </c>
-      <c r="AD6" s="1" t="str">
+      <c r="AD6" s="13" t="str">
         <f>Sum(AD2:AD5)</f>
       </c>
-      <c r="AE6" s="1" t="str">
+      <c r="AE6" s="13" t="str">
         <f>Sum(AE2:AE5)</f>
       </c>
-      <c r="AF6" s="1" t="str">
+      <c r="AF6" s="13" t="str">
         <f>Sum(AF2:AF5)</f>
       </c>
-      <c r="AG6" s="1" t="str">
+      <c r="AG6" s="13" t="str">
         <f>Sum(AG2:AG5)</f>
       </c>
-      <c r="AH6" s="1" t="str">
+      <c r="AH6" s="13" t="str">
         <f>Sum(AH2:AH5)</f>
       </c>
-      <c r="AI6" s="1" t="str">
+      <c r="AI6" s="13" t="str">
         <f>Sum(AI2:AI5)</f>
       </c>
-      <c r="AJ6" s="1" t="str">
+      <c r="AJ6" s="13" t="str">
         <f>Sum(AJ2:AJ5)</f>
       </c>
-      <c r="AK6" s="1" t="str">
+      <c r="AK6" s="13" t="str">
         <f>Sum(AK2:AK5)</f>
       </c>
-      <c r="AL6" s="1" t="str">
+      <c r="AL6" s="13" t="str">
         <f>Sum(AL2:AL5)</f>
       </c>
-      <c r="AM6" s="1" t="str">
+      <c r="AM6" s="13" t="str">
         <f>Sum(AM2:AM5)</f>
       </c>
-      <c r="AN6" s="1" t="str">
+      <c r="AN6" s="13" t="str">
         <f>Sum(AN2:AN5)</f>
       </c>
-      <c r="AO6" s="1" t="str">
+      <c r="AO6" s="13" t="str">
         <f>Sum(AO2:AO5)</f>
       </c>
-      <c r="AP6" s="1" t="str">
+      <c r="AP6" s="13" t="str">
         <f>Sum(AP2:AP5)</f>
       </c>
-      <c r="AQ6" s="1" t="str">
+      <c r="AQ6" s="13" t="str">
         <f>Sum(AQ2:AQ5)</f>
       </c>
-      <c r="AR6" s="1" t="str">
+      <c r="AR6" s="13" t="str">
         <f>Sum(AR2:AR5)</f>
       </c>
-      <c r="AS6" s="1" t="str">
+      <c r="AS6" s="13" t="str">
         <f>Sum(AS2:AS5)</f>
       </c>
-      <c r="AT6" s="1" t="str">
+      <c r="AT6" s="13" t="str">
         <f>Sum(AT2:AT5)</f>
       </c>
-      <c r="AU6" s="1" t="str">
+      <c r="AU6" s="13" t="str">
         <f>Sum(AU2:AU5)</f>
       </c>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -2775,110 +2775,110 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="N10" s="13" t="n">
         <v>23254189516.2985</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="O10" s="13" t="n">
         <v>19346551641.7466</v>
       </c>
-      <c r="P10" s="1" t="n">
+      <c r="P10" s="13" t="n">
         <v>15973360195.654</v>
       </c>
-      <c r="Q10" s="1" t="n">
+      <c r="Q10" s="13" t="n">
         <v>14856418063.9802</v>
       </c>
-      <c r="R10" s="1" t="n">
+      <c r="R10" s="13" t="n">
         <v>13209876520.5327</v>
       </c>
-      <c r="S10" s="1" t="n">
+      <c r="S10" s="13" t="n">
         <v>14761080057.0267</v>
       </c>
-      <c r="T10" s="1" t="n">
+      <c r="T10" s="13" t="n">
         <v>13760158405.967</v>
       </c>
-      <c r="U10" s="1" t="n">
+      <c r="U10" s="13" t="n">
         <v>12795103283.98</v>
       </c>
-      <c r="V10" s="1" t="n">
+      <c r="V10" s="13" t="n">
         <v>12388589849.2531</v>
       </c>
-      <c r="W10" s="1" t="n">
+      <c r="W10" s="13" t="n">
         <v>13570690509.4705</v>
       </c>
-      <c r="X10" s="1" t="n">
+      <c r="X10" s="13" t="n">
         <v>14031647676.2415</v>
       </c>
-      <c r="Y10" s="1" t="n">
-        <v>14239681933.6818</v>
-      </c>
-      <c r="Z10" s="1" t="n">
-        <v>16329156812.9577</v>
-      </c>
-      <c r="AA10" s="1" t="n">
-        <v>21022442209.51</v>
-      </c>
-      <c r="AB10" s="1" t="n">
-        <v>23908857080.2227</v>
-      </c>
-      <c r="AC10" s="1" t="n">
-        <v>27024025038.7195</v>
-      </c>
-      <c r="AD10" s="1" t="n">
-        <v>29184289242.2826</v>
-      </c>
-      <c r="AE10" s="1" t="n">
-        <v>32354273320.2276</v>
-      </c>
-      <c r="AF10" s="1" t="n">
-        <v>34730638273.0227</v>
-      </c>
-      <c r="AG10" s="1" t="n">
-        <v>31497845172.0753</v>
-      </c>
-      <c r="AH10" s="1" t="n">
+      <c r="Y10" s="13" t="n">
+        <v>14239681903.6829</v>
+      </c>
+      <c r="Z10" s="13" t="n">
+        <v>16329156817.6176</v>
+      </c>
+      <c r="AA10" s="13" t="n">
+        <v>21013908171.5108</v>
+      </c>
+      <c r="AB10" s="13" t="n">
+        <v>23908857079.2461</v>
+      </c>
+      <c r="AC10" s="13" t="n">
+        <v>27024025041.5841</v>
+      </c>
+      <c r="AD10" s="13" t="n">
+        <v>29184289224.3285</v>
+      </c>
+      <c r="AE10" s="13" t="n">
+        <v>32354273346.9307</v>
+      </c>
+      <c r="AF10" s="13" t="n">
+        <v>34730638286.5973</v>
+      </c>
+      <c r="AG10" s="13" t="n">
+        <v>31497845186.5051</v>
+      </c>
+      <c r="AH10" s="13" t="n">
         <v>32451188760.5493</v>
       </c>
-      <c r="AI10" s="1" t="n">
+      <c r="AI10" s="13" t="n">
         <v>27468135016.4329</v>
       </c>
-      <c r="AJ10" s="1" t="n">
+      <c r="AJ10" s="13" t="n">
         <v>27073364626.4295</v>
       </c>
-      <c r="AK10" s="1" t="n">
+      <c r="AK10" s="13" t="n">
         <v>21736915215.7574</v>
       </c>
-      <c r="AL10" s="1" t="n">
+      <c r="AL10" s="13" t="n">
         <v>21972121696.5308</v>
       </c>
-      <c r="AM10" s="1" t="n">
-        <v>21979266423.2157</v>
-      </c>
-      <c r="AN10" s="1" t="n">
+      <c r="AM10" s="13" t="n">
+        <v>21979101499.1752</v>
+      </c>
+      <c r="AN10" s="13" t="n">
         <v>23385380593.4566</v>
       </c>
-      <c r="AO10" s="1" t="n">
+      <c r="AO10" s="13" t="n">
         <v>24882464176.4947</v>
       </c>
-      <c r="AP10" s="1" t="n">
-        <v>26884657120.4552</v>
-      </c>
-      <c r="AQ10" s="1" t="n">
-        <v>28142396539.8376</v>
-      </c>
-      <c r="AR10" s="1" t="n">
-        <v>25782449833.1388</v>
-      </c>
-      <c r="AS10" s="1" t="n">
-        <v>22280857268.8694</v>
-      </c>
-      <c r="AT10" s="1" t="n">
-        <v>23682759351.5933</v>
-      </c>
-      <c r="AU10" s="1" t="n">
-        <v>10621998708.4109</v>
-      </c>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
+      <c r="AP10" s="13" t="n">
+        <v>26880614714.0476</v>
+      </c>
+      <c r="AQ10" s="13" t="n">
+        <v>28145539328.1872</v>
+      </c>
+      <c r="AR10" s="13" t="n">
+        <v>25760381403.1304</v>
+      </c>
+      <c r="AS10" s="13" t="n">
+        <v>22273645824.8465</v>
+      </c>
+      <c r="AT10" s="13" t="n">
+        <v>23675639434.1056</v>
+      </c>
+      <c r="AU10" s="13" t="n">
+        <v>25440413622.6956</v>
+      </c>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -2887,110 +2887,110 @@
       <c r="M11" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="N11" s="13" t="n">
         <v>7102294988.19091</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="O11" s="13" t="n">
         <v>7101172831.84182</v>
       </c>
-      <c r="P11" s="1" t="n">
+      <c r="P11" s="13" t="n">
         <v>7824276493.67518</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="Q11" s="13" t="n">
         <v>6445060503.85881</v>
       </c>
-      <c r="R11" s="1" t="n">
+      <c r="R11" s="13" t="n">
         <v>6522168497.69853</v>
       </c>
-      <c r="S11" s="1" t="n">
+      <c r="S11" s="13" t="n">
         <v>6202434296.50025</v>
       </c>
-      <c r="T11" s="1" t="n">
+      <c r="T11" s="13" t="n">
         <v>5188076952.41236</v>
       </c>
-      <c r="U11" s="1" t="n">
+      <c r="U11" s="13" t="n">
         <v>6318736739.36008</v>
       </c>
-      <c r="V11" s="1" t="n">
+      <c r="V11" s="13" t="n">
         <v>4998193000.5217</v>
       </c>
-      <c r="W11" s="1" t="n">
+      <c r="W11" s="13" t="n">
         <v>5585612858.21205</v>
       </c>
-      <c r="X11" s="1" t="n">
+      <c r="X11" s="13" t="n">
         <v>5202415461.48958</v>
       </c>
-      <c r="Y11" s="1" t="n">
-        <v>5924932382.38889</v>
-      </c>
-      <c r="Z11" s="1" t="n">
-        <v>6816296726.31369</v>
-      </c>
-      <c r="AA11" s="1" t="n">
-        <v>6853689005.54008</v>
-      </c>
-      <c r="AB11" s="1" t="n">
-        <v>7495861615.97523</v>
-      </c>
-      <c r="AC11" s="1" t="n">
-        <v>8547712269.0524</v>
-      </c>
-      <c r="AD11" s="1" t="n">
-        <v>7590248565.82627</v>
-      </c>
-      <c r="AE11" s="1" t="n">
-        <v>9330962513.97559</v>
-      </c>
-      <c r="AF11" s="1" t="n">
-        <v>9107129001.59128</v>
-      </c>
-      <c r="AG11" s="1" t="n">
-        <v>9127756975.77346</v>
-      </c>
-      <c r="AH11" s="1" t="n">
+      <c r="Y11" s="13" t="n">
+        <v>5924932387.12132</v>
+      </c>
+      <c r="Z11" s="13" t="n">
+        <v>6816296732.52555</v>
+      </c>
+      <c r="AA11" s="13" t="n">
+        <v>6853688994.89607</v>
+      </c>
+      <c r="AB11" s="13" t="n">
+        <v>7495861612.9668</v>
+      </c>
+      <c r="AC11" s="13" t="n">
+        <v>8547712258.85082</v>
+      </c>
+      <c r="AD11" s="13" t="n">
+        <v>7590248560.08482</v>
+      </c>
+      <c r="AE11" s="13" t="n">
+        <v>9330962526.27751</v>
+      </c>
+      <c r="AF11" s="13" t="n">
+        <v>9107128989.0216</v>
+      </c>
+      <c r="AG11" s="13" t="n">
+        <v>9127756972.29999</v>
+      </c>
+      <c r="AH11" s="13" t="n">
         <v>9968356661.35313</v>
       </c>
-      <c r="AI11" s="1" t="n">
+      <c r="AI11" s="13" t="n">
         <v>9935271106.55605</v>
       </c>
-      <c r="AJ11" s="1" t="n">
+      <c r="AJ11" s="13" t="n">
         <v>9097736866.07449</v>
       </c>
-      <c r="AK11" s="1" t="n">
+      <c r="AK11" s="13" t="n">
         <v>6771364819.83992</v>
       </c>
-      <c r="AL11" s="1" t="n">
+      <c r="AL11" s="13" t="n">
         <v>7137074269.68443</v>
       </c>
-      <c r="AM11" s="1" t="n">
+      <c r="AM11" s="13" t="n">
         <v>6556193861.34766</v>
       </c>
-      <c r="AN11" s="1" t="n">
+      <c r="AN11" s="13" t="n">
         <v>6845841919.18419</v>
       </c>
-      <c r="AO11" s="1" t="n">
+      <c r="AO11" s="13" t="n">
         <v>7103697612.41126</v>
       </c>
-      <c r="AP11" s="1" t="n">
-        <v>7892074712.0562</v>
-      </c>
-      <c r="AQ11" s="1" t="n">
-        <v>8174720052.78622</v>
-      </c>
-      <c r="AR11" s="1" t="n">
-        <v>7871973424.92621</v>
-      </c>
-      <c r="AS11" s="1" t="n">
-        <v>6192356092.31975</v>
-      </c>
-      <c r="AT11" s="1" t="n">
-        <v>5798067789.9588</v>
-      </c>
-      <c r="AU11" s="1" t="n">
-        <v>2274401579.63328</v>
-      </c>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
+      <c r="AP11" s="13" t="n">
+        <v>7889345149.84927</v>
+      </c>
+      <c r="AQ11" s="13" t="n">
+        <v>8258305818.38353</v>
+      </c>
+      <c r="AR11" s="13" t="n">
+        <v>7910988073.13797</v>
+      </c>
+      <c r="AS11" s="13" t="n">
+        <v>6224347157.32716</v>
+      </c>
+      <c r="AT11" s="13" t="n">
+        <v>5828719281.4607</v>
+      </c>
+      <c r="AU11" s="13" t="n">
+        <v>4102535087.86113</v>
+      </c>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2999,110 +2999,110 @@
       <c r="M12" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="1" t="n">
+      <c r="N12" s="13" t="n">
         <v>8802736722.84542</v>
       </c>
-      <c r="O12" s="1" t="n">
+      <c r="O12" s="13" t="n">
         <v>10628116621.4126</v>
       </c>
-      <c r="P12" s="1" t="n">
+      <c r="P12" s="13" t="n">
         <v>12496729755.5496</v>
       </c>
-      <c r="Q12" s="1" t="n">
+      <c r="Q12" s="13" t="n">
         <v>12068166836.513</v>
       </c>
-      <c r="R12" s="1" t="n">
+      <c r="R12" s="13" t="n">
         <v>11855938729.7163</v>
       </c>
-      <c r="S12" s="1" t="n">
+      <c r="S12" s="13" t="n">
         <v>11804309070.0393</v>
       </c>
-      <c r="T12" s="1" t="n">
+      <c r="T12" s="13" t="n">
         <v>12338410154.1926</v>
       </c>
-      <c r="U12" s="1" t="n">
+      <c r="U12" s="13" t="n">
         <v>12040187037.5662</v>
       </c>
-      <c r="V12" s="1" t="n">
+      <c r="V12" s="13" t="n">
         <v>11802578041.0971</v>
       </c>
-      <c r="W12" s="1" t="n">
+      <c r="W12" s="13" t="n">
         <v>13124151378.5942</v>
       </c>
-      <c r="X12" s="1" t="n">
+      <c r="X12" s="13" t="n">
         <v>14293428056.3493</v>
       </c>
-      <c r="Y12" s="1" t="n">
-        <v>15149905322.2179</v>
-      </c>
-      <c r="Z12" s="1" t="n">
-        <v>16926178675.2877</v>
-      </c>
-      <c r="AA12" s="1" t="n">
-        <v>20099919083.8145</v>
-      </c>
-      <c r="AB12" s="1" t="n">
-        <v>24423424022.4981</v>
-      </c>
-      <c r="AC12" s="1" t="n">
-        <v>25398486442.8097</v>
-      </c>
-      <c r="AD12" s="1" t="n">
-        <v>26424656977.4637</v>
-      </c>
-      <c r="AE12" s="1" t="n">
-        <v>29695426648.4146</v>
-      </c>
-      <c r="AF12" s="1" t="n">
-        <v>32080755719.8892</v>
-      </c>
-      <c r="AG12" s="1" t="n">
-        <v>32408894940.0372</v>
-      </c>
-      <c r="AH12" s="1" t="n">
+      <c r="Y12" s="13" t="n">
+        <v>15149905312.7531</v>
+      </c>
+      <c r="Z12" s="13" t="n">
+        <v>16926178676.8357</v>
+      </c>
+      <c r="AA12" s="13" t="n">
+        <v>20099919091.4311</v>
+      </c>
+      <c r="AB12" s="13" t="n">
+        <v>24423424035.8845</v>
+      </c>
+      <c r="AC12" s="13" t="n">
+        <v>25398486443.6071</v>
+      </c>
+      <c r="AD12" s="13" t="n">
+        <v>26424656987.6344</v>
+      </c>
+      <c r="AE12" s="13" t="n">
+        <v>29694528018.6621</v>
+      </c>
+      <c r="AF12" s="13" t="n">
+        <v>32080755707.3183</v>
+      </c>
+      <c r="AG12" s="13" t="n">
+        <v>32408894936.5515</v>
+      </c>
+      <c r="AH12" s="13" t="n">
         <v>30999419130.9761</v>
       </c>
-      <c r="AI12" s="1" t="n">
+      <c r="AI12" s="13" t="n">
         <v>29816637587.9769</v>
       </c>
-      <c r="AJ12" s="1" t="n">
+      <c r="AJ12" s="13" t="n">
         <v>26315635925.9807</v>
       </c>
-      <c r="AK12" s="1" t="n">
+      <c r="AK12" s="13" t="n">
         <v>22334439970.0357</v>
       </c>
-      <c r="AL12" s="1" t="n">
+      <c r="AL12" s="13" t="n">
         <v>20454902588.5631</v>
       </c>
-      <c r="AM12" s="1" t="n">
+      <c r="AM12" s="13" t="n">
         <v>18980598465.9284</v>
       </c>
-      <c r="AN12" s="1" t="n">
+      <c r="AN12" s="13" t="n">
         <v>21283003671.6601</v>
       </c>
-      <c r="AO12" s="1" t="n">
+      <c r="AO12" s="13" t="n">
         <v>21434177645.6885</v>
       </c>
-      <c r="AP12" s="1" t="n">
-        <v>23442110290.8593</v>
-      </c>
-      <c r="AQ12" s="1" t="n">
-        <v>25197796013.2855</v>
-      </c>
-      <c r="AR12" s="1" t="n">
-        <v>27527486525.9343</v>
-      </c>
-      <c r="AS12" s="1" t="n">
-        <v>24568246136.7963</v>
-      </c>
-      <c r="AT12" s="1" t="n">
-        <v>24106996724.3259</v>
-      </c>
-      <c r="AU12" s="1" t="n">
-        <v>10847980415.3014</v>
-      </c>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
+      <c r="AP12" s="13" t="n">
+        <v>23418573417.0536</v>
+      </c>
+      <c r="AQ12" s="13" t="n">
+        <v>25142026712.5758</v>
+      </c>
+      <c r="AR12" s="13" t="n">
+        <v>27480868722.558</v>
+      </c>
+      <c r="AS12" s="13" t="n">
+        <v>24520966916.3986</v>
+      </c>
+      <c r="AT12" s="13" t="n">
+        <v>24041926033.2574</v>
+      </c>
+      <c r="AU12" s="13" t="n">
+        <v>24227417743.3876</v>
+      </c>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3111,91 +3111,91 @@
       <c r="M13" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1" t="n">
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13" t="n">
         <v>21046.6999992214</v>
       </c>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1" t="n">
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1" t="n">
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1" t="n">
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <f>M14</f>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6436,89 +6436,89 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="n">
         <v>7745409866.4287</v>
       </c>
-      <c r="AA2" s="13" t="n">
+      <c r="AA2" s="3" t="n">
         <v>9365489411.6874</v>
       </c>
-      <c r="AB2" s="13" t="n">
+      <c r="AB2" s="3" t="n">
         <v>10261062297.0946</v>
       </c>
-      <c r="AC2" s="13" t="n">
+      <c r="AC2" s="3" t="n">
         <v>13927889333.4355</v>
       </c>
-      <c r="AD2" s="13" t="n">
+      <c r="AD2" s="3" t="n">
         <v>17718446729.1087</v>
       </c>
-      <c r="AE2" s="13" t="n">
+      <c r="AE2" s="3" t="n">
         <v>20006698303.5712</v>
       </c>
-      <c r="AF2" s="13" t="n">
+      <c r="AF2" s="3" t="n">
         <v>23590550903.9616</v>
       </c>
-      <c r="AG2" s="13" t="n">
+      <c r="AG2" s="3" t="n">
         <v>27713649523.906</v>
       </c>
-      <c r="AH2" s="13" t="n">
+      <c r="AH2" s="3" t="n">
         <v>29281030579.0011</v>
       </c>
-      <c r="AI2" s="13" t="n">
+      <c r="AI2" s="3" t="n">
         <v>28917543438.7466</v>
       </c>
-      <c r="AJ2" s="13" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>30663895756.9403</v>
       </c>
-      <c r="AK2" s="13" t="n">
+      <c r="AK2" s="3" t="n">
         <v>28185090296.6477</v>
       </c>
-      <c r="AL2" s="13" t="n">
+      <c r="AL2" s="3" t="n">
         <v>29396220082.02</v>
       </c>
-      <c r="AM2" s="13" t="n">
+      <c r="AM2" s="3" t="n">
         <v>24834689731.2118</v>
       </c>
-      <c r="AN2" s="13" t="n">
+      <c r="AN2" s="3" t="n">
         <v>25032277394.0532</v>
       </c>
-      <c r="AO2" s="13" t="n">
+      <c r="AO2" s="3" t="n">
         <v>24505541468.4119</v>
       </c>
-      <c r="AP2" s="13" t="n">
+      <c r="AP2" s="3" t="n">
         <v>25791705919.4623</v>
       </c>
-      <c r="AQ2" s="13" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>26845599544.7238</v>
       </c>
-      <c r="AR2" s="13" t="n">
+      <c r="AR2" s="3" t="n">
         <v>31968135817.146</v>
       </c>
-      <c r="AS2" s="13" t="n">
+      <c r="AS2" s="3" t="n">
         <v>34216243659.7318</v>
       </c>
-      <c r="AT2" s="13" t="n">
+      <c r="AT2" s="3" t="n">
         <v>34498258473.2095</v>
       </c>
-      <c r="AU2" s="13" t="n">
+      <c r="AU2" s="3" t="n">
         <v>31120428883.8217</v>
       </c>
-      <c r="AV2" s="13" t="n">
+      <c r="AV2" s="3" t="n">
         <v>33022194547.0027</v>
       </c>
-      <c r="AW2" s="13" t="n">
+      <c r="AW2" s="3" t="n">
         <v>36273002264.551</v>
       </c>
-      <c r="AX2" s="13"/>
+      <c r="AX2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -6536,89 +6536,89 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13" t="n">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="n">
         <v>351263617</v>
       </c>
-      <c r="AA3" s="13" t="n">
+      <c r="AA3" s="3" t="n">
         <v>910786484.5388</v>
       </c>
-      <c r="AB3" s="13" t="n">
+      <c r="AB3" s="3" t="n">
         <v>646264465</v>
       </c>
-      <c r="AC3" s="13" t="n">
+      <c r="AC3" s="3" t="n">
         <v>793441443.5</v>
       </c>
-      <c r="AD3" s="13" t="n">
+      <c r="AD3" s="3" t="n">
         <v>986688632.6206</v>
       </c>
-      <c r="AE3" s="13" t="n">
+      <c r="AE3" s="3" t="n">
         <v>1077885901.5297</v>
       </c>
-      <c r="AF3" s="13" t="n">
+      <c r="AF3" s="3" t="n">
         <v>553242238.9076</v>
       </c>
-      <c r="AG3" s="13" t="n">
+      <c r="AG3" s="3" t="n">
         <v>386969562.0458</v>
       </c>
-      <c r="AH3" s="13" t="n">
+      <c r="AH3" s="3" t="n">
         <v>594426626.7577</v>
       </c>
-      <c r="AI3" s="13" t="n">
+      <c r="AI3" s="3" t="n">
         <v>537478892.7635</v>
       </c>
-      <c r="AJ3" s="13" t="n">
+      <c r="AJ3" s="3" t="n">
         <v>684468646.1753</v>
       </c>
-      <c r="AK3" s="13" t="n">
+      <c r="AK3" s="3" t="n">
         <v>1134877810.7948</v>
       </c>
-      <c r="AL3" s="13" t="n">
+      <c r="AL3" s="3" t="n">
         <v>362692336.111</v>
       </c>
-      <c r="AM3" s="13" t="n">
+      <c r="AM3" s="3" t="n">
         <v>167024104.8643</v>
       </c>
-      <c r="AN3" s="13" t="n">
+      <c r="AN3" s="3" t="n">
         <v>103291895.5268</v>
       </c>
-      <c r="AO3" s="13" t="n">
+      <c r="AO3" s="3" t="n">
         <v>131801684.8803</v>
       </c>
-      <c r="AP3" s="13" t="n">
+      <c r="AP3" s="3" t="n">
         <v>188200819.8463</v>
       </c>
-      <c r="AQ3" s="13" t="n">
+      <c r="AQ3" s="3" t="n">
         <v>72065956.0363</v>
       </c>
-      <c r="AR3" s="13" t="n">
+      <c r="AR3" s="3" t="n">
         <v>113244315.4437</v>
       </c>
-      <c r="AS3" s="13" t="n">
+      <c r="AS3" s="3" t="n">
         <v>86318154.5227</v>
       </c>
-      <c r="AT3" s="13" t="n">
+      <c r="AT3" s="3" t="n">
         <v>91330766.896</v>
       </c>
-      <c r="AU3" s="13" t="n">
+      <c r="AU3" s="3" t="n">
         <v>179981442.6038</v>
       </c>
-      <c r="AV3" s="13" t="n">
+      <c r="AV3" s="3" t="n">
         <v>280510565.2276</v>
       </c>
-      <c r="AW3" s="13" t="n">
+      <c r="AW3" s="3" t="n">
         <v>348374888.257</v>
       </c>
-      <c r="AX3" s="13"/>
+      <c r="AX3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -6636,89 +6636,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13" t="n">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="n">
         <v>1872242063.2094</v>
       </c>
-      <c r="AA4" s="13" t="n">
+      <c r="AA4" s="3" t="n">
         <v>1711195301.9849</v>
       </c>
-      <c r="AB4" s="13" t="n">
+      <c r="AB4" s="3" t="n">
         <v>2193214227.6717</v>
       </c>
-      <c r="AC4" s="13" t="n">
+      <c r="AC4" s="3" t="n">
         <v>3246531633.0533</v>
       </c>
-      <c r="AD4" s="13" t="n">
+      <c r="AD4" s="3" t="n">
         <v>4084153850.8455</v>
       </c>
-      <c r="AE4" s="13" t="n">
+      <c r="AE4" s="3" t="n">
         <v>5522774020.5248</v>
       </c>
-      <c r="AF4" s="13" t="n">
+      <c r="AF4" s="3" t="n">
         <v>6394675349.9999</v>
       </c>
-      <c r="AG4" s="13" t="n">
+      <c r="AG4" s="3" t="n">
         <v>8078608376.083</v>
       </c>
-      <c r="AH4" s="13" t="n">
+      <c r="AH4" s="3" t="n">
         <v>8310577597.8891</v>
       </c>
-      <c r="AI4" s="13" t="n">
+      <c r="AI4" s="3" t="n">
         <v>7389243494.5828</v>
       </c>
-      <c r="AJ4" s="13" t="n">
+      <c r="AJ4" s="3" t="n">
         <v>7082022035.5353</v>
       </c>
-      <c r="AK4" s="13" t="n">
+      <c r="AK4" s="3" t="n">
         <v>4318518817.8775</v>
       </c>
-      <c r="AL4" s="13" t="n">
+      <c r="AL4" s="3" t="n">
         <v>1991126208.0814</v>
       </c>
-      <c r="AM4" s="13" t="n">
+      <c r="AM4" s="3" t="n">
         <v>870175553.7347</v>
       </c>
-      <c r="AN4" s="13" t="n">
+      <c r="AN4" s="3" t="n">
         <v>627734141.7625</v>
       </c>
-      <c r="AO4" s="13" t="n">
+      <c r="AO4" s="3" t="n">
         <v>477583914.5411</v>
       </c>
-      <c r="AP4" s="13" t="n">
+      <c r="AP4" s="3" t="n">
         <v>560963783.9982</v>
       </c>
-      <c r="AQ4" s="13" t="n">
+      <c r="AQ4" s="3" t="n">
         <v>541606517.3411</v>
       </c>
-      <c r="AR4" s="13" t="n">
+      <c r="AR4" s="3" t="n">
         <v>515407705.4876</v>
       </c>
-      <c r="AS4" s="13" t="n">
+      <c r="AS4" s="3" t="n">
         <v>462483552.8142</v>
       </c>
-      <c r="AT4" s="13" t="n">
+      <c r="AT4" s="3" t="n">
         <v>470221655.4172</v>
       </c>
-      <c r="AU4" s="13" t="n">
+      <c r="AU4" s="3" t="n">
         <v>-14277628.4301</v>
       </c>
-      <c r="AV4" s="13" t="n">
+      <c r="AV4" s="3" t="n">
         <v>536822788.0714</v>
       </c>
-      <c r="AW4" s="13" t="n">
+      <c r="AW4" s="3" t="n">
         <v>833902870.0879</v>
       </c>
-      <c r="AX4" s="13"/>
+      <c r="AX4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -6736,89 +6736,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13" t="n">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="n">
         <v>418939429</v>
       </c>
-      <c r="AA5" s="13" t="n">
+      <c r="AA5" s="3" t="n">
         <v>410489406</v>
       </c>
-      <c r="AB5" s="13" t="n">
+      <c r="AB5" s="3" t="n">
         <v>1080790165</v>
       </c>
-      <c r="AC5" s="13" t="n">
+      <c r="AC5" s="3" t="n">
         <v>1037676423</v>
       </c>
-      <c r="AD5" s="13" t="n">
+      <c r="AD5" s="3" t="n">
         <v>847635770</v>
       </c>
-      <c r="AE5" s="13" t="n">
+      <c r="AE5" s="3" t="n">
         <v>1117765655.71</v>
       </c>
-      <c r="AF5" s="13" t="n">
+      <c r="AF5" s="3" t="n">
         <v>1112505653.6105</v>
       </c>
-      <c r="AG5" s="13" t="n">
+      <c r="AG5" s="3" t="n">
         <v>831477108.2402</v>
       </c>
-      <c r="AH5" s="13" t="n">
+      <c r="AH5" s="3" t="n">
         <v>825862732.9699</v>
       </c>
-      <c r="AI5" s="13" t="n">
+      <c r="AI5" s="3" t="n">
         <v>877324653.7295</v>
       </c>
-      <c r="AJ5" s="13" t="n">
+      <c r="AJ5" s="3" t="n">
         <v>2035459607.72</v>
       </c>
-      <c r="AK5" s="13" t="n">
+      <c r="AK5" s="3" t="n">
         <v>2181515114.5837</v>
       </c>
-      <c r="AL5" s="13" t="n">
+      <c r="AL5" s="3" t="n">
         <v>1823707152.5427</v>
       </c>
-      <c r="AM5" s="13" t="n">
+      <c r="AM5" s="3" t="n">
         <v>2105131324.5821</v>
       </c>
-      <c r="AN5" s="13" t="n">
+      <c r="AN5" s="3" t="n">
         <v>3061035752.9761</v>
       </c>
-      <c r="AO5" s="13" t="n">
+      <c r="AO5" s="3" t="n">
         <v>2444038534.535</v>
       </c>
-      <c r="AP5" s="13" t="n">
+      <c r="AP5" s="3" t="n">
         <v>3584284892.3796</v>
       </c>
-      <c r="AQ5" s="13" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>3712244208.7281</v>
       </c>
-      <c r="AR5" s="13" t="n">
+      <c r="AR5" s="3" t="n">
         <v>3075956189.318</v>
       </c>
-      <c r="AS5" s="13" t="n">
+      <c r="AS5" s="3" t="n">
         <v>3759169740.6884</v>
       </c>
-      <c r="AT5" s="13" t="n">
+      <c r="AT5" s="3" t="n">
         <v>4042143962.1094</v>
       </c>
-      <c r="AU5" s="13" t="n">
+      <c r="AU5" s="3" t="n">
         <v>3383124811.4857</v>
       </c>
-      <c r="AV5" s="13" t="n">
+      <c r="AV5" s="3" t="n">
         <v>4999672957.258</v>
       </c>
-      <c r="AW5" s="13" t="n">
+      <c r="AW5" s="3" t="n">
         <v>4339803525.8971</v>
       </c>
-      <c r="AX5" s="13"/>
+      <c r="AX5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -6836,89 +6836,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13" t="n">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="n">
         <v>5131200658.1172</v>
       </c>
-      <c r="AA6" s="13" t="n">
+      <c r="AA6" s="3" t="n">
         <v>5100026497.7071</v>
       </c>
-      <c r="AB6" s="13" t="n">
+      <c r="AB6" s="3" t="n">
         <v>5955519487.22</v>
       </c>
-      <c r="AC6" s="13" t="n">
+      <c r="AC6" s="3" t="n">
         <v>7019794953.5991</v>
       </c>
-      <c r="AD6" s="13" t="n">
+      <c r="AD6" s="3" t="n">
         <v>8006755850.4451</v>
       </c>
-      <c r="AE6" s="13" t="n">
+      <c r="AE6" s="3" t="n">
         <v>8894373018.9218</v>
       </c>
-      <c r="AF6" s="13" t="n">
+      <c r="AF6" s="3" t="n">
         <v>9253374271.2293</v>
       </c>
-      <c r="AG6" s="13" t="n">
+      <c r="AG6" s="3" t="n">
         <v>10561921558.0396</v>
       </c>
-      <c r="AH6" s="13" t="n">
+      <c r="AH6" s="3" t="n">
         <v>11193452449.7377</v>
       </c>
-      <c r="AI6" s="13" t="n">
+      <c r="AI6" s="3" t="n">
         <v>10905405010.4245</v>
       </c>
-      <c r="AJ6" s="13" t="n">
+      <c r="AJ6" s="3" t="n">
         <v>12625358750.8069</v>
       </c>
-      <c r="AK6" s="13" t="n">
+      <c r="AK6" s="3" t="n">
         <v>14400767146.0502</v>
       </c>
-      <c r="AL6" s="13" t="n">
+      <c r="AL6" s="3" t="n">
         <v>13984870220.1961</v>
       </c>
-      <c r="AM6" s="13" t="n">
+      <c r="AM6" s="3" t="n">
         <v>11811848954.9703</v>
       </c>
-      <c r="AN6" s="13" t="n">
+      <c r="AN6" s="3" t="n">
         <v>10937778421.2594</v>
       </c>
-      <c r="AO6" s="13" t="n">
+      <c r="AO6" s="3" t="n">
         <v>11166325215.6848</v>
       </c>
-      <c r="AP6" s="13" t="n">
+      <c r="AP6" s="3" t="n">
         <v>11949242310.9642</v>
       </c>
-      <c r="AQ6" s="13" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>12577414811.1868</v>
       </c>
-      <c r="AR6" s="13" t="n">
+      <c r="AR6" s="3" t="n">
         <v>14107101750.5063</v>
       </c>
-      <c r="AS6" s="13" t="n">
+      <c r="AS6" s="3" t="n">
         <v>15177867962.744</v>
       </c>
-      <c r="AT6" s="13" t="n">
+      <c r="AT6" s="3" t="n">
         <v>15203796448.0048</v>
       </c>
-      <c r="AU6" s="13" t="n">
+      <c r="AU6" s="3" t="n">
         <v>13998065538.2494</v>
       </c>
-      <c r="AV6" s="13" t="n">
+      <c r="AV6" s="3" t="n">
         <v>13621229112.1481</v>
       </c>
-      <c r="AW6" s="13" t="n">
+      <c r="AW6" s="3" t="n">
         <v>13011582701.3353</v>
       </c>
-      <c r="AX6" s="13"/>
+      <c r="AX6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -6936,89 +6936,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13" t="n">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="n">
         <v>572636615</v>
       </c>
-      <c r="AA7" s="13" t="n">
+      <c r="AA7" s="3" t="n">
         <v>700276052.875</v>
       </c>
-      <c r="AB7" s="13" t="n">
+      <c r="AB7" s="3" t="n">
         <v>762655276</v>
       </c>
-      <c r="AC7" s="13" t="n">
+      <c r="AC7" s="3" t="n">
         <v>819932062</v>
       </c>
-      <c r="AD7" s="13" t="n">
+      <c r="AD7" s="3" t="n">
         <v>1386046004</v>
       </c>
-      <c r="AE7" s="13" t="n">
+      <c r="AE7" s="3" t="n">
         <v>2098175271.1875</v>
       </c>
-      <c r="AF7" s="13" t="n">
+      <c r="AF7" s="3" t="n">
         <v>1586235193.2845</v>
       </c>
-      <c r="AG7" s="13" t="n">
+      <c r="AG7" s="3" t="n">
         <v>1731758562.3023</v>
       </c>
-      <c r="AH7" s="13" t="n">
+      <c r="AH7" s="3" t="n">
         <v>1170878334.7373</v>
       </c>
-      <c r="AI7" s="13" t="n">
+      <c r="AI7" s="3" t="n">
         <v>1608472749.5467</v>
       </c>
-      <c r="AJ7" s="13" t="n">
+      <c r="AJ7" s="3" t="n">
         <v>2681972519.1245</v>
       </c>
-      <c r="AK7" s="13" t="n">
+      <c r="AK7" s="3" t="n">
         <v>2059411573.4266</v>
       </c>
-      <c r="AL7" s="13" t="n">
+      <c r="AL7" s="3" t="n">
         <v>1764305123.303</v>
       </c>
-      <c r="AM7" s="13" t="n">
+      <c r="AM7" s="3" t="n">
         <v>931772516.5176</v>
       </c>
-      <c r="AN7" s="13" t="n">
+      <c r="AN7" s="3" t="n">
         <v>615529782.1261</v>
       </c>
-      <c r="AO7" s="13" t="n">
+      <c r="AO7" s="3" t="n">
         <v>664256316.377</v>
       </c>
-      <c r="AP7" s="13" t="n">
+      <c r="AP7" s="3" t="n">
         <v>1009232434.8681</v>
       </c>
-      <c r="AQ7" s="13" t="n">
+      <c r="AQ7" s="3" t="n">
         <v>1520885804.4895</v>
       </c>
-      <c r="AR7" s="13" t="n">
+      <c r="AR7" s="3" t="n">
         <v>1177284777.8423</v>
       </c>
-      <c r="AS7" s="13" t="n">
+      <c r="AS7" s="3" t="n">
         <v>1250759146.1901</v>
       </c>
-      <c r="AT7" s="13" t="n">
+      <c r="AT7" s="3" t="n">
         <v>1024082860.7399</v>
       </c>
-      <c r="AU7" s="13" t="n">
+      <c r="AU7" s="3" t="n">
         <v>916119377.1542</v>
       </c>
-      <c r="AV7" s="13" t="n">
+      <c r="AV7" s="3" t="n">
         <v>1085387317.1159</v>
       </c>
-      <c r="AW7" s="13" t="n">
+      <c r="AW7" s="3" t="n">
         <v>1568315730.6318</v>
       </c>
-      <c r="AX7" s="13"/>
+      <c r="AX7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -7036,75 +7036,75 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13" t="n">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3" t="n">
         <v>630815.8438</v>
       </c>
-      <c r="AA8" s="13" t="n">
+      <c r="AA8" s="3" t="n">
         <v>165305</v>
       </c>
-      <c r="AB8" s="13" t="n">
+      <c r="AB8" s="3" t="n">
         <v>21370907</v>
       </c>
-      <c r="AC8" s="13" t="n">
+      <c r="AC8" s="3" t="n">
         <v>95453350.9297</v>
       </c>
-      <c r="AD8" s="13" t="n">
+      <c r="AD8" s="3" t="n">
         <v>193097212.1778</v>
       </c>
-      <c r="AE8" s="13" t="n">
+      <c r="AE8" s="3" t="n">
         <v>355929347.3926</v>
       </c>
-      <c r="AF8" s="13" t="n">
+      <c r="AF8" s="3" t="n">
         <v>689542515.8181</v>
       </c>
-      <c r="AG8" s="13" t="n">
+      <c r="AG8" s="3" t="n">
         <v>2736426166.653</v>
       </c>
-      <c r="AH8" s="13" t="n">
+      <c r="AH8" s="3" t="n">
         <v>4181897375.4904</v>
       </c>
-      <c r="AI8" s="13" t="n">
+      <c r="AI8" s="3" t="n">
         <v>4737546060.7354</v>
       </c>
-      <c r="AJ8" s="13" t="n">
+      <c r="AJ8" s="3" t="n">
         <v>268866937.412</v>
       </c>
-      <c r="AK8" s="13" t="n">
+      <c r="AK8" s="3" t="n">
         <v>117347085.451</v>
       </c>
-      <c r="AL8" s="13" t="n">
+      <c r="AL8" s="3" t="n">
         <v>2583647.7504</v>
       </c>
-      <c r="AM8" s="13" t="n">
+      <c r="AM8" s="3" t="n">
         <v>7700463.98</v>
       </c>
-      <c r="AN8" s="13" t="n">
+      <c r="AN8" s="3" t="n">
         <v>-7419796.22</v>
       </c>
-      <c r="AO8" s="13" t="n">
+      <c r="AO8" s="3" t="n">
         <v>147331.4063</v>
       </c>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13" t="n">
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3" t="n">
         <v>467462</v>
       </c>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -7120,109 +7120,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="13" t="n">
+      <c r="P9" s="3" t="n">
         <v>19702439894</v>
       </c>
-      <c r="Q9" s="13" t="n">
+      <c r="Q9" s="3" t="n">
         <v>19319595733</v>
       </c>
-      <c r="R9" s="13" t="n">
+      <c r="R9" s="3" t="n">
         <v>19385047958</v>
       </c>
-      <c r="S9" s="13" t="n">
+      <c r="S9" s="3" t="n">
         <v>18241613499</v>
       </c>
-      <c r="T9" s="13" t="n">
+      <c r="T9" s="3" t="n">
         <v>17643919462</v>
       </c>
-      <c r="U9" s="13" t="n">
+      <c r="U9" s="3" t="n">
         <v>18690643667</v>
       </c>
-      <c r="V9" s="13" t="n">
+      <c r="V9" s="3" t="n">
         <v>18181185718</v>
       </c>
-      <c r="W9" s="13" t="n">
+      <c r="W9" s="3" t="n">
         <v>18425728076</v>
       </c>
-      <c r="X9" s="13" t="n">
+      <c r="X9" s="3" t="n">
         <v>17479311563</v>
       </c>
-      <c r="Y9" s="13" t="n">
+      <c r="Y9" s="3" t="n">
         <v>19571291342</v>
       </c>
-      <c r="Z9" s="13" t="n">
+      <c r="Z9" s="3" t="n">
         <v>4658353200.2078</v>
       </c>
-      <c r="AA9" s="13" t="n">
+      <c r="AA9" s="3" t="n">
         <v>4188292564.0806</v>
       </c>
-      <c r="AB9" s="13" t="n">
+      <c r="AB9" s="3" t="n">
         <v>4882415935.2626</v>
       </c>
-      <c r="AC9" s="13" t="n">
+      <c r="AC9" s="3" t="n">
         <v>4537368163.7469</v>
       </c>
-      <c r="AD9" s="13" t="n">
+      <c r="AD9" s="3" t="n">
         <v>4309222044.7979</v>
       </c>
-      <c r="AE9" s="13" t="n">
+      <c r="AE9" s="3" t="n">
         <v>3159644066.2303</v>
       </c>
-      <c r="AF9" s="13" t="n">
+      <c r="AF9" s="3" t="n">
         <v>2022379043.0551</v>
       </c>
-      <c r="AG9" s="13" t="n">
+      <c r="AG9" s="3" t="n">
         <v>412801078.5145</v>
       </c>
-      <c r="AH9" s="13" t="n">
+      <c r="AH9" s="3" t="n">
         <v>1394330979.0396</v>
       </c>
-      <c r="AI9" s="13" t="n">
+      <c r="AI9" s="3" t="n">
         <v>372670234.705</v>
       </c>
-      <c r="AJ9" s="13" t="n">
+      <c r="AJ9" s="3" t="n">
         <v>78892223.9801</v>
       </c>
-      <c r="AK9" s="13" t="n">
+      <c r="AK9" s="3" t="n">
         <v>20548034.1254</v>
       </c>
-      <c r="AL9" s="13" t="n">
+      <c r="AL9" s="3" t="n">
         <v>294710770.6983</v>
       </c>
-      <c r="AM9" s="13" t="n">
+      <c r="AM9" s="3" t="n">
         <v>384292786.2963</v>
       </c>
-      <c r="AN9" s="13" t="n">
+      <c r="AN9" s="3" t="n">
         <v>483845535.8117</v>
       </c>
-      <c r="AO9" s="13" t="n">
+      <c r="AO9" s="3" t="n">
         <v>225120829.7598</v>
       </c>
-      <c r="AP9" s="13" t="n">
+      <c r="AP9" s="3" t="n">
         <v>220554551.2435</v>
       </c>
-      <c r="AQ9" s="13" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>438446249.742</v>
       </c>
-      <c r="AR9" s="13" t="n">
+      <c r="AR9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="13" t="n">
+      <c r="AS9" s="3" t="n">
         <v>50903.5586</v>
       </c>
-      <c r="AT9" s="13" t="n">
+      <c r="AT9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="13" t="n">
+      <c r="AU9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="13" t="n">
+      <c r="AV9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="13" t="n">
+      <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="13"/>
+      <c r="AX9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -7237,107 +7237,107 @@
       <c r="O10" t="s">
         <v>543</v>
       </c>
-      <c r="P10" s="13" t="str">
+      <c r="P10" s="3" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="13" t="str">
+      <c r="Q10" s="3" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="13" t="str">
+      <c r="R10" s="3" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="13" t="str">
+      <c r="S10" s="3" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="13" t="str">
+      <c r="T10" s="3" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="13" t="str">
+      <c r="U10" s="3" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="13" t="str">
+      <c r="V10" s="3" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="13" t="str">
+      <c r="W10" s="3" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="13" t="str">
+      <c r="X10" s="3" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="13" t="str">
+      <c r="Y10" s="3" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="13" t="str">
+      <c r="Z10" s="3" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="13" t="str">
+      <c r="AA10" s="3" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="13" t="str">
+      <c r="AB10" s="3" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="13" t="str">
+      <c r="AC10" s="3" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="13" t="str">
+      <c r="AD10" s="3" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="13" t="str">
+      <c r="AE10" s="3" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="13" t="str">
+      <c r="AF10" s="3" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="13" t="str">
+      <c r="AG10" s="3" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="13" t="str">
+      <c r="AH10" s="3" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="13" t="str">
+      <c r="AI10" s="3" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="13" t="str">
+      <c r="AJ10" s="3" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="13" t="str">
+      <c r="AK10" s="3" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="13" t="str">
+      <c r="AL10" s="3" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="13" t="str">
+      <c r="AM10" s="3" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="13" t="str">
+      <c r="AN10" s="3" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="13" t="str">
+      <c r="AO10" s="3" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="13" t="str">
+      <c r="AP10" s="3" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="13" t="str">
+      <c r="AQ10" s="3" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="13" t="str">
+      <c r="AR10" s="3" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="13" t="str">
+      <c r="AS10" s="3" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="13" t="str">
+      <c r="AT10" s="3" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="13" t="str">
+      <c r="AU10" s="3" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="13" t="str">
+      <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="13"/>
-      <c r="AX10" s="13"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -7474,89 +7474,89 @@
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13" t="n">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="n">
         <v>12514491468.9675</v>
       </c>
-      <c r="AA14" s="13" t="n">
+      <c r="AA14" s="3" t="n">
         <v>14773845449.9827</v>
       </c>
-      <c r="AB14" s="13" t="n">
+      <c r="AB14" s="3" t="n">
         <v>15935079233.7919</v>
       </c>
-      <c r="AC14" s="13" t="n">
+      <c r="AC14" s="3" t="n">
         <v>21223851701.3141</v>
       </c>
-      <c r="AD14" s="13" t="n">
+      <c r="AD14" s="3" t="n">
         <v>26355823245.968</v>
       </c>
-      <c r="AE14" s="13" t="n">
+      <c r="AE14" s="3" t="n">
         <v>28882764160.0806</v>
       </c>
-      <c r="AF14" s="13" t="n">
+      <c r="AF14" s="3" t="n">
         <v>32982769776.956</v>
       </c>
-      <c r="AG14" s="13" t="n">
+      <c r="AG14" s="3" t="n">
         <v>37713203849.9128</v>
       </c>
-      <c r="AH14" s="13" t="n">
+      <c r="AH14" s="3" t="n">
         <v>39032075572.0354</v>
       </c>
-      <c r="AI14" s="13" t="n">
+      <c r="AI14" s="3" t="n">
         <v>38159763674.7534</v>
       </c>
-      <c r="AJ14" s="13" t="n">
+      <c r="AJ14" s="3" t="n">
         <v>40115358312.4323</v>
       </c>
-      <c r="AK14" s="13" t="n">
+      <c r="AK14" s="3" t="n">
         <v>36144077590.9663</v>
       </c>
-      <c r="AL14" s="13" t="n">
+      <c r="AL14" s="3" t="n">
         <v>37018659942.2246</v>
       </c>
-      <c r="AM14" s="13" t="n">
+      <c r="AM14" s="3" t="n">
         <v>30712289860.1704</v>
       </c>
-      <c r="AN14" s="13" t="n">
+      <c r="AN14" s="3" t="n">
         <v>30369120355.357</v>
       </c>
-      <c r="AO14" s="13" t="n">
+      <c r="AO14" s="3" t="n">
         <v>29393112094.1564</v>
       </c>
-      <c r="AP14" s="13" t="n">
+      <c r="AP14" s="3" t="n">
         <v>30681556095.03</v>
       </c>
-      <c r="AQ14" s="13" t="n">
+      <c r="AQ14" s="3" t="n">
         <v>31375093757.338</v>
       </c>
-      <c r="AR14" s="13" t="n">
+      <c r="AR14" s="3" t="n">
         <v>36504781855.6233</v>
       </c>
-      <c r="AS14" s="13" t="n">
+      <c r="AS14" s="3" t="n">
         <v>38321340846.8787</v>
       </c>
-      <c r="AT14" s="13" t="n">
+      <c r="AT14" s="3" t="n">
         <v>38128538633.5098</v>
       </c>
-      <c r="AU14" s="13" t="n">
+      <c r="AU14" s="3" t="n">
         <v>33276688554.1943</v>
       </c>
-      <c r="AV14" s="13" t="n">
+      <c r="AV14" s="3" t="n">
         <v>33022194547.0027</v>
       </c>
-      <c r="AW14" s="13" t="n">
+      <c r="AW14" s="3" t="n">
         <v>34597130777.1824</v>
       </c>
-      <c r="AX14" s="13"/>
+      <c r="AX14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -7574,89 +7574,89 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="n">
         <v>567547181.377509</v>
       </c>
-      <c r="AA15" s="13" t="n">
+      <c r="AA15" s="3" t="n">
         <v>1436744858.59943</v>
       </c>
-      <c r="AB15" s="13" t="n">
+      <c r="AB15" s="3" t="n">
         <v>1003626638.0212</v>
       </c>
-      <c r="AC15" s="13" t="n">
+      <c r="AC15" s="3" t="n">
         <v>1209076488.71782</v>
       </c>
-      <c r="AD15" s="13" t="n">
+      <c r="AD15" s="3" t="n">
         <v>1467678944.87231</v>
       </c>
-      <c r="AE15" s="13" t="n">
+      <c r="AE15" s="3" t="n">
         <v>1556095054.4149</v>
       </c>
-      <c r="AF15" s="13" t="n">
+      <c r="AF15" s="3" t="n">
         <v>773507217.829015</v>
       </c>
-      <c r="AG15" s="13" t="n">
+      <c r="AG15" s="3" t="n">
         <v>526594736.812124</v>
       </c>
-      <c r="AH15" s="13" t="n">
+      <c r="AH15" s="3" t="n">
         <v>792380068.557961</v>
       </c>
-      <c r="AI15" s="13" t="n">
+      <c r="AI15" s="3" t="n">
         <v>709260368.933755</v>
       </c>
-      <c r="AJ15" s="13" t="n">
+      <c r="AJ15" s="3" t="n">
         <v>895440853.719083</v>
       </c>
-      <c r="AK15" s="13" t="n">
+      <c r="AK15" s="3" t="n">
         <v>1455347888.47251</v>
       </c>
-      <c r="AL15" s="13" t="n">
+      <c r="AL15" s="3" t="n">
         <v>456738458.777437</v>
       </c>
-      <c r="AM15" s="13" t="n">
+      <c r="AM15" s="3" t="n">
         <v>206553525.642842</v>
       </c>
-      <c r="AN15" s="13" t="n">
+      <c r="AN15" s="3" t="n">
         <v>125313568.462275</v>
       </c>
-      <c r="AO15" s="13" t="n">
+      <c r="AO15" s="3" t="n">
         <v>158089210.266138</v>
       </c>
-      <c r="AP15" s="13" t="n">
+      <c r="AP15" s="3" t="n">
         <v>223881818.026144</v>
       </c>
-      <c r="AQ15" s="13" t="n">
+      <c r="AQ15" s="3" t="n">
         <v>84225205.0874944</v>
       </c>
-      <c r="AR15" s="13" t="n">
+      <c r="AR15" s="3" t="n">
         <v>129314985.875543</v>
       </c>
-      <c r="AS15" s="13" t="n">
+      <c r="AS15" s="3" t="n">
         <v>96674183.5729568</v>
       </c>
-      <c r="AT15" s="13" t="n">
+      <c r="AT15" s="3" t="n">
         <v>100941578.738721</v>
       </c>
-      <c r="AU15" s="13" t="n">
+      <c r="AU15" s="3" t="n">
         <v>192451923.892822</v>
       </c>
-      <c r="AV15" s="13" t="n">
+      <c r="AV15" s="3" t="n">
         <v>280510565.2276</v>
       </c>
-      <c r="AW15" s="13" t="n">
+      <c r="AW15" s="3" t="n">
         <v>332279403.855487</v>
       </c>
-      <c r="AX15" s="13"/>
+      <c r="AX15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -7674,89 +7674,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13" t="n">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="n">
         <v>3025037761.96926</v>
       </c>
-      <c r="AA16" s="13" t="n">
+      <c r="AA16" s="3" t="n">
         <v>2699371470.61559</v>
       </c>
-      <c r="AB16" s="13" t="n">
+      <c r="AB16" s="3" t="n">
         <v>3405986776.29352</v>
       </c>
-      <c r="AC16" s="13" t="n">
+      <c r="AC16" s="3" t="n">
         <v>4947189360.42497</v>
       </c>
-      <c r="AD16" s="13" t="n">
+      <c r="AD16" s="3" t="n">
         <v>6075094428.3048</v>
       </c>
-      <c r="AE16" s="13" t="n">
+      <c r="AE16" s="3" t="n">
         <v>7972978705.62505</v>
       </c>
-      <c r="AF16" s="13" t="n">
+      <c r="AF16" s="3" t="n">
         <v>8940618034.99482</v>
       </c>
-      <c r="AG16" s="13" t="n">
+      <c r="AG16" s="3" t="n">
         <v>10993507161.4448</v>
       </c>
-      <c r="AH16" s="13" t="n">
+      <c r="AH16" s="3" t="n">
         <v>11078131009.5247</v>
       </c>
-      <c r="AI16" s="13" t="n">
+      <c r="AI16" s="3" t="n">
         <v>9750890012.00133</v>
       </c>
-      <c r="AJ16" s="13" t="n">
+      <c r="AJ16" s="3" t="n">
         <v>9264897512.82625</v>
       </c>
-      <c r="AK16" s="13" t="n">
+      <c r="AK16" s="3" t="n">
         <v>5537994648.53861</v>
       </c>
-      <c r="AL16" s="13" t="n">
+      <c r="AL16" s="3" t="n">
         <v>2507425233.35849</v>
       </c>
-      <c r="AM16" s="13" t="n">
+      <c r="AM16" s="3" t="n">
         <v>1076119094.89438</v>
       </c>
-      <c r="AN16" s="13" t="n">
+      <c r="AN16" s="3" t="n">
         <v>761566093.338394</v>
       </c>
-      <c r="AO16" s="13" t="n">
+      <c r="AO16" s="3" t="n">
         <v>572836864.370754</v>
       </c>
-      <c r="AP16" s="13" t="n">
+      <c r="AP16" s="3" t="n">
         <v>667316921.950228</v>
       </c>
-      <c r="AQ16" s="13" t="n">
+      <c r="AQ16" s="3" t="n">
         <v>632988480.397044</v>
       </c>
-      <c r="AR16" s="13" t="n">
+      <c r="AR16" s="3" t="n">
         <v>588549984.996025</v>
       </c>
-      <c r="AS16" s="13" t="n">
+      <c r="AS16" s="3" t="n">
         <v>517970062.398349</v>
       </c>
-      <c r="AT16" s="13" t="n">
+      <c r="AT16" s="3" t="n">
         <v>519703467.605785</v>
       </c>
-      <c r="AU16" s="13" t="n">
+      <c r="AU16" s="3" t="n">
         <v>-15266890.9652444</v>
       </c>
-      <c r="AV16" s="13" t="n">
+      <c r="AV16" s="3" t="n">
         <v>536822788.0714</v>
       </c>
-      <c r="AW16" s="13" t="n">
+      <c r="AW16" s="3" t="n">
         <v>795375206.096301</v>
       </c>
-      <c r="AX16" s="13"/>
+      <c r="AX16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -7774,89 +7774,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13" t="n">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="n">
         <v>676893024.468438</v>
       </c>
-      <c r="AA17" s="13" t="n">
+      <c r="AA17" s="3" t="n">
         <v>647537654.095381</v>
       </c>
-      <c r="AB17" s="13" t="n">
+      <c r="AB17" s="3" t="n">
         <v>1678430206.90504</v>
       </c>
-      <c r="AC17" s="13" t="n">
+      <c r="AC17" s="3" t="n">
         <v>1581251113.39248</v>
       </c>
-      <c r="AD17" s="13" t="n">
+      <c r="AD17" s="3" t="n">
         <v>1260840686.12959</v>
       </c>
-      <c r="AE17" s="13" t="n">
+      <c r="AE17" s="3" t="n">
         <v>1613667649.21662</v>
       </c>
-      <c r="AF17" s="13" t="n">
+      <c r="AF17" s="3" t="n">
         <v>1555432850.97404</v>
       </c>
-      <c r="AG17" s="13" t="n">
+      <c r="AG17" s="3" t="n">
         <v>1131488137.3725</v>
       </c>
-      <c r="AH17" s="13" t="n">
+      <c r="AH17" s="3" t="n">
         <v>1100888048.26857</v>
       </c>
-      <c r="AI17" s="13" t="n">
+      <c r="AI17" s="3" t="n">
         <v>1157722872.38946</v>
       </c>
-      <c r="AJ17" s="13" t="n">
+      <c r="AJ17" s="3" t="n">
         <v>2662844673.7949</v>
       </c>
-      <c r="AK17" s="13" t="n">
+      <c r="AK17" s="3" t="n">
         <v>2797537660.42599</v>
       </c>
-      <c r="AL17" s="13" t="n">
+      <c r="AL17" s="3" t="n">
         <v>2296594416.75883</v>
       </c>
-      <c r="AM17" s="13" t="n">
+      <c r="AM17" s="3" t="n">
         <v>2603350560.60856</v>
       </c>
-      <c r="AN17" s="13" t="n">
+      <c r="AN17" s="3" t="n">
         <v>3713643857.92027</v>
       </c>
-      <c r="AO17" s="13" t="n">
+      <c r="AO17" s="3" t="n">
         <v>2931496074.08697</v>
       </c>
-      <c r="AP17" s="13" t="n">
+      <c r="AP17" s="3" t="n">
         <v>4263829555.49789</v>
       </c>
-      <c r="AQ17" s="13" t="n">
+      <c r="AQ17" s="3" t="n">
         <v>4338588523.78919</v>
       </c>
-      <c r="AR17" s="13" t="n">
+      <c r="AR17" s="3" t="n">
         <v>3512469739.57997</v>
       </c>
-      <c r="AS17" s="13" t="n">
+      <c r="AS17" s="3" t="n">
         <v>4210176498.82266</v>
       </c>
-      <c r="AT17" s="13" t="n">
+      <c r="AT17" s="3" t="n">
         <v>4467502101.33602</v>
       </c>
-      <c r="AU17" s="13" t="n">
+      <c r="AU17" s="3" t="n">
         <v>3617533393.00225</v>
       </c>
-      <c r="AV17" s="13" t="n">
+      <c r="AV17" s="3" t="n">
         <v>4999672957.258</v>
       </c>
-      <c r="AW17" s="13" t="n">
+      <c r="AW17" s="3" t="n">
         <v>4139297570.06834</v>
       </c>
-      <c r="AX17" s="13"/>
+      <c r="AX17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -7874,89 +7874,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13" t="n">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="n">
         <v>8290635094.71531</v>
       </c>
-      <c r="AA18" s="13" t="n">
+      <c r="AA18" s="3" t="n">
         <v>8045175212.51094</v>
       </c>
-      <c r="AB18" s="13" t="n">
+      <c r="AB18" s="3" t="n">
         <v>9248718325.59807</v>
       </c>
-      <c r="AC18" s="13" t="n">
+      <c r="AC18" s="3" t="n">
         <v>10697032658.8653</v>
       </c>
-      <c r="AD18" s="13" t="n">
+      <c r="AD18" s="3" t="n">
         <v>11909883817.3704</v>
       </c>
-      <c r="AE18" s="13" t="n">
+      <c r="AE18" s="3" t="n">
         <v>12840403466.8452</v>
       </c>
-      <c r="AF18" s="13" t="n">
+      <c r="AF18" s="3" t="n">
         <v>12937464431.8591</v>
       </c>
-      <c r="AG18" s="13" t="n">
+      <c r="AG18" s="3" t="n">
         <v>14372841816.5041</v>
       </c>
-      <c r="AH18" s="13" t="n">
+      <c r="AH18" s="3" t="n">
         <v>14921048654.738</v>
       </c>
-      <c r="AI18" s="13" t="n">
+      <c r="AI18" s="3" t="n">
         <v>14390837826.7593</v>
       </c>
-      <c r="AJ18" s="13" t="n">
+      <c r="AJ18" s="3" t="n">
         <v>16516844243.3473</v>
       </c>
-      <c r="AK18" s="13" t="n">
+      <c r="AK18" s="3" t="n">
         <v>18467297412.1422</v>
       </c>
-      <c r="AL18" s="13" t="n">
+      <c r="AL18" s="3" t="n">
         <v>17611147064.9327</v>
       </c>
-      <c r="AM18" s="13" t="n">
+      <c r="AM18" s="3" t="n">
         <v>14607346933.4983</v>
       </c>
-      <c r="AN18" s="13" t="n">
+      <c r="AN18" s="3" t="n">
         <v>13269695923.6464</v>
       </c>
-      <c r="AO18" s="13" t="n">
+      <c r="AO18" s="3" t="n">
         <v>13393421613.1278</v>
       </c>
-      <c r="AP18" s="13" t="n">
+      <c r="AP18" s="3" t="n">
         <v>14214699461.981</v>
       </c>
-      <c r="AQ18" s="13" t="n">
+      <c r="AQ18" s="3" t="n">
         <v>14699525271.1156</v>
       </c>
-      <c r="AR18" s="13" t="n">
+      <c r="AR18" s="3" t="n">
         <v>16109061690.7698</v>
       </c>
-      <c r="AS18" s="13" t="n">
+      <c r="AS18" s="3" t="n">
         <v>16998834159.395</v>
       </c>
-      <c r="AT18" s="13" t="n">
+      <c r="AT18" s="3" t="n">
         <v>16803704473.7765</v>
       </c>
-      <c r="AU18" s="13" t="n">
+      <c r="AU18" s="3" t="n">
         <v>14967957832.9874</v>
       </c>
-      <c r="AV18" s="13" t="n">
+      <c r="AV18" s="3" t="n">
         <v>13621229112.1481</v>
       </c>
-      <c r="AW18" s="13" t="n">
+      <c r="AW18" s="3" t="n">
         <v>12410426494.4222</v>
       </c>
-      <c r="AX18" s="13"/>
+      <c r="AX18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -7974,89 +7974,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13" t="n">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="n">
         <v>925226186.4536</v>
       </c>
-      <c r="AA19" s="13" t="n">
+      <c r="AA19" s="3" t="n">
         <v>1104669464.9602</v>
       </c>
-      <c r="AB19" s="13" t="n">
+      <c r="AB19" s="3" t="n">
         <v>1184377591.64278</v>
       </c>
-      <c r="AC19" s="13" t="n">
+      <c r="AC19" s="3" t="n">
         <v>1249443908.72384</v>
       </c>
-      <c r="AD19" s="13" t="n">
+      <c r="AD19" s="3" t="n">
         <v>2061714779.55742</v>
       </c>
-      <c r="AE19" s="13" t="n">
+      <c r="AE19" s="3" t="n">
         <v>3029040604.53615</v>
       </c>
-      <c r="AF19" s="13" t="n">
+      <c r="AF19" s="3" t="n">
         <v>2217770598.28739</v>
       </c>
-      <c r="AG19" s="13" t="n">
+      <c r="AG19" s="3" t="n">
         <v>2356606394.35458</v>
       </c>
-      <c r="AH19" s="13" t="n">
+      <c r="AH19" s="3" t="n">
         <v>1560799286.89055</v>
       </c>
-      <c r="AI19" s="13" t="n">
+      <c r="AI19" s="3" t="n">
         <v>2122550282.66825</v>
       </c>
-      <c r="AJ19" s="13" t="n">
+      <c r="AJ19" s="3" t="n">
         <v>3508630783.30238</v>
       </c>
-      <c r="AK19" s="13" t="n">
+      <c r="AK19" s="3" t="n">
         <v>2640954168.25818</v>
       </c>
-      <c r="AL19" s="13" t="n">
+      <c r="AL19" s="3" t="n">
         <v>2221789441.35155</v>
       </c>
-      <c r="AM19" s="13" t="n">
+      <c r="AM19" s="3" t="n">
         <v>1152294146.64536</v>
       </c>
-      <c r="AN19" s="13" t="n">
+      <c r="AN19" s="3" t="n">
         <v>746759783.036562</v>
       </c>
-      <c r="AO19" s="13" t="n">
+      <c r="AO19" s="3" t="n">
         <v>796740622.592979</v>
       </c>
-      <c r="AP19" s="13" t="n">
+      <c r="AP19" s="3" t="n">
         <v>1200572837.64093</v>
       </c>
-      <c r="AQ19" s="13" t="n">
+      <c r="AQ19" s="3" t="n">
         <v>1777495586.58826</v>
       </c>
-      <c r="AR19" s="13" t="n">
+      <c r="AR19" s="3" t="n">
         <v>1344355024.10587</v>
       </c>
-      <c r="AS19" s="13" t="n">
+      <c r="AS19" s="3" t="n">
         <v>1400819097.36077</v>
       </c>
-      <c r="AT19" s="13" t="n">
+      <c r="AT19" s="3" t="n">
         <v>1131847943.85952</v>
       </c>
-      <c r="AU19" s="13" t="n">
+      <c r="AU19" s="3" t="n">
         <v>979595085.460758</v>
       </c>
-      <c r="AV19" s="13" t="n">
+      <c r="AV19" s="3" t="n">
         <v>1085387317.1159</v>
       </c>
-      <c r="AW19" s="13" t="n">
+      <c r="AW19" s="3" t="n">
         <v>1495857002.31953</v>
       </c>
-      <c r="AX19" s="13"/>
+      <c r="AX19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -8074,75 +8074,75 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13" t="n">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3" t="n">
         <v>1019228.11469816</v>
       </c>
-      <c r="AA20" s="13" t="n">
+      <c r="AA20" s="3" t="n">
         <v>260764.85859476</v>
       </c>
-      <c r="AB20" s="13" t="n">
+      <c r="AB20" s="3" t="n">
         <v>33188288.549756</v>
       </c>
-      <c r="AC20" s="13" t="n">
+      <c r="AC20" s="3" t="n">
         <v>145455475.415221</v>
       </c>
-      <c r="AD20" s="13" t="n">
+      <c r="AD20" s="3" t="n">
         <v>287228111.541315</v>
       </c>
-      <c r="AE20" s="13" t="n">
+      <c r="AE20" s="3" t="n">
         <v>513839077.413231</v>
       </c>
-      <c r="AF20" s="13" t="n">
+      <c r="AF20" s="3" t="n">
         <v>964073375.956311</v>
       </c>
-      <c r="AG20" s="13" t="n">
+      <c r="AG20" s="3" t="n">
         <v>3723775093.35966</v>
       </c>
-      <c r="AH20" s="13" t="n">
+      <c r="AH20" s="3" t="n">
         <v>5574535156.95916</v>
       </c>
-      <c r="AI20" s="13" t="n">
+      <c r="AI20" s="3" t="n">
         <v>6251694182.0753</v>
       </c>
-      <c r="AJ20" s="13" t="n">
+      <c r="AJ20" s="3" t="n">
         <v>351739179.461811</v>
       </c>
-      <c r="AK20" s="13" t="n">
+      <c r="AK20" s="3" t="n">
         <v>150483894.746265</v>
       </c>
-      <c r="AL20" s="13" t="n">
+      <c r="AL20" s="3" t="n">
         <v>3253587.61145794</v>
       </c>
-      <c r="AM20" s="13" t="n">
+      <c r="AM20" s="3" t="n">
         <v>9522924.76254834</v>
       </c>
-      <c r="AN20" s="13" t="n">
+      <c r="AN20" s="3" t="n">
         <v>-9001685.33890305</v>
       </c>
-      <c r="AO20" s="13" t="n">
+      <c r="AO20" s="3" t="n">
         <v>176716.296840359</v>
       </c>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13"/>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="13" t="n">
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3" t="n">
         <v>467462</v>
       </c>
-      <c r="AW20" s="13"/>
-      <c r="AX20" s="13"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -8158,109 +8158,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="13" t="n">
+      <c r="P21" s="3" t="n">
         <v>39159221227.3348</v>
       </c>
-      <c r="Q21" s="13" t="n">
+      <c r="Q21" s="3" t="n">
         <v>37075841095.001</v>
       </c>
-      <c r="R21" s="13" t="n">
+      <c r="R21" s="3" t="n">
         <v>36294366444.8787</v>
       </c>
-      <c r="S21" s="13" t="n">
+      <c r="S21" s="3" t="n">
         <v>33369645404.352</v>
       </c>
-      <c r="T21" s="13" t="n">
+      <c r="T21" s="3" t="n">
         <v>31587983747.9476</v>
       </c>
-      <c r="U21" s="13" t="n">
+      <c r="U21" s="3" t="n">
         <v>32767823423.5663</v>
       </c>
-      <c r="V21" s="13" t="n">
+      <c r="V21" s="3" t="n">
         <v>31286645512.572</v>
       </c>
-      <c r="W21" s="13" t="n">
+      <c r="W21" s="3" t="n">
         <v>31154027060.9063</v>
       </c>
-      <c r="X21" s="13" t="n">
+      <c r="X21" s="3" t="n">
         <v>29189360890.8719</v>
       </c>
-      <c r="Y21" s="13" t="n">
+      <c r="Y21" s="3" t="n">
         <v>32280454746.2768</v>
       </c>
-      <c r="Z21" s="13" t="n">
+      <c r="Z21" s="3" t="n">
         <v>7526641248.01413</v>
       </c>
-      <c r="AA21" s="13" t="n">
+      <c r="AA21" s="3" t="n">
         <v>6606935774.63454</v>
       </c>
-      <c r="AB21" s="13" t="n">
+      <c r="AB21" s="3" t="n">
         <v>7582225166.1767</v>
       </c>
-      <c r="AC21" s="13" t="n">
+      <c r="AC21" s="3" t="n">
         <v>6914215550.98431</v>
       </c>
-      <c r="AD21" s="13" t="n">
+      <c r="AD21" s="3" t="n">
         <v>6409878714.35362</v>
       </c>
-      <c r="AE21" s="13" t="n">
+      <c r="AE21" s="3" t="n">
         <v>4561435025.9102</v>
       </c>
-      <c r="AF21" s="13" t="n">
+      <c r="AF21" s="3" t="n">
         <v>2827558485.19101</v>
       </c>
-      <c r="AG21" s="13" t="n">
+      <c r="AG21" s="3" t="n">
         <v>561746702.109806</v>
       </c>
-      <c r="AH21" s="13" t="n">
+      <c r="AH21" s="3" t="n">
         <v>1858665185.96288</v>
       </c>
-      <c r="AI21" s="13" t="n">
+      <c r="AI21" s="3" t="n">
         <v>491777875.775678</v>
       </c>
-      <c r="AJ21" s="13" t="n">
+      <c r="AJ21" s="3" t="n">
         <v>103208993.994511</v>
       </c>
-      <c r="AK21" s="13" t="n">
+      <c r="AK21" s="3" t="n">
         <v>26350447.4157607</v>
       </c>
-      <c r="AL21" s="13" t="n">
+      <c r="AL21" s="3" t="n">
         <v>371129273.469558</v>
       </c>
-      <c r="AM21" s="13" t="n">
+      <c r="AM21" s="3" t="n">
         <v>475242959.410575</v>
       </c>
-      <c r="AN21" s="13" t="n">
+      <c r="AN21" s="3" t="n">
         <v>587000658.356338</v>
       </c>
-      <c r="AO21" s="13" t="n">
+      <c r="AO21" s="3" t="n">
         <v>270020631.553428</v>
       </c>
-      <c r="AP21" s="13" t="n">
+      <c r="AP21" s="3" t="n">
         <v>262369494.174687</v>
       </c>
-      <c r="AQ21" s="13" t="n">
+      <c r="AQ21" s="3" t="n">
         <v>512422610.278865</v>
       </c>
-      <c r="AR21" s="13" t="n">
+      <c r="AR21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="13" t="n">
+      <c r="AS21" s="3" t="n">
         <v>57010.718032891</v>
       </c>
-      <c r="AT21" s="13" t="n">
+      <c r="AT21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="13" t="n">
+      <c r="AU21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="13" t="n">
+      <c r="AV21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="13" t="n">
+      <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="13"/>
+      <c r="AX21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -8269,41 +8269,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="552">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -1684,24 +1684,30 @@
   <si>
     <t xml:space="preserve">Firm Fixed-Price</t>
   </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1739,11 +1745,11 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1751,7 +1757,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2165,110 +2171,110 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="13" t="n">
+      <c r="N2" s="1" t="n">
         <v>11700035314</v>
       </c>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="1" t="n">
         <v>10081161897</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="1" t="n">
         <v>8531471514</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="1" t="n">
         <v>8121304048</v>
       </c>
-      <c r="R2" s="13" t="n">
+      <c r="R2" s="1" t="n">
         <v>7378565194</v>
       </c>
-      <c r="S2" s="13" t="n">
+      <c r="S2" s="1" t="n">
         <v>8419664740</v>
       </c>
-      <c r="T2" s="13" t="n">
+      <c r="T2" s="1" t="n">
         <v>7996254996</v>
       </c>
-      <c r="U2" s="13" t="n">
+      <c r="U2" s="1" t="n">
         <v>7567531907</v>
       </c>
-      <c r="V2" s="13" t="n">
+      <c r="V2" s="1" t="n">
         <v>7418594145</v>
       </c>
-      <c r="W2" s="13" t="n">
+      <c r="W2" s="1" t="n">
         <v>8227763201</v>
       </c>
-      <c r="X2" s="13" t="n">
+      <c r="X2" s="1" t="n">
         <v>8684401010.0859</v>
       </c>
-      <c r="Y2" s="13" t="n">
+      <c r="Y2" s="1" t="n">
         <v>9026870529.155</v>
       </c>
-      <c r="Z2" s="13" t="n">
+      <c r="Z2" s="1" t="n">
         <v>10514820347.3809</v>
       </c>
-      <c r="AA2" s="13" t="n">
+      <c r="AA2" s="1" t="n">
         <v>13790116496.9814</v>
       </c>
-      <c r="AB2" s="13" t="n">
+      <c r="AB2" s="1" t="n">
         <v>16073404596.7357</v>
       </c>
-      <c r="AC2" s="13" t="n">
+      <c r="AC2" s="1" t="n">
         <v>18719174970.8771</v>
       </c>
-      <c r="AD2" s="13" t="n">
+      <c r="AD2" s="1" t="n">
         <v>20873730896.411</v>
       </c>
-      <c r="AE2" s="13" t="n">
+      <c r="AE2" s="1" t="n">
         <v>23775624996.113</v>
       </c>
-      <c r="AF2" s="13" t="n">
+      <c r="AF2" s="1" t="n">
         <v>26054184072.8213</v>
       </c>
-      <c r="AG2" s="13" t="n">
+      <c r="AG2" s="1" t="n">
         <v>23869128597.6252</v>
       </c>
-      <c r="AH2" s="13" t="n">
+      <c r="AH2" s="1" t="n">
         <v>24805458836.7939</v>
       </c>
-      <c r="AI2" s="13" t="n">
+      <c r="AI2" s="1" t="n">
         <v>21419605017.453</v>
       </c>
-      <c r="AJ2" s="13" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>21498741071.7026</v>
       </c>
-      <c r="AK2" s="13" t="n">
+      <c r="AK2" s="1" t="n">
         <v>17576987829.7833</v>
       </c>
-      <c r="AL2" s="13" t="n">
+      <c r="AL2" s="1" t="n">
         <v>18110904721.8891</v>
       </c>
-      <c r="AM2" s="13" t="n">
+      <c r="AM2" s="1" t="n">
         <v>18324353729.5785</v>
       </c>
-      <c r="AN2" s="13" t="n">
+      <c r="AN2" s="1" t="n">
         <v>19658352960.0976</v>
       </c>
-      <c r="AO2" s="13" t="n">
+      <c r="AO2" s="1" t="n">
         <v>21290284393.5529</v>
       </c>
-      <c r="AP2" s="13" t="n">
+      <c r="AP2" s="1" t="n">
         <v>23540015810.139</v>
       </c>
-      <c r="AQ2" s="13" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>25130504578.0061</v>
       </c>
-      <c r="AR2" s="13" t="n">
+      <c r="AR2" s="1" t="n">
         <v>23307693603.3582</v>
       </c>
-      <c r="AS2" s="13" t="n">
+      <c r="AS2" s="1" t="n">
         <v>20830360260.9581</v>
       </c>
-      <c r="AT2" s="13" t="n">
+      <c r="AT2" s="1" t="n">
         <v>23675639434.1056</v>
       </c>
-      <c r="AU2" s="13" t="n">
+      <c r="AU2" s="1" t="n">
         <v>26672737311.3772</v>
       </c>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2277,110 +2283,110 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="13" t="n">
+      <c r="N3" s="1" t="n">
         <v>3573425000</v>
       </c>
-      <c r="O3" s="13" t="n">
+      <c r="O3" s="1" t="n">
         <v>3700301444</v>
       </c>
-      <c r="P3" s="13" t="n">
+      <c r="P3" s="1" t="n">
         <v>4178994977</v>
       </c>
-      <c r="Q3" s="13" t="n">
+      <c r="Q3" s="1" t="n">
         <v>3523211028</v>
       </c>
-      <c r="R3" s="13" t="n">
+      <c r="R3" s="1" t="n">
         <v>3643050364</v>
       </c>
-      <c r="S3" s="13" t="n">
+      <c r="S3" s="1" t="n">
         <v>3537845276</v>
       </c>
-      <c r="T3" s="13" t="n">
+      <c r="T3" s="1" t="n">
         <v>3014877084</v>
       </c>
-      <c r="U3" s="13" t="n">
+      <c r="U3" s="1" t="n">
         <v>3737151692</v>
       </c>
-      <c r="V3" s="13" t="n">
+      <c r="V3" s="1" t="n">
         <v>2993041644</v>
       </c>
-      <c r="W3" s="13" t="n">
+      <c r="W3" s="1" t="n">
         <v>3386496796</v>
       </c>
-      <c r="X3" s="13" t="n">
+      <c r="X3" s="1" t="n">
         <v>3219854370</v>
       </c>
-      <c r="Y3" s="13" t="n">
+      <c r="Y3" s="1" t="n">
         <v>3755954516</v>
       </c>
-      <c r="Z3" s="13" t="n">
+      <c r="Z3" s="1" t="n">
         <v>4389212277</v>
       </c>
-      <c r="AA3" s="13" t="n">
+      <c r="AA3" s="1" t="n">
         <v>4497648362.3275</v>
       </c>
-      <c r="AB3" s="13" t="n">
+      <c r="AB3" s="1" t="n">
         <v>5039304727.4075</v>
       </c>
-      <c r="AC3" s="13" t="n">
+      <c r="AC3" s="1" t="n">
         <v>5920884143.9395</v>
       </c>
-      <c r="AD3" s="13" t="n">
+      <c r="AD3" s="1" t="n">
         <v>5428838943.5233</v>
       </c>
-      <c r="AE3" s="13" t="n">
+      <c r="AE3" s="1" t="n">
         <v>6856882968.71</v>
       </c>
-      <c r="AF3" s="13" t="n">
+      <c r="AF3" s="1" t="n">
         <v>6831973921.6098</v>
       </c>
-      <c r="AG3" s="13" t="n">
+      <c r="AG3" s="1" t="n">
         <v>6917032060.1183</v>
       </c>
-      <c r="AH3" s="13" t="n">
+      <c r="AH3" s="1" t="n">
         <v>7619741226.0681</v>
       </c>
-      <c r="AI3" s="13" t="n">
+      <c r="AI3" s="1" t="n">
         <v>7747507528.8668</v>
       </c>
-      <c r="AJ3" s="13" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>7224439663.1544</v>
       </c>
-      <c r="AK3" s="13" t="n">
+      <c r="AK3" s="1" t="n">
         <v>5475487015.8885</v>
       </c>
-      <c r="AL3" s="13" t="n">
+      <c r="AL3" s="1" t="n">
         <v>5882858008.7334</v>
       </c>
-      <c r="AM3" s="13" t="n">
+      <c r="AM3" s="1" t="n">
         <v>5466011221.5931</v>
       </c>
-      <c r="AN3" s="13" t="n">
+      <c r="AN3" s="1" t="n">
         <v>5754790956.6206</v>
       </c>
-      <c r="AO3" s="13" t="n">
+      <c r="AO3" s="1" t="n">
         <v>6078165785.4011</v>
       </c>
-      <c r="AP3" s="13" t="n">
+      <c r="AP3" s="1" t="n">
         <v>6908893696.6178</v>
       </c>
-      <c r="AQ3" s="13" t="n">
+      <c r="AQ3" s="1" t="n">
         <v>7373651282.9093</v>
       </c>
-      <c r="AR3" s="13" t="n">
+      <c r="AR3" s="1" t="n">
         <v>7157770035.4279</v>
       </c>
-      <c r="AS3" s="13" t="n">
+      <c r="AS3" s="1" t="n">
         <v>5821022507.764</v>
       </c>
-      <c r="AT3" s="13" t="n">
+      <c r="AT3" s="1" t="n">
         <v>5828719281.4607</v>
       </c>
-      <c r="AU3" s="13" t="n">
+      <c r="AU3" s="1" t="n">
         <v>4301260283.4259</v>
       </c>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2389,110 +2395,110 @@
       <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="13" t="n">
+      <c r="N4" s="1" t="n">
         <v>4428979580</v>
       </c>
-      <c r="O4" s="13" t="n">
+      <c r="O4" s="1" t="n">
         <v>5538132392</v>
       </c>
-      <c r="P4" s="13" t="n">
+      <c r="P4" s="1" t="n">
         <v>6674581467</v>
       </c>
-      <c r="Q4" s="13" t="n">
+      <c r="Q4" s="1" t="n">
         <v>6597098423</v>
       </c>
-      <c r="R4" s="13" t="n">
+      <c r="R4" s="1" t="n">
         <v>6622303904</v>
       </c>
-      <c r="S4" s="13" t="n">
+      <c r="S4" s="1" t="n">
         <v>6733133651</v>
       </c>
-      <c r="T4" s="13" t="n">
+      <c r="T4" s="1" t="n">
         <v>7170053638</v>
       </c>
-      <c r="U4" s="13" t="n">
+      <c r="U4" s="1" t="n">
         <v>7121044477</v>
       </c>
-      <c r="V4" s="13" t="n">
+      <c r="V4" s="1" t="n">
         <v>7067675774</v>
       </c>
-      <c r="W4" s="13" t="n">
+      <c r="W4" s="1" t="n">
         <v>7957031345</v>
       </c>
-      <c r="X4" s="13" t="n">
+      <c r="X4" s="1" t="n">
         <v>8846420884.721</v>
       </c>
-      <c r="Y4" s="13" t="n">
+      <c r="Y4" s="1" t="n">
         <v>9603882636.7188</v>
       </c>
-      <c r="Z4" s="13" t="n">
+      <c r="Z4" s="1" t="n">
         <v>10899260135.868</v>
       </c>
-      <c r="AA4" s="13" t="n">
+      <c r="AA4" s="1" t="n">
         <v>13190322503.9556</v>
       </c>
-      <c r="AB4" s="13" t="n">
+      <c r="AB4" s="1" t="n">
         <v>16419336769.8524</v>
       </c>
-      <c r="AC4" s="13" t="n">
+      <c r="AC4" s="1" t="n">
         <v>17593186470.2513</v>
       </c>
-      <c r="AD4" s="13" t="n">
+      <c r="AD4" s="1" t="n">
         <v>18899935329.9323</v>
       </c>
-      <c r="AE4" s="13" t="n">
+      <c r="AE4" s="1" t="n">
         <v>21821103970.9614</v>
       </c>
-      <c r="AF4" s="13" t="n">
+      <c r="AF4" s="1" t="n">
         <v>24066298681.1917</v>
       </c>
-      <c r="AG4" s="13" t="n">
+      <c r="AG4" s="1" t="n">
         <v>24559523877.4905</v>
       </c>
-      <c r="AH4" s="13" t="n">
+      <c r="AH4" s="1" t="n">
         <v>23695736414.8324</v>
       </c>
-      <c r="AI4" s="13" t="n">
+      <c r="AI4" s="1" t="n">
         <v>23250963332.6371</v>
       </c>
-      <c r="AJ4" s="13" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>20897034805.8459</v>
       </c>
-      <c r="AK4" s="13" t="n">
+      <c r="AK4" s="1" t="n">
         <v>18060160590.4853</v>
       </c>
-      <c r="AL4" s="13" t="n">
+      <c r="AL4" s="1" t="n">
         <v>16860310396.6733</v>
       </c>
-      <c r="AM4" s="13" t="n">
+      <c r="AM4" s="1" t="n">
         <v>15824450344.4246</v>
       </c>
-      <c r="AN4" s="13" t="n">
+      <c r="AN4" s="1" t="n">
         <v>17891040796.044</v>
       </c>
-      <c r="AO4" s="13" t="n">
+      <c r="AO4" s="1" t="n">
         <v>18339812913.2936</v>
       </c>
-      <c r="AP4" s="13" t="n">
+      <c r="AP4" s="1" t="n">
         <v>20508221048.9871</v>
       </c>
-      <c r="AQ4" s="13" t="n">
+      <c r="AQ4" s="1" t="n">
         <v>22448737259.3344</v>
       </c>
-      <c r="AR4" s="13" t="n">
+      <c r="AR4" s="1" t="n">
         <v>24864370527.5907</v>
       </c>
-      <c r="AS4" s="13" t="n">
+      <c r="AS4" s="1" t="n">
         <v>22932059656.1626</v>
       </c>
-      <c r="AT4" s="13" t="n">
+      <c r="AT4" s="1" t="n">
         <v>24041926033.2574</v>
       </c>
-      <c r="AU4" s="13" t="n">
+      <c r="AU4" s="1" t="n">
         <v>25400984385.957</v>
       </c>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2501,50 +2507,50 @@
       <c r="M5" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13" t="n">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1" t="n">
         <v>13342</v>
       </c>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13" t="n">
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13" t="n">
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13" t="n">
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2553,110 +2559,110 @@
       <c r="M6" t="s">
         <v>542</v>
       </c>
-      <c r="N6" s="13" t="str">
+      <c r="N6" s="1" t="str">
         <f>Sum(N2:N5)</f>
       </c>
-      <c r="O6" s="13" t="str">
+      <c r="O6" s="1" t="str">
         <f>Sum(O2:O5)</f>
       </c>
-      <c r="P6" s="13" t="str">
+      <c r="P6" s="1" t="str">
         <f>Sum(P2:P5)</f>
       </c>
-      <c r="Q6" s="13" t="str">
+      <c r="Q6" s="1" t="str">
         <f>Sum(Q2:Q5)</f>
       </c>
-      <c r="R6" s="13" t="str">
+      <c r="R6" s="1" t="str">
         <f>Sum(R2:R5)</f>
       </c>
-      <c r="S6" s="13" t="str">
+      <c r="S6" s="1" t="str">
         <f>Sum(S2:S5)</f>
       </c>
-      <c r="T6" s="13" t="str">
+      <c r="T6" s="1" t="str">
         <f>Sum(T2:T5)</f>
       </c>
-      <c r="U6" s="13" t="str">
+      <c r="U6" s="1" t="str">
         <f>Sum(U2:U5)</f>
       </c>
-      <c r="V6" s="13" t="str">
+      <c r="V6" s="1" t="str">
         <f>Sum(V2:V5)</f>
       </c>
-      <c r="W6" s="13" t="str">
+      <c r="W6" s="1" t="str">
         <f>Sum(W2:W5)</f>
       </c>
-      <c r="X6" s="13" t="str">
+      <c r="X6" s="1" t="str">
         <f>Sum(X2:X5)</f>
       </c>
-      <c r="Y6" s="13" t="str">
+      <c r="Y6" s="1" t="str">
         <f>Sum(Y2:Y5)</f>
       </c>
-      <c r="Z6" s="13" t="str">
+      <c r="Z6" s="1" t="str">
         <f>Sum(Z2:Z5)</f>
       </c>
-      <c r="AA6" s="13" t="str">
+      <c r="AA6" s="1" t="str">
         <f>Sum(AA2:AA5)</f>
       </c>
-      <c r="AB6" s="13" t="str">
+      <c r="AB6" s="1" t="str">
         <f>Sum(AB2:AB5)</f>
       </c>
-      <c r="AC6" s="13" t="str">
+      <c r="AC6" s="1" t="str">
         <f>Sum(AC2:AC5)</f>
       </c>
-      <c r="AD6" s="13" t="str">
+      <c r="AD6" s="1" t="str">
         <f>Sum(AD2:AD5)</f>
       </c>
-      <c r="AE6" s="13" t="str">
+      <c r="AE6" s="1" t="str">
         <f>Sum(AE2:AE5)</f>
       </c>
-      <c r="AF6" s="13" t="str">
+      <c r="AF6" s="1" t="str">
         <f>Sum(AF2:AF5)</f>
       </c>
-      <c r="AG6" s="13" t="str">
+      <c r="AG6" s="1" t="str">
         <f>Sum(AG2:AG5)</f>
       </c>
-      <c r="AH6" s="13" t="str">
+      <c r="AH6" s="1" t="str">
         <f>Sum(AH2:AH5)</f>
       </c>
-      <c r="AI6" s="13" t="str">
+      <c r="AI6" s="1" t="str">
         <f>Sum(AI2:AI5)</f>
       </c>
-      <c r="AJ6" s="13" t="str">
+      <c r="AJ6" s="1" t="str">
         <f>Sum(AJ2:AJ5)</f>
       </c>
-      <c r="AK6" s="13" t="str">
+      <c r="AK6" s="1" t="str">
         <f>Sum(AK2:AK5)</f>
       </c>
-      <c r="AL6" s="13" t="str">
+      <c r="AL6" s="1" t="str">
         <f>Sum(AL2:AL5)</f>
       </c>
-      <c r="AM6" s="13" t="str">
+      <c r="AM6" s="1" t="str">
         <f>Sum(AM2:AM5)</f>
       </c>
-      <c r="AN6" s="13" t="str">
+      <c r="AN6" s="1" t="str">
         <f>Sum(AN2:AN5)</f>
       </c>
-      <c r="AO6" s="13" t="str">
+      <c r="AO6" s="1" t="str">
         <f>Sum(AO2:AO5)</f>
       </c>
-      <c r="AP6" s="13" t="str">
+      <c r="AP6" s="1" t="str">
         <f>Sum(AP2:AP5)</f>
       </c>
-      <c r="AQ6" s="13" t="str">
+      <c r="AQ6" s="1" t="str">
         <f>Sum(AQ2:AQ5)</f>
       </c>
-      <c r="AR6" s="13" t="str">
+      <c r="AR6" s="1" t="str">
         <f>Sum(AR2:AR5)</f>
       </c>
-      <c r="AS6" s="13" t="str">
+      <c r="AS6" s="1" t="str">
         <f>Sum(AS2:AS5)</f>
       </c>
-      <c r="AT6" s="13" t="str">
+      <c r="AT6" s="1" t="str">
         <f>Sum(AT2:AT5)</f>
       </c>
-      <c r="AU6" s="13" t="str">
+      <c r="AU6" s="1" t="str">
         <f>Sum(AU2:AU5)</f>
       </c>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -2775,110 +2781,110 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="13" t="n">
+      <c r="N10" s="1" t="n">
         <v>23254189516.2985</v>
       </c>
-      <c r="O10" s="13" t="n">
+      <c r="O10" s="1" t="n">
         <v>19346551641.7466</v>
       </c>
-      <c r="P10" s="13" t="n">
+      <c r="P10" s="1" t="n">
         <v>15973360195.654</v>
       </c>
-      <c r="Q10" s="13" t="n">
+      <c r="Q10" s="1" t="n">
         <v>14856418063.9802</v>
       </c>
-      <c r="R10" s="13" t="n">
+      <c r="R10" s="1" t="n">
         <v>13209876520.5327</v>
       </c>
-      <c r="S10" s="13" t="n">
+      <c r="S10" s="1" t="n">
         <v>14761080057.0267</v>
       </c>
-      <c r="T10" s="13" t="n">
+      <c r="T10" s="1" t="n">
         <v>13760158405.967</v>
       </c>
-      <c r="U10" s="13" t="n">
+      <c r="U10" s="1" t="n">
         <v>12795103283.98</v>
       </c>
-      <c r="V10" s="13" t="n">
+      <c r="V10" s="1" t="n">
         <v>12388589849.2531</v>
       </c>
-      <c r="W10" s="13" t="n">
+      <c r="W10" s="1" t="n">
         <v>13570690509.4705</v>
       </c>
-      <c r="X10" s="13" t="n">
+      <c r="X10" s="1" t="n">
         <v>14031647676.2415</v>
       </c>
-      <c r="Y10" s="13" t="n">
+      <c r="Y10" s="1" t="n">
         <v>14239681903.6829</v>
       </c>
-      <c r="Z10" s="13" t="n">
+      <c r="Z10" s="1" t="n">
         <v>16329156817.6176</v>
       </c>
-      <c r="AA10" s="13" t="n">
+      <c r="AA10" s="1" t="n">
         <v>21013908171.5108</v>
       </c>
-      <c r="AB10" s="13" t="n">
+      <c r="AB10" s="1" t="n">
         <v>23908857079.2461</v>
       </c>
-      <c r="AC10" s="13" t="n">
+      <c r="AC10" s="1" t="n">
         <v>27024025041.5841</v>
       </c>
-      <c r="AD10" s="13" t="n">
+      <c r="AD10" s="1" t="n">
         <v>29184289224.3285</v>
       </c>
-      <c r="AE10" s="13" t="n">
+      <c r="AE10" s="1" t="n">
         <v>32354273346.9307</v>
       </c>
-      <c r="AF10" s="13" t="n">
+      <c r="AF10" s="1" t="n">
         <v>34730638286.5973</v>
       </c>
-      <c r="AG10" s="13" t="n">
+      <c r="AG10" s="1" t="n">
         <v>31497845186.5051</v>
       </c>
-      <c r="AH10" s="13" t="n">
+      <c r="AH10" s="1" t="n">
         <v>32451188760.5493</v>
       </c>
-      <c r="AI10" s="13" t="n">
+      <c r="AI10" s="1" t="n">
         <v>27468135016.4329</v>
       </c>
-      <c r="AJ10" s="13" t="n">
+      <c r="AJ10" s="1" t="n">
         <v>27073364626.4295</v>
       </c>
-      <c r="AK10" s="13" t="n">
+      <c r="AK10" s="1" t="n">
         <v>21736915215.7574</v>
       </c>
-      <c r="AL10" s="13" t="n">
+      <c r="AL10" s="1" t="n">
         <v>21972121696.5308</v>
       </c>
-      <c r="AM10" s="13" t="n">
+      <c r="AM10" s="1" t="n">
         <v>21979101499.1752</v>
       </c>
-      <c r="AN10" s="13" t="n">
+      <c r="AN10" s="1" t="n">
         <v>23385380593.4566</v>
       </c>
-      <c r="AO10" s="13" t="n">
+      <c r="AO10" s="1" t="n">
         <v>24882464176.4947</v>
       </c>
-      <c r="AP10" s="13" t="n">
+      <c r="AP10" s="1" t="n">
         <v>26880614714.0476</v>
       </c>
-      <c r="AQ10" s="13" t="n">
+      <c r="AQ10" s="1" t="n">
         <v>28145539328.1872</v>
       </c>
-      <c r="AR10" s="13" t="n">
+      <c r="AR10" s="1" t="n">
         <v>25760381403.1304</v>
       </c>
-      <c r="AS10" s="13" t="n">
+      <c r="AS10" s="1" t="n">
         <v>22273645824.8465</v>
       </c>
-      <c r="AT10" s="13" t="n">
+      <c r="AT10" s="1" t="n">
         <v>23675639434.1056</v>
       </c>
-      <c r="AU10" s="13" t="n">
+      <c r="AU10" s="1" t="n">
         <v>25440413622.6956</v>
       </c>
-      <c r="AV10" s="13"/>
-      <c r="AW10" s="13"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -2887,110 +2893,110 @@
       <c r="M11" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="13" t="n">
+      <c r="N11" s="1" t="n">
         <v>7102294988.19091</v>
       </c>
-      <c r="O11" s="13" t="n">
+      <c r="O11" s="1" t="n">
         <v>7101172831.84182</v>
       </c>
-      <c r="P11" s="13" t="n">
+      <c r="P11" s="1" t="n">
         <v>7824276493.67518</v>
       </c>
-      <c r="Q11" s="13" t="n">
+      <c r="Q11" s="1" t="n">
         <v>6445060503.85881</v>
       </c>
-      <c r="R11" s="13" t="n">
+      <c r="R11" s="1" t="n">
         <v>6522168497.69853</v>
       </c>
-      <c r="S11" s="13" t="n">
+      <c r="S11" s="1" t="n">
         <v>6202434296.50025</v>
       </c>
-      <c r="T11" s="13" t="n">
+      <c r="T11" s="1" t="n">
         <v>5188076952.41236</v>
       </c>
-      <c r="U11" s="13" t="n">
+      <c r="U11" s="1" t="n">
         <v>6318736739.36008</v>
       </c>
-      <c r="V11" s="13" t="n">
+      <c r="V11" s="1" t="n">
         <v>4998193000.5217</v>
       </c>
-      <c r="W11" s="13" t="n">
+      <c r="W11" s="1" t="n">
         <v>5585612858.21205</v>
       </c>
-      <c r="X11" s="13" t="n">
+      <c r="X11" s="1" t="n">
         <v>5202415461.48958</v>
       </c>
-      <c r="Y11" s="13" t="n">
+      <c r="Y11" s="1" t="n">
         <v>5924932387.12132</v>
       </c>
-      <c r="Z11" s="13" t="n">
+      <c r="Z11" s="1" t="n">
         <v>6816296732.52555</v>
       </c>
-      <c r="AA11" s="13" t="n">
+      <c r="AA11" s="1" t="n">
         <v>6853688994.89607</v>
       </c>
-      <c r="AB11" s="13" t="n">
+      <c r="AB11" s="1" t="n">
         <v>7495861612.9668</v>
       </c>
-      <c r="AC11" s="13" t="n">
+      <c r="AC11" s="1" t="n">
         <v>8547712258.85082</v>
       </c>
-      <c r="AD11" s="13" t="n">
+      <c r="AD11" s="1" t="n">
         <v>7590248560.08482</v>
       </c>
-      <c r="AE11" s="13" t="n">
+      <c r="AE11" s="1" t="n">
         <v>9330962526.27751</v>
       </c>
-      <c r="AF11" s="13" t="n">
+      <c r="AF11" s="1" t="n">
         <v>9107128989.0216</v>
       </c>
-      <c r="AG11" s="13" t="n">
+      <c r="AG11" s="1" t="n">
         <v>9127756972.29999</v>
       </c>
-      <c r="AH11" s="13" t="n">
+      <c r="AH11" s="1" t="n">
         <v>9968356661.35313</v>
       </c>
-      <c r="AI11" s="13" t="n">
+      <c r="AI11" s="1" t="n">
         <v>9935271106.55605</v>
       </c>
-      <c r="AJ11" s="13" t="n">
+      <c r="AJ11" s="1" t="n">
         <v>9097736866.07449</v>
       </c>
-      <c r="AK11" s="13" t="n">
+      <c r="AK11" s="1" t="n">
         <v>6771364819.83992</v>
       </c>
-      <c r="AL11" s="13" t="n">
+      <c r="AL11" s="1" t="n">
         <v>7137074269.68443</v>
       </c>
-      <c r="AM11" s="13" t="n">
+      <c r="AM11" s="1" t="n">
         <v>6556193861.34766</v>
       </c>
-      <c r="AN11" s="13" t="n">
+      <c r="AN11" s="1" t="n">
         <v>6845841919.18419</v>
       </c>
-      <c r="AO11" s="13" t="n">
+      <c r="AO11" s="1" t="n">
         <v>7103697612.41126</v>
       </c>
-      <c r="AP11" s="13" t="n">
+      <c r="AP11" s="1" t="n">
         <v>7889345149.84927</v>
       </c>
-      <c r="AQ11" s="13" t="n">
+      <c r="AQ11" s="1" t="n">
         <v>8258305818.38353</v>
       </c>
-      <c r="AR11" s="13" t="n">
+      <c r="AR11" s="1" t="n">
         <v>7910988073.13797</v>
       </c>
-      <c r="AS11" s="13" t="n">
+      <c r="AS11" s="1" t="n">
         <v>6224347157.32716</v>
       </c>
-      <c r="AT11" s="13" t="n">
+      <c r="AT11" s="1" t="n">
         <v>5828719281.4607</v>
       </c>
-      <c r="AU11" s="13" t="n">
+      <c r="AU11" s="1" t="n">
         <v>4102535087.86113</v>
       </c>
-      <c r="AV11" s="13"/>
-      <c r="AW11" s="13"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2999,110 +3005,110 @@
       <c r="M12" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="13" t="n">
+      <c r="N12" s="1" t="n">
         <v>8802736722.84542</v>
       </c>
-      <c r="O12" s="13" t="n">
+      <c r="O12" s="1" t="n">
         <v>10628116621.4126</v>
       </c>
-      <c r="P12" s="13" t="n">
+      <c r="P12" s="1" t="n">
         <v>12496729755.5496</v>
       </c>
-      <c r="Q12" s="13" t="n">
+      <c r="Q12" s="1" t="n">
         <v>12068166836.513</v>
       </c>
-      <c r="R12" s="13" t="n">
+      <c r="R12" s="1" t="n">
         <v>11855938729.7163</v>
       </c>
-      <c r="S12" s="13" t="n">
+      <c r="S12" s="1" t="n">
         <v>11804309070.0393</v>
       </c>
-      <c r="T12" s="13" t="n">
+      <c r="T12" s="1" t="n">
         <v>12338410154.1926</v>
       </c>
-      <c r="U12" s="13" t="n">
+      <c r="U12" s="1" t="n">
         <v>12040187037.5662</v>
       </c>
-      <c r="V12" s="13" t="n">
+      <c r="V12" s="1" t="n">
         <v>11802578041.0971</v>
       </c>
-      <c r="W12" s="13" t="n">
+      <c r="W12" s="1" t="n">
         <v>13124151378.5942</v>
       </c>
-      <c r="X12" s="13" t="n">
+      <c r="X12" s="1" t="n">
         <v>14293428056.3493</v>
       </c>
-      <c r="Y12" s="13" t="n">
+      <c r="Y12" s="1" t="n">
         <v>15149905312.7531</v>
       </c>
-      <c r="Z12" s="13" t="n">
+      <c r="Z12" s="1" t="n">
         <v>16926178676.8357</v>
       </c>
-      <c r="AA12" s="13" t="n">
+      <c r="AA12" s="1" t="n">
         <v>20099919091.4311</v>
       </c>
-      <c r="AB12" s="13" t="n">
+      <c r="AB12" s="1" t="n">
         <v>24423424035.8845</v>
       </c>
-      <c r="AC12" s="13" t="n">
+      <c r="AC12" s="1" t="n">
         <v>25398486443.6071</v>
       </c>
-      <c r="AD12" s="13" t="n">
+      <c r="AD12" s="1" t="n">
         <v>26424656987.6344</v>
       </c>
-      <c r="AE12" s="13" t="n">
+      <c r="AE12" s="1" t="n">
         <v>29694528018.6621</v>
       </c>
-      <c r="AF12" s="13" t="n">
+      <c r="AF12" s="1" t="n">
         <v>32080755707.3183</v>
       </c>
-      <c r="AG12" s="13" t="n">
+      <c r="AG12" s="1" t="n">
         <v>32408894936.5515</v>
       </c>
-      <c r="AH12" s="13" t="n">
+      <c r="AH12" s="1" t="n">
         <v>30999419130.9761</v>
       </c>
-      <c r="AI12" s="13" t="n">
+      <c r="AI12" s="1" t="n">
         <v>29816637587.9769</v>
       </c>
-      <c r="AJ12" s="13" t="n">
+      <c r="AJ12" s="1" t="n">
         <v>26315635925.9807</v>
       </c>
-      <c r="AK12" s="13" t="n">
+      <c r="AK12" s="1" t="n">
         <v>22334439970.0357</v>
       </c>
-      <c r="AL12" s="13" t="n">
+      <c r="AL12" s="1" t="n">
         <v>20454902588.5631</v>
       </c>
-      <c r="AM12" s="13" t="n">
+      <c r="AM12" s="1" t="n">
         <v>18980598465.9284</v>
       </c>
-      <c r="AN12" s="13" t="n">
+      <c r="AN12" s="1" t="n">
         <v>21283003671.6601</v>
       </c>
-      <c r="AO12" s="13" t="n">
+      <c r="AO12" s="1" t="n">
         <v>21434177645.6885</v>
       </c>
-      <c r="AP12" s="13" t="n">
+      <c r="AP12" s="1" t="n">
         <v>23418573417.0536</v>
       </c>
-      <c r="AQ12" s="13" t="n">
+      <c r="AQ12" s="1" t="n">
         <v>25142026712.5758</v>
       </c>
-      <c r="AR12" s="13" t="n">
+      <c r="AR12" s="1" t="n">
         <v>27480868722.558</v>
       </c>
-      <c r="AS12" s="13" t="n">
+      <c r="AS12" s="1" t="n">
         <v>24520966916.3986</v>
       </c>
-      <c r="AT12" s="13" t="n">
+      <c r="AT12" s="1" t="n">
         <v>24041926033.2574</v>
       </c>
-      <c r="AU12" s="13" t="n">
+      <c r="AU12" s="1" t="n">
         <v>24227417743.3876</v>
       </c>
-      <c r="AV12" s="13"/>
-      <c r="AW12" s="13"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3111,91 +3117,91 @@
       <c r="M13" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13" t="n">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1" t="n">
         <v>21046.6999992214</v>
       </c>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13" t="n">
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13" t="n">
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13" t="n">
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="13"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="13"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
-      <c r="AV13" s="13"/>
-      <c r="AW13" s="13"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <f>M14</f>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="13"/>
-      <c r="AW14" s="13"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8323,6 +8329,12 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>O1</f>
+      </c>
       <c r="N1" t="s">
         <v>60</v>
       </c>
@@ -8431,738 +8443,1059 @@
       <c r="AW1" t="s">
         <v>34</v>
       </c>
+      <c r="AX1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>O2</f>
+      </c>
       <c r="N2" t="s">
         <v>62</v>
       </c>
       <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="n">
+      <c r="P2" s="13" t="n">
+        <v>278592134.53</v>
+      </c>
+      <c r="Q2" s="13" t="n">
+        <v>214066000</v>
+      </c>
+      <c r="R2" s="13" t="n">
+        <v>115231000</v>
+      </c>
+      <c r="S2" s="13" t="n">
+        <v>356753000</v>
+      </c>
+      <c r="T2" s="13" t="n">
+        <v>143143000</v>
+      </c>
+      <c r="U2" s="13" t="n">
+        <v>214881809</v>
+      </c>
+      <c r="V2" s="13" t="n">
+        <v>164943000</v>
+      </c>
+      <c r="W2" s="13" t="n">
+        <v>2173573690.2</v>
+      </c>
+      <c r="X2" s="13" t="n">
+        <v>2155383374</v>
+      </c>
+      <c r="Y2" s="13" t="n">
+        <v>2039443037</v>
+      </c>
+      <c r="Z2" s="13" t="n">
         <v>8021951004</v>
       </c>
-      <c r="AA2" s="4" t="n">
-        <v>8320647985</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>8800065378.6094</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>9404475634.0487</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>10909289692.7472</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>12674014351.0174</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>11694723004.5789</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>13703810682.6111</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>13721927317.2913</v>
-      </c>
-      <c r="AI2" s="4" t="n">
-        <v>13379463793.1479</v>
-      </c>
-      <c r="AJ2" s="4" t="n">
-        <v>13835225170.1946</v>
-      </c>
-      <c r="AK2" s="4" t="n">
-        <v>14562778368.9755</v>
-      </c>
-      <c r="AL2" s="4" t="n">
-        <v>14921680726.0337</v>
-      </c>
-      <c r="AM2" s="4" t="n">
-        <v>12695078651.8236</v>
-      </c>
-      <c r="AN2" s="4" t="n">
-        <v>12240530174.9698</v>
-      </c>
-      <c r="AO2" s="4" t="n">
-        <v>12034468796.1706</v>
-      </c>
-      <c r="AP2" s="4" t="n">
-        <v>11861189132.9223</v>
-      </c>
-      <c r="AQ2" s="4" t="n">
-        <v>12250042498.617</v>
-      </c>
-      <c r="AR2" s="4" t="n">
-        <v>13227171028.5887</v>
-      </c>
-      <c r="AS2" s="4" t="n">
-        <v>13044785404.6434</v>
-      </c>
-      <c r="AT2" s="4" t="n">
-        <v>13102504225.1953</v>
-      </c>
-      <c r="AU2" s="4" t="n">
-        <v>11969037894.5947</v>
-      </c>
-      <c r="AV2" s="4" t="n">
-        <v>13045110411.5948</v>
-      </c>
-      <c r="AW2" s="4" t="n">
-        <v>6375796644.3276</v>
-      </c>
-      <c r="AX2" s="4"/>
+      <c r="AA2" s="13" t="n">
+        <v>8320647958.99</v>
+      </c>
+      <c r="AB2" s="13" t="n">
+        <v>8800415383.6</v>
+      </c>
+      <c r="AC2" s="13" t="n">
+        <v>9400367347.09</v>
+      </c>
+      <c r="AD2" s="13" t="n">
+        <v>10909289706.63</v>
+      </c>
+      <c r="AE2" s="13" t="n">
+        <v>12674014351.44</v>
+      </c>
+      <c r="AF2" s="13" t="n">
+        <v>11694165809.04</v>
+      </c>
+      <c r="AG2" s="13" t="n">
+        <v>13703083958.18</v>
+      </c>
+      <c r="AH2" s="13" t="n">
+        <v>13721625705.65</v>
+      </c>
+      <c r="AI2" s="13" t="n">
+        <v>13379281715.7</v>
+      </c>
+      <c r="AJ2" s="13" t="n">
+        <v>13819567276.7127</v>
+      </c>
+      <c r="AK2" s="13" t="n">
+        <v>14502433721.5332</v>
+      </c>
+      <c r="AL2" s="13" t="n">
+        <v>14857238761.6137</v>
+      </c>
+      <c r="AM2" s="13" t="n">
+        <v>12864103169.5605</v>
+      </c>
+      <c r="AN2" s="13" t="n">
+        <v>12340311320.3711</v>
+      </c>
+      <c r="AO2" s="13" t="n">
+        <v>12027676031.5248</v>
+      </c>
+      <c r="AP2" s="13" t="n">
+        <v>11818138692.8012</v>
+      </c>
+      <c r="AQ2" s="13" t="n">
+        <v>12312033724.5194</v>
+      </c>
+      <c r="AR2" s="13" t="n">
+        <v>13208356060.49</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>13080121424.65</v>
+      </c>
+      <c r="AT2" s="13" t="n">
+        <v>13053629049.57</v>
+      </c>
+      <c r="AU2" s="13" t="n">
+        <v>11949916109.8</v>
+      </c>
+      <c r="AV2" s="13" t="n">
+        <v>12996451209.82</v>
+      </c>
+      <c r="AW2" s="13" t="n">
+        <v>12745224505.08</v>
+      </c>
+      <c r="AX2" s="13" t="n">
+        <v>12779481202.97</v>
+      </c>
+      <c r="AY2" s="13" t="n">
+        <v>5038072478.95</v>
+      </c>
+      <c r="AZ2" s="13"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>O3</f>
+      </c>
       <c r="N3" t="s">
         <v>62</v>
       </c>
       <c r="O3" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4" t="n">
-        <v>569933792.0107</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>661192807.9501</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>899529703.0931</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1531265623.7691</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1656253985.0566</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>1813231636.5276</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>2003895788.5089</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>2163684328.8482</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>2336536175.264</v>
-      </c>
-      <c r="AI3" s="4" t="n">
-        <v>2268100101.3824</v>
-      </c>
-      <c r="AJ3" s="4" t="n">
-        <v>2800899168.6457</v>
-      </c>
-      <c r="AK3" s="4" t="n">
-        <v>2405583139.7334</v>
-      </c>
-      <c r="AL3" s="4" t="n">
-        <v>1867667940.7792</v>
-      </c>
-      <c r="AM3" s="4" t="n">
-        <v>1770856043.4629</v>
-      </c>
-      <c r="AN3" s="4" t="n">
-        <v>1789042810.7525</v>
-      </c>
-      <c r="AO3" s="4" t="n">
-        <v>1655747576.1878</v>
-      </c>
-      <c r="AP3" s="4" t="n">
-        <v>1859852739.6639</v>
-      </c>
-      <c r="AQ3" s="4" t="n">
-        <v>1707853741.751</v>
-      </c>
-      <c r="AR3" s="4" t="n">
-        <v>2117423568.424</v>
-      </c>
-      <c r="AS3" s="4" t="n">
-        <v>2382009496.5678</v>
-      </c>
-      <c r="AT3" s="4" t="n">
-        <v>2080233501.5545</v>
-      </c>
-      <c r="AU3" s="4" t="n">
-        <v>1980240436.3709</v>
-      </c>
-      <c r="AV3" s="4" t="n">
-        <v>2191809031.7026</v>
-      </c>
-      <c r="AW3" s="4" t="n">
-        <v>797655186.1526</v>
-      </c>
-      <c r="AX3" s="4"/>
+      <c r="P3" s="13" t="n">
+        <v>65004000</v>
+      </c>
+      <c r="Q3" s="13" t="n">
+        <v>202409000</v>
+      </c>
+      <c r="R3" s="13" t="n">
+        <v>60358000</v>
+      </c>
+      <c r="S3" s="13" t="n">
+        <v>408000</v>
+      </c>
+      <c r="T3" s="13" t="n">
+        <v>44289000</v>
+      </c>
+      <c r="U3" s="13" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="V3" s="13" t="n">
+        <v>4838000</v>
+      </c>
+      <c r="W3" s="13" t="n">
+        <v>16133614</v>
+      </c>
+      <c r="X3" s="13" t="n">
+        <v>155179794</v>
+      </c>
+      <c r="Y3" s="13" t="n">
+        <v>252960583</v>
+      </c>
+      <c r="Z3" s="13" t="n">
+        <v>569967042.0107</v>
+      </c>
+      <c r="AA3" s="13" t="n">
+        <v>661192807.95</v>
+      </c>
+      <c r="AB3" s="13" t="n">
+        <v>899616095.1</v>
+      </c>
+      <c r="AC3" s="13" t="n">
+        <v>1531424547.22</v>
+      </c>
+      <c r="AD3" s="13" t="n">
+        <v>1656253978.5</v>
+      </c>
+      <c r="AE3" s="13" t="n">
+        <v>1813240780.51</v>
+      </c>
+      <c r="AF3" s="13" t="n">
+        <v>2003895787.07</v>
+      </c>
+      <c r="AG3" s="13" t="n">
+        <v>2163684328.85</v>
+      </c>
+      <c r="AH3" s="13" t="n">
+        <v>2336363087.25</v>
+      </c>
+      <c r="AI3" s="13" t="n">
+        <v>2268088750.6</v>
+      </c>
+      <c r="AJ3" s="13" t="n">
+        <v>2796810770.592</v>
+      </c>
+      <c r="AK3" s="13" t="n">
+        <v>2404648227.8275</v>
+      </c>
+      <c r="AL3" s="13" t="n">
+        <v>1861725343.9855</v>
+      </c>
+      <c r="AM3" s="13" t="n">
+        <v>1783372534.0627</v>
+      </c>
+      <c r="AN3" s="13" t="n">
+        <v>1788415710.7609</v>
+      </c>
+      <c r="AO3" s="13" t="n">
+        <v>1657489192.2591</v>
+      </c>
+      <c r="AP3" s="13" t="n">
+        <v>1857710221.0115</v>
+      </c>
+      <c r="AQ3" s="13" t="n">
+        <v>1701205861.0879</v>
+      </c>
+      <c r="AR3" s="13" t="n">
+        <v>2111986748.43</v>
+      </c>
+      <c r="AS3" s="13" t="n">
+        <v>2382497299.38</v>
+      </c>
+      <c r="AT3" s="13" t="n">
+        <v>2084797685.09</v>
+      </c>
+      <c r="AU3" s="13" t="n">
+        <v>1981481809.3</v>
+      </c>
+      <c r="AV3" s="13" t="n">
+        <v>2191729697.14</v>
+      </c>
+      <c r="AW3" s="13" t="n">
+        <v>2198074759.53</v>
+      </c>
+      <c r="AX3" s="13" t="n">
+        <v>2459980789.02</v>
+      </c>
+      <c r="AY3" s="13" t="n">
+        <v>1012331422.78</v>
+      </c>
+      <c r="AZ3" s="13"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>O4</f>
+      </c>
       <c r="N4" t="s">
         <v>65</v>
       </c>
       <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4" t="n">
-        <v>6020297</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>8764615</v>
-      </c>
-      <c r="AB4" s="4" t="n">
+      <c r="P4" s="13" t="n">
+        <v>8008000</v>
+      </c>
+      <c r="Q4" s="13" t="n">
+        <v>2356000</v>
+      </c>
+      <c r="R4" s="13" t="n">
+        <v>705000</v>
+      </c>
+      <c r="S4" s="13" t="n">
+        <v>35000</v>
+      </c>
+      <c r="T4" s="13" t="n">
+        <v>3331000</v>
+      </c>
+      <c r="U4" s="13" t="n">
+        <v>7826000</v>
+      </c>
+      <c r="V4" s="13" t="n">
+        <v>46000</v>
+      </c>
+      <c r="W4" s="13" t="n">
+        <v>3310210</v>
+      </c>
+      <c r="X4" s="13" t="n">
+        <v>1278785</v>
+      </c>
+      <c r="Y4" s="13" t="n">
+        <v>902234</v>
+      </c>
+      <c r="Z4" s="13" t="n">
+        <v>8221442</v>
+      </c>
+      <c r="AA4" s="13" t="n">
+        <v>9130615</v>
+      </c>
+      <c r="AB4" s="13" t="n">
         <v>22280053</v>
       </c>
-      <c r="AC4" s="4" t="n">
+      <c r="AC4" s="13" t="n">
         <v>20611069</v>
       </c>
-      <c r="AD4" s="4" t="n">
+      <c r="AD4" s="13" t="n">
         <v>49463752.6406</v>
       </c>
-      <c r="AE4" s="4" t="n">
-        <v>10740762.4004</v>
-      </c>
-      <c r="AF4" s="4" t="n">
+      <c r="AE4" s="13" t="n">
+        <v>10742864.4004</v>
+      </c>
+      <c r="AF4" s="13" t="n">
         <v>1916858.1523</v>
       </c>
-      <c r="AG4" s="4" t="n">
-        <v>2949517.3293</v>
-      </c>
-      <c r="AH4" s="4" t="n">
-        <v>886182.2947</v>
-      </c>
-      <c r="AI4" s="4" t="n">
-        <v>249107.5315</v>
-      </c>
-      <c r="AJ4" s="4" t="n">
-        <v>142438111.8816</v>
-      </c>
-      <c r="AK4" s="4" t="n">
-        <v>558733141.0291</v>
-      </c>
-      <c r="AL4" s="4" t="n">
-        <v>1698920294.4379</v>
-      </c>
-      <c r="AM4" s="4" t="n">
-        <v>1565261894.8145</v>
-      </c>
-      <c r="AN4" s="4" t="n">
-        <v>2014570385.4959</v>
-      </c>
-      <c r="AO4" s="4" t="n">
-        <v>2244920320.5975</v>
-      </c>
-      <c r="AP4" s="4" t="n">
-        <v>2672270699.6757</v>
-      </c>
-      <c r="AQ4" s="4" t="n">
-        <v>3002665004.1604</v>
-      </c>
-      <c r="AR4" s="4" t="n">
-        <v>2727364629.2919</v>
-      </c>
-      <c r="AS4" s="4" t="n">
-        <v>2830066094.7689</v>
-      </c>
-      <c r="AT4" s="4" t="n">
-        <v>3797977289.3471</v>
-      </c>
-      <c r="AU4" s="4" t="n">
-        <v>3305576451.3215</v>
-      </c>
-      <c r="AV4" s="4" t="n">
-        <v>3769401768.7207</v>
-      </c>
-      <c r="AW4" s="4" t="n">
-        <v>2330103062.1281</v>
-      </c>
-      <c r="AX4" s="4"/>
+      <c r="AG4" s="13" t="n">
+        <v>2709667.3293</v>
+      </c>
+      <c r="AH4" s="13" t="n">
+        <v>930314.2947</v>
+      </c>
+      <c r="AI4" s="13" t="n">
+        <v>244427.5315</v>
+      </c>
+      <c r="AJ4" s="13" t="n">
+        <v>142424882.104</v>
+      </c>
+      <c r="AK4" s="13" t="n">
+        <v>558733140.6799</v>
+      </c>
+      <c r="AL4" s="13" t="n">
+        <v>1698954793.6019</v>
+      </c>
+      <c r="AM4" s="13" t="n">
+        <v>1568548888.3238</v>
+      </c>
+      <c r="AN4" s="13" t="n">
+        <v>2014605978.4852</v>
+      </c>
+      <c r="AO4" s="13" t="n">
+        <v>2244578535.65</v>
+      </c>
+      <c r="AP4" s="13" t="n">
+        <v>2682951279.3963</v>
+      </c>
+      <c r="AQ4" s="13" t="n">
+        <v>3000140277.8821</v>
+      </c>
+      <c r="AR4" s="13" t="n">
+        <v>2727769881.0172</v>
+      </c>
+      <c r="AS4" s="13" t="n">
+        <v>2830983359.2267</v>
+      </c>
+      <c r="AT4" s="13" t="n">
+        <v>3799391450.2057</v>
+      </c>
+      <c r="AU4" s="13" t="n">
+        <v>3310187177.4694</v>
+      </c>
+      <c r="AV4" s="13" t="n">
+        <v>3759755574.563</v>
+      </c>
+      <c r="AW4" s="13" t="n">
+        <v>5131997329.1368</v>
+      </c>
+      <c r="AX4" s="13" t="n">
+        <v>6144401901.72</v>
+      </c>
+      <c r="AY4" s="13" t="n">
+        <v>2686921749.26</v>
+      </c>
+      <c r="AZ4" s="13"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>O5</f>
+      </c>
       <c r="N5" t="s">
         <v>65</v>
       </c>
       <c r="O5" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4" t="n">
-        <v>3049492820.6242</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>3676007171.7866</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>4906711088.6817</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>5760222461.4176</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>6156186637.1155</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>5568600373.6984</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>5855173525.891</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>5083413419.9099</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>4755775894.8999</v>
-      </c>
-      <c r="AI5" s="4" t="n">
-        <v>4294989815.897</v>
-      </c>
-      <c r="AJ5" s="4" t="n">
-        <v>3680607177.0905</v>
-      </c>
-      <c r="AK5" s="4" t="n">
-        <v>3742241892.9962</v>
-      </c>
-      <c r="AL5" s="4" t="n">
-        <v>3882247217.4846</v>
-      </c>
-      <c r="AM5" s="4" t="n">
-        <v>3415196013.1486</v>
-      </c>
-      <c r="AN5" s="4" t="n">
-        <v>3750486385.5302</v>
-      </c>
-      <c r="AO5" s="4" t="n">
-        <v>3567942996.0224</v>
-      </c>
-      <c r="AP5" s="4" t="n">
-        <v>4389831743.714</v>
-      </c>
-      <c r="AQ5" s="4" t="n">
-        <v>4559299074.1103</v>
-      </c>
-      <c r="AR5" s="4" t="n">
-        <v>5482781269.3213</v>
-      </c>
-      <c r="AS5" s="4" t="n">
-        <v>6370341549.8303</v>
-      </c>
-      <c r="AT5" s="4" t="n">
-        <v>7161491866.5726</v>
-      </c>
-      <c r="AU5" s="4" t="n">
-        <v>7210249885.9536</v>
-      </c>
-      <c r="AV5" s="4" t="n">
-        <v>7617431058.9485</v>
-      </c>
-      <c r="AW5" s="4" t="n">
-        <v>2791132144.9824</v>
-      </c>
-      <c r="AX5" s="4"/>
+      <c r="P5" s="13" t="n">
+        <v>35000</v>
+      </c>
+      <c r="Q5" s="13" t="n">
+        <v>225000</v>
+      </c>
+      <c r="R5" s="13" t="n">
+        <v>784000</v>
+      </c>
+      <c r="S5" s="13" t="n">
+        <v>350000</v>
+      </c>
+      <c r="T5" s="13" t="n">
+        <v>4747000</v>
+      </c>
+      <c r="U5" s="13" t="n">
+        <v>19289000</v>
+      </c>
+      <c r="V5" s="13" t="n">
+        <v>83739000</v>
+      </c>
+      <c r="W5" s="13" t="n">
+        <v>173888914</v>
+      </c>
+      <c r="X5" s="13" t="n">
+        <v>488601045.32</v>
+      </c>
+      <c r="Y5" s="13" t="n">
+        <v>972782199.57</v>
+      </c>
+      <c r="Z5" s="13" t="n">
+        <v>3403814853.3234</v>
+      </c>
+      <c r="AA5" s="13" t="n">
+        <v>3676182868.7866</v>
+      </c>
+      <c r="AB5" s="13" t="n">
+        <v>4907435115.6817</v>
+      </c>
+      <c r="AC5" s="13" t="n">
+        <v>5762931430.4176</v>
+      </c>
+      <c r="AD5" s="13" t="n">
+        <v>6164915620.1155</v>
+      </c>
+      <c r="AE5" s="13" t="n">
+        <v>5568805912.6965</v>
+      </c>
+      <c r="AF5" s="13" t="n">
+        <v>5862450974.101</v>
+      </c>
+      <c r="AG5" s="13" t="n">
+        <v>5091094395.5873</v>
+      </c>
+      <c r="AH5" s="13" t="n">
+        <v>4762596010.0103</v>
+      </c>
+      <c r="AI5" s="13" t="n">
+        <v>4299315325.8996</v>
+      </c>
+      <c r="AJ5" s="13" t="n">
+        <v>4158166004.4077</v>
+      </c>
+      <c r="AK5" s="13" t="n">
+        <v>4261793823.0651</v>
+      </c>
+      <c r="AL5" s="13" t="n">
+        <v>4464067385.5296</v>
+      </c>
+      <c r="AM5" s="13" t="n">
+        <v>3778591623.2397</v>
+      </c>
+      <c r="AN5" s="13" t="n">
+        <v>4125640111.1352</v>
+      </c>
+      <c r="AO5" s="13" t="n">
+        <v>3898086895.3259</v>
+      </c>
+      <c r="AP5" s="13" t="n">
+        <v>4437681367.4164</v>
+      </c>
+      <c r="AQ5" s="13" t="n">
+        <v>4694702009.0262</v>
+      </c>
+      <c r="AR5" s="13" t="n">
+        <v>5483277848.1843</v>
+      </c>
+      <c r="AS5" s="13" t="n">
+        <v>6372885740.4149</v>
+      </c>
+      <c r="AT5" s="13" t="n">
+        <v>7180073373.7323</v>
+      </c>
+      <c r="AU5" s="13" t="n">
+        <v>7269439601.5908</v>
+      </c>
+      <c r="AV5" s="13" t="n">
+        <v>7652966743.2939</v>
+      </c>
+      <c r="AW5" s="13" t="n">
+        <v>7807578975.3932</v>
+      </c>
+      <c r="AX5" s="13" t="n">
+        <v>7740469058.4</v>
+      </c>
+      <c r="AY5" s="13" t="n">
+        <v>2827259418.11</v>
+      </c>
+      <c r="AZ5" s="13"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>O6</f>
+      </c>
       <c r="N6" t="s">
         <v>65</v>
       </c>
       <c r="O6" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4" t="n">
-        <v>1690688628.5122</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2161405920.635</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2399483211.1437</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3518251142.647</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4579292388.2287</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>5927497306.4152</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>7214091634.3839</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>10845510088.3655</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12805516702.4137</v>
-      </c>
-      <c r="AI6" s="4" t="n">
-        <v>13504584508.019</v>
-      </c>
-      <c r="AJ6" s="4" t="n">
-        <v>13441887015.1903</v>
-      </c>
-      <c r="AK6" s="4" t="n">
-        <v>11415329842.375</v>
-      </c>
-      <c r="AL6" s="4" t="n">
-        <v>10595283772.0612</v>
-      </c>
-      <c r="AM6" s="4" t="n">
-        <v>8100145466.8103</v>
-      </c>
-      <c r="AN6" s="4" t="n">
-        <v>8047329816.3908</v>
-      </c>
-      <c r="AO6" s="4" t="n">
-        <v>7994739454.7514</v>
-      </c>
-      <c r="AP6" s="4" t="n">
-        <v>9534663039.1326</v>
-      </c>
-      <c r="AQ6" s="4" t="n">
-        <v>10472211309.202</v>
-      </c>
-      <c r="AR6" s="4" t="n">
-        <v>11221462309.7786</v>
-      </c>
-      <c r="AS6" s="4" t="n">
-        <v>11519216329.875</v>
-      </c>
-      <c r="AT6" s="4" t="n">
-        <v>11209099613.624</v>
-      </c>
-      <c r="AU6" s="4" t="n">
-        <v>9139108047.9776</v>
-      </c>
-      <c r="AV6" s="4" t="n">
-        <v>9591251136.8508</v>
-      </c>
-      <c r="AW6" s="4" t="n">
-        <v>3714565356.0927</v>
-      </c>
-      <c r="AX6" s="4"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13" t="n">
+        <v>59000</v>
+      </c>
+      <c r="R6" s="13" t="n">
+        <v>154000</v>
+      </c>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="13" t="n">
+        <v>243565784</v>
+      </c>
+      <c r="X6" s="13" t="n">
+        <v>382509264</v>
+      </c>
+      <c r="Y6" s="13" t="n">
+        <v>678993561.94</v>
+      </c>
+      <c r="Z6" s="13" t="n">
+        <v>1726149162.3012</v>
+      </c>
+      <c r="AA6" s="13" t="n">
+        <v>2168532694.635</v>
+      </c>
+      <c r="AB6" s="13" t="n">
+        <v>2402379757.1437</v>
+      </c>
+      <c r="AC6" s="13" t="n">
+        <v>3518300065.647</v>
+      </c>
+      <c r="AD6" s="13" t="n">
+        <v>4579288833.2287</v>
+      </c>
+      <c r="AE6" s="13" t="n">
+        <v>5927502446.7852</v>
+      </c>
+      <c r="AF6" s="13" t="n">
+        <v>7213638627.2023</v>
+      </c>
+      <c r="AG6" s="13" t="n">
+        <v>10844780533.4714</v>
+      </c>
+      <c r="AH6" s="13" t="n">
+        <v>12803754268.4698</v>
+      </c>
+      <c r="AI6" s="13" t="n">
+        <v>13503154589.4892</v>
+      </c>
+      <c r="AJ6" s="13" t="n">
+        <v>13440584461.217</v>
+      </c>
+      <c r="AK6" s="13" t="n">
+        <v>11438130563.5045</v>
+      </c>
+      <c r="AL6" s="13" t="n">
+        <v>10635674263.3454</v>
+      </c>
+      <c r="AM6" s="13" t="n">
+        <v>8153385061.3369</v>
+      </c>
+      <c r="AN6" s="13" t="n">
+        <v>7982863443.861</v>
+      </c>
+      <c r="AO6" s="13" t="n">
+        <v>7991905869.8759</v>
+      </c>
+      <c r="AP6" s="13" t="n">
+        <v>9541811440.3088</v>
+      </c>
+      <c r="AQ6" s="13" t="n">
+        <v>10536540025.5294</v>
+      </c>
+      <c r="AR6" s="13" t="n">
+        <v>11227087671.6687</v>
+      </c>
+      <c r="AS6" s="13" t="n">
+        <v>11467219376.4914</v>
+      </c>
+      <c r="AT6" s="13" t="n">
+        <v>11218833082.8735</v>
+      </c>
+      <c r="AU6" s="13" t="n">
+        <v>9081763949.8806</v>
+      </c>
+      <c r="AV6" s="13" t="n">
+        <v>9512957833.6978</v>
+      </c>
+      <c r="AW6" s="13" t="n">
+        <v>9678912907.9636</v>
+      </c>
+      <c r="AX6" s="13" t="n">
+        <v>10219815756.9625</v>
+      </c>
+      <c r="AY6" s="13" t="n">
+        <v>4107389734.17</v>
+      </c>
+      <c r="AZ6" s="13"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>O7</f>
+      </c>
       <c r="N7" t="s">
         <v>65</v>
       </c>
       <c r="O7" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4" t="n">
-        <v>6685242888.1716</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>7196565333.5191</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>8465772490.1727</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>11099974783.9154</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>14093263209.8866</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>16204300246.5388</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>18394347507.6953</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>20638429310.0387</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>23320366127.9944</v>
-      </c>
-      <c r="AI7" s="4" t="n">
-        <v>21891280927.6122</v>
-      </c>
-      <c r="AJ7" s="4" t="n">
-        <v>21735339234.222</v>
-      </c>
-      <c r="AK7" s="4" t="n">
-        <v>19210711836.2831</v>
-      </c>
-      <c r="AL7" s="4" t="n">
-        <v>16055360139.0089</v>
-      </c>
-      <c r="AM7" s="4" t="n">
-        <v>13215958405.1536</v>
-      </c>
-      <c r="AN7" s="4" t="n">
-        <v>12626701594.8814</v>
-      </c>
-      <c r="AO7" s="4" t="n">
-        <v>11745129487.4611</v>
-      </c>
-      <c r="AP7" s="4" t="n">
-        <v>12954144404.1901</v>
-      </c>
-      <c r="AQ7" s="4" t="n">
-        <v>13606741860.1639</v>
-      </c>
-      <c r="AR7" s="4" t="n">
-        <v>16206943127.23</v>
-      </c>
-      <c r="AS7" s="4" t="n">
-        <v>18778831439.5665</v>
-      </c>
-      <c r="AT7" s="4" t="n">
-        <v>18005374175.3859</v>
-      </c>
-      <c r="AU7" s="4" t="n">
-        <v>15999439159.9116</v>
-      </c>
-      <c r="AV7" s="4" t="n">
-        <v>17372820458.0606</v>
-      </c>
-      <c r="AW7" s="4" t="n">
-        <v>8885296826.8794</v>
-      </c>
-      <c r="AX7" s="4"/>
+      <c r="P7" s="13" t="n">
+        <v>2464000</v>
+      </c>
+      <c r="Q7" s="13" t="n">
+        <v>3661000</v>
+      </c>
+      <c r="R7" s="13" t="n">
+        <v>10692000</v>
+      </c>
+      <c r="S7" s="13" t="n">
+        <v>7140000</v>
+      </c>
+      <c r="T7" s="13" t="n">
+        <v>998000</v>
+      </c>
+      <c r="U7" s="13" t="n">
+        <v>1048000</v>
+      </c>
+      <c r="V7" s="13" t="n">
+        <v>3559000</v>
+      </c>
+      <c r="W7" s="13" t="n">
+        <v>884978928</v>
+      </c>
+      <c r="X7" s="13" t="n">
+        <v>1398987022.07</v>
+      </c>
+      <c r="Y7" s="13" t="n">
+        <v>2478043838.94</v>
+      </c>
+      <c r="Z7" s="13" t="n">
+        <v>6877753921.1716</v>
+      </c>
+      <c r="AA7" s="13" t="n">
+        <v>7262420236.5191</v>
+      </c>
+      <c r="AB7" s="13" t="n">
+        <v>8471974712.1727</v>
+      </c>
+      <c r="AC7" s="13" t="n">
+        <v>11100018359.9154</v>
+      </c>
+      <c r="AD7" s="13" t="n">
+        <v>14095162856.8866</v>
+      </c>
+      <c r="AE7" s="13" t="n">
+        <v>16205571687.5275</v>
+      </c>
+      <c r="AF7" s="13" t="n">
+        <v>18394961962.6743</v>
+      </c>
+      <c r="AG7" s="13" t="n">
+        <v>20642076077.8442</v>
+      </c>
+      <c r="AH7" s="13" t="n">
+        <v>23321648594.586</v>
+      </c>
+      <c r="AI7" s="13" t="n">
+        <v>21888069170.9824</v>
+      </c>
+      <c r="AJ7" s="13" t="n">
+        <v>21739164076.1566</v>
+      </c>
+      <c r="AK7" s="13" t="n">
+        <v>19212876925.027</v>
+      </c>
+      <c r="AL7" s="13" t="n">
+        <v>16056713455.1747</v>
+      </c>
+      <c r="AM7" s="13" t="n">
+        <v>13369690709.2631</v>
+      </c>
+      <c r="AN7" s="13" t="n">
+        <v>12628805322.9511</v>
+      </c>
+      <c r="AO7" s="13" t="n">
+        <v>11736193013.387</v>
+      </c>
+      <c r="AP7" s="13" t="n">
+        <v>12989923609.5916</v>
+      </c>
+      <c r="AQ7" s="13" t="n">
+        <v>13646109069.0189</v>
+      </c>
+      <c r="AR7" s="13" t="n">
+        <v>16203832165.6124</v>
+      </c>
+      <c r="AS7" s="13" t="n">
+        <v>18800180733.435</v>
+      </c>
+      <c r="AT7" s="13" t="n">
+        <v>18015198425.9633</v>
+      </c>
+      <c r="AU7" s="13" t="n">
+        <v>16023394354.8023</v>
+      </c>
+      <c r="AV7" s="13" t="n">
+        <v>17416036179.054</v>
+      </c>
+      <c r="AW7" s="13" t="n">
+        <v>18747858830.4024</v>
+      </c>
+      <c r="AX7" s="13" t="n">
+        <v>18740127596.74</v>
+      </c>
+      <c r="AY7" s="13" t="n">
+        <v>7480630679.2</v>
+      </c>
+      <c r="AZ7" s="13"/>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>O8</f>
+      </c>
       <c r="N8" t="s">
         <v>65</v>
       </c>
       <c r="O8" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4" t="n">
-        <v>726998529.4882</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>362137212</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>309450827.5508</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>148887007</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>87227836</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>33778913</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>38156531.3298</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>15807920.515</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>11448284.1413</v>
-      </c>
-      <c r="AI8" s="4" t="n">
-        <v>7016275.9828</v>
-      </c>
-      <c r="AJ8" s="4" t="n">
-        <v>484540600.4697</v>
-      </c>
-      <c r="AK8" s="4" t="n">
-        <v>522697657.5646</v>
-      </c>
-      <c r="AL8" s="4" t="n">
-        <v>599055450.8974</v>
-      </c>
-      <c r="AM8" s="4" t="n">
-        <v>350138960.9436</v>
-      </c>
-      <c r="AN8" s="4" t="n">
-        <v>385411959.2752</v>
-      </c>
-      <c r="AO8" s="4" t="n">
-        <v>372004164.4054</v>
-      </c>
-      <c r="AP8" s="4" t="n">
-        <v>32232953.4636</v>
-      </c>
-      <c r="AQ8" s="4" t="n">
-        <v>109449604.243</v>
-      </c>
-      <c r="AR8" s="4" t="n">
+      <c r="P8" s="13" t="n">
+        <v>197000</v>
+      </c>
+      <c r="Q8" s="13" t="n">
+        <v>1832000</v>
+      </c>
+      <c r="R8" s="13" t="n">
+        <v>2709000</v>
+      </c>
+      <c r="S8" s="13" t="n">
+        <v>7066000</v>
+      </c>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="13" t="n">
+        <v>72801046</v>
+      </c>
+      <c r="X8" s="13" t="n">
+        <v>63211358</v>
+      </c>
+      <c r="Y8" s="13" t="n">
+        <v>60720104</v>
+      </c>
+      <c r="Z8" s="13" t="n">
+        <v>144576130</v>
+      </c>
+      <c r="AA8" s="13" t="n">
+        <v>288748398</v>
+      </c>
+      <c r="AB8" s="13" t="n">
+        <v>299545085.5508</v>
+      </c>
+      <c r="AC8" s="13" t="n">
+        <v>146085539</v>
+      </c>
+      <c r="AD8" s="13" t="n">
+        <v>77671347</v>
+      </c>
+      <c r="AE8" s="13" t="n">
+        <v>33326621</v>
+      </c>
+      <c r="AF8" s="13" t="n">
+        <v>30209352.1198</v>
+      </c>
+      <c r="AG8" s="13" t="n">
+        <v>5203954.7949</v>
+      </c>
+      <c r="AH8" s="13" t="n">
+        <v>3039422.4814</v>
+      </c>
+      <c r="AI8" s="13" t="n">
+        <v>839351.5308</v>
+      </c>
+      <c r="AJ8" s="13" t="n">
+        <v>2390913.3141</v>
+      </c>
+      <c r="AK8" s="13" t="n">
+        <v>231987.43</v>
+      </c>
+      <c r="AL8" s="13" t="n">
+        <v>-21710.041</v>
+      </c>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13" t="n">
+        <v>823307.79</v>
+      </c>
+      <c r="AO8" s="13" t="n">
+        <v>116751.96</v>
+      </c>
+      <c r="AP8" s="13" t="n">
+        <v>20054.1602</v>
+      </c>
+      <c r="AQ8" s="13" t="n">
+        <v>-3169.49</v>
+      </c>
+      <c r="AR8" s="13" t="n">
         <v>526822.287</v>
       </c>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4" t="n">
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13" t="n">
         <v>832221.2852</v>
       </c>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13" t="n">
+        <v>15204</v>
+      </c>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="13"/>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>O9</f>
+      </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" s="4" t="n">
+      <c r="P9" s="13" t="n">
         <v>19702439894</v>
       </c>
-      <c r="Q9" s="4" t="n">
-        <v>19319595733</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>19385047958</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>18241613499</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>17643919462</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>18690643667</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>18181185718</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>18425728076</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>17479311563</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>19571291342</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>348305</v>
-      </c>
-      <c r="AA9" s="4" t="n">
+      <c r="Q9" s="13" t="n">
+        <v>19319790733</v>
+      </c>
+      <c r="R9" s="13" t="n">
+        <v>19388422483</v>
+      </c>
+      <c r="S9" s="13" t="n">
+        <v>18242606124</v>
+      </c>
+      <c r="T9" s="13" t="n">
+        <v>17643820302</v>
+      </c>
+      <c r="U9" s="13" t="n">
+        <v>18690677727</v>
+      </c>
+      <c r="V9" s="13" t="n">
+        <v>18181631640</v>
+      </c>
+      <c r="W9" s="13" t="n">
+        <v>18426200437</v>
+      </c>
+      <c r="X9" s="13" t="n">
+        <v>17482014443</v>
+      </c>
+      <c r="Y9" s="13" t="n">
+        <v>19577458903</v>
+      </c>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AB9" s="4" t="n">
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AC9" s="4" t="n">
+      <c r="AW9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD9" s="4" t="n">
-        <v>1068586</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>1082000</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>200329</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>667000</v>
-      </c>
-      <c r="AH9" s="4" t="n">
+      <c r="AX9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AI9" s="4" t="n">
+      <c r="AY9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="4"/>
+      <c r="AZ9" s="13"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>O10</f>
+      </c>
+      <c r="N10" t="s">
+        <v>542</v>
+      </c>
+      <c r="O10" t="s">
+        <v>543</v>
+      </c>
+      <c r="P10" s="13" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="13" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="13" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="13" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="13" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="13" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="13" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="13" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="13" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="13" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="13" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="13" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="13" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="13" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="13" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="13" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="13" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="13" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="13" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="13" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="13" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="13" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="13" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="13" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="13" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="13" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="13" t="str">
+        <f>Sum(AP2:AP9)</f>
+      </c>
+      <c r="AQ10" s="13" t="str">
+        <f>Sum(AQ2:AQ9)</f>
+      </c>
+      <c r="AR10" s="13" t="str">
+        <f>Sum(AR2:AR9)</f>
+      </c>
+      <c r="AS10" s="13" t="str">
+        <f>Sum(AS2:AS9)</f>
+      </c>
+      <c r="AT10" s="13" t="str">
+        <f>Sum(AT2:AT9)</f>
+      </c>
+      <c r="AU10" s="13" t="str">
+        <f>Sum(AU2:AU9)</f>
+      </c>
+      <c r="AV10" s="13" t="str">
+        <f>Sum(AV2:AV9)</f>
+      </c>
+      <c r="AW10" s="13" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="13" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="13" t="str">
+        <f>Sum(AY2:AY9)</f>
+      </c>
+      <c r="AZ10" s="13"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>O13</f>
+      </c>
       <c r="N13" t="s">
         <v>60</v>
       </c>
@@ -9271,736 +9604,973 @@
       <c r="AW13" t="s">
         <v>34</v>
       </c>
+      <c r="AX13" t="s">
+        <v>550</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>O14</f>
+      </c>
       <c r="N14" t="s">
         <v>62</v>
       </c>
       <c r="O14" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4" t="n">
-        <v>12961307294.9388</v>
-      </c>
-      <c r="AA14" s="4" t="n">
-        <v>13125631984.6665</v>
-      </c>
-      <c r="AB14" s="4" t="n">
-        <v>13666200926.428</v>
-      </c>
-      <c r="AC14" s="4" t="n">
-        <v>14330900498.0756</v>
-      </c>
-      <c r="AD14" s="4" t="n">
-        <v>16227342908.6055</v>
-      </c>
-      <c r="AE14" s="4" t="n">
-        <v>18296900463.4098</v>
-      </c>
-      <c r="AF14" s="4" t="n">
-        <v>16350799014.2156</v>
-      </c>
-      <c r="AG14" s="4" t="n">
-        <v>18648377773.1301</v>
-      </c>
-      <c r="AH14" s="4" t="n">
-        <v>18291545531.4129</v>
-      </c>
-      <c r="AI14" s="4" t="n">
-        <v>17655620627.7657</v>
-      </c>
-      <c r="AJ14" s="4" t="n">
-        <v>18099625025.9532</v>
-      </c>
-      <c r="AK14" s="4" t="n">
-        <v>18675057832.6478</v>
-      </c>
-      <c r="AL14" s="4" t="n">
-        <v>18790872534.7089</v>
-      </c>
-      <c r="AM14" s="4" t="n">
-        <v>15699609681.9545</v>
-      </c>
-      <c r="AN14" s="4" t="n">
-        <v>14850192343.48</v>
-      </c>
-      <c r="AO14" s="4" t="n">
-        <v>14434714318.6138</v>
-      </c>
-      <c r="AP14" s="4" t="n">
-        <v>14109952279.694</v>
-      </c>
-      <c r="AQ14" s="4" t="n">
-        <v>14316917425.7098</v>
-      </c>
-      <c r="AR14" s="4" t="n">
-        <v>15104258682.0678</v>
-      </c>
-      <c r="AS14" s="4" t="n">
-        <v>14609834812.2895</v>
-      </c>
-      <c r="AT14" s="4" t="n">
-        <v>14481291539.225</v>
-      </c>
-      <c r="AU14" s="4" t="n">
-        <v>12798343743.8689</v>
-      </c>
-      <c r="AV14" s="4" t="n">
-        <v>13045110411.5948</v>
-      </c>
-      <c r="AW14" s="4" t="n">
-        <v>6081224506.96881</v>
-      </c>
-      <c r="AX14" s="4"/>
+      <c r="P14" s="13" t="n">
+        <v>576207079.700943</v>
+      </c>
+      <c r="Q14" s="13" t="n">
+        <v>427466654.990973</v>
+      </c>
+      <c r="R14" s="13" t="n">
+        <v>224485288.416207</v>
+      </c>
+      <c r="S14" s="13" t="n">
+        <v>679071241.264502</v>
+      </c>
+      <c r="T14" s="13" t="n">
+        <v>266648344.555136</v>
+      </c>
+      <c r="U14" s="13" t="n">
+        <v>391969851.234557</v>
+      </c>
+      <c r="V14" s="13" t="n">
+        <v>295315224.469059</v>
+      </c>
+      <c r="W14" s="13" t="n">
+        <v>3823723021.53385</v>
+      </c>
+      <c r="X14" s="13" t="n">
+        <v>3744771543.91862</v>
+      </c>
+      <c r="Y14" s="13" t="n">
+        <v>3499997348.54281</v>
+      </c>
+      <c r="Z14" s="13" t="n">
+        <v>13486290574.8529</v>
+      </c>
+      <c r="AA14" s="13" t="n">
+        <v>13657408844.6994</v>
+      </c>
+      <c r="AB14" s="13" t="n">
+        <v>14221163704.1373</v>
+      </c>
+      <c r="AC14" s="13" t="n">
+        <v>14904569961.4777</v>
+      </c>
+      <c r="AD14" s="13" t="n">
+        <v>16884708945.6837</v>
+      </c>
+      <c r="AE14" s="13" t="n">
+        <v>19036753201.8749</v>
+      </c>
+      <c r="AF14" s="13" t="n">
+        <v>17012356331.0439</v>
+      </c>
+      <c r="AG14" s="13" t="n">
+        <v>19400782407.5094</v>
+      </c>
+      <c r="AH14" s="13" t="n">
+        <v>19031915114.314</v>
+      </c>
+      <c r="AI14" s="13" t="n">
+        <v>18369237634.6821</v>
+      </c>
+      <c r="AJ14" s="13" t="n">
+        <v>18810822667.819</v>
+      </c>
+      <c r="AK14" s="13" t="n">
+        <v>19351902989.9477</v>
+      </c>
+      <c r="AL14" s="13" t="n">
+        <v>19472011341.262</v>
+      </c>
+      <c r="AM14" s="13" t="n">
+        <v>16559327990.8387</v>
+      </c>
+      <c r="AN14" s="13" t="n">
+        <v>15600474346.5882</v>
+      </c>
+      <c r="AO14" s="13" t="n">
+        <v>15049389228.6168</v>
+      </c>
+      <c r="AP14" s="13" t="n">
+        <v>14669922624.0315</v>
+      </c>
+      <c r="AQ14" s="13" t="n">
+        <v>15029299570.408</v>
+      </c>
+      <c r="AR14" s="13" t="n">
+        <v>15773273564.4086</v>
+      </c>
+      <c r="AS14" s="13" t="n">
+        <v>15336571155.1559</v>
+      </c>
+      <c r="AT14" s="13" t="n">
+        <v>15108149216.3148</v>
+      </c>
+      <c r="AU14" s="13" t="n">
+        <v>13370543167.0133</v>
+      </c>
+      <c r="AV14" s="13" t="n">
+        <v>13590994596.0961</v>
+      </c>
+      <c r="AW14" s="13" t="n">
+        <v>12745224505.08</v>
+      </c>
+      <c r="AX14" s="13" t="n">
+        <v>12447069903.4922</v>
+      </c>
+      <c r="AY14" s="13" t="n">
+        <v>4801666985.69939</v>
+      </c>
+      <c r="AZ14" s="13"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>O15</f>
+      </c>
       <c r="N15" t="s">
         <v>62</v>
       </c>
       <c r="O15" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4" t="n">
-        <v>920859154.130581</v>
-      </c>
-      <c r="AA15" s="4" t="n">
-        <v>1043016539.54194</v>
-      </c>
-      <c r="AB15" s="4" t="n">
-        <v>1396938901.34518</v>
-      </c>
-      <c r="AC15" s="4" t="n">
-        <v>2333401259.59913</v>
-      </c>
-      <c r="AD15" s="4" t="n">
-        <v>2463643565.82501</v>
-      </c>
-      <c r="AE15" s="4" t="n">
-        <v>2617680385.3775</v>
-      </c>
-      <c r="AF15" s="4" t="n">
-        <v>2801716404.10066</v>
-      </c>
-      <c r="AG15" s="4" t="n">
-        <v>2944378295.98464</v>
-      </c>
-      <c r="AH15" s="4" t="n">
-        <v>3114639572.66255</v>
-      </c>
-      <c r="AI15" s="4" t="n">
-        <v>2992998490.44121</v>
-      </c>
-      <c r="AJ15" s="4" t="n">
-        <v>3664213922.38738</v>
-      </c>
-      <c r="AK15" s="4" t="n">
-        <v>3084878662.4035</v>
-      </c>
-      <c r="AL15" s="4" t="n">
-        <v>2351954237.37449</v>
-      </c>
-      <c r="AM15" s="4" t="n">
-        <v>2189962697.18299</v>
-      </c>
-      <c r="AN15" s="4" t="n">
-        <v>2170463980.77772</v>
-      </c>
-      <c r="AO15" s="4" t="n">
-        <v>1985982401.94974</v>
-      </c>
-      <c r="AP15" s="4" t="n">
-        <v>2212462267.47001</v>
-      </c>
-      <c r="AQ15" s="4" t="n">
-        <v>1996009483.11804</v>
-      </c>
-      <c r="AR15" s="4" t="n">
-        <v>2417910318.68102</v>
-      </c>
-      <c r="AS15" s="4" t="n">
-        <v>2667791319.41662</v>
-      </c>
-      <c r="AT15" s="4" t="n">
-        <v>2299138186.70984</v>
-      </c>
-      <c r="AU15" s="4" t="n">
-        <v>2117446533.57888</v>
-      </c>
-      <c r="AV15" s="4" t="n">
-        <v>2191809031.7026</v>
-      </c>
-      <c r="AW15" s="4" t="n">
-        <v>760802223.900528</v>
-      </c>
-      <c r="AX15" s="4"/>
+      <c r="P15" s="13" t="n">
+        <v>134446599.047277</v>
+      </c>
+      <c r="Q15" s="13" t="n">
+        <v>404188886.465239</v>
+      </c>
+      <c r="R15" s="13" t="n">
+        <v>117585398.358301</v>
+      </c>
+      <c r="S15" s="13" t="n">
+        <v>776618.743040471</v>
+      </c>
+      <c r="T15" s="13" t="n">
+        <v>82502033.1556725</v>
+      </c>
+      <c r="U15" s="13" t="n">
+        <v>3009795.28023714</v>
+      </c>
+      <c r="V15" s="13" t="n">
+        <v>8661992.66401912</v>
+      </c>
+      <c r="W15" s="13" t="n">
+        <v>28382047.2940416</v>
+      </c>
+      <c r="X15" s="13" t="n">
+        <v>269609983.899947</v>
+      </c>
+      <c r="Y15" s="13" t="n">
+        <v>434119195.154478</v>
+      </c>
+      <c r="Z15" s="13" t="n">
+        <v>958213424.990111</v>
+      </c>
+      <c r="AA15" s="13" t="n">
+        <v>1085273712.79918</v>
+      </c>
+      <c r="AB15" s="13" t="n">
+        <v>1453748170.01654</v>
+      </c>
+      <c r="AC15" s="13" t="n">
+        <v>2428120461.89138</v>
+      </c>
+      <c r="AD15" s="13" t="n">
+        <v>2563445203.0463</v>
+      </c>
+      <c r="AE15" s="13" t="n">
+        <v>2723542539.63915</v>
+      </c>
+      <c r="AF15" s="13" t="n">
+        <v>2915213426.64383</v>
+      </c>
+      <c r="AG15" s="13" t="n">
+        <v>3063337347.32019</v>
+      </c>
+      <c r="AH15" s="13" t="n">
+        <v>3240539051.75752</v>
+      </c>
+      <c r="AI15" s="13" t="n">
+        <v>3113998353.69569</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
+        <v>3806943472.80365</v>
+      </c>
+      <c r="AK15" s="13" t="n">
+        <v>3208738624.38503</v>
+      </c>
+      <c r="AL15" s="13" t="n">
+        <v>2439991548.50111</v>
+      </c>
+      <c r="AM15" s="13" t="n">
+        <v>2295647845.18176</v>
+      </c>
+      <c r="AN15" s="13" t="n">
+        <v>2260893805.06178</v>
+      </c>
+      <c r="AO15" s="13" t="n">
+        <v>2073900222.38324</v>
+      </c>
+      <c r="AP15" s="13" t="n">
+        <v>2305986239.33154</v>
+      </c>
+      <c r="AQ15" s="13" t="n">
+        <v>2076661995.02893</v>
+      </c>
+      <c r="AR15" s="13" t="n">
+        <v>2522111350.93797</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>2793501541.20498</v>
+      </c>
+      <c r="AT15" s="13" t="n">
+        <v>2412925508.49719</v>
+      </c>
+      <c r="AU15" s="13" t="n">
+        <v>2217043853.90372</v>
+      </c>
+      <c r="AV15" s="13" t="n">
+        <v>2291993867.32785</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>2198074759.53</v>
+      </c>
+      <c r="AX15" s="13" t="n">
+        <v>2395993417.5625</v>
+      </c>
+      <c r="AY15" s="13" t="n">
+        <v>964828988.002549</v>
+      </c>
+      <c r="AZ15" s="13"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>O16</f>
+      </c>
       <c r="N16" t="s">
         <v>65</v>
       </c>
       <c r="O16" t="s">
         <v>66</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4" t="n">
-        <v>9727174.77143519</v>
-      </c>
-      <c r="AA16" s="4" t="n">
-        <v>13825979.8016546</v>
-      </c>
-      <c r="AB16" s="4" t="n">
-        <v>34600161.2317089</v>
-      </c>
-      <c r="AC16" s="4" t="n">
-        <v>31407937.0814222</v>
-      </c>
-      <c r="AD16" s="4" t="n">
-        <v>73576309.5721154</v>
-      </c>
-      <c r="AE16" s="4" t="n">
-        <v>15505952.1867654</v>
-      </c>
-      <c r="AF16" s="4" t="n">
-        <v>2680026.0574574</v>
-      </c>
-      <c r="AG16" s="4" t="n">
-        <v>4013753.15808871</v>
-      </c>
-      <c r="AH16" s="4" t="n">
-        <v>1181294.97539394</v>
-      </c>
-      <c r="AI16" s="4" t="n">
-        <v>328723.791900811</v>
-      </c>
-      <c r="AJ16" s="4" t="n">
-        <v>186341485.790612</v>
-      </c>
-      <c r="AK16" s="4" t="n">
-        <v>716509820.953175</v>
-      </c>
-      <c r="AL16" s="4" t="n">
-        <v>2139450326.37744</v>
-      </c>
-      <c r="AM16" s="4" t="n">
-        <v>1935710795.70225</v>
-      </c>
-      <c r="AN16" s="4" t="n">
-        <v>2444073686.87906</v>
-      </c>
-      <c r="AO16" s="4" t="n">
-        <v>2692664216.8192</v>
-      </c>
-      <c r="AP16" s="4" t="n">
-        <v>3178906569.00427</v>
-      </c>
-      <c r="AQ16" s="4" t="n">
-        <v>3509286349.53604</v>
-      </c>
-      <c r="AR16" s="4" t="n">
-        <v>3114409029.11968</v>
-      </c>
-      <c r="AS16" s="4" t="n">
-        <v>3169603551.90795</v>
-      </c>
-      <c r="AT16" s="4" t="n">
-        <v>4197641568.44383</v>
-      </c>
-      <c r="AU16" s="4" t="n">
-        <v>3534611893.47195</v>
-      </c>
-      <c r="AV16" s="4" t="n">
-        <v>3769401768.7207</v>
-      </c>
-      <c r="AW16" s="4" t="n">
-        <v>2222448524.57506</v>
-      </c>
-      <c r="AX16" s="4"/>
+      <c r="P16" s="13" t="n">
+        <v>16562801.7532859</v>
+      </c>
+      <c r="Q16" s="13" t="n">
+        <v>4704677.24514277</v>
+      </c>
+      <c r="R16" s="13" t="n">
+        <v>1373433.61016937</v>
+      </c>
+      <c r="S16" s="13" t="n">
+        <v>66621.7058980796</v>
+      </c>
+      <c r="T16" s="13" t="n">
+        <v>6205023.19857177</v>
+      </c>
+      <c r="U16" s="13" t="n">
+        <v>14275550.2200823</v>
+      </c>
+      <c r="V16" s="13" t="n">
+        <v>82358.7562101859</v>
+      </c>
+      <c r="W16" s="13" t="n">
+        <v>5823279.07269935</v>
+      </c>
+      <c r="X16" s="13" t="n">
+        <v>2221766.08419453</v>
+      </c>
+      <c r="Y16" s="13" t="n">
+        <v>1548372.05574042</v>
+      </c>
+      <c r="Z16" s="13" t="n">
+        <v>13821669.5291474</v>
+      </c>
+      <c r="AA16" s="13" t="n">
+        <v>14986878.7470828</v>
+      </c>
+      <c r="AB16" s="13" t="n">
+        <v>36003787.0076358</v>
+      </c>
+      <c r="AC16" s="13" t="n">
+        <v>32679480.3382276</v>
+      </c>
+      <c r="AD16" s="13" t="n">
+        <v>76556869.3432213</v>
+      </c>
+      <c r="AE16" s="13" t="n">
+        <v>16136107.5189557</v>
+      </c>
+      <c r="AF16" s="13" t="n">
+        <v>2788593.42816785</v>
+      </c>
+      <c r="AG16" s="13" t="n">
+        <v>3836338.33178883</v>
+      </c>
+      <c r="AH16" s="13" t="n">
+        <v>1290347.30039844</v>
+      </c>
+      <c r="AI16" s="13" t="n">
+        <v>335589.57094935</v>
+      </c>
+      <c r="AJ16" s="13" t="n">
+        <v>193864912.489551</v>
+      </c>
+      <c r="AK16" s="13" t="n">
+        <v>745567933.170539</v>
+      </c>
+      <c r="AL16" s="13" t="n">
+        <v>2226663213.81204</v>
+      </c>
+      <c r="AM16" s="13" t="n">
+        <v>2019115920.40711</v>
+      </c>
+      <c r="AN16" s="13" t="n">
+        <v>2546840842.9826</v>
+      </c>
+      <c r="AO16" s="13" t="n">
+        <v>2808484028.72331</v>
+      </c>
+      <c r="AP16" s="13" t="n">
+        <v>3330362648.11858</v>
+      </c>
+      <c r="AQ16" s="13" t="n">
+        <v>3662271237.9142</v>
+      </c>
+      <c r="AR16" s="13" t="n">
+        <v>3257472796.53834</v>
+      </c>
+      <c r="AS16" s="13" t="n">
+        <v>3319355862.09623</v>
+      </c>
+      <c r="AT16" s="13" t="n">
+        <v>4397380432.89878</v>
+      </c>
+      <c r="AU16" s="13" t="n">
+        <v>3703708054.56551</v>
+      </c>
+      <c r="AV16" s="13" t="n">
+        <v>3931751589.07365</v>
+      </c>
+      <c r="AW16" s="13" t="n">
+        <v>5131997329.1368</v>
+      </c>
+      <c r="AX16" s="13" t="n">
+        <v>5984577837.79868</v>
+      </c>
+      <c r="AY16" s="13" t="n">
+        <v>2560841176.9551</v>
+      </c>
+      <c r="AZ16" s="13"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>O17</f>
+      </c>
       <c r="N17" t="s">
         <v>65</v>
       </c>
       <c r="O17" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4" t="n">
-        <v>4927157186.83787</v>
-      </c>
-      <c r="AA17" s="4" t="n">
-        <v>5798817279.2369</v>
-      </c>
-      <c r="AB17" s="4" t="n">
-        <v>7619954709.52429</v>
-      </c>
-      <c r="AC17" s="4" t="n">
-        <v>8777647808.71865</v>
-      </c>
-      <c r="AD17" s="4" t="n">
-        <v>9157200366.24047</v>
-      </c>
-      <c r="AE17" s="4" t="n">
-        <v>8039136136.04891</v>
-      </c>
-      <c r="AF17" s="4" t="n">
-        <v>8186321769.03338</v>
-      </c>
-      <c r="AG17" s="4" t="n">
-        <v>6917595114.74923</v>
-      </c>
-      <c r="AH17" s="4" t="n">
-        <v>6339524274.34437</v>
-      </c>
-      <c r="AI17" s="4" t="n">
-        <v>5667694308.37954</v>
-      </c>
-      <c r="AJ17" s="4" t="n">
-        <v>4815072321.09857</v>
-      </c>
-      <c r="AK17" s="4" t="n">
-        <v>4798986979.32172</v>
-      </c>
-      <c r="AL17" s="4" t="n">
-        <v>4888913920.04555</v>
-      </c>
-      <c r="AM17" s="4" t="n">
-        <v>4223466893.2987</v>
-      </c>
-      <c r="AN17" s="4" t="n">
-        <v>4550084302.77115</v>
-      </c>
-      <c r="AO17" s="4" t="n">
-        <v>4279560546.04342</v>
-      </c>
-      <c r="AP17" s="4" t="n">
-        <v>5222100054.68736</v>
-      </c>
-      <c r="AQ17" s="4" t="n">
-        <v>5328561788.29761</v>
-      </c>
-      <c r="AR17" s="4" t="n">
-        <v>6260850971.83937</v>
-      </c>
-      <c r="AS17" s="4" t="n">
-        <v>7134623901.72826</v>
-      </c>
-      <c r="AT17" s="4" t="n">
-        <v>7915101555.64024</v>
-      </c>
-      <c r="AU17" s="4" t="n">
-        <v>7709830759.3545</v>
-      </c>
-      <c r="AV17" s="4" t="n">
-        <v>7617431058.9485</v>
-      </c>
-      <c r="AW17" s="4" t="n">
-        <v>2662177316.67404</v>
-      </c>
-      <c r="AX17" s="4"/>
+      <c r="P17" s="13" t="n">
+        <v>72389.867802823</v>
+      </c>
+      <c r="Q17" s="13" t="n">
+        <v>449300.670694874</v>
+      </c>
+      <c r="R17" s="13" t="n">
+        <v>1527336.09981955</v>
+      </c>
+      <c r="S17" s="13" t="n">
+        <v>666217.058980796</v>
+      </c>
+      <c r="T17" s="13" t="n">
+        <v>8842763.47151611</v>
+      </c>
+      <c r="U17" s="13" t="n">
+        <v>35185418.885148</v>
+      </c>
+      <c r="V17" s="13" t="n">
+        <v>149926954.049669</v>
+      </c>
+      <c r="W17" s="13" t="n">
+        <v>305903152.328891</v>
+      </c>
+      <c r="X17" s="13" t="n">
+        <v>848897376.176581</v>
+      </c>
+      <c r="Y17" s="13" t="n">
+        <v>1669443596.82287</v>
+      </c>
+      <c r="Z17" s="13" t="n">
+        <v>5722402960.5803</v>
+      </c>
+      <c r="AA17" s="13" t="n">
+        <v>6034041179.76806</v>
+      </c>
+      <c r="AB17" s="13" t="n">
+        <v>7930243642.54414</v>
+      </c>
+      <c r="AC17" s="13" t="n">
+        <v>9137304055.93644</v>
+      </c>
+      <c r="AD17" s="13" t="n">
+        <v>9541666663.87893</v>
+      </c>
+      <c r="AE17" s="13" t="n">
+        <v>8364515050.20587</v>
+      </c>
+      <c r="AF17" s="13" t="n">
+        <v>8528535217.75653</v>
+      </c>
+      <c r="AG17" s="13" t="n">
+        <v>7207955149.82735</v>
+      </c>
+      <c r="AH17" s="13" t="n">
+        <v>6605727698.06455</v>
+      </c>
+      <c r="AI17" s="13" t="n">
+        <v>5902794078.63926</v>
+      </c>
+      <c r="AJ17" s="13" t="n">
+        <v>5659983541.16865</v>
+      </c>
+      <c r="AK17" s="13" t="n">
+        <v>5686895193.64306</v>
+      </c>
+      <c r="AL17" s="13" t="n">
+        <v>5850641034.57599</v>
+      </c>
+      <c r="AM17" s="13" t="n">
+        <v>4863995352.64295</v>
+      </c>
+      <c r="AN17" s="13" t="n">
+        <v>5215585008.03565</v>
+      </c>
+      <c r="AO17" s="13" t="n">
+        <v>4877403313.90458</v>
+      </c>
+      <c r="AP17" s="13" t="n">
+        <v>5508519063.98422</v>
+      </c>
+      <c r="AQ17" s="13" t="n">
+        <v>5730822743.51917</v>
+      </c>
+      <c r="AR17" s="13" t="n">
+        <v>6548070110.54061</v>
+      </c>
+      <c r="AS17" s="13" t="n">
+        <v>7472271277.03569</v>
+      </c>
+      <c r="AT17" s="13" t="n">
+        <v>8310150342.29194</v>
+      </c>
+      <c r="AU17" s="13" t="n">
+        <v>8133643374.56359</v>
+      </c>
+      <c r="AV17" s="13" t="n">
+        <v>8003063911.29453</v>
+      </c>
+      <c r="AW17" s="13" t="n">
+        <v>7807578975.3932</v>
+      </c>
+      <c r="AX17" s="13" t="n">
+        <v>7539129165.37894</v>
+      </c>
+      <c r="AY17" s="13" t="n">
+        <v>2694593669.4376</v>
+      </c>
+      <c r="AZ17" s="13"/>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>O18</f>
+      </c>
       <c r="N18" t="s">
         <v>65</v>
       </c>
       <c r="O18" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4" t="n">
-        <v>2731696421.89019</v>
-      </c>
-      <c r="AA18" s="4" t="n">
-        <v>3409568429.63167</v>
-      </c>
-      <c r="AB18" s="4" t="n">
-        <v>3726315461.56334</v>
-      </c>
-      <c r="AC18" s="4" t="n">
-        <v>5361245965.69439</v>
-      </c>
-      <c r="AD18" s="4" t="n">
-        <v>6811602767.49798</v>
-      </c>
-      <c r="AE18" s="4" t="n">
-        <v>8557259381.98127</v>
-      </c>
-      <c r="AF18" s="4" t="n">
-        <v>10086272444.2264</v>
-      </c>
-      <c r="AG18" s="4" t="n">
-        <v>14758753893.6722</v>
-      </c>
-      <c r="AH18" s="4" t="n">
-        <v>17069955728.4717</v>
-      </c>
-      <c r="AI18" s="4" t="n">
-        <v>17820730673.175</v>
-      </c>
-      <c r="AJ18" s="4" t="n">
-        <v>17585049149.7821</v>
-      </c>
-      <c r="AK18" s="4" t="n">
-        <v>14638823690.3519</v>
-      </c>
-      <c r="AL18" s="4" t="n">
-        <v>13342640851.6109</v>
-      </c>
-      <c r="AM18" s="4" t="n">
-        <v>10017198450.1811</v>
-      </c>
-      <c r="AN18" s="4" t="n">
-        <v>9763008130.90557</v>
-      </c>
-      <c r="AO18" s="4" t="n">
-        <v>9589270788.40471</v>
-      </c>
-      <c r="AP18" s="4" t="n">
-        <v>11342340045.1231</v>
-      </c>
-      <c r="AQ18" s="4" t="n">
-        <v>12239123627.1512</v>
-      </c>
-      <c r="AR18" s="4" t="n">
-        <v>12813916834.6457</v>
-      </c>
-      <c r="AS18" s="4" t="n">
-        <v>12901235438.2308</v>
-      </c>
-      <c r="AT18" s="4" t="n">
-        <v>12388642400.509</v>
-      </c>
-      <c r="AU18" s="4" t="n">
-        <v>9772334864.37524</v>
-      </c>
-      <c r="AV18" s="4" t="n">
-        <v>9591251136.8508</v>
-      </c>
-      <c r="AW18" s="4" t="n">
-        <v>3542946416.9478</v>
-      </c>
-      <c r="AX18" s="4"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13" t="n">
+        <v>117816.620315545</v>
+      </c>
+      <c r="R18" s="13" t="n">
+        <v>300012.44817884</v>
+      </c>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="13" t="n">
+        <v>428477810.408648</v>
+      </c>
+      <c r="X18" s="13" t="n">
+        <v>664573098.40623</v>
+      </c>
+      <c r="Y18" s="13" t="n">
+        <v>1165257191.96522</v>
+      </c>
+      <c r="Z18" s="13" t="n">
+        <v>2901956041.20807</v>
+      </c>
+      <c r="AA18" s="13" t="n">
+        <v>3559402795.27497</v>
+      </c>
+      <c r="AB18" s="13" t="n">
+        <v>3882161729.49219</v>
+      </c>
+      <c r="AC18" s="13" t="n">
+        <v>5578372369.68621</v>
+      </c>
+      <c r="AD18" s="13" t="n">
+        <v>7087533763.10976</v>
+      </c>
+      <c r="AE18" s="13" t="n">
+        <v>8903288102.25301</v>
+      </c>
+      <c r="AF18" s="13" t="n">
+        <v>10494206493.5047</v>
+      </c>
+      <c r="AG18" s="13" t="n">
+        <v>15354005567.5917</v>
+      </c>
+      <c r="AH18" s="13" t="n">
+        <v>17758826075.668</v>
+      </c>
+      <c r="AI18" s="13" t="n">
+        <v>18539310311.4877</v>
+      </c>
+      <c r="AJ18" s="13" t="n">
+        <v>18294961469.4403</v>
+      </c>
+      <c r="AK18" s="13" t="n">
+        <v>15262927402.4977</v>
+      </c>
+      <c r="AL18" s="13" t="n">
+        <v>13939196455.0576</v>
+      </c>
+      <c r="AM18" s="13" t="n">
+        <v>10495452009.8811</v>
+      </c>
+      <c r="AN18" s="13" t="n">
+        <v>10091840727.1208</v>
+      </c>
+      <c r="AO18" s="13" t="n">
+        <v>9999712479.7002</v>
+      </c>
+      <c r="AP18" s="13" t="n">
+        <v>11844304687.9873</v>
+      </c>
+      <c r="AQ18" s="13" t="n">
+        <v>12861954411.6345</v>
+      </c>
+      <c r="AR18" s="13" t="n">
+        <v>13407264641.0972</v>
+      </c>
+      <c r="AS18" s="13" t="n">
+        <v>13445427623.318</v>
+      </c>
+      <c r="AT18" s="13" t="n">
+        <v>12984573378.4326</v>
+      </c>
+      <c r="AU18" s="13" t="n">
+        <v>10161420030.8002</v>
+      </c>
+      <c r="AV18" s="13" t="n">
+        <v>9948143260.29141</v>
+      </c>
+      <c r="AW18" s="13" t="n">
+        <v>9678912907.9636</v>
+      </c>
+      <c r="AX18" s="13" t="n">
+        <v>9953984759.42511</v>
+      </c>
+      <c r="AY18" s="13" t="n">
+        <v>3914655409.65681</v>
+      </c>
+      <c r="AZ18" s="13"/>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>O19</f>
+      </c>
       <c r="N19" t="s">
         <v>65</v>
       </c>
       <c r="O19" t="s">
         <v>69</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4" t="n">
-        <v>10801547824.4245</v>
-      </c>
-      <c r="AA19" s="4" t="n">
-        <v>11352417298.7088</v>
-      </c>
-      <c r="AB19" s="4" t="n">
-        <v>13147055489.991</v>
-      </c>
-      <c r="AC19" s="4" t="n">
-        <v>16914567100.7451</v>
-      </c>
-      <c r="AD19" s="4" t="n">
-        <v>20963437698.4331</v>
-      </c>
-      <c r="AE19" s="4" t="n">
-        <v>23393414310.4649</v>
-      </c>
-      <c r="AF19" s="4" t="n">
-        <v>25717777067.3323</v>
-      </c>
-      <c r="AG19" s="4" t="n">
-        <v>28085124300.937</v>
-      </c>
-      <c r="AH19" s="4" t="n">
-        <v>31086415849.3176</v>
-      </c>
-      <c r="AI19" s="4" t="n">
-        <v>28887865544.4851</v>
-      </c>
-      <c r="AJ19" s="4" t="n">
-        <v>28434773204.7627</v>
-      </c>
-      <c r="AK19" s="4" t="n">
-        <v>24635488191.8153</v>
-      </c>
-      <c r="AL19" s="4" t="n">
-        <v>20218515019.1962</v>
-      </c>
-      <c r="AM19" s="4" t="n">
-        <v>16343765503.4971</v>
-      </c>
-      <c r="AN19" s="4" t="n">
-        <v>15318694914.9592</v>
-      </c>
-      <c r="AO19" s="4" t="n">
-        <v>14087666988.7229</v>
-      </c>
-      <c r="AP19" s="4" t="n">
-        <v>15410120968.3986</v>
-      </c>
-      <c r="AQ19" s="4" t="n">
-        <v>15902524392.6222</v>
-      </c>
-      <c r="AR19" s="4" t="n">
-        <v>18506894702.5902</v>
-      </c>
-      <c r="AS19" s="4" t="n">
-        <v>21031823582.3362</v>
-      </c>
-      <c r="AT19" s="4" t="n">
-        <v>19900094533.4714</v>
-      </c>
-      <c r="AU19" s="4" t="n">
-        <v>17108001819.4395</v>
-      </c>
-      <c r="AV19" s="4" t="n">
-        <v>17372820458.0606</v>
-      </c>
-      <c r="AW19" s="4" t="n">
-        <v>8474781714.27936</v>
-      </c>
-      <c r="AX19" s="4"/>
+      <c r="P19" s="13" t="n">
+        <v>5096246.69331874</v>
+      </c>
+      <c r="Q19" s="13" t="n">
+        <v>7310621.13517304</v>
+      </c>
+      <c r="R19" s="13" t="n">
+        <v>20829435.6878452</v>
+      </c>
+      <c r="S19" s="13" t="n">
+        <v>13590828.0032082</v>
+      </c>
+      <c r="T19" s="13" t="n">
+        <v>1859085.30536614</v>
+      </c>
+      <c r="U19" s="13" t="n">
+        <v>1911676.0325385</v>
+      </c>
+      <c r="V19" s="13" t="n">
+        <v>6372061.15982721</v>
+      </c>
+      <c r="W19" s="13" t="n">
+        <v>1556843605.45171</v>
+      </c>
+      <c r="X19" s="13" t="n">
+        <v>2430605549.69243</v>
+      </c>
+      <c r="Y19" s="13" t="n">
+        <v>4252703659.04456</v>
+      </c>
+      <c r="Z19" s="13" t="n">
+        <v>11562696884.7109</v>
+      </c>
+      <c r="AA19" s="13" t="n">
+        <v>11920446924.4484</v>
+      </c>
+      <c r="AB19" s="13" t="n">
+        <v>13690415057.4122</v>
+      </c>
+      <c r="AC19" s="13" t="n">
+        <v>17599418630.1943</v>
+      </c>
+      <c r="AD19" s="13" t="n">
+        <v>21815602003.4837</v>
+      </c>
+      <c r="AE19" s="13" t="n">
+        <v>24341259221.9214</v>
+      </c>
+      <c r="AF19" s="13" t="n">
+        <v>26760493455.8992</v>
+      </c>
+      <c r="AG19" s="13" t="n">
+        <v>29224985240.3809</v>
+      </c>
+      <c r="AH19" s="13" t="n">
+        <v>32347161036.1198</v>
+      </c>
+      <c r="AI19" s="13" t="n">
+        <v>30051474549.2149</v>
+      </c>
+      <c r="AJ19" s="13" t="n">
+        <v>29590764471.4963</v>
+      </c>
+      <c r="AK19" s="13" t="n">
+        <v>25637471444.4563</v>
+      </c>
+      <c r="AL19" s="13" t="n">
+        <v>21044052096.03</v>
+      </c>
+      <c r="AM19" s="13" t="n">
+        <v>17210145990.9482</v>
+      </c>
+      <c r="AN19" s="13" t="n">
+        <v>15965185022.8063</v>
+      </c>
+      <c r="AO19" s="13" t="n">
+        <v>14684676928.253</v>
+      </c>
+      <c r="AP19" s="13" t="n">
+        <v>16124465890.7977</v>
+      </c>
+      <c r="AQ19" s="13" t="n">
+        <v>16657805343.7513</v>
+      </c>
+      <c r="AR19" s="13" t="n">
+        <v>19350438189.9957</v>
+      </c>
+      <c r="AS19" s="13" t="n">
+        <v>22043397013.4823</v>
+      </c>
+      <c r="AT19" s="13" t="n">
+        <v>20850623604.1646</v>
+      </c>
+      <c r="AU19" s="13" t="n">
+        <v>17928283674.4991</v>
+      </c>
+      <c r="AV19" s="13" t="n">
+        <v>18212760527.7422</v>
+      </c>
+      <c r="AW19" s="13" t="n">
+        <v>18747858830.4024</v>
+      </c>
+      <c r="AX19" s="13" t="n">
+        <v>18252671958.4497</v>
+      </c>
+      <c r="AY19" s="13" t="n">
+        <v>7129611079.35684</v>
+      </c>
+      <c r="AZ19" s="13"/>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>O20</f>
+      </c>
       <c r="N20" t="s">
         <v>65</v>
       </c>
       <c r="O20" t="s">
         <v>70</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4" t="n">
-        <v>1174633370.23208</v>
-      </c>
-      <c r="AA20" s="4" t="n">
-        <v>571263173.401171</v>
-      </c>
-      <c r="AB20" s="4" t="n">
-        <v>480566564.475561</v>
-      </c>
-      <c r="AC20" s="4" t="n">
-        <v>226879728.950365</v>
-      </c>
-      <c r="AD20" s="4" t="n">
-        <v>129749602.935987</v>
-      </c>
-      <c r="AE20" s="4" t="n">
-        <v>48765086.7204176</v>
-      </c>
-      <c r="AF20" s="4" t="n">
-        <v>53347973.6637545</v>
-      </c>
-      <c r="AG20" s="4" t="n">
-        <v>21511686.0849076</v>
-      </c>
-      <c r="AH20" s="4" t="n">
-        <v>15260743.3187073</v>
-      </c>
-      <c r="AI20" s="4" t="n">
-        <v>9258719.84761169</v>
-      </c>
-      <c r="AJ20" s="4" t="n">
-        <v>633889443.103906</v>
-      </c>
-      <c r="AK20" s="4" t="n">
-        <v>670298533.47244</v>
-      </c>
-      <c r="AL20" s="4" t="n">
-        <v>754390529.171158</v>
-      </c>
-      <c r="AM20" s="4" t="n">
-        <v>433005983.816413</v>
-      </c>
-      <c r="AN20" s="4" t="n">
-        <v>467581195.005577</v>
-      </c>
-      <c r="AO20" s="4" t="n">
-        <v>446199489.938041</v>
-      </c>
-      <c r="AP20" s="4" t="n">
-        <v>38343999.9234665</v>
-      </c>
-      <c r="AQ20" s="4" t="n">
-        <v>127916368.159584</v>
-      </c>
-      <c r="AR20" s="4" t="n">
-        <v>601584.426868607</v>
-      </c>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4" t="n">
-        <v>889883.896496314</v>
-      </c>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
+      <c r="P20" s="13" t="n">
+        <v>407451.541633032</v>
+      </c>
+      <c r="Q20" s="13" t="n">
+        <v>3658305.90539115</v>
+      </c>
+      <c r="R20" s="13" t="n">
+        <v>5277491.70205505</v>
+      </c>
+      <c r="S20" s="13" t="n">
+        <v>13449970.6821666</v>
+      </c>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="13" t="n">
+        <v>128070668.520252</v>
+      </c>
+      <c r="X20" s="13" t="n">
+        <v>109823661.788556</v>
+      </c>
+      <c r="Y20" s="13" t="n">
+        <v>104205020.26664</v>
+      </c>
+      <c r="Z20" s="13" t="n">
+        <v>243057542.784228</v>
+      </c>
+      <c r="AA20" s="13" t="n">
+        <v>473948055.989703</v>
+      </c>
+      <c r="AB20" s="13" t="n">
+        <v>484054389.787809</v>
+      </c>
+      <c r="AC20" s="13" t="n">
+        <v>231623090.4593</v>
+      </c>
+      <c r="AD20" s="13" t="n">
+        <v>120214800.668203</v>
+      </c>
+      <c r="AE20" s="13" t="n">
+        <v>50057593.5482777</v>
+      </c>
+      <c r="AF20" s="13" t="n">
+        <v>43947748.9189291</v>
+      </c>
+      <c r="AG20" s="13" t="n">
+        <v>7367742.54193358</v>
+      </c>
+      <c r="AH20" s="13" t="n">
+        <v>4215683.46954136</v>
+      </c>
+      <c r="AI20" s="13" t="n">
+        <v>1152397.27034126</v>
+      </c>
+      <c r="AJ20" s="13" t="n">
+        <v>3254446.79020086</v>
+      </c>
+      <c r="AK20" s="13" t="n">
+        <v>309561.714016416</v>
+      </c>
+      <c r="AL20" s="13" t="n">
+        <v>-28453.3466382381</v>
+      </c>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13" t="n">
+        <v>1040815.88574177</v>
+      </c>
+      <c r="AO20" s="13" t="n">
+        <v>146083.556344438</v>
+      </c>
+      <c r="AP20" s="13" t="n">
+        <v>24893.3428580538</v>
+      </c>
+      <c r="AQ20" s="13" t="n">
+        <v>-3868.99644374323</v>
+      </c>
+      <c r="AR20" s="13" t="n">
+        <v>629125.382040169</v>
+      </c>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13" t="n">
+        <v>931157.216170623</v>
+      </c>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13" t="n">
+        <v>14808.5237426316</v>
+      </c>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="13"/>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>O21</f>
+      </c>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="4" t="n">
-        <v>39159221227.3348</v>
-      </c>
-      <c r="Q21" s="4" t="n">
-        <v>37075841095.001</v>
-      </c>
-      <c r="R21" s="4" t="n">
-        <v>36294366444.8787</v>
-      </c>
-      <c r="S21" s="4" t="n">
-        <v>33369645404.352</v>
-      </c>
-      <c r="T21" s="4" t="n">
-        <v>31587983747.9476</v>
-      </c>
-      <c r="U21" s="4" t="n">
-        <v>32767823423.5663</v>
-      </c>
-      <c r="V21" s="4" t="n">
-        <v>31286645512.572</v>
-      </c>
-      <c r="W21" s="4" t="n">
-        <v>31154027060.9063</v>
-      </c>
-      <c r="X21" s="4" t="n">
-        <v>29189360890.8719</v>
-      </c>
-      <c r="Y21" s="4" t="n">
-        <v>32280454746.2768</v>
-      </c>
-      <c r="Z21" s="4" t="n">
-        <v>562766.854984851</v>
-      </c>
-      <c r="AA21" s="4" t="n">
+      <c r="P21" s="13" t="n">
+        <v>40750200551.9922</v>
+      </c>
+      <c r="Q21" s="13" t="n">
+        <v>38579533040.0956</v>
+      </c>
+      <c r="R21" s="13" t="n">
+        <v>37771221399.0292</v>
+      </c>
+      <c r="S21" s="13" t="n">
+        <v>34724386857.361</v>
+      </c>
+      <c r="T21" s="13" t="n">
+        <v>32867101256.482</v>
+      </c>
+      <c r="U21" s="13" t="n">
+        <v>34094008246.7625</v>
+      </c>
+      <c r="V21" s="13" t="n">
+        <v>32552534081.3514</v>
+      </c>
+      <c r="W21" s="13" t="n">
+        <v>32415136016.7922</v>
+      </c>
+      <c r="X21" s="13" t="n">
+        <v>30373320591.6994</v>
+      </c>
+      <c r="Y21" s="13" t="n">
+        <v>33597925025.8932</v>
+      </c>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AB21" s="4" t="n">
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AC21" s="4" t="n">
+      <c r="AW21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD21" s="4" t="n">
-        <v>1589499.58592294</v>
-      </c>
-      <c r="AE21" s="4" t="n">
-        <v>1562034.39203304</v>
-      </c>
-      <c r="AF21" s="4" t="n">
-        <v>280086.943011502</v>
-      </c>
-      <c r="AG21" s="4" t="n">
-        <v>907664.90159274</v>
-      </c>
-      <c r="AH21" s="4" t="n">
+      <c r="AX21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AI21" s="4" t="n">
+      <c r="AY21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="4"/>
+      <c r="AZ21" s="13"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>O22</f>
+      </c>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10020,6 +10590,12 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
       <c r="M1" t="s">
         <v>60</v>
       </c>
@@ -10128,211 +10704,307 @@
       <c r="AV1" t="s">
         <v>34</v>
       </c>
+      <c r="AW1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
       <c r="M2" t="s">
         <v>62</v>
       </c>
       <c r="N2" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="O2" s="5" t="n">
+        <v>278592134.53</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>214066000</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>115231000</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>356753000</v>
+      </c>
+      <c r="S2" s="5" t="n">
+        <v>143143000</v>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>214881809</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>164943000</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>2173573690.2</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v>2155383374</v>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>2039443037</v>
+      </c>
       <c r="Y2" s="5" t="n">
         <v>8021951004</v>
       </c>
       <c r="Z2" s="5" t="n">
-        <v>8320647985</v>
+        <v>8320647958.99</v>
       </c>
       <c r="AA2" s="5" t="n">
-        <v>8800065378.6094</v>
+        <v>8800415383.6</v>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>9404475634.0487</v>
+        <v>9400367347.09</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>10909289692.7472</v>
+        <v>10909289706.63</v>
       </c>
       <c r="AD2" s="5" t="n">
-        <v>12674014351.0174</v>
+        <v>12674014351.44</v>
       </c>
       <c r="AE2" s="5" t="n">
-        <v>11694723004.5789</v>
+        <v>11694165809.04</v>
       </c>
       <c r="AF2" s="5" t="n">
-        <v>13703810682.6111</v>
+        <v>13703083958.18</v>
       </c>
       <c r="AG2" s="5" t="n">
-        <v>13721927317.2913</v>
+        <v>13721625705.65</v>
       </c>
       <c r="AH2" s="5" t="n">
-        <v>13379463793.1479</v>
+        <v>13379281715.7</v>
       </c>
       <c r="AI2" s="5" t="n">
-        <v>13835225170.1946</v>
+        <v>13819567276.7127</v>
       </c>
       <c r="AJ2" s="5" t="n">
-        <v>14562778368.9755</v>
+        <v>14502433721.5332</v>
       </c>
       <c r="AK2" s="5" t="n">
-        <v>14921680726.0337</v>
+        <v>14857238761.6137</v>
       </c>
       <c r="AL2" s="5" t="n">
-        <v>12695078651.8236</v>
+        <v>12864103169.5605</v>
       </c>
       <c r="AM2" s="5" t="n">
-        <v>12240530174.9698</v>
+        <v>12340311320.3711</v>
       </c>
       <c r="AN2" s="5" t="n">
-        <v>12034468796.1706</v>
+        <v>12027676031.5248</v>
       </c>
       <c r="AO2" s="5" t="n">
-        <v>11861189132.9223</v>
+        <v>11818138692.8012</v>
       </c>
       <c r="AP2" s="5" t="n">
-        <v>12250042498.617</v>
+        <v>12312033724.5194</v>
       </c>
       <c r="AQ2" s="5" t="n">
-        <v>13227171028.5887</v>
+        <v>13208356060.49</v>
       </c>
       <c r="AR2" s="5" t="n">
-        <v>13044785404.6434</v>
+        <v>13080121424.65</v>
       </c>
       <c r="AS2" s="5" t="n">
-        <v>13102504225.1953</v>
+        <v>13053629049.57</v>
       </c>
       <c r="AT2" s="5" t="n">
-        <v>11969037894.5947</v>
+        <v>11949916109.8</v>
       </c>
       <c r="AU2" s="5" t="n">
-        <v>13045110411.5948</v>
+        <v>12996451209.82</v>
       </c>
       <c r="AV2" s="5" t="n">
-        <v>6375796644.3276</v>
-      </c>
-      <c r="AW2" s="5"/>
+        <v>12745224505.08</v>
+      </c>
+      <c r="AW2" s="5" t="n">
+        <v>12779481202.97</v>
+      </c>
+      <c r="AX2" s="5" t="n">
+        <v>5038072478.95</v>
+      </c>
+      <c r="AY2" s="5"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
       <c r="M3" t="s">
         <v>62</v>
       </c>
       <c r="N3" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="O3" s="5" t="n">
+        <v>65004000</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>202409000</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>60358000</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>408000</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>44289000</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>4838000</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>16133614</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>155179794</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>252960583</v>
+      </c>
       <c r="Y3" s="5" t="n">
-        <v>569933792.0107</v>
+        <v>569967042.0107</v>
       </c>
       <c r="Z3" s="5" t="n">
-        <v>661192807.9501</v>
+        <v>661192807.95</v>
       </c>
       <c r="AA3" s="5" t="n">
-        <v>899529703.0931</v>
+        <v>899616095.1</v>
       </c>
       <c r="AB3" s="5" t="n">
-        <v>1531265623.7691</v>
+        <v>1531424547.22</v>
       </c>
       <c r="AC3" s="5" t="n">
-        <v>1656253985.0566</v>
+        <v>1656253978.5</v>
       </c>
       <c r="AD3" s="5" t="n">
-        <v>1813231636.5276</v>
+        <v>1813240780.51</v>
       </c>
       <c r="AE3" s="5" t="n">
-        <v>2003895788.5089</v>
+        <v>2003895787.07</v>
       </c>
       <c r="AF3" s="5" t="n">
-        <v>2163684328.8482</v>
+        <v>2163684328.85</v>
       </c>
       <c r="AG3" s="5" t="n">
-        <v>2336536175.264</v>
+        <v>2336363087.25</v>
       </c>
       <c r="AH3" s="5" t="n">
-        <v>2268100101.3824</v>
+        <v>2268088750.6</v>
       </c>
       <c r="AI3" s="5" t="n">
-        <v>2800899168.6457</v>
+        <v>2796810770.592</v>
       </c>
       <c r="AJ3" s="5" t="n">
-        <v>2405583139.7334</v>
+        <v>2404648227.8275</v>
       </c>
       <c r="AK3" s="5" t="n">
-        <v>1867667940.7792</v>
+        <v>1861725343.9855</v>
       </c>
       <c r="AL3" s="5" t="n">
-        <v>1770856043.4629</v>
+        <v>1783372534.0627</v>
       </c>
       <c r="AM3" s="5" t="n">
-        <v>1789042810.7525</v>
+        <v>1788415710.7609</v>
       </c>
       <c r="AN3" s="5" t="n">
-        <v>1655747576.1878</v>
+        <v>1657489192.2591</v>
       </c>
       <c r="AO3" s="5" t="n">
-        <v>1859852739.6639</v>
+        <v>1857710221.0115</v>
       </c>
       <c r="AP3" s="5" t="n">
-        <v>1707853741.751</v>
+        <v>1701205861.0879</v>
       </c>
       <c r="AQ3" s="5" t="n">
-        <v>2117423568.424</v>
+        <v>2111986748.43</v>
       </c>
       <c r="AR3" s="5" t="n">
-        <v>2382009496.5678</v>
+        <v>2382497299.38</v>
       </c>
       <c r="AS3" s="5" t="n">
-        <v>2080233501.5545</v>
+        <v>2084797685.09</v>
       </c>
       <c r="AT3" s="5" t="n">
-        <v>1980240436.3709</v>
+        <v>1981481809.3</v>
       </c>
       <c r="AU3" s="5" t="n">
-        <v>2191809031.7026</v>
+        <v>2191729697.14</v>
       </c>
       <c r="AV3" s="5" t="n">
-        <v>797655186.1526</v>
-      </c>
-      <c r="AW3" s="5"/>
+        <v>2198074759.53</v>
+      </c>
+      <c r="AW3" s="5" t="n">
+        <v>2459980789.02</v>
+      </c>
+      <c r="AX3" s="5" t="n">
+        <v>1012331422.78</v>
+      </c>
+      <c r="AY3" s="5"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
       <c r="M4" t="s">
         <v>65</v>
       </c>
       <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
+      <c r="O4" s="5" t="n">
+        <v>8008000</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>2356000</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>705000</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>35000</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>3331000</v>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>7826000</v>
+      </c>
+      <c r="U4" s="5" t="n">
+        <v>46000</v>
+      </c>
+      <c r="V4" s="5" t="n">
+        <v>3310210</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>1278785</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>902234</v>
+      </c>
       <c r="Y4" s="5" t="n">
-        <v>6020297</v>
+        <v>8221442</v>
       </c>
       <c r="Z4" s="5" t="n">
-        <v>8764615</v>
+        <v>9130615</v>
       </c>
       <c r="AA4" s="5" t="n">
         <v>22280053</v>
@@ -10344,156 +11016,200 @@
         <v>49463752.6406</v>
       </c>
       <c r="AD4" s="5" t="n">
-        <v>10740762.4004</v>
+        <v>10742864.4004</v>
       </c>
       <c r="AE4" s="5" t="n">
         <v>1916858.1523</v>
       </c>
       <c r="AF4" s="5" t="n">
-        <v>2949517.3293</v>
+        <v>2709667.3293</v>
       </c>
       <c r="AG4" s="5" t="n">
-        <v>886182.2947</v>
+        <v>930314.2947</v>
       </c>
       <c r="AH4" s="5" t="n">
-        <v>249107.5315</v>
+        <v>244427.5315</v>
       </c>
       <c r="AI4" s="5" t="n">
-        <v>142438111.8816</v>
+        <v>142424882.104</v>
       </c>
       <c r="AJ4" s="5" t="n">
-        <v>558733141.0291</v>
+        <v>558733140.6799</v>
       </c>
       <c r="AK4" s="5" t="n">
-        <v>1698920294.4379</v>
+        <v>1698954793.6019</v>
       </c>
       <c r="AL4" s="5" t="n">
-        <v>1565261894.8145</v>
+        <v>1568548888.3238</v>
       </c>
       <c r="AM4" s="5" t="n">
-        <v>2014570385.4959</v>
+        <v>2014605978.4852</v>
       </c>
       <c r="AN4" s="5" t="n">
-        <v>2244920320.5975</v>
+        <v>2244578535.65</v>
       </c>
       <c r="AO4" s="5" t="n">
-        <v>2672270699.6757</v>
+        <v>2682951279.3963</v>
       </c>
       <c r="AP4" s="5" t="n">
-        <v>3002665004.1604</v>
+        <v>3000140277.8821</v>
       </c>
       <c r="AQ4" s="5" t="n">
-        <v>2727364629.2919</v>
+        <v>2727769881.0172</v>
       </c>
       <c r="AR4" s="5" t="n">
-        <v>2830066094.7689</v>
+        <v>2830983359.2267</v>
       </c>
       <c r="AS4" s="5" t="n">
-        <v>3797977289.3471</v>
+        <v>3799391450.2057</v>
       </c>
       <c r="AT4" s="5" t="n">
-        <v>3305576451.3215</v>
+        <v>3310187177.4694</v>
       </c>
       <c r="AU4" s="5" t="n">
-        <v>3769401768.7207</v>
+        <v>3759755574.563</v>
       </c>
       <c r="AV4" s="5" t="n">
-        <v>2330103062.1281</v>
-      </c>
-      <c r="AW4" s="5"/>
+        <v>5131997329.1368</v>
+      </c>
+      <c r="AW4" s="5" t="n">
+        <v>6144401901.72</v>
+      </c>
+      <c r="AX4" s="5" t="n">
+        <v>2686921749.26</v>
+      </c>
+      <c r="AY4" s="5"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
       <c r="M5" t="s">
         <v>65</v>
       </c>
       <c r="N5" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="O5" s="5" t="n">
+        <v>35000</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>225000</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>784000</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>350000</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>4747000</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>19289000</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>83739000</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>173888914</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>488601045.32</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>972782199.57</v>
+      </c>
       <c r="Y5" s="5" t="n">
-        <v>3049492820.6242</v>
+        <v>3403814853.3234</v>
       </c>
       <c r="Z5" s="5" t="n">
-        <v>3676007171.7866</v>
+        <v>3676182868.7866</v>
       </c>
       <c r="AA5" s="5" t="n">
-        <v>4906711088.6817</v>
+        <v>4907435115.6817</v>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>5760222461.4176</v>
+        <v>5762931430.4176</v>
       </c>
       <c r="AC5" s="5" t="n">
-        <v>6156186637.1155</v>
+        <v>6164915620.1155</v>
       </c>
       <c r="AD5" s="5" t="n">
-        <v>5568600373.6984</v>
+        <v>5568805912.6965</v>
       </c>
       <c r="AE5" s="5" t="n">
-        <v>5855173525.891</v>
+        <v>5862450974.101</v>
       </c>
       <c r="AF5" s="5" t="n">
-        <v>5083413419.9099</v>
+        <v>5091094395.5873</v>
       </c>
       <c r="AG5" s="5" t="n">
-        <v>4755775894.8999</v>
+        <v>4762596010.0103</v>
       </c>
       <c r="AH5" s="5" t="n">
-        <v>4294989815.897</v>
+        <v>4299315325.8996</v>
       </c>
       <c r="AI5" s="5" t="n">
-        <v>3680607177.0905</v>
+        <v>4158166004.4077</v>
       </c>
       <c r="AJ5" s="5" t="n">
-        <v>3742241892.9962</v>
+        <v>4261793823.0651</v>
       </c>
       <c r="AK5" s="5" t="n">
-        <v>3882247217.4846</v>
+        <v>4464067385.5296</v>
       </c>
       <c r="AL5" s="5" t="n">
-        <v>3415196013.1486</v>
+        <v>3778591623.2397</v>
       </c>
       <c r="AM5" s="5" t="n">
-        <v>3750486385.5302</v>
+        <v>4125640111.1352</v>
       </c>
       <c r="AN5" s="5" t="n">
-        <v>3567942996.0224</v>
+        <v>3898086895.3259</v>
       </c>
       <c r="AO5" s="5" t="n">
-        <v>4389831743.714</v>
+        <v>4437681367.4164</v>
       </c>
       <c r="AP5" s="5" t="n">
-        <v>4559299074.1103</v>
+        <v>4694702009.0262</v>
       </c>
       <c r="AQ5" s="5" t="n">
-        <v>5482781269.3213</v>
+        <v>5483277848.1843</v>
       </c>
       <c r="AR5" s="5" t="n">
-        <v>6370341549.8303</v>
+        <v>6372885740.4149</v>
       </c>
       <c r="AS5" s="5" t="n">
-        <v>7161491866.5726</v>
+        <v>7180073373.7323</v>
       </c>
       <c r="AT5" s="5" t="n">
-        <v>7210249885.9536</v>
+        <v>7269439601.5908</v>
       </c>
       <c r="AU5" s="5" t="n">
-        <v>7617431058.9485</v>
+        <v>7652966743.2939</v>
       </c>
       <c r="AV5" s="5" t="n">
-        <v>2791132144.9824</v>
-      </c>
-      <c r="AW5" s="5"/>
+        <v>7807578975.3932</v>
+      </c>
+      <c r="AW5" s="5" t="n">
+        <v>7740469058.4</v>
+      </c>
+      <c r="AX5" s="5" t="n">
+        <v>2827259418.11</v>
+      </c>
+      <c r="AY5" s="5"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
       <c r="M6" t="s">
         <v>65</v>
       </c>
@@ -10501,250 +11217,322 @@
         <v>68</v>
       </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="P6" s="5" t="n">
+        <v>59000</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>154000</v>
+      </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
+      <c r="T6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>243565784</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>382509264</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>678993561.94</v>
+      </c>
       <c r="Y6" s="5" t="n">
-        <v>1690688628.5122</v>
+        <v>1726149162.3012</v>
       </c>
       <c r="Z6" s="5" t="n">
-        <v>2161405920.635</v>
+        <v>2168532694.635</v>
       </c>
       <c r="AA6" s="5" t="n">
-        <v>2399483211.1437</v>
+        <v>2402379757.1437</v>
       </c>
       <c r="AB6" s="5" t="n">
-        <v>3518251142.647</v>
+        <v>3518300065.647</v>
       </c>
       <c r="AC6" s="5" t="n">
-        <v>4579292388.2287</v>
+        <v>4579288833.2287</v>
       </c>
       <c r="AD6" s="5" t="n">
-        <v>5927497306.4152</v>
+        <v>5927502446.7852</v>
       </c>
       <c r="AE6" s="5" t="n">
-        <v>7214091634.3839</v>
+        <v>7213638627.2023</v>
       </c>
       <c r="AF6" s="5" t="n">
-        <v>10845510088.3655</v>
+        <v>10844780533.4714</v>
       </c>
       <c r="AG6" s="5" t="n">
-        <v>12805516702.4137</v>
+        <v>12803754268.4698</v>
       </c>
       <c r="AH6" s="5" t="n">
-        <v>13504584508.019</v>
+        <v>13503154589.4892</v>
       </c>
       <c r="AI6" s="5" t="n">
-        <v>13441887015.1903</v>
+        <v>13440584461.217</v>
       </c>
       <c r="AJ6" s="5" t="n">
-        <v>11415329842.375</v>
+        <v>11438130563.5045</v>
       </c>
       <c r="AK6" s="5" t="n">
-        <v>10595283772.0612</v>
+        <v>10635674263.3454</v>
       </c>
       <c r="AL6" s="5" t="n">
-        <v>8100145466.8103</v>
+        <v>8153385061.3369</v>
       </c>
       <c r="AM6" s="5" t="n">
-        <v>8047329816.3908</v>
+        <v>7982863443.861</v>
       </c>
       <c r="AN6" s="5" t="n">
-        <v>7994739454.7514</v>
+        <v>7991905869.8759</v>
       </c>
       <c r="AO6" s="5" t="n">
-        <v>9534663039.1326</v>
+        <v>9541811440.3088</v>
       </c>
       <c r="AP6" s="5" t="n">
-        <v>10472211309.202</v>
+        <v>10536540025.5294</v>
       </c>
       <c r="AQ6" s="5" t="n">
-        <v>11221462309.7786</v>
+        <v>11227087671.6687</v>
       </c>
       <c r="AR6" s="5" t="n">
-        <v>11519216329.875</v>
+        <v>11467219376.4914</v>
       </c>
       <c r="AS6" s="5" t="n">
-        <v>11209099613.624</v>
+        <v>11218833082.8735</v>
       </c>
       <c r="AT6" s="5" t="n">
-        <v>9139108047.9776</v>
+        <v>9081763949.8806</v>
       </c>
       <c r="AU6" s="5" t="n">
-        <v>9591251136.8508</v>
+        <v>9512957833.6978</v>
       </c>
       <c r="AV6" s="5" t="n">
-        <v>3714565356.0927</v>
-      </c>
-      <c r="AW6" s="5"/>
+        <v>9678912907.9636</v>
+      </c>
+      <c r="AW6" s="5" t="n">
+        <v>10219815756.9625</v>
+      </c>
+      <c r="AX6" s="5" t="n">
+        <v>4107389734.17</v>
+      </c>
+      <c r="AY6" s="5"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
       <c r="M7" t="s">
         <v>65</v>
       </c>
       <c r="N7" t="s">
         <v>69</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
+      <c r="O7" s="5" t="n">
+        <v>2464000</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>3661000</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>10692000</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>7140000</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>998000</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>1048000</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>3559000</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>884978928</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>1398987022.07</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>2478043838.94</v>
+      </c>
       <c r="Y7" s="5" t="n">
-        <v>6685242888.1716</v>
+        <v>6877753921.1716</v>
       </c>
       <c r="Z7" s="5" t="n">
-        <v>7196565333.5191</v>
+        <v>7262420236.5191</v>
       </c>
       <c r="AA7" s="5" t="n">
-        <v>8465772490.1727</v>
+        <v>8471974712.1727</v>
       </c>
       <c r="AB7" s="5" t="n">
-        <v>11099974783.9154</v>
+        <v>11100018359.9154</v>
       </c>
       <c r="AC7" s="5" t="n">
-        <v>14093263209.8866</v>
+        <v>14095162856.8866</v>
       </c>
       <c r="AD7" s="5" t="n">
-        <v>16204300246.5388</v>
+        <v>16205571687.5275</v>
       </c>
       <c r="AE7" s="5" t="n">
-        <v>18394347507.6953</v>
+        <v>18394961962.6743</v>
       </c>
       <c r="AF7" s="5" t="n">
-        <v>20638429310.0387</v>
+        <v>20642076077.8442</v>
       </c>
       <c r="AG7" s="5" t="n">
-        <v>23320366127.9944</v>
+        <v>23321648594.586</v>
       </c>
       <c r="AH7" s="5" t="n">
-        <v>21891280927.6122</v>
+        <v>21888069170.9824</v>
       </c>
       <c r="AI7" s="5" t="n">
-        <v>21735339234.222</v>
+        <v>21739164076.1566</v>
       </c>
       <c r="AJ7" s="5" t="n">
-        <v>19210711836.2831</v>
+        <v>19212876925.027</v>
       </c>
       <c r="AK7" s="5" t="n">
-        <v>16055360139.0089</v>
+        <v>16056713455.1747</v>
       </c>
       <c r="AL7" s="5" t="n">
-        <v>13215958405.1536</v>
+        <v>13369690709.2631</v>
       </c>
       <c r="AM7" s="5" t="n">
-        <v>12626701594.8814</v>
+        <v>12628805322.9511</v>
       </c>
       <c r="AN7" s="5" t="n">
-        <v>11745129487.4611</v>
+        <v>11736193013.387</v>
       </c>
       <c r="AO7" s="5" t="n">
-        <v>12954144404.1901</v>
+        <v>12989923609.5916</v>
       </c>
       <c r="AP7" s="5" t="n">
-        <v>13606741860.1639</v>
+        <v>13646109069.0189</v>
       </c>
       <c r="AQ7" s="5" t="n">
-        <v>16206943127.23</v>
+        <v>16203832165.6124</v>
       </c>
       <c r="AR7" s="5" t="n">
-        <v>18778831439.5665</v>
+        <v>18800180733.435</v>
       </c>
       <c r="AS7" s="5" t="n">
-        <v>18005374175.3859</v>
+        <v>18015198425.9633</v>
       </c>
       <c r="AT7" s="5" t="n">
-        <v>15999439159.9116</v>
+        <v>16023394354.8023</v>
       </c>
       <c r="AU7" s="5" t="n">
-        <v>17372820458.0606</v>
+        <v>17416036179.054</v>
       </c>
       <c r="AV7" s="5" t="n">
-        <v>8885296826.8794</v>
-      </c>
-      <c r="AW7" s="5"/>
+        <v>18747858830.4024</v>
+      </c>
+      <c r="AW7" s="5" t="n">
+        <v>18740127596.74</v>
+      </c>
+      <c r="AX7" s="5" t="n">
+        <v>7480630679.2</v>
+      </c>
+      <c r="AY7" s="5"/>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
       <c r="M8" t="s">
         <v>65</v>
       </c>
       <c r="N8" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="O8" s="5" t="n">
+        <v>197000</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>1832000</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>2709000</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>7066000</v>
+      </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
+      <c r="U8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>72801046</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>63211358</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>60720104</v>
+      </c>
       <c r="Y8" s="5" t="n">
-        <v>726998529.4882</v>
+        <v>144576130</v>
       </c>
       <c r="Z8" s="5" t="n">
-        <v>362137212</v>
+        <v>288748398</v>
       </c>
       <c r="AA8" s="5" t="n">
-        <v>309450827.5508</v>
+        <v>299545085.5508</v>
       </c>
       <c r="AB8" s="5" t="n">
-        <v>148887007</v>
+        <v>146085539</v>
       </c>
       <c r="AC8" s="5" t="n">
-        <v>87227836</v>
+        <v>77671347</v>
       </c>
       <c r="AD8" s="5" t="n">
-        <v>33778913</v>
+        <v>33326621</v>
       </c>
       <c r="AE8" s="5" t="n">
-        <v>38156531.3298</v>
+        <v>30209352.1198</v>
       </c>
       <c r="AF8" s="5" t="n">
-        <v>15807920.515</v>
+        <v>5203954.7949</v>
       </c>
       <c r="AG8" s="5" t="n">
-        <v>11448284.1413</v>
+        <v>3039422.4814</v>
       </c>
       <c r="AH8" s="5" t="n">
-        <v>7016275.9828</v>
+        <v>839351.5308</v>
       </c>
       <c r="AI8" s="5" t="n">
-        <v>484540600.4697</v>
+        <v>2390913.3141</v>
       </c>
       <c r="AJ8" s="5" t="n">
-        <v>522697657.5646</v>
+        <v>231987.43</v>
       </c>
       <c r="AK8" s="5" t="n">
-        <v>599055450.8974</v>
-      </c>
-      <c r="AL8" s="5" t="n">
-        <v>350138960.9436</v>
-      </c>
+        <v>-21710.041</v>
+      </c>
+      <c r="AL8" s="5"/>
       <c r="AM8" s="5" t="n">
-        <v>385411959.2752</v>
+        <v>823307.79</v>
       </c>
       <c r="AN8" s="5" t="n">
-        <v>372004164.4054</v>
+        <v>116751.96</v>
       </c>
       <c r="AO8" s="5" t="n">
-        <v>32232953.4636</v>
+        <v>20054.1602</v>
       </c>
       <c r="AP8" s="5" t="n">
-        <v>109449604.243</v>
+        <v>-3169.49</v>
       </c>
       <c r="AQ8" s="5" t="n">
         <v>526822.287</v>
@@ -10756,110 +11544,219 @@
       </c>
       <c r="AU8" s="5"/>
       <c r="AV8" s="5"/>
-      <c r="AW8" s="5"/>
+      <c r="AW8" s="5" t="n">
+        <v>15204</v>
+      </c>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9" s="5" t="n">
         <v>19702439894</v>
       </c>
       <c r="P9" s="5" t="n">
-        <v>19319595733</v>
+        <v>19319790733</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>19385047958</v>
+        <v>19388422483</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>18241613499</v>
+        <v>18242606124</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>17643919462</v>
+        <v>17643820302</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>18690643667</v>
+        <v>18690677727</v>
       </c>
       <c r="U9" s="5" t="n">
-        <v>18181185718</v>
+        <v>18181631640</v>
       </c>
       <c r="V9" s="5" t="n">
-        <v>18425728076</v>
+        <v>18426200437</v>
       </c>
       <c r="W9" s="5" t="n">
-        <v>17479311563</v>
+        <v>17482014443</v>
       </c>
       <c r="X9" s="5" t="n">
-        <v>19571291342</v>
-      </c>
-      <c r="Y9" s="5" t="n">
-        <v>348305</v>
-      </c>
-      <c r="Z9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="5" t="n">
-        <v>1068586</v>
-      </c>
-      <c r="AD9" s="5" t="n">
-        <v>1082000</v>
-      </c>
-      <c r="AE9" s="5" t="n">
-        <v>200329</v>
-      </c>
-      <c r="AF9" s="5" t="n">
-        <v>667000</v>
-      </c>
-      <c r="AG9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="5" t="n">
-        <v>0</v>
-      </c>
+        <v>19577458903</v>
+      </c>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
       <c r="AQ9" s="5"/>
-      <c r="AR9" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR9" s="5"/>
       <c r="AS9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
+      <c r="AU9" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="AV9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="5"/>
+      <c r="AW9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>542</v>
+      </c>
+      <c r="N10" t="s">
+        <v>543</v>
+      </c>
+      <c r="O10" s="5" t="str">
+        <f>Sum(O2:O9)</f>
+      </c>
+      <c r="P10" s="5" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="5" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="5" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="5" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="5" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="5" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="5" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="5" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="5" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="5" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="5" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="5" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="5" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="5" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="5" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="5" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="5" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="5" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="5" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="5" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="5" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="5" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="5" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="5" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="5" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="5" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="5" t="str">
+        <f>Sum(AP2:AP9)</f>
+      </c>
+      <c r="AQ10" s="5" t="str">
+        <f>Sum(AQ2:AQ9)</f>
+      </c>
+      <c r="AR10" s="5" t="str">
+        <f>Sum(AR2:AR9)</f>
+      </c>
+      <c r="AS10" s="5" t="str">
+        <f>Sum(AS2:AS9)</f>
+      </c>
+      <c r="AT10" s="5" t="str">
+        <f>Sum(AT2:AT9)</f>
+      </c>
+      <c r="AU10" s="5" t="str">
+        <f>Sum(AU2:AU9)</f>
+      </c>
+      <c r="AV10" s="5" t="str">
+        <f>Sum(AV2:AV9)</f>
+      </c>
+      <c r="AW10" s="5" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="5" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="5"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
       <c r="M13" t="s">
         <v>60</v>
       </c>
@@ -10968,372 +11865,512 @@
       <c r="AV13" t="s">
         <v>34</v>
       </c>
+      <c r="AW13" t="s">
+        <v>550</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
       <c r="M14" t="s">
         <v>62</v>
       </c>
       <c r="N14" t="s">
         <v>63</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
+      <c r="O14" s="5" t="n">
+        <v>576207079.700943</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>427466654.990973</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>224485288.416207</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>679071241.264502</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <v>266648344.555136</v>
+      </c>
+      <c r="T14" s="5" t="n">
+        <v>391969851.234557</v>
+      </c>
+      <c r="U14" s="5" t="n">
+        <v>295315224.469059</v>
+      </c>
+      <c r="V14" s="5" t="n">
+        <v>3823723021.53385</v>
+      </c>
+      <c r="W14" s="5" t="n">
+        <v>3744771543.91862</v>
+      </c>
+      <c r="X14" s="5" t="n">
+        <v>3499997348.54281</v>
+      </c>
       <c r="Y14" s="5" t="n">
-        <v>12961307294.9388</v>
+        <v>13486290574.8529</v>
       </c>
       <c r="Z14" s="5" t="n">
-        <v>13125631984.6665</v>
+        <v>13657408844.6994</v>
       </c>
       <c r="AA14" s="5" t="n">
-        <v>13666200926.428</v>
+        <v>14221163704.1373</v>
       </c>
       <c r="AB14" s="5" t="n">
-        <v>14330900498.0756</v>
+        <v>14904569961.4777</v>
       </c>
       <c r="AC14" s="5" t="n">
-        <v>16227342908.6055</v>
+        <v>16884708945.6837</v>
       </c>
       <c r="AD14" s="5" t="n">
-        <v>18296900463.4098</v>
+        <v>19036753201.8749</v>
       </c>
       <c r="AE14" s="5" t="n">
-        <v>16350799014.2156</v>
+        <v>17012356331.0439</v>
       </c>
       <c r="AF14" s="5" t="n">
-        <v>18648377773.1301</v>
+        <v>19400782407.5094</v>
       </c>
       <c r="AG14" s="5" t="n">
-        <v>18291545531.4129</v>
+        <v>19031915114.314</v>
       </c>
       <c r="AH14" s="5" t="n">
-        <v>17655620627.7657</v>
+        <v>18369237634.6821</v>
       </c>
       <c r="AI14" s="5" t="n">
-        <v>18099625025.9532</v>
+        <v>18810822667.819</v>
       </c>
       <c r="AJ14" s="5" t="n">
-        <v>18675057832.6478</v>
+        <v>19351902989.9477</v>
       </c>
       <c r="AK14" s="5" t="n">
-        <v>18790872534.7089</v>
+        <v>19472011341.262</v>
       </c>
       <c r="AL14" s="5" t="n">
-        <v>15699609681.9545</v>
+        <v>16559327990.8387</v>
       </c>
       <c r="AM14" s="5" t="n">
-        <v>14850192343.48</v>
+        <v>15600474346.5882</v>
       </c>
       <c r="AN14" s="5" t="n">
-        <v>14434714318.6138</v>
+        <v>15049389228.6168</v>
       </c>
       <c r="AO14" s="5" t="n">
-        <v>14109952279.694</v>
+        <v>14669922624.0315</v>
       </c>
       <c r="AP14" s="5" t="n">
-        <v>14316917425.7098</v>
+        <v>15029299570.408</v>
       </c>
       <c r="AQ14" s="5" t="n">
-        <v>15104258682.0678</v>
+        <v>15773273564.4086</v>
       </c>
       <c r="AR14" s="5" t="n">
-        <v>14609834812.2895</v>
+        <v>15336571155.1559</v>
       </c>
       <c r="AS14" s="5" t="n">
-        <v>14481291539.225</v>
+        <v>15108149216.3148</v>
       </c>
       <c r="AT14" s="5" t="n">
-        <v>12798343743.8689</v>
+        <v>13370543167.0133</v>
       </c>
       <c r="AU14" s="5" t="n">
-        <v>13045110411.5948</v>
+        <v>13590994596.0961</v>
       </c>
       <c r="AV14" s="5" t="n">
-        <v>6081224506.96881</v>
-      </c>
-      <c r="AW14" s="5"/>
+        <v>12745224505.08</v>
+      </c>
+      <c r="AW14" s="5" t="n">
+        <v>12447069903.4922</v>
+      </c>
+      <c r="AX14" s="5" t="n">
+        <v>4801666985.69939</v>
+      </c>
+      <c r="AY14" s="5"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
       <c r="M15" t="s">
         <v>62</v>
       </c>
       <c r="N15" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
+      <c r="O15" s="5" t="n">
+        <v>134446599.047277</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>404188886.465239</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>117585398.358301</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>776618.743040471</v>
+      </c>
+      <c r="S15" s="5" t="n">
+        <v>82502033.1556725</v>
+      </c>
+      <c r="T15" s="5" t="n">
+        <v>3009795.28023714</v>
+      </c>
+      <c r="U15" s="5" t="n">
+        <v>8661992.66401912</v>
+      </c>
+      <c r="V15" s="5" t="n">
+        <v>28382047.2940416</v>
+      </c>
+      <c r="W15" s="5" t="n">
+        <v>269609983.899947</v>
+      </c>
+      <c r="X15" s="5" t="n">
+        <v>434119195.154478</v>
+      </c>
       <c r="Y15" s="5" t="n">
-        <v>920859154.130581</v>
+        <v>958213424.990111</v>
       </c>
       <c r="Z15" s="5" t="n">
-        <v>1043016539.54194</v>
+        <v>1085273712.79918</v>
       </c>
       <c r="AA15" s="5" t="n">
-        <v>1396938901.34518</v>
+        <v>1453748170.01654</v>
       </c>
       <c r="AB15" s="5" t="n">
-        <v>2333401259.59913</v>
+        <v>2428120461.89138</v>
       </c>
       <c r="AC15" s="5" t="n">
-        <v>2463643565.82501</v>
+        <v>2563445203.0463</v>
       </c>
       <c r="AD15" s="5" t="n">
-        <v>2617680385.3775</v>
+        <v>2723542539.63915</v>
       </c>
       <c r="AE15" s="5" t="n">
-        <v>2801716404.10066</v>
+        <v>2915213426.64383</v>
       </c>
       <c r="AF15" s="5" t="n">
-        <v>2944378295.98464</v>
+        <v>3063337347.32019</v>
       </c>
       <c r="AG15" s="5" t="n">
-        <v>3114639572.66255</v>
+        <v>3240539051.75752</v>
       </c>
       <c r="AH15" s="5" t="n">
-        <v>2992998490.44121</v>
+        <v>3113998353.69569</v>
       </c>
       <c r="AI15" s="5" t="n">
-        <v>3664213922.38738</v>
+        <v>3806943472.80365</v>
       </c>
       <c r="AJ15" s="5" t="n">
-        <v>3084878662.4035</v>
+        <v>3208738624.38503</v>
       </c>
       <c r="AK15" s="5" t="n">
-        <v>2351954237.37449</v>
+        <v>2439991548.50111</v>
       </c>
       <c r="AL15" s="5" t="n">
-        <v>2189962697.18299</v>
+        <v>2295647845.18176</v>
       </c>
       <c r="AM15" s="5" t="n">
-        <v>2170463980.77772</v>
+        <v>2260893805.06178</v>
       </c>
       <c r="AN15" s="5" t="n">
-        <v>1985982401.94974</v>
+        <v>2073900222.38324</v>
       </c>
       <c r="AO15" s="5" t="n">
-        <v>2212462267.47001</v>
+        <v>2305986239.33154</v>
       </c>
       <c r="AP15" s="5" t="n">
-        <v>1996009483.11804</v>
+        <v>2076661995.02893</v>
       </c>
       <c r="AQ15" s="5" t="n">
-        <v>2417910318.68102</v>
+        <v>2522111350.93797</v>
       </c>
       <c r="AR15" s="5" t="n">
-        <v>2667791319.41662</v>
+        <v>2793501541.20498</v>
       </c>
       <c r="AS15" s="5" t="n">
-        <v>2299138186.70984</v>
+        <v>2412925508.49719</v>
       </c>
       <c r="AT15" s="5" t="n">
-        <v>2117446533.57888</v>
+        <v>2217043853.90372</v>
       </c>
       <c r="AU15" s="5" t="n">
-        <v>2191809031.7026</v>
+        <v>2291993867.32785</v>
       </c>
       <c r="AV15" s="5" t="n">
-        <v>760802223.900528</v>
-      </c>
-      <c r="AW15" s="5"/>
+        <v>2198074759.53</v>
+      </c>
+      <c r="AW15" s="5" t="n">
+        <v>2395993417.5625</v>
+      </c>
+      <c r="AX15" s="5" t="n">
+        <v>964828988.002549</v>
+      </c>
+      <c r="AY15" s="5"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
       <c r="M16" t="s">
         <v>65</v>
       </c>
       <c r="N16" t="s">
         <v>66</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
+      <c r="O16" s="5" t="n">
+        <v>16562801.7532859</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>4704677.24514277</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>1373433.61016937</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <v>66621.7058980796</v>
+      </c>
+      <c r="S16" s="5" t="n">
+        <v>6205023.19857177</v>
+      </c>
+      <c r="T16" s="5" t="n">
+        <v>14275550.2200823</v>
+      </c>
+      <c r="U16" s="5" t="n">
+        <v>82358.7562101859</v>
+      </c>
+      <c r="V16" s="5" t="n">
+        <v>5823279.07269935</v>
+      </c>
+      <c r="W16" s="5" t="n">
+        <v>2221766.08419453</v>
+      </c>
+      <c r="X16" s="5" t="n">
+        <v>1548372.05574042</v>
+      </c>
       <c r="Y16" s="5" t="n">
-        <v>9727174.77143519</v>
+        <v>13821669.5291474</v>
       </c>
       <c r="Z16" s="5" t="n">
-        <v>13825979.8016546</v>
+        <v>14986878.7470828</v>
       </c>
       <c r="AA16" s="5" t="n">
-        <v>34600161.2317089</v>
+        <v>36003787.0076358</v>
       </c>
       <c r="AB16" s="5" t="n">
-        <v>31407937.0814222</v>
+        <v>32679480.3382276</v>
       </c>
       <c r="AC16" s="5" t="n">
-        <v>73576309.5721154</v>
+        <v>76556869.3432213</v>
       </c>
       <c r="AD16" s="5" t="n">
-        <v>15505952.1867654</v>
+        <v>16136107.5189557</v>
       </c>
       <c r="AE16" s="5" t="n">
-        <v>2680026.0574574</v>
+        <v>2788593.42816785</v>
       </c>
       <c r="AF16" s="5" t="n">
-        <v>4013753.15808871</v>
+        <v>3836338.33178883</v>
       </c>
       <c r="AG16" s="5" t="n">
-        <v>1181294.97539394</v>
+        <v>1290347.30039844</v>
       </c>
       <c r="AH16" s="5" t="n">
-        <v>328723.791900811</v>
+        <v>335589.57094935</v>
       </c>
       <c r="AI16" s="5" t="n">
-        <v>186341485.790612</v>
+        <v>193864912.489551</v>
       </c>
       <c r="AJ16" s="5" t="n">
-        <v>716509820.953175</v>
+        <v>745567933.170539</v>
       </c>
       <c r="AK16" s="5" t="n">
-        <v>2139450326.37744</v>
+        <v>2226663213.81204</v>
       </c>
       <c r="AL16" s="5" t="n">
-        <v>1935710795.70225</v>
+        <v>2019115920.40711</v>
       </c>
       <c r="AM16" s="5" t="n">
-        <v>2444073686.87906</v>
+        <v>2546840842.9826</v>
       </c>
       <c r="AN16" s="5" t="n">
-        <v>2692664216.8192</v>
+        <v>2808484028.72331</v>
       </c>
       <c r="AO16" s="5" t="n">
-        <v>3178906569.00427</v>
+        <v>3330362648.11858</v>
       </c>
       <c r="AP16" s="5" t="n">
-        <v>3509286349.53604</v>
+        <v>3662271237.9142</v>
       </c>
       <c r="AQ16" s="5" t="n">
-        <v>3114409029.11968</v>
+        <v>3257472796.53834</v>
       </c>
       <c r="AR16" s="5" t="n">
-        <v>3169603551.90795</v>
+        <v>3319355862.09623</v>
       </c>
       <c r="AS16" s="5" t="n">
-        <v>4197641568.44383</v>
+        <v>4397380432.89878</v>
       </c>
       <c r="AT16" s="5" t="n">
-        <v>3534611893.47195</v>
+        <v>3703708054.56551</v>
       </c>
       <c r="AU16" s="5" t="n">
-        <v>3769401768.7207</v>
+        <v>3931751589.07365</v>
       </c>
       <c r="AV16" s="5" t="n">
-        <v>2222448524.57506</v>
-      </c>
-      <c r="AW16" s="5"/>
+        <v>5131997329.1368</v>
+      </c>
+      <c r="AW16" s="5" t="n">
+        <v>5984577837.79868</v>
+      </c>
+      <c r="AX16" s="5" t="n">
+        <v>2560841176.9551</v>
+      </c>
+      <c r="AY16" s="5"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
       <c r="M17" t="s">
         <v>65</v>
       </c>
       <c r="N17" t="s">
         <v>67</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
+      <c r="O17" s="5" t="n">
+        <v>72389.867802823</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>449300.670694874</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>1527336.09981955</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>666217.058980796</v>
+      </c>
+      <c r="S17" s="5" t="n">
+        <v>8842763.47151611</v>
+      </c>
+      <c r="T17" s="5" t="n">
+        <v>35185418.885148</v>
+      </c>
+      <c r="U17" s="5" t="n">
+        <v>149926954.049669</v>
+      </c>
+      <c r="V17" s="5" t="n">
+        <v>305903152.328891</v>
+      </c>
+      <c r="W17" s="5" t="n">
+        <v>848897376.176581</v>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>1669443596.82287</v>
+      </c>
       <c r="Y17" s="5" t="n">
-        <v>4927157186.83787</v>
+        <v>5722402960.5803</v>
       </c>
       <c r="Z17" s="5" t="n">
-        <v>5798817279.2369</v>
+        <v>6034041179.76806</v>
       </c>
       <c r="AA17" s="5" t="n">
-        <v>7619954709.52429</v>
+        <v>7930243642.54414</v>
       </c>
       <c r="AB17" s="5" t="n">
-        <v>8777647808.71865</v>
+        <v>9137304055.93644</v>
       </c>
       <c r="AC17" s="5" t="n">
-        <v>9157200366.24047</v>
+        <v>9541666663.87893</v>
       </c>
       <c r="AD17" s="5" t="n">
-        <v>8039136136.04891</v>
+        <v>8364515050.20587</v>
       </c>
       <c r="AE17" s="5" t="n">
-        <v>8186321769.03338</v>
+        <v>8528535217.75653</v>
       </c>
       <c r="AF17" s="5" t="n">
-        <v>6917595114.74923</v>
+        <v>7207955149.82735</v>
       </c>
       <c r="AG17" s="5" t="n">
-        <v>6339524274.34437</v>
+        <v>6605727698.06455</v>
       </c>
       <c r="AH17" s="5" t="n">
-        <v>5667694308.37954</v>
+        <v>5902794078.63926</v>
       </c>
       <c r="AI17" s="5" t="n">
-        <v>4815072321.09857</v>
+        <v>5659983541.16865</v>
       </c>
       <c r="AJ17" s="5" t="n">
-        <v>4798986979.32172</v>
+        <v>5686895193.64306</v>
       </c>
       <c r="AK17" s="5" t="n">
-        <v>4888913920.04555</v>
+        <v>5850641034.57599</v>
       </c>
       <c r="AL17" s="5" t="n">
-        <v>4223466893.2987</v>
+        <v>4863995352.64295</v>
       </c>
       <c r="AM17" s="5" t="n">
-        <v>4550084302.77115</v>
+        <v>5215585008.03565</v>
       </c>
       <c r="AN17" s="5" t="n">
-        <v>4279560546.04342</v>
+        <v>4877403313.90458</v>
       </c>
       <c r="AO17" s="5" t="n">
-        <v>5222100054.68736</v>
+        <v>5508519063.98422</v>
       </c>
       <c r="AP17" s="5" t="n">
-        <v>5328561788.29761</v>
+        <v>5730822743.51917</v>
       </c>
       <c r="AQ17" s="5" t="n">
-        <v>6260850971.83937</v>
+        <v>6548070110.54061</v>
       </c>
       <c r="AR17" s="5" t="n">
-        <v>7134623901.72826</v>
+        <v>7472271277.03569</v>
       </c>
       <c r="AS17" s="5" t="n">
-        <v>7915101555.64024</v>
+        <v>8310150342.29194</v>
       </c>
       <c r="AT17" s="5" t="n">
-        <v>7709830759.3545</v>
+        <v>8133643374.56359</v>
       </c>
       <c r="AU17" s="5" t="n">
-        <v>7617431058.9485</v>
+        <v>8003063911.29453</v>
       </c>
       <c r="AV17" s="5" t="n">
-        <v>2662177316.67404</v>
-      </c>
-      <c r="AW17" s="5"/>
+        <v>7807578975.3932</v>
+      </c>
+      <c r="AW17" s="5" t="n">
+        <v>7539129165.37894</v>
+      </c>
+      <c r="AX17" s="5" t="n">
+        <v>2694593669.4376</v>
+      </c>
+      <c r="AY17" s="5"/>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
       <c r="M18" t="s">
         <v>65</v>
       </c>
@@ -11341,363 +12378,460 @@
         <v>68</v>
       </c>
       <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="P18" s="5" t="n">
+        <v>117816.620315545</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>300012.44817884</v>
+      </c>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
+      <c r="T18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5" t="n">
+        <v>428477810.408648</v>
+      </c>
+      <c r="W18" s="5" t="n">
+        <v>664573098.40623</v>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>1165257191.96522</v>
+      </c>
       <c r="Y18" s="5" t="n">
-        <v>2731696421.89019</v>
+        <v>2901956041.20807</v>
       </c>
       <c r="Z18" s="5" t="n">
-        <v>3409568429.63167</v>
+        <v>3559402795.27497</v>
       </c>
       <c r="AA18" s="5" t="n">
-        <v>3726315461.56334</v>
+        <v>3882161729.49219</v>
       </c>
       <c r="AB18" s="5" t="n">
-        <v>5361245965.69439</v>
+        <v>5578372369.68621</v>
       </c>
       <c r="AC18" s="5" t="n">
-        <v>6811602767.49798</v>
+        <v>7087533763.10976</v>
       </c>
       <c r="AD18" s="5" t="n">
-        <v>8557259381.98127</v>
+        <v>8903288102.25301</v>
       </c>
       <c r="AE18" s="5" t="n">
-        <v>10086272444.2264</v>
+        <v>10494206493.5047</v>
       </c>
       <c r="AF18" s="5" t="n">
-        <v>14758753893.6722</v>
+        <v>15354005567.5917</v>
       </c>
       <c r="AG18" s="5" t="n">
-        <v>17069955728.4717</v>
+        <v>17758826075.668</v>
       </c>
       <c r="AH18" s="5" t="n">
-        <v>17820730673.175</v>
+        <v>18539310311.4877</v>
       </c>
       <c r="AI18" s="5" t="n">
-        <v>17585049149.7821</v>
+        <v>18294961469.4403</v>
       </c>
       <c r="AJ18" s="5" t="n">
-        <v>14638823690.3519</v>
+        <v>15262927402.4977</v>
       </c>
       <c r="AK18" s="5" t="n">
-        <v>13342640851.6109</v>
+        <v>13939196455.0576</v>
       </c>
       <c r="AL18" s="5" t="n">
-        <v>10017198450.1811</v>
+        <v>10495452009.8811</v>
       </c>
       <c r="AM18" s="5" t="n">
-        <v>9763008130.90557</v>
+        <v>10091840727.1208</v>
       </c>
       <c r="AN18" s="5" t="n">
-        <v>9589270788.40471</v>
+        <v>9999712479.7002</v>
       </c>
       <c r="AO18" s="5" t="n">
-        <v>11342340045.1231</v>
+        <v>11844304687.9873</v>
       </c>
       <c r="AP18" s="5" t="n">
-        <v>12239123627.1512</v>
+        <v>12861954411.6345</v>
       </c>
       <c r="AQ18" s="5" t="n">
-        <v>12813916834.6457</v>
+        <v>13407264641.0972</v>
       </c>
       <c r="AR18" s="5" t="n">
-        <v>12901235438.2308</v>
+        <v>13445427623.318</v>
       </c>
       <c r="AS18" s="5" t="n">
-        <v>12388642400.509</v>
+        <v>12984573378.4326</v>
       </c>
       <c r="AT18" s="5" t="n">
-        <v>9772334864.37524</v>
+        <v>10161420030.8002</v>
       </c>
       <c r="AU18" s="5" t="n">
-        <v>9591251136.8508</v>
+        <v>9948143260.29141</v>
       </c>
       <c r="AV18" s="5" t="n">
-        <v>3542946416.9478</v>
-      </c>
-      <c r="AW18" s="5"/>
+        <v>9678912907.9636</v>
+      </c>
+      <c r="AW18" s="5" t="n">
+        <v>9953984759.42511</v>
+      </c>
+      <c r="AX18" s="5" t="n">
+        <v>3914655409.65681</v>
+      </c>
+      <c r="AY18" s="5"/>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>N19</f>
+      </c>
       <c r="M19" t="s">
         <v>65</v>
       </c>
       <c r="N19" t="s">
         <v>69</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
+      <c r="O19" s="5" t="n">
+        <v>5096246.69331874</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>7310621.13517304</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>20829435.6878452</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>13590828.0032082</v>
+      </c>
+      <c r="S19" s="5" t="n">
+        <v>1859085.30536614</v>
+      </c>
+      <c r="T19" s="5" t="n">
+        <v>1911676.0325385</v>
+      </c>
+      <c r="U19" s="5" t="n">
+        <v>6372061.15982721</v>
+      </c>
+      <c r="V19" s="5" t="n">
+        <v>1556843605.45171</v>
+      </c>
+      <c r="W19" s="5" t="n">
+        <v>2430605549.69243</v>
+      </c>
+      <c r="X19" s="5" t="n">
+        <v>4252703659.04456</v>
+      </c>
       <c r="Y19" s="5" t="n">
-        <v>10801547824.4245</v>
+        <v>11562696884.7109</v>
       </c>
       <c r="Z19" s="5" t="n">
-        <v>11352417298.7088</v>
+        <v>11920446924.4484</v>
       </c>
       <c r="AA19" s="5" t="n">
-        <v>13147055489.991</v>
+        <v>13690415057.4122</v>
       </c>
       <c r="AB19" s="5" t="n">
-        <v>16914567100.7451</v>
+        <v>17599418630.1943</v>
       </c>
       <c r="AC19" s="5" t="n">
-        <v>20963437698.4331</v>
+        <v>21815602003.4837</v>
       </c>
       <c r="AD19" s="5" t="n">
-        <v>23393414310.4649</v>
+        <v>24341259221.9214</v>
       </c>
       <c r="AE19" s="5" t="n">
-        <v>25717777067.3323</v>
+        <v>26760493455.8992</v>
       </c>
       <c r="AF19" s="5" t="n">
-        <v>28085124300.937</v>
+        <v>29224985240.3809</v>
       </c>
       <c r="AG19" s="5" t="n">
-        <v>31086415849.3176</v>
+        <v>32347161036.1198</v>
       </c>
       <c r="AH19" s="5" t="n">
-        <v>28887865544.4851</v>
+        <v>30051474549.2149</v>
       </c>
       <c r="AI19" s="5" t="n">
-        <v>28434773204.7627</v>
+        <v>29590764471.4963</v>
       </c>
       <c r="AJ19" s="5" t="n">
-        <v>24635488191.8153</v>
+        <v>25637471444.4563</v>
       </c>
       <c r="AK19" s="5" t="n">
-        <v>20218515019.1962</v>
+        <v>21044052096.03</v>
       </c>
       <c r="AL19" s="5" t="n">
-        <v>16343765503.4971</v>
+        <v>17210145990.9482</v>
       </c>
       <c r="AM19" s="5" t="n">
-        <v>15318694914.9592</v>
+        <v>15965185022.8063</v>
       </c>
       <c r="AN19" s="5" t="n">
-        <v>14087666988.7229</v>
+        <v>14684676928.253</v>
       </c>
       <c r="AO19" s="5" t="n">
-        <v>15410120968.3986</v>
+        <v>16124465890.7977</v>
       </c>
       <c r="AP19" s="5" t="n">
-        <v>15902524392.6222</v>
+        <v>16657805343.7513</v>
       </c>
       <c r="AQ19" s="5" t="n">
-        <v>18506894702.5902</v>
+        <v>19350438189.9957</v>
       </c>
       <c r="AR19" s="5" t="n">
-        <v>21031823582.3362</v>
+        <v>22043397013.4823</v>
       </c>
       <c r="AS19" s="5" t="n">
-        <v>19900094533.4714</v>
+        <v>20850623604.1646</v>
       </c>
       <c r="AT19" s="5" t="n">
-        <v>17108001819.4395</v>
+        <v>17928283674.4991</v>
       </c>
       <c r="AU19" s="5" t="n">
-        <v>17372820458.0606</v>
+        <v>18212760527.7422</v>
       </c>
       <c r="AV19" s="5" t="n">
-        <v>8474781714.27936</v>
-      </c>
-      <c r="AW19" s="5"/>
+        <v>18747858830.4024</v>
+      </c>
+      <c r="AW19" s="5" t="n">
+        <v>18252671958.4497</v>
+      </c>
+      <c r="AX19" s="5" t="n">
+        <v>7129611079.35684</v>
+      </c>
+      <c r="AY19" s="5"/>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>N20</f>
+      </c>
       <c r="M20" t="s">
         <v>65</v>
       </c>
       <c r="N20" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
+      <c r="O20" s="5" t="n">
+        <v>407451.541633032</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>3658305.90539115</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>5277491.70205505</v>
+      </c>
+      <c r="R20" s="5" t="n">
+        <v>13449970.6821666</v>
+      </c>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
+      <c r="U20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5" t="n">
+        <v>128070668.520252</v>
+      </c>
+      <c r="W20" s="5" t="n">
+        <v>109823661.788556</v>
+      </c>
+      <c r="X20" s="5" t="n">
+        <v>104205020.26664</v>
+      </c>
       <c r="Y20" s="5" t="n">
-        <v>1174633370.23208</v>
+        <v>243057542.784228</v>
       </c>
       <c r="Z20" s="5" t="n">
-        <v>571263173.401171</v>
+        <v>473948055.989703</v>
       </c>
       <c r="AA20" s="5" t="n">
-        <v>480566564.475561</v>
+        <v>484054389.787809</v>
       </c>
       <c r="AB20" s="5" t="n">
-        <v>226879728.950365</v>
+        <v>231623090.4593</v>
       </c>
       <c r="AC20" s="5" t="n">
-        <v>129749602.935987</v>
+        <v>120214800.668203</v>
       </c>
       <c r="AD20" s="5" t="n">
-        <v>48765086.7204176</v>
+        <v>50057593.5482777</v>
       </c>
       <c r="AE20" s="5" t="n">
-        <v>53347973.6637545</v>
+        <v>43947748.9189291</v>
       </c>
       <c r="AF20" s="5" t="n">
-        <v>21511686.0849076</v>
+        <v>7367742.54193358</v>
       </c>
       <c r="AG20" s="5" t="n">
-        <v>15260743.3187073</v>
+        <v>4215683.46954136</v>
       </c>
       <c r="AH20" s="5" t="n">
-        <v>9258719.84761169</v>
+        <v>1152397.27034126</v>
       </c>
       <c r="AI20" s="5" t="n">
-        <v>633889443.103906</v>
+        <v>3254446.79020086</v>
       </c>
       <c r="AJ20" s="5" t="n">
-        <v>670298533.47244</v>
+        <v>309561.714016416</v>
       </c>
       <c r="AK20" s="5" t="n">
-        <v>754390529.171158</v>
-      </c>
-      <c r="AL20" s="5" t="n">
-        <v>433005983.816413</v>
-      </c>
+        <v>-28453.3466382381</v>
+      </c>
+      <c r="AL20" s="5"/>
       <c r="AM20" s="5" t="n">
-        <v>467581195.005577</v>
+        <v>1040815.88574177</v>
       </c>
       <c r="AN20" s="5" t="n">
-        <v>446199489.938041</v>
+        <v>146083.556344438</v>
       </c>
       <c r="AO20" s="5" t="n">
-        <v>38343999.9234665</v>
+        <v>24893.3428580538</v>
       </c>
       <c r="AP20" s="5" t="n">
-        <v>127916368.159584</v>
+        <v>-3868.99644374323</v>
       </c>
       <c r="AQ20" s="5" t="n">
-        <v>601584.426868607</v>
+        <v>629125.382040169</v>
       </c>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
       <c r="AT20" s="5" t="n">
-        <v>889883.896496314</v>
+        <v>931157.216170623</v>
       </c>
       <c r="AU20" s="5"/>
       <c r="AV20" s="5"/>
-      <c r="AW20" s="5"/>
+      <c r="AW20" s="5" t="n">
+        <v>14808.5237426316</v>
+      </c>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <f>M21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>N21</f>
+      </c>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21" s="5" t="n">
-        <v>39159221227.3348</v>
+        <v>40750200551.9922</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>37075841095.001</v>
+        <v>38579533040.0956</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>36294366444.8787</v>
+        <v>37771221399.0292</v>
       </c>
       <c r="R21" s="5" t="n">
-        <v>33369645404.352</v>
+        <v>34724386857.361</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>31587983747.9476</v>
+        <v>32867101256.482</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>32767823423.5663</v>
+        <v>34094008246.7625</v>
       </c>
       <c r="U21" s="5" t="n">
-        <v>31286645512.572</v>
+        <v>32552534081.3514</v>
       </c>
       <c r="V21" s="5" t="n">
-        <v>31154027060.9063</v>
+        <v>32415136016.7922</v>
       </c>
       <c r="W21" s="5" t="n">
-        <v>29189360890.8719</v>
+        <v>30373320591.6994</v>
       </c>
       <c r="X21" s="5" t="n">
-        <v>32280454746.2768</v>
-      </c>
-      <c r="Y21" s="5" t="n">
-        <v>562766.854984851</v>
-      </c>
-      <c r="Z21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="5" t="n">
-        <v>1589499.58592294</v>
-      </c>
-      <c r="AD21" s="5" t="n">
-        <v>1562034.39203304</v>
-      </c>
-      <c r="AE21" s="5" t="n">
-        <v>280086.943011502</v>
-      </c>
-      <c r="AF21" s="5" t="n">
-        <v>907664.90159274</v>
-      </c>
-      <c r="AG21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="5" t="n">
-        <v>0</v>
-      </c>
+        <v>33597925025.8932</v>
+      </c>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
       <c r="AQ21" s="5"/>
-      <c r="AR21" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR21" s="5"/>
       <c r="AS21" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AT21" s="5"/>
-      <c r="AU21" s="5"/>
+      <c r="AU21" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="AV21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="5"/>
+      <c r="AW21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>M22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
@@ -1699,15 +1699,15 @@
     <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1748,8 +1748,8 @@
     <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1757,7 +1757,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
@@ -1696,18 +1696,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1745,11 +1745,11 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1757,7 +1757,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2163,6 +2163,12 @@
       <c r="AU1" t="s">
         <v>34</v>
       </c>
+      <c r="AV1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -2172,109 +2178,115 @@
         <v>35</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>11700035314</v>
+        <v>11895574314</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>10081161897</v>
+        <v>10215571897</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>8531471514</v>
+        <v>8562825039</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>8121304048</v>
+        <v>8344260673</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>7378565194</v>
+        <v>7441394250</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>8419664740</v>
+        <v>8492348609</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>7996254996</v>
+        <v>8095303918</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>7567531907</v>
+        <v>9170052699.2</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>7418594145</v>
+        <v>9990694049</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>8227763201</v>
+        <v>11058948344.43</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>8684401010.0859</v>
+        <v>8686125050.0859</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>9026870529.155</v>
+        <v>9027005089.1619</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>10514820347.3809</v>
+        <v>10515173791.3809</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>13790116496.9814</v>
+        <v>13791626284.0065</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>16073404596.7357</v>
+        <v>16073404598.7344</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>18719174970.8771</v>
+        <v>18719184119.8874</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>20873730896.411</v>
+        <v>20873537037.8245</v>
       </c>
       <c r="AE2" s="1" t="n">
-        <v>23775624996.113</v>
+        <v>23775625000.5701</v>
       </c>
       <c r="AF2" s="1" t="n">
-        <v>26054184072.8213</v>
+        <v>26053549374.0776</v>
       </c>
       <c r="AG2" s="1" t="n">
-        <v>23869128597.6252</v>
+        <v>23864826261.1382</v>
       </c>
       <c r="AH2" s="1" t="n">
-        <v>24805458836.7939</v>
+        <v>24782813822.1851</v>
       </c>
       <c r="AI2" s="1" t="n">
-        <v>21419605017.453</v>
+        <v>21352502729.8973</v>
       </c>
       <c r="AJ2" s="1" t="n">
-        <v>21498741071.7026</v>
+        <v>21431456774.7919</v>
       </c>
       <c r="AK2" s="1" t="n">
-        <v>17576987829.7833</v>
+        <v>17685536868.5749</v>
       </c>
       <c r="AL2" s="1" t="n">
-        <v>18110904721.8891</v>
+        <v>18018636497.9073</v>
       </c>
       <c r="AM2" s="1" t="n">
-        <v>18324353729.5785</v>
+        <v>18263551981.7829</v>
       </c>
       <c r="AN2" s="1" t="n">
-        <v>19658352960.0976</v>
+        <v>19567045930.8383</v>
       </c>
       <c r="AO2" s="1" t="n">
-        <v>21290284393.5529</v>
+        <v>21348966965.1191</v>
       </c>
       <c r="AP2" s="1" t="n">
-        <v>23540015810.139</v>
+        <v>23522409970.5785</v>
       </c>
       <c r="AQ2" s="1" t="n">
-        <v>25130504578.0061</v>
+        <v>25167741007.854</v>
       </c>
       <c r="AR2" s="1" t="n">
-        <v>23307693603.3582</v>
+        <v>23285099734.6799</v>
       </c>
       <c r="AS2" s="1" t="n">
-        <v>20830360260.9581</v>
+        <v>20883926384.8509</v>
       </c>
       <c r="AT2" s="1" t="n">
-        <v>23675639434.1056</v>
+        <v>23686069771.7942</v>
       </c>
       <c r="AU2" s="1" t="n">
-        <v>26672737311.3772</v>
-      </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+        <v>26737865221.1997</v>
+      </c>
+      <c r="AV2" s="1" t="n">
+        <v>29974534813.55</v>
+      </c>
+      <c r="AW2" s="1" t="n">
+        <v>11609251727.03</v>
+      </c>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2284,109 +2296,115 @@
         <v>36</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>3573425000</v>
+        <v>3700317000</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>3700301444</v>
+        <v>3935978444</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>4178994977</v>
+        <v>4288558977</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>3523211028</v>
+        <v>3599198028</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>3643050364</v>
+        <v>3760083364</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>3537845276</v>
+        <v>3644965276</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>3014877084</v>
+        <v>3089791084</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>3737151692</v>
+        <v>4807757283</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>2993041644</v>
+        <v>3690178104</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>3386496796</v>
+        <v>4571714701</v>
       </c>
       <c r="X3" s="1" t="n">
         <v>3219854370</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>3755954516</v>
+        <v>3755954512</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>4389212277</v>
+        <v>4389212274</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>4497648362.3275</v>
+        <v>4497789570.32</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>5039304727.4075</v>
+        <v>5039304728.4075</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>5920884143.9395</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>5428838943.5233</v>
+        <v>5428838942.5222</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>6856882968.71</v>
+        <v>6856882968.125</v>
       </c>
       <c r="AF3" s="1" t="n">
-        <v>6831973921.6098</v>
+        <v>6831973921.6067</v>
       </c>
       <c r="AG3" s="1" t="n">
-        <v>6917032060.1183</v>
+        <v>6917032059.6171</v>
       </c>
       <c r="AH3" s="1" t="n">
-        <v>7619741226.0681</v>
+        <v>7622485933.2539</v>
       </c>
       <c r="AI3" s="1" t="n">
-        <v>7747507528.8668</v>
+        <v>7751506910.9609</v>
       </c>
       <c r="AJ3" s="1" t="n">
-        <v>7224439663.1544</v>
+        <v>7225058406.011</v>
       </c>
       <c r="AK3" s="1" t="n">
-        <v>5475487015.8885</v>
+        <v>5490686853.7222</v>
       </c>
       <c r="AL3" s="1" t="n">
-        <v>5882858008.7334</v>
+        <v>6008277090.7165</v>
       </c>
       <c r="AM3" s="1" t="n">
-        <v>5466011221.5931</v>
+        <v>5488012306.9559</v>
       </c>
       <c r="AN3" s="1" t="n">
-        <v>5754790956.6206</v>
+        <v>5778430374.6593</v>
       </c>
       <c r="AO3" s="1" t="n">
-        <v>6078165785.4011</v>
+        <v>6120324378.9938</v>
       </c>
       <c r="AP3" s="1" t="n">
-        <v>6908893696.6178</v>
+        <v>6909580068.2782</v>
       </c>
       <c r="AQ3" s="1" t="n">
-        <v>7373651282.9093</v>
+        <v>7365727951.9716</v>
       </c>
       <c r="AR3" s="1" t="n">
-        <v>7157770035.4279</v>
+        <v>7179705201.3361</v>
       </c>
       <c r="AS3" s="1" t="n">
-        <v>5821022507.764</v>
+        <v>5837910077.8723</v>
       </c>
       <c r="AT3" s="1" t="n">
-        <v>5828719281.4607</v>
+        <v>5840455399.3832</v>
       </c>
       <c r="AU3" s="1" t="n">
-        <v>4301260283.4259</v>
-      </c>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
+        <v>4294113711.8959</v>
+      </c>
+      <c r="AV3" s="1" t="n">
+        <v>2619999544.43</v>
+      </c>
+      <c r="AW3" s="1" t="n">
+        <v>868440274.75</v>
+      </c>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2396,109 +2414,115 @@
         <v>37</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>4428979580</v>
+        <v>4460848714.53</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>5538132392</v>
+        <v>5592848392</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>6674581467</v>
+        <v>6727671467</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>6597098423</v>
+        <v>6670899423</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>6622303904</v>
+        <v>6638850688</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>6733133651</v>
+        <v>6798058651</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>7170053638</v>
+        <v>7253661638</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>7121044477</v>
+        <v>8016642641</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>7067675774</v>
+        <v>8446292932.39</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>7957031345</v>
+        <v>10430641416.02</v>
       </c>
       <c r="X4" s="1" t="n">
-        <v>8846420884.721</v>
+        <v>8846454134.721</v>
       </c>
       <c r="Y4" s="1" t="n">
         <v>9603882636.7188</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>10899260135.868</v>
+        <v>10899260136.868</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>13190322503.9556</v>
+        <v>13190322503.9635</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>16419336769.8524</v>
+        <v>16419336767.8595</v>
       </c>
       <c r="AC4" s="1" t="n">
-        <v>17593186470.2513</v>
+        <v>17593136400.5327</v>
       </c>
       <c r="AD4" s="1" t="n">
-        <v>18899935329.9323</v>
+        <v>18898863390.013</v>
       </c>
       <c r="AE4" s="1" t="n">
-        <v>21821103970.9614</v>
+        <v>21820124947.362</v>
       </c>
       <c r="AF4" s="1" t="n">
-        <v>24066298681.1917</v>
+        <v>24064434107.0579</v>
       </c>
       <c r="AG4" s="1" t="n">
-        <v>24559523877.4905</v>
+        <v>24557135010.9782</v>
       </c>
       <c r="AH4" s="1" t="n">
-        <v>23695736414.8324</v>
+        <v>23693808629.0651</v>
       </c>
       <c r="AI4" s="1" t="n">
-        <v>23250963332.6371</v>
+        <v>23274838748.209</v>
       </c>
       <c r="AJ4" s="1" t="n">
-        <v>20897034805.8459</v>
+        <v>20917837112.4069</v>
       </c>
       <c r="AK4" s="1" t="n">
-        <v>18060160590.4853</v>
+        <v>18341468263.4896</v>
       </c>
       <c r="AL4" s="1" t="n">
-        <v>16860310396.6733</v>
+        <v>16854551606.7307</v>
       </c>
       <c r="AM4" s="1" t="n">
-        <v>15824450344.4246</v>
+        <v>15804482001.2439</v>
       </c>
       <c r="AN4" s="1" t="n">
-        <v>17891040796.044</v>
+        <v>17982760359.1884</v>
       </c>
       <c r="AO4" s="1" t="n">
-        <v>18339812913.2936</v>
+        <v>18421436453.461</v>
       </c>
       <c r="AP4" s="1" t="n">
-        <v>20508221048.9871</v>
+        <v>20530847158.8329</v>
       </c>
       <c r="AQ4" s="1" t="n">
-        <v>22448737259.3344</v>
+        <v>22400418973.7724</v>
       </c>
       <c r="AR4" s="1" t="n">
-        <v>24864370527.5907</v>
+        <v>24887118131.4188</v>
       </c>
       <c r="AS4" s="1" t="n">
-        <v>22932059656.1626</v>
+        <v>22895178761.4051</v>
       </c>
       <c r="AT4" s="1" t="n">
-        <v>24041926033.2574</v>
+        <v>24003372066.3913</v>
       </c>
       <c r="AU4" s="1" t="n">
-        <v>25400984385.957</v>
-      </c>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
+        <v>25277668374.4104</v>
+      </c>
+      <c r="AV4" s="1" t="n">
+        <v>25489757151.8325</v>
+      </c>
+      <c r="AW4" s="1" t="n">
+        <v>10674913480.69</v>
+      </c>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2551,6 +2575,8 @@
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2661,8 +2687,16 @@
       <c r="AU6" s="1" t="str">
         <f>Sum(AU2:AU5)</f>
       </c>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
+      <c r="AV6" s="1" t="str">
+        <f>Sum(AV2:AV5)</f>
+      </c>
+      <c r="AW6" s="1" t="str">
+        <f>Sum(AW2:AW5)</f>
+      </c>
+      <c r="AX6" s="1" t="str">
+        <f>Sum(AX2:AX5)</f>
+      </c>
+      <c r="AY6" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -2773,6 +2807,12 @@
       <c r="AU9" t="s">
         <v>34</v>
       </c>
+      <c r="AV9" t="s">
+        <v>550</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2782,109 +2822,115 @@
         <v>35</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>23254189516.2985</v>
+        <v>24603401486.5462</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>19346551641.7466</v>
+        <v>20399392466.0169</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>15973360195.654</v>
+        <v>16681520151.1523</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>14856418063.9802</v>
+        <v>15883110871.2434</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>13209876520.5327</v>
+        <v>13861910522.6564</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>14761080057.0267</v>
+        <v>15491048946.3616</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>13760158405.967</v>
+        <v>14493894822.3897</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>12795103283.98</v>
+        <v>16131839363.3037</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>12388589849.2531</v>
+        <v>17357871100.7967</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>13570690509.4705</v>
+        <v>18978853138.3124</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>14031647676.2415</v>
+        <v>14602882308.3756</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>14239681903.6829</v>
+        <v>14816814718.4575</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>16329156817.6176</v>
+        <v>16992153363.9598</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>21013908171.5108</v>
+        <v>21867045323.0919</v>
       </c>
       <c r="AB10" s="1" t="n">
-        <v>23908857079.2461</v>
+        <v>24877399511.2538</v>
       </c>
       <c r="AC10" s="1" t="n">
-        <v>27024025041.5841</v>
+        <v>28116781183.0878</v>
       </c>
       <c r="AD10" s="1" t="n">
-        <v>29184289224.3285</v>
+        <v>30366257480.4783</v>
       </c>
       <c r="AE10" s="1" t="n">
-        <v>32354273346.9307</v>
+        <v>33661453775.3928</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>34730638286.5973</v>
+        <v>36136311451.0451</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>31497845186.5051</v>
+        <v>32765485772.4411</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>32451188760.5493</v>
+        <v>33733698507.6417</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>27468135016.4329</v>
+        <v>28492566789.5334</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>27073364626.4295</v>
+        <v>28088232010.9654</v>
       </c>
       <c r="AK10" s="1" t="n">
-        <v>21736915215.7574</v>
+        <v>22765722712.313</v>
       </c>
       <c r="AL10" s="1" t="n">
-        <v>21972121696.5308</v>
+        <v>22778945291.4425</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>21979101499.1752</v>
+        <v>22851904370.4307</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>23385380593.4566</v>
+        <v>24288685151.5051</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>24882464176.4947</v>
+        <v>26060683979.3271</v>
       </c>
       <c r="AP10" s="1" t="n">
-        <v>26880614714.0476</v>
+        <v>28090203327.4186</v>
       </c>
       <c r="AQ10" s="1" t="n">
-        <v>28145539328.1872</v>
+        <v>29509424129.2042</v>
       </c>
       <c r="AR10" s="1" t="n">
-        <v>25760381403.1304</v>
+        <v>26949958511.3386</v>
       </c>
       <c r="AS10" s="1" t="n">
-        <v>22273645824.8465</v>
+        <v>23366644306.0954</v>
       </c>
       <c r="AT10" s="1" t="n">
-        <v>23675639434.1056</v>
+        <v>24769626806.1217</v>
       </c>
       <c r="AU10" s="1" t="n">
-        <v>25440413622.6956</v>
-      </c>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
+        <v>26737865221.1997</v>
+      </c>
+      <c r="AV10" s="1" t="n">
+        <v>29194857304.7087</v>
+      </c>
+      <c r="AW10" s="1" t="n">
+        <v>11064501548.8089</v>
+      </c>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -2894,109 +2940,115 @@
         <v>36</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>7102294988.19091</v>
+        <v>7653298813.1011</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>7101172831.84182</v>
+        <v>7859723354.35452</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>7824276493.67518</v>
+        <v>8354682323.69553</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>6445060503.85881</v>
+        <v>6850991785.43897</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>6522168497.69853</v>
+        <v>7004324377.71953</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>6202434296.50025</v>
+        <v>6648848051.11095</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>5188076952.41236</v>
+        <v>5531985883.20787</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>6318736739.36008</v>
+        <v>8457745089.4994</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>4998193000.5217</v>
+        <v>6411329939.0472</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>5585612858.21205</v>
+        <v>7845764280.49272</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>5202415461.48958</v>
+        <v>5413133490.95219</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>5924932387.12132</v>
+        <v>6164977370.18839</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>6816296732.52555</v>
+        <v>7092813641.17028</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>6853688994.89607</v>
+        <v>7131382939.36902</v>
       </c>
       <c r="AB11" s="1" t="n">
-        <v>7495861612.9668</v>
+        <v>7799517284.43487</v>
       </c>
       <c r="AC11" s="1" t="n">
-        <v>8547712258.85082</v>
+        <v>8893347211.04086</v>
       </c>
       <c r="AD11" s="1" t="n">
-        <v>7590248560.08482</v>
+        <v>7897728154.55037</v>
       </c>
       <c r="AE11" s="1" t="n">
-        <v>9330962526.27751</v>
+        <v>9707952958.93517</v>
       </c>
       <c r="AF11" s="1" t="n">
-        <v>9107128989.0216</v>
+        <v>9475957916.9753</v>
       </c>
       <c r="AG11" s="1" t="n">
-        <v>9127756972.29999</v>
+        <v>9496818164.81382</v>
       </c>
       <c r="AH11" s="1" t="n">
-        <v>9968356661.35313</v>
+        <v>10375522497.0033</v>
       </c>
       <c r="AI11" s="1" t="n">
-        <v>9935271106.55605</v>
+        <v>10343533550.7926</v>
       </c>
       <c r="AJ11" s="1" t="n">
-        <v>9097736866.07449</v>
+        <v>9469217092.11637</v>
       </c>
       <c r="AK11" s="1" t="n">
-        <v>6771364819.83992</v>
+        <v>7067891426.81279</v>
       </c>
       <c r="AL11" s="1" t="n">
-        <v>7137074269.68443</v>
+        <v>7595592217.04448</v>
       </c>
       <c r="AM11" s="1" t="n">
-        <v>6556193861.34766</v>
+        <v>6866765706.22163</v>
       </c>
       <c r="AN11" s="1" t="n">
-        <v>6845841919.18419</v>
+        <v>7172798415.05337</v>
       </c>
       <c r="AO11" s="1" t="n">
-        <v>7103697612.41126</v>
+        <v>7471079970.87293</v>
       </c>
       <c r="AP11" s="1" t="n">
-        <v>7889345149.84927</v>
+        <v>8251344537.73149</v>
       </c>
       <c r="AQ11" s="1" t="n">
-        <v>8258305818.38353</v>
+        <v>8636388545.44928</v>
       </c>
       <c r="AR11" s="1" t="n">
-        <v>7910988073.13797</v>
+        <v>8309724222.97462</v>
       </c>
       <c r="AS11" s="1" t="n">
-        <v>6224347157.32716</v>
+        <v>6531931101.78576</v>
       </c>
       <c r="AT11" s="1" t="n">
-        <v>5828719281.4607</v>
+        <v>6107636345.51103</v>
       </c>
       <c r="AU11" s="1" t="n">
-        <v>4102535087.86113</v>
-      </c>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
+        <v>4294113711.8959</v>
+      </c>
+      <c r="AV11" s="1" t="n">
+        <v>2551849872.36093</v>
+      </c>
+      <c r="AW11" s="1" t="n">
+        <v>827689759.077833</v>
+      </c>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -3006,109 +3058,115 @@
         <v>37</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>8802736722.84542</v>
+        <v>9226292820.94913</v>
       </c>
       <c r="O12" s="1" t="n">
-        <v>10628116621.4126</v>
+        <v>11168313482.7571</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>12496729755.5496</v>
+        <v>13106397320.5039</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>12068166836.513</v>
+        <v>12697905698.1364</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>11855938729.7163</v>
+        <v>12366923605.7923</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>11804309070.0393</v>
+        <v>12400463540.9425</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>12338410154.1926</v>
+        <v>12987011966.8526</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>12040187037.5662</v>
+        <v>14102775148.5992</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>11802578041.0971</v>
+        <v>14674622531.822</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>13124151378.5942</v>
+        <v>17900581990.9403</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>14293428056.3493</v>
+        <v>14872423299.3279</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>15149905312.7531</v>
+        <v>15763694403.6868</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>16926178676.8357</v>
+        <v>17612823475.2678</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>20099919091.4311</v>
+        <v>20913659787.5227</v>
       </c>
       <c r="AB12" s="1" t="n">
-        <v>24423424035.8845</v>
+        <v>25412811453.5251</v>
       </c>
       <c r="AC12" s="1" t="n">
-        <v>25398486443.6071</v>
+        <v>26425423422.8329</v>
       </c>
       <c r="AD12" s="1" t="n">
-        <v>26424656987.6344</v>
+        <v>27493555632.1666</v>
       </c>
       <c r="AE12" s="1" t="n">
-        <v>29694528018.6621</v>
+        <v>30892863059.1755</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>32080755707.3183</v>
+        <v>33377405638.6735</v>
       </c>
       <c r="AG12" s="1" t="n">
-        <v>32408894936.5515</v>
+        <v>33715998977.306</v>
       </c>
       <c r="AH12" s="1" t="n">
-        <v>30999419130.9761</v>
+        <v>32251373977.3626</v>
       </c>
       <c r="AI12" s="1" t="n">
-        <v>29816637587.9769</v>
+        <v>31057712809.4883</v>
       </c>
       <c r="AJ12" s="1" t="n">
-        <v>26315635925.9807</v>
+        <v>27415078132.8103</v>
       </c>
       <c r="AK12" s="1" t="n">
-        <v>22334439970.0357</v>
+        <v>23610070970.774</v>
       </c>
       <c r="AL12" s="1" t="n">
-        <v>20454902588.5631</v>
+        <v>21307323059.9941</v>
       </c>
       <c r="AM12" s="1" t="n">
-        <v>18980598465.9284</v>
+        <v>19775042208.4851</v>
       </c>
       <c r="AN12" s="1" t="n">
-        <v>21283003671.6601</v>
+        <v>22322102481.0351</v>
       </c>
       <c r="AO12" s="1" t="n">
-        <v>21434177645.6885</v>
+        <v>22487047483.0596</v>
       </c>
       <c r="AP12" s="1" t="n">
-        <v>23418573417.0536</v>
+        <v>24517711913.7503</v>
       </c>
       <c r="AQ12" s="1" t="n">
-        <v>25142026712.5758</v>
+        <v>26264711797.6396</v>
       </c>
       <c r="AR12" s="1" t="n">
-        <v>27480868722.558</v>
+        <v>28804119748.2867</v>
       </c>
       <c r="AS12" s="1" t="n">
-        <v>24520966916.3986</v>
+        <v>25616997904.6803</v>
       </c>
       <c r="AT12" s="1" t="n">
-        <v>24041926033.2574</v>
+        <v>25101444600.193</v>
       </c>
       <c r="AU12" s="1" t="n">
-        <v>24227417743.3876</v>
-      </c>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
+        <v>25277668374.4104</v>
+      </c>
+      <c r="AV12" s="1" t="n">
+        <v>24826734673.5612</v>
+      </c>
+      <c r="AW12" s="1" t="n">
+        <v>10174006001.2216</v>
+      </c>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3129,7 +3187,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1" t="n">
-        <v>21046.6999992214</v>
+        <v>21899.3940981609</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1" t="n">
@@ -3161,6 +3219,8 @@
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3202,6 +3262,8 @@
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4845,6 +4907,12 @@
       <c r="AV1" t="s">
         <v>34</v>
       </c>
+      <c r="AW1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -4859,109 +4927,115 @@
       <c r="N2" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="2" t="n">
-        <v>6661658000</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>6700563000</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>5742264395</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>5759755904</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>6835234236</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>5863702027</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>5071457656</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>5149195469</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>4458562507</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>5372241611</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>6220843427.6992</v>
-      </c>
-      <c r="Z2" s="2" t="n">
-        <v>6231182309.3674</v>
-      </c>
-      <c r="AA2" s="2" t="n">
-        <v>6897133013.4434</v>
-      </c>
-      <c r="AB2" s="2" t="n">
-        <v>8170110388.449</v>
-      </c>
-      <c r="AC2" s="2" t="n">
-        <v>9417999635.0749</v>
-      </c>
-      <c r="AD2" s="2" t="n">
-        <v>9796014474.4215</v>
-      </c>
-      <c r="AE2" s="2" t="n">
-        <v>9979829664.507</v>
-      </c>
-      <c r="AF2" s="2" t="n">
-        <v>11645743784.3225</v>
-      </c>
-      <c r="AG2" s="2" t="n">
-        <v>10767499855.9391</v>
-      </c>
-      <c r="AH2" s="2" t="n">
-        <v>10810598638.093</v>
-      </c>
-      <c r="AI2" s="2" t="n">
-        <v>9987160410.177</v>
-      </c>
-      <c r="AJ2" s="2" t="n">
-        <v>9781491145.6566</v>
-      </c>
-      <c r="AK2" s="2" t="n">
-        <v>10567857651.0198</v>
-      </c>
-      <c r="AL2" s="2" t="n">
-        <v>8413506656.3357</v>
-      </c>
-      <c r="AM2" s="2" t="n">
-        <v>8970279015.2448</v>
-      </c>
-      <c r="AN2" s="2" t="n">
-        <v>8470856610.7911</v>
-      </c>
-      <c r="AO2" s="2" t="n">
-        <v>9806367292.4392</v>
-      </c>
-      <c r="AP2" s="2" t="n">
-        <v>10825628755.8145</v>
-      </c>
-      <c r="AQ2" s="2" t="n">
-        <v>12063271848.3711</v>
-      </c>
-      <c r="AR2" s="2" t="n">
-        <v>12827417611.6526</v>
-      </c>
-      <c r="AS2" s="2" t="n">
-        <v>12427959601.331</v>
-      </c>
-      <c r="AT2" s="2" t="n">
-        <v>12108663624.245</v>
-      </c>
-      <c r="AU2" s="2" t="n">
-        <v>13386763122.6948</v>
-      </c>
-      <c r="AV2" s="2" t="n">
-        <v>6540122909.4686</v>
-      </c>
-      <c r="AW2" s="2"/>
+      <c r="O2" s="13" t="n">
+        <v>6904544000</v>
+      </c>
+      <c r="P2" s="13" t="n">
+        <v>6858530000</v>
+      </c>
+      <c r="Q2" s="13" t="n">
+        <v>5812264395</v>
+      </c>
+      <c r="R2" s="13" t="n">
+        <v>6051983904</v>
+      </c>
+      <c r="S2" s="13" t="n">
+        <v>6929069201</v>
+      </c>
+      <c r="T2" s="13" t="n">
+        <v>6001570027</v>
+      </c>
+      <c r="U2" s="13" t="n">
+        <v>5166630656</v>
+      </c>
+      <c r="V2" s="13" t="n">
+        <v>6250999483</v>
+      </c>
+      <c r="W2" s="13" t="n">
+        <v>6091863889</v>
+      </c>
+      <c r="X2" s="13" t="n">
+        <v>7505970542</v>
+      </c>
+      <c r="Y2" s="13" t="n">
+        <v>6220862677.6992</v>
+      </c>
+      <c r="Z2" s="13" t="n">
+        <v>6231182308.3724</v>
+      </c>
+      <c r="AA2" s="13" t="n">
+        <v>6897133017.4434</v>
+      </c>
+      <c r="AB2" s="13" t="n">
+        <v>8170110392.4493</v>
+      </c>
+      <c r="AC2" s="13" t="n">
+        <v>9417999634.0743</v>
+      </c>
+      <c r="AD2" s="13" t="n">
+        <v>9796014469.0519</v>
+      </c>
+      <c r="AE2" s="13" t="n">
+        <v>9979829660.4647</v>
+      </c>
+      <c r="AF2" s="13" t="n">
+        <v>11645743793.9818</v>
+      </c>
+      <c r="AG2" s="13" t="n">
+        <v>10767607919.356</v>
+      </c>
+      <c r="AH2" s="13" t="n">
+        <v>10808043100.9871</v>
+      </c>
+      <c r="AI2" s="13" t="n">
+        <v>9973698680.9733</v>
+      </c>
+      <c r="AJ2" s="13" t="n">
+        <v>9724850771.7809</v>
+      </c>
+      <c r="AK2" s="13" t="n">
+        <v>10507984427.1079</v>
+      </c>
+      <c r="AL2" s="13" t="n">
+        <v>8371518958.5057</v>
+      </c>
+      <c r="AM2" s="13" t="n">
+        <v>8946404179.8855</v>
+      </c>
+      <c r="AN2" s="13" t="n">
+        <v>8413480848.5642</v>
+      </c>
+      <c r="AO2" s="13" t="n">
+        <v>9780085091.272</v>
+      </c>
+      <c r="AP2" s="13" t="n">
+        <v>10876128700.6579</v>
+      </c>
+      <c r="AQ2" s="13" t="n">
+        <v>12046878516.2695</v>
+      </c>
+      <c r="AR2" s="13" t="n">
+        <v>12831869079.6119</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>12456304633.7211</v>
+      </c>
+      <c r="AT2" s="13" t="n">
+        <v>12128043781.693</v>
+      </c>
+      <c r="AU2" s="13" t="n">
+        <v>13378147135.7025</v>
+      </c>
+      <c r="AV2" s="13" t="n">
+        <v>13670616316.6985</v>
+      </c>
+      <c r="AW2" s="13" t="n">
+        <v>13460184011.4925</v>
+      </c>
+      <c r="AX2" s="13" t="n">
+        <v>5489970876.55</v>
+      </c>
+      <c r="AY2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -4976,109 +5050,115 @@
       <c r="N3" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="2" t="n">
-        <v>4381421000</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>4283465000</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>4481070522</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>4990730082</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>2540178984</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>5546896429</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>6094007609</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>6073548488</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>5395048586</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>5857339429</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>4578792855.9665</v>
-      </c>
-      <c r="Z3" s="2" t="n">
-        <v>6382222488.2063</v>
-      </c>
-      <c r="AA3" s="2" t="n">
-        <v>6829551284.3173</v>
-      </c>
-      <c r="AB3" s="2" t="n">
-        <v>9328096423.7714</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>11718340385.8563</v>
-      </c>
-      <c r="AD3" s="2" t="n">
-        <v>15482354726.8009</v>
-      </c>
-      <c r="AE3" s="2" t="n">
-        <v>16369185977.3895</v>
-      </c>
-      <c r="AF3" s="2" t="n">
-        <v>19994564304.9331</v>
-      </c>
-      <c r="AG3" s="2" t="n">
-        <v>24928318242.9471</v>
-      </c>
-      <c r="AH3" s="2" t="n">
-        <v>22926496775.0749</v>
-      </c>
-      <c r="AI3" s="2" t="n">
-        <v>22279603997.5926</v>
-      </c>
-      <c r="AJ3" s="2" t="n">
-        <v>17504111246.6376</v>
-      </c>
-      <c r="AK3" s="2" t="n">
-        <v>15394581971.9816</v>
-      </c>
-      <c r="AL3" s="2" t="n">
-        <v>11790390777.6222</v>
-      </c>
-      <c r="AM3" s="2" t="n">
-        <v>10974655365.3427</v>
-      </c>
-      <c r="AN3" s="2" t="n">
-        <v>10292630027.9382</v>
-      </c>
-      <c r="AO3" s="2" t="n">
-        <v>11025957345.7779</v>
-      </c>
-      <c r="AP3" s="2" t="n">
-        <v>11213777272.4046</v>
-      </c>
-      <c r="AQ3" s="2" t="n">
-        <v>12646339956.3991</v>
-      </c>
-      <c r="AR3" s="2" t="n">
-        <v>11804220061.1826</v>
-      </c>
-      <c r="AS3" s="2" t="n">
-        <v>11762391476.3707</v>
-      </c>
-      <c r="AT3" s="2" t="n">
-        <v>10114146856.1204</v>
-      </c>
-      <c r="AU3" s="2" t="n">
-        <v>10722139023.4111</v>
-      </c>
-      <c r="AV3" s="2" t="n">
-        <v>4343182765.9998</v>
-      </c>
-      <c r="AW3" s="2"/>
+      <c r="O3" s="13" t="n">
+        <v>4419741134.53</v>
+      </c>
+      <c r="P3" s="13" t="n">
+        <v>4299187000</v>
+      </c>
+      <c r="Q3" s="13" t="n">
+        <v>4502403465</v>
+      </c>
+      <c r="R3" s="13" t="n">
+        <v>5021341707</v>
+      </c>
+      <c r="S3" s="13" t="n">
+        <v>2534031984</v>
+      </c>
+      <c r="T3" s="13" t="n">
+        <v>5631956298</v>
+      </c>
+      <c r="U3" s="13" t="n">
+        <v>6200365609</v>
+      </c>
+      <c r="V3" s="13" t="n">
+        <v>7535414006.2</v>
+      </c>
+      <c r="W3" s="13" t="n">
+        <v>6784040633</v>
+      </c>
+      <c r="X3" s="13" t="n">
+        <v>7735632683.31</v>
+      </c>
+      <c r="Y3" s="13" t="n">
+        <v>4580530895.9665</v>
+      </c>
+      <c r="Z3" s="13" t="n">
+        <v>6382222467.1912</v>
+      </c>
+      <c r="AA3" s="13" t="n">
+        <v>6829597972.3017</v>
+      </c>
+      <c r="AB3" s="13" t="n">
+        <v>9322517559.2423</v>
+      </c>
+      <c r="AC3" s="13" t="n">
+        <v>11718340388.3056</v>
+      </c>
+      <c r="AD3" s="13" t="n">
+        <v>15482354724.6472</v>
+      </c>
+      <c r="AE3" s="13" t="n">
+        <v>16368438909.2554</v>
+      </c>
+      <c r="AF3" s="13" t="n">
+        <v>19993837560.0241</v>
+      </c>
+      <c r="AG3" s="13" t="n">
+        <v>24927282899.8378</v>
+      </c>
+      <c r="AH3" s="13" t="n">
+        <v>22925357499.7923</v>
+      </c>
+      <c r="AI3" s="13" t="n">
+        <v>22279474215.9459</v>
+      </c>
+      <c r="AJ3" s="13" t="n">
+        <v>17500742881.2913</v>
+      </c>
+      <c r="AK3" s="13" t="n">
+        <v>15394594295.4761</v>
+      </c>
+      <c r="AL3" s="13" t="n">
+        <v>11972796371.0325</v>
+      </c>
+      <c r="AM3" s="13" t="n">
+        <v>10901495723.4415</v>
+      </c>
+      <c r="AN3" s="13" t="n">
+        <v>10278630136.8088</v>
+      </c>
+      <c r="AO3" s="13" t="n">
+        <v>11054840911.99</v>
+      </c>
+      <c r="AP3" s="13" t="n">
+        <v>11207115747.4204</v>
+      </c>
+      <c r="AQ3" s="13" t="n">
+        <v>12645108763.6318</v>
+      </c>
+      <c r="AR3" s="13" t="n">
+        <v>11770170606.6276</v>
+      </c>
+      <c r="AS3" s="13" t="n">
+        <v>11712507895.8049</v>
+      </c>
+      <c r="AT3" s="13" t="n">
+        <v>10086127686.9593</v>
+      </c>
+      <c r="AU3" s="13" t="n">
+        <v>10703176071.4727</v>
+      </c>
+      <c r="AV3" s="13" t="n">
+        <v>11320660880.5034</v>
+      </c>
+      <c r="AW3" s="13" t="n">
+        <v>11915325110.77</v>
+      </c>
+      <c r="AX3" s="13" t="n">
+        <v>4146419728.76</v>
+      </c>
+      <c r="AY3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5093,109 +5173,115 @@
       <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="2" t="n">
-        <v>430743000</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>404202000</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>324645828</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>327736540</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>228114942</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>372179135</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>437479944</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>570741667</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>626754765</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>794787483</v>
-      </c>
-      <c r="Y4" s="2" t="n">
+      <c r="O4" s="13" t="n">
+        <v>430942000</v>
+      </c>
+      <c r="P4" s="13" t="n">
+        <v>404258000</v>
+      </c>
+      <c r="Q4" s="13" t="n">
+        <v>324808828</v>
+      </c>
+      <c r="R4" s="13" t="n">
+        <v>328107540</v>
+      </c>
+      <c r="S4" s="13" t="n">
+        <v>228554942</v>
+      </c>
+      <c r="T4" s="13" t="n">
+        <v>372293135</v>
+      </c>
+      <c r="U4" s="13" t="n">
+        <v>440514944</v>
+      </c>
+      <c r="V4" s="13" t="n">
+        <v>589116273</v>
+      </c>
+      <c r="W4" s="13" t="n">
+        <v>758381115</v>
+      </c>
+      <c r="X4" s="13" t="n">
+        <v>1004111092</v>
+      </c>
+      <c r="Y4" s="13" t="n">
         <v>844139727</v>
       </c>
-      <c r="Z4" s="2" t="n">
-        <v>926507537.6719</v>
-      </c>
-      <c r="AA4" s="2" t="n">
+      <c r="Z4" s="13" t="n">
+        <v>926642097.6719</v>
+      </c>
+      <c r="AA4" s="13" t="n">
         <v>1155517218</v>
       </c>
-      <c r="AB4" s="2" t="n">
-        <v>1451703267.8398</v>
-      </c>
-      <c r="AC4" s="2" t="n">
+      <c r="AB4" s="13" t="n">
+        <v>1451703267.84</v>
+      </c>
+      <c r="AC4" s="13" t="n">
         <v>1557867707.6127</v>
       </c>
-      <c r="AD4" s="2" t="n">
-        <v>1646017618.0913</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>1509991032.2159</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>1275999627.3959</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>1501608133.1676</v>
-      </c>
-      <c r="AH4" s="2" t="n">
-        <v>1431069075.6025</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>1818954682.6731</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>2087954419.6087</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>1910056953.2236</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>1843237476.0981</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>1688848199.5978</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>1869537027.1707</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>2048012943.9336</v>
-      </c>
-      <c r="AP4" s="2" t="n">
-        <v>2076715835.9577</v>
-      </c>
-      <c r="AQ4" s="2" t="n">
-        <v>2986249974.1152</v>
-      </c>
-      <c r="AR4" s="2" t="n">
-        <v>3401538442.3926</v>
-      </c>
-      <c r="AS4" s="2" t="n">
-        <v>3048652916.2152</v>
-      </c>
-      <c r="AT4" s="2" t="n">
-        <v>2751539026.2907</v>
-      </c>
-      <c r="AU4" s="2" t="n">
-        <v>2572749611.4303</v>
-      </c>
-      <c r="AV4" s="2" t="n">
-        <v>1449302128.5882</v>
-      </c>
-      <c r="AW4" s="2"/>
+      <c r="AD4" s="13" t="n">
+        <v>1646017618.0912</v>
+      </c>
+      <c r="AE4" s="13" t="n">
+        <v>1509991032.1236</v>
+      </c>
+      <c r="AF4" s="13" t="n">
+        <v>1275999627.4244</v>
+      </c>
+      <c r="AG4" s="13" t="n">
+        <v>1501608133.0936</v>
+      </c>
+      <c r="AH4" s="13" t="n">
+        <v>1431069076.507</v>
+      </c>
+      <c r="AI4" s="13" t="n">
+        <v>1812705241.2068</v>
+      </c>
+      <c r="AJ4" s="13" t="n">
+        <v>2084860250.27</v>
+      </c>
+      <c r="AK4" s="13" t="n">
+        <v>1903493361.0876</v>
+      </c>
+      <c r="AL4" s="13" t="n">
+        <v>1857050670.6415</v>
+      </c>
+      <c r="AM4" s="13" t="n">
+        <v>1687835242.4139</v>
+      </c>
+      <c r="AN4" s="13" t="n">
+        <v>1864088245.0896</v>
+      </c>
+      <c r="AO4" s="13" t="n">
+        <v>2058880988.3146</v>
+      </c>
+      <c r="AP4" s="13" t="n">
+        <v>2100323417.1684</v>
+      </c>
+      <c r="AQ4" s="13" t="n">
+        <v>2991991629.3989</v>
+      </c>
+      <c r="AR4" s="13" t="n">
+        <v>3428524861.471</v>
+      </c>
+      <c r="AS4" s="13" t="n">
+        <v>3075175046.4628</v>
+      </c>
+      <c r="AT4" s="13" t="n">
+        <v>2780296455.2674</v>
+      </c>
+      <c r="AU4" s="13" t="n">
+        <v>2620125572.9689</v>
+      </c>
+      <c r="AV4" s="13" t="n">
+        <v>3885809197.0129</v>
+      </c>
+      <c r="AW4" s="13" t="n">
+        <v>4793154092.16</v>
+      </c>
+      <c r="AX4" s="13" t="n">
+        <v>2167344134.68</v>
+      </c>
+      <c r="AY4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5210,109 +5296,115 @@
       <c r="N5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="2" t="n">
-        <v>7523961894</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>6608223733</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>6907147137</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>5328978016</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>5844414206</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>4982669486</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>4407502006</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>4620424438</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>4606938958</v>
-      </c>
-      <c r="X5" s="2" t="n">
-        <v>5031670276</v>
-      </c>
-      <c r="Y5" s="2" t="n">
+      <c r="O5" s="13" t="n">
+        <v>7596659894</v>
+      </c>
+      <c r="P5" s="13" t="n">
+        <v>6857449733</v>
+      </c>
+      <c r="Q5" s="13" t="n">
+        <v>7007143719</v>
+      </c>
+      <c r="R5" s="13" t="n">
+        <v>5371446016</v>
+      </c>
+      <c r="S5" s="13" t="n">
+        <v>5949776081</v>
+      </c>
+      <c r="T5" s="13" t="n">
+        <v>4988444486</v>
+      </c>
+      <c r="U5" s="13" t="n">
+        <v>4443405928</v>
+      </c>
+      <c r="V5" s="13" t="n">
+        <v>5462882649</v>
+      </c>
+      <c r="W5" s="13" t="n">
+        <v>5880479597.07</v>
+      </c>
+      <c r="X5" s="13" t="n">
+        <v>6924265171</v>
+      </c>
+      <c r="Y5" s="13" t="n">
         <v>6575625378.7397</v>
       </c>
-      <c r="Z5" s="2" t="n">
-        <v>5743759214.4297</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>7166306642.8233</v>
-      </c>
-      <c r="AB5" s="2" t="n">
-        <v>7905418613.7131</v>
-      </c>
-      <c r="AC5" s="2" t="n">
-        <v>9779610855.8585</v>
-      </c>
-      <c r="AD5" s="2" t="n">
-        <v>9827445480.9331</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>11778838777.1185</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>14034876106.4497</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>14193980839.0803</v>
-      </c>
-      <c r="AH5" s="2" t="n">
-        <v>13896340897.2904</v>
-      </c>
-      <c r="AI5" s="2" t="n">
-        <v>14454005952.2641</v>
-      </c>
-      <c r="AJ5" s="2" t="n">
-        <v>15101285121.0824</v>
-      </c>
-      <c r="AK5" s="2" t="n">
-        <v>13708104218.1037</v>
-      </c>
-      <c r="AL5" s="2" t="n">
-        <v>12289254335.4849</v>
-      </c>
-      <c r="AM5" s="2" t="n">
-        <v>11690213513.2683</v>
-      </c>
-      <c r="AN5" s="2" t="n">
-        <v>11640212967.2193</v>
-      </c>
-      <c r="AO5" s="2" t="n">
-        <v>12335478072.7244</v>
-      </c>
-      <c r="AP5" s="2" t="n">
-        <v>12740119691.9783</v>
-      </c>
-      <c r="AQ5" s="2" t="n">
-        <v>13121824738.059</v>
-      </c>
-      <c r="AR5" s="2" t="n">
-        <v>15089195720.6191</v>
-      </c>
-      <c r="AS5" s="2" t="n">
-        <v>15945296894.1789</v>
-      </c>
-      <c r="AT5" s="2" t="n">
-        <v>14205481334.4585</v>
-      </c>
-      <c r="AU5" s="2" t="n">
-        <v>15859287682.3123</v>
-      </c>
-      <c r="AV5" s="2" t="n">
-        <v>7751837394.8186</v>
-      </c>
-      <c r="AW5" s="2"/>
+      <c r="Z5" s="13" t="n">
+        <v>5743759210.4297</v>
+      </c>
+      <c r="AA5" s="13" t="n">
+        <v>7166613394.8302</v>
+      </c>
+      <c r="AB5" s="13" t="n">
+        <v>7907048109.7339</v>
+      </c>
+      <c r="AC5" s="13" t="n">
+        <v>9779610861.7269</v>
+      </c>
+      <c r="AD5" s="13" t="n">
+        <v>9827454629.9293</v>
+      </c>
+      <c r="AE5" s="13" t="n">
+        <v>11778838774.8369</v>
+      </c>
+      <c r="AF5" s="13" t="n">
+        <v>14034876115.0913</v>
+      </c>
+      <c r="AG5" s="13" t="n">
+        <v>14193971484.5345</v>
+      </c>
+      <c r="AH5" s="13" t="n">
+        <v>13895498098.6057</v>
+      </c>
+      <c r="AI5" s="13" t="n">
+        <v>14454008004.0159</v>
+      </c>
+      <c r="AJ5" s="13" t="n">
+        <v>15100503025.0901</v>
+      </c>
+      <c r="AK5" s="13" t="n">
+        <v>13708493313.2074</v>
+      </c>
+      <c r="AL5" s="13" t="n">
+        <v>12403650718.4226</v>
+      </c>
+      <c r="AM5" s="13" t="n">
+        <v>11691388304.7249</v>
+      </c>
+      <c r="AN5" s="13" t="n">
+        <v>11660815511.504</v>
+      </c>
+      <c r="AO5" s="13" t="n">
+        <v>12341069956.982</v>
+      </c>
+      <c r="AP5" s="13" t="n">
+        <v>12784421257.8799</v>
+      </c>
+      <c r="AQ5" s="13" t="n">
+        <v>13122936075.5069</v>
+      </c>
+      <c r="AR5" s="13" t="n">
+        <v>15086726447.4958</v>
+      </c>
+      <c r="AS5" s="13" t="n">
+        <v>15925901441.8149</v>
+      </c>
+      <c r="AT5" s="13" t="n">
+        <v>14187710740.8425</v>
+      </c>
+      <c r="AU5" s="13" t="n">
+        <v>15785216806.4256</v>
+      </c>
+      <c r="AV5" s="13" t="n">
+        <v>16680339147.4871</v>
+      </c>
+      <c r="AW5" s="13" t="n">
+        <v>17296727584.19</v>
+      </c>
+      <c r="AX5" s="13" t="n">
+        <v>6675384529.69</v>
+      </c>
+      <c r="AY5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5327,109 +5419,115 @@
       <c r="N6" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="2" t="n">
-        <v>704656000</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>1323142000</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>1929920076</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>1834412957</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>2195977094</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>1925196590</v>
-      </c>
-      <c r="U6" s="2" t="n">
-        <v>2170738503</v>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>2011818014</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>2392006747</v>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>2515252543</v>
-      </c>
-      <c r="Y6" s="2" t="n">
+      <c r="O6" s="13" t="n">
+        <v>704853000</v>
+      </c>
+      <c r="P6" s="13" t="n">
+        <v>1324974000</v>
+      </c>
+      <c r="Q6" s="13" t="n">
+        <v>1932435076</v>
+      </c>
+      <c r="R6" s="13" t="n">
+        <v>1841478957</v>
+      </c>
+      <c r="S6" s="13" t="n">
+        <v>2198896094</v>
+      </c>
+      <c r="T6" s="13" t="n">
+        <v>1941108590</v>
+      </c>
+      <c r="U6" s="13" t="n">
+        <v>2187839503</v>
+      </c>
+      <c r="V6" s="13" t="n">
+        <v>2156040212</v>
+      </c>
+      <c r="W6" s="13" t="n">
+        <v>2612399851.32</v>
+      </c>
+      <c r="X6" s="13" t="n">
+        <v>2891324973.14</v>
+      </c>
+      <c r="Y6" s="13" t="n">
         <v>2531274875.4015</v>
       </c>
-      <c r="Z6" s="2" t="n">
+      <c r="Z6" s="13" t="n">
         <v>3103049496.2155</v>
       </c>
-      <c r="AA6" s="2" t="n">
-        <v>3754784593.6674</v>
-      </c>
-      <c r="AB6" s="2" t="n">
-        <v>4628359028.0245</v>
-      </c>
-      <c r="AC6" s="2" t="n">
-        <v>5058227503.2728</v>
-      </c>
-      <c r="AD6" s="2" t="n">
-        <v>5481413289.351</v>
-      </c>
-      <c r="AE6" s="2" t="n">
-        <v>5564659728.3092</v>
-      </c>
-      <c r="AF6" s="2" t="n">
-        <v>5503088444.5165</v>
-      </c>
-      <c r="AG6" s="2" t="n">
-        <v>5561049613.1652</v>
-      </c>
-      <c r="AH6" s="2" t="n">
-        <v>6281179143.512</v>
-      </c>
-      <c r="AI6" s="2" t="n">
-        <v>7581211434.9876</v>
-      </c>
-      <c r="AJ6" s="2" t="n">
-        <v>7943233945.9716</v>
-      </c>
-      <c r="AK6" s="2" t="n">
-        <v>8039614746.3742</v>
-      </c>
-      <c r="AL6" s="2" t="n">
-        <v>6776246190.6162</v>
-      </c>
-      <c r="AM6" s="2" t="n">
-        <v>7530077033.8422</v>
-      </c>
-      <c r="AN6" s="2" t="n">
-        <v>7341716162.4769</v>
-      </c>
-      <c r="AO6" s="2" t="n">
-        <v>8088369057.8871</v>
-      </c>
-      <c r="AP6" s="2" t="n">
-        <v>8852021536.0925</v>
-      </c>
-      <c r="AQ6" s="2" t="n">
-        <v>10165986237.9771</v>
-      </c>
-      <c r="AR6" s="2" t="n">
-        <v>11802878479.405</v>
-      </c>
-      <c r="AS6" s="2" t="n">
-        <v>12172379783.5836</v>
-      </c>
-      <c r="AT6" s="2" t="n">
-        <v>10424653256.3005</v>
-      </c>
-      <c r="AU6" s="2" t="n">
-        <v>11046884426.0295</v>
-      </c>
-      <c r="AV6" s="2" t="n">
-        <v>4810104021.6876</v>
-      </c>
-      <c r="AW6" s="2"/>
+      <c r="AA6" s="13" t="n">
+        <v>3754784599.6736</v>
+      </c>
+      <c r="AB6" s="13" t="n">
+        <v>4628359029.0245</v>
+      </c>
+      <c r="AC6" s="13" t="n">
+        <v>5058227503.2819</v>
+      </c>
+      <c r="AD6" s="13" t="n">
+        <v>5481363222.64</v>
+      </c>
+      <c r="AE6" s="13" t="n">
+        <v>5564140993.6791</v>
+      </c>
+      <c r="AF6" s="13" t="n">
+        <v>5502175819.5355</v>
+      </c>
+      <c r="AG6" s="13" t="n">
+        <v>5559486965.9203</v>
+      </c>
+      <c r="AH6" s="13" t="n">
+        <v>6279025555.8414</v>
+      </c>
+      <c r="AI6" s="13" t="n">
+        <v>7579222242.3622</v>
+      </c>
+      <c r="AJ6" s="13" t="n">
+        <v>7967891460.6349</v>
+      </c>
+      <c r="AK6" s="13" t="n">
+        <v>8059786896.3308</v>
+      </c>
+      <c r="AL6" s="13" t="n">
+        <v>6912675267.1844</v>
+      </c>
+      <c r="AM6" s="13" t="n">
+        <v>7654341744.8887</v>
+      </c>
+      <c r="AN6" s="13" t="n">
+        <v>7339031548.0161</v>
+      </c>
+      <c r="AO6" s="13" t="n">
+        <v>8093359716.1274</v>
+      </c>
+      <c r="AP6" s="13" t="n">
+        <v>8922738674.4473</v>
+      </c>
+      <c r="AQ6" s="13" t="n">
+        <v>10155922212.8825</v>
+      </c>
+      <c r="AR6" s="13" t="n">
+        <v>11816596938.3917</v>
+      </c>
+      <c r="AS6" s="13" t="n">
+        <v>12182034049.6311</v>
+      </c>
+      <c r="AT6" s="13" t="n">
+        <v>10434836559.3661</v>
+      </c>
+      <c r="AU6" s="13" t="n">
+        <v>11043231650.999</v>
+      </c>
+      <c r="AV6" s="13" t="n">
+        <v>10752221765.8041</v>
+      </c>
+      <c r="AW6" s="13" t="n">
+        <v>10618900711.2</v>
+      </c>
+      <c r="AX6" s="13" t="n">
+        <v>4673486212.79</v>
+      </c>
+      <c r="AY6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5444,107 +5542,115 @@
       <c r="N7" t="s">
         <v>543</v>
       </c>
-      <c r="O7" s="2" t="str">
+      <c r="O7" s="13" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="2" t="str">
+      <c r="P7" s="13" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="2" t="str">
+      <c r="Q7" s="13" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="2" t="str">
+      <c r="R7" s="13" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="2" t="str">
+      <c r="S7" s="13" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="2" t="str">
+      <c r="T7" s="13" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="2" t="str">
+      <c r="U7" s="13" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="2" t="str">
+      <c r="V7" s="13" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="2" t="str">
+      <c r="W7" s="13" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="2" t="str">
+      <c r="X7" s="13" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="2" t="str">
+      <c r="Y7" s="13" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="2" t="str">
+      <c r="Z7" s="13" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="2" t="str">
+      <c r="AA7" s="13" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="2" t="str">
+      <c r="AB7" s="13" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="2" t="str">
+      <c r="AC7" s="13" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="2" t="str">
+      <c r="AD7" s="13" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="2" t="str">
+      <c r="AE7" s="13" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="2" t="str">
+      <c r="AF7" s="13" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="2" t="str">
+      <c r="AG7" s="13" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="2" t="str">
+      <c r="AH7" s="13" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="2" t="str">
+      <c r="AI7" s="13" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="2" t="str">
+      <c r="AJ7" s="13" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="2" t="str">
+      <c r="AK7" s="13" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="2" t="str">
+      <c r="AL7" s="13" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="2" t="str">
+      <c r="AM7" s="13" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="2" t="str">
+      <c r="AN7" s="13" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="2" t="str">
+      <c r="AO7" s="13" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="2" t="str">
+      <c r="AP7" s="13" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="2" t="str">
+      <c r="AQ7" s="13" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="2" t="str">
+      <c r="AR7" s="13" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="2" t="str">
+      <c r="AS7" s="13" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="2" t="str">
+      <c r="AT7" s="13" t="str">
         <f>Sum(AT2:AT6)</f>
       </c>
-      <c r="AU7" s="2" t="str">
+      <c r="AU7" s="13" t="str">
         <f>Sum(AU2:AU6)</f>
       </c>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
+      <c r="AV7" s="13" t="str">
+        <f>Sum(AV2:AV6)</f>
+      </c>
+      <c r="AW7" s="13" t="str">
+        <f>Sum(AW2:AW6)</f>
+      </c>
+      <c r="AX7" s="13" t="str">
+        <f>Sum(AX2:AX6)</f>
+      </c>
+      <c r="AY7" s="13"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -5661,6 +5767,12 @@
       <c r="AV10" t="s">
         <v>34</v>
       </c>
+      <c r="AW10" t="s">
+        <v>550</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -5675,109 +5787,115 @@
       <c r="N11" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="2" t="n">
-        <v>13240255560.5454</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>12858913430.0931</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>10751164950.794</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>10536404147.7274</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>12237148805.0144</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>10280050064.214</v>
-      </c>
-      <c r="U11" s="2" t="n">
-        <v>8727092961.7205</v>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>8706205492.74636</v>
-      </c>
-      <c r="W11" s="2" t="n">
-        <v>7445521501.36268</v>
-      </c>
-      <c r="X11" s="2" t="n">
-        <v>8860856403.36847</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>10051203661.0427</v>
-      </c>
-      <c r="Z11" s="2" t="n">
-        <v>9829547646.9578</v>
-      </c>
-      <c r="AA11" s="2" t="n">
-        <v>10711011966.6988</v>
-      </c>
-      <c r="AB11" s="2" t="n">
-        <v>12449927416.6071</v>
-      </c>
-      <c r="AC11" s="2" t="n">
-        <v>14009079774.7434</v>
-      </c>
-      <c r="AD11" s="2" t="n">
-        <v>14142062397.3196</v>
-      </c>
-      <c r="AE11" s="2" t="n">
-        <v>13953146985.7448</v>
-      </c>
-      <c r="AF11" s="2" t="n">
-        <v>15847725466.2239</v>
-      </c>
-      <c r="AG11" s="2" t="n">
-        <v>14353247129.2284</v>
-      </c>
-      <c r="AH11" s="2" t="n">
-        <v>14265730769.4917</v>
-      </c>
-      <c r="AI11" s="2" t="n">
-        <v>13065480053.6005</v>
-      </c>
-      <c r="AJ11" s="2" t="n">
-        <v>12543616898.2582</v>
-      </c>
-      <c r="AK11" s="2" t="n">
-        <v>13308103137.39</v>
-      </c>
-      <c r="AL11" s="2" t="n">
-        <v>10404722505.758</v>
-      </c>
-      <c r="AM11" s="2" t="n">
-        <v>10882728676.5294</v>
-      </c>
-      <c r="AN11" s="2" t="n">
-        <v>10160348352.8595</v>
-      </c>
-      <c r="AO11" s="2" t="n">
-        <v>11665556714.6647</v>
-      </c>
-      <c r="AP11" s="2" t="n">
-        <v>12652171043.1522</v>
-      </c>
-      <c r="AQ11" s="2" t="n">
-        <v>13775188825.7957</v>
-      </c>
-      <c r="AR11" s="2" t="n">
-        <v>14366388297.027</v>
-      </c>
-      <c r="AS11" s="2" t="n">
-        <v>13735764028.8722</v>
-      </c>
-      <c r="AT11" s="2" t="n">
-        <v>12947643804.5162</v>
-      </c>
-      <c r="AU11" s="2" t="n">
-        <v>13386763122.6948</v>
-      </c>
-      <c r="AV11" s="2" t="n">
-        <v>6237958632.35896</v>
-      </c>
-      <c r="AW11" s="2"/>
+      <c r="O11" s="13" t="n">
+        <v>14280543639.965</v>
+      </c>
+      <c r="P11" s="13" t="n">
+        <v>13695742795.4707</v>
+      </c>
+      <c r="Q11" s="13" t="n">
+        <v>11323062796.1471</v>
+      </c>
+      <c r="R11" s="13" t="n">
+        <v>11519814050.0628</v>
+      </c>
+      <c r="S11" s="13" t="n">
+        <v>12907545823.0904</v>
+      </c>
+      <c r="T11" s="13" t="n">
+        <v>10947574025.0165</v>
+      </c>
+      <c r="U11" s="13" t="n">
+        <v>9250375535.33863</v>
+      </c>
+      <c r="V11" s="13" t="n">
+        <v>10996678299.2041</v>
+      </c>
+      <c r="W11" s="13" t="n">
+        <v>10584028259.7228</v>
+      </c>
+      <c r="X11" s="13" t="n">
+        <v>12881397773.1315</v>
+      </c>
+      <c r="Y11" s="13" t="n">
+        <v>10458348805.1567</v>
+      </c>
+      <c r="Z11" s="13" t="n">
+        <v>10227785719.4225</v>
+      </c>
+      <c r="AA11" s="13" t="n">
+        <v>11145525916.0903</v>
+      </c>
+      <c r="AB11" s="13" t="n">
+        <v>12953959929.5503</v>
+      </c>
+      <c r="AC11" s="13" t="n">
+        <v>14576584447.5885</v>
+      </c>
+      <c r="AD11" s="13" t="n">
+        <v>14713910260.6546</v>
+      </c>
+      <c r="AE11" s="13" t="n">
+        <v>14518386439.8178</v>
+      </c>
+      <c r="AF11" s="13" t="n">
+        <v>16488006788.1196</v>
+      </c>
+      <c r="AG11" s="13" t="n">
+        <v>14934688082.9884</v>
+      </c>
+      <c r="AH11" s="13" t="n">
+        <v>14839026212.8157</v>
+      </c>
+      <c r="AI11" s="13" t="n">
+        <v>13575929945.8092</v>
+      </c>
+      <c r="AJ11" s="13" t="n">
+        <v>12976743927.3169</v>
+      </c>
+      <c r="AK11" s="13" t="n">
+        <v>13771845174.0238</v>
+      </c>
+      <c r="AL11" s="13" t="n">
+        <v>10776245058.6873</v>
+      </c>
+      <c r="AM11" s="13" t="n">
+        <v>11309937430.1941</v>
+      </c>
+      <c r="AN11" s="13" t="n">
+        <v>10527199745.461</v>
+      </c>
+      <c r="AO11" s="13" t="n">
+        <v>12140075123.0647</v>
+      </c>
+      <c r="AP11" s="13" t="n">
+        <v>13276490307.4435</v>
+      </c>
+      <c r="AQ11" s="13" t="n">
+        <v>14386249853.0544</v>
+      </c>
+      <c r="AR11" s="13" t="n">
+        <v>15045492836.3464</v>
+      </c>
+      <c r="AS11" s="13" t="n">
+        <v>14416811476.3711</v>
+      </c>
+      <c r="AT11" s="13" t="n">
+        <v>13569846970.0192</v>
+      </c>
+      <c r="AU11" s="13" t="n">
+        <v>13990151810.8057</v>
+      </c>
+      <c r="AV11" s="13" t="n">
+        <v>13670616316.6985</v>
+      </c>
+      <c r="AW11" s="13" t="n">
+        <v>13110066726.8072</v>
+      </c>
+      <c r="AX11" s="13" t="n">
+        <v>5232360594.35875</v>
+      </c>
+      <c r="AY11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -5792,109 +5910,115 @@
       <c r="N12" t="s">
         <v>42</v>
       </c>
-      <c r="O12" s="2" t="n">
-        <v>8708212543.83523</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>8220310086.75447</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>8389848502.98981</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>9129614173.34614</v>
-      </c>
-      <c r="S12" s="2" t="n">
-        <v>4547693194.60352</v>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>9724636881.02916</v>
-      </c>
-      <c r="U12" s="2" t="n">
-        <v>10486722855.7562</v>
-      </c>
-      <c r="V12" s="2" t="n">
-        <v>10269091846.4892</v>
-      </c>
-      <c r="W12" s="2" t="n">
-        <v>9009394885.65957</v>
-      </c>
-      <c r="X12" s="2" t="n">
-        <v>9660966007.16667</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>7398093209.05348</v>
-      </c>
-      <c r="Z12" s="2" t="n">
-        <v>10067810076.2676</v>
-      </c>
-      <c r="AA12" s="2" t="n">
-        <v>10606059849.9296</v>
-      </c>
-      <c r="AB12" s="2" t="n">
-        <v>14214510929.4065</v>
-      </c>
-      <c r="AC12" s="2" t="n">
-        <v>17430789090.4641</v>
-      </c>
-      <c r="AD12" s="2" t="n">
-        <v>22351174263.3256</v>
-      </c>
-      <c r="AE12" s="2" t="n">
-        <v>22886328289.9319</v>
-      </c>
-      <c r="AF12" s="2" t="n">
-        <v>27208941892.394</v>
-      </c>
-      <c r="AG12" s="2" t="n">
-        <v>33229841378.6109</v>
-      </c>
-      <c r="AH12" s="2" t="n">
-        <v>30253942582.6406</v>
-      </c>
-      <c r="AI12" s="2" t="n">
-        <v>29146795453.0937</v>
-      </c>
-      <c r="AJ12" s="2" t="n">
-        <v>22446972793.0808</v>
-      </c>
-      <c r="AK12" s="2" t="n">
-        <v>19386397073.6175</v>
-      </c>
-      <c r="AL12" s="2" t="n">
-        <v>14580810271.687</v>
-      </c>
-      <c r="AM12" s="2" t="n">
-        <v>13314434975.3744</v>
-      </c>
-      <c r="AN12" s="2" t="n">
-        <v>12345470045.8195</v>
-      </c>
-      <c r="AO12" s="2" t="n">
-        <v>13116368876.9659</v>
-      </c>
-      <c r="AP12" s="2" t="n">
-        <v>13105809490.6563</v>
-      </c>
-      <c r="AQ12" s="2" t="n">
-        <v>14441001002.4043</v>
-      </c>
-      <c r="AR12" s="2" t="n">
-        <v>13220432520.1397</v>
-      </c>
-      <c r="AS12" s="2" t="n">
-        <v>13000157621.7984</v>
-      </c>
-      <c r="AT12" s="2" t="n">
-        <v>10814931766.4921</v>
-      </c>
-      <c r="AU12" s="2" t="n">
-        <v>10722139023.4111</v>
-      </c>
-      <c r="AV12" s="2" t="n">
-        <v>4142520683.80202</v>
-      </c>
-      <c r="AW12" s="2"/>
+      <c r="O12" s="13" t="n">
+        <v>9141270755.75216</v>
+      </c>
+      <c r="P12" s="13" t="n">
+        <v>8585011566.85637</v>
+      </c>
+      <c r="Q12" s="13" t="n">
+        <v>8771279780.67235</v>
+      </c>
+      <c r="R12" s="13" t="n">
+        <v>9558010011.929</v>
+      </c>
+      <c r="S12" s="13" t="n">
+        <v>4720422469.72166</v>
+      </c>
+      <c r="T12" s="13" t="n">
+        <v>10273354838.9226</v>
+      </c>
+      <c r="U12" s="13" t="n">
+        <v>11101182600.1229</v>
+      </c>
+      <c r="V12" s="13" t="n">
+        <v>13256203892.3301</v>
+      </c>
+      <c r="W12" s="13" t="n">
+        <v>11786618854.7699</v>
+      </c>
+      <c r="X12" s="13" t="n">
+        <v>13275533265.5492</v>
+      </c>
+      <c r="Y12" s="13" t="n">
+        <v>7700666660.67805</v>
+      </c>
+      <c r="Z12" s="13" t="n">
+        <v>10475701171.5752</v>
+      </c>
+      <c r="AA12" s="13" t="n">
+        <v>11036391643.3472</v>
+      </c>
+      <c r="AB12" s="13" t="n">
+        <v>14781136741.6237</v>
+      </c>
+      <c r="AC12" s="13" t="n">
+        <v>18136906444.307</v>
+      </c>
+      <c r="AD12" s="13" t="n">
+        <v>23254965451.6924</v>
+      </c>
+      <c r="AE12" s="13" t="n">
+        <v>23812362493.7756</v>
+      </c>
+      <c r="AF12" s="13" t="n">
+        <v>28307211221.7166</v>
+      </c>
+      <c r="AG12" s="13" t="n">
+        <v>34574178188.293</v>
+      </c>
+      <c r="AH12" s="13" t="n">
+        <v>31475631406.9954</v>
+      </c>
+      <c r="AI12" s="13" t="n">
+        <v>30326220077.4274</v>
+      </c>
+      <c r="AJ12" s="13" t="n">
+        <v>23352816843.9692</v>
+      </c>
+      <c r="AK12" s="13" t="n">
+        <v>20176273635.0532</v>
+      </c>
+      <c r="AL12" s="13" t="n">
+        <v>15411992539.4087</v>
+      </c>
+      <c r="AM12" s="13" t="n">
+        <v>13781540834.5692</v>
+      </c>
+      <c r="AN12" s="13" t="n">
+        <v>12860930512.2941</v>
+      </c>
+      <c r="AO12" s="13" t="n">
+        <v>13722436757.2075</v>
+      </c>
+      <c r="AP12" s="13" t="n">
+        <v>13680526195.5041</v>
+      </c>
+      <c r="AQ12" s="13" t="n">
+        <v>15100649836.136</v>
+      </c>
+      <c r="AR12" s="13" t="n">
+        <v>13800640923.4613</v>
+      </c>
+      <c r="AS12" s="13" t="n">
+        <v>13555948029.0973</v>
+      </c>
+      <c r="AT12" s="13" t="n">
+        <v>11285184296.474</v>
+      </c>
+      <c r="AU12" s="13" t="n">
+        <v>11192809929.4165</v>
+      </c>
+      <c r="AV12" s="13" t="n">
+        <v>11320660880.5034</v>
+      </c>
+      <c r="AW12" s="13" t="n">
+        <v>11605391660.3533</v>
+      </c>
+      <c r="AX12" s="13" t="n">
+        <v>3951853968.68069</v>
+      </c>
+      <c r="AY12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -5909,109 +6033,115 @@
       <c r="N13" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="2" t="n">
-        <v>856115309.56948</v>
-      </c>
-      <c r="P13" s="2" t="n">
-        <v>775695792.468557</v>
-      </c>
-      <c r="Q13" s="2" t="n">
-        <v>607830048.796471</v>
-      </c>
-      <c r="R13" s="2" t="n">
-        <v>599533156.781815</v>
-      </c>
-      <c r="S13" s="2" t="n">
-        <v>408395146.899135</v>
-      </c>
-      <c r="T13" s="2" t="n">
-        <v>652492252.000281</v>
-      </c>
-      <c r="U13" s="2" t="n">
-        <v>752826583.429977</v>
-      </c>
-      <c r="V13" s="2" t="n">
-        <v>965004002.293123</v>
-      </c>
-      <c r="W13" s="2" t="n">
-        <v>1046641394.29749</v>
-      </c>
-      <c r="X13" s="2" t="n">
-        <v>1310904882.54246</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>1363901923.11784</v>
-      </c>
-      <c r="Z13" s="2" t="n">
-        <v>1461544460.53049</v>
-      </c>
-      <c r="AA13" s="2" t="n">
-        <v>1794478767.56917</v>
-      </c>
-      <c r="AB13" s="2" t="n">
-        <v>2212161091.55752</v>
-      </c>
-      <c r="AC13" s="2" t="n">
-        <v>2317296011.90088</v>
-      </c>
-      <c r="AD13" s="2" t="n">
-        <v>2376281080.73097</v>
-      </c>
-      <c r="AE13" s="2" t="n">
-        <v>2111170984.67089</v>
-      </c>
-      <c r="AF13" s="2" t="n">
-        <v>1736401913.39231</v>
-      </c>
-      <c r="AG13" s="2" t="n">
-        <v>2001667324.35345</v>
-      </c>
-      <c r="AH13" s="2" t="n">
-        <v>1888447331.04363</v>
-      </c>
-      <c r="AI13" s="2" t="n">
-        <v>2379606930.17921</v>
-      </c>
-      <c r="AJ13" s="2" t="n">
-        <v>2677557025.87598</v>
-      </c>
-      <c r="AK13" s="2" t="n">
-        <v>2405334720.73554</v>
-      </c>
-      <c r="AL13" s="2" t="n">
-        <v>2279474568.02359</v>
-      </c>
-      <c r="AM13" s="2" t="n">
-        <v>2048908032.94222</v>
-      </c>
-      <c r="AN13" s="2" t="n">
-        <v>2242411638.79761</v>
-      </c>
-      <c r="AO13" s="2" t="n">
-        <v>2436295769.61136</v>
-      </c>
-      <c r="AP13" s="2" t="n">
-        <v>2427107427.86623</v>
-      </c>
-      <c r="AQ13" s="2" t="n">
-        <v>3410033181.00793</v>
-      </c>
-      <c r="AR13" s="2" t="n">
-        <v>3809638350.45677</v>
-      </c>
-      <c r="AS13" s="2" t="n">
-        <v>3369465174.20128</v>
-      </c>
-      <c r="AT13" s="2" t="n">
-        <v>2942186547.76272</v>
-      </c>
-      <c r="AU13" s="2" t="n">
-        <v>2572749611.4303</v>
-      </c>
-      <c r="AV13" s="2" t="n">
-        <v>1382342021.55958</v>
-      </c>
-      <c r="AW13" s="2"/>
+      <c r="O13" s="13" t="n">
+        <v>891309554.590976</v>
+      </c>
+      <c r="P13" s="13" t="n">
+        <v>807259513.483415</v>
+      </c>
+      <c r="Q13" s="13" t="n">
+        <v>632770725.184284</v>
+      </c>
+      <c r="R13" s="13" t="n">
+        <v>624545258.080639</v>
+      </c>
+      <c r="S13" s="13" t="n">
+        <v>425754643.427867</v>
+      </c>
+      <c r="T13" s="13" t="n">
+        <v>679106739.750114</v>
+      </c>
+      <c r="U13" s="13" t="n">
+        <v>788701366.953037</v>
+      </c>
+      <c r="V13" s="13" t="n">
+        <v>1036365808.79991</v>
+      </c>
+      <c r="W13" s="13" t="n">
+        <v>1317614329.38346</v>
+      </c>
+      <c r="X13" s="13" t="n">
+        <v>1723208785.87129</v>
+      </c>
+      <c r="Y13" s="13" t="n">
+        <v>1419145247.63645</v>
+      </c>
+      <c r="Z13" s="13" t="n">
+        <v>1520978900.07971</v>
+      </c>
+      <c r="AA13" s="13" t="n">
+        <v>1867275441.42412</v>
+      </c>
+      <c r="AB13" s="13" t="n">
+        <v>2301719934.96883</v>
+      </c>
+      <c r="AC13" s="13" t="n">
+        <v>2411169152.73905</v>
+      </c>
+      <c r="AD13" s="13" t="n">
+        <v>2472368287.79352</v>
+      </c>
+      <c r="AE13" s="13" t="n">
+        <v>2196694139.16719</v>
+      </c>
+      <c r="AF13" s="13" t="n">
+        <v>1806556188.32039</v>
+      </c>
+      <c r="AG13" s="13" t="n">
+        <v>2082732697.79058</v>
+      </c>
+      <c r="AH13" s="13" t="n">
+        <v>1964802632.65215</v>
+      </c>
+      <c r="AI13" s="13" t="n">
+        <v>2467405538.7267</v>
+      </c>
+      <c r="AJ13" s="13" t="n">
+        <v>2782016734.95101</v>
+      </c>
+      <c r="AK13" s="13" t="n">
+        <v>2494733032.82156</v>
+      </c>
+      <c r="AL13" s="13" t="n">
+        <v>2390490090.55873</v>
+      </c>
+      <c r="AM13" s="13" t="n">
+        <v>2133741176.94089</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>2332403157.79324</v>
+      </c>
+      <c r="AO13" s="13" t="n">
+        <v>2555700654.37315</v>
+      </c>
+      <c r="AP13" s="13" t="n">
+        <v>2563864795.82998</v>
+      </c>
+      <c r="AQ13" s="13" t="n">
+        <v>3573003502.9945</v>
+      </c>
+      <c r="AR13" s="13" t="n">
+        <v>4019979156.77437</v>
+      </c>
+      <c r="AS13" s="13" t="n">
+        <v>3559179082.8297</v>
+      </c>
+      <c r="AT13" s="13" t="n">
+        <v>3110822990.77904</v>
+      </c>
+      <c r="AU13" s="13" t="n">
+        <v>2739987395.66743</v>
+      </c>
+      <c r="AV13" s="13" t="n">
+        <v>3885809197.0129</v>
+      </c>
+      <c r="AW13" s="13" t="n">
+        <v>4668477780.57373</v>
+      </c>
+      <c r="AX13" s="13" t="n">
+        <v>2065644117.19442</v>
+      </c>
+      <c r="AY13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -6026,109 +6156,115 @@
       <c r="N14" t="s">
         <v>45</v>
       </c>
-      <c r="O14" s="2" t="n">
-        <v>14954111769.8274</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>12681707031.0859</v>
-      </c>
-      <c r="Q14" s="2" t="n">
-        <v>12932159354.0611</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>9748375974.04724</v>
-      </c>
-      <c r="S14" s="2" t="n">
-        <v>10463279508.4452</v>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>8735452711.21452</v>
-      </c>
-      <c r="U14" s="2" t="n">
-        <v>7584541239.30707</v>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>7812164999.97179</v>
-      </c>
-      <c r="W14" s="2" t="n">
-        <v>7693300926.79003</v>
-      </c>
-      <c r="X14" s="2" t="n">
-        <v>8299125581.66465</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>10624435520.4545</v>
-      </c>
-      <c r="Z14" s="2" t="n">
-        <v>9060648857.28266</v>
-      </c>
-      <c r="AA14" s="2" t="n">
-        <v>11129029418.2672</v>
-      </c>
-      <c r="AB14" s="2" t="n">
-        <v>12046579943.1269</v>
-      </c>
-      <c r="AC14" s="2" t="n">
-        <v>14546968990.6798</v>
-      </c>
-      <c r="AD14" s="2" t="n">
-        <v>14187437917.7885</v>
-      </c>
-      <c r="AE14" s="2" t="n">
-        <v>16468404201.6306</v>
-      </c>
-      <c r="AF14" s="2" t="n">
-        <v>19098897211.4347</v>
-      </c>
-      <c r="AG14" s="2" t="n">
-        <v>18920800321.0215</v>
-      </c>
-      <c r="AH14" s="2" t="n">
-        <v>18337694752.9329</v>
-      </c>
-      <c r="AI14" s="2" t="n">
-        <v>18909131195.2386</v>
-      </c>
-      <c r="AJ14" s="2" t="n">
-        <v>19365629678.4909</v>
-      </c>
-      <c r="AK14" s="2" t="n">
-        <v>17262615638.5643</v>
-      </c>
-      <c r="AL14" s="2" t="n">
-        <v>15197739347.7326</v>
-      </c>
-      <c r="AM14" s="2" t="n">
-        <v>14182549017.6378</v>
-      </c>
-      <c r="AN14" s="2" t="n">
-        <v>13961825123.7728</v>
-      </c>
-      <c r="AO14" s="2" t="n">
-        <v>14674161671.5517</v>
-      </c>
-      <c r="AP14" s="2" t="n">
-        <v>14889682353.6984</v>
-      </c>
-      <c r="AQ14" s="2" t="n">
-        <v>14983962541.6522</v>
-      </c>
-      <c r="AR14" s="2" t="n">
-        <v>16899523456.3291</v>
-      </c>
-      <c r="AS14" s="2" t="n">
-        <v>17623233622.7818</v>
-      </c>
-      <c r="AT14" s="2" t="n">
-        <v>15189744970.8651</v>
-      </c>
-      <c r="AU14" s="2" t="n">
-        <v>15859287682.3123</v>
-      </c>
-      <c r="AV14" s="2" t="n">
-        <v>7393689944.82409</v>
-      </c>
-      <c r="AW14" s="2"/>
+      <c r="O14" s="13" t="n">
+        <v>15712034441.9905</v>
+      </c>
+      <c r="P14" s="13" t="n">
+        <v>13693585619.0813</v>
+      </c>
+      <c r="Q14" s="13" t="n">
+        <v>13650846375.8323</v>
+      </c>
+      <c r="R14" s="13" t="n">
+        <v>10224425620.7247</v>
+      </c>
+      <c r="S14" s="13" t="n">
+        <v>11083307898.2025</v>
+      </c>
+      <c r="T14" s="13" t="n">
+        <v>9099513133.14412</v>
+      </c>
+      <c r="U14" s="13" t="n">
+        <v>7955508381.89232</v>
+      </c>
+      <c r="V14" s="13" t="n">
+        <v>9610233250.01559</v>
+      </c>
+      <c r="W14" s="13" t="n">
+        <v>10216768360.2545</v>
+      </c>
+      <c r="X14" s="13" t="n">
+        <v>11883102052.5862</v>
+      </c>
+      <c r="Y14" s="13" t="n">
+        <v>11054766418.3989</v>
+      </c>
+      <c r="Z14" s="13" t="n">
+        <v>9427735463.50933</v>
+      </c>
+      <c r="AA14" s="13" t="n">
+        <v>11580996788.1825</v>
+      </c>
+      <c r="AB14" s="13" t="n">
+        <v>12536866633.9174</v>
+      </c>
+      <c r="AC14" s="13" t="n">
+        <v>15136263445.4516</v>
+      </c>
+      <c r="AD14" s="13" t="n">
+        <v>14761134333.9951</v>
+      </c>
+      <c r="AE14" s="13" t="n">
+        <v>17135536273.0138</v>
+      </c>
+      <c r="AF14" s="13" t="n">
+        <v>19870532681.2726</v>
+      </c>
+      <c r="AG14" s="13" t="n">
+        <v>19687059407.0659</v>
+      </c>
+      <c r="AH14" s="13" t="n">
+        <v>19077982813.2356</v>
+      </c>
+      <c r="AI14" s="13" t="n">
+        <v>19674406293.5272</v>
+      </c>
+      <c r="AJ14" s="13" t="n">
+        <v>20149960706.7373</v>
+      </c>
+      <c r="AK14" s="13" t="n">
+        <v>17966456725.1927</v>
+      </c>
+      <c r="AL14" s="13" t="n">
+        <v>15966610172.7307</v>
+      </c>
+      <c r="AM14" s="13" t="n">
+        <v>14780113612.1076</v>
+      </c>
+      <c r="AN14" s="13" t="n">
+        <v>14590362335.6463</v>
+      </c>
+      <c r="AO14" s="13" t="n">
+        <v>15319040169.7489</v>
+      </c>
+      <c r="AP14" s="13" t="n">
+        <v>15605943032.4919</v>
+      </c>
+      <c r="AQ14" s="13" t="n">
+        <v>15671265957.6454</v>
+      </c>
+      <c r="AR14" s="13" t="n">
+        <v>17689335301.1501</v>
+      </c>
+      <c r="AS14" s="13" t="n">
+        <v>18432490648.659</v>
+      </c>
+      <c r="AT14" s="13" t="n">
+        <v>15874370761.9808</v>
+      </c>
+      <c r="AU14" s="13" t="n">
+        <v>16507336722.2149</v>
+      </c>
+      <c r="AV14" s="13" t="n">
+        <v>16680339147.4871</v>
+      </c>
+      <c r="AW14" s="13" t="n">
+        <v>16846816699.573</v>
+      </c>
+      <c r="AX14" s="13" t="n">
+        <v>6362150137.17731</v>
+      </c>
+      <c r="AY14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6143,109 +6279,115 @@
       <c r="N15" t="s">
         <v>44</v>
       </c>
-      <c r="O15" s="2" t="n">
-        <v>1400526043.55727</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>2539214754.59902</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>3613363588.23736</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>3355717952.44947</v>
-      </c>
-      <c r="S15" s="2" t="n">
-        <v>3931467092.98537</v>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>3375191515.10834</v>
-      </c>
-      <c r="U15" s="2" t="n">
-        <v>3735461872.35818</v>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>3401560719.40583</v>
-      </c>
-      <c r="W15" s="2" t="n">
-        <v>3994502182.76217</v>
-      </c>
-      <c r="X15" s="2" t="n">
-        <v>4148601871.53455</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>4089856880.41192</v>
-      </c>
-      <c r="Z15" s="2" t="n">
-        <v>4894989643.95013</v>
-      </c>
-      <c r="AA15" s="2" t="n">
-        <v>5831052212.09432</v>
-      </c>
-      <c r="AB15" s="2" t="n">
-        <v>7052870918.16663</v>
-      </c>
-      <c r="AC15" s="2" t="n">
-        <v>7524008850.90779</v>
-      </c>
-      <c r="AD15" s="2" t="n">
-        <v>7913268091.417</v>
-      </c>
-      <c r="AE15" s="2" t="n">
-        <v>7780144323.59438</v>
-      </c>
-      <c r="AF15" s="2" t="n">
-        <v>7488695999.17274</v>
-      </c>
-      <c r="AG15" s="2" t="n">
-        <v>7412966841.28893</v>
-      </c>
-      <c r="AH15" s="2" t="n">
-        <v>8288681651.77716</v>
-      </c>
-      <c r="AI15" s="2" t="n">
-        <v>9917950920.76658</v>
-      </c>
-      <c r="AJ15" s="2" t="n">
-        <v>10186267315.26</v>
-      </c>
-      <c r="AK15" s="2" t="n">
-        <v>10124286848.1773</v>
-      </c>
-      <c r="AL15" s="2" t="n">
-        <v>8379973312.43186</v>
-      </c>
-      <c r="AM15" s="2" t="n">
-        <v>9135477852.29442</v>
-      </c>
-      <c r="AN15" s="2" t="n">
-        <v>8806003589.24237</v>
-      </c>
-      <c r="AO15" s="2" t="n">
-        <v>9621843151.50727</v>
-      </c>
-      <c r="AP15" s="2" t="n">
-        <v>10345569119.2213</v>
-      </c>
-      <c r="AQ15" s="2" t="n">
-        <v>11608656572.5106</v>
-      </c>
-      <c r="AR15" s="2" t="n">
-        <v>13218929981.9568</v>
-      </c>
-      <c r="AS15" s="2" t="n">
-        <v>13453289336.3455</v>
-      </c>
-      <c r="AT15" s="2" t="n">
-        <v>11146952408.3493</v>
-      </c>
-      <c r="AU15" s="2" t="n">
-        <v>11046884426.0295</v>
-      </c>
-      <c r="AV15" s="2" t="n">
-        <v>4587869420.80095</v>
-      </c>
-      <c r="AW15" s="2"/>
+      <c r="O15" s="13" t="n">
+        <v>1457834728.29781</v>
+      </c>
+      <c r="P15" s="13" t="n">
+        <v>2645829808.23676</v>
+      </c>
+      <c r="Q15" s="13" t="n">
+        <v>3764640117.51573</v>
+      </c>
+      <c r="R15" s="13" t="n">
+        <v>3505213414.02161</v>
+      </c>
+      <c r="S15" s="13" t="n">
+        <v>4096127671.72586</v>
+      </c>
+      <c r="T15" s="13" t="n">
+        <v>3540811801.58168</v>
+      </c>
+      <c r="U15" s="13" t="n">
+        <v>3917124788.14329</v>
+      </c>
+      <c r="V15" s="13" t="n">
+        <v>3792878351.05261</v>
+      </c>
+      <c r="W15" s="13" t="n">
+        <v>4538793767.53528</v>
+      </c>
+      <c r="X15" s="13" t="n">
+        <v>4961957532.60728</v>
+      </c>
+      <c r="Y15" s="13" t="n">
+        <v>4255511966.78553</v>
+      </c>
+      <c r="Z15" s="13" t="n">
+        <v>5093307137.14007</v>
+      </c>
+      <c r="AA15" s="13" t="n">
+        <v>6067600691.3538</v>
+      </c>
+      <c r="AB15" s="13" t="n">
+        <v>7338404809.92346</v>
+      </c>
+      <c r="AC15" s="13" t="n">
+        <v>7828804759.12763</v>
+      </c>
+      <c r="AD15" s="13" t="n">
+        <v>8233173482.82596</v>
+      </c>
+      <c r="AE15" s="13" t="n">
+        <v>8094561921.42093</v>
+      </c>
+      <c r="AF15" s="13" t="n">
+        <v>7789962914.07427</v>
+      </c>
+      <c r="AG15" s="13" t="n">
+        <v>7711016630.5559</v>
+      </c>
+      <c r="AH15" s="13" t="n">
+        <v>8620859848.86207</v>
+      </c>
+      <c r="AI15" s="13" t="n">
+        <v>10316633126.517</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
+        <v>10632274936.8399</v>
+      </c>
+      <c r="AK15" s="13" t="n">
+        <v>10563218668.8008</v>
+      </c>
+      <c r="AL15" s="13" t="n">
+        <v>8898347248.51446</v>
+      </c>
+      <c r="AM15" s="13" t="n">
+        <v>9676527514.66928</v>
+      </c>
+      <c r="AN15" s="13" t="n">
+        <v>9182816533.94269</v>
+      </c>
+      <c r="AO15" s="13" t="n">
+        <v>10046333343.1993</v>
+      </c>
+      <c r="AP15" s="13" t="n">
+        <v>10891987101.9902</v>
+      </c>
+      <c r="AQ15" s="13" t="n">
+        <v>12128090629.07</v>
+      </c>
+      <c r="AR15" s="13" t="n">
+        <v>13855076254.5609</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>14099373245.6429</v>
+      </c>
+      <c r="AT15" s="13" t="n">
+        <v>11675348293.3084</v>
+      </c>
+      <c r="AU15" s="13" t="n">
+        <v>11548421893.7212</v>
+      </c>
+      <c r="AV15" s="13" t="n">
+        <v>10752221765.8041</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>10342688983.3236</v>
+      </c>
+      <c r="AX15" s="13" t="n">
+        <v>4454188491.69711</v>
+      </c>
+      <c r="AY15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6254,41 +6396,43 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2"/>
-      <c r="AP16" s="2"/>
-      <c r="AQ16" s="2"/>
-      <c r="AR16" s="2"/>
-      <c r="AS16" s="2"/>
-      <c r="AT16" s="2"/>
-      <c r="AU16" s="2"/>
-      <c r="AV16" s="2"/>
-      <c r="AW16" s="2"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6425,6 +6569,12 @@
       <c r="AW1" t="s">
         <v>34</v>
       </c>
+      <c r="AX1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -6437,94 +6587,120 @@
         <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>549</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>235117000</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>143700000</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>32876000</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>69783000</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>71331000</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>108147000</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>69369000</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>95117355</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>622184216</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>147020819</v>
+      </c>
       <c r="Z2" s="3" t="n">
-        <v>7745409866.4287</v>
+        <v>418939429</v>
       </c>
       <c r="AA2" s="3" t="n">
-        <v>9365489411.6874</v>
+        <v>410489406</v>
       </c>
       <c r="AB2" s="3" t="n">
-        <v>10261062297.0946</v>
+        <v>1080790165</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>13927889333.4355</v>
+        <v>1037676423</v>
       </c>
       <c r="AD2" s="3" t="n">
-        <v>17718446729.1087</v>
+        <v>847635769</v>
       </c>
       <c r="AE2" s="3" t="n">
-        <v>20006698303.5712</v>
+        <v>1117765656.71</v>
       </c>
       <c r="AF2" s="3" t="n">
-        <v>23590550903.9616</v>
+        <v>1112505653.6105</v>
       </c>
       <c r="AG2" s="3" t="n">
-        <v>27713649523.906</v>
+        <v>831477108.24</v>
       </c>
       <c r="AH2" s="3" t="n">
-        <v>29281030579.0011</v>
+        <v>825862733.9586</v>
       </c>
       <c r="AI2" s="3" t="n">
-        <v>28917543438.7466</v>
+        <v>877324653.7295</v>
       </c>
       <c r="AJ2" s="3" t="n">
-        <v>30663895756.9403</v>
+        <v>2010836485.8802</v>
       </c>
       <c r="AK2" s="3" t="n">
-        <v>28185090296.6477</v>
+        <v>2122474043.7692</v>
       </c>
       <c r="AL2" s="3" t="n">
-        <v>29396220082.02</v>
+        <v>1798059417.4429</v>
       </c>
       <c r="AM2" s="3" t="n">
-        <v>24834689731.2118</v>
+        <v>2118842442.1282</v>
       </c>
       <c r="AN2" s="3" t="n">
-        <v>25032277394.0532</v>
+        <v>3180517793.2464</v>
       </c>
       <c r="AO2" s="3" t="n">
-        <v>24505541468.4119</v>
+        <v>2462636218.7265</v>
       </c>
       <c r="AP2" s="3" t="n">
-        <v>25791705919.4623</v>
+        <v>3629790766.591</v>
       </c>
       <c r="AQ2" s="3" t="n">
-        <v>26845599544.7238</v>
+        <v>3839686421.0861</v>
       </c>
       <c r="AR2" s="3" t="n">
-        <v>31968135817.146</v>
+        <v>3077631936.0128</v>
       </c>
       <c r="AS2" s="3" t="n">
-        <v>34216243659.7318</v>
+        <v>3710692317.7476</v>
       </c>
       <c r="AT2" s="3" t="n">
-        <v>34498258473.2095</v>
+        <v>3858230909.8718</v>
       </c>
       <c r="AU2" s="3" t="n">
-        <v>31120428883.8217</v>
+        <v>3174180591.3364</v>
       </c>
       <c r="AV2" s="3" t="n">
-        <v>33022194547.0027</v>
+        <v>4806294241.0137</v>
       </c>
       <c r="AW2" s="3" t="n">
-        <v>36273002264.551</v>
-      </c>
-      <c r="AX2" s="3"/>
+        <v>4229786433.668</v>
+      </c>
+      <c r="AX2" s="3" t="n">
+        <v>4578540914.81</v>
+      </c>
+      <c r="AY2" s="3" t="n">
+        <v>1899680123.79</v>
+      </c>
+      <c r="AZ2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -6536,11 +6712,9 @@
       <c r="M3" t="s">
         <v>50</v>
       </c>
-      <c r="N3" t="s">
-        <v>50</v>
-      </c>
+      <c r="N3"/>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -6550,81 +6724,73 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
+      <c r="X3" s="3" t="n">
+        <v>25000</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="Z3" s="3" t="n">
-        <v>351263617</v>
+        <v>630815.8438</v>
       </c>
       <c r="AA3" s="3" t="n">
-        <v>910786484.5388</v>
+        <v>165305</v>
       </c>
       <c r="AB3" s="3" t="n">
-        <v>646264465</v>
+        <v>21370907</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>793441443.5</v>
+        <v>95453350.9297</v>
       </c>
       <c r="AD3" s="3" t="n">
-        <v>986688632.6206</v>
+        <v>192038212.1778</v>
       </c>
       <c r="AE3" s="3" t="n">
-        <v>1077885901.5297</v>
+        <v>355929347.3926</v>
       </c>
       <c r="AF3" s="3" t="n">
-        <v>553242238.9076</v>
+        <v>689542515.6918</v>
       </c>
       <c r="AG3" s="3" t="n">
-        <v>386969562.0458</v>
+        <v>2735717101.5958</v>
       </c>
       <c r="AH3" s="3" t="n">
-        <v>594426626.7577</v>
+        <v>4180645160.7277</v>
       </c>
       <c r="AI3" s="3" t="n">
-        <v>537478892.7635</v>
+        <v>4736782052.693</v>
       </c>
       <c r="AJ3" s="3" t="n">
-        <v>684468646.1753</v>
+        <v>264108443.0138</v>
       </c>
       <c r="AK3" s="3" t="n">
-        <v>1134877810.7948</v>
+        <v>117238155.4005</v>
       </c>
       <c r="AL3" s="3" t="n">
-        <v>362692336.111</v>
+        <v>2582684.387</v>
       </c>
       <c r="AM3" s="3" t="n">
-        <v>167024104.8643</v>
+        <v>7389956.98</v>
       </c>
       <c r="AN3" s="3" t="n">
-        <v>103291895.5268</v>
+        <v>-7419796.22</v>
       </c>
       <c r="AO3" s="3" t="n">
-        <v>131801684.8803</v>
-      </c>
-      <c r="AP3" s="3" t="n">
-        <v>188200819.8463</v>
-      </c>
-      <c r="AQ3" s="3" t="n">
-        <v>72065956.0363</v>
-      </c>
-      <c r="AR3" s="3" t="n">
-        <v>113244315.4437</v>
-      </c>
-      <c r="AS3" s="3" t="n">
-        <v>86318154.5227</v>
-      </c>
-      <c r="AT3" s="3" t="n">
-        <v>91330766.896</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>179981442.6038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
       <c r="AV3" s="3" t="n">
-        <v>280510565.2276</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>348374888.257</v>
-      </c>
+        <v>467462</v>
+      </c>
+      <c r="AW3" s="3"/>
       <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -6636,95 +6802,119 @@
       <c r="M4" t="s">
         <v>50</v>
       </c>
-      <c r="N4" t="s">
-        <v>50</v>
-      </c>
+      <c r="N4"/>
       <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>26787000</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>75993000</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>74398000</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>260574000</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>85484000</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>65359809</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>49074000</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>1723812052.2</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>1743705544.82</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>2600396713.31</v>
+      </c>
       <c r="Z4" s="3" t="n">
-        <v>1872242063.2094</v>
+        <v>7747167156.4287</v>
       </c>
       <c r="AA4" s="3" t="n">
-        <v>1711195301.9849</v>
+        <v>9365489411.6881</v>
       </c>
       <c r="AB4" s="3" t="n">
-        <v>2193214227.6717</v>
+        <v>10261065740.0946</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>3246531633.0533</v>
+        <v>13928189462.4435</v>
       </c>
       <c r="AD4" s="3" t="n">
-        <v>4084153850.8455</v>
+        <v>17719505731.1145</v>
       </c>
       <c r="AE4" s="3" t="n">
-        <v>5522774020.5248</v>
+        <v>20006727023.4936</v>
       </c>
       <c r="AF4" s="3" t="n">
-        <v>6394675349.9999</v>
+        <v>23589794886.1481</v>
       </c>
       <c r="AG4" s="3" t="n">
-        <v>8078608376.083</v>
+        <v>27714203313.792</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>8310577597.8891</v>
+        <v>29281288811.1491</v>
       </c>
       <c r="AI4" s="3" t="n">
-        <v>7389243494.5828</v>
+        <v>28914260799.8967</v>
       </c>
       <c r="AJ4" s="3" t="n">
-        <v>7082022035.5353</v>
+        <v>30672036994.0491</v>
       </c>
       <c r="AK4" s="3" t="n">
-        <v>4318518817.8775</v>
+        <v>28178818541.7714</v>
       </c>
       <c r="AL4" s="3" t="n">
-        <v>1991126208.0814</v>
+        <v>29212409073.2522</v>
       </c>
       <c r="AM4" s="3" t="n">
-        <v>870175553.7347</v>
+        <v>25088985749.0759</v>
       </c>
       <c r="AN4" s="3" t="n">
-        <v>627734141.7625</v>
+        <v>25119208095.5993</v>
       </c>
       <c r="AO4" s="3" t="n">
-        <v>477583914.5411</v>
+        <v>24376174384.54</v>
       </c>
       <c r="AP4" s="3" t="n">
-        <v>560963783.9982</v>
+        <v>25821742144.3165</v>
       </c>
       <c r="AQ4" s="3" t="n">
-        <v>541606517.3411</v>
+        <v>26893227674.6915</v>
       </c>
       <c r="AR4" s="3" t="n">
-        <v>515407705.4876</v>
+        <v>31958175760.2815</v>
       </c>
       <c r="AS4" s="3" t="n">
-        <v>462483552.8142</v>
+        <v>34203528058.1073</v>
       </c>
       <c r="AT4" s="3" t="n">
-        <v>470221655.4172</v>
+        <v>34510729785.9947</v>
       </c>
       <c r="AU4" s="3" t="n">
-        <v>-14277628.4301</v>
+        <v>31162665762.4394</v>
       </c>
       <c r="AV4" s="3" t="n">
-        <v>536822788.0714</v>
+        <v>33108482393.0022</v>
       </c>
       <c r="AW4" s="3" t="n">
-        <v>833902870.0879</v>
-      </c>
-      <c r="AX4" s="3"/>
+        <v>36391963610.757</v>
+      </c>
+      <c r="AX4" s="3" t="n">
+        <v>39132670780.2325</v>
+      </c>
+      <c r="AY4" s="3" t="n">
+        <v>15012319051.18</v>
+      </c>
+      <c r="AZ4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -6736,95 +6926,119 @@
       <c r="M5" t="s">
         <v>53</v>
       </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
+      <c r="N5"/>
       <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>89471134.53</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>201125000</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>69381000</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>29480000</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>37163000</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>68903000</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>72731000</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>1016809770</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>1075941968.07</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>1563325236</v>
+      </c>
       <c r="Z5" s="3" t="n">
-        <v>418939429</v>
+        <v>5131200658.1172</v>
       </c>
       <c r="AA5" s="3" t="n">
-        <v>410489406</v>
+        <v>5100026497.7071</v>
       </c>
       <c r="AB5" s="3" t="n">
-        <v>1080790165</v>
+        <v>5955519486.22</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>1037676423</v>
+        <v>7021145816.5916</v>
       </c>
       <c r="AD5" s="3" t="n">
-        <v>847635770</v>
+        <v>8006755849.4451</v>
       </c>
       <c r="AE5" s="3" t="n">
-        <v>1117765655.71</v>
+        <v>8894342388.0886</v>
       </c>
       <c r="AF5" s="3" t="n">
-        <v>1112505653.6105</v>
+        <v>9253379454.7003</v>
       </c>
       <c r="AG5" s="3" t="n">
-        <v>831477108.2402</v>
+        <v>10561909610.2583</v>
       </c>
       <c r="AH5" s="3" t="n">
-        <v>825862732.9699</v>
+        <v>11193452450.1801</v>
       </c>
       <c r="AI5" s="3" t="n">
-        <v>877324653.7295</v>
+        <v>10905224966.936</v>
       </c>
       <c r="AJ5" s="3" t="n">
-        <v>2035459607.72</v>
+        <v>12624570598.0114</v>
       </c>
       <c r="AK5" s="3" t="n">
-        <v>2181515114.5837</v>
+        <v>14400781876.4765</v>
       </c>
       <c r="AL5" s="3" t="n">
-        <v>1823707152.5427</v>
+        <v>13999678742.8678</v>
       </c>
       <c r="AM5" s="3" t="n">
-        <v>2105131324.5821</v>
+        <v>11973308894.9523</v>
       </c>
       <c r="AN5" s="3" t="n">
-        <v>3061035752.9761</v>
+        <v>10942725108.5143</v>
       </c>
       <c r="AO5" s="3" t="n">
-        <v>2444038534.535</v>
+        <v>11125504410.6174</v>
       </c>
       <c r="AP5" s="3" t="n">
-        <v>3584284892.3796</v>
+        <v>12025110844.7137</v>
       </c>
       <c r="AQ5" s="3" t="n">
-        <v>3712244208.7281</v>
+        <v>12710723086.4429</v>
       </c>
       <c r="AR5" s="3" t="n">
-        <v>3075956189.318</v>
+        <v>14122158890.4026</v>
       </c>
       <c r="AS5" s="3" t="n">
-        <v>3759169740.6884</v>
+        <v>15231732347.2197</v>
       </c>
       <c r="AT5" s="3" t="n">
-        <v>4042143962.1094</v>
+        <v>15431720876.2668</v>
       </c>
       <c r="AU5" s="3" t="n">
-        <v>3383124811.4857</v>
+        <v>14223707843.0547</v>
       </c>
       <c r="AV5" s="3" t="n">
-        <v>4999672957.258</v>
+        <v>13747187241.1163</v>
       </c>
       <c r="AW5" s="3" t="n">
-        <v>4339803525.8971</v>
-      </c>
-      <c r="AX5" s="3"/>
+        <v>13010444969.0304</v>
+      </c>
+      <c r="AX5" s="3" t="n">
+        <v>11238562510.15</v>
+      </c>
+      <c r="AY5" s="3" t="n">
+        <v>4557564788.01</v>
+      </c>
+      <c r="AZ5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -6836,95 +7050,119 @@
       <c r="M6" t="s">
         <v>54</v>
       </c>
-      <c r="N6" t="s">
-        <v>54</v>
-      </c>
+      <c r="N6"/>
       <c r="O6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>261000</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>1858000</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>2668000</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>7239000</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>522000</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>612000</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>63501000</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>109478858</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>57532090</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>91610734</v>
+      </c>
       <c r="Z6" s="3" t="n">
-        <v>5131200658.1172</v>
+        <v>351263617</v>
       </c>
       <c r="AA6" s="3" t="n">
-        <v>5100026497.7071</v>
+        <v>910921044.54</v>
       </c>
       <c r="AB6" s="3" t="n">
-        <v>5955519487.22</v>
+        <v>646264465</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>7019794953.5991</v>
+        <v>793441443.5</v>
       </c>
       <c r="AD6" s="3" t="n">
-        <v>8006755850.4451</v>
+        <v>986688632.6206</v>
       </c>
       <c r="AE6" s="3" t="n">
-        <v>8894373018.9218</v>
+        <v>1077885901.5297</v>
       </c>
       <c r="AF6" s="3" t="n">
-        <v>9253374271.2293</v>
+        <v>553242238.9076</v>
       </c>
       <c r="AG6" s="3" t="n">
-        <v>10561921558.0396</v>
+        <v>386969562.0458</v>
       </c>
       <c r="AH6" s="3" t="n">
-        <v>11193452449.7377</v>
+        <v>594426627.9578</v>
       </c>
       <c r="AI6" s="3" t="n">
-        <v>10905405010.4245</v>
+        <v>537478892.7694</v>
       </c>
       <c r="AJ6" s="3" t="n">
-        <v>12625358750.8069</v>
+        <v>685414373.1887</v>
       </c>
       <c r="AK6" s="3" t="n">
-        <v>14400767146.0502</v>
+        <v>1160373338.4478</v>
       </c>
       <c r="AL6" s="3" t="n">
-        <v>13984870220.1961</v>
+        <v>384587596.1517</v>
       </c>
       <c r="AM6" s="3" t="n">
-        <v>11811848954.9703</v>
+        <v>174624894.3943</v>
       </c>
       <c r="AN6" s="3" t="n">
-        <v>10937778421.2594</v>
+        <v>103293039.4268</v>
       </c>
       <c r="AO6" s="3" t="n">
-        <v>11166325215.6848</v>
+        <v>131849767.6723</v>
       </c>
       <c r="AP6" s="3" t="n">
-        <v>11949242310.9642</v>
+        <v>185902931.4156</v>
       </c>
       <c r="AQ6" s="3" t="n">
-        <v>12577414811.1868</v>
+        <v>167118920.8239</v>
       </c>
       <c r="AR6" s="3" t="n">
-        <v>14107101750.5063</v>
+        <v>113288756.337</v>
       </c>
       <c r="AS6" s="3" t="n">
-        <v>15177867962.744</v>
+        <v>89325008.7091</v>
       </c>
       <c r="AT6" s="3" t="n">
-        <v>15203796448.0048</v>
+        <v>94769707.8832</v>
       </c>
       <c r="AU6" s="3" t="n">
-        <v>13998065538.2494</v>
+        <v>183009392.6447</v>
       </c>
       <c r="AV6" s="3" t="n">
-        <v>13621229112.1481</v>
+        <v>277125058.0801</v>
       </c>
       <c r="AW6" s="3" t="n">
-        <v>13011582701.3353</v>
-      </c>
-      <c r="AX6" s="3"/>
+        <v>338328499.7285</v>
+      </c>
+      <c r="AX6" s="3" t="n">
+        <v>362513257.08</v>
+      </c>
+      <c r="AY6" s="3" t="n">
+        <v>150147609.22</v>
+      </c>
+      <c r="AZ6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -6936,95 +7174,117 @@
       <c r="M7" t="s">
         <v>56</v>
       </c>
-      <c r="N7" t="s">
-        <v>56</v>
-      </c>
+      <c r="N7"/>
       <c r="O7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>1815000</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>222000</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>11493000</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>4373000</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>758000</v>
+      </c>
       <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="V7" s="3" t="n">
+        <v>237000</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>344916808</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>485028570</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>920931869.49</v>
+      </c>
       <c r="Z7" s="3" t="n">
-        <v>572636615</v>
+        <v>1872242063.2094</v>
       </c>
       <c r="AA7" s="3" t="n">
-        <v>700276052.875</v>
+        <v>1711195301.9849</v>
       </c>
       <c r="AB7" s="3" t="n">
-        <v>762655276</v>
+        <v>2193214227.6717</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>819932062</v>
+        <v>3246531633.0783</v>
       </c>
       <c r="AD7" s="3" t="n">
-        <v>1386046004</v>
+        <v>4084153850.8455</v>
       </c>
       <c r="AE7" s="3" t="n">
-        <v>2098175271.1875</v>
+        <v>5522754581.7448</v>
       </c>
       <c r="AF7" s="3" t="n">
-        <v>1586235193.2845</v>
+        <v>6394160386.9567</v>
       </c>
       <c r="AG7" s="3" t="n">
-        <v>1731758562.3023</v>
+        <v>8077796578.3709</v>
       </c>
       <c r="AH7" s="3" t="n">
-        <v>1170878334.7373</v>
+        <v>8309062943.0967</v>
       </c>
       <c r="AI7" s="3" t="n">
-        <v>1608472749.5467</v>
+        <v>7387386073.49</v>
       </c>
       <c r="AJ7" s="3" t="n">
-        <v>2681972519.1245</v>
+        <v>7081299622.3888</v>
       </c>
       <c r="AK7" s="3" t="n">
-        <v>2059411573.4266</v>
+        <v>4316728969.4846</v>
       </c>
       <c r="AL7" s="3" t="n">
-        <v>1764305123.303</v>
+        <v>1990250178.5524</v>
       </c>
       <c r="AM7" s="3" t="n">
-        <v>931772516.5176</v>
+        <v>932758665.8704</v>
       </c>
       <c r="AN7" s="3" t="n">
-        <v>615529782.1261</v>
+        <v>627279844.9644</v>
       </c>
       <c r="AO7" s="3" t="n">
-        <v>664256316.377</v>
+        <v>479839857.8507</v>
       </c>
       <c r="AP7" s="3" t="n">
-        <v>1009232434.8681</v>
+        <v>584697013.2376</v>
       </c>
       <c r="AQ7" s="3" t="n">
-        <v>1520885804.4895</v>
+        <v>546084503.4571</v>
       </c>
       <c r="AR7" s="3" t="n">
-        <v>1177284777.8423</v>
+        <v>514702447.9887</v>
       </c>
       <c r="AS7" s="3" t="n">
-        <v>1250759146.1901</v>
+        <v>455333807.738</v>
       </c>
       <c r="AT7" s="3" t="n">
-        <v>1024082860.7399</v>
+        <v>468425324.0615</v>
       </c>
       <c r="AU7" s="3" t="n">
-        <v>916119377.1542</v>
+        <v>-8044837.6523</v>
       </c>
       <c r="AV7" s="3" t="n">
-        <v>1085387317.1159</v>
+        <v>532188343.9647</v>
       </c>
       <c r="AW7" s="3" t="n">
-        <v>1568315730.6318</v>
-      </c>
-      <c r="AX7" s="3"/>
+        <v>837182633.3788</v>
+      </c>
+      <c r="AX7" s="3" t="n">
+        <v>996313536.73</v>
+      </c>
+      <c r="AY7" s="3" t="n">
+        <v>421746062.17</v>
+      </c>
+      <c r="AZ7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -7036,81 +7296,111 @@
       <c r="M8" t="s">
         <v>58</v>
       </c>
-      <c r="N8" t="s">
-        <v>58</v>
-      </c>
+      <c r="N8"/>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="S8" s="3" t="n">
+        <v>271000</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>1250000</v>
+      </c>
       <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+      <c r="V8" s="3" t="n">
+        <v>71000</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <v>101576652</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>164154588</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>86019020</v>
+      </c>
       <c r="Z8" s="3" t="n">
-        <v>630815.8438</v>
+        <v>572636615</v>
       </c>
       <c r="AA8" s="3" t="n">
-        <v>165305</v>
+        <v>700276048.88</v>
       </c>
       <c r="AB8" s="3" t="n">
-        <v>21370907</v>
+        <v>763005276</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>95453350.9297</v>
+        <v>819932065</v>
       </c>
       <c r="AD8" s="3" t="n">
-        <v>193097212.1778</v>
+        <v>1386046005</v>
       </c>
       <c r="AE8" s="3" t="n">
-        <v>355929347.3926</v>
+        <v>2098175272.17</v>
       </c>
       <c r="AF8" s="3" t="n">
-        <v>689542515.8181</v>
+        <v>1586235191.2896</v>
       </c>
       <c r="AG8" s="3" t="n">
-        <v>2736426166.653</v>
+        <v>1731758563.2948</v>
       </c>
       <c r="AH8" s="3" t="n">
-        <v>4181897375.4904</v>
+        <v>1170878334.1035</v>
       </c>
       <c r="AI8" s="3" t="n">
-        <v>4737546060.7354</v>
+        <v>1608472749.577</v>
       </c>
       <c r="AJ8" s="3" t="n">
-        <v>268866937.412</v>
+        <v>2681974569.992</v>
       </c>
       <c r="AK8" s="3" t="n">
-        <v>117347085.451</v>
+        <v>2061885429.5918</v>
       </c>
       <c r="AL8" s="3" t="n">
-        <v>2583647.7504</v>
+        <v>1911599756.2075</v>
       </c>
       <c r="AM8" s="3" t="n">
-        <v>7700463.98</v>
+        <v>862309966.4676</v>
       </c>
       <c r="AN8" s="3" t="n">
-        <v>-7419796.22</v>
+        <v>472771543.7355</v>
       </c>
       <c r="AO8" s="3" t="n">
-        <v>147331.4063</v>
-      </c>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
+        <v>796087619.2333</v>
+      </c>
+      <c r="AP8" s="3" t="n">
+        <v>929044662.8191</v>
+      </c>
+      <c r="AQ8" s="3" t="n">
+        <v>1466237171.2659</v>
+      </c>
+      <c r="AR8" s="3" t="n">
+        <v>1176879406.667</v>
+      </c>
+      <c r="AS8" s="3" t="n">
+        <v>1243225490.5163</v>
+      </c>
+      <c r="AT8" s="3" t="n">
+        <v>988046463.3568</v>
+      </c>
+      <c r="AU8" s="3" t="n">
+        <v>881496472.3054</v>
+      </c>
       <c r="AV8" s="3" t="n">
-        <v>467462</v>
-      </c>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
+        <v>1058152498.3917</v>
+      </c>
+      <c r="AW8" s="3" t="n">
+        <v>1501941160.9433</v>
+      </c>
+      <c r="AX8" s="3" t="n">
+        <v>1775690510.81</v>
+      </c>
+      <c r="AY8" s="3" t="n">
+        <v>1111147848.1</v>
+      </c>
+      <c r="AZ8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -7122,39 +7412,37 @@
       <c r="M9" t="s">
         <v>58</v>
       </c>
-      <c r="N9" t="s">
-        <v>58</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" s="3" t="n">
-        <v>19702439894</v>
+        <v>19703288894</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>19319595733</v>
+        <v>19321500733</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>19385047958</v>
+        <v>19388239483</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>18241613499</v>
+        <v>18242638124</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>17643919462</v>
+        <v>17643820302</v>
       </c>
       <c r="U9" s="3" t="n">
-        <v>18690643667</v>
+        <v>18692350727</v>
       </c>
       <c r="V9" s="3" t="n">
-        <v>18181185718</v>
+        <v>18183773640</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>18425728076</v>
+        <v>18602741128</v>
       </c>
       <c r="X9" s="3" t="n">
-        <v>17479311563</v>
+        <v>17978593108.5</v>
       </c>
       <c r="Y9" s="3" t="n">
-        <v>19571291342</v>
+        <v>20652000069.65</v>
       </c>
       <c r="Z9" s="3" t="n">
         <v>4658353200.2078</v>
@@ -7172,49 +7460,49 @@
         <v>4309222044.7979</v>
       </c>
       <c r="AE9" s="3" t="n">
-        <v>3159644066.2303</v>
+        <v>3159624493.2303</v>
       </c>
       <c r="AF9" s="3" t="n">
         <v>2022379043.0551</v>
       </c>
       <c r="AG9" s="3" t="n">
-        <v>412801078.5145</v>
+        <v>412801078.4595</v>
       </c>
       <c r="AH9" s="3" t="n">
-        <v>1394330979.0396</v>
+        <v>1394340341.5687</v>
       </c>
       <c r="AI9" s="3" t="n">
-        <v>372670234.705</v>
+        <v>372063142.6419</v>
       </c>
       <c r="AJ9" s="3" t="n">
-        <v>78892223.9801</v>
+        <v>78867297.9801</v>
       </c>
       <c r="AK9" s="3" t="n">
         <v>20548034.1254</v>
       </c>
       <c r="AL9" s="3" t="n">
-        <v>294710770.6983</v>
+        <v>275184844.3483</v>
       </c>
       <c r="AM9" s="3" t="n">
-        <v>384292786.2963</v>
+        <v>359471415.918</v>
       </c>
       <c r="AN9" s="3" t="n">
-        <v>483845535.8117</v>
+        <v>443089566.0878</v>
       </c>
       <c r="AO9" s="3" t="n">
-        <v>225120829.7598</v>
+        <v>183954031.3425</v>
       </c>
       <c r="AP9" s="3" t="n">
-        <v>220554551.2435</v>
+        <v>151948301.5925</v>
       </c>
       <c r="AQ9" s="3" t="n">
-        <v>438446249.742</v>
+        <v>267650019.8065</v>
       </c>
       <c r="AR9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS9" s="3" t="n">
-        <v>50903.5586</v>
+        <v>50903.56</v>
       </c>
       <c r="AT9" s="3" t="n">
         <v>0</v>
@@ -7228,7 +7516,13 @@
       <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="3"/>
+      <c r="AX9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -7342,8 +7636,16 @@
       <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
+      <c r="AW10" s="3" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="3" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="3" t="str">
+        <f>Sum(AY2:AY9)</f>
+      </c>
+      <c r="AZ10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -7463,6 +7765,12 @@
       <c r="AW13" t="s">
         <v>34</v>
       </c>
+      <c r="AX13" t="s">
+        <v>550</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -7475,94 +7783,120 @@
         <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>549</v>
+        <v>53</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>486288244.234181</v>
+      </c>
+      <c r="Q14" s="3" t="n">
+        <v>286953361.683793</v>
+      </c>
+      <c r="R14" s="3" t="n">
+        <v>64046813.2878412</v>
+      </c>
+      <c r="S14" s="3" t="n">
+        <v>132830357.219591</v>
+      </c>
+      <c r="T14" s="3" t="n">
+        <v>132876166.249571</v>
+      </c>
+      <c r="U14" s="3" t="n">
+        <v>197272927.376852</v>
+      </c>
+      <c r="V14" s="3" t="n">
+        <v>124198794.772704</v>
+      </c>
+      <c r="W14" s="3" t="n">
+        <v>167329233.741066</v>
+      </c>
+      <c r="X14" s="3" t="n">
+        <v>1080985301.8529</v>
+      </c>
+      <c r="Y14" s="3" t="n">
+        <v>252310296.166704</v>
+      </c>
       <c r="Z14" s="3" t="n">
-        <v>12514491468.9675</v>
+        <v>704309820.633375</v>
       </c>
       <c r="AA14" s="3" t="n">
-        <v>14773845449.9827</v>
+        <v>673772243.675159</v>
       </c>
       <c r="AB14" s="3" t="n">
-        <v>15935079233.7919</v>
+        <v>1746519135.32735</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>21223851701.3141</v>
+        <v>1645267708.47601</v>
       </c>
       <c r="AD14" s="3" t="n">
-        <v>26355823245.968</v>
+        <v>1311917057.51638</v>
       </c>
       <c r="AE14" s="3" t="n">
-        <v>28882764160.0806</v>
+        <v>1678917851.46214</v>
       </c>
       <c r="AF14" s="3" t="n">
-        <v>32982769776.956</v>
+        <v>1618443154.35412</v>
       </c>
       <c r="AG14" s="3" t="n">
-        <v>37713203849.9128</v>
+        <v>1177202628.47546</v>
       </c>
       <c r="AH14" s="3" t="n">
-        <v>39032075572.0354</v>
+        <v>1145472831.42284</v>
       </c>
       <c r="AI14" s="3" t="n">
-        <v>38159763674.7534</v>
+        <v>1204532903.15363</v>
       </c>
       <c r="AJ14" s="3" t="n">
-        <v>40115358312.4323</v>
+        <v>2737096451.1756</v>
       </c>
       <c r="AK14" s="3" t="n">
-        <v>36144077590.9663</v>
+        <v>2832208206.0418</v>
       </c>
       <c r="AL14" s="3" t="n">
-        <v>37018659942.2246</v>
+        <v>2356550495.71999</v>
       </c>
       <c r="AM14" s="3" t="n">
-        <v>30712289860.1704</v>
+        <v>2727481776.04278</v>
       </c>
       <c r="AN14" s="3" t="n">
-        <v>30369120355.357</v>
+        <v>4020772649.43068</v>
       </c>
       <c r="AO14" s="3" t="n">
-        <v>29393112094.1564</v>
+        <v>3081324346.19672</v>
       </c>
       <c r="AP14" s="3" t="n">
-        <v>30681556095.03</v>
+        <v>4505679876.62469</v>
       </c>
       <c r="AQ14" s="3" t="n">
-        <v>31375093757.338</v>
+        <v>4687105215.1202</v>
       </c>
       <c r="AR14" s="3" t="n">
-        <v>36504781855.6233</v>
+        <v>3675274215.42642</v>
       </c>
       <c r="AS14" s="3" t="n">
-        <v>38321340846.8787</v>
+        <v>4350823277.43369</v>
       </c>
       <c r="AT14" s="3" t="n">
-        <v>38128538633.5098</v>
+        <v>4465480677.90092</v>
       </c>
       <c r="AU14" s="3" t="n">
-        <v>33276688554.1943</v>
+        <v>3551532766.1216</v>
       </c>
       <c r="AV14" s="3" t="n">
-        <v>33022194547.0027</v>
+        <v>5026165835.75585</v>
       </c>
       <c r="AW14" s="3" t="n">
-        <v>34597130777.1824</v>
-      </c>
-      <c r="AX14" s="3"/>
+        <v>4229786433.668</v>
+      </c>
+      <c r="AX14" s="3" t="n">
+        <v>4459446977.34635</v>
+      </c>
+      <c r="AY14" s="3" t="n">
+        <v>1810539918.1738</v>
+      </c>
+      <c r="AZ14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -7574,11 +7908,9 @@
       <c r="M15" t="s">
         <v>50</v>
       </c>
-      <c r="N15" t="s">
-        <v>50</v>
-      </c>
+      <c r="N15"/>
       <c r="O15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -7588,81 +7920,73 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
+      <c r="X15" s="3" t="n">
+        <v>43435.0982415834</v>
+      </c>
+      <c r="Y15" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="Z15" s="3" t="n">
-        <v>567547181.377509</v>
+        <v>1060510.81145544</v>
       </c>
       <c r="AA15" s="3" t="n">
-        <v>1436744858.59943</v>
+        <v>271329.586373594</v>
       </c>
       <c r="AB15" s="3" t="n">
-        <v>1003626638.0212</v>
+        <v>34534638.8443507</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>1209076488.71782</v>
+        <v>151344207.567549</v>
       </c>
       <c r="AD15" s="3" t="n">
-        <v>1467678944.87231</v>
+        <v>297224604.558901</v>
       </c>
       <c r="AE15" s="3" t="n">
-        <v>1556095054.4149</v>
+        <v>534616653.866064</v>
       </c>
       <c r="AF15" s="3" t="n">
-        <v>773507217.829015</v>
+        <v>1003127813.80995</v>
       </c>
       <c r="AG15" s="3" t="n">
-        <v>526594736.812124</v>
+        <v>3873219516.02578</v>
       </c>
       <c r="AH15" s="3" t="n">
-        <v>792380068.557961</v>
+        <v>5798561010.83383</v>
       </c>
       <c r="AI15" s="3" t="n">
-        <v>709260368.933755</v>
+        <v>6503419017.44332</v>
       </c>
       <c r="AJ15" s="3" t="n">
-        <v>895440853.719083</v>
+        <v>359497297.355909</v>
       </c>
       <c r="AK15" s="3" t="n">
-        <v>1455347888.47251</v>
+        <v>156441425.873383</v>
       </c>
       <c r="AL15" s="3" t="n">
-        <v>456738458.777437</v>
+        <v>3384886.01290419</v>
       </c>
       <c r="AM15" s="3" t="n">
-        <v>206553525.642842</v>
+        <v>9512728.54835076</v>
       </c>
       <c r="AN15" s="3" t="n">
-        <v>125313568.462275</v>
+        <v>-9380017.86032263</v>
       </c>
       <c r="AO15" s="3" t="n">
-        <v>158089210.266138</v>
-      </c>
-      <c r="AP15" s="3" t="n">
-        <v>223881818.026144</v>
-      </c>
-      <c r="AQ15" s="3" t="n">
-        <v>84225205.0874944</v>
-      </c>
-      <c r="AR15" s="3" t="n">
-        <v>129314985.875543</v>
-      </c>
-      <c r="AS15" s="3" t="n">
-        <v>96674183.5729568</v>
-      </c>
-      <c r="AT15" s="3" t="n">
-        <v>100941578.738721</v>
-      </c>
-      <c r="AU15" s="3" t="n">
-        <v>192451923.892822</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
       <c r="AV15" s="3" t="n">
-        <v>280510565.2276</v>
-      </c>
-      <c r="AW15" s="3" t="n">
-        <v>332279403.855487</v>
-      </c>
+        <v>488846.794660361</v>
+      </c>
+      <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -7674,95 +7998,119 @@
       <c r="M16" t="s">
         <v>50</v>
       </c>
-      <c r="N16" t="s">
-        <v>50</v>
-      </c>
+      <c r="N16"/>
       <c r="O16" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>55403068.2524063</v>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>151749803.858291</v>
+      </c>
+      <c r="R16" s="3" t="n">
+        <v>144937182.594866</v>
+      </c>
+      <c r="S16" s="3" t="n">
+        <v>495996696.933891</v>
+      </c>
+      <c r="T16" s="3" t="n">
+        <v>159240529.302524</v>
+      </c>
+      <c r="U16" s="3" t="n">
+        <v>119224027.057819</v>
+      </c>
+      <c r="V16" s="3" t="n">
+        <v>87862469.6143188</v>
+      </c>
+      <c r="W16" s="3" t="n">
+        <v>3032508103.366</v>
+      </c>
+      <c r="X16" s="3" t="n">
+        <v>3029520865.74602</v>
+      </c>
+      <c r="Y16" s="3" t="n">
+        <v>4462679975.18209</v>
+      </c>
       <c r="Z16" s="3" t="n">
-        <v>3025037761.96926</v>
+        <v>13024331281.9359</v>
       </c>
       <c r="AA16" s="3" t="n">
-        <v>2699371470.61559</v>
+        <v>15372398706.9938</v>
       </c>
       <c r="AB16" s="3" t="n">
-        <v>3405986776.29352</v>
+        <v>16581523633.6159</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>4947189360.42497</v>
+        <v>22083570419.6144</v>
       </c>
       <c r="AD16" s="3" t="n">
-        <v>6075094428.3048</v>
+        <v>27425130780.9172</v>
       </c>
       <c r="AE16" s="3" t="n">
-        <v>7972978705.62505</v>
+        <v>30050709598.5935</v>
       </c>
       <c r="AF16" s="3" t="n">
-        <v>8940618034.99482</v>
+        <v>34317795979.0135</v>
       </c>
       <c r="AG16" s="3" t="n">
-        <v>10993507161.4448</v>
+        <v>39237680344.7513</v>
       </c>
       <c r="AH16" s="3" t="n">
-        <v>11078131009.5247</v>
+        <v>40613190816.161</v>
       </c>
       <c r="AI16" s="3" t="n">
-        <v>9750890012.00133</v>
+        <v>39698164591.3932</v>
       </c>
       <c r="AJ16" s="3" t="n">
-        <v>9264897512.82625</v>
+        <v>41749950429.2066</v>
       </c>
       <c r="AK16" s="3" t="n">
-        <v>5537994648.53861</v>
+        <v>37601534560.5075</v>
       </c>
       <c r="AL16" s="3" t="n">
-        <v>2507425233.35849</v>
+        <v>38286007912.1572</v>
       </c>
       <c r="AM16" s="3" t="n">
-        <v>1076119094.89438</v>
+        <v>32295818721.3154</v>
       </c>
       <c r="AN16" s="3" t="n">
-        <v>761566093.338394</v>
+        <v>31755403192.7149</v>
       </c>
       <c r="AO16" s="3" t="n">
-        <v>572836864.370754</v>
+        <v>30500200974.4915</v>
       </c>
       <c r="AP16" s="3" t="n">
-        <v>667316921.950228</v>
+        <v>32052675054.9609</v>
       </c>
       <c r="AQ16" s="3" t="n">
-        <v>632988480.397044</v>
+        <v>32828563028.8023</v>
       </c>
       <c r="AR16" s="3" t="n">
-        <v>588549984.996025</v>
+        <v>38164102071.2815</v>
       </c>
       <c r="AS16" s="3" t="n">
-        <v>517970062.398349</v>
+        <v>40103973410.5197</v>
       </c>
       <c r="AT16" s="3" t="n">
-        <v>519703467.605785</v>
+        <v>39942398638.0172</v>
       </c>
       <c r="AU16" s="3" t="n">
-        <v>-15266890.9652444</v>
+        <v>34867338309.9487</v>
       </c>
       <c r="AV16" s="3" t="n">
-        <v>536822788.0714</v>
+        <v>34623082718.7838</v>
       </c>
       <c r="AW16" s="3" t="n">
-        <v>795375206.096301</v>
-      </c>
-      <c r="AX16" s="3"/>
+        <v>36391963610.757</v>
+      </c>
+      <c r="AX16" s="3" t="n">
+        <v>38114777976.9572</v>
+      </c>
+      <c r="AY16" s="3" t="n">
+        <v>14307884030.6522</v>
+      </c>
+      <c r="AZ16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -7774,95 +8122,119 @@
       <c r="M17" t="s">
         <v>53</v>
       </c>
-      <c r="N17" t="s">
-        <v>53</v>
-      </c>
+      <c r="N17"/>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>185051531.451294</v>
+      </c>
+      <c r="Q17" s="3" t="n">
+        <v>401624877.304474</v>
+      </c>
+      <c r="R17" s="3" t="n">
+        <v>135163400.435689</v>
+      </c>
+      <c r="S17" s="3" t="n">
+        <v>56114511.1392967</v>
+      </c>
+      <c r="T17" s="3" t="n">
+        <v>69227642.4882986</v>
+      </c>
+      <c r="U17" s="3" t="n">
+        <v>125687226.784351</v>
+      </c>
+      <c r="V17" s="3" t="n">
+        <v>130218145.607022</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>1788758735.71684</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>1869345803.41452</v>
+      </c>
+      <c r="Y17" s="3" t="n">
+        <v>2682906108.01211</v>
+      </c>
       <c r="Z17" s="3" t="n">
-        <v>676893024.468438</v>
+        <v>8626438012.24158</v>
       </c>
       <c r="AA17" s="3" t="n">
-        <v>647537654.095381</v>
+        <v>8371120535.47827</v>
       </c>
       <c r="AB17" s="3" t="n">
-        <v>1678430206.90504</v>
+        <v>9623911357.01919</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>1581251113.39248</v>
+        <v>11132241450.7047</v>
       </c>
       <c r="AD17" s="3" t="n">
-        <v>1260840686.12959</v>
+        <v>12392350533.5888</v>
       </c>
       <c r="AE17" s="3" t="n">
-        <v>1613667649.21662</v>
+        <v>13359571501.1779</v>
       </c>
       <c r="AF17" s="3" t="n">
-        <v>1555432850.97404</v>
+        <v>13461566316.0882</v>
       </c>
       <c r="AG17" s="3" t="n">
-        <v>1131488137.3725</v>
+        <v>14953517819.9127</v>
       </c>
       <c r="AH17" s="3" t="n">
-        <v>1100888048.26857</v>
+        <v>15525335076.0195</v>
       </c>
       <c r="AI17" s="3" t="n">
-        <v>1157722872.38946</v>
+        <v>14972453165.5723</v>
       </c>
       <c r="AJ17" s="3" t="n">
-        <v>2662844673.7949</v>
+        <v>17184225382.8547</v>
       </c>
       <c r="AK17" s="3" t="n">
-        <v>2797537660.42599</v>
+        <v>19216259781.2244</v>
       </c>
       <c r="AL17" s="3" t="n">
-        <v>2296594416.75883</v>
+        <v>18348086587.8969</v>
       </c>
       <c r="AM17" s="3" t="n">
-        <v>2603350560.60856</v>
+        <v>15412652286.2701</v>
       </c>
       <c r="AN17" s="3" t="n">
-        <v>3713643857.92027</v>
+        <v>13833662531.2959</v>
       </c>
       <c r="AO17" s="3" t="n">
-        <v>2931496074.08697</v>
+        <v>13920565020.3107</v>
       </c>
       <c r="AP17" s="3" t="n">
-        <v>4263829555.49789</v>
+        <v>14926838330.71</v>
       </c>
       <c r="AQ17" s="3" t="n">
-        <v>4338588523.78919</v>
+        <v>15515979674.6015</v>
       </c>
       <c r="AR17" s="3" t="n">
-        <v>3512469739.57997</v>
+        <v>16864526855.4413</v>
       </c>
       <c r="AS17" s="3" t="n">
-        <v>4210176498.82266</v>
+        <v>17859356146.281</v>
       </c>
       <c r="AT17" s="3" t="n">
-        <v>4467502101.33602</v>
+        <v>17860530644.6056</v>
       </c>
       <c r="AU17" s="3" t="n">
-        <v>3617533393.00225</v>
+        <v>15914647263.0535</v>
       </c>
       <c r="AV17" s="3" t="n">
-        <v>4999672957.258</v>
+        <v>14376074244.3568</v>
       </c>
       <c r="AW17" s="3" t="n">
-        <v>4139297570.06834</v>
-      </c>
-      <c r="AX17" s="3"/>
+        <v>13010444969.0304</v>
+      </c>
+      <c r="AX17" s="3" t="n">
+        <v>10946232554.8938</v>
+      </c>
+      <c r="AY17" s="3" t="n">
+        <v>4343706540.38994</v>
+      </c>
+      <c r="AZ17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -7874,95 +8246,119 @@
       <c r="M18" t="s">
         <v>54</v>
       </c>
-      <c r="N18" t="s">
-        <v>54</v>
-      </c>
+      <c r="N18"/>
       <c r="O18" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="P18" s="3" t="n">
+        <v>539821.585615337</v>
+      </c>
+      <c r="Q18" s="3" t="n">
+        <v>3710225.09400478</v>
+      </c>
+      <c r="R18" s="3" t="n">
+        <v>5197618.25805939</v>
+      </c>
+      <c r="S18" s="3" t="n">
+        <v>13779272.2570342</v>
+      </c>
+      <c r="T18" s="3" t="n">
+        <v>972387.304009145</v>
+      </c>
+      <c r="U18" s="3" t="n">
+        <v>1116360.43121523</v>
+      </c>
+      <c r="V18" s="3" t="n">
+        <v>113692682.132674</v>
+      </c>
+      <c r="W18" s="3" t="n">
+        <v>192593806.040832</v>
+      </c>
+      <c r="X18" s="3" t="n">
+        <v>99956479.2477447</v>
+      </c>
+      <c r="Y18" s="3" t="n">
+        <v>157218083.702752</v>
+      </c>
       <c r="Z18" s="3" t="n">
-        <v>8290635094.71531</v>
+        <v>590535046.259159</v>
       </c>
       <c r="AA18" s="3" t="n">
-        <v>8045175212.51094</v>
+        <v>1495174557.53934</v>
       </c>
       <c r="AB18" s="3" t="n">
-        <v>9248718325.59807</v>
+        <v>1044340789.87441</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>10697032658.8653</v>
+        <v>1258025677.96911</v>
       </c>
       <c r="AD18" s="3" t="n">
-        <v>11909883817.3704</v>
+        <v>1527134289.2002</v>
       </c>
       <c r="AE18" s="3" t="n">
-        <v>12840403466.8452</v>
+        <v>1619017252.00982</v>
       </c>
       <c r="AF18" s="3" t="n">
-        <v>12937464431.8591</v>
+        <v>804841855.27837</v>
       </c>
       <c r="AG18" s="3" t="n">
-        <v>14372841816.5041</v>
+        <v>547870267.342135</v>
       </c>
       <c r="AH18" s="3" t="n">
-        <v>14921048654.738</v>
+        <v>824470610.674253</v>
       </c>
       <c r="AI18" s="3" t="n">
-        <v>14390837826.7593</v>
+        <v>737937784.307308</v>
       </c>
       <c r="AJ18" s="3" t="n">
-        <v>16516844243.3473</v>
+        <v>932967579.220316</v>
       </c>
       <c r="AK18" s="3" t="n">
-        <v>18467297412.1422</v>
+        <v>1548390615.59866</v>
       </c>
       <c r="AL18" s="3" t="n">
-        <v>17611147064.9327</v>
+        <v>504043460.169931</v>
       </c>
       <c r="AM18" s="3" t="n">
-        <v>14607346933.4983</v>
+        <v>224786047.151981</v>
       </c>
       <c r="AN18" s="3" t="n">
-        <v>13269695923.6464</v>
+        <v>130581828.117969</v>
       </c>
       <c r="AO18" s="3" t="n">
-        <v>13393421613.1278</v>
+        <v>164974386.423641</v>
       </c>
       <c r="AP18" s="3" t="n">
-        <v>14214699461.981</v>
+        <v>230762363.71373</v>
       </c>
       <c r="AQ18" s="3" t="n">
-        <v>14699525271.1156</v>
+        <v>204002066.688924</v>
       </c>
       <c r="AR18" s="3" t="n">
-        <v>16109061690.7698</v>
+        <v>135288187.060641</v>
       </c>
       <c r="AS18" s="3" t="n">
-        <v>16998834159.395</v>
+        <v>104734452.190966</v>
       </c>
       <c r="AT18" s="3" t="n">
-        <v>16803704473.7765</v>
+        <v>109685581.109194</v>
       </c>
       <c r="AU18" s="3" t="n">
-        <v>14967957832.9874</v>
+        <v>204765871.311694</v>
       </c>
       <c r="AV18" s="3" t="n">
-        <v>13621229112.1481</v>
+        <v>289802585.798468</v>
       </c>
       <c r="AW18" s="3" t="n">
-        <v>12410426494.4222</v>
-      </c>
-      <c r="AX18" s="3"/>
+        <v>338328499.7285</v>
+      </c>
+      <c r="AX18" s="3" t="n">
+        <v>353083805.214936</v>
+      </c>
+      <c r="AY18" s="3" t="n">
+        <v>143102113.196201</v>
+      </c>
+      <c r="AZ18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -7974,95 +8370,117 @@
       <c r="M19" t="s">
         <v>56</v>
       </c>
-      <c r="N19" t="s">
-        <v>56</v>
-      </c>
+      <c r="N19"/>
       <c r="O19" t="s">
-        <v>57</v>
-      </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="P19" s="3" t="n">
+        <v>3753931.71606068</v>
+      </c>
+      <c r="Q19" s="3" t="n">
+        <v>443309.995085609</v>
+      </c>
+      <c r="R19" s="3" t="n">
+        <v>22389890.0449312</v>
+      </c>
+      <c r="S19" s="3" t="n">
+        <v>8323906.2826372</v>
+      </c>
+      <c r="T19" s="3" t="n">
+        <v>1412010.6828332</v>
+      </c>
       <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
+      <c r="V19" s="3" t="n">
+        <v>424326.635256827</v>
+      </c>
+      <c r="W19" s="3" t="n">
+        <v>606773234.884995</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <v>842690543.516988</v>
+      </c>
+      <c r="Y19" s="3" t="n">
+        <v>1580460470.29828</v>
+      </c>
       <c r="Z19" s="3" t="n">
-        <v>925226186.4536</v>
+        <v>3147563538.88398</v>
       </c>
       <c r="AA19" s="3" t="n">
-        <v>1104669464.9602</v>
+        <v>2808734844.63265</v>
       </c>
       <c r="AB19" s="3" t="n">
-        <v>1184377591.64278</v>
+        <v>3544157543.75487</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>1249443908.72384</v>
+        <v>5147475207.16253</v>
       </c>
       <c r="AD19" s="3" t="n">
-        <v>2061714779.55742</v>
+        <v>6321195138.76415</v>
       </c>
       <c r="AE19" s="3" t="n">
-        <v>3029040604.53615</v>
+        <v>8295344557.12956</v>
       </c>
       <c r="AF19" s="3" t="n">
-        <v>2217770598.28739</v>
+        <v>9302051699.71702</v>
       </c>
       <c r="AG19" s="3" t="n">
-        <v>2356606394.35458</v>
+        <v>11436518540.4522</v>
       </c>
       <c r="AH19" s="3" t="n">
-        <v>1560799286.89055</v>
+        <v>11524682570.7682</v>
       </c>
       <c r="AI19" s="3" t="n">
-        <v>2122550282.66825</v>
+        <v>10142596080.0153</v>
       </c>
       <c r="AJ19" s="3" t="n">
-        <v>3508630783.30238</v>
+        <v>9638874270.60851</v>
       </c>
       <c r="AK19" s="3" t="n">
-        <v>2640954168.25818</v>
+        <v>5760200105.40213</v>
       </c>
       <c r="AL19" s="3" t="n">
-        <v>2221789441.35155</v>
+        <v>2608437184.76473</v>
       </c>
       <c r="AM19" s="3" t="n">
-        <v>1152294146.64536</v>
+        <v>1200694403.71044</v>
       </c>
       <c r="AN19" s="3" t="n">
-        <v>746759783.036562</v>
+        <v>792999696.315983</v>
       </c>
       <c r="AO19" s="3" t="n">
-        <v>796740622.592979</v>
+        <v>600390031.230651</v>
       </c>
       <c r="AP19" s="3" t="n">
-        <v>1200572837.64093</v>
+        <v>725787720.525122</v>
       </c>
       <c r="AQ19" s="3" t="n">
-        <v>1777495586.58826</v>
+        <v>666605353.498137</v>
       </c>
       <c r="AR19" s="3" t="n">
-        <v>1344355024.10587</v>
+        <v>614652003.566245</v>
       </c>
       <c r="AS19" s="3" t="n">
-        <v>1400819097.36077</v>
+        <v>533883372.715614</v>
       </c>
       <c r="AT19" s="3" t="n">
-        <v>1131847943.85952</v>
+        <v>542151126.383882</v>
       </c>
       <c r="AU19" s="3" t="n">
-        <v>979595085.460758</v>
+        <v>-9001222.11012666</v>
       </c>
       <c r="AV19" s="3" t="n">
-        <v>1085387317.1159</v>
+        <v>556534148.450033</v>
       </c>
       <c r="AW19" s="3" t="n">
-        <v>1495857002.31953</v>
-      </c>
-      <c r="AX19" s="3"/>
+        <v>837182633.3788</v>
+      </c>
+      <c r="AX19" s="3" t="n">
+        <v>970398096.801594</v>
+      </c>
+      <c r="AY19" s="3" t="n">
+        <v>401956135.31397</v>
+      </c>
+      <c r="AZ19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -8074,81 +8492,111 @@
       <c r="M20" t="s">
         <v>58</v>
       </c>
-      <c r="N20" t="s">
-        <v>58</v>
-      </c>
+      <c r="N20"/>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="S20" s="3" t="n">
+        <v>515842.351382273</v>
+      </c>
+      <c r="T20" s="3" t="n">
+        <v>2328513.65902573</v>
+      </c>
       <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
+      <c r="V20" s="3" t="n">
+        <v>127118.949802678</v>
+      </c>
+      <c r="W20" s="3" t="n">
+        <v>178692346.366685</v>
+      </c>
+      <c r="X20" s="3" t="n">
+        <v>285202826.263466</v>
+      </c>
+      <c r="Y20" s="3" t="n">
+        <v>147621844.034005</v>
+      </c>
       <c r="Z20" s="3" t="n">
-        <v>1019228.11469816</v>
+        <v>962701440.06606</v>
       </c>
       <c r="AA20" s="3" t="n">
-        <v>260764.85859476</v>
+        <v>1149424461.99416</v>
       </c>
       <c r="AB20" s="3" t="n">
-        <v>33188288.549756</v>
+        <v>1232989860.60789</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>145455475.415221</v>
+        <v>1300027368.63623</v>
       </c>
       <c r="AD20" s="3" t="n">
-        <v>287228111.541315</v>
+        <v>2145234383.64</v>
       </c>
       <c r="AE20" s="3" t="n">
-        <v>513839077.413231</v>
+        <v>3151522771.16041</v>
       </c>
       <c r="AF20" s="3" t="n">
-        <v>964073375.956311</v>
+        <v>2307612081.07717</v>
       </c>
       <c r="AG20" s="3" t="n">
-        <v>3723775093.35966</v>
+        <v>2451818230.94412</v>
       </c>
       <c r="AH20" s="3" t="n">
-        <v>5574535156.95916</v>
+        <v>1624009978.25437</v>
       </c>
       <c r="AI20" s="3" t="n">
-        <v>6251694182.0753</v>
+        <v>2208371031.69889</v>
       </c>
       <c r="AJ20" s="3" t="n">
-        <v>351739179.461811</v>
+        <v>3650631530.3181</v>
       </c>
       <c r="AK20" s="3" t="n">
-        <v>150483894.746265</v>
+        <v>2751359363.2634</v>
       </c>
       <c r="AL20" s="3" t="n">
-        <v>3253587.61145794</v>
+        <v>2505357336.58649</v>
       </c>
       <c r="AM20" s="3" t="n">
-        <v>9522924.76254834</v>
+        <v>1110009254.14639</v>
       </c>
       <c r="AN20" s="3" t="n">
-        <v>-9001685.33890305</v>
+        <v>597672145.245424</v>
       </c>
       <c r="AO20" s="3" t="n">
-        <v>176716.296840359</v>
-      </c>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
+        <v>996088721.588717</v>
+      </c>
+      <c r="AP20" s="3" t="n">
+        <v>1153228412.02799</v>
+      </c>
+      <c r="AQ20" s="3" t="n">
+        <v>1789835715.30811</v>
+      </c>
+      <c r="AR20" s="3" t="n">
+        <v>1405416446.12424</v>
+      </c>
+      <c r="AS20" s="3" t="n">
+        <v>1457694128.22687</v>
+      </c>
+      <c r="AT20" s="3" t="n">
+        <v>1143555814.5831</v>
+      </c>
+      <c r="AU20" s="3" t="n">
+        <v>986290324.236135</v>
+      </c>
       <c r="AV20" s="3" t="n">
-        <v>467462</v>
-      </c>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
+        <v>1106559371.88613</v>
+      </c>
+      <c r="AW20" s="3" t="n">
+        <v>1501941160.9433</v>
+      </c>
+      <c r="AX20" s="3" t="n">
+        <v>1729502439.41696</v>
+      </c>
+      <c r="AY20" s="3" t="n">
+        <v>1059008571.38218</v>
+      </c>
+      <c r="AZ20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -8160,99 +8608,97 @@
       <c r="M21" t="s">
         <v>58</v>
       </c>
-      <c r="N21" t="s">
-        <v>58</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" s="3" t="n">
-        <v>39159221227.3348</v>
+        <v>40751956523.3569</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>37075841095.001</v>
+        <v>38582947725.1929</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>36294366444.8787</v>
+        <v>37770864890.7304</v>
       </c>
       <c r="S21" s="3" t="n">
-        <v>33369645404.352</v>
+        <v>34724447768.6349</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>31587983747.9476</v>
+        <v>32867101256.482</v>
       </c>
       <c r="U21" s="3" t="n">
-        <v>32767823423.5663</v>
+        <v>34097059996.7648</v>
       </c>
       <c r="V21" s="3" t="n">
-        <v>31286645512.572</v>
+        <v>32556369134.7384</v>
       </c>
       <c r="W21" s="3" t="n">
-        <v>31154027060.9063</v>
+        <v>32725704141.2859</v>
       </c>
       <c r="X21" s="3" t="n">
-        <v>29189360890.8719</v>
+        <v>31236078316.5261</v>
       </c>
       <c r="Y21" s="3" t="n">
-        <v>32280454746.2768</v>
+        <v>35442002632.3495</v>
       </c>
       <c r="Z21" s="3" t="n">
-        <v>7526641248.01413</v>
+        <v>7831499447.82415</v>
       </c>
       <c r="AA21" s="3" t="n">
-        <v>6606935774.63454</v>
+        <v>6874611711.82715</v>
       </c>
       <c r="AB21" s="3" t="n">
-        <v>7582225166.1767</v>
+        <v>7889813521.3539</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>6914215550.98431</v>
+        <v>7194136009.85309</v>
       </c>
       <c r="AD21" s="3" t="n">
-        <v>6409878714.35362</v>
+        <v>6669541461.02814</v>
       </c>
       <c r="AE21" s="3" t="n">
-        <v>4561435025.9102</v>
+        <v>4745851631.56221</v>
       </c>
       <c r="AF21" s="3" t="n">
-        <v>2827558485.19101</v>
+        <v>2942102367.85701</v>
       </c>
       <c r="AG21" s="3" t="n">
-        <v>561746702.109806</v>
+        <v>584442445.599792</v>
       </c>
       <c r="AH21" s="3" t="n">
-        <v>1858665185.96288</v>
+        <v>1933952112.55998</v>
       </c>
       <c r="AI21" s="3" t="n">
-        <v>491777875.775678</v>
+        <v>510828340.977056</v>
       </c>
       <c r="AJ21" s="3" t="n">
-        <v>103208993.994511</v>
+        <v>107352041.267865</v>
       </c>
       <c r="AK21" s="3" t="n">
-        <v>26350447.4157607</v>
+        <v>27419091.9030683</v>
       </c>
       <c r="AL21" s="3" t="n">
-        <v>371129273.469558</v>
+        <v>360659372.583948</v>
       </c>
       <c r="AM21" s="3" t="n">
-        <v>475242959.410575</v>
+        <v>462729892.714372</v>
       </c>
       <c r="AN21" s="3" t="n">
-        <v>587000658.356338</v>
+        <v>560148543.220526</v>
       </c>
       <c r="AO21" s="3" t="n">
-        <v>270020631.553428</v>
+        <v>230168804.895511</v>
       </c>
       <c r="AP21" s="3" t="n">
-        <v>262369494.174687</v>
+        <v>188614289.031214</v>
       </c>
       <c r="AQ21" s="3" t="n">
-        <v>512422610.278865</v>
+        <v>326720379.240558</v>
       </c>
       <c r="AR21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AS21" s="3" t="n">
-        <v>57010.718032891</v>
+        <v>59684.9252881944</v>
       </c>
       <c r="AT21" s="3" t="n">
         <v>0</v>
@@ -8266,7 +8712,13 @@
       <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="3"/>
+      <c r="AX21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -8310,6 +8762,8 @@
       <c r="AV22" s="3"/>
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8463,115 +8917,115 @@
       <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="4" t="n">
         <v>278592134.53</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="4" t="n">
         <v>214066000</v>
       </c>
-      <c r="R2" s="13" t="n">
+      <c r="R2" s="4" t="n">
         <v>115231000</v>
       </c>
-      <c r="S2" s="13" t="n">
+      <c r="S2" s="4" t="n">
         <v>356753000</v>
       </c>
-      <c r="T2" s="13" t="n">
+      <c r="T2" s="4" t="n">
         <v>143143000</v>
       </c>
-      <c r="U2" s="13" t="n">
+      <c r="U2" s="4" t="n">
         <v>214881809</v>
       </c>
-      <c r="V2" s="13" t="n">
+      <c r="V2" s="4" t="n">
         <v>164943000</v>
       </c>
-      <c r="W2" s="13" t="n">
+      <c r="W2" s="4" t="n">
         <v>2173573690.2</v>
       </c>
-      <c r="X2" s="13" t="n">
+      <c r="X2" s="4" t="n">
         <v>2155383374</v>
       </c>
-      <c r="Y2" s="13" t="n">
+      <c r="Y2" s="4" t="n">
         <v>2039443037</v>
       </c>
-      <c r="Z2" s="13" t="n">
+      <c r="Z2" s="4" t="n">
         <v>8021951004</v>
       </c>
-      <c r="AA2" s="13" t="n">
+      <c r="AA2" s="4" t="n">
         <v>8320647958.99</v>
       </c>
-      <c r="AB2" s="13" t="n">
+      <c r="AB2" s="4" t="n">
         <v>8800415383.6</v>
       </c>
-      <c r="AC2" s="13" t="n">
+      <c r="AC2" s="4" t="n">
         <v>9400367347.09</v>
       </c>
-      <c r="AD2" s="13" t="n">
+      <c r="AD2" s="4" t="n">
         <v>10909289706.63</v>
       </c>
-      <c r="AE2" s="13" t="n">
+      <c r="AE2" s="4" t="n">
         <v>12674014351.44</v>
       </c>
-      <c r="AF2" s="13" t="n">
+      <c r="AF2" s="4" t="n">
         <v>11694165809.04</v>
       </c>
-      <c r="AG2" s="13" t="n">
+      <c r="AG2" s="4" t="n">
         <v>13703083958.18</v>
       </c>
-      <c r="AH2" s="13" t="n">
+      <c r="AH2" s="4" t="n">
         <v>13721625705.65</v>
       </c>
-      <c r="AI2" s="13" t="n">
+      <c r="AI2" s="4" t="n">
         <v>13379281715.7</v>
       </c>
-      <c r="AJ2" s="13" t="n">
+      <c r="AJ2" s="4" t="n">
         <v>13819567276.7127</v>
       </c>
-      <c r="AK2" s="13" t="n">
+      <c r="AK2" s="4" t="n">
         <v>14502433721.5332</v>
       </c>
-      <c r="AL2" s="13" t="n">
+      <c r="AL2" s="4" t="n">
         <v>14857238761.6137</v>
       </c>
-      <c r="AM2" s="13" t="n">
+      <c r="AM2" s="4" t="n">
         <v>12864103169.5605</v>
       </c>
-      <c r="AN2" s="13" t="n">
+      <c r="AN2" s="4" t="n">
         <v>12340311320.3711</v>
       </c>
-      <c r="AO2" s="13" t="n">
+      <c r="AO2" s="4" t="n">
         <v>12027676031.5248</v>
       </c>
-      <c r="AP2" s="13" t="n">
+      <c r="AP2" s="4" t="n">
         <v>11818138692.8012</v>
       </c>
-      <c r="AQ2" s="13" t="n">
+      <c r="AQ2" s="4" t="n">
         <v>12312033724.5194</v>
       </c>
-      <c r="AR2" s="13" t="n">
+      <c r="AR2" s="4" t="n">
         <v>13208356060.49</v>
       </c>
-      <c r="AS2" s="13" t="n">
+      <c r="AS2" s="4" t="n">
         <v>13080121424.65</v>
       </c>
-      <c r="AT2" s="13" t="n">
+      <c r="AT2" s="4" t="n">
         <v>13053629049.57</v>
       </c>
-      <c r="AU2" s="13" t="n">
+      <c r="AU2" s="4" t="n">
         <v>11949916109.8</v>
       </c>
-      <c r="AV2" s="13" t="n">
+      <c r="AV2" s="4" t="n">
         <v>12996451209.82</v>
       </c>
-      <c r="AW2" s="13" t="n">
+      <c r="AW2" s="4" t="n">
         <v>12745224505.08</v>
       </c>
-      <c r="AX2" s="13" t="n">
+      <c r="AX2" s="4" t="n">
         <v>12779481202.97</v>
       </c>
-      <c r="AY2" s="13" t="n">
+      <c r="AY2" s="4" t="n">
         <v>5038072478.95</v>
       </c>
-      <c r="AZ2" s="13"/>
+      <c r="AZ2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -8586,115 +9040,115 @@
       <c r="O3" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="13" t="n">
+      <c r="P3" s="4" t="n">
         <v>65004000</v>
       </c>
-      <c r="Q3" s="13" t="n">
+      <c r="Q3" s="4" t="n">
         <v>202409000</v>
       </c>
-      <c r="R3" s="13" t="n">
+      <c r="R3" s="4" t="n">
         <v>60358000</v>
       </c>
-      <c r="S3" s="13" t="n">
+      <c r="S3" s="4" t="n">
         <v>408000</v>
       </c>
-      <c r="T3" s="13" t="n">
+      <c r="T3" s="4" t="n">
         <v>44289000</v>
       </c>
-      <c r="U3" s="13" t="n">
+      <c r="U3" s="4" t="n">
         <v>1650000</v>
       </c>
-      <c r="V3" s="13" t="n">
+      <c r="V3" s="4" t="n">
         <v>4838000</v>
       </c>
-      <c r="W3" s="13" t="n">
+      <c r="W3" s="4" t="n">
         <v>16133614</v>
       </c>
-      <c r="X3" s="13" t="n">
+      <c r="X3" s="4" t="n">
         <v>155179794</v>
       </c>
-      <c r="Y3" s="13" t="n">
+      <c r="Y3" s="4" t="n">
         <v>252960583</v>
       </c>
-      <c r="Z3" s="13" t="n">
+      <c r="Z3" s="4" t="n">
         <v>569967042.0107</v>
       </c>
-      <c r="AA3" s="13" t="n">
+      <c r="AA3" s="4" t="n">
         <v>661192807.95</v>
       </c>
-      <c r="AB3" s="13" t="n">
+      <c r="AB3" s="4" t="n">
         <v>899616095.1</v>
       </c>
-      <c r="AC3" s="13" t="n">
+      <c r="AC3" s="4" t="n">
         <v>1531424547.22</v>
       </c>
-      <c r="AD3" s="13" t="n">
+      <c r="AD3" s="4" t="n">
         <v>1656253978.5</v>
       </c>
-      <c r="AE3" s="13" t="n">
+      <c r="AE3" s="4" t="n">
         <v>1813240780.51</v>
       </c>
-      <c r="AF3" s="13" t="n">
+      <c r="AF3" s="4" t="n">
         <v>2003895787.07</v>
       </c>
-      <c r="AG3" s="13" t="n">
+      <c r="AG3" s="4" t="n">
         <v>2163684328.85</v>
       </c>
-      <c r="AH3" s="13" t="n">
+      <c r="AH3" s="4" t="n">
         <v>2336363087.25</v>
       </c>
-      <c r="AI3" s="13" t="n">
+      <c r="AI3" s="4" t="n">
         <v>2268088750.6</v>
       </c>
-      <c r="AJ3" s="13" t="n">
+      <c r="AJ3" s="4" t="n">
         <v>2796810770.592</v>
       </c>
-      <c r="AK3" s="13" t="n">
+      <c r="AK3" s="4" t="n">
         <v>2404648227.8275</v>
       </c>
-      <c r="AL3" s="13" t="n">
+      <c r="AL3" s="4" t="n">
         <v>1861725343.9855</v>
       </c>
-      <c r="AM3" s="13" t="n">
+      <c r="AM3" s="4" t="n">
         <v>1783372534.0627</v>
       </c>
-      <c r="AN3" s="13" t="n">
+      <c r="AN3" s="4" t="n">
         <v>1788415710.7609</v>
       </c>
-      <c r="AO3" s="13" t="n">
+      <c r="AO3" s="4" t="n">
         <v>1657489192.2591</v>
       </c>
-      <c r="AP3" s="13" t="n">
+      <c r="AP3" s="4" t="n">
         <v>1857710221.0115</v>
       </c>
-      <c r="AQ3" s="13" t="n">
+      <c r="AQ3" s="4" t="n">
         <v>1701205861.0879</v>
       </c>
-      <c r="AR3" s="13" t="n">
+      <c r="AR3" s="4" t="n">
         <v>2111986748.43</v>
       </c>
-      <c r="AS3" s="13" t="n">
+      <c r="AS3" s="4" t="n">
         <v>2382497299.38</v>
       </c>
-      <c r="AT3" s="13" t="n">
+      <c r="AT3" s="4" t="n">
         <v>2084797685.09</v>
       </c>
-      <c r="AU3" s="13" t="n">
+      <c r="AU3" s="4" t="n">
         <v>1981481809.3</v>
       </c>
-      <c r="AV3" s="13" t="n">
+      <c r="AV3" s="4" t="n">
         <v>2191729697.14</v>
       </c>
-      <c r="AW3" s="13" t="n">
+      <c r="AW3" s="4" t="n">
         <v>2198074759.53</v>
       </c>
-      <c r="AX3" s="13" t="n">
+      <c r="AX3" s="4" t="n">
         <v>2459980789.02</v>
       </c>
-      <c r="AY3" s="13" t="n">
+      <c r="AY3" s="4" t="n">
         <v>1012331422.78</v>
       </c>
-      <c r="AZ3" s="13"/>
+      <c r="AZ3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -8709,115 +9163,115 @@
       <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="13" t="n">
+      <c r="P4" s="4" t="n">
         <v>8008000</v>
       </c>
-      <c r="Q4" s="13" t="n">
+      <c r="Q4" s="4" t="n">
         <v>2356000</v>
       </c>
-      <c r="R4" s="13" t="n">
+      <c r="R4" s="4" t="n">
         <v>705000</v>
       </c>
-      <c r="S4" s="13" t="n">
+      <c r="S4" s="4" t="n">
         <v>35000</v>
       </c>
-      <c r="T4" s="13" t="n">
+      <c r="T4" s="4" t="n">
         <v>3331000</v>
       </c>
-      <c r="U4" s="13" t="n">
+      <c r="U4" s="4" t="n">
         <v>7826000</v>
       </c>
-      <c r="V4" s="13" t="n">
+      <c r="V4" s="4" t="n">
         <v>46000</v>
       </c>
-      <c r="W4" s="13" t="n">
+      <c r="W4" s="4" t="n">
         <v>3310210</v>
       </c>
-      <c r="X4" s="13" t="n">
+      <c r="X4" s="4" t="n">
         <v>1278785</v>
       </c>
-      <c r="Y4" s="13" t="n">
+      <c r="Y4" s="4" t="n">
         <v>902234</v>
       </c>
-      <c r="Z4" s="13" t="n">
+      <c r="Z4" s="4" t="n">
         <v>8221442</v>
       </c>
-      <c r="AA4" s="13" t="n">
+      <c r="AA4" s="4" t="n">
         <v>9130615</v>
       </c>
-      <c r="AB4" s="13" t="n">
+      <c r="AB4" s="4" t="n">
         <v>22280053</v>
       </c>
-      <c r="AC4" s="13" t="n">
+      <c r="AC4" s="4" t="n">
         <v>20611069</v>
       </c>
-      <c r="AD4" s="13" t="n">
+      <c r="AD4" s="4" t="n">
         <v>49463752.6406</v>
       </c>
-      <c r="AE4" s="13" t="n">
+      <c r="AE4" s="4" t="n">
         <v>10742864.4004</v>
       </c>
-      <c r="AF4" s="13" t="n">
+      <c r="AF4" s="4" t="n">
         <v>1916858.1523</v>
       </c>
-      <c r="AG4" s="13" t="n">
+      <c r="AG4" s="4" t="n">
         <v>2709667.3293</v>
       </c>
-      <c r="AH4" s="13" t="n">
+      <c r="AH4" s="4" t="n">
         <v>930314.2947</v>
       </c>
-      <c r="AI4" s="13" t="n">
+      <c r="AI4" s="4" t="n">
         <v>244427.5315</v>
       </c>
-      <c r="AJ4" s="13" t="n">
+      <c r="AJ4" s="4" t="n">
         <v>142424882.104</v>
       </c>
-      <c r="AK4" s="13" t="n">
+      <c r="AK4" s="4" t="n">
         <v>558733140.6799</v>
       </c>
-      <c r="AL4" s="13" t="n">
+      <c r="AL4" s="4" t="n">
         <v>1698954793.6019</v>
       </c>
-      <c r="AM4" s="13" t="n">
+      <c r="AM4" s="4" t="n">
         <v>1568548888.3238</v>
       </c>
-      <c r="AN4" s="13" t="n">
+      <c r="AN4" s="4" t="n">
         <v>2014605978.4852</v>
       </c>
-      <c r="AO4" s="13" t="n">
+      <c r="AO4" s="4" t="n">
         <v>2244578535.65</v>
       </c>
-      <c r="AP4" s="13" t="n">
+      <c r="AP4" s="4" t="n">
         <v>2682951279.3963</v>
       </c>
-      <c r="AQ4" s="13" t="n">
+      <c r="AQ4" s="4" t="n">
         <v>3000140277.8821</v>
       </c>
-      <c r="AR4" s="13" t="n">
+      <c r="AR4" s="4" t="n">
         <v>2727769881.0172</v>
       </c>
-      <c r="AS4" s="13" t="n">
+      <c r="AS4" s="4" t="n">
         <v>2830983359.2267</v>
       </c>
-      <c r="AT4" s="13" t="n">
+      <c r="AT4" s="4" t="n">
         <v>3799391450.2057</v>
       </c>
-      <c r="AU4" s="13" t="n">
+      <c r="AU4" s="4" t="n">
         <v>3310187177.4694</v>
       </c>
-      <c r="AV4" s="13" t="n">
+      <c r="AV4" s="4" t="n">
         <v>3759755574.563</v>
       </c>
-      <c r="AW4" s="13" t="n">
+      <c r="AW4" s="4" t="n">
         <v>5131997329.1368</v>
       </c>
-      <c r="AX4" s="13" t="n">
+      <c r="AX4" s="4" t="n">
         <v>6144401901.72</v>
       </c>
-      <c r="AY4" s="13" t="n">
+      <c r="AY4" s="4" t="n">
         <v>2686921749.26</v>
       </c>
-      <c r="AZ4" s="13"/>
+      <c r="AZ4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -8832,115 +9286,115 @@
       <c r="O5" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="13" t="n">
+      <c r="P5" s="4" t="n">
         <v>35000</v>
       </c>
-      <c r="Q5" s="13" t="n">
+      <c r="Q5" s="4" t="n">
         <v>225000</v>
       </c>
-      <c r="R5" s="13" t="n">
+      <c r="R5" s="4" t="n">
         <v>784000</v>
       </c>
-      <c r="S5" s="13" t="n">
+      <c r="S5" s="4" t="n">
         <v>350000</v>
       </c>
-      <c r="T5" s="13" t="n">
+      <c r="T5" s="4" t="n">
         <v>4747000</v>
       </c>
-      <c r="U5" s="13" t="n">
+      <c r="U5" s="4" t="n">
         <v>19289000</v>
       </c>
-      <c r="V5" s="13" t="n">
+      <c r="V5" s="4" t="n">
         <v>83739000</v>
       </c>
-      <c r="W5" s="13" t="n">
+      <c r="W5" s="4" t="n">
         <v>173888914</v>
       </c>
-      <c r="X5" s="13" t="n">
+      <c r="X5" s="4" t="n">
         <v>488601045.32</v>
       </c>
-      <c r="Y5" s="13" t="n">
+      <c r="Y5" s="4" t="n">
         <v>972782199.57</v>
       </c>
-      <c r="Z5" s="13" t="n">
+      <c r="Z5" s="4" t="n">
         <v>3403814853.3234</v>
       </c>
-      <c r="AA5" s="13" t="n">
+      <c r="AA5" s="4" t="n">
         <v>3676182868.7866</v>
       </c>
-      <c r="AB5" s="13" t="n">
+      <c r="AB5" s="4" t="n">
         <v>4907435115.6817</v>
       </c>
-      <c r="AC5" s="13" t="n">
+      <c r="AC5" s="4" t="n">
         <v>5762931430.4176</v>
       </c>
-      <c r="AD5" s="13" t="n">
+      <c r="AD5" s="4" t="n">
         <v>6164915620.1155</v>
       </c>
-      <c r="AE5" s="13" t="n">
+      <c r="AE5" s="4" t="n">
         <v>5568805912.6965</v>
       </c>
-      <c r="AF5" s="13" t="n">
+      <c r="AF5" s="4" t="n">
         <v>5862450974.101</v>
       </c>
-      <c r="AG5" s="13" t="n">
+      <c r="AG5" s="4" t="n">
         <v>5091094395.5873</v>
       </c>
-      <c r="AH5" s="13" t="n">
+      <c r="AH5" s="4" t="n">
         <v>4762596010.0103</v>
       </c>
-      <c r="AI5" s="13" t="n">
+      <c r="AI5" s="4" t="n">
         <v>4299315325.8996</v>
       </c>
-      <c r="AJ5" s="13" t="n">
+      <c r="AJ5" s="4" t="n">
         <v>4158166004.4077</v>
       </c>
-      <c r="AK5" s="13" t="n">
+      <c r="AK5" s="4" t="n">
         <v>4261793823.0651</v>
       </c>
-      <c r="AL5" s="13" t="n">
+      <c r="AL5" s="4" t="n">
         <v>4464067385.5296</v>
       </c>
-      <c r="AM5" s="13" t="n">
+      <c r="AM5" s="4" t="n">
         <v>3778591623.2397</v>
       </c>
-      <c r="AN5" s="13" t="n">
+      <c r="AN5" s="4" t="n">
         <v>4125640111.1352</v>
       </c>
-      <c r="AO5" s="13" t="n">
+      <c r="AO5" s="4" t="n">
         <v>3898086895.3259</v>
       </c>
-      <c r="AP5" s="13" t="n">
+      <c r="AP5" s="4" t="n">
         <v>4437681367.4164</v>
       </c>
-      <c r="AQ5" s="13" t="n">
+      <c r="AQ5" s="4" t="n">
         <v>4694702009.0262</v>
       </c>
-      <c r="AR5" s="13" t="n">
+      <c r="AR5" s="4" t="n">
         <v>5483277848.1843</v>
       </c>
-      <c r="AS5" s="13" t="n">
+      <c r="AS5" s="4" t="n">
         <v>6372885740.4149</v>
       </c>
-      <c r="AT5" s="13" t="n">
+      <c r="AT5" s="4" t="n">
         <v>7180073373.7323</v>
       </c>
-      <c r="AU5" s="13" t="n">
+      <c r="AU5" s="4" t="n">
         <v>7269439601.5908</v>
       </c>
-      <c r="AV5" s="13" t="n">
+      <c r="AV5" s="4" t="n">
         <v>7652966743.2939</v>
       </c>
-      <c r="AW5" s="13" t="n">
+      <c r="AW5" s="4" t="n">
         <v>7807578975.3932</v>
       </c>
-      <c r="AX5" s="13" t="n">
+      <c r="AX5" s="4" t="n">
         <v>7740469058.4</v>
       </c>
-      <c r="AY5" s="13" t="n">
+      <c r="AY5" s="4" t="n">
         <v>2827259418.11</v>
       </c>
-      <c r="AZ5" s="13"/>
+      <c r="AZ5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -8955,109 +9409,109 @@
       <c r="O6" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13" t="n">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4" t="n">
         <v>59000</v>
       </c>
-      <c r="R6" s="13" t="n">
+      <c r="R6" s="4" t="n">
         <v>154000</v>
       </c>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13" t="n">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="V6" s="13" t="n">
+      <c r="V6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W6" s="13" t="n">
+      <c r="W6" s="4" t="n">
         <v>243565784</v>
       </c>
-      <c r="X6" s="13" t="n">
+      <c r="X6" s="4" t="n">
         <v>382509264</v>
       </c>
-      <c r="Y6" s="13" t="n">
+      <c r="Y6" s="4" t="n">
         <v>678993561.94</v>
       </c>
-      <c r="Z6" s="13" t="n">
+      <c r="Z6" s="4" t="n">
         <v>1726149162.3012</v>
       </c>
-      <c r="AA6" s="13" t="n">
+      <c r="AA6" s="4" t="n">
         <v>2168532694.635</v>
       </c>
-      <c r="AB6" s="13" t="n">
+      <c r="AB6" s="4" t="n">
         <v>2402379757.1437</v>
       </c>
-      <c r="AC6" s="13" t="n">
+      <c r="AC6" s="4" t="n">
         <v>3518300065.647</v>
       </c>
-      <c r="AD6" s="13" t="n">
+      <c r="AD6" s="4" t="n">
         <v>4579288833.2287</v>
       </c>
-      <c r="AE6" s="13" t="n">
+      <c r="AE6" s="4" t="n">
         <v>5927502446.7852</v>
       </c>
-      <c r="AF6" s="13" t="n">
+      <c r="AF6" s="4" t="n">
         <v>7213638627.2023</v>
       </c>
-      <c r="AG6" s="13" t="n">
+      <c r="AG6" s="4" t="n">
         <v>10844780533.4714</v>
       </c>
-      <c r="AH6" s="13" t="n">
+      <c r="AH6" s="4" t="n">
         <v>12803754268.4698</v>
       </c>
-      <c r="AI6" s="13" t="n">
+      <c r="AI6" s="4" t="n">
         <v>13503154589.4892</v>
       </c>
-      <c r="AJ6" s="13" t="n">
+      <c r="AJ6" s="4" t="n">
         <v>13440584461.217</v>
       </c>
-      <c r="AK6" s="13" t="n">
+      <c r="AK6" s="4" t="n">
         <v>11438130563.5045</v>
       </c>
-      <c r="AL6" s="13" t="n">
+      <c r="AL6" s="4" t="n">
         <v>10635674263.3454</v>
       </c>
-      <c r="AM6" s="13" t="n">
+      <c r="AM6" s="4" t="n">
         <v>8153385061.3369</v>
       </c>
-      <c r="AN6" s="13" t="n">
+      <c r="AN6" s="4" t="n">
         <v>7982863443.861</v>
       </c>
-      <c r="AO6" s="13" t="n">
+      <c r="AO6" s="4" t="n">
         <v>7991905869.8759</v>
       </c>
-      <c r="AP6" s="13" t="n">
+      <c r="AP6" s="4" t="n">
         <v>9541811440.3088</v>
       </c>
-      <c r="AQ6" s="13" t="n">
+      <c r="AQ6" s="4" t="n">
         <v>10536540025.5294</v>
       </c>
-      <c r="AR6" s="13" t="n">
+      <c r="AR6" s="4" t="n">
         <v>11227087671.6687</v>
       </c>
-      <c r="AS6" s="13" t="n">
+      <c r="AS6" s="4" t="n">
         <v>11467219376.4914</v>
       </c>
-      <c r="AT6" s="13" t="n">
+      <c r="AT6" s="4" t="n">
         <v>11218833082.8735</v>
       </c>
-      <c r="AU6" s="13" t="n">
+      <c r="AU6" s="4" t="n">
         <v>9081763949.8806</v>
       </c>
-      <c r="AV6" s="13" t="n">
+      <c r="AV6" s="4" t="n">
         <v>9512957833.6978</v>
       </c>
-      <c r="AW6" s="13" t="n">
+      <c r="AW6" s="4" t="n">
         <v>9678912907.9636</v>
       </c>
-      <c r="AX6" s="13" t="n">
+      <c r="AX6" s="4" t="n">
         <v>10219815756.9625</v>
       </c>
-      <c r="AY6" s="13" t="n">
+      <c r="AY6" s="4" t="n">
         <v>4107389734.17</v>
       </c>
-      <c r="AZ6" s="13"/>
+      <c r="AZ6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -9072,115 +9526,115 @@
       <c r="O7" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="13" t="n">
+      <c r="P7" s="4" t="n">
         <v>2464000</v>
       </c>
-      <c r="Q7" s="13" t="n">
+      <c r="Q7" s="4" t="n">
         <v>3661000</v>
       </c>
-      <c r="R7" s="13" t="n">
+      <c r="R7" s="4" t="n">
         <v>10692000</v>
       </c>
-      <c r="S7" s="13" t="n">
+      <c r="S7" s="4" t="n">
         <v>7140000</v>
       </c>
-      <c r="T7" s="13" t="n">
+      <c r="T7" s="4" t="n">
         <v>998000</v>
       </c>
-      <c r="U7" s="13" t="n">
+      <c r="U7" s="4" t="n">
         <v>1048000</v>
       </c>
-      <c r="V7" s="13" t="n">
+      <c r="V7" s="4" t="n">
         <v>3559000</v>
       </c>
-      <c r="W7" s="13" t="n">
+      <c r="W7" s="4" t="n">
         <v>884978928</v>
       </c>
-      <c r="X7" s="13" t="n">
+      <c r="X7" s="4" t="n">
         <v>1398987022.07</v>
       </c>
-      <c r="Y7" s="13" t="n">
+      <c r="Y7" s="4" t="n">
         <v>2478043838.94</v>
       </c>
-      <c r="Z7" s="13" t="n">
+      <c r="Z7" s="4" t="n">
         <v>6877753921.1716</v>
       </c>
-      <c r="AA7" s="13" t="n">
+      <c r="AA7" s="4" t="n">
         <v>7262420236.5191</v>
       </c>
-      <c r="AB7" s="13" t="n">
+      <c r="AB7" s="4" t="n">
         <v>8471974712.1727</v>
       </c>
-      <c r="AC7" s="13" t="n">
+      <c r="AC7" s="4" t="n">
         <v>11100018359.9154</v>
       </c>
-      <c r="AD7" s="13" t="n">
+      <c r="AD7" s="4" t="n">
         <v>14095162856.8866</v>
       </c>
-      <c r="AE7" s="13" t="n">
+      <c r="AE7" s="4" t="n">
         <v>16205571687.5275</v>
       </c>
-      <c r="AF7" s="13" t="n">
+      <c r="AF7" s="4" t="n">
         <v>18394961962.6743</v>
       </c>
-      <c r="AG7" s="13" t="n">
+      <c r="AG7" s="4" t="n">
         <v>20642076077.8442</v>
       </c>
-      <c r="AH7" s="13" t="n">
+      <c r="AH7" s="4" t="n">
         <v>23321648594.586</v>
       </c>
-      <c r="AI7" s="13" t="n">
+      <c r="AI7" s="4" t="n">
         <v>21888069170.9824</v>
       </c>
-      <c r="AJ7" s="13" t="n">
+      <c r="AJ7" s="4" t="n">
         <v>21739164076.1566</v>
       </c>
-      <c r="AK7" s="13" t="n">
+      <c r="AK7" s="4" t="n">
         <v>19212876925.027</v>
       </c>
-      <c r="AL7" s="13" t="n">
+      <c r="AL7" s="4" t="n">
         <v>16056713455.1747</v>
       </c>
-      <c r="AM7" s="13" t="n">
+      <c r="AM7" s="4" t="n">
         <v>13369690709.2631</v>
       </c>
-      <c r="AN7" s="13" t="n">
+      <c r="AN7" s="4" t="n">
         <v>12628805322.9511</v>
       </c>
-      <c r="AO7" s="13" t="n">
+      <c r="AO7" s="4" t="n">
         <v>11736193013.387</v>
       </c>
-      <c r="AP7" s="13" t="n">
+      <c r="AP7" s="4" t="n">
         <v>12989923609.5916</v>
       </c>
-      <c r="AQ7" s="13" t="n">
+      <c r="AQ7" s="4" t="n">
         <v>13646109069.0189</v>
       </c>
-      <c r="AR7" s="13" t="n">
+      <c r="AR7" s="4" t="n">
         <v>16203832165.6124</v>
       </c>
-      <c r="AS7" s="13" t="n">
+      <c r="AS7" s="4" t="n">
         <v>18800180733.435</v>
       </c>
-      <c r="AT7" s="13" t="n">
+      <c r="AT7" s="4" t="n">
         <v>18015198425.9633</v>
       </c>
-      <c r="AU7" s="13" t="n">
+      <c r="AU7" s="4" t="n">
         <v>16023394354.8023</v>
       </c>
-      <c r="AV7" s="13" t="n">
+      <c r="AV7" s="4" t="n">
         <v>17416036179.054</v>
       </c>
-      <c r="AW7" s="13" t="n">
+      <c r="AW7" s="4" t="n">
         <v>18747858830.4024</v>
       </c>
-      <c r="AX7" s="13" t="n">
+      <c r="AX7" s="4" t="n">
         <v>18740127596.74</v>
       </c>
-      <c r="AY7" s="13" t="n">
+      <c r="AY7" s="4" t="n">
         <v>7480630679.2</v>
       </c>
-      <c r="AZ7" s="13"/>
+      <c r="AZ7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -9195,99 +9649,99 @@
       <c r="O8" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="13" t="n">
+      <c r="P8" s="4" t="n">
         <v>197000</v>
       </c>
-      <c r="Q8" s="13" t="n">
+      <c r="Q8" s="4" t="n">
         <v>1832000</v>
       </c>
-      <c r="R8" s="13" t="n">
+      <c r="R8" s="4" t="n">
         <v>2709000</v>
       </c>
-      <c r="S8" s="13" t="n">
+      <c r="S8" s="4" t="n">
         <v>7066000</v>
       </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13" t="n">
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W8" s="13" t="n">
+      <c r="W8" s="4" t="n">
         <v>72801046</v>
       </c>
-      <c r="X8" s="13" t="n">
+      <c r="X8" s="4" t="n">
         <v>63211358</v>
       </c>
-      <c r="Y8" s="13" t="n">
+      <c r="Y8" s="4" t="n">
         <v>60720104</v>
       </c>
-      <c r="Z8" s="13" t="n">
+      <c r="Z8" s="4" t="n">
         <v>144576130</v>
       </c>
-      <c r="AA8" s="13" t="n">
+      <c r="AA8" s="4" t="n">
         <v>288748398</v>
       </c>
-      <c r="AB8" s="13" t="n">
+      <c r="AB8" s="4" t="n">
         <v>299545085.5508</v>
       </c>
-      <c r="AC8" s="13" t="n">
+      <c r="AC8" s="4" t="n">
         <v>146085539</v>
       </c>
-      <c r="AD8" s="13" t="n">
+      <c r="AD8" s="4" t="n">
         <v>77671347</v>
       </c>
-      <c r="AE8" s="13" t="n">
+      <c r="AE8" s="4" t="n">
         <v>33326621</v>
       </c>
-      <c r="AF8" s="13" t="n">
+      <c r="AF8" s="4" t="n">
         <v>30209352.1198</v>
       </c>
-      <c r="AG8" s="13" t="n">
+      <c r="AG8" s="4" t="n">
         <v>5203954.7949</v>
       </c>
-      <c r="AH8" s="13" t="n">
+      <c r="AH8" s="4" t="n">
         <v>3039422.4814</v>
       </c>
-      <c r="AI8" s="13" t="n">
+      <c r="AI8" s="4" t="n">
         <v>839351.5308</v>
       </c>
-      <c r="AJ8" s="13" t="n">
+      <c r="AJ8" s="4" t="n">
         <v>2390913.3141</v>
       </c>
-      <c r="AK8" s="13" t="n">
+      <c r="AK8" s="4" t="n">
         <v>231987.43</v>
       </c>
-      <c r="AL8" s="13" t="n">
+      <c r="AL8" s="4" t="n">
         <v>-21710.041</v>
       </c>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13" t="n">
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4" t="n">
         <v>823307.79</v>
       </c>
-      <c r="AO8" s="13" t="n">
+      <c r="AO8" s="4" t="n">
         <v>116751.96</v>
       </c>
-      <c r="AP8" s="13" t="n">
+      <c r="AP8" s="4" t="n">
         <v>20054.1602</v>
       </c>
-      <c r="AQ8" s="13" t="n">
+      <c r="AQ8" s="4" t="n">
         <v>-3169.49</v>
       </c>
-      <c r="AR8" s="13" t="n">
+      <c r="AR8" s="4" t="n">
         <v>526822.287</v>
       </c>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13" t="n">
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4" t="n">
         <v>832221.2852</v>
       </c>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13" t="n">
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4" t="n">
         <v>15204</v>
       </c>
-      <c r="AY8" s="13"/>
-      <c r="AZ8" s="13"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -9298,73 +9752,73 @@
       </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" s="13" t="n">
+      <c r="P9" s="4" t="n">
         <v>19702439894</v>
       </c>
-      <c r="Q9" s="13" t="n">
+      <c r="Q9" s="4" t="n">
         <v>19319790733</v>
       </c>
-      <c r="R9" s="13" t="n">
+      <c r="R9" s="4" t="n">
         <v>19388422483</v>
       </c>
-      <c r="S9" s="13" t="n">
+      <c r="S9" s="4" t="n">
         <v>18242606124</v>
       </c>
-      <c r="T9" s="13" t="n">
+      <c r="T9" s="4" t="n">
         <v>17643820302</v>
       </c>
-      <c r="U9" s="13" t="n">
+      <c r="U9" s="4" t="n">
         <v>18690677727</v>
       </c>
-      <c r="V9" s="13" t="n">
+      <c r="V9" s="4" t="n">
         <v>18181631640</v>
       </c>
-      <c r="W9" s="13" t="n">
+      <c r="W9" s="4" t="n">
         <v>18426200437</v>
       </c>
-      <c r="X9" s="13" t="n">
+      <c r="X9" s="4" t="n">
         <v>17482014443</v>
       </c>
-      <c r="Y9" s="13" t="n">
+      <c r="Y9" s="4" t="n">
         <v>19577458903</v>
       </c>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13" t="n">
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="13" t="n">
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="13" t="n">
+      <c r="AW9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="13" t="n">
+      <c r="AX9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AY9" s="13" t="n">
+      <c r="AY9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ9" s="13"/>
+      <c r="AZ9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -9379,115 +9833,115 @@
       <c r="O10" t="s">
         <v>543</v>
       </c>
-      <c r="P10" s="13" t="str">
+      <c r="P10" s="4" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="13" t="str">
+      <c r="Q10" s="4" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="13" t="str">
+      <c r="R10" s="4" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="13" t="str">
+      <c r="S10" s="4" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="13" t="str">
+      <c r="T10" s="4" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="13" t="str">
+      <c r="U10" s="4" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="13" t="str">
+      <c r="V10" s="4" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="13" t="str">
+      <c r="W10" s="4" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="13" t="str">
+      <c r="X10" s="4" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="13" t="str">
+      <c r="Y10" s="4" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="13" t="str">
+      <c r="Z10" s="4" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="13" t="str">
+      <c r="AA10" s="4" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="13" t="str">
+      <c r="AB10" s="4" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="13" t="str">
+      <c r="AC10" s="4" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="13" t="str">
+      <c r="AD10" s="4" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="13" t="str">
+      <c r="AE10" s="4" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="13" t="str">
+      <c r="AF10" s="4" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="13" t="str">
+      <c r="AG10" s="4" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="13" t="str">
+      <c r="AH10" s="4" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="13" t="str">
+      <c r="AI10" s="4" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="13" t="str">
+      <c r="AJ10" s="4" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="13" t="str">
+      <c r="AK10" s="4" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="13" t="str">
+      <c r="AL10" s="4" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="13" t="str">
+      <c r="AM10" s="4" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="13" t="str">
+      <c r="AN10" s="4" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="13" t="str">
+      <c r="AO10" s="4" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="13" t="str">
+      <c r="AP10" s="4" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="13" t="str">
+      <c r="AQ10" s="4" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="13" t="str">
+      <c r="AR10" s="4" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="13" t="str">
+      <c r="AS10" s="4" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="13" t="str">
+      <c r="AT10" s="4" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="13" t="str">
+      <c r="AU10" s="4" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="13" t="str">
+      <c r="AV10" s="4" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="13" t="str">
+      <c r="AW10" s="4" t="str">
         <f>Sum(AW2:AW9)</f>
       </c>
-      <c r="AX10" s="13" t="str">
+      <c r="AX10" s="4" t="str">
         <f>Sum(AX2:AX9)</f>
       </c>
-      <c r="AY10" s="13" t="str">
+      <c r="AY10" s="4" t="str">
         <f>Sum(AY2:AY9)</f>
       </c>
-      <c r="AZ10" s="13"/>
+      <c r="AZ10" s="4"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -9624,115 +10078,115 @@
       <c r="O14" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="13" t="n">
+      <c r="P14" s="4" t="n">
         <v>576207079.700943</v>
       </c>
-      <c r="Q14" s="13" t="n">
+      <c r="Q14" s="4" t="n">
         <v>427466654.990973</v>
       </c>
-      <c r="R14" s="13" t="n">
+      <c r="R14" s="4" t="n">
         <v>224485288.416207</v>
       </c>
-      <c r="S14" s="13" t="n">
+      <c r="S14" s="4" t="n">
         <v>679071241.264502</v>
       </c>
-      <c r="T14" s="13" t="n">
+      <c r="T14" s="4" t="n">
         <v>266648344.555136</v>
       </c>
-      <c r="U14" s="13" t="n">
+      <c r="U14" s="4" t="n">
         <v>391969851.234557</v>
       </c>
-      <c r="V14" s="13" t="n">
+      <c r="V14" s="4" t="n">
         <v>295315224.469059</v>
       </c>
-      <c r="W14" s="13" t="n">
+      <c r="W14" s="4" t="n">
         <v>3823723021.53385</v>
       </c>
-      <c r="X14" s="13" t="n">
+      <c r="X14" s="4" t="n">
         <v>3744771543.91862</v>
       </c>
-      <c r="Y14" s="13" t="n">
+      <c r="Y14" s="4" t="n">
         <v>3499997348.54281</v>
       </c>
-      <c r="Z14" s="13" t="n">
+      <c r="Z14" s="4" t="n">
         <v>13486290574.8529</v>
       </c>
-      <c r="AA14" s="13" t="n">
+      <c r="AA14" s="4" t="n">
         <v>13657408844.6994</v>
       </c>
-      <c r="AB14" s="13" t="n">
+      <c r="AB14" s="4" t="n">
         <v>14221163704.1373</v>
       </c>
-      <c r="AC14" s="13" t="n">
+      <c r="AC14" s="4" t="n">
         <v>14904569961.4777</v>
       </c>
-      <c r="AD14" s="13" t="n">
+      <c r="AD14" s="4" t="n">
         <v>16884708945.6837</v>
       </c>
-      <c r="AE14" s="13" t="n">
+      <c r="AE14" s="4" t="n">
         <v>19036753201.8749</v>
       </c>
-      <c r="AF14" s="13" t="n">
+      <c r="AF14" s="4" t="n">
         <v>17012356331.0439</v>
       </c>
-      <c r="AG14" s="13" t="n">
+      <c r="AG14" s="4" t="n">
         <v>19400782407.5094</v>
       </c>
-      <c r="AH14" s="13" t="n">
+      <c r="AH14" s="4" t="n">
         <v>19031915114.314</v>
       </c>
-      <c r="AI14" s="13" t="n">
+      <c r="AI14" s="4" t="n">
         <v>18369237634.6821</v>
       </c>
-      <c r="AJ14" s="13" t="n">
+      <c r="AJ14" s="4" t="n">
         <v>18810822667.819</v>
       </c>
-      <c r="AK14" s="13" t="n">
+      <c r="AK14" s="4" t="n">
         <v>19351902989.9477</v>
       </c>
-      <c r="AL14" s="13" t="n">
+      <c r="AL14" s="4" t="n">
         <v>19472011341.262</v>
       </c>
-      <c r="AM14" s="13" t="n">
+      <c r="AM14" s="4" t="n">
         <v>16559327990.8387</v>
       </c>
-      <c r="AN14" s="13" t="n">
+      <c r="AN14" s="4" t="n">
         <v>15600474346.5882</v>
       </c>
-      <c r="AO14" s="13" t="n">
+      <c r="AO14" s="4" t="n">
         <v>15049389228.6168</v>
       </c>
-      <c r="AP14" s="13" t="n">
+      <c r="AP14" s="4" t="n">
         <v>14669922624.0315</v>
       </c>
-      <c r="AQ14" s="13" t="n">
+      <c r="AQ14" s="4" t="n">
         <v>15029299570.408</v>
       </c>
-      <c r="AR14" s="13" t="n">
+      <c r="AR14" s="4" t="n">
         <v>15773273564.4086</v>
       </c>
-      <c r="AS14" s="13" t="n">
+      <c r="AS14" s="4" t="n">
         <v>15336571155.1559</v>
       </c>
-      <c r="AT14" s="13" t="n">
+      <c r="AT14" s="4" t="n">
         <v>15108149216.3148</v>
       </c>
-      <c r="AU14" s="13" t="n">
+      <c r="AU14" s="4" t="n">
         <v>13370543167.0133</v>
       </c>
-      <c r="AV14" s="13" t="n">
+      <c r="AV14" s="4" t="n">
         <v>13590994596.0961</v>
       </c>
-      <c r="AW14" s="13" t="n">
+      <c r="AW14" s="4" t="n">
         <v>12745224505.08</v>
       </c>
-      <c r="AX14" s="13" t="n">
+      <c r="AX14" s="4" t="n">
         <v>12447069903.4922</v>
       </c>
-      <c r="AY14" s="13" t="n">
+      <c r="AY14" s="4" t="n">
         <v>4801666985.69939</v>
       </c>
-      <c r="AZ14" s="13"/>
+      <c r="AZ14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -9747,115 +10201,115 @@
       <c r="O15" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="13" t="n">
+      <c r="P15" s="4" t="n">
         <v>134446599.047277</v>
       </c>
-      <c r="Q15" s="13" t="n">
+      <c r="Q15" s="4" t="n">
         <v>404188886.465239</v>
       </c>
-      <c r="R15" s="13" t="n">
+      <c r="R15" s="4" t="n">
         <v>117585398.358301</v>
       </c>
-      <c r="S15" s="13" t="n">
+      <c r="S15" s="4" t="n">
         <v>776618.743040471</v>
       </c>
-      <c r="T15" s="13" t="n">
+      <c r="T15" s="4" t="n">
         <v>82502033.1556725</v>
       </c>
-      <c r="U15" s="13" t="n">
+      <c r="U15" s="4" t="n">
         <v>3009795.28023714</v>
       </c>
-      <c r="V15" s="13" t="n">
+      <c r="V15" s="4" t="n">
         <v>8661992.66401912</v>
       </c>
-      <c r="W15" s="13" t="n">
+      <c r="W15" s="4" t="n">
         <v>28382047.2940416</v>
       </c>
-      <c r="X15" s="13" t="n">
+      <c r="X15" s="4" t="n">
         <v>269609983.899947</v>
       </c>
-      <c r="Y15" s="13" t="n">
+      <c r="Y15" s="4" t="n">
         <v>434119195.154478</v>
       </c>
-      <c r="Z15" s="13" t="n">
+      <c r="Z15" s="4" t="n">
         <v>958213424.990111</v>
       </c>
-      <c r="AA15" s="13" t="n">
+      <c r="AA15" s="4" t="n">
         <v>1085273712.79918</v>
       </c>
-      <c r="AB15" s="13" t="n">
+      <c r="AB15" s="4" t="n">
         <v>1453748170.01654</v>
       </c>
-      <c r="AC15" s="13" t="n">
+      <c r="AC15" s="4" t="n">
         <v>2428120461.89138</v>
       </c>
-      <c r="AD15" s="13" t="n">
+      <c r="AD15" s="4" t="n">
         <v>2563445203.0463</v>
       </c>
-      <c r="AE15" s="13" t="n">
+      <c r="AE15" s="4" t="n">
         <v>2723542539.63915</v>
       </c>
-      <c r="AF15" s="13" t="n">
+      <c r="AF15" s="4" t="n">
         <v>2915213426.64383</v>
       </c>
-      <c r="AG15" s="13" t="n">
+      <c r="AG15" s="4" t="n">
         <v>3063337347.32019</v>
       </c>
-      <c r="AH15" s="13" t="n">
+      <c r="AH15" s="4" t="n">
         <v>3240539051.75752</v>
       </c>
-      <c r="AI15" s="13" t="n">
+      <c r="AI15" s="4" t="n">
         <v>3113998353.69569</v>
       </c>
-      <c r="AJ15" s="13" t="n">
+      <c r="AJ15" s="4" t="n">
         <v>3806943472.80365</v>
       </c>
-      <c r="AK15" s="13" t="n">
+      <c r="AK15" s="4" t="n">
         <v>3208738624.38503</v>
       </c>
-      <c r="AL15" s="13" t="n">
+      <c r="AL15" s="4" t="n">
         <v>2439991548.50111</v>
       </c>
-      <c r="AM15" s="13" t="n">
+      <c r="AM15" s="4" t="n">
         <v>2295647845.18176</v>
       </c>
-      <c r="AN15" s="13" t="n">
+      <c r="AN15" s="4" t="n">
         <v>2260893805.06178</v>
       </c>
-      <c r="AO15" s="13" t="n">
+      <c r="AO15" s="4" t="n">
         <v>2073900222.38324</v>
       </c>
-      <c r="AP15" s="13" t="n">
+      <c r="AP15" s="4" t="n">
         <v>2305986239.33154</v>
       </c>
-      <c r="AQ15" s="13" t="n">
+      <c r="AQ15" s="4" t="n">
         <v>2076661995.02893</v>
       </c>
-      <c r="AR15" s="13" t="n">
+      <c r="AR15" s="4" t="n">
         <v>2522111350.93797</v>
       </c>
-      <c r="AS15" s="13" t="n">
+      <c r="AS15" s="4" t="n">
         <v>2793501541.20498</v>
       </c>
-      <c r="AT15" s="13" t="n">
+      <c r="AT15" s="4" t="n">
         <v>2412925508.49719</v>
       </c>
-      <c r="AU15" s="13" t="n">
+      <c r="AU15" s="4" t="n">
         <v>2217043853.90372</v>
       </c>
-      <c r="AV15" s="13" t="n">
+      <c r="AV15" s="4" t="n">
         <v>2291993867.32785</v>
       </c>
-      <c r="AW15" s="13" t="n">
+      <c r="AW15" s="4" t="n">
         <v>2198074759.53</v>
       </c>
-      <c r="AX15" s="13" t="n">
+      <c r="AX15" s="4" t="n">
         <v>2395993417.5625</v>
       </c>
-      <c r="AY15" s="13" t="n">
+      <c r="AY15" s="4" t="n">
         <v>964828988.002549</v>
       </c>
-      <c r="AZ15" s="13"/>
+      <c r="AZ15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -9870,115 +10324,115 @@
       <c r="O16" t="s">
         <v>66</v>
       </c>
-      <c r="P16" s="13" t="n">
+      <c r="P16" s="4" t="n">
         <v>16562801.7532859</v>
       </c>
-      <c r="Q16" s="13" t="n">
+      <c r="Q16" s="4" t="n">
         <v>4704677.24514277</v>
       </c>
-      <c r="R16" s="13" t="n">
+      <c r="R16" s="4" t="n">
         <v>1373433.61016937</v>
       </c>
-      <c r="S16" s="13" t="n">
+      <c r="S16" s="4" t="n">
         <v>66621.7058980796</v>
       </c>
-      <c r="T16" s="13" t="n">
+      <c r="T16" s="4" t="n">
         <v>6205023.19857177</v>
       </c>
-      <c r="U16" s="13" t="n">
+      <c r="U16" s="4" t="n">
         <v>14275550.2200823</v>
       </c>
-      <c r="V16" s="13" t="n">
+      <c r="V16" s="4" t="n">
         <v>82358.7562101859</v>
       </c>
-      <c r="W16" s="13" t="n">
+      <c r="W16" s="4" t="n">
         <v>5823279.07269935</v>
       </c>
-      <c r="X16" s="13" t="n">
+      <c r="X16" s="4" t="n">
         <v>2221766.08419453</v>
       </c>
-      <c r="Y16" s="13" t="n">
+      <c r="Y16" s="4" t="n">
         <v>1548372.05574042</v>
       </c>
-      <c r="Z16" s="13" t="n">
+      <c r="Z16" s="4" t="n">
         <v>13821669.5291474</v>
       </c>
-      <c r="AA16" s="13" t="n">
+      <c r="AA16" s="4" t="n">
         <v>14986878.7470828</v>
       </c>
-      <c r="AB16" s="13" t="n">
+      <c r="AB16" s="4" t="n">
         <v>36003787.0076358</v>
       </c>
-      <c r="AC16" s="13" t="n">
+      <c r="AC16" s="4" t="n">
         <v>32679480.3382276</v>
       </c>
-      <c r="AD16" s="13" t="n">
+      <c r="AD16" s="4" t="n">
         <v>76556869.3432213</v>
       </c>
-      <c r="AE16" s="13" t="n">
+      <c r="AE16" s="4" t="n">
         <v>16136107.5189557</v>
       </c>
-      <c r="AF16" s="13" t="n">
+      <c r="AF16" s="4" t="n">
         <v>2788593.42816785</v>
       </c>
-      <c r="AG16" s="13" t="n">
+      <c r="AG16" s="4" t="n">
         <v>3836338.33178883</v>
       </c>
-      <c r="AH16" s="13" t="n">
+      <c r="AH16" s="4" t="n">
         <v>1290347.30039844</v>
       </c>
-      <c r="AI16" s="13" t="n">
+      <c r="AI16" s="4" t="n">
         <v>335589.57094935</v>
       </c>
-      <c r="AJ16" s="13" t="n">
+      <c r="AJ16" s="4" t="n">
         <v>193864912.489551</v>
       </c>
-      <c r="AK16" s="13" t="n">
+      <c r="AK16" s="4" t="n">
         <v>745567933.170539</v>
       </c>
-      <c r="AL16" s="13" t="n">
+      <c r="AL16" s="4" t="n">
         <v>2226663213.81204</v>
       </c>
-      <c r="AM16" s="13" t="n">
+      <c r="AM16" s="4" t="n">
         <v>2019115920.40711</v>
       </c>
-      <c r="AN16" s="13" t="n">
+      <c r="AN16" s="4" t="n">
         <v>2546840842.9826</v>
       </c>
-      <c r="AO16" s="13" t="n">
+      <c r="AO16" s="4" t="n">
         <v>2808484028.72331</v>
       </c>
-      <c r="AP16" s="13" t="n">
+      <c r="AP16" s="4" t="n">
         <v>3330362648.11858</v>
       </c>
-      <c r="AQ16" s="13" t="n">
+      <c r="AQ16" s="4" t="n">
         <v>3662271237.9142</v>
       </c>
-      <c r="AR16" s="13" t="n">
+      <c r="AR16" s="4" t="n">
         <v>3257472796.53834</v>
       </c>
-      <c r="AS16" s="13" t="n">
+      <c r="AS16" s="4" t="n">
         <v>3319355862.09623</v>
       </c>
-      <c r="AT16" s="13" t="n">
+      <c r="AT16" s="4" t="n">
         <v>4397380432.89878</v>
       </c>
-      <c r="AU16" s="13" t="n">
+      <c r="AU16" s="4" t="n">
         <v>3703708054.56551</v>
       </c>
-      <c r="AV16" s="13" t="n">
+      <c r="AV16" s="4" t="n">
         <v>3931751589.07365</v>
       </c>
-      <c r="AW16" s="13" t="n">
+      <c r="AW16" s="4" t="n">
         <v>5131997329.1368</v>
       </c>
-      <c r="AX16" s="13" t="n">
+      <c r="AX16" s="4" t="n">
         <v>5984577837.79868</v>
       </c>
-      <c r="AY16" s="13" t="n">
+      <c r="AY16" s="4" t="n">
         <v>2560841176.9551</v>
       </c>
-      <c r="AZ16" s="13"/>
+      <c r="AZ16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -9993,115 +10447,115 @@
       <c r="O17" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="13" t="n">
+      <c r="P17" s="4" t="n">
         <v>72389.867802823</v>
       </c>
-      <c r="Q17" s="13" t="n">
+      <c r="Q17" s="4" t="n">
         <v>449300.670694874</v>
       </c>
-      <c r="R17" s="13" t="n">
+      <c r="R17" s="4" t="n">
         <v>1527336.09981955</v>
       </c>
-      <c r="S17" s="13" t="n">
+      <c r="S17" s="4" t="n">
         <v>666217.058980796</v>
       </c>
-      <c r="T17" s="13" t="n">
+      <c r="T17" s="4" t="n">
         <v>8842763.47151611</v>
       </c>
-      <c r="U17" s="13" t="n">
+      <c r="U17" s="4" t="n">
         <v>35185418.885148</v>
       </c>
-      <c r="V17" s="13" t="n">
+      <c r="V17" s="4" t="n">
         <v>149926954.049669</v>
       </c>
-      <c r="W17" s="13" t="n">
+      <c r="W17" s="4" t="n">
         <v>305903152.328891</v>
       </c>
-      <c r="X17" s="13" t="n">
+      <c r="X17" s="4" t="n">
         <v>848897376.176581</v>
       </c>
-      <c r="Y17" s="13" t="n">
+      <c r="Y17" s="4" t="n">
         <v>1669443596.82287</v>
       </c>
-      <c r="Z17" s="13" t="n">
+      <c r="Z17" s="4" t="n">
         <v>5722402960.5803</v>
       </c>
-      <c r="AA17" s="13" t="n">
+      <c r="AA17" s="4" t="n">
         <v>6034041179.76806</v>
       </c>
-      <c r="AB17" s="13" t="n">
+      <c r="AB17" s="4" t="n">
         <v>7930243642.54414</v>
       </c>
-      <c r="AC17" s="13" t="n">
+      <c r="AC17" s="4" t="n">
         <v>9137304055.93644</v>
       </c>
-      <c r="AD17" s="13" t="n">
+      <c r="AD17" s="4" t="n">
         <v>9541666663.87893</v>
       </c>
-      <c r="AE17" s="13" t="n">
+      <c r="AE17" s="4" t="n">
         <v>8364515050.20587</v>
       </c>
-      <c r="AF17" s="13" t="n">
+      <c r="AF17" s="4" t="n">
         <v>8528535217.75653</v>
       </c>
-      <c r="AG17" s="13" t="n">
+      <c r="AG17" s="4" t="n">
         <v>7207955149.82735</v>
       </c>
-      <c r="AH17" s="13" t="n">
+      <c r="AH17" s="4" t="n">
         <v>6605727698.06455</v>
       </c>
-      <c r="AI17" s="13" t="n">
+      <c r="AI17" s="4" t="n">
         <v>5902794078.63926</v>
       </c>
-      <c r="AJ17" s="13" t="n">
+      <c r="AJ17" s="4" t="n">
         <v>5659983541.16865</v>
       </c>
-      <c r="AK17" s="13" t="n">
+      <c r="AK17" s="4" t="n">
         <v>5686895193.64306</v>
       </c>
-      <c r="AL17" s="13" t="n">
+      <c r="AL17" s="4" t="n">
         <v>5850641034.57599</v>
       </c>
-      <c r="AM17" s="13" t="n">
+      <c r="AM17" s="4" t="n">
         <v>4863995352.64295</v>
       </c>
-      <c r="AN17" s="13" t="n">
+      <c r="AN17" s="4" t="n">
         <v>5215585008.03565</v>
       </c>
-      <c r="AO17" s="13" t="n">
+      <c r="AO17" s="4" t="n">
         <v>4877403313.90458</v>
       </c>
-      <c r="AP17" s="13" t="n">
+      <c r="AP17" s="4" t="n">
         <v>5508519063.98422</v>
       </c>
-      <c r="AQ17" s="13" t="n">
+      <c r="AQ17" s="4" t="n">
         <v>5730822743.51917</v>
       </c>
-      <c r="AR17" s="13" t="n">
+      <c r="AR17" s="4" t="n">
         <v>6548070110.54061</v>
       </c>
-      <c r="AS17" s="13" t="n">
+      <c r="AS17" s="4" t="n">
         <v>7472271277.03569</v>
       </c>
-      <c r="AT17" s="13" t="n">
+      <c r="AT17" s="4" t="n">
         <v>8310150342.29194</v>
       </c>
-      <c r="AU17" s="13" t="n">
+      <c r="AU17" s="4" t="n">
         <v>8133643374.56359</v>
       </c>
-      <c r="AV17" s="13" t="n">
+      <c r="AV17" s="4" t="n">
         <v>8003063911.29453</v>
       </c>
-      <c r="AW17" s="13" t="n">
+      <c r="AW17" s="4" t="n">
         <v>7807578975.3932</v>
       </c>
-      <c r="AX17" s="13" t="n">
+      <c r="AX17" s="4" t="n">
         <v>7539129165.37894</v>
       </c>
-      <c r="AY17" s="13" t="n">
+      <c r="AY17" s="4" t="n">
         <v>2694593669.4376</v>
       </c>
-      <c r="AZ17" s="13"/>
+      <c r="AZ17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -10116,109 +10570,109 @@
       <c r="O18" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13" t="n">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4" t="n">
         <v>117816.620315545</v>
       </c>
-      <c r="R18" s="13" t="n">
+      <c r="R18" s="4" t="n">
         <v>300012.44817884</v>
       </c>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13" t="n">
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="V18" s="13" t="n">
+      <c r="V18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W18" s="13" t="n">
+      <c r="W18" s="4" t="n">
         <v>428477810.408648</v>
       </c>
-      <c r="X18" s="13" t="n">
+      <c r="X18" s="4" t="n">
         <v>664573098.40623</v>
       </c>
-      <c r="Y18" s="13" t="n">
+      <c r="Y18" s="4" t="n">
         <v>1165257191.96522</v>
       </c>
-      <c r="Z18" s="13" t="n">
+      <c r="Z18" s="4" t="n">
         <v>2901956041.20807</v>
       </c>
-      <c r="AA18" s="13" t="n">
+      <c r="AA18" s="4" t="n">
         <v>3559402795.27497</v>
       </c>
-      <c r="AB18" s="13" t="n">
+      <c r="AB18" s="4" t="n">
         <v>3882161729.49219</v>
       </c>
-      <c r="AC18" s="13" t="n">
+      <c r="AC18" s="4" t="n">
         <v>5578372369.68621</v>
       </c>
-      <c r="AD18" s="13" t="n">
+      <c r="AD18" s="4" t="n">
         <v>7087533763.10976</v>
       </c>
-      <c r="AE18" s="13" t="n">
+      <c r="AE18" s="4" t="n">
         <v>8903288102.25301</v>
       </c>
-      <c r="AF18" s="13" t="n">
+      <c r="AF18" s="4" t="n">
         <v>10494206493.5047</v>
       </c>
-      <c r="AG18" s="13" t="n">
+      <c r="AG18" s="4" t="n">
         <v>15354005567.5917</v>
       </c>
-      <c r="AH18" s="13" t="n">
+      <c r="AH18" s="4" t="n">
         <v>17758826075.668</v>
       </c>
-      <c r="AI18" s="13" t="n">
+      <c r="AI18" s="4" t="n">
         <v>18539310311.4877</v>
       </c>
-      <c r="AJ18" s="13" t="n">
+      <c r="AJ18" s="4" t="n">
         <v>18294961469.4403</v>
       </c>
-      <c r="AK18" s="13" t="n">
+      <c r="AK18" s="4" t="n">
         <v>15262927402.4977</v>
       </c>
-      <c r="AL18" s="13" t="n">
+      <c r="AL18" s="4" t="n">
         <v>13939196455.0576</v>
       </c>
-      <c r="AM18" s="13" t="n">
+      <c r="AM18" s="4" t="n">
         <v>10495452009.8811</v>
       </c>
-      <c r="AN18" s="13" t="n">
+      <c r="AN18" s="4" t="n">
         <v>10091840727.1208</v>
       </c>
-      <c r="AO18" s="13" t="n">
+      <c r="AO18" s="4" t="n">
         <v>9999712479.7002</v>
       </c>
-      <c r="AP18" s="13" t="n">
+      <c r="AP18" s="4" t="n">
         <v>11844304687.9873</v>
       </c>
-      <c r="AQ18" s="13" t="n">
+      <c r="AQ18" s="4" t="n">
         <v>12861954411.6345</v>
       </c>
-      <c r="AR18" s="13" t="n">
+      <c r="AR18" s="4" t="n">
         <v>13407264641.0972</v>
       </c>
-      <c r="AS18" s="13" t="n">
+      <c r="AS18" s="4" t="n">
         <v>13445427623.318</v>
       </c>
-      <c r="AT18" s="13" t="n">
+      <c r="AT18" s="4" t="n">
         <v>12984573378.4326</v>
       </c>
-      <c r="AU18" s="13" t="n">
+      <c r="AU18" s="4" t="n">
         <v>10161420030.8002</v>
       </c>
-      <c r="AV18" s="13" t="n">
+      <c r="AV18" s="4" t="n">
         <v>9948143260.29141</v>
       </c>
-      <c r="AW18" s="13" t="n">
+      <c r="AW18" s="4" t="n">
         <v>9678912907.9636</v>
       </c>
-      <c r="AX18" s="13" t="n">
+      <c r="AX18" s="4" t="n">
         <v>9953984759.42511</v>
       </c>
-      <c r="AY18" s="13" t="n">
+      <c r="AY18" s="4" t="n">
         <v>3914655409.65681</v>
       </c>
-      <c r="AZ18" s="13"/>
+      <c r="AZ18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -10233,115 +10687,115 @@
       <c r="O19" t="s">
         <v>69</v>
       </c>
-      <c r="P19" s="13" t="n">
+      <c r="P19" s="4" t="n">
         <v>5096246.69331874</v>
       </c>
-      <c r="Q19" s="13" t="n">
+      <c r="Q19" s="4" t="n">
         <v>7310621.13517304</v>
       </c>
-      <c r="R19" s="13" t="n">
+      <c r="R19" s="4" t="n">
         <v>20829435.6878452</v>
       </c>
-      <c r="S19" s="13" t="n">
+      <c r="S19" s="4" t="n">
         <v>13590828.0032082</v>
       </c>
-      <c r="T19" s="13" t="n">
+      <c r="T19" s="4" t="n">
         <v>1859085.30536614</v>
       </c>
-      <c r="U19" s="13" t="n">
+      <c r="U19" s="4" t="n">
         <v>1911676.0325385</v>
       </c>
-      <c r="V19" s="13" t="n">
+      <c r="V19" s="4" t="n">
         <v>6372061.15982721</v>
       </c>
-      <c r="W19" s="13" t="n">
+      <c r="W19" s="4" t="n">
         <v>1556843605.45171</v>
       </c>
-      <c r="X19" s="13" t="n">
+      <c r="X19" s="4" t="n">
         <v>2430605549.69243</v>
       </c>
-      <c r="Y19" s="13" t="n">
+      <c r="Y19" s="4" t="n">
         <v>4252703659.04456</v>
       </c>
-      <c r="Z19" s="13" t="n">
+      <c r="Z19" s="4" t="n">
         <v>11562696884.7109</v>
       </c>
-      <c r="AA19" s="13" t="n">
+      <c r="AA19" s="4" t="n">
         <v>11920446924.4484</v>
       </c>
-      <c r="AB19" s="13" t="n">
+      <c r="AB19" s="4" t="n">
         <v>13690415057.4122</v>
       </c>
-      <c r="AC19" s="13" t="n">
+      <c r="AC19" s="4" t="n">
         <v>17599418630.1943</v>
       </c>
-      <c r="AD19" s="13" t="n">
+      <c r="AD19" s="4" t="n">
         <v>21815602003.4837</v>
       </c>
-      <c r="AE19" s="13" t="n">
+      <c r="AE19" s="4" t="n">
         <v>24341259221.9214</v>
       </c>
-      <c r="AF19" s="13" t="n">
+      <c r="AF19" s="4" t="n">
         <v>26760493455.8992</v>
       </c>
-      <c r="AG19" s="13" t="n">
+      <c r="AG19" s="4" t="n">
         <v>29224985240.3809</v>
       </c>
-      <c r="AH19" s="13" t="n">
+      <c r="AH19" s="4" t="n">
         <v>32347161036.1198</v>
       </c>
-      <c r="AI19" s="13" t="n">
+      <c r="AI19" s="4" t="n">
         <v>30051474549.2149</v>
       </c>
-      <c r="AJ19" s="13" t="n">
+      <c r="AJ19" s="4" t="n">
         <v>29590764471.4963</v>
       </c>
-      <c r="AK19" s="13" t="n">
+      <c r="AK19" s="4" t="n">
         <v>25637471444.4563</v>
       </c>
-      <c r="AL19" s="13" t="n">
+      <c r="AL19" s="4" t="n">
         <v>21044052096.03</v>
       </c>
-      <c r="AM19" s="13" t="n">
+      <c r="AM19" s="4" t="n">
         <v>17210145990.9482</v>
       </c>
-      <c r="AN19" s="13" t="n">
+      <c r="AN19" s="4" t="n">
         <v>15965185022.8063</v>
       </c>
-      <c r="AO19" s="13" t="n">
+      <c r="AO19" s="4" t="n">
         <v>14684676928.253</v>
       </c>
-      <c r="AP19" s="13" t="n">
+      <c r="AP19" s="4" t="n">
         <v>16124465890.7977</v>
       </c>
-      <c r="AQ19" s="13" t="n">
+      <c r="AQ19" s="4" t="n">
         <v>16657805343.7513</v>
       </c>
-      <c r="AR19" s="13" t="n">
+      <c r="AR19" s="4" t="n">
         <v>19350438189.9957</v>
       </c>
-      <c r="AS19" s="13" t="n">
+      <c r="AS19" s="4" t="n">
         <v>22043397013.4823</v>
       </c>
-      <c r="AT19" s="13" t="n">
+      <c r="AT19" s="4" t="n">
         <v>20850623604.1646</v>
       </c>
-      <c r="AU19" s="13" t="n">
+      <c r="AU19" s="4" t="n">
         <v>17928283674.4991</v>
       </c>
-      <c r="AV19" s="13" t="n">
+      <c r="AV19" s="4" t="n">
         <v>18212760527.7422</v>
       </c>
-      <c r="AW19" s="13" t="n">
+      <c r="AW19" s="4" t="n">
         <v>18747858830.4024</v>
       </c>
-      <c r="AX19" s="13" t="n">
+      <c r="AX19" s="4" t="n">
         <v>18252671958.4497</v>
       </c>
-      <c r="AY19" s="13" t="n">
+      <c r="AY19" s="4" t="n">
         <v>7129611079.35684</v>
       </c>
-      <c r="AZ19" s="13"/>
+      <c r="AZ19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -10356,99 +10810,99 @@
       <c r="O20" t="s">
         <v>70</v>
       </c>
-      <c r="P20" s="13" t="n">
+      <c r="P20" s="4" t="n">
         <v>407451.541633032</v>
       </c>
-      <c r="Q20" s="13" t="n">
+      <c r="Q20" s="4" t="n">
         <v>3658305.90539115</v>
       </c>
-      <c r="R20" s="13" t="n">
+      <c r="R20" s="4" t="n">
         <v>5277491.70205505</v>
       </c>
-      <c r="S20" s="13" t="n">
+      <c r="S20" s="4" t="n">
         <v>13449970.6821666</v>
       </c>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13" t="n">
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W20" s="13" t="n">
+      <c r="W20" s="4" t="n">
         <v>128070668.520252</v>
       </c>
-      <c r="X20" s="13" t="n">
+      <c r="X20" s="4" t="n">
         <v>109823661.788556</v>
       </c>
-      <c r="Y20" s="13" t="n">
+      <c r="Y20" s="4" t="n">
         <v>104205020.26664</v>
       </c>
-      <c r="Z20" s="13" t="n">
+      <c r="Z20" s="4" t="n">
         <v>243057542.784228</v>
       </c>
-      <c r="AA20" s="13" t="n">
+      <c r="AA20" s="4" t="n">
         <v>473948055.989703</v>
       </c>
-      <c r="AB20" s="13" t="n">
+      <c r="AB20" s="4" t="n">
         <v>484054389.787809</v>
       </c>
-      <c r="AC20" s="13" t="n">
+      <c r="AC20" s="4" t="n">
         <v>231623090.4593</v>
       </c>
-      <c r="AD20" s="13" t="n">
+      <c r="AD20" s="4" t="n">
         <v>120214800.668203</v>
       </c>
-      <c r="AE20" s="13" t="n">
+      <c r="AE20" s="4" t="n">
         <v>50057593.5482777</v>
       </c>
-      <c r="AF20" s="13" t="n">
+      <c r="AF20" s="4" t="n">
         <v>43947748.9189291</v>
       </c>
-      <c r="AG20" s="13" t="n">
+      <c r="AG20" s="4" t="n">
         <v>7367742.54193358</v>
       </c>
-      <c r="AH20" s="13" t="n">
+      <c r="AH20" s="4" t="n">
         <v>4215683.46954136</v>
       </c>
-      <c r="AI20" s="13" t="n">
+      <c r="AI20" s="4" t="n">
         <v>1152397.27034126</v>
       </c>
-      <c r="AJ20" s="13" t="n">
+      <c r="AJ20" s="4" t="n">
         <v>3254446.79020086</v>
       </c>
-      <c r="AK20" s="13" t="n">
+      <c r="AK20" s="4" t="n">
         <v>309561.714016416</v>
       </c>
-      <c r="AL20" s="13" t="n">
+      <c r="AL20" s="4" t="n">
         <v>-28453.3466382381</v>
       </c>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13" t="n">
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4" t="n">
         <v>1040815.88574177</v>
       </c>
-      <c r="AO20" s="13" t="n">
+      <c r="AO20" s="4" t="n">
         <v>146083.556344438</v>
       </c>
-      <c r="AP20" s="13" t="n">
+      <c r="AP20" s="4" t="n">
         <v>24893.3428580538</v>
       </c>
-      <c r="AQ20" s="13" t="n">
+      <c r="AQ20" s="4" t="n">
         <v>-3868.99644374323</v>
       </c>
-      <c r="AR20" s="13" t="n">
+      <c r="AR20" s="4" t="n">
         <v>629125.382040169</v>
       </c>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13"/>
-      <c r="AU20" s="13" t="n">
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4" t="n">
         <v>931157.216170623</v>
       </c>
-      <c r="AV20" s="13"/>
-      <c r="AW20" s="13"/>
-      <c r="AX20" s="13" t="n">
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4" t="n">
         <v>14808.5237426316</v>
       </c>
-      <c r="AY20" s="13"/>
-      <c r="AZ20" s="13"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -10459,73 +10913,73 @@
       </c>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="13" t="n">
+      <c r="P21" s="4" t="n">
         <v>40750200551.9922</v>
       </c>
-      <c r="Q21" s="13" t="n">
+      <c r="Q21" s="4" t="n">
         <v>38579533040.0956</v>
       </c>
-      <c r="R21" s="13" t="n">
+      <c r="R21" s="4" t="n">
         <v>37771221399.0292</v>
       </c>
-      <c r="S21" s="13" t="n">
+      <c r="S21" s="4" t="n">
         <v>34724386857.361</v>
       </c>
-      <c r="T21" s="13" t="n">
+      <c r="T21" s="4" t="n">
         <v>32867101256.482</v>
       </c>
-      <c r="U21" s="13" t="n">
+      <c r="U21" s="4" t="n">
         <v>34094008246.7625</v>
       </c>
-      <c r="V21" s="13" t="n">
+      <c r="V21" s="4" t="n">
         <v>32552534081.3514</v>
       </c>
-      <c r="W21" s="13" t="n">
+      <c r="W21" s="4" t="n">
         <v>32415136016.7922</v>
       </c>
-      <c r="X21" s="13" t="n">
+      <c r="X21" s="4" t="n">
         <v>30373320591.6994</v>
       </c>
-      <c r="Y21" s="13" t="n">
+      <c r="Y21" s="4" t="n">
         <v>33597925025.8932</v>
       </c>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="13"/>
-      <c r="AR21" s="13"/>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13" t="n">
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="13" t="n">
+      <c r="AU21" s="4"/>
+      <c r="AV21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="13" t="n">
+      <c r="AW21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="13" t="n">
+      <c r="AX21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AY21" s="13" t="n">
+      <c r="AY21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ21" s="13"/>
+      <c r="AZ21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -10534,43 +10988,43 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="13"/>
-      <c r="AZ22" s="13"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
@@ -1696,18 +1696,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="211" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="210" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="209" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="208" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="212" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1745,11 +1745,11 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="211" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="210" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="209" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="208" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1757,7 +1757,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="212" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
